--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20년 주식목표" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,15 +23,11 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -79,11 +75,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M243"/>
+  <dimension ref="A2:N243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="K126" sqref="K126"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="N244" sqref="N244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -376,13 +372,13 @@
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
     <col min="12" max="13" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>0</v>
       </c>
@@ -393,11 +389,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2022</v>
       </c>
       <c r="C3">
@@ -417,12 +413,12 @@
         <f xml:space="preserve"> (E3 * F3) + E3</f>
         <v>5000000</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
       <c r="C4">
         <v>2</v>
       </c>
@@ -440,12 +436,12 @@
         <f xml:space="preserve"> (E4 * F4) + E4</f>
         <v>5000000</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
       <c r="C5">
         <v>3</v>
       </c>
@@ -463,12 +459,12 @@
         <f xml:space="preserve"> (E5 * F5) + E5</f>
         <v>5250000</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>4</v>
       </c>
@@ -486,12 +482,12 @@
         <f t="shared" ref="G6:G14" si="1" xml:space="preserve"> (E6 * F6) + E6</f>
         <v>7750000</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>5</v>
       </c>
@@ -509,12 +505,12 @@
         <f t="shared" si="1"/>
         <v>10250000</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>6</v>
       </c>
@@ -532,12 +528,12 @@
         <f t="shared" si="1"/>
         <v>13387500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>7</v>
       </c>
@@ -555,12 +551,12 @@
         <f t="shared" si="1"/>
         <v>15887500</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>8</v>
       </c>
@@ -578,12 +574,12 @@
         <f t="shared" si="1"/>
         <v>18387500</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>9</v>
       </c>
@@ -601,12 +597,12 @@
         <f t="shared" si="1"/>
         <v>21931875</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>10</v>
       </c>
@@ -624,12 +620,12 @@
         <f t="shared" si="1"/>
         <v>24431875</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
       <c r="C13">
         <v>11</v>
       </c>
@@ -647,12 +643,12 @@
         <f t="shared" si="1"/>
         <v>26931875</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
       <c r="C14">
         <v>12</v>
       </c>
@@ -670,7 +666,7 @@
         <f t="shared" si="1"/>
         <v>30903468.75</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1">
@@ -692,12 +688,16 @@
         <f xml:space="preserve"> J14 - L14</f>
         <v>309100</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <f xml:space="preserve"> J14 / I14 * 100</f>
+        <v>7.0250000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>2023</v>
       </c>
       <c r="C15">
@@ -717,12 +717,12 @@
         <f xml:space="preserve"> (E15 * F15) + E15</f>
         <v>33403468.75</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>2</v>
       </c>
@@ -740,12 +740,12 @@
         <f xml:space="preserve"> (E16 * F16) + E16</f>
         <v>35903468.75</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>3</v>
       </c>
@@ -763,12 +763,12 @@
         <f xml:space="preserve"> (E17 * F17) + E17</f>
         <v>40323642.1875</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
       <c r="C18">
         <v>4</v>
       </c>
@@ -786,12 +786,12 @@
         <f t="shared" ref="G18:G26" si="2" xml:space="preserve"> (E18 * F18) + E18</f>
         <v>42823642.1875</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
       <c r="C19">
         <v>5</v>
       </c>
@@ -809,12 +809,12 @@
         <f t="shared" si="2"/>
         <v>45014542.1875</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>309100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
       <c r="C20">
         <v>6</v>
       </c>
@@ -832,12 +832,12 @@
         <f t="shared" si="2"/>
         <v>49890269.296875</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
       <c r="C21">
         <v>7</v>
       </c>
@@ -855,12 +855,12 @@
         <f t="shared" si="2"/>
         <v>52390269.296875</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
       <c r="C22">
         <v>8</v>
       </c>
@@ -878,12 +878,12 @@
         <f t="shared" si="2"/>
         <v>54890269.296875</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
       <c r="C23">
         <v>9</v>
       </c>
@@ -901,12 +901,12 @@
         <f t="shared" si="2"/>
         <v>60259782.76171875</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
       <c r="C24">
         <v>10</v>
       </c>
@@ -924,12 +924,12 @@
         <f t="shared" si="2"/>
         <v>62759782.76171875</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
       <c r="C25">
         <v>11</v>
       </c>
@@ -947,12 +947,12 @@
         <f t="shared" si="2"/>
         <v>65259782.76171875</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
       <c r="C26">
         <v>12</v>
       </c>
@@ -970,7 +970,7 @@
         <f t="shared" si="2"/>
         <v>71147771.899804682</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1">
@@ -992,12 +992,16 @@
         <f xml:space="preserve"> J26 - L26</f>
         <v>1146466.2418750003</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <f xml:space="preserve"> J26 / I26 * 100</f>
+        <v>11.825214387960351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>2024</v>
       </c>
       <c r="C27">
@@ -1017,12 +1021,12 @@
         <f xml:space="preserve"> (E27 * F27) + E27</f>
         <v>73647771.899804682</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
       <c r="C28">
         <v>2</v>
       </c>
@@ -1040,12 +1044,12 @@
         <f xml:space="preserve"> (E28 * F28) + E28</f>
         <v>76147771.899804682</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
       <c r="C29">
         <v>3</v>
       </c>
@@ -1063,12 +1067,12 @@
         <f xml:space="preserve"> (E29 * F29) + E29</f>
         <v>82580160.49479492</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
       <c r="C30">
         <v>4</v>
       </c>
@@ -1086,12 +1090,12 @@
         <f t="shared" ref="G30:G38" si="3" xml:space="preserve"> (E30 * F30) + E30</f>
         <v>85080160.49479492</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
       <c r="C31">
         <v>5</v>
       </c>
@@ -1109,12 +1113,12 @@
         <f t="shared" si="3"/>
         <v>86433694.49479492</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>1146466</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
       <c r="C32">
         <v>6</v>
       </c>
@@ -1132,12 +1136,12 @@
         <f t="shared" si="3"/>
         <v>93380379.219534665</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
       <c r="C33">
         <v>7</v>
       </c>
@@ -1155,12 +1159,12 @@
         <f t="shared" si="3"/>
         <v>95880379.219534665</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
       <c r="C34">
         <v>8</v>
       </c>
@@ -1178,12 +1182,12 @@
         <f t="shared" si="3"/>
         <v>98380379.219534665</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
       <c r="C35">
         <v>9</v>
       </c>
@@ -1201,12 +1205,12 @@
         <f t="shared" si="3"/>
         <v>105924398.1805114</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
       <c r="C36">
         <v>10</v>
       </c>
@@ -1224,12 +1228,12 @@
         <f t="shared" si="3"/>
         <v>108424398.1805114</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
       <c r="C37">
         <v>11</v>
       </c>
@@ -1247,12 +1251,12 @@
         <f t="shared" si="3"/>
         <v>110924398.1805114</v>
       </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
       <c r="C38">
         <v>12</v>
       </c>
@@ -1270,7 +1274,7 @@
         <f t="shared" si="3"/>
         <v>119095618.08953696</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="1">
@@ -1292,12 +1296,16 @@
         <f xml:space="preserve"> J38 - L38</f>
         <v>2147694.7649130747</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <f xml:space="preserve"> J38 / I38 * 100</f>
+        <v>13.422916990859951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>2025</v>
       </c>
       <c r="C39">
@@ -1317,12 +1325,12 @@
         <f t="shared" ref="G39:G102" si="4" xml:space="preserve"> (E39 * F39) + E39</f>
         <v>71595618.089536965</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>50000000</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
       <c r="C40">
         <v>2</v>
       </c>
@@ -1340,12 +1348,12 @@
         <f t="shared" si="4"/>
         <v>74095618.089536965</v>
       </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
       <c r="C41">
         <v>3</v>
       </c>
@@ -1363,12 +1371,12 @@
         <f t="shared" si="4"/>
         <v>80425398.994013816</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
       <c r="C42">
         <v>4</v>
       </c>
@@ -1386,12 +1394,12 @@
         <f t="shared" si="4"/>
         <v>82925398.994013816</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
       <c r="C43">
         <v>5</v>
       </c>
@@ -1409,12 +1417,12 @@
         <f t="shared" si="4"/>
         <v>83277703.994013816</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>2147695</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
       <c r="C44">
         <v>6</v>
       </c>
@@ -1432,12 +1440,12 @@
         <f t="shared" si="4"/>
         <v>90066589.193714499</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
       <c r="C45">
         <v>7</v>
       </c>
@@ -1455,12 +1463,12 @@
         <f t="shared" si="4"/>
         <v>92566589.193714499</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
       <c r="C46">
         <v>8</v>
       </c>
@@ -1478,12 +1486,12 @@
         <f t="shared" si="4"/>
         <v>95066589.193714499</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
       <c r="C47">
         <v>9</v>
       </c>
@@ -1501,12 +1509,12 @@
         <f t="shared" si="4"/>
         <v>102444918.65340023</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
       <c r="C48">
         <v>10</v>
       </c>
@@ -1524,12 +1532,12 @@
         <f t="shared" si="4"/>
         <v>104944918.65340023</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
       <c r="C49">
         <v>11</v>
       </c>
@@ -1547,12 +1555,12 @@
         <f t="shared" si="4"/>
         <v>107444918.65340023</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
       <c r="C50">
         <v>12</v>
       </c>
@@ -1570,7 +1578,7 @@
         <f t="shared" si="4"/>
         <v>115442164.58607024</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="1">
@@ -1592,12 +1600,16 @@
         <f xml:space="preserve"> J50 - L50</f>
         <v>2079519.2902181223</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <f xml:space="preserve"> J50 / I50 * 100</f>
+        <v>13.406161936919258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>2026</v>
       </c>
       <c r="C51">
@@ -1617,12 +1629,12 @@
         <f t="shared" si="4"/>
         <v>117942164.58607024</v>
       </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
       <c r="C52">
         <v>2</v>
       </c>
@@ -1640,12 +1652,12 @@
         <f t="shared" si="4"/>
         <v>120442164.58607024</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
       <c r="C53">
         <v>3</v>
       </c>
@@ -1663,12 +1675,12 @@
         <f t="shared" si="4"/>
         <v>129089272.81537375</v>
       </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
       <c r="C54">
         <v>4</v>
       </c>
@@ -1686,12 +1698,12 @@
         <f t="shared" si="4"/>
         <v>131589272.81537375</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="3"/>
       <c r="C55">
         <v>5</v>
       </c>
@@ -1709,12 +1721,12 @@
         <f t="shared" si="4"/>
         <v>132009753.81537375</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>2079519</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
       <c r="C56">
         <v>6</v>
       </c>
@@ -1732,12 +1744,12 @@
         <f t="shared" si="4"/>
         <v>141235241.50614244</v>
       </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
       <c r="C57">
         <v>7</v>
       </c>
@@ -1755,12 +1767,12 @@
         <f t="shared" si="4"/>
         <v>143735241.50614244</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
       <c r="C58">
         <v>8</v>
       </c>
@@ -1778,12 +1790,12 @@
         <f t="shared" si="4"/>
         <v>146235241.50614244</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
       <c r="C59">
         <v>9</v>
       </c>
@@ -1801,12 +1813,12 @@
         <f t="shared" si="4"/>
         <v>156172003.58144957</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
       <c r="C60">
         <v>10</v>
       </c>
@@ -1824,12 +1836,12 @@
         <f t="shared" si="4"/>
         <v>158672003.58144957</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
       <c r="C61">
         <v>11</v>
       </c>
@@ -1847,12 +1859,12 @@
         <f t="shared" si="4"/>
         <v>161172003.58144957</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
       <c r="C62">
         <v>12</v>
       </c>
@@ -1870,7 +1882,7 @@
         <f t="shared" si="4"/>
         <v>171855603.76052204</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="1">
@@ -1892,12 +1904,16 @@
         <f xml:space="preserve"> J62 - L62</f>
         <v>3249497.279260695</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <f xml:space="preserve"> J62 / I62 * 100</f>
+        <v>14.166422440346398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>2027</v>
       </c>
       <c r="C63">
@@ -1917,12 +1933,12 @@
         <f t="shared" si="4"/>
         <v>174355603.76052204</v>
       </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
       <c r="C64">
         <v>2</v>
       </c>
@@ -1940,12 +1956,12 @@
         <f t="shared" si="4"/>
         <v>176855603.76052204</v>
       </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
       <c r="C65">
         <v>3</v>
       </c>
@@ -1963,12 +1979,12 @@
         <f t="shared" si="4"/>
         <v>188323383.94854814</v>
       </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
       <c r="C66">
         <v>4</v>
       </c>
@@ -1986,12 +2002,12 @@
         <f t="shared" si="4"/>
         <v>190823383.94854814</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
       <c r="C67">
         <v>5</v>
       </c>
@@ -2009,12 +2025,12 @@
         <f t="shared" si="4"/>
         <v>193323383.94854814</v>
       </c>
-      <c r="H67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
       <c r="C68">
         <v>6</v>
       </c>
@@ -2032,12 +2048,12 @@
         <f t="shared" si="4"/>
         <v>202202581.29597554</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>3249497</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
       <c r="C69">
         <v>7</v>
       </c>
@@ -2055,12 +2071,12 @@
         <f t="shared" si="4"/>
         <v>204702581.29597554</v>
       </c>
-      <c r="H69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
       <c r="C70">
         <v>8</v>
       </c>
@@ -2078,12 +2094,12 @@
         <f t="shared" si="4"/>
         <v>207202581.29597554</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
       <c r="C71">
         <v>9</v>
       </c>
@@ -2101,12 +2117,12 @@
         <f t="shared" si="4"/>
         <v>220187710.36077431</v>
       </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
       <c r="C72">
         <v>10</v>
       </c>
@@ -2124,12 +2140,12 @@
         <f t="shared" si="4"/>
         <v>222687710.36077431</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
       <c r="C73">
         <v>11</v>
       </c>
@@ -2147,12 +2163,12 @@
         <f t="shared" si="4"/>
         <v>225187710.36077431</v>
       </c>
-      <c r="H73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
       <c r="C74">
         <v>12</v>
       </c>
@@ -2170,7 +2186,7 @@
         <f t="shared" si="4"/>
         <v>239072095.87881303</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <v>0</v>
       </c>
       <c r="I74" s="1">
@@ -2192,12 +2208,16 @@
         <f xml:space="preserve"> J74 - L74</f>
         <v>4653056.5760403648</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <f xml:space="preserve"> J74 / I74 * 100</f>
+        <v>14.642854680857663</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>2028</v>
       </c>
       <c r="C75">
@@ -2217,12 +2237,12 @@
         <f t="shared" si="4"/>
         <v>241572095.87881303</v>
       </c>
-      <c r="H75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
       <c r="C76">
         <v>2</v>
       </c>
@@ -2240,12 +2260,12 @@
         <f t="shared" si="4"/>
         <v>244072095.87881303</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="3"/>
       <c r="C77">
         <v>3</v>
       </c>
@@ -2263,12 +2283,12 @@
         <f t="shared" si="4"/>
         <v>258900700.67275369</v>
       </c>
-      <c r="H77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B78" s="3"/>
       <c r="C78">
         <v>4</v>
       </c>
@@ -2286,12 +2306,12 @@
         <f t="shared" si="4"/>
         <v>261400700.67275369</v>
       </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="2"/>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
       <c r="C79">
         <v>5</v>
       </c>
@@ -2309,12 +2329,12 @@
         <f t="shared" si="4"/>
         <v>259247643.67275369</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="2">
         <v>4653057</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="3"/>
       <c r="C80">
         <v>6</v>
       </c>
@@ -2332,12 +2352,12 @@
         <f t="shared" si="4"/>
         <v>274835025.85639137</v>
       </c>
-      <c r="H80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="2"/>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
       <c r="C81">
         <v>7</v>
       </c>
@@ -2355,12 +2375,12 @@
         <f t="shared" si="4"/>
         <v>277335025.85639137</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="3"/>
       <c r="C82">
         <v>8</v>
       </c>
@@ -2378,12 +2398,12 @@
         <f t="shared" si="4"/>
         <v>279835025.85639137</v>
       </c>
-      <c r="H82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B83" s="3"/>
       <c r="C83">
         <v>9</v>
       </c>
@@ -2401,12 +2421,12 @@
         <f t="shared" si="4"/>
         <v>296451777.14921093</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B84" s="3"/>
       <c r="C84">
         <v>10</v>
       </c>
@@ -2424,12 +2444,12 @@
         <f t="shared" si="4"/>
         <v>298951777.14921093</v>
       </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="3"/>
       <c r="C85">
         <v>11</v>
       </c>
@@ -2447,12 +2467,12 @@
         <f t="shared" si="4"/>
         <v>301451777.14921093</v>
       </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="3"/>
       <c r="C86">
         <v>12</v>
       </c>
@@ -2470,7 +2490,7 @@
         <f t="shared" si="4"/>
         <v>319149366.00667149</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="2">
         <v>0</v>
       </c>
       <c r="I86" s="1">
@@ -2492,12 +2512,16 @@
         <f xml:space="preserve"> J86 - L86</f>
         <v>6325238.1232636645</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <f xml:space="preserve"> J86 / I86 * 100</f>
+        <v>14.950791152567616</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>2029</v>
       </c>
       <c r="C87">
@@ -2517,12 +2541,12 @@
         <f t="shared" si="4"/>
         <v>321649366.00667149</v>
       </c>
-      <c r="H87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="3"/>
       <c r="C88">
         <v>2</v>
       </c>
@@ -2540,12 +2564,12 @@
         <f t="shared" si="4"/>
         <v>324149366.00667149</v>
       </c>
-      <c r="H88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="3"/>
       <c r="C89">
         <v>3</v>
       </c>
@@ -2563,12 +2587,12 @@
         <f t="shared" si="4"/>
         <v>342981834.30700505</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="2"/>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="3"/>
       <c r="C90">
         <v>4</v>
       </c>
@@ -2586,12 +2610,12 @@
         <f t="shared" si="4"/>
         <v>345481834.30700505</v>
       </c>
-      <c r="H90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="3"/>
       <c r="C91">
         <v>5</v>
       </c>
@@ -2609,12 +2633,12 @@
         <f t="shared" si="4"/>
         <v>341656596.30700505</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="2">
         <v>6325238</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="2"/>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B92" s="3"/>
       <c r="C92">
         <v>6</v>
       </c>
@@ -2632,12 +2656,12 @@
         <f t="shared" si="4"/>
         <v>361364426.12235528</v>
       </c>
-      <c r="H92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B93" s="3"/>
       <c r="C93">
         <v>7</v>
       </c>
@@ -2655,12 +2679,12 @@
         <f t="shared" si="4"/>
         <v>363864426.12235528</v>
       </c>
-      <c r="H93" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="2"/>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
       <c r="C94">
         <v>8</v>
       </c>
@@ -2678,12 +2702,12 @@
         <f t="shared" si="4"/>
         <v>366364426.12235528</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="2"/>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="3"/>
       <c r="C95">
         <v>9</v>
       </c>
@@ -2701,12 +2725,12 @@
         <f t="shared" si="4"/>
         <v>387307647.42847306</v>
       </c>
-      <c r="H95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="2"/>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B96" s="3"/>
       <c r="C96">
         <v>10</v>
       </c>
@@ -2724,12 +2748,12 @@
         <f t="shared" si="4"/>
         <v>389807647.42847306</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B97" s="3"/>
       <c r="C97">
         <v>11</v>
       </c>
@@ -2747,12 +2771,12 @@
         <f t="shared" si="4"/>
         <v>392307647.42847306</v>
       </c>
-      <c r="H97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B98" s="2"/>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B98" s="3"/>
       <c r="C98">
         <v>12</v>
       </c>
@@ -2770,7 +2794,7 @@
         <f t="shared" si="4"/>
         <v>414548029.79989672</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="2">
         <v>0</v>
       </c>
       <c r="I98" s="1">
@@ -2792,12 +2816,16 @@
         <f xml:space="preserve"> J98 - L98</f>
         <v>12995879.855450392</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N98">
+        <f xml:space="preserve"> J98 / I98 * 100</f>
+        <v>15.163319957686861</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <v>2030</v>
       </c>
       <c r="C99">
@@ -2817,12 +2845,12 @@
         <f t="shared" si="4"/>
         <v>417048029.79989672</v>
       </c>
-      <c r="H99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B100" s="2"/>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B100" s="3"/>
       <c r="C100">
         <v>2</v>
       </c>
@@ -2840,12 +2868,12 @@
         <f t="shared" si="4"/>
         <v>419548029.79989672</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
       <c r="C101">
         <v>3</v>
       </c>
@@ -2863,12 +2891,12 @@
         <f t="shared" si="4"/>
         <v>443150431.28989154</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
       <c r="C102">
         <v>4</v>
       </c>
@@ -2886,12 +2914,12 @@
         <f t="shared" si="4"/>
         <v>445650431.28989154</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B103" s="2"/>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="3"/>
       <c r="C103">
         <v>5</v>
       </c>
@@ -2909,12 +2937,12 @@
         <f t="shared" ref="G103:G122" si="6" xml:space="preserve"> (E103 * F103) + E103</f>
         <v>435154551.28989154</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="2">
         <v>12995880</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="3"/>
       <c r="C104">
         <v>6</v>
       </c>
@@ -2932,12 +2960,12 @@
         <f t="shared" si="6"/>
         <v>459537278.85438609</v>
       </c>
-      <c r="H104" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B105" s="2"/>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="3"/>
       <c r="C105">
         <v>7</v>
       </c>
@@ -2955,12 +2983,12 @@
         <f t="shared" si="6"/>
         <v>462037278.85438609</v>
       </c>
-      <c r="H105" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="3"/>
       <c r="C106">
         <v>8</v>
       </c>
@@ -2978,12 +3006,12 @@
         <f t="shared" si="6"/>
         <v>464537278.85438609</v>
       </c>
-      <c r="H106" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="3"/>
       <c r="C107">
         <v>9</v>
       </c>
@@ -3001,12 +3029,12 @@
         <f t="shared" si="6"/>
         <v>490389142.79710537</v>
       </c>
-      <c r="H107" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B108" s="3"/>
       <c r="C108">
         <v>10</v>
       </c>
@@ -3024,12 +3052,12 @@
         <f t="shared" si="6"/>
         <v>492889142.79710537</v>
       </c>
-      <c r="H108" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B109" s="3"/>
       <c r="C109">
         <v>11</v>
       </c>
@@ -3047,12 +3075,12 @@
         <f t="shared" si="6"/>
         <v>495389142.79710537</v>
       </c>
-      <c r="H109" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B110" s="3"/>
       <c r="C110">
         <v>12</v>
       </c>
@@ -3070,7 +3098,7 @@
         <f t="shared" si="6"/>
         <v>522783599.93696064</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="2">
         <v>0</v>
       </c>
       <c r="I110" s="1">
@@ -3092,12 +3120,16 @@
         <f xml:space="preserve"> J110 - L110</f>
         <v>16584248.249302164</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N110">
+        <f xml:space="preserve"> J110 / I110 * 100</f>
+        <v>15.371721129872245</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <v>2031</v>
       </c>
       <c r="C111">
@@ -3117,12 +3149,12 @@
         <f t="shared" si="6"/>
         <v>525283599.93696064</v>
       </c>
-      <c r="H111" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B112" s="2"/>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B112" s="3"/>
       <c r="C112">
         <v>2</v>
       </c>
@@ -3140,12 +3172,12 @@
         <f t="shared" si="6"/>
         <v>527783599.93696064</v>
       </c>
-      <c r="H112" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B113" s="2"/>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="3"/>
       <c r="C113">
         <v>3</v>
       </c>
@@ -3163,12 +3195,12 @@
         <f t="shared" si="6"/>
         <v>556797779.93380868</v>
       </c>
-      <c r="H113" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B114" s="2"/>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="3"/>
       <c r="C114">
         <v>4</v>
       </c>
@@ -3186,12 +3218,12 @@
         <f t="shared" si="6"/>
         <v>559297779.93380868</v>
       </c>
-      <c r="H114" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B115" s="2"/>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="3"/>
       <c r="C115">
         <v>5</v>
       </c>
@@ -3209,12 +3241,12 @@
         <f t="shared" si="6"/>
         <v>545213531.93380868</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="2">
         <v>16584248</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B116" s="3"/>
       <c r="C116">
         <v>6</v>
       </c>
@@ -3232,12 +3264,12 @@
         <f t="shared" si="6"/>
         <v>575099208.5304991</v>
       </c>
-      <c r="H116" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B117" s="3"/>
       <c r="C117">
         <v>7</v>
       </c>
@@ -3255,12 +3287,12 @@
         <f t="shared" si="6"/>
         <v>577599208.5304991</v>
       </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B118" s="2"/>
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="3"/>
       <c r="C118">
         <v>8</v>
       </c>
@@ -3278,12 +3310,12 @@
         <f t="shared" si="6"/>
         <v>580099208.5304991</v>
       </c>
-      <c r="H118" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B119" s="2"/>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B119" s="3"/>
       <c r="C119">
         <v>9</v>
       </c>
@@ -3301,12 +3333,12 @@
         <f t="shared" si="6"/>
         <v>611729168.9570241</v>
       </c>
-      <c r="H119" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B120" s="2"/>
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B120" s="3"/>
       <c r="C120">
         <v>10</v>
       </c>
@@ -3324,12 +3356,12 @@
         <f t="shared" si="6"/>
         <v>614229168.9570241</v>
       </c>
-      <c r="H120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B121" s="2"/>
+      <c r="H120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B121" s="3"/>
       <c r="C121">
         <v>11</v>
       </c>
@@ -3347,12 +3379,12 @@
         <f t="shared" si="6"/>
         <v>616729168.9570241</v>
       </c>
-      <c r="H121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B122" s="2"/>
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B122" s="3"/>
       <c r="C122">
         <v>12</v>
       </c>
@@ -3370,7 +3402,7 @@
         <f t="shared" si="6"/>
         <v>650190627.40487528</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="2">
         <v>0</v>
       </c>
       <c r="I122" s="1">
@@ -3392,12 +3424,16 @@
         <f xml:space="preserve"> J122 - L122</f>
         <v>20757454.25501585</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N122">
+        <f xml:space="preserve"> J122 / I122 * 100</f>
+        <v>15.484878286429737</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>11</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <v>2032</v>
       </c>
       <c r="C123">
@@ -3417,12 +3453,12 @@
         <f t="shared" ref="G123:G134" si="8" xml:space="preserve"> (E123 * F123) + E123</f>
         <v>350190627.40487528</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="2">
         <v>300000000</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B124" s="2"/>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B124" s="3"/>
       <c r="C124">
         <v>2</v>
       </c>
@@ -3440,12 +3476,12 @@
         <f t="shared" si="8"/>
         <v>348690627.40487528</v>
       </c>
-      <c r="H124" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B125" s="2"/>
+      <c r="H124" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="3"/>
       <c r="C125">
         <v>3</v>
       </c>
@@ -3463,12 +3499,12 @@
         <f t="shared" si="8"/>
         <v>364550158.77511907</v>
       </c>
-      <c r="H125" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B126" s="2"/>
+      <c r="H125" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="3"/>
       <c r="C126">
         <v>4</v>
       </c>
@@ -3486,12 +3522,12 @@
         <f t="shared" si="8"/>
         <v>363050158.77511907</v>
       </c>
-      <c r="H126" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B127" s="2"/>
+      <c r="H126" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="3"/>
       <c r="C127">
         <v>5</v>
       </c>
@@ -3509,12 +3545,12 @@
         <f t="shared" si="8"/>
         <v>340792704.77511907</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="2">
         <v>22257454</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B128" s="2"/>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="3"/>
       <c r="C128">
         <v>6</v>
       </c>
@@ -3532,12 +3568,12 @@
         <f t="shared" si="8"/>
         <v>356257340.01387501</v>
       </c>
-      <c r="H128" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B129" s="2"/>
+      <c r="H128" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="3"/>
       <c r="C129">
         <v>7</v>
       </c>
@@ -3555,12 +3591,12 @@
         <f t="shared" si="8"/>
         <v>354757340.01387501</v>
       </c>
-      <c r="H129" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B130" s="2"/>
+      <c r="H129" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="3"/>
       <c r="C130">
         <v>8</v>
       </c>
@@ -3578,12 +3614,12 @@
         <f t="shared" si="8"/>
         <v>353257340.01387501</v>
       </c>
-      <c r="H130" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B131" s="2"/>
+      <c r="H130" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B131" s="3"/>
       <c r="C131">
         <v>9</v>
       </c>
@@ -3601,12 +3637,12 @@
         <f t="shared" si="8"/>
         <v>369345207.01456875</v>
       </c>
-      <c r="H131" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B132" s="2"/>
+      <c r="H131" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B132" s="3"/>
       <c r="C132">
         <v>10</v>
       </c>
@@ -3624,12 +3660,12 @@
         <f t="shared" si="8"/>
         <v>367845207.01456875</v>
       </c>
-      <c r="H132" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B133" s="2"/>
+      <c r="H132" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B133" s="3"/>
       <c r="C133">
         <v>11</v>
       </c>
@@ -3647,12 +3683,12 @@
         <f t="shared" si="8"/>
         <v>366345207.01456875</v>
       </c>
-      <c r="H133" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B134" s="2"/>
+      <c r="H133" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B134" s="3"/>
       <c r="C134">
         <v>12</v>
       </c>
@@ -3670,7 +3706,7 @@
         <f t="shared" si="8"/>
         <v>383087467.3652972</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="2">
         <v>1500000</v>
       </c>
       <c r="I134" s="1">
@@ -3692,12 +3728,16 @@
         <f xml:space="preserve"> J134 - L134</f>
         <v>12978008.402423367</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N134">
+        <f xml:space="preserve"> J134 / I134 * 100</f>
+        <v>16.588856031101979</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>12</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <v>2033</v>
       </c>
       <c r="C135">
@@ -3717,12 +3757,12 @@
         <f t="shared" ref="G135:G198" si="10" xml:space="preserve"> (E135 * F135) + E135</f>
         <v>381587467.3652972</v>
       </c>
-      <c r="H135" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B136" s="2"/>
+      <c r="H135" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B136" s="3"/>
       <c r="C136">
         <v>2</v>
       </c>
@@ -3740,12 +3780,12 @@
         <f t="shared" si="10"/>
         <v>380087467.3652972</v>
       </c>
-      <c r="H136" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B137" s="2"/>
+      <c r="H136" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B137" s="3"/>
       <c r="C137">
         <v>3</v>
       </c>
@@ -3763,12 +3803,12 @@
         <f t="shared" si="10"/>
         <v>397516840.73356205</v>
       </c>
-      <c r="H137" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B138" s="2"/>
+      <c r="H137" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B138" s="3"/>
       <c r="C138">
         <v>4</v>
       </c>
@@ -3786,12 +3826,12 @@
         <f t="shared" si="10"/>
         <v>396016840.73356205</v>
       </c>
-      <c r="H138" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B139" s="2"/>
+      <c r="H138" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B139" s="3"/>
       <c r="C139">
         <v>5</v>
       </c>
@@ -3809,12 +3849,12 @@
         <f t="shared" si="10"/>
         <v>381538832.73356205</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="2">
         <v>14478008</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B140" s="2"/>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B140" s="3"/>
       <c r="C140">
         <v>6</v>
       </c>
@@ -3832,12 +3872,12 @@
         <f t="shared" si="10"/>
         <v>399040774.37024015</v>
       </c>
-      <c r="H140" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B141" s="2"/>
+      <c r="H140" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="3"/>
       <c r="C141">
         <v>7</v>
       </c>
@@ -3855,12 +3895,12 @@
         <f t="shared" si="10"/>
         <v>397540774.37024015</v>
       </c>
-      <c r="H141" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B142" s="2"/>
+      <c r="H141" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B142" s="3"/>
       <c r="C142">
         <v>8</v>
       </c>
@@ -3878,12 +3918,12 @@
         <f t="shared" si="10"/>
         <v>396040774.37024015</v>
       </c>
-      <c r="H142" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B143" s="2"/>
+      <c r="H142" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B143" s="3"/>
       <c r="C143">
         <v>9</v>
       </c>
@@ -3901,12 +3941,12 @@
         <f t="shared" si="10"/>
         <v>414267813.08875215</v>
       </c>
-      <c r="H143" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B144" s="2"/>
+      <c r="H143" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B144" s="3"/>
       <c r="C144">
         <v>10</v>
       </c>
@@ -3924,12 +3964,12 @@
         <f t="shared" si="10"/>
         <v>412767813.08875215</v>
       </c>
-      <c r="H144" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B145" s="2"/>
+      <c r="H144" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B145" s="3"/>
       <c r="C145">
         <v>11</v>
       </c>
@@ -3947,12 +3987,12 @@
         <f t="shared" si="10"/>
         <v>411267813.08875215</v>
       </c>
-      <c r="H145" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B146" s="2"/>
+      <c r="H145" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B146" s="3"/>
       <c r="C146">
         <v>12</v>
       </c>
@@ -3970,7 +4010,7 @@
         <f t="shared" si="10"/>
         <v>430256203.74318975</v>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="2">
         <v>1500000</v>
       </c>
       <c r="I146" s="1">
@@ -3992,12 +4032,16 @@
         <f xml:space="preserve"> J146 - L146</f>
         <v>14414588.430863738</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N146">
+        <f xml:space="preserve"> J146 / I146 * 100</f>
+        <v>16.375122050793042</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>13</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <v>2034</v>
       </c>
       <c r="C147">
@@ -4017,12 +4061,12 @@
         <f t="shared" si="10"/>
         <v>428756203.74318975</v>
       </c>
-      <c r="H147" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B148" s="2"/>
+      <c r="H147" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B148" s="3"/>
       <c r="C148">
         <v>2</v>
       </c>
@@ -4040,12 +4084,12 @@
         <f t="shared" si="10"/>
         <v>427256203.74318975</v>
       </c>
-      <c r="H148" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B149" s="2"/>
+      <c r="H148" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B149" s="3"/>
       <c r="C149">
         <v>3</v>
       </c>
@@ -4063,12 +4107,12 @@
         <f t="shared" si="10"/>
         <v>447044013.93034923</v>
       </c>
-      <c r="H149" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B150" s="2"/>
+      <c r="H149" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B150" s="3"/>
       <c r="C150">
         <v>4</v>
       </c>
@@ -4086,12 +4130,12 @@
         <f t="shared" si="10"/>
         <v>445544013.93034923</v>
       </c>
-      <c r="H150" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B151" s="2"/>
+      <c r="H150" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B151" s="3"/>
       <c r="C151">
         <v>5</v>
       </c>
@@ -4109,12 +4153,12 @@
         <f t="shared" si="10"/>
         <v>429629425.93034923</v>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="2">
         <v>15914588</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B152" s="2"/>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="3"/>
       <c r="C152">
         <v>6</v>
       </c>
@@ -4132,12 +4176,12 @@
         <f t="shared" si="10"/>
         <v>449535897.22686672</v>
       </c>
-      <c r="H152" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B153" s="2"/>
+      <c r="H152" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B153" s="3"/>
       <c r="C153">
         <v>7</v>
       </c>
@@ -4155,12 +4199,12 @@
         <f t="shared" si="10"/>
         <v>448035897.22686672</v>
       </c>
-      <c r="H153" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B154" s="2"/>
+      <c r="H153" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B154" s="3"/>
       <c r="C154">
         <v>8</v>
       </c>
@@ -4178,12 +4222,12 @@
         <f t="shared" si="10"/>
         <v>446535897.22686672</v>
       </c>
-      <c r="H154" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B155" s="2"/>
+      <c r="H154" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B155" s="3"/>
       <c r="C155">
         <v>9</v>
       </c>
@@ -4201,12 +4245,12 @@
         <f t="shared" si="10"/>
         <v>467287692.08821005</v>
       </c>
-      <c r="H155" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B156" s="2"/>
+      <c r="H155" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B156" s="3"/>
       <c r="C156">
         <v>10</v>
       </c>
@@ -4224,12 +4268,12 @@
         <f t="shared" si="10"/>
         <v>465787692.08821005</v>
       </c>
-      <c r="H156" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B157" s="2"/>
+      <c r="H156" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B157" s="3"/>
       <c r="C157">
         <v>11</v>
       </c>
@@ -4247,12 +4291,12 @@
         <f t="shared" si="10"/>
         <v>464287692.08821005</v>
       </c>
-      <c r="H157" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B158" s="2"/>
+      <c r="H157" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B158" s="3"/>
       <c r="C158">
         <v>12</v>
       </c>
@@ -4270,7 +4314,7 @@
         <f t="shared" si="10"/>
         <v>485927076.69262058</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="2">
         <v>1500000</v>
       </c>
       <c r="I158" s="1">
@@ -4292,12 +4336,16 @@
         <f xml:space="preserve"> J158 - L158</f>
         <v>16236519.086255074</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N158">
+        <f xml:space="preserve"> J158 / I158 * 100</f>
+        <v>16.324606017823825</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <v>2035</v>
       </c>
       <c r="C159">
@@ -4317,12 +4365,12 @@
         <f t="shared" si="10"/>
         <v>484427076.69262058</v>
       </c>
-      <c r="H159" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B160" s="2"/>
+      <c r="H159" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B160" s="3"/>
       <c r="C160">
         <v>2</v>
       </c>
@@ -4340,12 +4388,12 @@
         <f t="shared" si="10"/>
         <v>482927076.69262058</v>
       </c>
-      <c r="H160" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B161" s="2"/>
+      <c r="H160" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B161" s="3"/>
       <c r="C161">
         <v>3</v>
       </c>
@@ -4363,12 +4411,12 @@
         <f t="shared" si="10"/>
         <v>505498430.5272516</v>
       </c>
-      <c r="H161" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B162" s="2"/>
+      <c r="H161" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B162" s="3"/>
       <c r="C162">
         <v>4</v>
       </c>
@@ -4386,12 +4434,12 @@
         <f t="shared" si="10"/>
         <v>503998430.5272516</v>
       </c>
-      <c r="H162" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B163" s="2"/>
+      <c r="H162" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B163" s="3"/>
       <c r="C163">
         <v>5</v>
       </c>
@@ -4409,12 +4457,12 @@
         <f t="shared" si="10"/>
         <v>486261911.5272516</v>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="2">
         <v>17736519</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B164" s="2"/>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B164" s="3"/>
       <c r="C164">
         <v>6</v>
       </c>
@@ -4432,12 +4480,12 @@
         <f t="shared" si="10"/>
         <v>509000007.10361421</v>
       </c>
-      <c r="H164" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B165" s="2"/>
+      <c r="H164" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B165" s="3"/>
       <c r="C165">
         <v>7</v>
       </c>
@@ -4455,12 +4503,12 @@
         <f t="shared" si="10"/>
         <v>507500007.10361421</v>
       </c>
-      <c r="H165" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B166" s="2"/>
+      <c r="H165" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B166" s="3"/>
       <c r="C166">
         <v>8</v>
       </c>
@@ -4478,12 +4526,12 @@
         <f t="shared" si="10"/>
         <v>506000007.10361421</v>
       </c>
-      <c r="H166" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B167" s="2"/>
+      <c r="H166" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B167" s="3"/>
       <c r="C167">
         <v>9</v>
       </c>
@@ -4501,12 +4549,12 @@
         <f t="shared" si="10"/>
         <v>529725007.45879495</v>
       </c>
-      <c r="H167" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B168" s="2"/>
+      <c r="H167" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B168" s="3"/>
       <c r="C168">
         <v>10</v>
       </c>
@@ -4524,12 +4572,12 @@
         <f t="shared" si="10"/>
         <v>528225007.45879495</v>
       </c>
-      <c r="H168" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B169" s="2"/>
+      <c r="H168" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B169" s="3"/>
       <c r="C169">
         <v>11</v>
       </c>
@@ -4547,12 +4595,12 @@
         <f t="shared" si="10"/>
         <v>526725007.45879495</v>
       </c>
-      <c r="H169" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B170" s="2"/>
+      <c r="H169" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B170" s="3"/>
       <c r="C170">
         <v>12</v>
       </c>
@@ -4570,7 +4618,7 @@
         <f t="shared" si="10"/>
         <v>551486257.83173466</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="2">
         <v>1500000</v>
       </c>
       <c r="I170" s="1">
@@ -4592,12 +4640,16 @@
         <f xml:space="preserve"> J170 - L170</f>
         <v>18383612.441543594</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N170">
+        <f xml:space="preserve"> J170 / I170 * 100</f>
+        <v>16.279828859343841</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>15</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="3">
         <v>2036</v>
       </c>
       <c r="C171">
@@ -4617,12 +4669,12 @@
         <f t="shared" si="10"/>
         <v>549986257.83173466</v>
       </c>
-      <c r="H171" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B172" s="2"/>
+      <c r="H171" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B172" s="3"/>
       <c r="C172">
         <v>2</v>
       </c>
@@ -4640,12 +4692,12 @@
         <f t="shared" si="10"/>
         <v>548486257.83173466</v>
       </c>
-      <c r="H172" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B173" s="2"/>
+      <c r="H172" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B173" s="3"/>
       <c r="C173">
         <v>3</v>
       </c>
@@ -4663,12 +4715,12 @@
         <f t="shared" si="10"/>
         <v>574335570.72332144</v>
       </c>
-      <c r="H173" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B174" s="2"/>
+      <c r="H173" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B174" s="3"/>
       <c r="C174">
         <v>4</v>
       </c>
@@ -4686,12 +4738,12 @@
         <f t="shared" si="10"/>
         <v>572835570.72332144</v>
       </c>
-      <c r="H174" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B175" s="2"/>
+      <c r="H174" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B175" s="3"/>
       <c r="C175">
         <v>5</v>
       </c>
@@ -4709,12 +4761,12 @@
         <f t="shared" si="10"/>
         <v>552951958.72332144</v>
       </c>
-      <c r="H175" s="3">
+      <c r="H175" s="2">
         <v>19883612</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B176" s="2"/>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B176" s="3"/>
       <c r="C176">
         <v>6</v>
       </c>
@@ -4732,12 +4784,12 @@
         <f t="shared" si="10"/>
         <v>579024556.65948749</v>
       </c>
-      <c r="H176" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B177" s="2"/>
+      <c r="H176" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B177" s="3"/>
       <c r="C177">
         <v>7</v>
       </c>
@@ -4755,12 +4807,12 @@
         <f t="shared" si="10"/>
         <v>577524556.65948749</v>
       </c>
-      <c r="H177" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B178" s="2"/>
+      <c r="H177" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B178" s="3"/>
       <c r="C178">
         <v>8</v>
       </c>
@@ -4778,12 +4830,12 @@
         <f t="shared" si="10"/>
         <v>576024556.65948749</v>
       </c>
-      <c r="H178" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B179" s="2"/>
+      <c r="H178" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B179" s="3"/>
       <c r="C179">
         <v>9</v>
       </c>
@@ -4801,12 +4853,12 @@
         <f t="shared" si="10"/>
         <v>603250784.49246192</v>
       </c>
-      <c r="H179" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B180" s="2"/>
+      <c r="H179" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B180" s="3"/>
       <c r="C180">
         <v>10</v>
       </c>
@@ -4824,12 +4876,12 @@
         <f t="shared" si="10"/>
         <v>601750784.49246192</v>
       </c>
-      <c r="H180" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B181" s="2"/>
+      <c r="H180" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B181" s="3"/>
       <c r="C181">
         <v>11</v>
       </c>
@@ -4847,12 +4899,12 @@
         <f t="shared" si="10"/>
         <v>600250784.49246192</v>
       </c>
-      <c r="H181" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B182" s="2"/>
+      <c r="H181" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B182" s="3"/>
       <c r="C182">
         <v>12</v>
       </c>
@@ -4870,7 +4922,7 @@
         <f t="shared" si="10"/>
         <v>628688323.717085</v>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="2">
         <v>1500000</v>
       </c>
       <c r="I182" s="1">
@@ -4892,12 +4944,16 @@
         <f xml:space="preserve"> J182 - L182</f>
         <v>20912034.665181816</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N182">
+        <f xml:space="preserve"> J182 / I182 * 100</f>
+        <v>16.239120365157682</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>16</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="3">
         <v>2037</v>
       </c>
       <c r="C183">
@@ -4917,12 +4973,12 @@
         <f t="shared" si="10"/>
         <v>627188323.717085</v>
       </c>
-      <c r="H183" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B184" s="2"/>
+      <c r="H183" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B184" s="3"/>
       <c r="C184">
         <v>2</v>
       </c>
@@ -4940,12 +4996,12 @@
         <f t="shared" si="10"/>
         <v>625688323.717085</v>
       </c>
-      <c r="H184" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B185" s="2"/>
+      <c r="H184" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B185" s="3"/>
       <c r="C185">
         <v>3</v>
       </c>
@@ -4963,12 +5019,12 @@
         <f t="shared" si="10"/>
         <v>655397739.9029392</v>
       </c>
-      <c r="H185" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B186" s="2"/>
+      <c r="H185" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B186" s="3"/>
       <c r="C186">
         <v>4</v>
       </c>
@@ -4986,12 +5042,12 @@
         <f t="shared" si="10"/>
         <v>653897739.9029392</v>
       </c>
-      <c r="H186" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B187" s="2"/>
+      <c r="H186" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B187" s="3"/>
       <c r="C187">
         <v>5</v>
       </c>
@@ -5009,12 +5065,12 @@
         <f t="shared" si="10"/>
         <v>631485704.9029392</v>
       </c>
-      <c r="H187" s="3">
+      <c r="H187" s="2">
         <v>22412035</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B188" s="2"/>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B188" s="3"/>
       <c r="C188">
         <v>6</v>
       </c>
@@ -5032,12 +5088,12 @@
         <f t="shared" si="10"/>
         <v>661484990.14808619</v>
       </c>
-      <c r="H188" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B189" s="2"/>
+      <c r="H188" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B189" s="3"/>
       <c r="C189">
         <v>7</v>
       </c>
@@ -5055,12 +5111,12 @@
         <f t="shared" si="10"/>
         <v>659984990.14808619</v>
       </c>
-      <c r="H189" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B190" s="2"/>
+      <c r="H189" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B190" s="3"/>
       <c r="C190">
         <v>8</v>
       </c>
@@ -5078,12 +5134,12 @@
         <f t="shared" si="10"/>
         <v>658484990.14808619</v>
       </c>
-      <c r="H190" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B191" s="2"/>
+      <c r="H190" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B191" s="3"/>
       <c r="C191">
         <v>9</v>
       </c>
@@ -5101,12 +5157,12 @@
         <f t="shared" si="10"/>
         <v>689834239.65549052</v>
       </c>
-      <c r="H191" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B192" s="2"/>
+      <c r="H191" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B192" s="3"/>
       <c r="C192">
         <v>10</v>
       </c>
@@ -5124,12 +5180,12 @@
         <f t="shared" si="10"/>
         <v>688334239.65549052</v>
       </c>
-      <c r="H192" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B193" s="2"/>
+      <c r="H192" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B193" s="3"/>
       <c r="C193">
         <v>11</v>
       </c>
@@ -5147,12 +5203,12 @@
         <f t="shared" si="10"/>
         <v>686834239.65549052</v>
       </c>
-      <c r="H193" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B194" s="2"/>
+      <c r="H193" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B194" s="3"/>
       <c r="C194">
         <v>12</v>
       </c>
@@ -5170,7 +5226,7 @@
         <f t="shared" si="10"/>
         <v>719600951.63826501</v>
       </c>
-      <c r="H194" s="3">
+      <c r="H194" s="2">
         <v>1500000</v>
       </c>
       <c r="I194" s="1">
@@ -5192,12 +5248,16 @@
         <f xml:space="preserve"> J194 - L194</f>
         <v>23889487.734601378</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N194">
+        <f xml:space="preserve"> J194 / I194 * 100</f>
+        <v>16.202406364329875</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>17</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="3">
         <v>2038</v>
       </c>
       <c r="C195">
@@ -5217,12 +5277,12 @@
         <f t="shared" si="10"/>
         <v>718100951.63826501</v>
       </c>
-      <c r="H195" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B196" s="2"/>
+      <c r="H195" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B196" s="3"/>
       <c r="C196">
         <v>2</v>
       </c>
@@ -5240,12 +5300,12 @@
         <f t="shared" si="10"/>
         <v>716600951.63826501</v>
       </c>
-      <c r="H196" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B197" s="2"/>
+      <c r="H196" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B197" s="3"/>
       <c r="C197">
         <v>3</v>
       </c>
@@ -5263,12 +5323,12 @@
         <f t="shared" si="10"/>
         <v>750855999.22017825</v>
       </c>
-      <c r="H197" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B198" s="2"/>
+      <c r="H197" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B198" s="3"/>
       <c r="C198">
         <v>4</v>
       </c>
@@ -5286,12 +5346,12 @@
         <f t="shared" si="10"/>
         <v>749355999.22017825</v>
       </c>
-      <c r="H198" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B199" s="2"/>
+      <c r="H198" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B199" s="3"/>
       <c r="C199">
         <v>5</v>
       </c>
@@ -5309,12 +5369,12 @@
         <f t="shared" ref="G199:G242" si="12" xml:space="preserve"> (E199 * F199) + E199</f>
         <v>723966511.22017825</v>
       </c>
-      <c r="H199" s="3">
+      <c r="H199" s="2">
         <v>25389488</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B200" s="2"/>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B200" s="3"/>
       <c r="C200">
         <v>6</v>
       </c>
@@ -5332,12 +5392,12 @@
         <f t="shared" si="12"/>
         <v>758589836.78118718</v>
       </c>
-      <c r="H200" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B201" s="2"/>
+      <c r="H200" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B201" s="3"/>
       <c r="C201">
         <v>7</v>
       </c>
@@ -5355,12 +5415,12 @@
         <f t="shared" si="12"/>
         <v>757089836.78118718</v>
       </c>
-      <c r="H201" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B202" s="2"/>
+      <c r="H201" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B202" s="3"/>
       <c r="C202">
         <v>8</v>
       </c>
@@ -5378,12 +5438,12 @@
         <f t="shared" si="12"/>
         <v>755589836.78118718</v>
       </c>
-      <c r="H202" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B203" s="2"/>
+      <c r="H202" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B203" s="3"/>
       <c r="C203">
         <v>9</v>
       </c>
@@ -5401,12 +5461,12 @@
         <f t="shared" si="12"/>
         <v>791794328.62024653</v>
       </c>
-      <c r="H203" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B204" s="2"/>
+      <c r="H203" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B204" s="3"/>
       <c r="C204">
         <v>10</v>
       </c>
@@ -5424,12 +5484,12 @@
         <f t="shared" si="12"/>
         <v>790294328.62024653</v>
       </c>
-      <c r="H204" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B205" s="2"/>
+      <c r="H204" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B205" s="3"/>
       <c r="C205">
         <v>11</v>
       </c>
@@ -5447,12 +5507,12 @@
         <f t="shared" si="12"/>
         <v>788794328.62024653</v>
       </c>
-      <c r="H205" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B206" s="2"/>
+      <c r="H205" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B206" s="3"/>
       <c r="C206">
         <v>12</v>
       </c>
@@ -5470,7 +5530,7 @@
         <f t="shared" si="12"/>
         <v>826659045.0512588</v>
       </c>
-      <c r="H206" s="3">
+      <c r="H206" s="2">
         <v>1500000</v>
       </c>
       <c r="I206" s="1">
@@ -5492,12 +5552,16 @@
         <f xml:space="preserve"> J206 - L206</f>
         <v>27395716.245495379</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N206">
+        <f xml:space="preserve"> J206 / I206 * 100</f>
+        <v>16.169545722849456</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>18</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="3">
         <v>2039</v>
       </c>
       <c r="C207">
@@ -5517,12 +5581,12 @@
         <f t="shared" si="12"/>
         <v>825159045.0512588</v>
       </c>
-      <c r="H207" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B208" s="2"/>
+      <c r="H207" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B208" s="3"/>
       <c r="C208">
         <v>2</v>
       </c>
@@ -5540,12 +5604,12 @@
         <f t="shared" si="12"/>
         <v>823659045.0512588</v>
       </c>
-      <c r="H208" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B209" s="2"/>
+      <c r="H208" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B209" s="3"/>
       <c r="C209">
         <v>3</v>
       </c>
@@ -5563,12 +5627,12 @@
         <f t="shared" si="12"/>
         <v>863266997.3038218</v>
       </c>
-      <c r="H209" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B210" s="2"/>
+      <c r="H209" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B210" s="3"/>
       <c r="C210">
         <v>4</v>
       </c>
@@ -5586,12 +5650,12 @@
         <f t="shared" si="12"/>
         <v>861766997.3038218</v>
       </c>
-      <c r="H210" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B211" s="2"/>
+      <c r="H210" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B211" s="3"/>
       <c r="C211">
         <v>5</v>
       </c>
@@ -5609,12 +5673,12 @@
         <f t="shared" si="12"/>
         <v>832871281.3038218</v>
       </c>
-      <c r="H211" s="3">
+      <c r="H211" s="2">
         <v>28895716</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B212" s="2"/>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B212" s="3"/>
       <c r="C212">
         <v>6</v>
       </c>
@@ -5632,12 +5696,12 @@
         <f t="shared" si="12"/>
         <v>872939845.36901283</v>
       </c>
-      <c r="H212" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B213" s="2"/>
+      <c r="H212" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B213" s="3"/>
       <c r="C213">
         <v>7</v>
       </c>
@@ -5655,12 +5719,12 @@
         <f t="shared" si="12"/>
         <v>871439845.36901283</v>
       </c>
-      <c r="H213" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B214" s="2"/>
+      <c r="H213" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B214" s="3"/>
       <c r="C214">
         <v>8</v>
       </c>
@@ -5678,12 +5742,12 @@
         <f t="shared" si="12"/>
         <v>869939845.36901283</v>
       </c>
-      <c r="H214" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B215" s="2"/>
+      <c r="H214" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B215" s="3"/>
       <c r="C215">
         <v>9</v>
       </c>
@@ -5701,12 +5765,12 @@
         <f t="shared" si="12"/>
         <v>911861837.63746345</v>
       </c>
-      <c r="H215" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B216" s="2"/>
+      <c r="H215" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B216" s="3"/>
       <c r="C216">
         <v>10</v>
       </c>
@@ -5724,12 +5788,12 @@
         <f t="shared" si="12"/>
         <v>910361837.63746345</v>
       </c>
-      <c r="H216" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B217" s="2"/>
+      <c r="H216" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B217" s="3"/>
       <c r="C217">
         <v>11</v>
       </c>
@@ -5747,12 +5811,12 @@
         <f t="shared" si="12"/>
         <v>908861837.63746345</v>
       </c>
-      <c r="H217" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B218" s="2"/>
+      <c r="H217" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B218" s="3"/>
       <c r="C218">
         <v>12</v>
       </c>
@@ -5770,7 +5834,7 @@
         <f t="shared" si="12"/>
         <v>952729929.51933658</v>
       </c>
-      <c r="H218" s="3">
+      <c r="H218" s="2">
         <v>1500000</v>
       </c>
       <c r="I218" s="1">
@@ -5792,12 +5856,16 @@
         <f xml:space="preserve"> J218 - L218</f>
         <v>31524627.146551162</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N218">
+        <f xml:space="preserve"> J218 / I218 * 100</f>
+        <v>16.14033372580467</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>19</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="3">
         <v>2040</v>
       </c>
       <c r="C219">
@@ -5817,12 +5885,12 @@
         <f t="shared" si="12"/>
         <v>951229929.51933658</v>
       </c>
-      <c r="H219" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B220" s="2"/>
+      <c r="H219" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B220" s="3"/>
       <c r="C220">
         <v>2</v>
       </c>
@@ -5840,12 +5908,12 @@
         <f t="shared" si="12"/>
         <v>949729929.51933658</v>
       </c>
-      <c r="H220" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B221" s="2"/>
+      <c r="H220" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B221" s="3"/>
       <c r="C221">
         <v>3</v>
       </c>
@@ -5863,12 +5931,12 @@
         <f t="shared" si="12"/>
         <v>995641425.99530339</v>
       </c>
-      <c r="H221" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B222" s="2"/>
+      <c r="H221" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B222" s="3"/>
       <c r="C222">
         <v>4</v>
       </c>
@@ -5886,12 +5954,12 @@
         <f t="shared" si="12"/>
         <v>994141425.99530339</v>
       </c>
-      <c r="H222" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B223" s="2"/>
+      <c r="H222" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B223" s="3"/>
       <c r="C223">
         <v>5</v>
       </c>
@@ -5909,12 +5977,12 @@
         <f t="shared" si="12"/>
         <v>961116798.99530339</v>
       </c>
-      <c r="H223" s="3">
+      <c r="H223" s="2">
         <v>33024627</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B224" s="2"/>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B224" s="3"/>
       <c r="C224">
         <v>6</v>
       </c>
@@ -5932,12 +6000,12 @@
         <f t="shared" si="12"/>
         <v>1007597638.9450686</v>
       </c>
-      <c r="H224" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B225" s="2"/>
+      <c r="H224" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B225" s="3"/>
       <c r="C225">
         <v>7</v>
       </c>
@@ -5955,12 +6023,12 @@
         <f t="shared" si="12"/>
         <v>1006097638.9450686</v>
       </c>
-      <c r="H225" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B226" s="2"/>
+      <c r="H225" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B226" s="3"/>
       <c r="C226">
         <v>8</v>
       </c>
@@ -5978,12 +6046,12 @@
         <f t="shared" si="12"/>
         <v>1004597638.9450686</v>
       </c>
-      <c r="H226" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B227" s="2"/>
+      <c r="H226" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B227" s="3"/>
       <c r="C227">
         <v>9</v>
       </c>
@@ -6001,12 +6069,12 @@
         <f t="shared" si="12"/>
         <v>1053252520.8923221</v>
       </c>
-      <c r="H227" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B228" s="2"/>
+      <c r="H227" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B228" s="3"/>
       <c r="C228">
         <v>10</v>
       </c>
@@ -6024,12 +6092,12 @@
         <f t="shared" si="12"/>
         <v>1051752520.8923221</v>
       </c>
-      <c r="H228" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B229" s="2"/>
+      <c r="H228" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B229" s="3"/>
       <c r="C229">
         <v>11</v>
       </c>
@@ -6047,12 +6115,12 @@
         <f t="shared" si="12"/>
         <v>1050252520.8923221</v>
       </c>
-      <c r="H229" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B230" s="2"/>
+      <c r="H229" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B230" s="3"/>
       <c r="C230">
         <v>12</v>
       </c>
@@ -6070,7 +6138,7 @@
         <f t="shared" si="12"/>
         <v>1101190146.9369383</v>
       </c>
-      <c r="H230" s="3">
+      <c r="H230" s="2">
         <v>1500000</v>
       </c>
       <c r="I230" s="1">
@@ -6092,12 +6160,16 @@
         <f xml:space="preserve"> J230 - L230</f>
         <v>36386804.593246371</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N230">
+        <f xml:space="preserve"> J230 / I230 * 100</f>
+        <v>16.114522132122833</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>20</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="3">
         <v>2041</v>
       </c>
       <c r="C231">
@@ -6117,12 +6189,12 @@
         <f t="shared" si="12"/>
         <v>1099690146.9369383</v>
       </c>
-      <c r="H231" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B232" s="2"/>
+      <c r="H231" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B232" s="3"/>
       <c r="C232">
         <v>2</v>
       </c>
@@ -6140,12 +6212,12 @@
         <f t="shared" si="12"/>
         <v>1098190146.9369383</v>
       </c>
-      <c r="H232" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B233" s="2"/>
+      <c r="H232" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B233" s="3"/>
       <c r="C233">
         <v>3</v>
       </c>
@@ -6163,12 +6235,12 @@
         <f t="shared" si="12"/>
         <v>1151524654.2837851</v>
       </c>
-      <c r="H233" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B234" s="2"/>
+      <c r="H233" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B234" s="3"/>
       <c r="C234">
         <v>4</v>
       </c>
@@ -6186,12 +6258,12 @@
         <f t="shared" si="12"/>
         <v>1150024654.2837851</v>
       </c>
-      <c r="H234" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B235" s="2"/>
+      <c r="H234" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B235" s="3"/>
       <c r="C235">
         <v>5</v>
       </c>
@@ -6209,12 +6281,12 @@
         <f t="shared" si="12"/>
         <v>1112137849.2837851</v>
       </c>
-      <c r="H235" s="3">
+      <c r="H235" s="2">
         <v>37886805</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B236" s="2"/>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B236" s="3"/>
       <c r="C236">
         <v>6</v>
       </c>
@@ -6232,12 +6304,12 @@
         <f t="shared" si="12"/>
         <v>1166169741.7479744</v>
       </c>
-      <c r="H236" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B237" s="2"/>
+      <c r="H236" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B237" s="3"/>
       <c r="C237">
         <v>7</v>
       </c>
@@ -6255,12 +6327,12 @@
         <f t="shared" si="12"/>
         <v>1164669741.7479744</v>
       </c>
-      <c r="H237" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B238" s="2"/>
+      <c r="H237" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B238" s="3"/>
       <c r="C238">
         <v>8</v>
       </c>
@@ -6278,12 +6350,12 @@
         <f t="shared" si="12"/>
         <v>1163169741.7479744</v>
       </c>
-      <c r="H238" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B239" s="2"/>
+      <c r="H238" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B239" s="3"/>
       <c r="C239">
         <v>9</v>
       </c>
@@ -6301,12 +6373,12 @@
         <f t="shared" si="12"/>
         <v>1219753228.8353732</v>
       </c>
-      <c r="H239" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B240" s="2"/>
+      <c r="H239" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B240" s="3"/>
       <c r="C240">
         <v>10</v>
       </c>
@@ -6324,12 +6396,12 @@
         <f t="shared" si="12"/>
         <v>1218253228.8353732</v>
       </c>
-      <c r="H240" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="241" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B241" s="2"/>
+      <c r="H240" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B241" s="3"/>
       <c r="C241">
         <v>11</v>
       </c>
@@ -6347,12 +6419,12 @@
         <f t="shared" si="12"/>
         <v>1216753228.8353732</v>
       </c>
-      <c r="H241" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B242" s="2"/>
+      <c r="H241" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B242" s="3"/>
       <c r="C242">
         <v>12</v>
       </c>
@@ -6370,7 +6442,7 @@
         <f t="shared" si="12"/>
         <v>1276015890.2771418</v>
       </c>
-      <c r="H242" s="3">
+      <c r="H242" s="2">
         <v>1500000</v>
       </c>
       <c r="I242" s="1">
@@ -6392,8 +6464,12 @@
         <f xml:space="preserve"> J242 - L242</f>
         <v>42112471.724608719</v>
       </c>
-    </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N242">
+        <f xml:space="preserve"> J242 / I242 * 100</f>
+        <v>16.091836943006498</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D243" s="1">
         <f>SUM(D3:D242)</f>
         <v>297500000</v>
@@ -6401,6 +6477,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="B159:B170"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
     <mergeCell ref="B135:B146"/>
     <mergeCell ref="B15:B26"/>
     <mergeCell ref="B3:B14"/>
@@ -6413,14 +6497,6 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
-    <mergeCell ref="B147:B158"/>
-    <mergeCell ref="B159:B170"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N243"/>
+  <dimension ref="A2:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="N244" sqref="N244"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -376,9 +376,10 @@
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
     <col min="12" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>0</v>
       </c>
@@ -389,7 +390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -417,7 +418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4">
         <v>2</v>
@@ -440,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5">
         <v>3</v>
@@ -463,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6">
         <v>4</v>
@@ -485,8 +486,11 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="1">
+        <v>9530000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7">
         <v>5</v>
@@ -508,8 +512,11 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="1">
+        <v>12030000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8">
         <v>6</v>
@@ -531,8 +538,11 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="1">
+        <v>14530000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9">
         <v>7</v>
@@ -554,8 +564,11 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1">
+        <v>17030000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10">
         <v>8</v>
@@ -577,8 +590,11 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="1">
+        <v>19530000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11">
         <v>9</v>
@@ -600,8 +616,11 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>22030000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12">
         <v>10</v>
@@ -623,8 +642,11 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="1">
+        <v>24530000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13">
         <v>11</v>
@@ -646,8 +668,11 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="1">
+        <v>27030000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14">
         <v>12</v>
@@ -692,8 +717,11 @@
         <f xml:space="preserve"> J14 / I14 * 100</f>
         <v>7.0250000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="1">
+        <v>29530000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -721,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16">
         <v>2</v>
@@ -6477,14 +6505,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
-    <mergeCell ref="B147:B158"/>
-    <mergeCell ref="B159:B170"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
     <mergeCell ref="B135:B146"/>
     <mergeCell ref="B15:B26"/>
     <mergeCell ref="B3:B14"/>
@@ -6497,6 +6517,14 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="B159:B170"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="20년 주식목표" sheetId="1" r:id="rId1"/>
+    <sheet name="시나리오&lt;완료&gt;" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,13 +23,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전업 (생활비 200만원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">은퇴 (월배당 8%&lt;280만원&gt; + 연금계좌연금전환&lt;20만원&gt;) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출1억 땡겨 집 1.5억 (이자 4.5 기준)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +67,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,7 +123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -78,8 +133,71 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -374,8 +492,10 @@
     <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="12" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -390,186 +510,181 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>2022</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>5000000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <f xml:space="preserve"> G2 + D3 - H3</f>
         <v>5000000</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G3" s="4">
         <f xml:space="preserve"> (E3 * F3) + E3</f>
-        <v>5000000</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4">
+        <v>5090000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <f xml:space="preserve"> G3 + D4 - H4</f>
-        <v>5000000</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+        <v>5090000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G4" s="4">
         <f xml:space="preserve"> (E4 * F4) + E4</f>
-        <v>5000000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5">
+        <v>5181620</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E68" si="0" xml:space="preserve"> G4 + D5 - H5</f>
-        <v>5000000</v>
-      </c>
-      <c r="F5">
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="1">
+        <v>5181620</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G5" s="4">
         <f xml:space="preserve"> (E5 * F5) + E5</f>
-        <v>5250000</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6">
+        <v>5274889.16</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>2500000</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>7750000</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6:G14" si="1" xml:space="preserve"> (E6 * F6) + E6</f>
-        <v>7750000</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>9530000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7">
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>7774889.1600000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:H15" si="1" xml:space="preserve"> (E6 * F6) + E6</f>
+        <v>7914837.1648800001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2500000</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>10250000</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>10264837.16488</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>10250000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>12030000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8">
+        <v>10449604.23384784</v>
+      </c>
+      <c r="H7" s="6">
+        <v>150000</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>2500000</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>12750000</v>
-      </c>
-      <c r="F8">
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>12949604.23384784</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>13387500</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>14530000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9">
+        <v>13182697.110057101</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>2500000</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>15887500</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>15682697.110057101</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>15887500</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>17030000</v>
-      </c>
+        <v>15964985.658038128</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
+      <c r="B10" s="7"/>
       <c r="C10">
         <v>8</v>
       </c>
@@ -578,24 +693,21 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>18387500</v>
+        <v>18464985.658038128</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>18387500</v>
+        <v>18797355.399882816</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="1">
-        <v>19530000</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
+      <c r="B11" s="7"/>
       <c r="C11">
         <v>9</v>
       </c>
@@ -604,24 +716,21 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>20887500</v>
+        <v>21297355.399882816</v>
       </c>
       <c r="F11">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>21931875</v>
+        <v>21680707.797080707</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <v>22030000</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
+      <c r="B12" s="7"/>
       <c r="C12">
         <v>10</v>
       </c>
@@ -630,24 +739,21 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>24431875</v>
+        <v>24180707.797080707</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>24431875</v>
+        <v>24615960.537428159</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
-        <v>24530000</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
+      <c r="B13" s="7"/>
       <c r="C13">
         <v>11</v>
       </c>
@@ -656,24 +762,21 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>26931875</v>
+        <v>27115960.537428159</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>26931875</v>
+        <v>27604047.827101868</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="1">
-        <v>27030000</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
+      <c r="B14" s="7"/>
       <c r="C14">
         <v>12</v>
       </c>
@@ -682,5841 +785,4948 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>29431875</v>
+        <v>30104047.827101868</v>
       </c>
       <c r="F14">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>30903468.75</v>
+        <v>30645920.687989701</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1">
         <f xml:space="preserve"> (G2 + SUM(D3:D14)) - SUM(H3:H14)</f>
-        <v>27500000</v>
+        <v>27350000</v>
       </c>
       <c r="J14" s="1">
         <f xml:space="preserve"> E14 - I14</f>
-        <v>1931875</v>
+        <v>2754047.8271018676</v>
       </c>
       <c r="K14">
         <v>0.84</v>
       </c>
       <c r="L14" s="1">
         <f xml:space="preserve"> J14 * K14</f>
-        <v>1622775</v>
+        <v>2313400.1747655687</v>
       </c>
       <c r="M14" s="1">
         <f xml:space="preserve"> J14 - L14</f>
-        <v>309100</v>
+        <v>440647.65233629895</v>
       </c>
       <c r="N14">
         <f xml:space="preserve"> J14 / I14 * 100</f>
-        <v>7.0250000000000004</v>
-      </c>
-      <c r="O14" s="1">
-        <v>29530000</v>
+        <v>10.069644706039735</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>2023</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>33403468.75</v>
+        <v>19099873.687989697</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G15" s="1">
         <f xml:space="preserve"> (E15 * F15) + E15</f>
-        <v>33403468.75</v>
+        <v>19443671.41437351</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>15322960</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <f xml:space="preserve"> G14 /2</f>
+        <v>15322960.34399485</v>
+      </c>
+      <c r="K15" s="8">
+        <f>(G14/2/12)+2500000</f>
+        <v>3776913.3619995709</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
+      <c r="B16" s="7"/>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>35903468.75</v>
+        <v>23220584.41437351</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G16" s="1">
         <f xml:space="preserve"> (E16 * F16) + E16</f>
-        <v>35903468.75</v>
+        <v>23638554.933832232</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
+      <c r="B17" s="7"/>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>38403468.75</v>
+        <v>27415467.933832232</v>
       </c>
       <c r="F17">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G17" s="1">
         <f xml:space="preserve"> (E17 * F17) + E17</f>
-        <v>40323642.1875</v>
+        <v>27908946.356641211</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="B18" s="7"/>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>42823642.1875</v>
+        <v>31685859.356641211</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ref="G18:G26" si="2" xml:space="preserve"> (E18 * F18) + E18</f>
-        <v>42823642.1875</v>
+        <v>32256204.825060751</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
+      <c r="B19" s="7"/>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>45014542.1875</v>
+        <v>35592469.825060755</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>45014542.1875</v>
+        <v>36233134.28191185</v>
       </c>
       <c r="H19" s="2">
-        <v>309100</v>
+        <v>440648</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
+      <c r="B20" s="7"/>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>47514542.1875</v>
+        <v>40010047.28191185</v>
       </c>
       <c r="F20">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>49890269.296875</v>
+        <v>40730228.132986262</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
+      <c r="B21" s="7"/>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>52390269.296875</v>
+        <v>44507141.132986262</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="2"/>
-        <v>52390269.296875</v>
+        <v>45308269.673380017</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
+      <c r="B22" s="7"/>
       <c r="C22">
         <v>8</v>
       </c>
       <c r="D22" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>54890269.296875</v>
+        <v>49085182.673380017</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="2"/>
-        <v>54890269.296875</v>
+        <v>49968715.961500861</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
+      <c r="B23" s="7"/>
       <c r="C23">
         <v>9</v>
       </c>
       <c r="D23" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>57390269.296875</v>
+        <v>53745628.961500861</v>
       </c>
       <c r="F23">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
-        <v>60259782.76171875</v>
+        <v>54713050.282807879</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
+      <c r="B24" s="7"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>62759782.76171875</v>
+        <v>58489963.282807879</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
-        <v>62759782.76171875</v>
+        <v>59542782.62189842</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
+      <c r="B25" s="7"/>
       <c r="C25">
         <v>11</v>
       </c>
       <c r="D25" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>65259782.76171875</v>
+        <v>63319695.62189842</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="2"/>
-        <v>65259782.76171875</v>
+        <v>64459450.143092595</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
+      <c r="B26" s="7"/>
       <c r="C26">
         <v>12</v>
       </c>
       <c r="D26" s="1">
-        <v>2500000</v>
+        <v>3776913</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>67759782.76171875</v>
+        <v>68236363.143092602</v>
       </c>
       <c r="F26">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="2"/>
-        <v>71147771.899804682</v>
+        <v>69464617.679668263</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1">
         <f xml:space="preserve"> (G14 + SUM(D15:D26)) - SUM(H15:H26)</f>
-        <v>60594368.75</v>
+        <v>60205268.687989697</v>
       </c>
       <c r="J26" s="1">
         <f xml:space="preserve"> E26 - I26</f>
-        <v>7165414.01171875</v>
+        <v>8031094.4551029056</v>
       </c>
       <c r="K26">
         <v>0.84</v>
       </c>
       <c r="L26" s="1">
         <f xml:space="preserve"> J26 * K26</f>
-        <v>6018947.7698437497</v>
+        <v>6746119.3422864405</v>
       </c>
       <c r="M26" s="1">
         <f xml:space="preserve"> J26 - L26</f>
-        <v>1146466.2418750003</v>
+        <v>1284975.1128164651</v>
       </c>
       <c r="N26">
         <f xml:space="preserve"> J26 / I26 * 100</f>
-        <v>11.825214387960351</v>
+        <v>13.339520992296514</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="7">
         <v>2024</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>73647771.899804682</v>
+        <v>40126667.679668263</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G27" s="1">
         <f xml:space="preserve"> (E27 * F27) + E27</f>
-        <v>73647771.899804682</v>
+        <v>40848947.697902292</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>34732309</v>
+      </c>
+      <c r="J27" s="8">
+        <f xml:space="preserve"> G26 /2</f>
+        <v>34732308.839834131</v>
+      </c>
+      <c r="K27" s="8">
+        <f>(G26/2/12)+2500000</f>
+        <v>5394359.0699861776</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
+      <c r="B28" s="7"/>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>76147771.899804682</v>
+        <v>46243306.697902292</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G28" s="1">
         <f xml:space="preserve"> (E28 * F28) + E28</f>
-        <v>76147771.899804682</v>
+        <v>47075686.218464531</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
+      <c r="B29" s="7"/>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>78647771.899804682</v>
+        <v>52470045.218464531</v>
       </c>
       <c r="F29">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G29" s="1">
         <f xml:space="preserve"> (E29 * F29) + E29</f>
-        <v>82580160.49479492</v>
+        <v>53414506.03239689</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
+      <c r="B30" s="7"/>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>85080160.49479492</v>
+        <v>58808865.03239689</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" ref="G30:G38" si="3" xml:space="preserve"> (E30 * F30) + E30</f>
-        <v>85080160.49479492</v>
+        <f t="shared" ref="G30:G93" si="3" xml:space="preserve"> (E30 * F30) + E30</f>
+        <v>59867424.602980033</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
+      <c r="B31" s="7"/>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>86433694.49479492</v>
+        <v>63976808.602980033</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>86433694.49479492</v>
+        <v>65128391.157833673</v>
       </c>
       <c r="H31" s="2">
-        <v>1146466</v>
+        <v>1284975</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
+      <c r="B32" s="7"/>
       <c r="C32">
         <v>6</v>
       </c>
       <c r="D32" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>88933694.49479492</v>
+        <v>70522750.157833666</v>
       </c>
       <c r="F32">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>93380379.219534665</v>
+        <v>71792159.660674676</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
       <c r="C33">
         <v>7</v>
       </c>
       <c r="D33" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>95880379.219534665</v>
+        <v>77186518.660674676</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>95880379.219534665</v>
+        <v>78575875.996566817</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
       <c r="C34">
         <v>8</v>
       </c>
       <c r="D34" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>98380379.219534665</v>
+        <v>83970234.996566817</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="3"/>
-        <v>98380379.219534665</v>
+        <v>85481699.226505026</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
       <c r="C35">
         <v>9</v>
       </c>
       <c r="D35" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>100880379.21953467</v>
+        <v>90876058.226505026</v>
       </c>
       <c r="F35">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>105924398.1805114</v>
+        <v>92511827.274582118</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>108424398.1805114</v>
+        <v>97906186.274582118</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="3"/>
-        <v>108424398.1805114</v>
+        <v>99668497.627524599</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
       <c r="C37">
         <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>110924398.1805114</v>
+        <v>105062856.6275246</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="3"/>
-        <v>110924398.1805114</v>
+        <v>106953988.04682004</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
       <c r="C38">
         <v>12</v>
       </c>
       <c r="D38" s="1">
-        <v>2500000</v>
+        <v>5394359</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>113424398.1805114</v>
+        <v>112348347.04682004</v>
       </c>
       <c r="F38">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="3"/>
-        <v>119095618.08953696</v>
+        <v>114370617.2936628</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="1">
         <f xml:space="preserve"> (G26 + SUM(D27:D38)) - SUM(H27:H38)</f>
-        <v>100001305.89980468</v>
+        <v>98179641.679668263</v>
       </c>
       <c r="J38" s="1">
         <f xml:space="preserve"> E38 - I38</f>
-        <v>13423092.280706719</v>
+        <v>14168705.367151782</v>
       </c>
       <c r="K38">
         <v>0.84</v>
       </c>
       <c r="L38" s="1">
         <f xml:space="preserve"> J38 * K38</f>
-        <v>11275397.515793644</v>
+        <v>11901712.508407496</v>
       </c>
       <c r="M38" s="1">
         <f xml:space="preserve"> J38 - L38</f>
-        <v>2147694.7649130747</v>
+        <v>2266992.858744286</v>
       </c>
       <c r="N38">
         <f xml:space="preserve"> J38 / I38 * 100</f>
-        <v>13.422916990859951</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39">
+        <v>14.431408716462995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
         <v>4</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="7">
         <v>2025</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="16">
         <v>1</v>
       </c>
-      <c r="D39" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>71595618.089536965</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" ref="G39:G102" si="4" xml:space="preserve"> (E39 * F39) + E39</f>
-        <v>71595618.089536965</v>
-      </c>
-      <c r="H39" s="2">
-        <v>50000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
+      <c r="D39" s="17">
+        <v>3098775.7083333302</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="0"/>
+        <v>60284085.00199613</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="3"/>
+        <v>61369198.532032058</v>
+      </c>
+      <c r="H39" s="18">
+        <v>57185308</v>
+      </c>
+      <c r="J39" s="19">
+        <f xml:space="preserve"> G38 /2</f>
+        <v>57185308.646831401</v>
+      </c>
+      <c r="K39" s="19">
+        <f>(G38/2/12)+2500000</f>
+        <v>7265442.3872359497</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>74095618.089536965</v>
+        <v>64467974.240365386</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="4"/>
-        <v>74095618.089536965</v>
+        <f t="shared" si="3"/>
+        <v>65628397.776691966</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="7"/>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>76595618.089536965</v>
+        <v>68727173.485025302</v>
       </c>
       <c r="F41">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="4"/>
-        <v>80425398.994013816</v>
+        <f t="shared" si="3"/>
+        <v>69964262.60775575</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>82925398.994013816</v>
+        <v>73063038.316089079</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="4"/>
-        <v>82925398.994013816</v>
+        <f t="shared" si="3"/>
+        <v>74378173.005778685</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
       <c r="C43">
         <v>5</v>
       </c>
       <c r="D43" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>83277703.994013816</v>
+        <v>75209955.714112014</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="4"/>
-        <v>83277703.994013816</v>
+        <f t="shared" si="3"/>
+        <v>76563734.916966036</v>
       </c>
       <c r="H43" s="2">
-        <v>2147695</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
+        <v>2266993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
       <c r="C44">
         <v>6</v>
       </c>
       <c r="D44" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>85777703.994013816</v>
+        <v>79662510.625299364</v>
       </c>
       <c r="F44">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="4"/>
-        <v>90066589.193714499</v>
+        <f t="shared" si="3"/>
+        <v>81096435.816554755</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
       <c r="C45">
         <v>7</v>
       </c>
       <c r="D45" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>92566589.193714499</v>
+        <v>84195211.524888083</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="4"/>
-        <v>92566589.193714499</v>
+        <f t="shared" si="3"/>
+        <v>85710725.332336068</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="D46" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>95066589.193714499</v>
+        <v>88809501.040669397</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="4"/>
-        <v>95066589.193714499</v>
+        <f t="shared" si="3"/>
+        <v>90408072.059401453</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
       <c r="C47">
         <v>9</v>
       </c>
       <c r="D47" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>97566589.193714499</v>
+        <v>93506847.767734781</v>
       </c>
       <c r="F47">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="4"/>
-        <v>102444918.65340023</v>
+        <f t="shared" si="3"/>
+        <v>95189971.027554005</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>104944918.65340023</v>
+        <v>98288746.735887334</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="4"/>
-        <v>104944918.65340023</v>
+        <f t="shared" si="3"/>
+        <v>100057944.17713331</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
+      <c r="B49" s="7"/>
       <c r="C49">
         <v>11</v>
       </c>
       <c r="D49" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>107444918.65340023</v>
+        <v>103156719.88546664</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="4"/>
-        <v>107444918.65340023</v>
+        <f t="shared" si="3"/>
+        <v>105013540.84340504</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
+      <c r="B50" s="7"/>
       <c r="C50">
         <v>12</v>
       </c>
       <c r="D50" s="1">
-        <v>2500000</v>
+        <v>3098775.7083333302</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
-        <v>109944918.65340023</v>
+        <v>108112316.55173837</v>
       </c>
       <c r="F50">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="4"/>
-        <v>115442164.58607024</v>
+        <f t="shared" si="3"/>
+        <v>110058338.24966966</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="1">
         <f xml:space="preserve"> (G38 + SUM(D39:D50)) - SUM(H39:H50)</f>
-        <v>96947923.089536965</v>
+        <v>92103624.793662757</v>
       </c>
       <c r="J50" s="1">
         <f xml:space="preserve"> E50 - I50</f>
-        <v>12996995.563863263</v>
+        <v>16008691.75807561</v>
       </c>
       <c r="K50">
         <v>0.84</v>
       </c>
       <c r="L50" s="1">
         <f xml:space="preserve"> J50 * K50</f>
-        <v>10917476.27364514</v>
+        <v>13447301.076783512</v>
       </c>
       <c r="M50" s="1">
         <f xml:space="preserve"> J50 - L50</f>
-        <v>2079519.2902181223</v>
+        <v>2561390.681292098</v>
       </c>
       <c r="N50">
         <f xml:space="preserve"> J50 / I50 * 100</f>
-        <v>13.406161936919258</v>
+        <v>17.381174512880946</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="7">
         <v>2026</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>117942164.58607024</v>
+        <v>62114933.249669656</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="4"/>
-        <v>117942164.58607024</v>
+        <f t="shared" si="3"/>
+        <v>63233002.048163712</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>55029169</v>
+      </c>
+      <c r="J51" s="8">
+        <f xml:space="preserve"> G50 /2</f>
+        <v>55029169.124834828</v>
+      </c>
+      <c r="K51" s="8">
+        <f>(G50/2/12)+2500000</f>
+        <v>7085764.093736236</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
+      <c r="B52" s="7"/>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>120442164.58607024</v>
+        <v>70318766.048163712</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="4"/>
-        <v>120442164.58607024</v>
+        <f t="shared" si="3"/>
+        <v>71584503.837030664</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
+      <c r="B53" s="7"/>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>122942164.58607024</v>
+        <v>78670267.837030664</v>
       </c>
       <c r="F53">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="4"/>
-        <v>129089272.81537375</v>
+        <f t="shared" si="3"/>
+        <v>80086332.658097222</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="3"/>
+      <c r="B54" s="7"/>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>131589272.81537375</v>
+        <v>87172096.658097222</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="4"/>
-        <v>131589272.81537375</v>
+        <f t="shared" si="3"/>
+        <v>88741194.397942975</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="3"/>
+      <c r="B55" s="7"/>
       <c r="C55">
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>132009753.81537375</v>
+        <v>93265567.397942975</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="4"/>
-        <v>132009753.81537375</v>
+        <f t="shared" si="3"/>
+        <v>94944347.611105949</v>
       </c>
       <c r="H55" s="2">
-        <v>2079519</v>
+        <v>2561391</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
+      <c r="B56" s="7"/>
       <c r="C56">
         <v>6</v>
       </c>
       <c r="D56" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="0"/>
-        <v>134509753.81537375</v>
+        <v>102030111.61110595</v>
       </c>
       <c r="F56">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="4"/>
-        <v>141235241.50614244</v>
+        <f t="shared" si="3"/>
+        <v>103866653.62010586</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
+      <c r="B57" s="7"/>
       <c r="C57">
         <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="0"/>
-        <v>143735241.50614244</v>
+        <v>110952417.62010586</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="4"/>
-        <v>143735241.50614244</v>
+        <f t="shared" si="3"/>
+        <v>112949561.13726777</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
+      <c r="B58" s="7"/>
       <c r="C58">
         <v>8</v>
       </c>
       <c r="D58" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="0"/>
-        <v>146235241.50614244</v>
+        <v>120035325.13726777</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="4"/>
-        <v>146235241.50614244</v>
+        <f t="shared" si="3"/>
+        <v>122195960.98973858</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="3"/>
+      <c r="B59" s="7"/>
       <c r="C59">
         <v>9</v>
       </c>
       <c r="D59" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>148735241.50614244</v>
+        <v>129281724.98973858</v>
       </c>
       <c r="F59">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="4"/>
-        <v>156172003.58144957</v>
+        <f t="shared" si="3"/>
+        <v>131608796.03955388</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
+      <c r="B60" s="7"/>
       <c r="C60">
         <v>10</v>
       </c>
       <c r="D60" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>158672003.58144957</v>
+        <v>138694560.03955388</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="4"/>
-        <v>158672003.58144957</v>
+        <f t="shared" si="3"/>
+        <v>141191062.12026584</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
+      <c r="B61" s="7"/>
       <c r="C61">
         <v>11</v>
       </c>
       <c r="D61" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>161172003.58144957</v>
+        <v>148276826.12026584</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="4"/>
-        <v>161172003.58144957</v>
+        <f t="shared" si="3"/>
+        <v>150945808.99043062</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="3"/>
+      <c r="B62" s="7"/>
       <c r="C62">
         <v>12</v>
       </c>
       <c r="D62" s="1">
-        <v>2500000</v>
+        <v>7085764</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>163672003.58144957</v>
+        <v>158031572.99043062</v>
       </c>
       <c r="F62">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="4"/>
-        <v>171855603.76052204</v>
+        <f t="shared" si="3"/>
+        <v>160876141.30425838</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="1">
         <f xml:space="preserve"> (G50 + SUM(D51:D62)) - SUM(H51:H62)</f>
-        <v>143362645.58607024</v>
+        <v>137496946.24966967</v>
       </c>
       <c r="J62" s="1">
         <f xml:space="preserve"> E62 - I62</f>
-        <v>20309357.995379329</v>
+        <v>20534626.740760952</v>
       </c>
       <c r="K62">
         <v>0.84</v>
       </c>
       <c r="L62" s="1">
         <f xml:space="preserve"> J62 * K62</f>
-        <v>17059860.716118634</v>
+        <v>17249086.462239198</v>
       </c>
       <c r="M62" s="1">
         <f xml:space="preserve"> J62 - L62</f>
-        <v>3249497.279260695</v>
+        <v>3285540.2785217538</v>
       </c>
       <c r="N62">
         <f xml:space="preserve"> J62 / I62 * 100</f>
-        <v>14.166422440346398</v>
+        <v>14.934605677331749</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="7">
         <v>2027</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>174355603.76052204</v>
+        <v>89641243.304258376</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="4"/>
-        <v>174355603.76052204</v>
+        <f t="shared" si="3"/>
+        <v>91254785.683735028</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>80438070</v>
+      </c>
+      <c r="J63" s="8">
+        <f xml:space="preserve"> G62 /2</f>
+        <v>80438070.652129188</v>
+      </c>
+      <c r="K63" s="8">
+        <f>(G62/2/12)+2500000</f>
+        <v>9203172.554344099</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
+      <c r="B64" s="7"/>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>176855603.76052204</v>
+        <v>100457957.68373503</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="4"/>
-        <v>176855603.76052204</v>
+        <f t="shared" si="3"/>
+        <v>102266200.92204227</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
+      <c r="B65" s="7"/>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="0"/>
-        <v>179355603.76052204</v>
+        <v>111469372.92204227</v>
       </c>
       <c r="F65">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="4"/>
-        <v>188323383.94854814</v>
+        <f t="shared" si="3"/>
+        <v>113475821.63463902</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B66" s="3"/>
+      <c r="B66" s="7"/>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="0"/>
-        <v>190823383.94854814</v>
+        <v>122678993.63463902</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="4"/>
-        <v>190823383.94854814</v>
+        <f t="shared" si="3"/>
+        <v>124887215.52006252</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="3"/>
+      <c r="B67" s="7"/>
       <c r="C67">
         <v>5</v>
       </c>
       <c r="D67" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="0"/>
-        <v>193323383.94854814</v>
+        <v>134090387.52006252</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="4"/>
-        <v>193323383.94854814</v>
+        <f t="shared" si="3"/>
+        <v>136504014.49542364</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B68" s="3"/>
+      <c r="B68" s="7"/>
       <c r="C68">
         <v>6</v>
       </c>
       <c r="D68" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="0"/>
-        <v>192573886.94854814</v>
+        <v>142421646.49542364</v>
       </c>
       <c r="F68">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="4"/>
-        <v>202202581.29597554</v>
+        <f t="shared" si="3"/>
+        <v>144985236.13234127</v>
       </c>
       <c r="H68" s="2">
-        <v>3249497</v>
+        <v>3285540</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B69" s="3"/>
+      <c r="B69" s="7"/>
       <c r="C69">
         <v>7</v>
       </c>
       <c r="D69" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" ref="E69:E122" si="5" xml:space="preserve"> G68 + D69 - H69</f>
-        <v>204702581.29597554</v>
+        <f t="shared" ref="E69:E132" si="4" xml:space="preserve"> G68 + D69 - H69</f>
+        <v>154188408.13234127</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="4"/>
-        <v>204702581.29597554</v>
+        <f t="shared" si="3"/>
+        <v>156963799.47872341</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B70" s="3"/>
+      <c r="B70" s="7"/>
       <c r="C70">
         <v>8</v>
       </c>
       <c r="D70" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="5"/>
-        <v>207202581.29597554</v>
+        <f t="shared" si="4"/>
+        <v>166166971.47872341</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="4"/>
-        <v>207202581.29597554</v>
+        <f t="shared" si="3"/>
+        <v>169157976.96534044</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
+      <c r="B71" s="7"/>
       <c r="C71">
         <v>9</v>
       </c>
       <c r="D71" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="5"/>
-        <v>209702581.29597554</v>
+        <f t="shared" si="4"/>
+        <v>178361148.96534044</v>
       </c>
       <c r="F71">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="4"/>
-        <v>220187710.36077431</v>
+        <f t="shared" si="3"/>
+        <v>181571649.64671656</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B72" s="3"/>
+      <c r="B72" s="7"/>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="D72" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="5"/>
-        <v>222687710.36077431</v>
+        <f t="shared" si="4"/>
+        <v>190774821.64671656</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="4"/>
-        <v>222687710.36077431</v>
+        <f t="shared" si="3"/>
+        <v>194208768.43635747</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B73" s="3"/>
+      <c r="B73" s="7"/>
       <c r="C73">
         <v>11</v>
       </c>
       <c r="D73" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="5"/>
-        <v>225187710.36077431</v>
+        <f t="shared" si="4"/>
+        <v>203411940.43635747</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="4"/>
-        <v>225187710.36077431</v>
+        <f t="shared" si="3"/>
+        <v>207073355.36421192</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B74" s="3"/>
+      <c r="B74" s="7"/>
       <c r="C74">
         <v>12</v>
       </c>
       <c r="D74" s="1">
-        <v>2500000</v>
+        <v>9203172</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="5"/>
-        <v>227687710.36077431</v>
+        <f t="shared" si="4"/>
+        <v>216276527.36421192</v>
       </c>
       <c r="F74">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="4"/>
-        <v>239072095.87881303</v>
+        <f t="shared" si="3"/>
+        <v>220169504.85676774</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
       </c>
       <c r="I74" s="1">
         <f xml:space="preserve"> (G62 + SUM(D63:D74)) - SUM(H63:H74)</f>
-        <v>198606106.76052204</v>
+        <v>187590595.30425835</v>
       </c>
       <c r="J74" s="1">
         <f xml:space="preserve"> E74 - I74</f>
-        <v>29081603.600252271</v>
+        <v>28685932.05995357</v>
       </c>
       <c r="K74">
         <v>0.84</v>
       </c>
       <c r="L74" s="1">
         <f xml:space="preserve"> J74 * K74</f>
-        <v>24428547.024211906</v>
+        <v>24096182.930360999</v>
       </c>
       <c r="M74" s="1">
         <f xml:space="preserve"> J74 - L74</f>
-        <v>4653056.5760403648</v>
+        <v>4589749.1295925714</v>
       </c>
       <c r="N74">
         <f xml:space="preserve"> J74 / I74 * 100</f>
-        <v>14.642854680857663</v>
+        <v>15.291775162516579</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="7">
         <v>2028</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="5"/>
-        <v>241572095.87881303</v>
+        <f t="shared" si="4"/>
+        <v>121758481.85676774</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="4"/>
-        <v>241572095.87881303</v>
+        <f t="shared" si="3"/>
+        <v>123950134.53018956</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>110084752</v>
+      </c>
+      <c r="J75" s="8">
+        <f xml:space="preserve"> G74 /2</f>
+        <v>110084752.42838387</v>
+      </c>
+      <c r="K75" s="8">
+        <f>(G74/2/12)+2500000</f>
+        <v>11673729.36903199</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B76" s="3"/>
+      <c r="B76" s="7"/>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="5"/>
-        <v>244072095.87881303</v>
+        <f t="shared" si="4"/>
+        <v>135623863.53018957</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="4"/>
-        <v>244072095.87881303</v>
+        <f t="shared" si="3"/>
+        <v>138065093.07373297</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B77" s="3"/>
+      <c r="B77" s="7"/>
       <c r="C77">
         <v>3</v>
       </c>
       <c r="D77" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="5"/>
-        <v>246572095.87881303</v>
+        <f t="shared" si="4"/>
+        <v>149738822.07373297</v>
       </c>
       <c r="F77">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="4"/>
-        <v>258900700.67275369</v>
+        <f t="shared" si="3"/>
+        <v>152434120.87106016</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B78" s="3"/>
+      <c r="B78" s="7"/>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="5"/>
-        <v>261400700.67275369</v>
+        <f t="shared" si="4"/>
+        <v>164107849.87106016</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="4"/>
-        <v>261400700.67275369</v>
+        <f t="shared" si="3"/>
+        <v>167061791.16873926</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B79" s="3"/>
+      <c r="B79" s="7"/>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="5"/>
-        <v>259247643.67275369</v>
+        <f t="shared" si="4"/>
+        <v>174145771.16873926</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="4"/>
-        <v>259247643.67275369</v>
+        <f t="shared" si="3"/>
+        <v>177280395.04977655</v>
       </c>
       <c r="H79" s="2">
-        <v>4653057</v>
+        <v>4589749</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B80" s="3"/>
+      <c r="B80" s="7"/>
       <c r="C80">
         <v>6</v>
       </c>
       <c r="D80" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="5"/>
-        <v>261747643.67275369</v>
+        <f t="shared" si="4"/>
+        <v>188954124.04977655</v>
       </c>
       <c r="F80">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="4"/>
-        <v>274835025.85639137</v>
+        <f t="shared" si="3"/>
+        <v>192355298.28267252</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B81" s="3"/>
+      <c r="B81" s="7"/>
       <c r="C81">
         <v>7</v>
       </c>
       <c r="D81" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="5"/>
-        <v>277335025.85639137</v>
+        <f t="shared" si="4"/>
+        <v>204029027.28267252</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="4"/>
-        <v>277335025.85639137</v>
+        <f t="shared" si="3"/>
+        <v>207701549.77376062</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B82" s="3"/>
+      <c r="B82" s="7"/>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="5"/>
-        <v>279835025.85639137</v>
+        <f t="shared" si="4"/>
+        <v>219375278.77376062</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="4"/>
-        <v>279835025.85639137</v>
+        <f t="shared" si="3"/>
+        <v>223324033.79168829</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="3"/>
+      <c r="B83" s="7"/>
       <c r="C83">
         <v>9</v>
       </c>
       <c r="D83" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="5"/>
-        <v>282335025.85639137</v>
+        <f t="shared" si="4"/>
+        <v>234997762.79168829</v>
       </c>
       <c r="F83">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="4"/>
-        <v>296451777.14921093</v>
+        <f t="shared" si="3"/>
+        <v>239227722.52193868</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B84" s="3"/>
+      <c r="B84" s="7"/>
       <c r="C84">
         <v>10</v>
       </c>
       <c r="D84" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="5"/>
-        <v>298951777.14921093</v>
+        <f t="shared" si="4"/>
+        <v>250901451.52193868</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="4"/>
-        <v>298951777.14921093</v>
+        <f t="shared" si="3"/>
+        <v>255417677.64933357</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B85" s="3"/>
+      <c r="B85" s="7"/>
       <c r="C85">
         <v>11</v>
       </c>
       <c r="D85" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="5"/>
-        <v>301451777.14921093</v>
+        <f t="shared" si="4"/>
+        <v>267091406.64933357</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="4"/>
-        <v>301451777.14921093</v>
+        <f t="shared" si="3"/>
+        <v>271899051.96902156</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B86" s="3"/>
+      <c r="B86" s="7"/>
       <c r="C86">
         <v>12</v>
       </c>
       <c r="D86" s="1">
-        <v>2500000</v>
+        <v>11673729</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="5"/>
-        <v>303951777.14921093</v>
+        <f t="shared" si="4"/>
+        <v>283572780.96902156</v>
       </c>
       <c r="F86">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="4"/>
-        <v>319149366.00667149</v>
+        <f t="shared" si="3"/>
+        <v>288677091.02646393</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
       </c>
       <c r="I86" s="1">
         <f xml:space="preserve"> (G74 + SUM(D75:D86)) - SUM(H75:H86)</f>
-        <v>264419038.87881303</v>
+        <v>245579751.85676777</v>
       </c>
       <c r="J86" s="1">
         <f xml:space="preserve"> E86 - I86</f>
-        <v>39532738.270397902</v>
+        <v>37993029.112253785</v>
       </c>
       <c r="K86">
         <v>0.84</v>
       </c>
       <c r="L86" s="1">
         <f xml:space="preserve"> J86 * K86</f>
-        <v>33207500.147134237</v>
+        <v>31914144.454293177</v>
       </c>
       <c r="M86" s="1">
         <f xml:space="preserve"> J86 - L86</f>
-        <v>6325238.1232636645</v>
+        <v>6078884.6579606086</v>
       </c>
       <c r="N86">
         <f xml:space="preserve"> J86 / I86 * 100</f>
-        <v>14.950791152567616</v>
+        <v>15.470749858242744</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="7">
         <v>2029</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="5"/>
-        <v>321649366.00667149</v>
+        <f t="shared" si="4"/>
+        <v>158866758.02646393</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="4"/>
-        <v>321649366.00667149</v>
+        <f t="shared" si="3"/>
+        <v>161726359.67094028</v>
       </c>
       <c r="H87" s="2">
-        <v>0</v>
+        <v>144338545</v>
+      </c>
+      <c r="J87" s="8">
+        <f xml:space="preserve"> G86 /2</f>
+        <v>144338545.51323196</v>
+      </c>
+      <c r="K87" s="8">
+        <f>(G86/2/12)+2500000</f>
+        <v>14528212.126102664</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
+      <c r="B88" s="7"/>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="5"/>
-        <v>324149366.00667149</v>
+        <f t="shared" si="4"/>
+        <v>176254571.67094028</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="4"/>
-        <v>324149366.00667149</v>
+        <f t="shared" si="3"/>
+        <v>179427153.96101719</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B89" s="3"/>
+      <c r="B89" s="7"/>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="5"/>
-        <v>326649366.00667149</v>
+        <f t="shared" si="4"/>
+        <v>193955365.96101719</v>
       </c>
       <c r="F89">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="4"/>
-        <v>342981834.30700505</v>
+        <f t="shared" si="3"/>
+        <v>197446562.5483155</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B90" s="3"/>
+      <c r="B90" s="7"/>
       <c r="C90">
         <v>4</v>
       </c>
       <c r="D90" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="5"/>
-        <v>345481834.30700505</v>
+        <f t="shared" si="4"/>
+        <v>211974774.5483155</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="4"/>
-        <v>345481834.30700505</v>
+        <f t="shared" si="3"/>
+        <v>215790320.49018517</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B91" s="3"/>
+      <c r="B91" s="7"/>
       <c r="C91">
         <v>5</v>
       </c>
       <c r="D91" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="5"/>
-        <v>341656596.30700505</v>
+        <f t="shared" si="4"/>
+        <v>224239647.49018517</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="4"/>
-        <v>341656596.30700505</v>
+        <f t="shared" si="3"/>
+        <v>228275961.1450085</v>
       </c>
       <c r="H91" s="2">
-        <v>6325238</v>
+        <v>6078885</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B92" s="3"/>
+      <c r="B92" s="7"/>
       <c r="C92">
         <v>6</v>
       </c>
       <c r="D92" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="5"/>
-        <v>344156596.30700505</v>
+        <f t="shared" si="4"/>
+        <v>242804173.1450085</v>
       </c>
       <c r="F92">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="4"/>
-        <v>361364426.12235528</v>
+        <f t="shared" si="3"/>
+        <v>247174648.26161864</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B93" s="3"/>
+      <c r="B93" s="7"/>
       <c r="C93">
         <v>7</v>
       </c>
       <c r="D93" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="5"/>
-        <v>363864426.12235528</v>
+        <f t="shared" si="4"/>
+        <v>261702860.26161864</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="4"/>
-        <v>363864426.12235528</v>
+        <f t="shared" si="3"/>
+        <v>266413511.74632779</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B94" s="3"/>
+      <c r="B94" s="7"/>
       <c r="C94">
         <v>8</v>
       </c>
       <c r="D94" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="5"/>
-        <v>366364426.12235528</v>
+        <f t="shared" si="4"/>
+        <v>280941723.74632776</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="4"/>
-        <v>366364426.12235528</v>
+        <f t="shared" ref="G94:G157" si="5" xml:space="preserve"> (E94 * F94) + E94</f>
+        <v>285998674.77376163</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B95" s="3"/>
+      <c r="B95" s="7"/>
       <c r="C95">
         <v>9</v>
       </c>
       <c r="D95" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="5"/>
-        <v>368864426.12235528</v>
+        <f t="shared" si="4"/>
+        <v>300526886.77376163</v>
       </c>
       <c r="F95">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="4"/>
-        <v>387307647.42847306</v>
+        <f t="shared" si="5"/>
+        <v>305936370.73568934</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B96" s="3"/>
+      <c r="B96" s="7"/>
       <c r="C96">
         <v>10</v>
       </c>
       <c r="D96" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="5"/>
-        <v>389807647.42847306</v>
+        <f t="shared" si="4"/>
+        <v>320464582.73568934</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="4"/>
-        <v>389807647.42847306</v>
+        <f t="shared" si="5"/>
+        <v>326232945.22493178</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B97" s="3"/>
+      <c r="B97" s="7"/>
       <c r="C97">
         <v>11</v>
       </c>
       <c r="D97" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="5"/>
-        <v>392307647.42847306</v>
+        <f t="shared" si="4"/>
+        <v>340761157.22493178</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="4"/>
-        <v>392307647.42847306</v>
+        <f t="shared" si="5"/>
+        <v>346894858.05498058</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B98" s="3"/>
+      <c r="B98" s="7"/>
       <c r="C98">
         <v>12</v>
       </c>
       <c r="D98" s="1">
-        <v>2500000</v>
+        <v>14528212</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="5"/>
-        <v>394807647.42847306</v>
+        <f t="shared" si="4"/>
+        <v>361423070.05498058</v>
       </c>
       <c r="F98">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="4"/>
-        <v>414548029.79989672</v>
+        <f t="shared" si="5"/>
+        <v>367928685.31597024</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
       </c>
       <c r="I98" s="1">
         <f xml:space="preserve"> (G86 + SUM(D87:D98)) - SUM(H87:H98)</f>
-        <v>342824128.00667149</v>
+        <v>312598205.02646393</v>
       </c>
       <c r="J98" s="1">
         <f xml:space="preserve"> E98 - I98</f>
-        <v>51983519.421801567</v>
+        <v>48824865.02851665</v>
       </c>
       <c r="K98">
         <v>0.75</v>
       </c>
       <c r="L98" s="1">
         <f xml:space="preserve"> J98 * K98</f>
-        <v>38987639.566351175</v>
+        <v>36618648.771387488</v>
       </c>
       <c r="M98" s="1">
         <f xml:space="preserve"> J98 - L98</f>
-        <v>12995879.855450392</v>
+        <v>12206216.257129163</v>
       </c>
       <c r="N98">
         <f xml:space="preserve"> J98 / I98 * 100</f>
-        <v>15.163319957686861</v>
+        <v>15.619048428119807</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="7">
         <v>2030</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="5"/>
-        <v>417048029.79989672</v>
+        <f t="shared" si="4"/>
+        <v>201794704.31597024</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="4"/>
-        <v>417048029.79989672</v>
+        <f t="shared" si="5"/>
+        <v>205427008.99365771</v>
       </c>
       <c r="H99" s="2">
-        <v>0</v>
+        <v>183964342</v>
+      </c>
+      <c r="J99" s="8">
+        <f xml:space="preserve"> G98 /2</f>
+        <v>183964342.65798512</v>
+      </c>
+      <c r="K99" s="8">
+        <f>(G98/2/12)+2500000</f>
+        <v>17830361.888165429</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B100" s="3"/>
+      <c r="B100" s="7"/>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="5"/>
-        <v>419548029.79989672</v>
+        <f t="shared" si="4"/>
+        <v>223257369.99365771</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="4"/>
-        <v>419548029.79989672</v>
+        <f t="shared" si="5"/>
+        <v>227276002.65354353</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B101" s="3"/>
+      <c r="B101" s="7"/>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="5"/>
-        <v>422048029.79989672</v>
+        <f t="shared" si="4"/>
+        <v>245106363.65354353</v>
       </c>
       <c r="F101">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="4"/>
-        <v>443150431.28989154</v>
+        <f t="shared" si="5"/>
+        <v>249518278.19930732</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B102" s="3"/>
+      <c r="B102" s="7"/>
       <c r="C102">
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="5"/>
-        <v>445650431.28989154</v>
+        <f t="shared" si="4"/>
+        <v>267348639.19930732</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="4"/>
-        <v>445650431.28989154</v>
+        <f t="shared" si="5"/>
+        <v>272160914.70489484</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B103" s="3"/>
+      <c r="B103" s="7"/>
       <c r="C103">
         <v>5</v>
       </c>
       <c r="D103" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="5"/>
-        <v>435154551.28989154</v>
+        <f t="shared" si="4"/>
+        <v>277785059.70489484</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" ref="G103:G122" si="6" xml:space="preserve"> (E103 * F103) + E103</f>
-        <v>435154551.28989154</v>
+        <f t="shared" si="5"/>
+        <v>282785190.77958298</v>
       </c>
       <c r="H103" s="2">
-        <v>12995880</v>
+        <v>12206216</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B104" s="3"/>
+      <c r="B104" s="7"/>
       <c r="C104">
         <v>6</v>
       </c>
       <c r="D104" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="5"/>
-        <v>437654551.28989154</v>
+        <f t="shared" si="4"/>
+        <v>300615551.77958298</v>
       </c>
       <c r="F104">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="6"/>
-        <v>459537278.85438609</v>
+        <f t="shared" si="5"/>
+        <v>306026631.71161544</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B105" s="3"/>
+      <c r="B105" s="7"/>
       <c r="C105">
         <v>7</v>
       </c>
       <c r="D105" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="5"/>
-        <v>462037278.85438609</v>
+        <f t="shared" si="4"/>
+        <v>323856992.71161544</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="6"/>
-        <v>462037278.85438609</v>
+        <f t="shared" si="5"/>
+        <v>329686418.58042455</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B106" s="3"/>
+      <c r="B106" s="7"/>
       <c r="C106">
         <v>8</v>
       </c>
       <c r="D106" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="5"/>
-        <v>464537278.85438609</v>
+        <f t="shared" si="4"/>
+        <v>347516779.58042455</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="6"/>
-        <v>464537278.85438609</v>
+        <f t="shared" si="5"/>
+        <v>353772081.61287218</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B107" s="3"/>
+      <c r="B107" s="7"/>
       <c r="C107">
         <v>9</v>
       </c>
       <c r="D107" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="5"/>
-        <v>467037278.85438609</v>
+        <f t="shared" si="4"/>
+        <v>371602442.61287218</v>
       </c>
       <c r="F107">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="6"/>
-        <v>490389142.79710537</v>
+        <f t="shared" si="5"/>
+        <v>378291286.5799039</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B108" s="3"/>
+      <c r="B108" s="7"/>
       <c r="C108">
         <v>10</v>
       </c>
       <c r="D108" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="5"/>
-        <v>492889142.79710537</v>
+        <f t="shared" si="4"/>
+        <v>396121647.5799039</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="6"/>
-        <v>492889142.79710537</v>
+        <f t="shared" si="5"/>
+        <v>403251837.23634219</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B109" s="3"/>
+      <c r="B109" s="7"/>
       <c r="C109">
         <v>11</v>
       </c>
       <c r="D109" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="5"/>
-        <v>495389142.79710537</v>
+        <f t="shared" si="4"/>
+        <v>421082198.23634219</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="6"/>
-        <v>495389142.79710537</v>
+        <f t="shared" si="5"/>
+        <v>428661677.80459636</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B110" s="3"/>
+      <c r="B110" s="7"/>
       <c r="C110">
         <v>12</v>
       </c>
       <c r="D110" s="1">
-        <v>2500000</v>
+        <v>17830361</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="5"/>
-        <v>497889142.79710537</v>
+        <f t="shared" si="4"/>
+        <v>446492038.80459636</v>
       </c>
       <c r="F110">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="6"/>
-        <v>522783599.93696064</v>
+        <f t="shared" si="5"/>
+        <v>454528895.50307912</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
       </c>
       <c r="I110" s="1">
         <f xml:space="preserve"> (G98 + SUM(D99:D110)) - SUM(H99:H110)</f>
-        <v>431552149.79989672</v>
+        <v>385722459.31597018</v>
       </c>
       <c r="J110" s="1">
         <f xml:space="preserve"> E110 - I110</f>
-        <v>66336992.997208655</v>
+        <v>60769579.488626182</v>
       </c>
       <c r="K110">
         <v>0.75</v>
       </c>
       <c r="L110" s="1">
         <f xml:space="preserve"> J110 * K110</f>
-        <v>49752744.747906491</v>
+        <v>45577184.616469637</v>
       </c>
       <c r="M110" s="1">
         <f xml:space="preserve"> J110 - L110</f>
-        <v>16584248.249302164</v>
+        <v>15192394.872156546</v>
       </c>
       <c r="N110">
         <f xml:space="preserve"> J110 / I110 * 100</f>
-        <v>15.371721129872245</v>
+        <v>15.754742307822395</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="7">
         <v>2031</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="5"/>
-        <v>525283599.93696064</v>
+        <f t="shared" si="4"/>
+        <v>248703152.50307912</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="6"/>
-        <v>525283599.93696064</v>
+        <f t="shared" si="5"/>
+        <v>253179809.24813455</v>
       </c>
       <c r="H111" s="2">
-        <v>0</v>
+        <v>227264447</v>
+      </c>
+      <c r="J111" s="8">
+        <f xml:space="preserve"> G110 /2</f>
+        <v>227264447.75153956</v>
+      </c>
+      <c r="K111" s="8">
+        <f>(G110/2/12)+2500000</f>
+        <v>21438703.979294963</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B112" s="3"/>
+      <c r="B112" s="7"/>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="5"/>
-        <v>527783599.93696064</v>
+        <f t="shared" si="4"/>
+        <v>274618513.24813455</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="6"/>
-        <v>527783599.93696064</v>
+        <f t="shared" si="5"/>
+        <v>279561646.486601</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B113" s="3"/>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B113" s="7"/>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="5"/>
-        <v>530283599.93696064</v>
+        <f t="shared" si="4"/>
+        <v>301000350.486601</v>
       </c>
       <c r="F113">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="6"/>
-        <v>556797779.93380868</v>
+        <f t="shared" si="5"/>
+        <v>306418356.79535979</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B114" s="3"/>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B114" s="7"/>
       <c r="C114">
         <v>4</v>
       </c>
       <c r="D114" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="5"/>
-        <v>559297779.93380868</v>
+        <f t="shared" si="4"/>
+        <v>327857060.79535979</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="6"/>
-        <v>559297779.93380868</v>
+        <f t="shared" si="5"/>
+        <v>333758487.88967627</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B115" s="3"/>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B115" s="7"/>
       <c r="C115">
         <v>5</v>
       </c>
       <c r="D115" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="5"/>
-        <v>545213531.93380868</v>
+        <f t="shared" si="4"/>
+        <v>340004796.88967627</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="6"/>
-        <v>545213531.93380868</v>
+        <f t="shared" si="5"/>
+        <v>346124883.23369044</v>
       </c>
       <c r="H115" s="2">
-        <v>16584248</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B116" s="3"/>
+        <v>15192395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B116" s="7"/>
       <c r="C116">
         <v>6</v>
       </c>
       <c r="D116" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="5"/>
-        <v>547713531.93380868</v>
+        <f t="shared" si="4"/>
+        <v>367563587.23369044</v>
       </c>
       <c r="F116">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="6"/>
-        <v>575099208.5304991</v>
+        <f t="shared" si="5"/>
+        <v>374179731.80389684</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B117" s="3"/>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B117" s="7"/>
       <c r="C117">
         <v>7</v>
       </c>
       <c r="D117" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="5"/>
-        <v>577599208.5304991</v>
+        <f t="shared" si="4"/>
+        <v>395618435.80389684</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="6"/>
-        <v>577599208.5304991</v>
+        <f t="shared" si="5"/>
+        <v>402739567.64836699</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B118" s="3"/>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B118" s="7"/>
       <c r="C118">
         <v>8</v>
       </c>
       <c r="D118" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="5"/>
-        <v>580099208.5304991</v>
+        <f t="shared" si="4"/>
+        <v>424178271.64836699</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="6"/>
-        <v>580099208.5304991</v>
+        <f t="shared" si="5"/>
+        <v>431813480.5380376</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B119" s="3"/>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B119" s="7"/>
       <c r="C119">
         <v>9</v>
       </c>
       <c r="D119" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="5"/>
-        <v>582599208.5304991</v>
+        <f t="shared" si="4"/>
+        <v>453252184.5380376</v>
       </c>
       <c r="F119">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="6"/>
-        <v>611729168.9570241</v>
+        <f t="shared" si="5"/>
+        <v>461410723.85972226</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B120" s="3"/>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B120" s="7"/>
       <c r="C120">
         <v>10</v>
       </c>
       <c r="D120" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="5"/>
-        <v>614229168.9570241</v>
+        <f t="shared" si="4"/>
+        <v>482849427.85972226</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="6"/>
-        <v>614229168.9570241</v>
+        <f t="shared" si="5"/>
+        <v>491540717.56119728</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B121" s="3"/>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B121" s="7"/>
       <c r="C121">
         <v>11</v>
       </c>
       <c r="D121" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E121" s="1">
-        <f t="shared" si="5"/>
-        <v>616729168.9570241</v>
+        <f t="shared" si="4"/>
+        <v>512979421.56119728</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="6"/>
-        <v>616729168.9570241</v>
+        <f t="shared" si="5"/>
+        <v>522213051.14929885</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B122" s="3"/>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B122" s="7"/>
       <c r="C122">
         <v>12</v>
       </c>
       <c r="D122" s="1">
-        <v>2500000</v>
+        <v>21438704</v>
       </c>
       <c r="E122" s="1">
-        <f t="shared" si="5"/>
-        <v>619229168.9570241</v>
+        <f t="shared" si="4"/>
+        <v>543651755.14929891</v>
       </c>
       <c r="F122">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="6"/>
-        <v>650190627.40487528</v>
+        <f t="shared" si="5"/>
+        <v>553437486.74198627</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
       </c>
       <c r="I122" s="1">
         <f xml:space="preserve"> (G110 + SUM(D111:D122)) - SUM(H111:H122)</f>
-        <v>536199351.9369607</v>
+        <v>469336501.50307918</v>
       </c>
       <c r="J122" s="1">
         <f xml:space="preserve"> E122 - I122</f>
-        <v>83029817.0200634</v>
+        <v>74315253.64621973</v>
       </c>
       <c r="K122">
         <v>0.75</v>
       </c>
       <c r="L122" s="1">
         <f xml:space="preserve"> J122 * K122</f>
-        <v>62272362.76504755</v>
+        <v>55736440.234664798</v>
       </c>
       <c r="M122" s="1">
         <f xml:space="preserve"> J122 - L122</f>
-        <v>20757454.25501585</v>
+        <v>18578813.411554933</v>
       </c>
       <c r="N122">
         <f xml:space="preserve"> J122 / I122 * 100</f>
-        <v>15.484878286429737</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123">
+        <v>15.834109089793897</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="9">
         <v>11</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="7">
         <v>2032</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="9">
         <v>1</v>
       </c>
-      <c r="D123" s="1">
-        <v>0</v>
-      </c>
-      <c r="E123" s="1">
-        <f t="shared" ref="E123:E134" si="7" xml:space="preserve"> G122 + D123 - H123</f>
-        <v>350190627.40487528</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" s="1">
-        <f t="shared" ref="G123:G134" si="8" xml:space="preserve"> (E123 * F123) + E123</f>
-        <v>350190627.40487528</v>
-      </c>
-      <c r="H123" s="2">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B124" s="3"/>
+      <c r="D123" s="10">
+        <v>21059895</v>
+      </c>
+      <c r="E123" s="10">
+        <f t="shared" si="4"/>
+        <v>273778638.74198627</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G123" s="10">
+        <f t="shared" si="5"/>
+        <v>278706654.23934203</v>
+      </c>
+      <c r="H123" s="11">
+        <v>300718743</v>
+      </c>
+      <c r="J123" s="12">
+        <f xml:space="preserve"> (G122 /2) + 24000000</f>
+        <v>300718743.37099314</v>
+      </c>
+      <c r="K123" s="12">
+        <f>(((G122/2) - 24000000)/12)</f>
+        <v>21059895.280916095</v>
+      </c>
+      <c r="M123" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O123" s="10"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B124" s="7"/>
       <c r="C124">
         <v>2</v>
       </c>
-      <c r="D124" s="1">
-        <v>0</v>
+      <c r="D124" s="10">
+        <v>21059895</v>
       </c>
       <c r="E124" s="1">
-        <f t="shared" si="7"/>
-        <v>348690627.40487528</v>
+        <f t="shared" si="4"/>
+        <v>299766549.23934203</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="8"/>
-        <v>348690627.40487528</v>
-      </c>
-      <c r="H124" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B125" s="3"/>
+        <f t="shared" si="5"/>
+        <v>305162347.12565017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B125" s="7"/>
       <c r="C125">
         <v>3</v>
       </c>
-      <c r="D125" s="1">
-        <v>0</v>
+      <c r="D125" s="10">
+        <v>21059895</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" si="7"/>
-        <v>347190627.40487528</v>
+        <f t="shared" si="4"/>
+        <v>326222242.12565017</v>
       </c>
       <c r="F125">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="8"/>
-        <v>364550158.77511907</v>
-      </c>
-      <c r="H125" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B126" s="3"/>
+        <f t="shared" si="5"/>
+        <v>332094242.48391187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B126" s="7"/>
       <c r="C126">
         <v>4</v>
       </c>
-      <c r="D126" s="1">
-        <v>0</v>
+      <c r="D126" s="10">
+        <v>21059895</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" si="7"/>
-        <v>363050158.77511907</v>
+        <f t="shared" si="4"/>
+        <v>353154137.48391187</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="8"/>
-        <v>363050158.77511907</v>
-      </c>
-      <c r="H126" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B127" s="3"/>
+        <f t="shared" si="5"/>
+        <v>359510911.95862228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B127" s="7"/>
       <c r="C127">
         <v>5</v>
       </c>
-      <c r="D127" s="1">
-        <v>0</v>
+      <c r="D127" s="10">
+        <v>21059895</v>
       </c>
       <c r="E127" s="1">
-        <f t="shared" si="7"/>
-        <v>340792704.77511907</v>
+        <f t="shared" si="4"/>
+        <v>361991993.95862228</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="8"/>
-        <v>340792704.77511907</v>
+        <f t="shared" si="5"/>
+        <v>368507849.84987748</v>
       </c>
       <c r="H127" s="2">
-        <v>22257454</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B128" s="3"/>
+        <v>18578813</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B128" s="7"/>
       <c r="C128">
         <v>6</v>
       </c>
-      <c r="D128" s="1">
-        <v>0</v>
+      <c r="D128" s="10">
+        <v>21059895</v>
       </c>
       <c r="E128" s="1">
-        <f t="shared" si="7"/>
-        <v>339292704.77511907</v>
+        <f t="shared" si="4"/>
+        <v>389567744.84987748</v>
       </c>
       <c r="F128">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="8"/>
-        <v>356257340.01387501</v>
-      </c>
-      <c r="H128" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>396579964.25717527</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B129" s="3"/>
+      <c r="B129" s="7"/>
       <c r="C129">
         <v>7</v>
       </c>
-      <c r="D129" s="1">
-        <v>0</v>
+      <c r="D129" s="10">
+        <v>21059895</v>
       </c>
       <c r="E129" s="1">
-        <f t="shared" si="7"/>
-        <v>354757340.01387501</v>
+        <f t="shared" si="4"/>
+        <v>417639859.25717527</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="8"/>
-        <v>354757340.01387501</v>
-      </c>
-      <c r="H129" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>425157376.72380441</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B130" s="3"/>
+      <c r="B130" s="7"/>
       <c r="C130">
         <v>8</v>
       </c>
-      <c r="D130" s="1">
-        <v>0</v>
+      <c r="D130" s="10">
+        <v>21059895</v>
       </c>
       <c r="E130" s="1">
-        <f t="shared" si="7"/>
-        <v>353257340.01387501</v>
+        <f t="shared" si="4"/>
+        <v>446217271.72380441</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="8"/>
-        <v>353257340.01387501</v>
-      </c>
-      <c r="H130" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>454249182.61483288</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B131" s="3"/>
+      <c r="B131" s="7"/>
       <c r="C131">
         <v>9</v>
       </c>
-      <c r="D131" s="1">
-        <v>0</v>
+      <c r="D131" s="10">
+        <v>21059895</v>
       </c>
       <c r="E131" s="1">
-        <f t="shared" si="7"/>
-        <v>351757340.01387501</v>
+        <f t="shared" si="4"/>
+        <v>475309077.61483288</v>
       </c>
       <c r="F131">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" si="8"/>
-        <v>369345207.01456875</v>
-      </c>
-      <c r="H131" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>483864641.01189989</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B132" s="3"/>
+      <c r="B132" s="7"/>
       <c r="C132">
         <v>10</v>
       </c>
-      <c r="D132" s="1">
-        <v>0</v>
+      <c r="D132" s="10">
+        <v>21059895</v>
       </c>
       <c r="E132" s="1">
-        <f t="shared" si="7"/>
-        <v>367845207.01456875</v>
+        <f t="shared" si="4"/>
+        <v>504924536.01189989</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="8"/>
-        <v>367845207.01456875</v>
-      </c>
-      <c r="H132" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>514013177.66011411</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B133" s="3"/>
+      <c r="B133" s="7"/>
       <c r="C133">
         <v>11</v>
       </c>
-      <c r="D133" s="1">
-        <v>0</v>
+      <c r="D133" s="10">
+        <v>21059895</v>
       </c>
       <c r="E133" s="1">
-        <f t="shared" si="7"/>
-        <v>366345207.01456875</v>
+        <f t="shared" ref="E133:E196" si="6" xml:space="preserve"> G132 + D133 - H133</f>
+        <v>535073072.66011411</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="8"/>
-        <v>366345207.01456875</v>
-      </c>
-      <c r="H133" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>544704387.96799612</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B134" s="3"/>
+      <c r="B134" s="7"/>
       <c r="C134">
         <v>12</v>
       </c>
-      <c r="D134" s="1">
-        <v>0</v>
+      <c r="D134" s="10">
+        <v>21059895</v>
       </c>
       <c r="E134" s="1">
-        <f t="shared" si="7"/>
-        <v>364845207.01456875</v>
+        <f t="shared" si="6"/>
+        <v>565764282.96799612</v>
       </c>
       <c r="F134">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="8"/>
-        <v>383087467.3652972</v>
-      </c>
-      <c r="H134" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>575948040.06142008</v>
       </c>
       <c r="I134" s="1">
         <f xml:space="preserve"> (G122 + SUM(D123:D134)) - SUM(H123:H134)</f>
-        <v>312933173.40487528</v>
+        <v>486858670.74198627</v>
       </c>
       <c r="J134" s="1">
         <f xml:space="preserve"> E134 - I134</f>
-        <v>51912033.609693468</v>
+        <v>78905612.226009846</v>
       </c>
       <c r="K134">
         <v>0.75</v>
       </c>
       <c r="L134" s="1">
         <f xml:space="preserve"> J134 * K134</f>
-        <v>38934025.207270101</v>
+        <v>59179209.169507384</v>
       </c>
       <c r="M134" s="1">
         <f xml:space="preserve"> J134 - L134</f>
-        <v>12978008.402423367</v>
+        <v>19726403.056502461</v>
       </c>
       <c r="N134">
         <f xml:space="preserve"> J134 / I134 * 100</f>
-        <v>16.588856031101979</v>
+        <v>16.20708779937214</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>12</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="7">
         <v>2033</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" s="1">
-        <v>0</v>
+      <c r="D135" s="10">
+        <v>21997835</v>
       </c>
       <c r="E135" s="1">
-        <f t="shared" ref="E135:E198" si="9" xml:space="preserve"> G134 + D135 - H135</f>
-        <v>381587467.3652972</v>
+        <f t="shared" si="6"/>
+        <v>285971855.06142008</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" ref="G135:G198" si="10" xml:space="preserve"> (E135 * F135) + E135</f>
-        <v>381587467.3652972</v>
+        <f t="shared" si="5"/>
+        <v>291119348.45252562</v>
       </c>
       <c r="H135" s="2">
-        <v>1500000</v>
+        <v>311974020</v>
+      </c>
+      <c r="J135" s="8">
+        <f xml:space="preserve"> (G134 /2) + 24000000</f>
+        <v>311974020.03071004</v>
+      </c>
+      <c r="K135" s="8">
+        <f>(((G134/2) - 24000000)/12)</f>
+        <v>21997835.00255917</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B136" s="3"/>
+      <c r="B136" s="7"/>
       <c r="C136">
         <v>2</v>
       </c>
-      <c r="D136" s="1">
-        <v>0</v>
+      <c r="D136" s="10">
+        <v>21997835</v>
       </c>
       <c r="E136" s="1">
-        <f t="shared" si="9"/>
-        <v>380087467.3652972</v>
+        <f t="shared" si="6"/>
+        <v>313117183.45252562</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="10"/>
-        <v>380087467.3652972</v>
-      </c>
-      <c r="H136" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>318753292.7546711</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B137" s="3"/>
+      <c r="B137" s="7"/>
       <c r="C137">
         <v>3</v>
       </c>
-      <c r="D137" s="1">
-        <v>0</v>
+      <c r="D137" s="10">
+        <v>21997835</v>
       </c>
       <c r="E137" s="1">
-        <f t="shared" si="9"/>
-        <v>378587467.3652972</v>
+        <f t="shared" si="6"/>
+        <v>340751127.7546711</v>
       </c>
       <c r="F137">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="10"/>
-        <v>397516840.73356205</v>
-      </c>
-      <c r="H137" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>346884648.05425519</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B138" s="3"/>
+      <c r="B138" s="7"/>
       <c r="C138">
         <v>4</v>
       </c>
-      <c r="D138" s="1">
-        <v>0</v>
+      <c r="D138" s="10">
+        <v>21997835</v>
       </c>
       <c r="E138" s="1">
-        <f t="shared" si="9"/>
-        <v>396016840.73356205</v>
+        <f t="shared" si="6"/>
+        <v>368882483.05425519</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="10"/>
-        <v>396016840.73356205</v>
-      </c>
-      <c r="H138" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>375522367.74923176</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B139" s="3"/>
+      <c r="B139" s="7"/>
       <c r="C139">
         <v>5</v>
       </c>
-      <c r="D139" s="1">
-        <v>0</v>
+      <c r="D139" s="10">
+        <v>21997835</v>
       </c>
       <c r="E139" s="1">
-        <f t="shared" si="9"/>
-        <v>381538832.73356205</v>
+        <f t="shared" si="6"/>
+        <v>377793799.74923176</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="10"/>
-        <v>381538832.73356205</v>
+        <f t="shared" si="5"/>
+        <v>384594088.14471793</v>
       </c>
       <c r="H139" s="2">
-        <v>14478008</v>
+        <v>19726403</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B140" s="3"/>
+      <c r="B140" s="7"/>
       <c r="C140">
         <v>6</v>
       </c>
-      <c r="D140" s="1">
-        <v>0</v>
+      <c r="D140" s="10">
+        <v>21997835</v>
       </c>
       <c r="E140" s="1">
-        <f t="shared" si="9"/>
-        <v>380038832.73356205</v>
+        <f t="shared" si="6"/>
+        <v>406591923.14471793</v>
       </c>
       <c r="F140">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="10"/>
-        <v>399040774.37024015</v>
-      </c>
-      <c r="H140" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>413910577.76132286</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B141" s="3"/>
+      <c r="B141" s="7"/>
       <c r="C141">
         <v>7</v>
       </c>
-      <c r="D141" s="1">
-        <v>0</v>
+      <c r="D141" s="10">
+        <v>21997835</v>
       </c>
       <c r="E141" s="1">
-        <f t="shared" si="9"/>
-        <v>397540774.37024015</v>
+        <f t="shared" si="6"/>
+        <v>435908412.76132286</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="10"/>
-        <v>397540774.37024015</v>
-      </c>
-      <c r="H141" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>443754764.19102669</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B142" s="3"/>
+      <c r="B142" s="7"/>
       <c r="C142">
         <v>8</v>
       </c>
-      <c r="D142" s="1">
-        <v>0</v>
+      <c r="D142" s="10">
+        <v>21997835</v>
       </c>
       <c r="E142" s="1">
-        <f t="shared" si="9"/>
-        <v>396040774.37024015</v>
+        <f t="shared" si="6"/>
+        <v>465752599.19102669</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="10"/>
-        <v>396040774.37024015</v>
-      </c>
-      <c r="H142" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>474136145.97646517</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B143" s="3"/>
+      <c r="B143" s="7"/>
       <c r="C143">
         <v>9</v>
       </c>
-      <c r="D143" s="1">
-        <v>0</v>
+      <c r="D143" s="10">
+        <v>21997835</v>
       </c>
       <c r="E143" s="1">
-        <f t="shared" si="9"/>
-        <v>394540774.37024015</v>
+        <f t="shared" si="6"/>
+        <v>496133980.97646517</v>
       </c>
       <c r="F143">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="10"/>
-        <v>414267813.08875215</v>
-      </c>
-      <c r="H143" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>505064392.63404155</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B144" s="3"/>
+      <c r="B144" s="7"/>
       <c r="C144">
         <v>10</v>
       </c>
-      <c r="D144" s="1">
-        <v>0</v>
+      <c r="D144" s="10">
+        <v>21997835</v>
       </c>
       <c r="E144" s="1">
-        <f t="shared" si="9"/>
-        <v>412767813.08875215</v>
+        <f t="shared" si="6"/>
+        <v>527062227.63404155</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="10"/>
-        <v>412767813.08875215</v>
-      </c>
-      <c r="H144" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>536549347.73145431</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B145" s="3"/>
+      <c r="B145" s="7"/>
       <c r="C145">
         <v>11</v>
       </c>
-      <c r="D145" s="1">
-        <v>0</v>
+      <c r="D145" s="10">
+        <v>21997835</v>
       </c>
       <c r="E145" s="1">
-        <f t="shared" si="9"/>
-        <v>411267813.08875215</v>
+        <f t="shared" si="6"/>
+        <v>558547182.73145437</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="10"/>
-        <v>411267813.08875215</v>
-      </c>
-      <c r="H145" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>568601032.02062058</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B146" s="3"/>
+      <c r="B146" s="7"/>
       <c r="C146">
         <v>12</v>
       </c>
-      <c r="D146" s="1">
-        <v>0</v>
+      <c r="D146" s="10">
+        <v>21997835</v>
       </c>
       <c r="E146" s="1">
-        <f t="shared" si="9"/>
-        <v>409767813.08875215</v>
+        <f t="shared" si="6"/>
+        <v>590598867.02062058</v>
       </c>
       <c r="F146">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="10"/>
-        <v>430256203.74318975</v>
-      </c>
-      <c r="H146" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>601229646.62699175</v>
       </c>
       <c r="I146" s="1">
         <f xml:space="preserve"> (G134 + SUM(D135:D146)) - SUM(H135:H146)</f>
-        <v>352109459.3652972</v>
+        <v>508221637.06142008</v>
       </c>
       <c r="J146" s="1">
         <f xml:space="preserve"> E146 - I146</f>
-        <v>57658353.723454952</v>
+        <v>82377229.959200501</v>
       </c>
       <c r="K146">
         <v>0.75</v>
       </c>
       <c r="L146" s="1">
         <f xml:space="preserve"> J146 * K146</f>
-        <v>43243765.292591214</v>
+        <v>61782922.469400376</v>
       </c>
       <c r="M146" s="1">
         <f xml:space="preserve"> J146 - L146</f>
-        <v>14414588.430863738</v>
+        <v>20594307.489800125</v>
       </c>
       <c r="N146">
         <f xml:space="preserve"> J146 / I146 * 100</f>
-        <v>16.375122050793042</v>
+        <v>16.208918304917617</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>13</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="7">
         <v>2034</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
-      <c r="D147" s="1">
-        <v>0</v>
+      <c r="D147" s="10">
+        <v>23051235</v>
       </c>
       <c r="E147" s="1">
-        <f t="shared" si="9"/>
-        <v>428756203.74318975</v>
+        <f t="shared" si="6"/>
+        <v>299666058.62699175</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="10"/>
-        <v>428756203.74318975</v>
+        <f t="shared" si="5"/>
+        <v>305060047.68227762</v>
       </c>
       <c r="H147" s="2">
-        <v>1500000</v>
+        <v>324614823</v>
+      </c>
+      <c r="J147" s="8">
+        <f xml:space="preserve"> (G146 /2) + 24000000</f>
+        <v>324614823.31349587</v>
+      </c>
+      <c r="K147" s="8">
+        <f>(((G146/2) - 24000000)/12)</f>
+        <v>23051235.276124656</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B148" s="3"/>
+      <c r="B148" s="7"/>
       <c r="C148">
         <v>2</v>
       </c>
-      <c r="D148" s="1">
-        <v>0</v>
+      <c r="D148" s="10">
+        <v>23051235</v>
       </c>
       <c r="E148" s="1">
-        <f t="shared" si="9"/>
-        <v>427256203.74318975</v>
+        <f t="shared" si="6"/>
+        <v>328111282.68227762</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="10"/>
-        <v>427256203.74318975</v>
-      </c>
-      <c r="H148" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>334017285.7705586</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B149" s="3"/>
+      <c r="B149" s="7"/>
       <c r="C149">
         <v>3</v>
       </c>
-      <c r="D149" s="1">
-        <v>0</v>
+      <c r="D149" s="10">
+        <v>23051235</v>
       </c>
       <c r="E149" s="1">
-        <f t="shared" si="9"/>
-        <v>425756203.74318975</v>
+        <f t="shared" si="6"/>
+        <v>357068520.7705586</v>
       </c>
       <c r="F149">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="10"/>
-        <v>447044013.93034923</v>
-      </c>
-      <c r="H149" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>363495754.14442867</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B150" s="3"/>
+      <c r="B150" s="7"/>
       <c r="C150">
         <v>4</v>
       </c>
-      <c r="D150" s="1">
-        <v>0</v>
+      <c r="D150" s="10">
+        <v>23051235</v>
       </c>
       <c r="E150" s="1">
-        <f t="shared" si="9"/>
-        <v>445544013.93034923</v>
+        <f t="shared" si="6"/>
+        <v>386546989.14442867</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="10"/>
-        <v>445544013.93034923</v>
-      </c>
-      <c r="H150" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>393504834.94902837</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B151" s="3"/>
+      <c r="B151" s="7"/>
       <c r="C151">
         <v>5</v>
       </c>
-      <c r="D151" s="1">
-        <v>0</v>
+      <c r="D151" s="10">
+        <v>23051235</v>
       </c>
       <c r="E151" s="1">
-        <f t="shared" si="9"/>
-        <v>429629425.93034923</v>
+        <f t="shared" si="6"/>
+        <v>395961762.94902837</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="10"/>
-        <v>429629425.93034923</v>
+        <f t="shared" si="5"/>
+        <v>403089074.68211091</v>
       </c>
       <c r="H151" s="2">
-        <v>15914588</v>
+        <v>20594307</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B152" s="3"/>
+      <c r="B152" s="7"/>
       <c r="C152">
         <v>6</v>
       </c>
-      <c r="D152" s="1">
-        <v>0</v>
+      <c r="D152" s="10">
+        <v>23051235</v>
       </c>
       <c r="E152" s="1">
-        <f t="shared" si="9"/>
-        <v>428129425.93034923</v>
+        <f t="shared" si="6"/>
+        <v>426140309.68211091</v>
       </c>
       <c r="F152">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="10"/>
-        <v>449535897.22686672</v>
-      </c>
-      <c r="H152" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>433810835.2563889</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B153" s="3"/>
+      <c r="B153" s="7"/>
       <c r="C153">
         <v>7</v>
       </c>
-      <c r="D153" s="1">
-        <v>0</v>
+      <c r="D153" s="10">
+        <v>23051235</v>
       </c>
       <c r="E153" s="1">
-        <f t="shared" si="9"/>
-        <v>448035897.22686672</v>
+        <f t="shared" si="6"/>
+        <v>456862070.2563889</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="10"/>
-        <v>448035897.22686672</v>
-      </c>
-      <c r="H153" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>465085587.5210039</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B154" s="3"/>
+      <c r="B154" s="7"/>
       <c r="C154">
         <v>8</v>
       </c>
-      <c r="D154" s="1">
-        <v>0</v>
+      <c r="D154" s="10">
+        <v>23051235</v>
       </c>
       <c r="E154" s="1">
-        <f t="shared" si="9"/>
-        <v>446535897.22686672</v>
+        <f t="shared" si="6"/>
+        <v>488136822.5210039</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="10"/>
-        <v>446535897.22686672</v>
-      </c>
-      <c r="H154" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>496923285.32638198</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B155" s="3"/>
+      <c r="B155" s="7"/>
       <c r="C155">
         <v>9</v>
       </c>
-      <c r="D155" s="1">
-        <v>0</v>
+      <c r="D155" s="10">
+        <v>23051235</v>
       </c>
       <c r="E155" s="1">
-        <f t="shared" si="9"/>
-        <v>445035897.22686672</v>
+        <f t="shared" si="6"/>
+        <v>519974520.32638198</v>
       </c>
       <c r="F155">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="10"/>
-        <v>467287692.08821005</v>
-      </c>
-      <c r="H155" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>529334061.69225687</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B156" s="3"/>
+      <c r="B156" s="7"/>
       <c r="C156">
         <v>10</v>
       </c>
-      <c r="D156" s="1">
-        <v>0</v>
+      <c r="D156" s="10">
+        <v>23051235</v>
       </c>
       <c r="E156" s="1">
-        <f t="shared" si="9"/>
-        <v>465787692.08821005</v>
+        <f t="shared" si="6"/>
+        <v>552385296.69225693</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="10"/>
-        <v>465787692.08821005</v>
-      </c>
-      <c r="H156" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>562328232.03271759</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B157" s="3"/>
+      <c r="B157" s="7"/>
       <c r="C157">
         <v>11</v>
       </c>
-      <c r="D157" s="1">
-        <v>0</v>
+      <c r="D157" s="10">
+        <v>23051235</v>
       </c>
       <c r="E157" s="1">
-        <f t="shared" si="9"/>
-        <v>464287692.08821005</v>
+        <f t="shared" si="6"/>
+        <v>585379467.03271759</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="10"/>
-        <v>464287692.08821005</v>
-      </c>
-      <c r="H157" s="2">
-        <v>1500000</v>
+        <f t="shared" si="5"/>
+        <v>595916297.4393065</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B158" s="3"/>
+      <c r="B158" s="7"/>
       <c r="C158">
         <v>12</v>
       </c>
-      <c r="D158" s="1">
-        <v>0</v>
+      <c r="D158" s="10">
+        <v>23051235</v>
       </c>
       <c r="E158" s="1">
-        <f t="shared" si="9"/>
-        <v>462787692.08821005</v>
+        <f t="shared" si="6"/>
+        <v>618967532.4393065</v>
       </c>
       <c r="F158">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="10"/>
-        <v>485927076.69262058</v>
-      </c>
-      <c r="H158" s="2">
-        <v>1500000</v>
+        <f t="shared" ref="G158:G221" si="7" xml:space="preserve"> (E158 * F158) + E158</f>
+        <v>630108948.02321398</v>
       </c>
       <c r="I158" s="1">
         <f xml:space="preserve"> (G146 + SUM(D147:D158)) - SUM(H147:H158)</f>
-        <v>397841615.74318975</v>
+        <v>532635336.62699175</v>
       </c>
       <c r="J158" s="1">
         <f xml:space="preserve"> E158 - I158</f>
-        <v>64946076.345020294</v>
+        <v>86332195.812314749</v>
       </c>
       <c r="K158">
         <v>0.75</v>
       </c>
       <c r="L158" s="1">
         <f xml:space="preserve"> J158 * K158</f>
-        <v>48709557.258765221</v>
+        <v>64749146.859236062</v>
       </c>
       <c r="M158" s="1">
         <f xml:space="preserve"> J158 - L158</f>
-        <v>16236519.086255074</v>
+        <v>21583048.953078687</v>
       </c>
       <c r="N158">
         <f xml:space="preserve"> J158 / I158 * 100</f>
-        <v>16.324606017823825</v>
+        <v>16.208499488417118</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="7">
         <v>2035</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
-      <c r="D159" s="1">
-        <v>0</v>
+      <c r="D159" s="10">
+        <v>24254539</v>
       </c>
       <c r="E159" s="1">
-        <f t="shared" si="9"/>
-        <v>484427076.69262058</v>
+        <f t="shared" si="6"/>
+        <v>315318013.02321398</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="10"/>
-        <v>484427076.69262058</v>
+        <f t="shared" si="7"/>
+        <v>320993737.25763184</v>
       </c>
       <c r="H159" s="2">
-        <v>1500000</v>
+        <v>339045474</v>
+      </c>
+      <c r="J159" s="8">
+        <f xml:space="preserve"> (G158 /2) + 24000000</f>
+        <v>339054474.01160699</v>
+      </c>
+      <c r="K159" s="8">
+        <f>(((G158/2) - 24000000)/12)</f>
+        <v>24254539.500967249</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B160" s="3"/>
+      <c r="B160" s="7"/>
       <c r="C160">
         <v>2</v>
       </c>
-      <c r="D160" s="1">
-        <v>0</v>
+      <c r="D160" s="10">
+        <v>24254539</v>
       </c>
       <c r="E160" s="1">
-        <f t="shared" si="9"/>
-        <v>482927076.69262058</v>
+        <f t="shared" si="6"/>
+        <v>345248276.25763184</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="10"/>
-        <v>482927076.69262058</v>
-      </c>
-      <c r="H160" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>351462745.23026919</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B161" s="3"/>
+      <c r="B161" s="7"/>
       <c r="C161">
         <v>3</v>
       </c>
-      <c r="D161" s="1">
-        <v>0</v>
+      <c r="D161" s="10">
+        <v>24254539</v>
       </c>
       <c r="E161" s="1">
-        <f t="shared" si="9"/>
-        <v>481427076.69262058</v>
+        <f t="shared" si="6"/>
+        <v>375717284.23026919</v>
       </c>
       <c r="F161">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G161" s="1">
-        <f t="shared" si="10"/>
-        <v>505498430.5272516</v>
-      </c>
-      <c r="H161" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>382480195.34641403</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B162" s="3"/>
+      <c r="B162" s="7"/>
       <c r="C162">
         <v>4</v>
       </c>
-      <c r="D162" s="1">
-        <v>0</v>
+      <c r="D162" s="10">
+        <v>24254539</v>
       </c>
       <c r="E162" s="1">
-        <f t="shared" si="9"/>
-        <v>503998430.5272516</v>
+        <f t="shared" si="6"/>
+        <v>406734734.34641403</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G162" s="1">
-        <f t="shared" si="10"/>
-        <v>503998430.5272516</v>
-      </c>
-      <c r="H162" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>414055959.56464946</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B163" s="3"/>
+      <c r="B163" s="7"/>
       <c r="C163">
         <v>5</v>
       </c>
-      <c r="D163" s="1">
-        <v>0</v>
+      <c r="D163" s="10">
+        <v>24254539</v>
       </c>
       <c r="E163" s="1">
-        <f t="shared" si="9"/>
-        <v>486261911.5272516</v>
+        <f t="shared" si="6"/>
+        <v>416727449.56464946</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" si="10"/>
-        <v>486261911.5272516</v>
+        <f t="shared" si="7"/>
+        <v>424228543.65681314</v>
       </c>
       <c r="H163" s="2">
-        <v>17736519</v>
+        <v>21583049</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B164" s="3"/>
+      <c r="B164" s="7"/>
       <c r="C164">
         <v>6</v>
       </c>
-      <c r="D164" s="1">
-        <v>0</v>
+      <c r="D164" s="10">
+        <v>24254539</v>
       </c>
       <c r="E164" s="1">
-        <f t="shared" si="9"/>
-        <v>484761911.5272516</v>
+        <f t="shared" si="6"/>
+        <v>448483082.65681314</v>
       </c>
       <c r="F164">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G164" s="1">
-        <f t="shared" si="10"/>
-        <v>509000007.10361421</v>
-      </c>
-      <c r="H164" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>456555778.1446358</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B165" s="3"/>
+      <c r="B165" s="7"/>
       <c r="C165">
         <v>7</v>
       </c>
-      <c r="D165" s="1">
-        <v>0</v>
+      <c r="D165" s="10">
+        <v>24254539</v>
       </c>
       <c r="E165" s="1">
-        <f t="shared" si="9"/>
-        <v>507500007.10361421</v>
+        <f t="shared" si="6"/>
+        <v>480810317.1446358</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G165" s="1">
-        <f t="shared" si="10"/>
-        <v>507500007.10361421</v>
-      </c>
-      <c r="H165" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>489464902.85323924</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B166" s="3"/>
+      <c r="B166" s="7"/>
       <c r="C166">
         <v>8</v>
       </c>
-      <c r="D166" s="1">
-        <v>0</v>
+      <c r="D166" s="10">
+        <v>24254539</v>
       </c>
       <c r="E166" s="1">
-        <f t="shared" si="9"/>
-        <v>506000007.10361421</v>
+        <f t="shared" si="6"/>
+        <v>513719441.85323924</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G166" s="1">
-        <f t="shared" si="10"/>
-        <v>506000007.10361421</v>
-      </c>
-      <c r="H166" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>522966391.80659753</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B167" s="3"/>
+      <c r="B167" s="7"/>
       <c r="C167">
         <v>9</v>
       </c>
-      <c r="D167" s="1">
-        <v>0</v>
+      <c r="D167" s="10">
+        <v>24254539</v>
       </c>
       <c r="E167" s="1">
-        <f t="shared" si="9"/>
-        <v>504500007.10361421</v>
+        <f t="shared" si="6"/>
+        <v>547220930.80659747</v>
       </c>
       <c r="F167">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="10"/>
-        <v>529725007.45879495</v>
-      </c>
-      <c r="H167" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>557070907.56111622</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B168" s="3"/>
+      <c r="B168" s="7"/>
       <c r="C168">
         <v>10</v>
       </c>
-      <c r="D168" s="1">
-        <v>0</v>
+      <c r="D168" s="10">
+        <v>24254539</v>
       </c>
       <c r="E168" s="1">
-        <f t="shared" si="9"/>
-        <v>528225007.45879495</v>
+        <f t="shared" si="6"/>
+        <v>581325446.56111622</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" si="10"/>
-        <v>528225007.45879495</v>
-      </c>
-      <c r="H168" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>591789304.59921634</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B169" s="3"/>
+      <c r="B169" s="7"/>
       <c r="C169">
         <v>11</v>
       </c>
-      <c r="D169" s="1">
-        <v>0</v>
+      <c r="D169" s="10">
+        <v>24254539</v>
       </c>
       <c r="E169" s="1">
-        <f t="shared" si="9"/>
-        <v>526725007.45879495</v>
+        <f t="shared" si="6"/>
+        <v>616043843.59921634</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="10"/>
-        <v>526725007.45879495</v>
-      </c>
-      <c r="H169" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>627132632.78400218</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B170" s="3"/>
+      <c r="B170" s="7"/>
       <c r="C170">
         <v>12</v>
       </c>
-      <c r="D170" s="1">
-        <v>0</v>
+      <c r="D170" s="10">
+        <v>24254539</v>
       </c>
       <c r="E170" s="1">
-        <f t="shared" si="9"/>
-        <v>525225007.45879495</v>
+        <f t="shared" si="6"/>
+        <v>651387171.78400218</v>
       </c>
       <c r="F170">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G170" s="1">
-        <f t="shared" si="10"/>
-        <v>551486257.83173466</v>
-      </c>
-      <c r="H170" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>663112140.87611425</v>
       </c>
       <c r="I170" s="1">
         <f xml:space="preserve"> (G158 + SUM(D159:D170)) - SUM(H159:H170)</f>
-        <v>451690557.69262058</v>
+        <v>560534893.02321398</v>
       </c>
       <c r="J170" s="1">
         <f xml:space="preserve"> E170 - I170</f>
-        <v>73534449.766174376</v>
+        <v>90852278.760788202</v>
       </c>
       <c r="K170">
         <v>0.75</v>
       </c>
       <c r="L170" s="1">
         <f xml:space="preserve"> J170 * K170</f>
-        <v>55150837.324630782</v>
+        <v>68139209.070591152</v>
       </c>
       <c r="M170" s="1">
         <f xml:space="preserve"> J170 - L170</f>
-        <v>18383612.441543594</v>
+        <v>22713069.690197051</v>
       </c>
       <c r="N170">
         <f xml:space="preserve"> J170 / I170 * 100</f>
-        <v>16.279828859343841</v>
+        <v>16.208139741449717</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>15</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="7">
         <v>2036</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
-      <c r="D171" s="1">
-        <v>0</v>
+      <c r="D171" s="10">
+        <v>25629672</v>
       </c>
       <c r="E171" s="1">
-        <f t="shared" si="9"/>
-        <v>549986257.83173466</v>
+        <f t="shared" si="6"/>
+        <v>333185742.87611425</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="10"/>
-        <v>549986257.83173466</v>
+        <f t="shared" si="7"/>
+        <v>339183086.24788433</v>
       </c>
       <c r="H171" s="2">
-        <v>1500000</v>
+        <v>355556070</v>
+      </c>
+      <c r="J171" s="8">
+        <f xml:space="preserve"> (G170 /2) + 24000000</f>
+        <v>355556070.43805712</v>
+      </c>
+      <c r="K171" s="8">
+        <f>(((G170/2) - 24000000)/12)</f>
+        <v>25629672.53650476</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B172" s="3"/>
+      <c r="B172" s="7"/>
       <c r="C172">
         <v>2</v>
       </c>
-      <c r="D172" s="1">
-        <v>0</v>
+      <c r="D172" s="10">
+        <v>25629672</v>
       </c>
       <c r="E172" s="1">
-        <f t="shared" si="9"/>
-        <v>548486257.83173466</v>
+        <f t="shared" si="6"/>
+        <v>364812758.24788433</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="10"/>
-        <v>548486257.83173466</v>
-      </c>
-      <c r="H172" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>371379387.89634627</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B173" s="3"/>
+      <c r="B173" s="7"/>
       <c r="C173">
         <v>3</v>
       </c>
-      <c r="D173" s="1">
-        <v>0</v>
+      <c r="D173" s="10">
+        <v>25629672</v>
       </c>
       <c r="E173" s="1">
-        <f t="shared" si="9"/>
-        <v>546986257.83173466</v>
+        <f t="shared" si="6"/>
+        <v>397009059.89634627</v>
       </c>
       <c r="F173">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G173" s="1">
-        <f t="shared" si="10"/>
-        <v>574335570.72332144</v>
-      </c>
-      <c r="H173" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>404155222.97448051</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B174" s="3"/>
+      <c r="B174" s="7"/>
       <c r="C174">
         <v>4</v>
       </c>
-      <c r="D174" s="1">
-        <v>0</v>
+      <c r="D174" s="10">
+        <v>25629672</v>
       </c>
       <c r="E174" s="1">
-        <f t="shared" si="9"/>
-        <v>572835570.72332144</v>
+        <f t="shared" si="6"/>
+        <v>429784894.97448051</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G174" s="1">
-        <f t="shared" si="10"/>
-        <v>572835570.72332144</v>
-      </c>
-      <c r="H174" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>437521023.08402115</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B175" s="3"/>
+      <c r="B175" s="7"/>
       <c r="C175">
         <v>5</v>
       </c>
-      <c r="D175" s="1">
-        <v>0</v>
+      <c r="D175" s="10">
+        <v>25629672</v>
       </c>
       <c r="E175" s="1">
-        <f t="shared" si="9"/>
-        <v>552951958.72332144</v>
+        <f t="shared" si="6"/>
+        <v>440437625.08402115</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G175" s="1">
-        <f t="shared" si="10"/>
-        <v>552951958.72332144</v>
+        <f t="shared" si="7"/>
+        <v>448365502.33553356</v>
       </c>
       <c r="H175" s="2">
-        <v>19883612</v>
+        <v>22713070</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B176" s="3"/>
+      <c r="B176" s="7"/>
       <c r="C176">
         <v>6</v>
       </c>
-      <c r="D176" s="1">
-        <v>0</v>
+      <c r="D176" s="10">
+        <v>25629672</v>
       </c>
       <c r="E176" s="1">
-        <f t="shared" si="9"/>
-        <v>551451958.72332144</v>
+        <f t="shared" si="6"/>
+        <v>473995174.33553356</v>
       </c>
       <c r="F176">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" si="10"/>
-        <v>579024556.65948749</v>
-      </c>
-      <c r="H176" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B177" s="3"/>
+        <f t="shared" si="7"/>
+        <v>482527087.47357315</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B177" s="7"/>
       <c r="C177">
         <v>7</v>
       </c>
-      <c r="D177" s="1">
-        <v>0</v>
+      <c r="D177" s="10">
+        <v>25629672</v>
       </c>
       <c r="E177" s="1">
-        <f t="shared" si="9"/>
-        <v>577524556.65948749</v>
+        <f t="shared" si="6"/>
+        <v>508156759.47357315</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" si="10"/>
-        <v>577524556.65948749</v>
-      </c>
-      <c r="H177" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B178" s="3"/>
+        <f t="shared" si="7"/>
+        <v>517303581.14409745</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B178" s="7"/>
       <c r="C178">
         <v>8</v>
       </c>
-      <c r="D178" s="1">
-        <v>0</v>
+      <c r="D178" s="10">
+        <v>25629672</v>
       </c>
       <c r="E178" s="1">
-        <f t="shared" si="9"/>
-        <v>576024556.65948749</v>
+        <f t="shared" si="6"/>
+        <v>542933253.14409745</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="10"/>
-        <v>576024556.65948749</v>
-      </c>
-      <c r="H178" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B179" s="3"/>
+        <f t="shared" si="7"/>
+        <v>552706051.70069122</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B179" s="7"/>
       <c r="C179">
         <v>9</v>
       </c>
-      <c r="D179" s="1">
-        <v>0</v>
+      <c r="D179" s="10">
+        <v>25629672</v>
       </c>
       <c r="E179" s="1">
-        <f t="shared" si="9"/>
-        <v>574524556.65948749</v>
+        <f t="shared" si="6"/>
+        <v>578335723.70069122</v>
       </c>
       <c r="F179">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G179" s="1">
-        <f t="shared" si="10"/>
-        <v>603250784.49246192</v>
-      </c>
-      <c r="H179" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B180" s="3"/>
+        <f t="shared" si="7"/>
+        <v>588745766.72730362</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B180" s="7"/>
       <c r="C180">
         <v>10</v>
       </c>
-      <c r="D180" s="1">
-        <v>0</v>
+      <c r="D180" s="10">
+        <v>25629672</v>
       </c>
       <c r="E180" s="1">
-        <f t="shared" si="9"/>
-        <v>601750784.49246192</v>
+        <f t="shared" si="6"/>
+        <v>614375438.72730362</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" si="10"/>
-        <v>601750784.49246192</v>
-      </c>
-      <c r="H180" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B181" s="3"/>
+        <f t="shared" si="7"/>
+        <v>625434196.62439513</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B181" s="7"/>
       <c r="C181">
         <v>11</v>
       </c>
-      <c r="D181" s="1">
-        <v>0</v>
+      <c r="D181" s="10">
+        <v>25629672</v>
       </c>
       <c r="E181" s="1">
-        <f t="shared" si="9"/>
-        <v>600250784.49246192</v>
+        <f t="shared" si="6"/>
+        <v>651063868.62439513</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" si="10"/>
-        <v>600250784.49246192</v>
-      </c>
-      <c r="H181" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B182" s="3"/>
+        <f t="shared" si="7"/>
+        <v>662783018.25963426</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B182" s="7"/>
       <c r="C182">
         <v>12</v>
       </c>
-      <c r="D182" s="1">
-        <v>0</v>
+      <c r="D182" s="10">
+        <v>25629672</v>
       </c>
       <c r="E182" s="1">
-        <f t="shared" si="9"/>
-        <v>598750784.49246192</v>
+        <f t="shared" si="6"/>
+        <v>688412690.25963426</v>
       </c>
       <c r="F182">
-        <v>0.05</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="10"/>
-        <v>628688323.717085</v>
-      </c>
-      <c r="H182" s="2">
-        <v>1500000</v>
+        <f t="shared" si="7"/>
+        <v>700804118.68430769</v>
       </c>
       <c r="I182" s="1">
         <f xml:space="preserve"> (G170 + SUM(D171:D182)) - SUM(H171:H182)</f>
-        <v>515102645.83173466</v>
+        <v>592399064.87611425</v>
       </c>
       <c r="J182" s="1">
         <f xml:space="preserve"> E182 - I182</f>
-        <v>83648138.660727262</v>
+        <v>96013625.383520007</v>
       </c>
       <c r="K182">
         <v>0.75</v>
       </c>
       <c r="L182" s="1">
         <f xml:space="preserve"> J182 * K182</f>
-        <v>62736103.995545447</v>
+        <v>72010219.037640005</v>
       </c>
       <c r="M182" s="1">
         <f xml:space="preserve"> J182 - L182</f>
-        <v>20912034.665181816</v>
+        <v>24003406.345880002</v>
       </c>
       <c r="N182">
         <f xml:space="preserve"> J182 / I182 * 100</f>
-        <v>16.239120365157682</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183">
+        <v>16.207592326905328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="20">
         <v>16</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="7">
         <v>2037</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="20">
         <v>1</v>
       </c>
-      <c r="D183" s="1">
-        <v>0</v>
-      </c>
-      <c r="E183" s="1">
-        <f t="shared" si="9"/>
-        <v>627188323.717085</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183" s="1">
-        <f t="shared" si="10"/>
-        <v>627188323.717085</v>
-      </c>
-      <c r="H183" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B184" s="3"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="22"/>
+      <c r="K183" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O183" s="21"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B184" s="7"/>
       <c r="C184">
         <v>2</v>
       </c>
-      <c r="D184" s="1">
-        <v>0</v>
-      </c>
-      <c r="E184" s="1">
-        <f t="shared" si="9"/>
-        <v>625688323.717085</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184" s="1">
-        <f t="shared" si="10"/>
-        <v>625688323.717085</v>
-      </c>
-      <c r="H184" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B185" s="3"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B185" s="7"/>
       <c r="C185">
         <v>3</v>
       </c>
-      <c r="D185" s="1">
-        <v>0</v>
-      </c>
-      <c r="E185" s="1">
-        <f t="shared" si="9"/>
-        <v>624188323.717085</v>
-      </c>
-      <c r="F185">
-        <v>0.05</v>
-      </c>
-      <c r="G185" s="1">
-        <f t="shared" si="10"/>
-        <v>655397739.9029392</v>
-      </c>
-      <c r="H185" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B186" s="3"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B186" s="7"/>
       <c r="C186">
         <v>4</v>
       </c>
-      <c r="D186" s="1">
-        <v>0</v>
-      </c>
-      <c r="E186" s="1">
-        <f t="shared" si="9"/>
-        <v>653897739.9029392</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186" s="1">
-        <f t="shared" si="10"/>
-        <v>653897739.9029392</v>
-      </c>
-      <c r="H186" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B187" s="3"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B187" s="7"/>
       <c r="C187">
         <v>5</v>
       </c>
-      <c r="D187" s="1">
-        <v>0</v>
-      </c>
-      <c r="E187" s="1">
-        <f t="shared" si="9"/>
-        <v>631485704.9029392</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187" s="1">
-        <f t="shared" si="10"/>
-        <v>631485704.9029392</v>
-      </c>
-      <c r="H187" s="2">
-        <v>22412035</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B188" s="3"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B188" s="7"/>
       <c r="C188">
         <v>6</v>
       </c>
-      <c r="D188" s="1">
-        <v>0</v>
-      </c>
-      <c r="E188" s="1">
-        <f t="shared" si="9"/>
-        <v>629985704.9029392</v>
-      </c>
-      <c r="F188">
-        <v>0.05</v>
-      </c>
-      <c r="G188" s="1">
-        <f t="shared" si="10"/>
-        <v>661484990.14808619</v>
-      </c>
-      <c r="H188" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B189" s="3"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B189" s="7"/>
       <c r="C189">
         <v>7</v>
       </c>
-      <c r="D189" s="1">
-        <v>0</v>
-      </c>
-      <c r="E189" s="1">
-        <f t="shared" si="9"/>
-        <v>659984990.14808619</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189" s="1">
-        <f t="shared" si="10"/>
-        <v>659984990.14808619</v>
-      </c>
-      <c r="H189" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B190" s="3"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B190" s="7"/>
       <c r="C190">
         <v>8</v>
       </c>
-      <c r="D190" s="1">
-        <v>0</v>
-      </c>
-      <c r="E190" s="1">
-        <f t="shared" si="9"/>
-        <v>658484990.14808619</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190" s="1">
-        <f t="shared" si="10"/>
-        <v>658484990.14808619</v>
-      </c>
-      <c r="H190" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B191" s="3"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B191" s="7"/>
       <c r="C191">
         <v>9</v>
       </c>
-      <c r="D191" s="1">
-        <v>0</v>
-      </c>
-      <c r="E191" s="1">
-        <f t="shared" si="9"/>
-        <v>656984990.14808619</v>
-      </c>
-      <c r="F191">
-        <v>0.05</v>
-      </c>
-      <c r="G191" s="1">
-        <f t="shared" si="10"/>
-        <v>689834239.65549052</v>
-      </c>
-      <c r="H191" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B192" s="3"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B192" s="7"/>
       <c r="C192">
         <v>10</v>
       </c>
-      <c r="D192" s="1">
-        <v>0</v>
-      </c>
-      <c r="E192" s="1">
-        <f t="shared" si="9"/>
-        <v>688334239.65549052</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192" s="1">
-        <f t="shared" si="10"/>
-        <v>688334239.65549052</v>
-      </c>
-      <c r="H192" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B193" s="3"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B193" s="7"/>
       <c r="C193">
         <v>11</v>
       </c>
-      <c r="D193" s="1">
-        <v>0</v>
-      </c>
-      <c r="E193" s="1">
-        <f t="shared" si="9"/>
-        <v>686834239.65549052</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193" s="1">
-        <f t="shared" si="10"/>
-        <v>686834239.65549052</v>
-      </c>
-      <c r="H193" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B194" s="3"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B194" s="7"/>
       <c r="C194">
         <v>12</v>
       </c>
-      <c r="D194" s="1">
-        <v>0</v>
-      </c>
-      <c r="E194" s="1">
-        <f t="shared" si="9"/>
-        <v>685334239.65549052</v>
-      </c>
-      <c r="F194">
-        <v>0.05</v>
-      </c>
-      <c r="G194" s="1">
-        <f t="shared" si="10"/>
-        <v>719600951.63826501</v>
-      </c>
-      <c r="H194" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="I194" s="1">
-        <f xml:space="preserve"> (G182 + SUM(D183:D194)) - SUM(H183:H194)</f>
-        <v>589776288.717085</v>
-      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="I194" s="1"/>
       <c r="J194" s="1">
         <f xml:space="preserve"> E194 - I194</f>
-        <v>95557950.938405514</v>
+        <v>0</v>
       </c>
       <c r="K194">
         <v>0.75</v>
       </c>
       <c r="L194" s="1">
         <f xml:space="preserve"> J194 * K194</f>
-        <v>71668463.203804135</v>
+        <v>0</v>
       </c>
       <c r="M194" s="1">
         <f xml:space="preserve"> J194 - L194</f>
-        <v>23889487.734601378</v>
-      </c>
-      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="N194" t="e">
         <f xml:space="preserve"> J194 / I194 * 100</f>
-        <v>16.202406364329875</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A195">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="13">
         <v>17</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="7">
         <v>2038</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="13">
         <v>1</v>
       </c>
-      <c r="D195" s="1">
-        <v>0</v>
-      </c>
-      <c r="E195" s="1">
-        <f t="shared" si="9"/>
-        <v>718100951.63826501</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195" s="1">
-        <f t="shared" si="10"/>
-        <v>718100951.63826501</v>
-      </c>
-      <c r="H195" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B196" s="3"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="15"/>
+      <c r="O195" s="14"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B196" s="7"/>
       <c r="C196">
         <v>2</v>
       </c>
-      <c r="D196" s="1">
-        <v>0</v>
-      </c>
-      <c r="E196" s="1">
-        <f t="shared" si="9"/>
-        <v>716600951.63826501</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196" s="1">
-        <f t="shared" si="10"/>
-        <v>716600951.63826501</v>
-      </c>
-      <c r="H196" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B197" s="3"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B197" s="7"/>
       <c r="C197">
         <v>3</v>
       </c>
-      <c r="D197" s="1">
-        <v>0</v>
-      </c>
-      <c r="E197" s="1">
-        <f t="shared" si="9"/>
-        <v>715100951.63826501</v>
-      </c>
-      <c r="F197">
-        <v>0.05</v>
-      </c>
-      <c r="G197" s="1">
-        <f t="shared" si="10"/>
-        <v>750855999.22017825</v>
-      </c>
-      <c r="H197" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B198" s="3"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B198" s="7"/>
       <c r="C198">
         <v>4</v>
       </c>
-      <c r="D198" s="1">
-        <v>0</v>
-      </c>
-      <c r="E198" s="1">
-        <f t="shared" si="9"/>
-        <v>749355999.22017825</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="G198" s="1">
-        <f t="shared" si="10"/>
-        <v>749355999.22017825</v>
-      </c>
-      <c r="H198" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B199" s="3"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B199" s="7"/>
       <c r="C199">
         <v>5</v>
       </c>
-      <c r="D199" s="1">
-        <v>0</v>
-      </c>
-      <c r="E199" s="1">
-        <f t="shared" ref="E199:E242" si="11" xml:space="preserve"> G198 + D199 - H199</f>
-        <v>723966511.22017825</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-      <c r="G199" s="1">
-        <f t="shared" ref="G199:G242" si="12" xml:space="preserve"> (E199 * F199) + E199</f>
-        <v>723966511.22017825</v>
-      </c>
-      <c r="H199" s="2">
-        <v>25389488</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B200" s="3"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B200" s="7"/>
       <c r="C200">
         <v>6</v>
       </c>
-      <c r="D200" s="1">
-        <v>0</v>
-      </c>
-      <c r="E200" s="1">
-        <f t="shared" si="11"/>
-        <v>722466511.22017825</v>
-      </c>
-      <c r="F200">
-        <v>0.05</v>
-      </c>
-      <c r="G200" s="1">
-        <f t="shared" si="12"/>
-        <v>758589836.78118718</v>
-      </c>
-      <c r="H200" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B201" s="3"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B201" s="7"/>
       <c r="C201">
         <v>7</v>
       </c>
-      <c r="D201" s="1">
-        <v>0</v>
-      </c>
-      <c r="E201" s="1">
-        <f t="shared" si="11"/>
-        <v>757089836.78118718</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="G201" s="1">
-        <f t="shared" si="12"/>
-        <v>757089836.78118718</v>
-      </c>
-      <c r="H201" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B202" s="3"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B202" s="7"/>
       <c r="C202">
         <v>8</v>
       </c>
-      <c r="D202" s="1">
-        <v>0</v>
-      </c>
-      <c r="E202" s="1">
-        <f t="shared" si="11"/>
-        <v>755589836.78118718</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
-      </c>
-      <c r="G202" s="1">
-        <f t="shared" si="12"/>
-        <v>755589836.78118718</v>
-      </c>
-      <c r="H202" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B203" s="3"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B203" s="7"/>
       <c r="C203">
         <v>9</v>
       </c>
-      <c r="D203" s="1">
-        <v>0</v>
-      </c>
-      <c r="E203" s="1">
-        <f t="shared" si="11"/>
-        <v>754089836.78118718</v>
-      </c>
-      <c r="F203">
-        <v>0.05</v>
-      </c>
-      <c r="G203" s="1">
-        <f t="shared" si="12"/>
-        <v>791794328.62024653</v>
-      </c>
-      <c r="H203" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B204" s="3"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B204" s="7"/>
       <c r="C204">
         <v>10</v>
       </c>
-      <c r="D204" s="1">
-        <v>0</v>
-      </c>
-      <c r="E204" s="1">
-        <f t="shared" si="11"/>
-        <v>790294328.62024653</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
-      <c r="G204" s="1">
-        <f t="shared" si="12"/>
-        <v>790294328.62024653</v>
-      </c>
-      <c r="H204" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B205" s="3"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B205" s="7"/>
       <c r="C205">
         <v>11</v>
       </c>
-      <c r="D205" s="1">
-        <v>0</v>
-      </c>
-      <c r="E205" s="1">
-        <f t="shared" si="11"/>
-        <v>788794328.62024653</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205" s="1">
-        <f t="shared" si="12"/>
-        <v>788794328.62024653</v>
-      </c>
-      <c r="H205" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B206" s="3"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B206" s="7"/>
       <c r="C206">
         <v>12</v>
       </c>
-      <c r="D206" s="1">
-        <v>0</v>
-      </c>
-      <c r="E206" s="1">
-        <f t="shared" si="11"/>
-        <v>787294328.62024653</v>
-      </c>
-      <c r="F206">
-        <v>0.05</v>
-      </c>
-      <c r="G206" s="1">
-        <f t="shared" si="12"/>
-        <v>826659045.0512588</v>
-      </c>
-      <c r="H206" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="I206" s="1">
-        <f xml:space="preserve"> (G194 + SUM(D195:D206)) - SUM(H195:H206)</f>
-        <v>677711463.63826501</v>
-      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="I206" s="1"/>
       <c r="J206" s="1">
         <f xml:space="preserve"> E206 - I206</f>
-        <v>109582864.98198152</v>
+        <v>0</v>
       </c>
       <c r="K206">
         <v>0.75</v>
       </c>
       <c r="L206" s="1">
         <f xml:space="preserve"> J206 * K206</f>
-        <v>82187148.736486137</v>
+        <v>0</v>
       </c>
       <c r="M206" s="1">
         <f xml:space="preserve"> J206 - L206</f>
-        <v>27395716.245495379</v>
-      </c>
-      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="N206" t="e">
         <f xml:space="preserve"> J206 / I206 * 100</f>
-        <v>16.169545722849456</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>18</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="7">
         <v>2039</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
-      <c r="D207" s="1">
-        <v>0</v>
-      </c>
-      <c r="E207" s="1">
-        <f t="shared" si="11"/>
-        <v>825159045.0512588</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207" s="1">
-        <f t="shared" si="12"/>
-        <v>825159045.0512588</v>
-      </c>
-      <c r="H207" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B208" s="3"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B208" s="7"/>
       <c r="C208">
         <v>2</v>
       </c>
-      <c r="D208" s="1">
-        <v>0</v>
-      </c>
-      <c r="E208" s="1">
-        <f t="shared" si="11"/>
-        <v>823659045.0512588</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208" s="1">
-        <f t="shared" si="12"/>
-        <v>823659045.0512588</v>
-      </c>
-      <c r="H208" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B209" s="3"/>
+      <c r="B209" s="7"/>
       <c r="C209">
         <v>3</v>
       </c>
-      <c r="D209" s="1">
-        <v>0</v>
-      </c>
-      <c r="E209" s="1">
-        <f t="shared" si="11"/>
-        <v>822159045.0512588</v>
-      </c>
-      <c r="F209">
-        <v>0.05</v>
-      </c>
-      <c r="G209" s="1">
-        <f t="shared" si="12"/>
-        <v>863266997.3038218</v>
-      </c>
-      <c r="H209" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B210" s="3"/>
+      <c r="B210" s="7"/>
       <c r="C210">
         <v>4</v>
       </c>
-      <c r="D210" s="1">
-        <v>0</v>
-      </c>
-      <c r="E210" s="1">
-        <f t="shared" si="11"/>
-        <v>861766997.3038218</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210" s="1">
-        <f t="shared" si="12"/>
-        <v>861766997.3038218</v>
-      </c>
-      <c r="H210" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B211" s="3"/>
+      <c r="B211" s="7"/>
       <c r="C211">
         <v>5</v>
       </c>
-      <c r="D211" s="1">
-        <v>0</v>
-      </c>
-      <c r="E211" s="1">
-        <f t="shared" si="11"/>
-        <v>832871281.3038218</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="G211" s="1">
-        <f t="shared" si="12"/>
-        <v>832871281.3038218</v>
-      </c>
-      <c r="H211" s="2">
-        <v>28895716</v>
-      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B212" s="3"/>
+      <c r="B212" s="7"/>
       <c r="C212">
         <v>6</v>
       </c>
-      <c r="D212" s="1">
-        <v>0</v>
-      </c>
-      <c r="E212" s="1">
-        <f t="shared" si="11"/>
-        <v>831371281.3038218</v>
-      </c>
-      <c r="F212">
-        <v>0.05</v>
-      </c>
-      <c r="G212" s="1">
-        <f t="shared" si="12"/>
-        <v>872939845.36901283</v>
-      </c>
-      <c r="H212" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B213" s="3"/>
+      <c r="B213" s="7"/>
       <c r="C213">
         <v>7</v>
       </c>
-      <c r="D213" s="1">
-        <v>0</v>
-      </c>
-      <c r="E213" s="1">
-        <f t="shared" si="11"/>
-        <v>871439845.36901283</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
-      <c r="G213" s="1">
-        <f t="shared" si="12"/>
-        <v>871439845.36901283</v>
-      </c>
-      <c r="H213" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B214" s="3"/>
+      <c r="B214" s="7"/>
       <c r="C214">
         <v>8</v>
       </c>
-      <c r="D214" s="1">
-        <v>0</v>
-      </c>
-      <c r="E214" s="1">
-        <f t="shared" si="11"/>
-        <v>869939845.36901283</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-      <c r="G214" s="1">
-        <f t="shared" si="12"/>
-        <v>869939845.36901283</v>
-      </c>
-      <c r="H214" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B215" s="3"/>
+      <c r="B215" s="7"/>
       <c r="C215">
         <v>9</v>
       </c>
-      <c r="D215" s="1">
-        <v>0</v>
-      </c>
-      <c r="E215" s="1">
-        <f t="shared" si="11"/>
-        <v>868439845.36901283</v>
-      </c>
-      <c r="F215">
-        <v>0.05</v>
-      </c>
-      <c r="G215" s="1">
-        <f t="shared" si="12"/>
-        <v>911861837.63746345</v>
-      </c>
-      <c r="H215" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B216" s="3"/>
+      <c r="B216" s="7"/>
       <c r="C216">
         <v>10</v>
       </c>
-      <c r="D216" s="1">
-        <v>0</v>
-      </c>
-      <c r="E216" s="1">
-        <f t="shared" si="11"/>
-        <v>910361837.63746345</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-      <c r="G216" s="1">
-        <f t="shared" si="12"/>
-        <v>910361837.63746345</v>
-      </c>
-      <c r="H216" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B217" s="3"/>
+      <c r="B217" s="7"/>
       <c r="C217">
         <v>11</v>
       </c>
-      <c r="D217" s="1">
-        <v>0</v>
-      </c>
-      <c r="E217" s="1">
-        <f t="shared" si="11"/>
-        <v>908861837.63746345</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-      <c r="G217" s="1">
-        <f t="shared" si="12"/>
-        <v>908861837.63746345</v>
-      </c>
-      <c r="H217" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B218" s="3"/>
+      <c r="B218" s="7"/>
       <c r="C218">
         <v>12</v>
       </c>
-      <c r="D218" s="1">
-        <v>0</v>
-      </c>
-      <c r="E218" s="1">
-        <f t="shared" si="11"/>
-        <v>907361837.63746345</v>
-      </c>
-      <c r="F218">
-        <v>0.05</v>
-      </c>
-      <c r="G218" s="1">
-        <f t="shared" si="12"/>
-        <v>952729929.51933658</v>
-      </c>
-      <c r="H218" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="I218" s="1">
-        <f xml:space="preserve"> (G206 + SUM(D207:D218)) - SUM(H207:H218)</f>
-        <v>781263329.0512588</v>
-      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="I218" s="1"/>
       <c r="J218" s="1">
         <f xml:space="preserve"> E218 - I218</f>
-        <v>126098508.58620465</v>
+        <v>0</v>
       </c>
       <c r="K218">
         <v>0.75</v>
       </c>
       <c r="L218" s="1">
         <f xml:space="preserve"> J218 * K218</f>
-        <v>94573881.439653486</v>
+        <v>0</v>
       </c>
       <c r="M218" s="1">
         <f xml:space="preserve"> J218 - L218</f>
-        <v>31524627.146551162</v>
-      </c>
-      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="N218" t="e">
         <f xml:space="preserve"> J218 / I218 * 100</f>
-        <v>16.14033372580467</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>19</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="7">
         <v>2040</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
-      <c r="D219" s="1">
-        <v>0</v>
-      </c>
-      <c r="E219" s="1">
-        <f t="shared" si="11"/>
-        <v>951229929.51933658</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-      <c r="G219" s="1">
-        <f t="shared" si="12"/>
-        <v>951229929.51933658</v>
-      </c>
-      <c r="H219" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B220" s="3"/>
+      <c r="B220" s="7"/>
       <c r="C220">
         <v>2</v>
       </c>
-      <c r="D220" s="1">
-        <v>0</v>
-      </c>
-      <c r="E220" s="1">
-        <f t="shared" si="11"/>
-        <v>949729929.51933658</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
-      <c r="G220" s="1">
-        <f t="shared" si="12"/>
-        <v>949729929.51933658</v>
-      </c>
-      <c r="H220" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B221" s="3"/>
+      <c r="B221" s="7"/>
       <c r="C221">
         <v>3</v>
       </c>
-      <c r="D221" s="1">
-        <v>0</v>
-      </c>
-      <c r="E221" s="1">
-        <f t="shared" si="11"/>
-        <v>948229929.51933658</v>
-      </c>
-      <c r="F221">
-        <v>0.05</v>
-      </c>
-      <c r="G221" s="1">
-        <f t="shared" si="12"/>
-        <v>995641425.99530339</v>
-      </c>
-      <c r="H221" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B222" s="3"/>
+      <c r="B222" s="7"/>
       <c r="C222">
         <v>4</v>
       </c>
-      <c r="D222" s="1">
-        <v>0</v>
-      </c>
-      <c r="E222" s="1">
-        <f t="shared" si="11"/>
-        <v>994141425.99530339</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222" s="1">
-        <f t="shared" si="12"/>
-        <v>994141425.99530339</v>
-      </c>
-      <c r="H222" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B223" s="3"/>
+      <c r="B223" s="7"/>
       <c r="C223">
         <v>5</v>
       </c>
-      <c r="D223" s="1">
-        <v>0</v>
-      </c>
-      <c r="E223" s="1">
-        <f t="shared" si="11"/>
-        <v>961116798.99530339</v>
-      </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
-      <c r="G223" s="1">
-        <f t="shared" si="12"/>
-        <v>961116798.99530339</v>
-      </c>
-      <c r="H223" s="2">
-        <v>33024627</v>
-      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B224" s="3"/>
+      <c r="B224" s="7"/>
       <c r="C224">
         <v>6</v>
       </c>
-      <c r="D224" s="1">
-        <v>0</v>
-      </c>
-      <c r="E224" s="1">
-        <f t="shared" si="11"/>
-        <v>959616798.99530339</v>
-      </c>
-      <c r="F224">
-        <v>0.05</v>
-      </c>
-      <c r="G224" s="1">
-        <f t="shared" si="12"/>
-        <v>1007597638.9450686</v>
-      </c>
-      <c r="H224" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B225" s="3"/>
+      <c r="B225" s="7"/>
       <c r="C225">
         <v>7</v>
       </c>
-      <c r="D225" s="1">
-        <v>0</v>
-      </c>
-      <c r="E225" s="1">
-        <f t="shared" si="11"/>
-        <v>1006097638.9450686</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225" s="1">
-        <f t="shared" si="12"/>
-        <v>1006097638.9450686</v>
-      </c>
-      <c r="H225" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B226" s="3"/>
+      <c r="B226" s="7"/>
       <c r="C226">
         <v>8</v>
       </c>
-      <c r="D226" s="1">
-        <v>0</v>
-      </c>
-      <c r="E226" s="1">
-        <f t="shared" si="11"/>
-        <v>1004597638.9450686</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="G226" s="1">
-        <f t="shared" si="12"/>
-        <v>1004597638.9450686</v>
-      </c>
-      <c r="H226" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B227" s="3"/>
+      <c r="B227" s="7"/>
       <c r="C227">
         <v>9</v>
       </c>
-      <c r="D227" s="1">
-        <v>0</v>
-      </c>
-      <c r="E227" s="1">
-        <f t="shared" si="11"/>
-        <v>1003097638.9450686</v>
-      </c>
-      <c r="F227">
-        <v>0.05</v>
-      </c>
-      <c r="G227" s="1">
-        <f t="shared" si="12"/>
-        <v>1053252520.8923221</v>
-      </c>
-      <c r="H227" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B228" s="3"/>
+      <c r="B228" s="7"/>
       <c r="C228">
         <v>10</v>
       </c>
-      <c r="D228" s="1">
-        <v>0</v>
-      </c>
-      <c r="E228" s="1">
-        <f t="shared" si="11"/>
-        <v>1051752520.8923221</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-      <c r="G228" s="1">
-        <f t="shared" si="12"/>
-        <v>1051752520.8923221</v>
-      </c>
-      <c r="H228" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B229" s="3"/>
+      <c r="B229" s="7"/>
       <c r="C229">
         <v>11</v>
       </c>
-      <c r="D229" s="1">
-        <v>0</v>
-      </c>
-      <c r="E229" s="1">
-        <f t="shared" si="11"/>
-        <v>1050252520.8923221</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229" s="1">
-        <f t="shared" si="12"/>
-        <v>1050252520.8923221</v>
-      </c>
-      <c r="H229" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B230" s="3"/>
+      <c r="B230" s="7"/>
       <c r="C230">
         <v>12</v>
       </c>
-      <c r="D230" s="1">
-        <v>0</v>
-      </c>
-      <c r="E230" s="1">
-        <f t="shared" si="11"/>
-        <v>1048752520.8923221</v>
-      </c>
-      <c r="F230">
-        <v>0.05</v>
-      </c>
-      <c r="G230" s="1">
-        <f t="shared" si="12"/>
-        <v>1101190146.9369383</v>
-      </c>
-      <c r="H230" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="I230" s="1">
-        <f xml:space="preserve"> (G218 + SUM(D219:D230)) - SUM(H219:H230)</f>
-        <v>903205302.51933658</v>
-      </c>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="I230" s="1"/>
       <c r="J230" s="1">
         <f xml:space="preserve"> E230 - I230</f>
-        <v>145547218.37298548</v>
+        <v>0</v>
       </c>
       <c r="K230">
         <v>0.75</v>
       </c>
       <c r="L230" s="1">
         <f xml:space="preserve"> J230 * K230</f>
-        <v>109160413.77973911</v>
+        <v>0</v>
       </c>
       <c r="M230" s="1">
         <f xml:space="preserve"> J230 - L230</f>
-        <v>36386804.593246371</v>
-      </c>
-      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="N230" t="e">
         <f xml:space="preserve"> J230 / I230 * 100</f>
-        <v>16.114522132122833</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>20</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="7">
         <v>2041</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
-      <c r="D231" s="1">
-        <v>0</v>
-      </c>
-      <c r="E231" s="1">
-        <f t="shared" si="11"/>
-        <v>1099690146.9369383</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" s="1">
-        <f t="shared" si="12"/>
-        <v>1099690146.9369383</v>
-      </c>
-      <c r="H231" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B232" s="3"/>
+      <c r="B232" s="7"/>
       <c r="C232">
         <v>2</v>
       </c>
-      <c r="D232" s="1">
-        <v>0</v>
-      </c>
-      <c r="E232" s="1">
-        <f t="shared" si="11"/>
-        <v>1098190146.9369383</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232" s="1">
-        <f t="shared" si="12"/>
-        <v>1098190146.9369383</v>
-      </c>
-      <c r="H232" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B233" s="3"/>
+      <c r="B233" s="7"/>
       <c r="C233">
         <v>3</v>
       </c>
-      <c r="D233" s="1">
-        <v>0</v>
-      </c>
-      <c r="E233" s="1">
-        <f t="shared" si="11"/>
-        <v>1096690146.9369383</v>
-      </c>
-      <c r="F233">
-        <v>0.05</v>
-      </c>
-      <c r="G233" s="1">
-        <f t="shared" si="12"/>
-        <v>1151524654.2837851</v>
-      </c>
-      <c r="H233" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B234" s="3"/>
+      <c r="B234" s="7"/>
       <c r="C234">
         <v>4</v>
       </c>
-      <c r="D234" s="1">
-        <v>0</v>
-      </c>
-      <c r="E234" s="1">
-        <f t="shared" si="11"/>
-        <v>1150024654.2837851</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234" s="1">
-        <f t="shared" si="12"/>
-        <v>1150024654.2837851</v>
-      </c>
-      <c r="H234" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B235" s="3"/>
+      <c r="B235" s="7"/>
       <c r="C235">
         <v>5</v>
       </c>
-      <c r="D235" s="1">
-        <v>0</v>
-      </c>
-      <c r="E235" s="1">
-        <f t="shared" si="11"/>
-        <v>1112137849.2837851</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" s="1">
-        <f t="shared" si="12"/>
-        <v>1112137849.2837851</v>
-      </c>
-      <c r="H235" s="2">
-        <v>37886805</v>
-      </c>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B236" s="3"/>
+      <c r="B236" s="7"/>
       <c r="C236">
         <v>6</v>
       </c>
-      <c r="D236" s="1">
-        <v>0</v>
-      </c>
-      <c r="E236" s="1">
-        <f t="shared" si="11"/>
-        <v>1110637849.2837851</v>
-      </c>
-      <c r="F236">
-        <v>0.05</v>
-      </c>
-      <c r="G236" s="1">
-        <f t="shared" si="12"/>
-        <v>1166169741.7479744</v>
-      </c>
-      <c r="H236" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B237" s="3"/>
+      <c r="B237" s="7"/>
       <c r="C237">
         <v>7</v>
       </c>
-      <c r="D237" s="1">
-        <v>0</v>
-      </c>
-      <c r="E237" s="1">
-        <f t="shared" si="11"/>
-        <v>1164669741.7479744</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237" s="1">
-        <f t="shared" si="12"/>
-        <v>1164669741.7479744</v>
-      </c>
-      <c r="H237" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B238" s="3"/>
+      <c r="B238" s="7"/>
       <c r="C238">
         <v>8</v>
       </c>
-      <c r="D238" s="1">
-        <v>0</v>
-      </c>
-      <c r="E238" s="1">
-        <f t="shared" si="11"/>
-        <v>1163169741.7479744</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238" s="1">
-        <f t="shared" si="12"/>
-        <v>1163169741.7479744</v>
-      </c>
-      <c r="H238" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B239" s="3"/>
+      <c r="B239" s="7"/>
       <c r="C239">
         <v>9</v>
       </c>
-      <c r="D239" s="1">
-        <v>0</v>
-      </c>
-      <c r="E239" s="1">
-        <f t="shared" si="11"/>
-        <v>1161669741.7479744</v>
-      </c>
-      <c r="F239">
-        <v>0.05</v>
-      </c>
-      <c r="G239" s="1">
-        <f t="shared" si="12"/>
-        <v>1219753228.8353732</v>
-      </c>
-      <c r="H239" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B240" s="3"/>
+      <c r="B240" s="7"/>
       <c r="C240">
         <v>10</v>
       </c>
-      <c r="D240" s="1">
-        <v>0</v>
-      </c>
-      <c r="E240" s="1">
-        <f t="shared" si="11"/>
-        <v>1218253228.8353732</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240" s="1">
-        <f t="shared" si="12"/>
-        <v>1218253228.8353732</v>
-      </c>
-      <c r="H240" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="G240" s="1"/>
     </row>
     <row r="241" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B241" s="3"/>
+      <c r="B241" s="7"/>
       <c r="C241">
         <v>11</v>
       </c>
-      <c r="D241" s="1">
-        <v>0</v>
-      </c>
-      <c r="E241" s="1">
-        <f t="shared" si="11"/>
-        <v>1216753228.8353732</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241" s="1">
-        <f t="shared" si="12"/>
-        <v>1216753228.8353732</v>
-      </c>
-      <c r="H241" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="G241" s="1"/>
     </row>
     <row r="242" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B242" s="3"/>
+      <c r="B242" s="7"/>
       <c r="C242">
         <v>12</v>
       </c>
-      <c r="D242" s="1">
-        <v>0</v>
-      </c>
-      <c r="E242" s="1">
-        <f t="shared" si="11"/>
-        <v>1215253228.8353732</v>
-      </c>
-      <c r="F242">
-        <v>0.05</v>
-      </c>
-      <c r="G242" s="1">
-        <f t="shared" si="12"/>
-        <v>1276015890.2771418</v>
-      </c>
-      <c r="H242" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="I242" s="1">
-        <f xml:space="preserve"> (G230 + SUM(D231:D242)) - SUM(H231:H242)</f>
-        <v>1046803341.9369383</v>
-      </c>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="I242" s="1"/>
       <c r="J242" s="1">
         <f xml:space="preserve"> E242 - I242</f>
-        <v>168449886.89843488</v>
+        <v>0</v>
       </c>
       <c r="K242">
         <v>0.75</v>
       </c>
       <c r="L242" s="1">
         <f xml:space="preserve"> J242 * K242</f>
-        <v>126337415.17382616</v>
+        <v>0</v>
       </c>
       <c r="M242" s="1">
         <f xml:space="preserve"> J242 - L242</f>
-        <v>42112471.724608719</v>
-      </c>
-      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="e">
         <f xml:space="preserve"> J242 / I242 * 100</f>
-        <v>16.091836943006498</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D243" s="1">
-        <f>SUM(D3:D242)</f>
-        <v>297500000</v>
-      </c>
+      <c r="D243" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B135:B146"/>
-    <mergeCell ref="B15:B26"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="B27:B38"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B63:B74"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="B87:B98"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="B111:B122"/>
-    <mergeCell ref="B123:B134"/>
     <mergeCell ref="B219:B230"/>
     <mergeCell ref="B231:B242"/>
     <mergeCell ref="B147:B158"/>
@@ -6525,6 +5735,18 @@
     <mergeCell ref="B183:B194"/>
     <mergeCell ref="B195:B206"/>
     <mergeCell ref="B207:B218"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="B87:B98"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="B111:B122"/>
+    <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B135:B146"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B63:B74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -131,9 +131,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -148,9 +145,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -173,9 +167,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +178,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="M211" sqref="M211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
     <col min="8" max="8" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.625" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -498,5313 +498,5377 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="22">
         <v>2022</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>5000000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <f xml:space="preserve"> G2 + D3 - H3</f>
         <v>5000000</v>
       </c>
-      <c r="F3" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G3" s="9">
         <f xml:space="preserve"> (E3 * F3) + E3</f>
         <v>5090000</v>
       </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="9">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
         <f xml:space="preserve"> G3 + D4 - H4</f>
         <v>5090000</v>
       </c>
-      <c r="F4" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G4" s="9">
         <f xml:space="preserve"> (E4 * F4) + E4</f>
         <v>5181620</v>
       </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="9">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <f t="shared" ref="E5:E68" si="0" xml:space="preserve"> G4 + D5 - H5</f>
         <v>5181620</v>
       </c>
-      <c r="F5" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G5" s="9">
         <f xml:space="preserve"> (E5 * F5) + E5</f>
         <v>5274889.16</v>
       </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9">
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>2500000</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>7774889.1600000001</v>
       </c>
-      <c r="F6" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" ref="G6:G14" si="1" xml:space="preserve"> (E6 * F6) + E6</f>
         <v>7914837.1648800001</v>
       </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9">
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>2500000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>10414837.16488</v>
       </c>
-      <c r="F7" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F7" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>10602304.23384784</v>
       </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9">
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>2500000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>13102304.23384784</v>
       </c>
-      <c r="F8" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>13338145.7100571</v>
       </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9">
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>2500000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>15838145.7100571</v>
       </c>
-      <c r="F9" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
         <v>16123232.332838127</v>
       </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9">
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="8">
         <v>8</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>2500000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>18623232.332838126</v>
       </c>
-      <c r="F10" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="F10" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
         <v>18958450.514829211</v>
       </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9">
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="8">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>2500000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>21458450.514829211</v>
       </c>
-      <c r="F11" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="F11" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>21844702.624096137</v>
       </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="9">
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="8">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>2500000</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>24344702.624096137</v>
       </c>
-      <c r="F12" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F12" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>24782907.271329869</v>
       </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9">
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="8">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>2500000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>27282907.271329869</v>
       </c>
-      <c r="F13" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
         <v>27773999.602213807</v>
       </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9">
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="8">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>2500000</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>30273999.602213807</v>
       </c>
-      <c r="F14" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="1"/>
         <v>30818931.595053654</v>
       </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
         <f xml:space="preserve"> (G2 + SUM(D3:D14)) - SUM(H3:H14)</f>
         <v>27500000</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <f xml:space="preserve"> E14 - I14</f>
         <v>2773999.6022138074</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>0.84</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <f xml:space="preserve"> J14 * K14</f>
         <v>2330159.6658595982</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="9">
         <f xml:space="preserve"> J14 - L14</f>
         <v>443839.9363542092</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <f xml:space="preserve"> J14 / I14 * 100</f>
         <v>10.087271280777481</v>
       </c>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="22">
         <v>2023</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>3784122</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <f xml:space="preserve"> (G14 / 2) + D15 - H15</f>
         <v>19193587.797526829</v>
       </c>
-      <c r="F15" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G15" s="9">
         <f xml:space="preserve"> (E15 * F15) + E15</f>
         <v>19539072.377882313</v>
       </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
         <f xml:space="preserve"> (G14 / 2 / 12) +2500000</f>
         <v>3784122.1497939024</v>
       </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9">
+      <c r="L15" s="9">
+        <f xml:space="preserve"> (G14 / 2 )</f>
+        <v>15409465.797526827</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>3784122</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>23323194.377882313</v>
       </c>
-      <c r="F16" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F16" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G16" s="9">
         <f xml:space="preserve"> (E16 * F16) + E16</f>
         <v>23743011.876684196</v>
       </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="9">
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="8">
         <v>3</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>3784122</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>27527133.876684196</v>
       </c>
-      <c r="F17" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="F17" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G17" s="9">
         <f xml:space="preserve"> (E17 * F17) + E17</f>
         <v>28022622.286464512</v>
       </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9">
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="8">
         <v>4</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>3784122</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>31806744.286464512</v>
       </c>
-      <c r="F18" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="F18" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" ref="G18:G26" si="2" xml:space="preserve"> (E18 * F18) + E18</f>
         <v>32379265.683620874</v>
       </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9">
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="8">
         <v>5</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>3784122</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>35719547.68362087</v>
       </c>
-      <c r="F19" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="2"/>
         <v>36362499.541926049</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>443840</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="9">
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="8">
         <v>6</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>3784122</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>40146621.541926049</v>
       </c>
-      <c r="F20" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="F20" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="2"/>
         <v>40869260.729680717</v>
       </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="9">
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="8">
         <v>7</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>3784122</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>44653382.729680717</v>
       </c>
-      <c r="F21" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="F21" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="2"/>
         <v>45457143.618814968</v>
       </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="9">
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="8">
         <v>8</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>3784122</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <f t="shared" si="0"/>
         <v>49241265.618814968</v>
       </c>
-      <c r="F22" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="F22" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="2"/>
         <v>50127608.399953634</v>
       </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="9">
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="8">
         <v>9</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>3784122</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <f t="shared" si="0"/>
         <v>53911730.399953634</v>
       </c>
-      <c r="F23" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="F23" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="2"/>
         <v>54882141.547152802</v>
       </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="9">
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="8">
         <v>10</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>3784122</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f t="shared" si="0"/>
         <v>58666263.547152802</v>
       </c>
-      <c r="F24" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G24" s="11">
+      <c r="F24" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="2"/>
         <v>59722256.291001551</v>
       </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="9">
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="8">
         <v>11</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>3784122</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>63506378.291001551</v>
       </c>
-      <c r="F25" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G25" s="11">
+      <c r="F25" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="2"/>
         <v>64649493.100239575</v>
       </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="9">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="8">
         <v>12</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>3784122</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <f t="shared" si="0"/>
         <v>68433615.100239575</v>
       </c>
-      <c r="F26" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="F26" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="2"/>
         <v>69665420.17204389</v>
       </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
         <f xml:space="preserve"> (E15 + SUM(D16:D26)) - SUM(H15:H26)</f>
         <v>60375089.797526829</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="9">
         <f xml:space="preserve"> E26 - I26</f>
         <v>8058525.302712746</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>0.84</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="9">
         <f xml:space="preserve"> J26 * K26</f>
         <v>6769161.2542787064</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="9">
         <f xml:space="preserve"> J26 - L26</f>
         <v>1289364.0484340396</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <f xml:space="preserve"> J26 / I26 * 100</f>
         <v>13.347434065502378</v>
       </c>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="22">
         <v>2024</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>1</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>5402725</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <f xml:space="preserve"> (G26 / 2) + D27 - H27</f>
         <v>40235435.086021945</v>
       </c>
-      <c r="F27" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="F27" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G27" s="9">
         <f xml:space="preserve"> (E27 * F27) + E27</f>
         <v>40959672.917570338</v>
       </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
         <f xml:space="preserve"> (G26 / 2 / 12) +2500000</f>
         <v>5402725.8405018281</v>
       </c>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="9">
+      <c r="L27" s="9">
+        <f xml:space="preserve"> (G26 / 2 )</f>
+        <v>34832710.086021945</v>
+      </c>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>5402725</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>46362397.917570338</v>
       </c>
-      <c r="F28" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="F28" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G28" s="9">
         <f xml:space="preserve"> (E28 * F28) + E28</f>
         <v>47196921.080086604</v>
       </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="9">
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="22"/>
+      <c r="C29" s="8">
         <v>3</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>5402725</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="9">
         <f t="shared" si="0"/>
         <v>52599646.080086604</v>
       </c>
-      <c r="F29" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="F29" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G29" s="9">
         <f xml:space="preserve"> (E29 * F29) + E29</f>
         <v>53546439.709528163</v>
       </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="9">
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="22"/>
+      <c r="C30" s="8">
         <v>4</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <v>5402725</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="9">
         <f t="shared" si="0"/>
         <v>58949164.709528163</v>
       </c>
-      <c r="F30" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="F30" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G30" s="9">
         <f t="shared" ref="G30:G93" si="3" xml:space="preserve"> (E30 * F30) + E30</f>
         <v>60010249.674299672</v>
       </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="9">
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="8">
         <v>5</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <v>5402725</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>64123610.625865631</v>
       </c>
-      <c r="F31" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="F31" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G31" s="9">
         <f t="shared" si="3"/>
         <v>65277835.617131211</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="10">
         <f xml:space="preserve"> M26</f>
         <v>1289364.0484340396</v>
       </c>
-      <c r="O31" s="11"/>
-    </row>
-    <row r="32" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="9">
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="22"/>
+      <c r="C32" s="8">
         <v>6</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>5402725</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>70680560.617131203</v>
       </c>
-      <c r="F32" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="F32" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G32" s="9">
         <f t="shared" si="3"/>
         <v>71952810.70823957</v>
       </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="9">
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="8">
         <v>7</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>5402725</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <f t="shared" si="0"/>
         <v>77355535.70823957</v>
       </c>
-      <c r="F33" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="F33" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G33" s="9">
         <f t="shared" si="3"/>
         <v>78747935.350987881</v>
       </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="9">
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="22"/>
+      <c r="C34" s="8">
         <v>8</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <v>5402725</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="9">
         <f t="shared" si="0"/>
         <v>84150660.350987881</v>
       </c>
-      <c r="F34" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="F34" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G34" s="9">
         <f t="shared" si="3"/>
         <v>85665372.237305656</v>
       </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="9">
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="22"/>
+      <c r="C35" s="8">
         <v>9</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>5402725</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="9">
         <f t="shared" si="0"/>
         <v>91068097.237305656</v>
       </c>
-      <c r="F35" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="F35" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G35" s="9">
         <f t="shared" si="3"/>
         <v>92707322.987577155</v>
       </c>
-      <c r="H35" s="12">
-        <v>0</v>
-      </c>
-      <c r="O35" s="11"/>
-    </row>
-    <row r="36" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="9">
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="22"/>
+      <c r="C36" s="8">
         <v>10</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>5402725</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>98110047.987577155</v>
       </c>
-      <c r="F36" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="F36" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G36" s="9">
         <f t="shared" si="3"/>
         <v>99876028.851353541</v>
       </c>
-      <c r="H36" s="12">
-        <v>0</v>
-      </c>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="9">
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="22"/>
+      <c r="C37" s="8">
         <v>11</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <v>5402725</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>105278753.85135354</v>
       </c>
-      <c r="F37" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="F37" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G37" s="9">
         <f t="shared" si="3"/>
         <v>107173771.4206779</v>
       </c>
-      <c r="H37" s="12">
-        <v>0</v>
-      </c>
-      <c r="O37" s="11"/>
-    </row>
-    <row r="38" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="9">
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="22"/>
+      <c r="C38" s="8">
         <v>12</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <v>5402725</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="9">
         <f t="shared" si="0"/>
         <v>112576496.4206779</v>
       </c>
-      <c r="F38" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="F38" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G38" s="9">
         <f t="shared" si="3"/>
         <v>114602873.35625011</v>
       </c>
-      <c r="H38" s="12">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
         <f xml:space="preserve"> (E27 + SUM(D28:D38)) - SUM(H27:H38)</f>
         <v>98376046.037587911</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="9">
         <f xml:space="preserve"> E38 - I38</f>
         <v>14200450.383089989</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <v>0.84</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="9">
         <f xml:space="preserve"> J38 * K38</f>
         <v>11928378.32179559</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="9">
         <f xml:space="preserve"> J38 - L38</f>
         <v>2272072.0612943992</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="8">
         <f xml:space="preserve"> J38 / I38 * 100</f>
         <v>14.434865960829757</v>
       </c>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="39" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="22">
         <v>2025</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>1</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <v>5191786</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="9">
         <f xml:space="preserve"> (G38 / 2) + D39 - H39</f>
         <v>12493222.678125054</v>
       </c>
-      <c r="F39" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G39" s="11">
+      <c r="F39" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G39" s="9">
         <f t="shared" si="3"/>
         <v>12718100.686331304</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="10">
         <v>50000000</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <f xml:space="preserve"> ((G38 - H39) / 2 / 12) +2500000</f>
         <v>5191786.3898437545</v>
       </c>
-      <c r="O39" s="11"/>
-    </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="9">
+      <c r="L39" s="9">
+        <f xml:space="preserve"> (G38 / 2 )</f>
+        <v>57301436.678125054</v>
+      </c>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="22"/>
+      <c r="C40" s="8">
         <v>2</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <v>5191786</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="9">
         <f t="shared" si="0"/>
         <v>17909886.686331302</v>
       </c>
-      <c r="F40" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="F40" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G40" s="9">
         <f t="shared" si="3"/>
         <v>18232264.646685265</v>
       </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="O40" s="11"/>
-    </row>
-    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="9">
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="22"/>
+      <c r="C41" s="8">
         <v>3</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>5191786</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="9">
         <f t="shared" si="0"/>
         <v>23424050.646685265</v>
       </c>
-      <c r="F41" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G41" s="11">
+      <c r="F41" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G41" s="9">
         <f t="shared" si="3"/>
         <v>23845683.5583256</v>
       </c>
-      <c r="H41" s="12">
-        <v>0</v>
-      </c>
-      <c r="O41" s="11"/>
-    </row>
-    <row r="42" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="9">
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="22"/>
+      <c r="C42" s="8">
         <v>4</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <v>5191786</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="9">
         <f t="shared" si="0"/>
         <v>29037469.5583256</v>
       </c>
-      <c r="F42" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="F42" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G42" s="9">
         <f t="shared" si="3"/>
         <v>29560144.010375462</v>
       </c>
-      <c r="H42" s="12">
-        <v>0</v>
-      </c>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="9">
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="22"/>
+      <c r="C43" s="8">
         <v>5</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <v>5191786</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="9">
         <f t="shared" si="0"/>
         <v>32479857.949081063</v>
       </c>
-      <c r="F43" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G43" s="11">
+      <c r="F43" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G43" s="9">
         <f t="shared" si="3"/>
         <v>33064495.392164521</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="10">
         <f xml:space="preserve"> M38</f>
         <v>2272072.0612943992</v>
       </c>
-      <c r="O43" s="11"/>
-    </row>
-    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="9">
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="22"/>
+      <c r="C44" s="8">
         <v>6</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <v>5191786</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="9">
         <f t="shared" si="0"/>
         <v>38256281.392164521</v>
       </c>
-      <c r="F44" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G44" s="11">
+      <c r="F44" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G44" s="9">
         <f t="shared" si="3"/>
         <v>38944894.457223482</v>
       </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
-      <c r="O44" s="11"/>
-    </row>
-    <row r="45" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="9">
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="22"/>
+      <c r="C45" s="8">
         <v>7</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <v>5191786</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="9">
         <f t="shared" si="0"/>
         <v>44136680.457223482</v>
       </c>
-      <c r="F45" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G45" s="11">
+      <c r="F45" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G45" s="9">
         <f t="shared" si="3"/>
         <v>44931140.705453508</v>
       </c>
-      <c r="H45" s="12">
-        <v>0</v>
-      </c>
-      <c r="O45" s="11"/>
-    </row>
-    <row r="46" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="9">
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="22"/>
+      <c r="C46" s="8">
         <v>8</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>5191786</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <f t="shared" si="0"/>
         <v>50122926.705453508</v>
       </c>
-      <c r="F46" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G46" s="11">
+      <c r="F46" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G46" s="9">
         <f t="shared" si="3"/>
         <v>51025139.386151671</v>
       </c>
-      <c r="H46" s="12">
-        <v>0</v>
-      </c>
-      <c r="O46" s="11"/>
-    </row>
-    <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="9">
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="22"/>
+      <c r="C47" s="8">
         <v>9</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <v>5191786</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <f t="shared" si="0"/>
         <v>56216925.386151671</v>
       </c>
-      <c r="F47" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G47" s="11">
+      <c r="F47" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G47" s="9">
         <f t="shared" si="3"/>
         <v>57228830.043102399</v>
       </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="O47" s="11"/>
-    </row>
-    <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="9">
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="22"/>
+      <c r="C48" s="8">
         <v>10</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>5191786</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <f t="shared" si="0"/>
         <v>62420616.043102399</v>
       </c>
-      <c r="F48" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="F48" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G48" s="9">
         <f t="shared" si="3"/>
         <v>63544187.131878242</v>
       </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
-      <c r="O48" s="11"/>
-    </row>
-    <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="9">
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="22"/>
+      <c r="C49" s="8">
         <v>11</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <v>5191786</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="9">
         <f t="shared" si="0"/>
         <v>68735973.131878242</v>
       </c>
-      <c r="F49" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G49" s="11">
+      <c r="F49" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G49" s="9">
         <f t="shared" si="3"/>
         <v>69973220.648252055</v>
       </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="O49" s="11"/>
-    </row>
-    <row r="50" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="9">
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="8">
         <v>12</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="9">
         <v>5191786</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="9">
         <f t="shared" si="0"/>
         <v>75165006.648252055</v>
       </c>
-      <c r="F50" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G50" s="11">
+      <c r="F50" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G50" s="9">
         <f t="shared" si="3"/>
         <v>76517976.767920598</v>
       </c>
-      <c r="H50" s="12">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
         <f xml:space="preserve"> (E39 + SUM(D40:D50)) - SUM(H40:H50)</f>
         <v>67330796.616830647</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="9">
         <f xml:space="preserve"> E50 - I50</f>
         <v>7834210.0314214081</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="8">
         <v>0.84</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="9">
         <f xml:space="preserve"> J50 * K50</f>
         <v>6580736.426393983</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="9">
         <f xml:space="preserve"> J50 - L50</f>
         <v>1253473.6050274251</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="8">
         <f xml:space="preserve"> J50 / I50 * 100</f>
         <v>11.635403745487684</v>
       </c>
-      <c r="O50" s="11"/>
-    </row>
-    <row r="51" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="22">
         <v>2026</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>1</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>5688249</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="9">
         <f xml:space="preserve"> (G50 / 2) + D51 - H51</f>
         <v>43947237.383960299</v>
       </c>
-      <c r="F51" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G51" s="11">
+      <c r="F51" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G51" s="9">
         <f t="shared" si="3"/>
         <v>44738287.656871587</v>
       </c>
-      <c r="H51" s="12">
-        <v>0</v>
-      </c>
-      <c r="J51" s="13">
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
         <f xml:space="preserve"> ((G50 - H51) / 2 / 12) +2500000</f>
         <v>5688249.0319966916</v>
       </c>
-      <c r="O51" s="11"/>
-    </row>
-    <row r="52" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="10"/>
-      <c r="C52" s="9">
+      <c r="L51" s="9">
+        <f xml:space="preserve"> (G50 / 2 )</f>
+        <v>38258988.383960299</v>
+      </c>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="22"/>
+      <c r="C52" s="8">
         <v>2</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="9">
         <v>5688249</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="9">
         <f t="shared" si="0"/>
         <v>50426536.656871587</v>
       </c>
-      <c r="F52" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="F52" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G52" s="9">
         <f t="shared" si="3"/>
         <v>51334214.316695273</v>
       </c>
-      <c r="H52" s="12">
-        <v>0</v>
-      </c>
-      <c r="O52" s="11"/>
-    </row>
-    <row r="53" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10"/>
-      <c r="C53" s="9">
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="22"/>
+      <c r="C53" s="8">
         <v>3</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="9">
         <v>5688249</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="9">
         <f t="shared" si="0"/>
         <v>57022463.316695273</v>
       </c>
-      <c r="F53" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="F53" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G53" s="9">
         <f t="shared" si="3"/>
         <v>58048867.656395786</v>
       </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="O53" s="11"/>
-    </row>
-    <row r="54" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="10"/>
-      <c r="C54" s="9">
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="22"/>
+      <c r="C54" s="8">
         <v>4</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="9">
         <v>5688249</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="9">
         <f t="shared" si="0"/>
         <v>63737116.656395786</v>
       </c>
-      <c r="F54" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="F54" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G54" s="9">
         <f t="shared" si="3"/>
         <v>64884384.756210908</v>
       </c>
-      <c r="H54" s="12">
-        <v>0</v>
-      </c>
-      <c r="O54" s="11"/>
-    </row>
-    <row r="55" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10"/>
-      <c r="C55" s="9">
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="22"/>
+      <c r="C55" s="8">
         <v>5</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="9">
         <v>5688249</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="9">
         <f t="shared" si="0"/>
         <v>69319160.151183486</v>
       </c>
-      <c r="F55" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G55" s="11">
+      <c r="F55" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G55" s="9">
         <f t="shared" si="3"/>
         <v>70566905.033904791</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="10">
         <f xml:space="preserve"> M50</f>
         <v>1253473.6050274251</v>
       </c>
-      <c r="O55" s="11"/>
-    </row>
-    <row r="56" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10"/>
-      <c r="C56" s="9">
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="22"/>
+      <c r="C56" s="8">
         <v>6</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="9">
         <v>5688249</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="9">
         <f t="shared" si="0"/>
         <v>76255154.033904791</v>
       </c>
-      <c r="F56" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G56" s="11">
+      <c r="F56" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G56" s="9">
         <f t="shared" si="3"/>
         <v>77627746.806515083</v>
       </c>
-      <c r="H56" s="12">
-        <v>0</v>
-      </c>
-      <c r="O56" s="11"/>
-    </row>
-    <row r="57" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="9">
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="22"/>
+      <c r="C57" s="8">
         <v>7</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="9">
         <v>5688249</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="9">
         <f t="shared" si="0"/>
         <v>83315995.806515083</v>
       </c>
-      <c r="F57" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="F57" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G57" s="9">
         <f t="shared" si="3"/>
         <v>84815683.731032357</v>
       </c>
-      <c r="H57" s="12">
-        <v>0</v>
-      </c>
-      <c r="O57" s="11"/>
-    </row>
-    <row r="58" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="10"/>
-      <c r="C58" s="9">
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="22"/>
+      <c r="C58" s="8">
         <v>8</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="9">
         <v>5688249</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="9">
         <f t="shared" si="0"/>
         <v>90503932.731032357</v>
       </c>
-      <c r="F58" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G58" s="11">
+      <c r="F58" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G58" s="9">
         <f t="shared" si="3"/>
         <v>92133003.520190939</v>
       </c>
-      <c r="H58" s="12">
-        <v>0</v>
-      </c>
-      <c r="O58" s="11"/>
-    </row>
-    <row r="59" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="10"/>
-      <c r="C59" s="9">
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="22"/>
+      <c r="C59" s="8">
         <v>9</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="9">
         <v>5688249</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="9">
         <f t="shared" si="0"/>
         <v>97821252.520190939</v>
       </c>
-      <c r="F59" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G59" s="11">
+      <c r="F59" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G59" s="9">
         <f t="shared" si="3"/>
         <v>99582035.06555438</v>
       </c>
-      <c r="H59" s="12">
-        <v>0</v>
-      </c>
-      <c r="O59" s="11"/>
-    </row>
-    <row r="60" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="10"/>
-      <c r="C60" s="9">
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="22"/>
+      <c r="C60" s="8">
         <v>10</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="9">
         <v>5688249</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="9">
         <f t="shared" si="0"/>
         <v>105270284.06555438</v>
       </c>
-      <c r="F60" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G60" s="11">
+      <c r="F60" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G60" s="9">
         <f t="shared" si="3"/>
         <v>107165149.17873436</v>
       </c>
-      <c r="H60" s="12">
-        <v>0</v>
-      </c>
-      <c r="O60" s="11"/>
-    </row>
-    <row r="61" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="10"/>
-      <c r="C61" s="9">
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="22"/>
+      <c r="C61" s="8">
         <v>11</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="9">
         <v>5688249</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="9">
         <f t="shared" si="0"/>
         <v>112853398.17873436</v>
       </c>
-      <c r="F61" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G61" s="11">
+      <c r="F61" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G61" s="9">
         <f t="shared" si="3"/>
         <v>114884759.34595159</v>
       </c>
-      <c r="H61" s="12">
-        <v>0</v>
-      </c>
-      <c r="O61" s="11"/>
-    </row>
-    <row r="62" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10"/>
-      <c r="C62" s="9">
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="22"/>
+      <c r="C62" s="8">
         <v>12</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="9">
         <v>5688249</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="9">
         <f t="shared" si="0"/>
         <v>120573008.34595159</v>
       </c>
-      <c r="F62" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G62" s="11">
+      <c r="F62" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G62" s="9">
         <f t="shared" si="3"/>
         <v>122743322.49617872</v>
       </c>
-      <c r="H62" s="12">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
         <f xml:space="preserve"> (E51 + SUM(D52:D62)) - SUM(H52:H62)</f>
         <v>105264502.77893288</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="9">
         <f xml:space="preserve"> E62 - I62</f>
         <v>15308505.567018703</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="8">
         <v>0.84</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="9">
         <f xml:space="preserve"> J62 * K62</f>
         <v>12859144.676295709</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="9">
         <f xml:space="preserve"> J62 - L62</f>
         <v>2449360.8907229938</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="8">
         <f xml:space="preserve"> J62 / I62 * 100</f>
         <v>14.542894482832699</v>
       </c>
-      <c r="O62" s="11"/>
-    </row>
-    <row r="63" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="22">
         <v>2027</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>1</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="9">
         <v>7229836</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="9">
         <f xml:space="preserve"> (G62 / 2) + D63 - H63</f>
         <v>68601497.248089358</v>
       </c>
-      <c r="F63" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G63" s="11">
+      <c r="F63" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G63" s="9">
         <f t="shared" si="3"/>
         <v>69836324.198554963</v>
       </c>
-      <c r="H63" s="12">
-        <v>0</v>
-      </c>
-      <c r="J63" s="13">
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
         <f xml:space="preserve"> ((G62 - H63) / 2 / 12) +2500000</f>
         <v>7614305.1040074462</v>
       </c>
-      <c r="O63" s="11"/>
-    </row>
-    <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10"/>
-      <c r="C64" s="9">
+      <c r="L63" s="9">
+        <f xml:space="preserve"> (G62 / 2 )</f>
+        <v>61371661.248089358</v>
+      </c>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="22"/>
+      <c r="C64" s="8">
         <v>2</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="9">
         <v>7229836</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="9">
         <f t="shared" si="0"/>
         <v>77066160.198554963</v>
       </c>
-      <c r="F64" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G64" s="11">
+      <c r="F64" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G64" s="9">
         <f t="shared" si="3"/>
         <v>78453351.082128957</v>
       </c>
-      <c r="H64" s="12">
-        <v>0</v>
-      </c>
-      <c r="O64" s="11"/>
-    </row>
-    <row r="65" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10"/>
-      <c r="C65" s="9">
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="22"/>
+      <c r="C65" s="8">
         <v>3</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="9">
         <v>7229836</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="9">
         <f t="shared" si="0"/>
         <v>85683187.082128957</v>
       </c>
-      <c r="F65" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G65" s="11">
+      <c r="F65" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G65" s="9">
         <f t="shared" si="3"/>
         <v>87225484.449607283</v>
       </c>
-      <c r="H65" s="12">
-        <v>0</v>
-      </c>
-      <c r="O65" s="11"/>
-    </row>
-    <row r="66" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="10"/>
-      <c r="C66" s="9">
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="22"/>
+      <c r="C66" s="8">
         <v>4</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="9">
         <v>7229836</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="9">
         <f t="shared" si="0"/>
         <v>94455320.449607283</v>
       </c>
-      <c r="F66" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G66" s="11">
+      <c r="F66" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G66" s="9">
         <f t="shared" si="3"/>
         <v>96155516.217700213</v>
       </c>
-      <c r="H66" s="12">
-        <v>0</v>
-      </c>
-      <c r="O66" s="11"/>
-    </row>
-    <row r="67" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="10"/>
-      <c r="C67" s="9">
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="22"/>
+      <c r="C67" s="8">
         <v>5</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="9">
         <v>7229836</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="9">
         <f t="shared" si="0"/>
         <v>100935991.32697722</v>
       </c>
-      <c r="F67" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G67" s="11">
+      <c r="F67" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G67" s="9">
         <f t="shared" si="3"/>
         <v>102752839.17086281</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="10">
         <f xml:space="preserve"> M62</f>
         <v>2449360.8907229938</v>
       </c>
-      <c r="O67" s="11"/>
-    </row>
-    <row r="68" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="10"/>
-      <c r="C68" s="9">
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="22"/>
+      <c r="C68" s="8">
         <v>6</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="9">
         <v>7229836</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="9">
         <f t="shared" si="0"/>
         <v>109982675.17086281</v>
       </c>
-      <c r="F68" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G68" s="11">
+      <c r="F68" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G68" s="9">
         <f t="shared" si="3"/>
         <v>111962363.32393834</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="10">
         <f xml:space="preserve"> M63</f>
         <v>0</v>
       </c>
-      <c r="O68" s="11"/>
-    </row>
-    <row r="69" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="10"/>
-      <c r="C69" s="9">
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="22"/>
+      <c r="C69" s="8">
         <v>7</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="9">
         <v>7229836</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="9">
         <f t="shared" ref="E69:E132" si="4" xml:space="preserve"> G68 + D69 - H69</f>
         <v>119192199.32393834</v>
       </c>
-      <c r="F69" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G69" s="11">
+      <c r="F69" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G69" s="9">
         <f t="shared" si="3"/>
         <v>121337658.91176923</v>
       </c>
-      <c r="H69" s="12">
-        <v>0</v>
-      </c>
-      <c r="O69" s="11"/>
-    </row>
-    <row r="70" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="10"/>
-      <c r="C70" s="9">
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="22"/>
+      <c r="C70" s="8">
         <v>8</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="9">
         <v>7229836</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="9">
         <f t="shared" si="4"/>
         <v>128567494.91176923</v>
       </c>
-      <c r="F70" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G70" s="11">
+      <c r="F70" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G70" s="9">
         <f t="shared" si="3"/>
         <v>130881709.82018107</v>
       </c>
-      <c r="H70" s="12">
-        <v>0</v>
-      </c>
-      <c r="O70" s="11"/>
-    </row>
-    <row r="71" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="10"/>
-      <c r="C71" s="9">
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+      <c r="O70" s="9"/>
+    </row>
+    <row r="71" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="22"/>
+      <c r="C71" s="8">
         <v>9</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="9">
         <v>7229836</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="9">
         <f t="shared" si="4"/>
         <v>138111545.82018107</v>
       </c>
-      <c r="F71" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G71" s="11">
+      <c r="F71" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G71" s="9">
         <f t="shared" si="3"/>
         <v>140597553.64494434</v>
       </c>
-      <c r="H71" s="12">
-        <v>0</v>
-      </c>
-      <c r="O71" s="11"/>
-    </row>
-    <row r="72" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="10"/>
-      <c r="C72" s="9">
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="22"/>
+      <c r="C72" s="8">
         <v>10</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="9">
         <v>7229836</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="9">
         <f t="shared" si="4"/>
         <v>147827389.64494434</v>
       </c>
-      <c r="F72" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G72" s="11">
+      <c r="F72" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G72" s="9">
         <f t="shared" si="3"/>
         <v>150488282.65855333</v>
       </c>
-      <c r="H72" s="12">
-        <v>0</v>
-      </c>
-      <c r="O72" s="11"/>
-    </row>
-    <row r="73" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="10"/>
-      <c r="C73" s="9">
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="O72" s="9"/>
+    </row>
+    <row r="73" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="22"/>
+      <c r="C73" s="8">
         <v>11</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="9">
         <v>7229836</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="9">
         <f t="shared" si="4"/>
         <v>157718118.65855333</v>
       </c>
-      <c r="F73" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G73" s="11">
+      <c r="F73" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G73" s="9">
         <f t="shared" si="3"/>
         <v>160557044.79440728</v>
       </c>
-      <c r="H73" s="12">
-        <v>0</v>
-      </c>
-      <c r="O73" s="11"/>
-    </row>
-    <row r="74" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="10"/>
-      <c r="C74" s="14">
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+      <c r="O73" s="9"/>
+    </row>
+    <row r="74" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="22"/>
+      <c r="C74" s="12">
         <v>12</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="13">
         <v>7229836</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="13">
         <f t="shared" si="4"/>
         <v>167786880.79440728</v>
       </c>
-      <c r="F74" s="14">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G74" s="15">
+      <c r="F74" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G74" s="13">
         <f t="shared" si="3"/>
         <v>170807044.64870661</v>
       </c>
-      <c r="H74" s="16">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
+      <c r="H74" s="14">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9">
         <f xml:space="preserve"> (E63 + SUM(D64:D74)) - SUM(H64:H74)</f>
         <v>145680332.35736638</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="13">
         <f xml:space="preserve"> E74 - I74</f>
         <v>22106548.437040895</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K74" s="12">
         <v>0.84</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L74" s="13">
         <f xml:space="preserve"> J74 * K74</f>
         <v>18569500.68711435</v>
       </c>
-      <c r="M74" s="15">
+      <c r="M74" s="13">
         <f xml:space="preserve"> J74 - L74</f>
         <v>3537047.7499265447</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N74" s="12">
         <f xml:space="preserve"> J74 / I74 * 100</f>
         <v>15.174696597212334</v>
       </c>
-      <c r="O74" s="15"/>
-    </row>
-    <row r="75" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9">
+      <c r="O74" s="13"/>
+    </row>
+    <row r="75" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="22">
         <v>2028</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>1</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="9">
         <v>9616960</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="9">
         <f xml:space="preserve"> (G74 / 2) + D75 - H75</f>
         <v>95020482.324353307</v>
       </c>
-      <c r="F75" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G75" s="11">
+      <c r="F75" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G75" s="9">
         <f t="shared" si="3"/>
         <v>96730851.006191671</v>
       </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
-      <c r="J75" s="13">
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11">
         <f xml:space="preserve"> ((G74 - H75) / 2 / 12) +2500000</f>
         <v>9616960.1936961077</v>
       </c>
-      <c r="O75" s="11"/>
-    </row>
-    <row r="76" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="10"/>
-      <c r="C76" s="9">
+      <c r="L75" s="9">
+        <f xml:space="preserve"> (G74 / 2 )</f>
+        <v>85403522.324353307</v>
+      </c>
+      <c r="O75" s="9"/>
+    </row>
+    <row r="76" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="22"/>
+      <c r="C76" s="8">
         <v>2</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="9">
         <v>9616960</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="9">
         <f t="shared" si="4"/>
         <v>106347811.00619167</v>
       </c>
-      <c r="F76" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G76" s="11">
+      <c r="F76" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G76" s="9">
         <f t="shared" si="3"/>
         <v>108262071.60430312</v>
       </c>
-      <c r="H76" s="12">
-        <v>0</v>
-      </c>
-      <c r="O76" s="11"/>
-    </row>
-    <row r="77" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="10"/>
-      <c r="C77" s="9">
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="O76" s="9"/>
+    </row>
+    <row r="77" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="22"/>
+      <c r="C77" s="8">
         <v>3</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="9">
         <v>9616960</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="9">
         <f t="shared" si="4"/>
         <v>117879031.60430312</v>
       </c>
-      <c r="F77" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G77" s="11">
+      <c r="F77" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G77" s="9">
         <f t="shared" si="3"/>
         <v>120000854.17318058</v>
       </c>
-      <c r="H77" s="12">
-        <v>0</v>
-      </c>
-      <c r="O77" s="11"/>
-    </row>
-    <row r="78" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="10"/>
-      <c r="C78" s="9">
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+      <c r="O77" s="9"/>
+    </row>
+    <row r="78" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="22"/>
+      <c r="C78" s="8">
         <v>4</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="9">
         <v>9616960</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="9">
         <f t="shared" si="4"/>
         <v>129617814.17318058</v>
       </c>
-      <c r="F78" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G78" s="11">
+      <c r="F78" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G78" s="9">
         <f t="shared" si="3"/>
         <v>131950934.82829782</v>
       </c>
-      <c r="H78" s="12">
-        <v>0</v>
-      </c>
-      <c r="O78" s="11"/>
-    </row>
-    <row r="79" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="10"/>
-      <c r="C79" s="9">
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="O78" s="9"/>
+    </row>
+    <row r="79" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="22"/>
+      <c r="C79" s="8">
         <v>5</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="9">
         <v>9616960</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="9">
         <f t="shared" si="4"/>
         <v>138030847.07837129</v>
       </c>
-      <c r="F79" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G79" s="11">
+      <c r="F79" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G79" s="9">
         <f t="shared" si="3"/>
         <v>140515402.32578197</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="10">
         <f xml:space="preserve"> M74</f>
         <v>3537047.7499265447</v>
       </c>
-      <c r="O79" s="11"/>
-    </row>
-    <row r="80" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="10"/>
-      <c r="C80" s="9">
+      <c r="O79" s="9"/>
+    </row>
+    <row r="80" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="22"/>
+      <c r="C80" s="8">
         <v>6</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="9">
         <v>9616960</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="9">
         <f t="shared" si="4"/>
         <v>150132362.32578197</v>
       </c>
-      <c r="F80" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G80" s="11">
+      <c r="F80" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G80" s="9">
         <f t="shared" si="3"/>
         <v>152834744.84764606</v>
       </c>
-      <c r="H80" s="12">
-        <v>0</v>
-      </c>
-      <c r="O80" s="11"/>
-    </row>
-    <row r="81" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="10"/>
-      <c r="C81" s="9">
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+      <c r="O80" s="9"/>
+    </row>
+    <row r="81" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="22"/>
+      <c r="C81" s="8">
         <v>7</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="9">
         <v>9616960</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="9">
         <f t="shared" si="4"/>
         <v>162451704.84764606</v>
       </c>
-      <c r="F81" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G81" s="11">
+      <c r="F81" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G81" s="9">
         <f t="shared" si="3"/>
         <v>165375835.53490368</v>
       </c>
-      <c r="H81" s="12">
-        <v>0</v>
-      </c>
-      <c r="O81" s="11"/>
-    </row>
-    <row r="82" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="10"/>
-      <c r="C82" s="9">
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="O81" s="9"/>
+    </row>
+    <row r="82" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="22"/>
+      <c r="C82" s="8">
         <v>8</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="9">
         <v>9616960</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="9">
         <f t="shared" si="4"/>
         <v>174992795.53490368</v>
       </c>
-      <c r="F82" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G82" s="11">
+      <c r="F82" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G82" s="9">
         <f t="shared" si="3"/>
         <v>178142665.85453194</v>
       </c>
-      <c r="H82" s="12">
-        <v>0</v>
-      </c>
-      <c r="O82" s="11"/>
-    </row>
-    <row r="83" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="10"/>
-      <c r="C83" s="9">
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+      <c r="O82" s="9"/>
+    </row>
+    <row r="83" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="22"/>
+      <c r="C83" s="8">
         <v>9</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="9">
         <v>9616960</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="9">
         <f t="shared" si="4"/>
         <v>187759625.85453194</v>
       </c>
-      <c r="F83" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G83" s="11">
+      <c r="F83" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G83" s="9">
         <f t="shared" si="3"/>
         <v>191139299.11991352</v>
       </c>
-      <c r="H83" s="12">
-        <v>0</v>
-      </c>
-      <c r="O83" s="11"/>
-    </row>
-    <row r="84" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="10"/>
-      <c r="C84" s="9">
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+      <c r="O83" s="9"/>
+    </row>
+    <row r="84" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="22"/>
+      <c r="C84" s="8">
         <v>10</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="9">
         <v>9616960</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="9">
         <f t="shared" si="4"/>
         <v>200756259.11991352</v>
       </c>
-      <c r="F84" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G84" s="11">
+      <c r="F84" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G84" s="9">
         <f t="shared" si="3"/>
         <v>204369871.78407195</v>
       </c>
-      <c r="H84" s="12">
-        <v>0</v>
-      </c>
-      <c r="O84" s="11"/>
-    </row>
-    <row r="85" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="10"/>
-      <c r="C85" s="9">
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+      <c r="O84" s="9"/>
+    </row>
+    <row r="85" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="22"/>
+      <c r="C85" s="8">
         <v>11</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="9">
         <v>9616960</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="9">
         <f t="shared" si="4"/>
         <v>213986831.78407195</v>
       </c>
-      <c r="F85" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G85" s="11">
+      <c r="F85" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G85" s="9">
         <f t="shared" si="3"/>
         <v>217838594.75618523</v>
       </c>
-      <c r="H85" s="12">
-        <v>0</v>
-      </c>
-      <c r="O85" s="11"/>
-    </row>
-    <row r="86" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="10"/>
-      <c r="C86" s="9">
+      <c r="H85" s="10">
+        <v>0</v>
+      </c>
+      <c r="O85" s="9"/>
+    </row>
+    <row r="86" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="22"/>
+      <c r="C86" s="8">
         <v>12</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="9">
         <v>9616960</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="9">
         <f t="shared" si="4"/>
         <v>227455554.75618523</v>
       </c>
-      <c r="F86" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G86" s="11">
+      <c r="F86" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G86" s="9">
         <f t="shared" si="3"/>
         <v>231549754.74179655</v>
       </c>
-      <c r="H86" s="12">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
         <f xml:space="preserve"> (E75 + SUM(D76:D86)) - SUM(H76:H86)</f>
         <v>197269994.57442677</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J86" s="9">
         <f xml:space="preserve"> E86 - I86</f>
         <v>30185560.181758463</v>
       </c>
-      <c r="K86" s="9">
+      <c r="K86" s="8">
         <v>0.84</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L86" s="9">
         <f xml:space="preserve"> J86 * K86</f>
         <v>25355870.55267711</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M86" s="9">
         <f xml:space="preserve"> J86 - L86</f>
         <v>4829689.6290813535</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N86" s="8">
         <f xml:space="preserve"> J86 / I86 * 100</f>
         <v>15.301648001196625</v>
       </c>
-      <c r="O86" s="11"/>
-    </row>
-    <row r="87" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
+      <c r="O86" s="9"/>
+    </row>
+    <row r="87" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="22">
         <v>2029</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>1</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="9">
         <v>12147906</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="9">
         <f xml:space="preserve"> (G86 / 2) + D87 - H87</f>
         <v>127922783.37089828</v>
       </c>
-      <c r="F87" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G87" s="11">
+      <c r="F87" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G87" s="9">
         <f t="shared" si="3"/>
         <v>130225393.47157444</v>
       </c>
-      <c r="H87" s="12">
-        <v>0</v>
-      </c>
-      <c r="J87" s="13">
+      <c r="H87" s="10">
+        <v>0</v>
+      </c>
+      <c r="J87" s="11">
         <f xml:space="preserve"> ((G86 - H87) / 2 / 12) +2500000</f>
         <v>12147906.447574856</v>
       </c>
-      <c r="O87" s="11"/>
-    </row>
-    <row r="88" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="10"/>
-      <c r="C88" s="9">
+      <c r="L87" s="9">
+        <f xml:space="preserve"> (G86 / 2 )</f>
+        <v>115774877.37089828</v>
+      </c>
+      <c r="O87" s="9"/>
+    </row>
+    <row r="88" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="22"/>
+      <c r="C88" s="8">
         <v>2</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="9">
         <v>12147906</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="9">
         <f t="shared" si="4"/>
         <v>142373299.47157443</v>
       </c>
-      <c r="F88" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G88" s="11">
+      <c r="F88" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G88" s="9">
         <f t="shared" si="3"/>
         <v>144936018.86206275</v>
       </c>
-      <c r="H88" s="12">
-        <v>0</v>
-      </c>
-      <c r="O88" s="11"/>
-    </row>
-    <row r="89" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="10"/>
-      <c r="C89" s="9">
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+      <c r="O88" s="9"/>
+    </row>
+    <row r="89" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="22"/>
+      <c r="C89" s="8">
         <v>3</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="9">
         <v>12147906</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="9">
         <f t="shared" si="4"/>
         <v>157083924.86206275</v>
       </c>
-      <c r="F89" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G89" s="11">
+      <c r="F89" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G89" s="9">
         <f t="shared" si="3"/>
         <v>159911435.50957987</v>
       </c>
-      <c r="H89" s="12">
-        <v>0</v>
-      </c>
-      <c r="O89" s="11"/>
-    </row>
-    <row r="90" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="10"/>
-      <c r="C90" s="9">
+      <c r="H89" s="10">
+        <v>0</v>
+      </c>
+      <c r="O89" s="9"/>
+    </row>
+    <row r="90" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="22"/>
+      <c r="C90" s="8">
         <v>4</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="9">
         <v>12147906</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="9">
         <f t="shared" si="4"/>
         <v>172059341.50957987</v>
       </c>
-      <c r="F90" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G90" s="11">
+      <c r="F90" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G90" s="9">
         <f t="shared" si="3"/>
         <v>175156409.65675232</v>
       </c>
-      <c r="H90" s="12">
-        <v>0</v>
-      </c>
-      <c r="O90" s="11"/>
-    </row>
-    <row r="91" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="10"/>
-      <c r="C91" s="9">
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+      <c r="O90" s="9"/>
+    </row>
+    <row r="91" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="22"/>
+      <c r="C91" s="8">
         <v>5</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="9">
         <v>12147906</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="9">
         <f t="shared" si="4"/>
         <v>182474626.02767098</v>
       </c>
-      <c r="F91" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G91" s="11">
+      <c r="F91" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G91" s="9">
         <f t="shared" si="3"/>
         <v>185759169.29616904</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="10">
         <f xml:space="preserve"> M86</f>
         <v>4829689.6290813535</v>
       </c>
-      <c r="O91" s="11"/>
-    </row>
-    <row r="92" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="10"/>
-      <c r="C92" s="9">
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="22"/>
+      <c r="C92" s="8">
         <v>6</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="9">
         <v>12147906</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="9">
         <f t="shared" si="4"/>
         <v>197907075.29616904</v>
       </c>
-      <c r="F92" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G92" s="11">
+      <c r="F92" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G92" s="9">
         <f t="shared" si="3"/>
         <v>201469402.65150008</v>
       </c>
-      <c r="H92" s="12">
-        <v>0</v>
-      </c>
-      <c r="O92" s="11"/>
-    </row>
-    <row r="93" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="10"/>
-      <c r="C93" s="9">
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+      <c r="O92" s="9"/>
+    </row>
+    <row r="93" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="22"/>
+      <c r="C93" s="8">
         <v>7</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="9">
         <v>12147906</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93" s="9">
         <f t="shared" si="4"/>
         <v>213617308.65150008</v>
       </c>
-      <c r="F93" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G93" s="11">
+      <c r="F93" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G93" s="9">
         <f t="shared" si="3"/>
         <v>217462420.20722708</v>
       </c>
-      <c r="H93" s="12">
-        <v>0</v>
-      </c>
-      <c r="O93" s="11"/>
-    </row>
-    <row r="94" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="10"/>
-      <c r="C94" s="9">
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+      <c r="O93" s="9"/>
+    </row>
+    <row r="94" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="22"/>
+      <c r="C94" s="8">
         <v>8</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="9">
         <v>12147906</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="9">
         <f t="shared" si="4"/>
         <v>229610326.20722708</v>
       </c>
-      <c r="F94" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G94" s="11">
+      <c r="F94" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G94" s="9">
         <f t="shared" ref="G94:G157" si="5" xml:space="preserve"> (E94 * F94) + E94</f>
         <v>233743312.07895717</v>
       </c>
-      <c r="H94" s="12">
-        <v>0</v>
-      </c>
-      <c r="O94" s="11"/>
-    </row>
-    <row r="95" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="10"/>
-      <c r="C95" s="9">
+      <c r="H94" s="10">
+        <v>0</v>
+      </c>
+      <c r="O94" s="9"/>
+    </row>
+    <row r="95" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="22"/>
+      <c r="C95" s="8">
         <v>9</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="9">
         <v>12147906</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="9">
         <f t="shared" si="4"/>
         <v>245891218.07895717</v>
       </c>
-      <c r="F95" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G95" s="11">
+      <c r="F95" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G95" s="9">
         <f t="shared" si="5"/>
         <v>250317260.00437841</v>
       </c>
-      <c r="H95" s="12">
-        <v>0</v>
-      </c>
-      <c r="O95" s="11"/>
-    </row>
-    <row r="96" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="10"/>
-      <c r="C96" s="9">
+      <c r="H95" s="10">
+        <v>0</v>
+      </c>
+      <c r="O95" s="9"/>
+    </row>
+    <row r="96" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="22"/>
+      <c r="C96" s="8">
         <v>10</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="9">
         <v>12147906</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="9">
         <f t="shared" si="4"/>
         <v>262465166.00437841</v>
       </c>
-      <c r="F96" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G96" s="11">
+      <c r="F96" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G96" s="9">
         <f t="shared" si="5"/>
         <v>267189538.99245721</v>
       </c>
-      <c r="H96" s="12">
-        <v>0</v>
-      </c>
-      <c r="O96" s="11"/>
-    </row>
-    <row r="97" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="10"/>
-      <c r="C97" s="9">
+      <c r="H96" s="10">
+        <v>0</v>
+      </c>
+      <c r="O96" s="9"/>
+    </row>
+    <row r="97" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="22"/>
+      <c r="C97" s="8">
         <v>11</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="9">
         <v>12147906</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="9">
         <f t="shared" si="4"/>
         <v>279337444.99245721</v>
       </c>
-      <c r="F97" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G97" s="11">
+      <c r="F97" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G97" s="9">
         <f t="shared" si="5"/>
         <v>284365519.00232142</v>
       </c>
-      <c r="H97" s="12">
-        <v>0</v>
-      </c>
-      <c r="O97" s="11"/>
-    </row>
-    <row r="98" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="10"/>
-      <c r="C98" s="9">
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+      <c r="O97" s="9"/>
+    </row>
+    <row r="98" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="22"/>
+      <c r="C98" s="8">
         <v>12</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="9">
         <v>12147906</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="9">
         <f t="shared" si="4"/>
         <v>296513425.00232142</v>
       </c>
-      <c r="F98" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G98" s="11">
+      <c r="F98" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G98" s="9">
         <f t="shared" si="5"/>
         <v>301850666.65236318</v>
       </c>
-      <c r="H98" s="12">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11">
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+      <c r="I98" s="9">
         <f xml:space="preserve"> (E87 + SUM(D88:D98)) - SUM(H88:H98)</f>
         <v>256720059.74181694</v>
       </c>
-      <c r="J98" s="11">
+      <c r="J98" s="9">
         <f xml:space="preserve"> E98 - I98</f>
         <v>39793365.260504484</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K98" s="8">
         <v>0.84</v>
       </c>
-      <c r="L98" s="11">
+      <c r="L98" s="9">
         <f xml:space="preserve"> J98 * K98</f>
         <v>33426426.818823766</v>
       </c>
-      <c r="M98" s="11">
+      <c r="M98" s="9">
         <f xml:space="preserve"> J98 - L98</f>
         <v>6366938.4416807182</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N98" s="8">
         <f xml:space="preserve"> J98 / I98 * 100</f>
         <v>15.500684013755928</v>
       </c>
-      <c r="O98" s="11"/>
-    </row>
-    <row r="99" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9">
+      <c r="O98" s="9"/>
+    </row>
+    <row r="99" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="22">
         <v>2030</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <v>1</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="9">
         <v>15077111</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="9">
         <f xml:space="preserve"> (G98 / 2) + D99 - H99</f>
         <v>166002444.32618159</v>
       </c>
-      <c r="F99" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G99" s="11">
+      <c r="F99" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G99" s="9">
         <f t="shared" si="5"/>
         <v>168990488.32405287</v>
       </c>
-      <c r="H99" s="12">
-        <v>0</v>
-      </c>
-      <c r="J99" s="13">
+      <c r="H99" s="10">
+        <v>0</v>
+      </c>
+      <c r="J99" s="11">
         <f xml:space="preserve"> ((G98 - H99) / 2 / 12) +2500000</f>
         <v>15077111.110515133</v>
       </c>
-      <c r="O99" s="11"/>
-    </row>
-    <row r="100" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="10"/>
-      <c r="C100" s="9">
+      <c r="L99" s="9">
+        <f xml:space="preserve"> (G98 / 2 )</f>
+        <v>150925333.32618159</v>
+      </c>
+      <c r="O99" s="9"/>
+    </row>
+    <row r="100" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="22"/>
+      <c r="C100" s="8">
         <v>2</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="9">
         <v>15077111</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="9">
         <f t="shared" si="4"/>
         <v>184067599.32405287</v>
       </c>
-      <c r="F100" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G100" s="11">
+      <c r="F100" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G100" s="9">
         <f t="shared" si="5"/>
         <v>187380816.11188582</v>
       </c>
-      <c r="H100" s="12">
-        <v>0</v>
-      </c>
-      <c r="O100" s="11"/>
-    </row>
-    <row r="101" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="10"/>
-      <c r="C101" s="9">
+      <c r="H100" s="10">
+        <v>0</v>
+      </c>
+      <c r="O100" s="9"/>
+    </row>
+    <row r="101" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="22"/>
+      <c r="C101" s="8">
         <v>3</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D101" s="9">
         <v>15077111</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="9">
         <f t="shared" si="4"/>
         <v>202457927.11188582</v>
       </c>
-      <c r="F101" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G101" s="11">
+      <c r="F101" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G101" s="9">
         <f t="shared" si="5"/>
         <v>206102169.79989976</v>
       </c>
-      <c r="H101" s="12">
-        <v>0</v>
-      </c>
-      <c r="O101" s="11"/>
-    </row>
-    <row r="102" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="10"/>
-      <c r="C102" s="9">
+      <c r="H101" s="10">
+        <v>0</v>
+      </c>
+      <c r="O101" s="9"/>
+    </row>
+    <row r="102" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="22"/>
+      <c r="C102" s="8">
         <v>4</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="9">
         <v>15077111</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="9">
         <f t="shared" si="4"/>
         <v>221179280.79989976</v>
       </c>
-      <c r="F102" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G102" s="11">
+      <c r="F102" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G102" s="9">
         <f t="shared" si="5"/>
         <v>225160507.85429797</v>
       </c>
-      <c r="H102" s="12">
-        <v>0</v>
-      </c>
-      <c r="O102" s="11"/>
-    </row>
-    <row r="103" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="10"/>
-      <c r="C103" s="9">
+      <c r="H102" s="10">
+        <v>0</v>
+      </c>
+      <c r="O102" s="9"/>
+    </row>
+    <row r="103" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="22"/>
+      <c r="C103" s="8">
         <v>5</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="9">
         <v>15077111</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="9">
         <f t="shared" si="4"/>
         <v>233870680.41261724</v>
       </c>
-      <c r="F103" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G103" s="11">
+      <c r="F103" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G103" s="9">
         <f t="shared" si="5"/>
         <v>238080352.66004434</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="10">
         <f xml:space="preserve"> M98</f>
         <v>6366938.4416807182</v>
       </c>
-      <c r="O103" s="11"/>
-    </row>
-    <row r="104" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="10"/>
-      <c r="C104" s="9">
+      <c r="O103" s="9"/>
+    </row>
+    <row r="104" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="22"/>
+      <c r="C104" s="8">
         <v>6</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="9">
         <v>15077111</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="9">
         <f t="shared" si="4"/>
         <v>253157463.66004434</v>
       </c>
-      <c r="F104" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G104" s="11">
+      <c r="F104" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G104" s="9">
         <f t="shared" si="5"/>
         <v>257714298.00592515</v>
       </c>
-      <c r="H104" s="12">
-        <v>0</v>
-      </c>
-      <c r="O104" s="11"/>
-    </row>
-    <row r="105" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="10"/>
-      <c r="C105" s="9">
+      <c r="H104" s="10">
+        <v>0</v>
+      </c>
+      <c r="O104" s="9"/>
+    </row>
+    <row r="105" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="22"/>
+      <c r="C105" s="8">
         <v>7</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D105" s="9">
         <v>15077111</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="9">
         <f t="shared" si="4"/>
         <v>272791409.00592518</v>
       </c>
-      <c r="F105" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G105" s="11">
+      <c r="F105" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G105" s="9">
         <f t="shared" si="5"/>
         <v>277701654.36803186</v>
       </c>
-      <c r="H105" s="12">
-        <v>0</v>
-      </c>
-      <c r="O105" s="11"/>
-    </row>
-    <row r="106" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="10"/>
-      <c r="C106" s="9">
+      <c r="H105" s="10">
+        <v>0</v>
+      </c>
+      <c r="O105" s="9"/>
+    </row>
+    <row r="106" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="22"/>
+      <c r="C106" s="8">
         <v>8</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="9">
         <v>15077111</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="9">
         <f t="shared" si="4"/>
         <v>292778765.36803186</v>
       </c>
-      <c r="F106" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G106" s="11">
+      <c r="F106" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G106" s="9">
         <f t="shared" si="5"/>
         <v>298048783.14465642</v>
       </c>
-      <c r="H106" s="12">
-        <v>0</v>
-      </c>
-      <c r="O106" s="11"/>
-    </row>
-    <row r="107" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="10"/>
-      <c r="C107" s="9">
+      <c r="H106" s="10">
+        <v>0</v>
+      </c>
+      <c r="O106" s="9"/>
+    </row>
+    <row r="107" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="22"/>
+      <c r="C107" s="8">
         <v>9</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="9">
         <v>15077111</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="9">
         <f t="shared" si="4"/>
         <v>313125894.14465642</v>
       </c>
-      <c r="F107" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G107" s="11">
+      <c r="F107" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G107" s="9">
         <f t="shared" si="5"/>
         <v>318762160.23926026</v>
       </c>
-      <c r="H107" s="12">
-        <v>0</v>
-      </c>
-      <c r="O107" s="11"/>
-    </row>
-    <row r="108" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="10"/>
-      <c r="C108" s="9">
+      <c r="H107" s="10">
+        <v>0</v>
+      </c>
+      <c r="O107" s="9"/>
+    </row>
+    <row r="108" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="22"/>
+      <c r="C108" s="8">
         <v>10</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="9">
         <v>15077111</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="9">
         <f t="shared" si="4"/>
         <v>333839271.23926026</v>
       </c>
-      <c r="F108" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G108" s="11">
+      <c r="F108" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G108" s="9">
         <f t="shared" si="5"/>
         <v>339848378.12156695</v>
       </c>
-      <c r="H108" s="12">
-        <v>0</v>
-      </c>
-      <c r="O108" s="11"/>
-    </row>
-    <row r="109" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="10"/>
-      <c r="C109" s="9">
+      <c r="H108" s="10">
+        <v>0</v>
+      </c>
+      <c r="O108" s="9"/>
+    </row>
+    <row r="109" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="22"/>
+      <c r="C109" s="8">
         <v>11</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="9">
         <v>15077111</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109" s="9">
         <f t="shared" si="4"/>
         <v>354925489.12156695</v>
       </c>
-      <c r="F109" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G109" s="11">
+      <c r="F109" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G109" s="9">
         <f t="shared" si="5"/>
         <v>361314147.92575514</v>
       </c>
-      <c r="H109" s="12">
-        <v>0</v>
-      </c>
-      <c r="O109" s="11"/>
-    </row>
-    <row r="110" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="10"/>
-      <c r="C110" s="9">
+      <c r="H109" s="10">
+        <v>0</v>
+      </c>
+      <c r="O109" s="9"/>
+    </row>
+    <row r="110" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="22"/>
+      <c r="C110" s="8">
         <v>12</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="9">
         <v>15077111</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="9">
         <f t="shared" si="4"/>
         <v>376391258.92575514</v>
       </c>
-      <c r="F110" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G110" s="11">
+      <c r="F110" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G110" s="9">
         <f t="shared" si="5"/>
         <v>383166301.58641875</v>
       </c>
-      <c r="H110" s="12">
-        <v>0</v>
-      </c>
-      <c r="I110" s="11">
+      <c r="H110" s="10">
+        <v>0</v>
+      </c>
+      <c r="I110" s="9">
         <f xml:space="preserve"> (E99 + SUM(D100:D110)) - SUM(H100:H110)</f>
         <v>325483726.88450086</v>
       </c>
-      <c r="J110" s="11">
+      <c r="J110" s="9">
         <f xml:space="preserve"> E110 - I110</f>
         <v>50907532.041254282</v>
       </c>
-      <c r="K110" s="9">
+      <c r="K110" s="8">
         <v>0.84</v>
       </c>
-      <c r="L110" s="11">
+      <c r="L110" s="9">
         <f xml:space="preserve"> J110 * K110</f>
         <v>42762326.914653592</v>
       </c>
-      <c r="M110" s="11">
+      <c r="M110" s="9">
         <f xml:space="preserve"> J110 - L110</f>
         <v>8145205.1266006902</v>
       </c>
-      <c r="N110" s="9">
+      <c r="N110" s="8">
         <f xml:space="preserve"> J110 / I110 * 100</f>
         <v>15.64057672822427</v>
       </c>
-      <c r="O110" s="11"/>
-    </row>
-    <row r="111" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="9">
+      <c r="O110" s="9"/>
+    </row>
+    <row r="111" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="22">
         <v>2031</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="8">
         <v>1</v>
       </c>
-      <c r="D111" s="11">
+      <c r="D111" s="9">
         <v>18465262</v>
       </c>
-      <c r="E111" s="11">
+      <c r="E111" s="9">
         <f xml:space="preserve"> (G110 / 2) + D111 - H111</f>
         <v>210048412.79320937</v>
       </c>
-      <c r="F111" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G111" s="11">
+      <c r="F111" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G111" s="9">
         <f t="shared" si="5"/>
         <v>213829284.22348714</v>
       </c>
-      <c r="H111" s="12">
-        <v>0</v>
-      </c>
-      <c r="J111" s="13">
+      <c r="H111" s="10">
+        <v>0</v>
+      </c>
+      <c r="J111" s="11">
         <f xml:space="preserve"> ((G110 - H111) / 2 / 12) +2500000</f>
         <v>18465262.566100784</v>
       </c>
-      <c r="O111" s="11"/>
-    </row>
-    <row r="112" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="10"/>
-      <c r="C112" s="9">
+      <c r="L111" s="9">
+        <f xml:space="preserve"> (G110 / 2 )</f>
+        <v>191583150.79320937</v>
+      </c>
+      <c r="O111" s="9"/>
+    </row>
+    <row r="112" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="22"/>
+      <c r="C112" s="8">
         <v>2</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="9">
         <v>18465262</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="9">
         <f t="shared" si="4"/>
         <v>232294546.22348714</v>
       </c>
-      <c r="F112" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G112" s="11">
+      <c r="F112" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G112" s="9">
         <f t="shared" si="5"/>
         <v>236475848.0555099</v>
       </c>
-      <c r="H112" s="12">
-        <v>0</v>
-      </c>
-      <c r="O112" s="11"/>
-    </row>
-    <row r="113" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="10"/>
-      <c r="C113" s="9">
+      <c r="H112" s="10">
+        <v>0</v>
+      </c>
+      <c r="O112" s="9"/>
+    </row>
+    <row r="113" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="22"/>
+      <c r="C113" s="8">
         <v>3</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D113" s="9">
         <v>18465262</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="9">
         <f t="shared" si="4"/>
         <v>254941110.0555099</v>
       </c>
-      <c r="F113" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G113" s="11">
+      <c r="F113" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G113" s="9">
         <f t="shared" si="5"/>
         <v>259530050.03650907</v>
       </c>
-      <c r="H113" s="12">
-        <v>0</v>
-      </c>
-      <c r="O113" s="11"/>
-    </row>
-    <row r="114" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="10"/>
-      <c r="C114" s="9">
+      <c r="H113" s="10">
+        <v>0</v>
+      </c>
+      <c r="O113" s="9"/>
+    </row>
+    <row r="114" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="22"/>
+      <c r="C114" s="8">
         <v>4</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="9">
         <v>18465262</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="9">
         <f t="shared" si="4"/>
         <v>277995312.03650904</v>
       </c>
-      <c r="F114" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G114" s="11">
+      <c r="F114" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G114" s="9">
         <f t="shared" si="5"/>
         <v>282999227.65316617</v>
       </c>
-      <c r="H114" s="12">
-        <v>0</v>
-      </c>
-      <c r="O114" s="11"/>
-    </row>
-    <row r="115" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="10"/>
-      <c r="C115" s="9">
+      <c r="H114" s="10">
+        <v>0</v>
+      </c>
+      <c r="O114" s="9"/>
+    </row>
+    <row r="115" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="22"/>
+      <c r="C115" s="8">
         <v>5</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="9">
         <v>18465262</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="9">
         <f t="shared" si="4"/>
         <v>293319284.52656549</v>
       </c>
-      <c r="F115" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G115" s="11">
+      <c r="F115" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G115" s="9">
         <f t="shared" si="5"/>
         <v>298599031.64804369</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="10">
         <f xml:space="preserve"> M110</f>
         <v>8145205.1266006902</v>
       </c>
-      <c r="O115" s="11"/>
-    </row>
-    <row r="116" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="10"/>
-      <c r="C116" s="9">
+      <c r="O115" s="9"/>
+    </row>
+    <row r="116" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="22"/>
+      <c r="C116" s="8">
         <v>6</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="9">
         <v>18465262</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="9">
         <f t="shared" si="4"/>
         <v>317064293.64804369</v>
       </c>
-      <c r="F116" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G116" s="11">
+      <c r="F116" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G116" s="9">
         <f t="shared" si="5"/>
         <v>322771450.93370849</v>
       </c>
-      <c r="H116" s="12">
-        <v>0</v>
-      </c>
-      <c r="O116" s="11"/>
-    </row>
-    <row r="117" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="10"/>
-      <c r="C117" s="9">
+      <c r="H116" s="10">
+        <v>0</v>
+      </c>
+      <c r="O116" s="9"/>
+    </row>
+    <row r="117" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="22"/>
+      <c r="C117" s="8">
         <v>7</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D117" s="9">
         <v>18465262</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="9">
         <f t="shared" si="4"/>
         <v>341236712.93370849</v>
       </c>
-      <c r="F117" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G117" s="11">
+      <c r="F117" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G117" s="9">
         <f t="shared" si="5"/>
         <v>347378973.76651525</v>
       </c>
-      <c r="H117" s="12">
-        <v>0</v>
-      </c>
-      <c r="O117" s="11"/>
-    </row>
-    <row r="118" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="10"/>
-      <c r="C118" s="9">
+      <c r="H117" s="10">
+        <v>0</v>
+      </c>
+      <c r="O117" s="9"/>
+    </row>
+    <row r="118" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="22"/>
+      <c r="C118" s="8">
         <v>8</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="9">
         <v>18465262</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="9">
         <f t="shared" si="4"/>
         <v>365844235.76651525</v>
       </c>
-      <c r="F118" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G118" s="11">
+      <c r="F118" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G118" s="9">
         <f t="shared" si="5"/>
         <v>372429432.01031256</v>
       </c>
-      <c r="H118" s="12">
-        <v>0</v>
-      </c>
-      <c r="O118" s="11"/>
-    </row>
-    <row r="119" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="10"/>
-      <c r="C119" s="9">
+      <c r="H118" s="10">
+        <v>0</v>
+      </c>
+      <c r="O118" s="9"/>
+    </row>
+    <row r="119" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="22"/>
+      <c r="C119" s="8">
         <v>9</v>
       </c>
-      <c r="D119" s="11">
+      <c r="D119" s="9">
         <v>18465262</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="9">
         <f t="shared" si="4"/>
         <v>390894694.01031256</v>
       </c>
-      <c r="F119" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G119" s="11">
+      <c r="F119" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G119" s="9">
         <f t="shared" si="5"/>
         <v>397930798.50249821</v>
       </c>
-      <c r="H119" s="12">
-        <v>0</v>
-      </c>
-      <c r="O119" s="11"/>
-    </row>
-    <row r="120" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="10"/>
-      <c r="C120" s="9">
+      <c r="H119" s="10">
+        <v>0</v>
+      </c>
+      <c r="O119" s="9"/>
+    </row>
+    <row r="120" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="22"/>
+      <c r="C120" s="8">
         <v>10</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="9">
         <v>18465262</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="9">
         <f t="shared" si="4"/>
         <v>416396060.50249821</v>
       </c>
-      <c r="F120" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G120" s="11">
+      <c r="F120" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G120" s="9">
         <f t="shared" si="5"/>
         <v>423891189.5915432</v>
       </c>
-      <c r="H120" s="12">
-        <v>0</v>
-      </c>
-      <c r="O120" s="11"/>
-    </row>
-    <row r="121" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="10"/>
-      <c r="C121" s="9">
+      <c r="H120" s="10">
+        <v>0</v>
+      </c>
+      <c r="O120" s="9"/>
+    </row>
+    <row r="121" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="22"/>
+      <c r="C121" s="8">
         <v>11</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D121" s="9">
         <v>18465262</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="9">
         <f t="shared" si="4"/>
         <v>442356451.5915432</v>
       </c>
-      <c r="F121" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G121" s="11">
+      <c r="F121" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G121" s="9">
         <f t="shared" si="5"/>
         <v>450318867.720191</v>
       </c>
-      <c r="H121" s="12">
-        <v>0</v>
-      </c>
-      <c r="O121" s="11"/>
-    </row>
-    <row r="122" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="10"/>
-      <c r="C122" s="9">
+      <c r="H121" s="10">
+        <v>0</v>
+      </c>
+      <c r="O121" s="9"/>
+    </row>
+    <row r="122" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="22"/>
+      <c r="C122" s="8">
         <v>12</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="9">
         <v>18465262</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="9">
         <f t="shared" si="4"/>
         <v>468784129.720191</v>
       </c>
-      <c r="F122" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G122" s="11">
+      <c r="F122" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G122" s="9">
         <f t="shared" si="5"/>
         <v>477222244.05515444</v>
       </c>
-      <c r="H122" s="12">
-        <v>0</v>
-      </c>
-      <c r="I122" s="11">
+      <c r="H122" s="10">
+        <v>0</v>
+      </c>
+      <c r="I122" s="9">
         <f xml:space="preserve"> (E111 + SUM(D112:D122)) - SUM(H112:H122)</f>
         <v>405021089.66660869</v>
       </c>
-      <c r="J122" s="11">
+      <c r="J122" s="9">
         <f xml:space="preserve"> E122 - I122</f>
         <v>63763040.053582311</v>
       </c>
-      <c r="K122" s="9">
+      <c r="K122" s="8">
         <v>0.84</v>
       </c>
-      <c r="L122" s="11">
+      <c r="L122" s="9">
         <f xml:space="preserve"> J122 * K122</f>
         <v>53560953.645009138</v>
       </c>
-      <c r="M122" s="11">
+      <c r="M122" s="9">
         <f xml:space="preserve"> J122 - L122</f>
         <v>10202086.408573173</v>
       </c>
-      <c r="N122" s="9">
+      <c r="N122" s="8">
         <f xml:space="preserve"> J122 / I122 * 100</f>
         <v>15.743140710541411</v>
       </c>
-      <c r="O122" s="11"/>
-    </row>
-    <row r="123" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9">
+      <c r="O122" s="9"/>
+    </row>
+    <row r="123" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="22">
         <v>2032</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="8">
         <v>1</v>
       </c>
-      <c r="D123" s="11">
+      <c r="D123" s="9">
         <v>22384260</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="9">
         <f xml:space="preserve"> (G122 / 2) + D123 - H123</f>
         <v>260995382.02757722</v>
       </c>
-      <c r="F123" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G123" s="11">
+      <c r="F123" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G123" s="9">
         <f t="shared" si="5"/>
         <v>265693298.9040736</v>
       </c>
-      <c r="H123" s="12"/>
-      <c r="J123" s="13">
+      <c r="H123" s="10"/>
+      <c r="J123" s="11">
         <f xml:space="preserve"> ((G122 - H123) / 2 / 12) +2500000</f>
         <v>22384260.16896477</v>
       </c>
-      <c r="O123" s="11"/>
-    </row>
-    <row r="124" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="10"/>
-      <c r="C124" s="9">
+      <c r="L123" s="9">
+        <f xml:space="preserve"> (G122 / 2 )</f>
+        <v>238611122.02757722</v>
+      </c>
+      <c r="O123" s="9"/>
+    </row>
+    <row r="124" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="22"/>
+      <c r="C124" s="8">
         <v>2</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="9">
         <v>22384260</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="9">
         <f t="shared" si="4"/>
         <v>288077558.9040736</v>
       </c>
-      <c r="F124" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G124" s="11">
+      <c r="F124" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G124" s="9">
         <f t="shared" si="5"/>
         <v>293262954.96434695</v>
       </c>
-      <c r="H124" s="12"/>
-      <c r="O124" s="11"/>
-    </row>
-    <row r="125" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="10"/>
-      <c r="C125" s="9">
+      <c r="H124" s="10"/>
+      <c r="O124" s="9"/>
+    </row>
+    <row r="125" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="22"/>
+      <c r="C125" s="8">
         <v>3</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="9">
         <v>22384260</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="9">
         <f t="shared" si="4"/>
         <v>315647214.96434695</v>
       </c>
-      <c r="F125" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G125" s="11">
+      <c r="F125" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G125" s="9">
         <f t="shared" si="5"/>
         <v>321328864.83370519</v>
       </c>
-      <c r="H125" s="12"/>
-      <c r="O125" s="11"/>
-    </row>
-    <row r="126" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="10"/>
-      <c r="C126" s="9">
+      <c r="H125" s="10"/>
+      <c r="O125" s="9"/>
+    </row>
+    <row r="126" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="22"/>
+      <c r="C126" s="8">
         <v>4</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="9">
         <v>22384260</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="9">
         <f t="shared" si="4"/>
         <v>343713124.83370519</v>
       </c>
-      <c r="F126" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G126" s="11">
+      <c r="F126" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G126" s="9">
         <f t="shared" si="5"/>
         <v>349899961.0807119</v>
       </c>
-      <c r="H126" s="12"/>
-      <c r="O126" s="11"/>
-    </row>
-    <row r="127" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="10"/>
-      <c r="C127" s="9">
+      <c r="H126" s="10"/>
+      <c r="O126" s="9"/>
+    </row>
+    <row r="127" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="22"/>
+      <c r="C127" s="8">
         <v>5</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="9">
         <v>22384260</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E127" s="9">
         <f t="shared" si="4"/>
         <v>362082134.67213875</v>
       </c>
-      <c r="F127" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G127" s="11">
+      <c r="F127" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G127" s="9">
         <f t="shared" si="5"/>
         <v>368599613.09623724</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="10">
         <f xml:space="preserve"> M122</f>
         <v>10202086.408573173</v>
       </c>
-      <c r="O127" s="11"/>
-    </row>
-    <row r="128" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="10"/>
-      <c r="C128" s="9">
+      <c r="O127" s="9"/>
+    </row>
+    <row r="128" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="22"/>
+      <c r="C128" s="8">
         <v>6</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="9">
         <v>22384260</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="9">
         <f t="shared" si="4"/>
         <v>390983873.09623724</v>
       </c>
-      <c r="F128" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G128" s="11">
+      <c r="F128" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G128" s="9">
         <f t="shared" si="5"/>
         <v>398021582.81196952</v>
       </c>
-      <c r="H128" s="12"/>
-      <c r="O128" s="11"/>
-    </row>
-    <row r="129" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="10"/>
-      <c r="C129" s="9">
+      <c r="H128" s="10"/>
+      <c r="O128" s="9"/>
+    </row>
+    <row r="129" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="22"/>
+      <c r="C129" s="8">
         <v>7</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="9">
         <v>22384260</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="9">
         <f t="shared" si="4"/>
         <v>420405842.81196952</v>
       </c>
-      <c r="F129" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G129" s="11">
+      <c r="F129" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G129" s="9">
         <f t="shared" si="5"/>
         <v>427973147.98258495</v>
       </c>
-      <c r="H129" s="12"/>
-      <c r="O129" s="11"/>
-    </row>
-    <row r="130" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="10"/>
-      <c r="C130" s="9">
+      <c r="H129" s="10"/>
+      <c r="O129" s="9"/>
+    </row>
+    <row r="130" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="22"/>
+      <c r="C130" s="8">
         <v>8</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="9">
         <v>22384260</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="9">
         <f t="shared" si="4"/>
         <v>450357407.98258495</v>
       </c>
-      <c r="F130" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G130" s="11">
+      <c r="F130" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G130" s="9">
         <f t="shared" si="5"/>
         <v>458463841.32627147</v>
       </c>
-      <c r="H130" s="12"/>
-      <c r="O130" s="11"/>
-    </row>
-    <row r="131" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="10"/>
-      <c r="C131" s="9">
+      <c r="H130" s="10"/>
+      <c r="O130" s="9"/>
+    </row>
+    <row r="131" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="22"/>
+      <c r="C131" s="8">
         <v>9</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D131" s="9">
         <v>22384260</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="9">
         <f t="shared" si="4"/>
         <v>480848101.32627147</v>
       </c>
-      <c r="F131" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G131" s="11">
+      <c r="F131" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G131" s="9">
         <f t="shared" si="5"/>
         <v>489503367.15014434</v>
       </c>
-      <c r="H131" s="12"/>
-      <c r="O131" s="11"/>
-    </row>
-    <row r="132" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="10"/>
-      <c r="C132" s="9">
+      <c r="H131" s="10"/>
+      <c r="O131" s="9"/>
+    </row>
+    <row r="132" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="22"/>
+      <c r="C132" s="8">
         <v>10</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="9">
         <v>22384260</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="9">
         <f t="shared" si="4"/>
         <v>511887627.15014434</v>
       </c>
-      <c r="F132" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G132" s="11">
+      <c r="F132" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G132" s="9">
         <f t="shared" si="5"/>
         <v>521101604.43884695</v>
       </c>
-      <c r="H132" s="12"/>
-      <c r="O132" s="11"/>
-    </row>
-    <row r="133" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="10"/>
-      <c r="C133" s="9">
+      <c r="H132" s="10"/>
+      <c r="O132" s="9"/>
+    </row>
+    <row r="133" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="22"/>
+      <c r="C133" s="8">
         <v>11</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="9">
         <v>22384260</v>
       </c>
-      <c r="E133" s="11">
+      <c r="E133" s="9">
         <f t="shared" ref="E133:E196" si="6" xml:space="preserve"> G132 + D133 - H133</f>
         <v>543485864.43884695</v>
       </c>
-      <c r="F133" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G133" s="11">
+      <c r="F133" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G133" s="9">
         <f t="shared" si="5"/>
         <v>553268609.99874616</v>
       </c>
-      <c r="H133" s="12"/>
-      <c r="O133" s="11"/>
-    </row>
-    <row r="134" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="10"/>
-      <c r="C134" s="9">
+      <c r="H133" s="10"/>
+      <c r="O133" s="9"/>
+    </row>
+    <row r="134" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="22"/>
+      <c r="C134" s="8">
         <v>12</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="9">
         <v>22384260</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="9">
         <f t="shared" si="6"/>
         <v>575652869.99874616</v>
       </c>
-      <c r="F134" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G134" s="11">
+      <c r="F134" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G134" s="9">
         <f t="shared" si="5"/>
         <v>586014621.65872359</v>
       </c>
-      <c r="H134" s="12"/>
-      <c r="I134" s="11">
+      <c r="H134" s="10"/>
+      <c r="I134" s="9">
         <f xml:space="preserve"> (E123 + SUM(D124:D134)) - SUM(H124:H134)</f>
         <v>497020155.61900407</v>
       </c>
-      <c r="J134" s="11">
+      <c r="J134" s="9">
         <f xml:space="preserve"> E134 - I134</f>
         <v>78632714.379742086</v>
       </c>
-      <c r="K134" s="9">
+      <c r="K134" s="8">
         <v>0.84</v>
       </c>
-      <c r="L134" s="11">
+      <c r="L134" s="9">
         <f xml:space="preserve"> J134 * K134</f>
         <v>66051480.078983352</v>
       </c>
-      <c r="M134" s="11">
+      <c r="M134" s="9">
         <f xml:space="preserve"> J134 - L134</f>
         <v>12581234.300758734</v>
       </c>
-      <c r="N134" s="9">
+      <c r="N134" s="8">
         <f xml:space="preserve"> J134 / I134 * 100</f>
         <v>15.820830099296579</v>
       </c>
-      <c r="O134" s="11"/>
-    </row>
-    <row r="135" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="17">
+      <c r="O134" s="9"/>
+    </row>
+    <row r="135" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="15">
         <v>12</v>
       </c>
-      <c r="B135" s="18">
+      <c r="B135" s="21">
         <v>2033</v>
       </c>
-      <c r="C135" s="17">
+      <c r="C135" s="15">
         <v>1</v>
       </c>
-      <c r="D135" s="19">
+      <c r="D135" s="16">
         <v>23167275</v>
       </c>
-      <c r="E135" s="19">
+      <c r="E135" s="16">
         <f xml:space="preserve"> (G134 / 2) + D135 - H135</f>
         <v>286174585.8293618</v>
       </c>
-      <c r="F135" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G135" s="19">
+      <c r="F135" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G135" s="16">
         <f t="shared" si="5"/>
         <v>291325728.37429029</v>
       </c>
-      <c r="H135" s="20">
+      <c r="H135" s="17">
         <v>30000000</v>
       </c>
-      <c r="J135" s="21">
+      <c r="J135" s="18">
         <f xml:space="preserve"> ((G134 - H135) / 2 / 12)</f>
         <v>23167275.902446818</v>
       </c>
-      <c r="M135" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O135" s="19"/>
-    </row>
-    <row r="136" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="18"/>
-      <c r="C136" s="17">
+      <c r="L135" s="9">
+        <f xml:space="preserve"> (G134 - H135) / 2</f>
+        <v>278007310.8293618</v>
+      </c>
+      <c r="M135" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O135" s="16"/>
+    </row>
+    <row r="136" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="21"/>
+      <c r="C136" s="15">
         <v>2</v>
       </c>
-      <c r="D136" s="19">
+      <c r="D136" s="16">
         <v>23167275</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="16">
         <f t="shared" si="6"/>
         <v>314493003.37429029</v>
       </c>
-      <c r="F136" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G136" s="19">
+      <c r="F136" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G136" s="16">
         <f t="shared" si="5"/>
         <v>320153877.43502754</v>
       </c>
-      <c r="H136" s="20"/>
-      <c r="O136" s="19"/>
-    </row>
-    <row r="137" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="18"/>
-      <c r="C137" s="17">
+      <c r="H136" s="17"/>
+      <c r="O136" s="16"/>
+    </row>
+    <row r="137" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="21"/>
+      <c r="C137" s="15">
         <v>3</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D137" s="16">
         <v>23167275</v>
       </c>
-      <c r="E137" s="19">
+      <c r="E137" s="16">
         <f t="shared" si="6"/>
         <v>343321152.43502754</v>
       </c>
-      <c r="F137" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G137" s="19">
+      <c r="F137" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G137" s="16">
         <f t="shared" si="5"/>
         <v>349500933.17885804</v>
       </c>
-      <c r="H137" s="20"/>
-      <c r="O137" s="19"/>
-    </row>
-    <row r="138" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="18"/>
-      <c r="C138" s="17">
+      <c r="H137" s="17"/>
+      <c r="O137" s="16"/>
+    </row>
+    <row r="138" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="21"/>
+      <c r="C138" s="15">
         <v>4</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="16">
         <v>23167275</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="16">
         <f t="shared" si="6"/>
         <v>372668208.17885804</v>
       </c>
-      <c r="F138" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G138" s="19">
+      <c r="F138" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G138" s="16">
         <f t="shared" si="5"/>
         <v>379376235.92607749</v>
       </c>
-      <c r="H138" s="20"/>
-      <c r="O138" s="19"/>
-    </row>
-    <row r="139" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="18"/>
-      <c r="C139" s="17">
+      <c r="H138" s="17"/>
+      <c r="O138" s="16"/>
+    </row>
+    <row r="139" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="21"/>
+      <c r="C139" s="15">
         <v>5</v>
       </c>
-      <c r="D139" s="19">
+      <c r="D139" s="16">
         <v>23167275</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E139" s="16">
         <f t="shared" si="6"/>
         <v>389962276.62531877</v>
       </c>
-      <c r="F139" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G139" s="19">
+      <c r="F139" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G139" s="16">
         <f t="shared" si="5"/>
         <v>396981597.6045745</v>
       </c>
-      <c r="H139" s="20">
+      <c r="H139" s="17">
         <f xml:space="preserve"> M134</f>
         <v>12581234.300758734</v>
       </c>
-      <c r="O139" s="19"/>
-    </row>
-    <row r="140" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="18"/>
-      <c r="C140" s="17">
+      <c r="O139" s="16"/>
+    </row>
+    <row r="140" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="21"/>
+      <c r="C140" s="15">
         <v>6</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="16">
         <v>23167275</v>
       </c>
-      <c r="E140" s="19">
+      <c r="E140" s="16">
         <f t="shared" si="6"/>
         <v>420148872.6045745</v>
       </c>
-      <c r="F140" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G140" s="19">
+      <c r="F140" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G140" s="16">
         <f t="shared" si="5"/>
         <v>427711552.31145686</v>
       </c>
-      <c r="H140" s="20"/>
-      <c r="O140" s="19"/>
-    </row>
-    <row r="141" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="18"/>
-      <c r="C141" s="17">
+      <c r="H140" s="17"/>
+      <c r="O140" s="16"/>
+    </row>
+    <row r="141" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="21"/>
+      <c r="C141" s="15">
         <v>7</v>
       </c>
-      <c r="D141" s="19">
+      <c r="D141" s="16">
         <v>23167275</v>
       </c>
-      <c r="E141" s="19">
+      <c r="E141" s="16">
         <f t="shared" si="6"/>
         <v>450878827.31145686</v>
       </c>
-      <c r="F141" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G141" s="19">
+      <c r="F141" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G141" s="16">
         <f t="shared" si="5"/>
         <v>458994646.20306307</v>
       </c>
-      <c r="H141" s="20"/>
-      <c r="O141" s="19"/>
-    </row>
-    <row r="142" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="18"/>
-      <c r="C142" s="17">
+      <c r="H141" s="17"/>
+      <c r="O141" s="16"/>
+    </row>
+    <row r="142" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="21"/>
+      <c r="C142" s="15">
         <v>8</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="16">
         <v>23167275</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="16">
         <f t="shared" si="6"/>
         <v>482161921.20306307</v>
       </c>
-      <c r="F142" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G142" s="19">
+      <c r="F142" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G142" s="16">
         <f t="shared" si="5"/>
         <v>490840835.78471822</v>
       </c>
-      <c r="H142" s="20"/>
-      <c r="O142" s="19"/>
-    </row>
-    <row r="143" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="18"/>
-      <c r="C143" s="17">
+      <c r="H142" s="17"/>
+      <c r="O142" s="16"/>
+    </row>
+    <row r="143" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="21"/>
+      <c r="C143" s="15">
         <v>9</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D143" s="16">
         <v>23167275</v>
       </c>
-      <c r="E143" s="19">
+      <c r="E143" s="16">
         <f t="shared" si="6"/>
         <v>514008110.78471822</v>
       </c>
-      <c r="F143" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G143" s="19">
+      <c r="F143" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G143" s="16">
         <f t="shared" si="5"/>
         <v>523260256.77884316</v>
       </c>
-      <c r="H143" s="20"/>
-      <c r="O143" s="19"/>
-    </row>
-    <row r="144" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="18"/>
-      <c r="C144" s="17">
+      <c r="H143" s="17"/>
+      <c r="O143" s="16"/>
+    </row>
+    <row r="144" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="21"/>
+      <c r="C144" s="15">
         <v>10</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="16">
         <v>23167275</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="16">
         <f t="shared" si="6"/>
         <v>546427531.77884316</v>
       </c>
-      <c r="F144" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G144" s="19">
+      <c r="F144" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G144" s="16">
         <f t="shared" si="5"/>
         <v>556263227.35086238</v>
       </c>
-      <c r="H144" s="20"/>
-      <c r="O144" s="19"/>
-    </row>
-    <row r="145" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="18"/>
-      <c r="C145" s="17">
+      <c r="H144" s="17"/>
+      <c r="O144" s="16"/>
+    </row>
+    <row r="145" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="21"/>
+      <c r="C145" s="15">
         <v>11</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D145" s="16">
         <v>23167275</v>
       </c>
-      <c r="E145" s="19">
+      <c r="E145" s="16">
         <f t="shared" si="6"/>
         <v>579430502.35086238</v>
       </c>
-      <c r="F145" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G145" s="19">
+      <c r="F145" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G145" s="16">
         <f t="shared" si="5"/>
         <v>589860251.39317787</v>
       </c>
-      <c r="H145" s="20"/>
-      <c r="O145" s="19"/>
-    </row>
-    <row r="146" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="18"/>
-      <c r="C146" s="17">
+      <c r="H145" s="17"/>
+      <c r="O145" s="16"/>
+    </row>
+    <row r="146" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="21"/>
+      <c r="C146" s="15">
         <v>12</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="16">
         <v>23167275</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E146" s="16">
         <f t="shared" si="6"/>
         <v>613027526.39317787</v>
       </c>
-      <c r="F146" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G146" s="19">
+      <c r="F146" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G146" s="16">
         <f t="shared" si="5"/>
         <v>624062021.86825502</v>
       </c>
-      <c r="H146" s="20"/>
-      <c r="I146" s="19">
+      <c r="H146" s="17"/>
+      <c r="I146" s="16">
         <f xml:space="preserve"> (E135 + SUM(D136:D146)) - SUM(H136:H146)</f>
         <v>528433376.52860308</v>
       </c>
-      <c r="J146" s="19">
+      <c r="J146" s="16">
         <f xml:space="preserve"> E146 - I146</f>
         <v>84594149.86457479</v>
       </c>
-      <c r="K146" s="17">
+      <c r="K146" s="15">
         <v>0.84</v>
       </c>
-      <c r="L146" s="19">
+      <c r="L146" s="16">
         <f xml:space="preserve"> J146 * K146</f>
         <v>71059085.886242822</v>
       </c>
-      <c r="M146" s="19">
+      <c r="M146" s="16">
         <f xml:space="preserve"> J146 - L146</f>
         <v>13535063.978331968</v>
       </c>
-      <c r="N146" s="17">
+      <c r="N146" s="15">
         <f xml:space="preserve"> J146 / I146 * 100</f>
         <v>16.00847971040222</v>
       </c>
-      <c r="O146" s="19"/>
-    </row>
-    <row r="147" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="17">
+      <c r="O146" s="16"/>
+    </row>
+    <row r="147" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="15">
         <v>13</v>
       </c>
-      <c r="B147" s="18">
+      <c r="B147" s="21">
         <v>2034</v>
       </c>
-      <c r="C147" s="17">
+      <c r="C147" s="15">
         <v>1</v>
       </c>
-      <c r="D147" s="19">
+      <c r="D147" s="16">
         <v>24752584</v>
       </c>
-      <c r="E147" s="19">
+      <c r="E147" s="16">
         <f xml:space="preserve"> (G146 / 2) + D147 - H147</f>
         <v>306783594.93412751</v>
       </c>
-      <c r="F147" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G147" s="19">
+      <c r="F147" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G147" s="16">
         <f t="shared" si="5"/>
         <v>312305699.64294183</v>
       </c>
-      <c r="H147" s="20">
+      <c r="H147" s="17">
         <v>30000000</v>
       </c>
-      <c r="J147" s="21">
+      <c r="J147" s="18">
         <f xml:space="preserve"> ((G146 - H147) / 2 / 12)</f>
         <v>24752584.244510625</v>
       </c>
-      <c r="O147" s="19"/>
-    </row>
-    <row r="148" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="18"/>
-      <c r="C148" s="17">
+      <c r="L147" s="9">
+        <f xml:space="preserve"> (G146 - H147) / 2</f>
+        <v>297031010.93412751</v>
+      </c>
+      <c r="O147" s="16"/>
+    </row>
+    <row r="148" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="21"/>
+      <c r="C148" s="15">
         <v>2</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="16">
         <v>24752584</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="16">
         <f t="shared" si="6"/>
         <v>337058283.64294183</v>
       </c>
-      <c r="F148" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G148" s="19">
+      <c r="F148" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G148" s="16">
         <f t="shared" si="5"/>
         <v>343125332.74851477</v>
       </c>
-      <c r="H148" s="20"/>
-      <c r="O148" s="19"/>
-    </row>
-    <row r="149" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="18"/>
-      <c r="C149" s="17">
+      <c r="H148" s="17"/>
+      <c r="O148" s="16"/>
+    </row>
+    <row r="149" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="21"/>
+      <c r="C149" s="15">
         <v>3</v>
       </c>
-      <c r="D149" s="19">
+      <c r="D149" s="16">
         <v>24752584</v>
       </c>
-      <c r="E149" s="19">
+      <c r="E149" s="16">
         <f t="shared" si="6"/>
         <v>367877916.74851477</v>
       </c>
-      <c r="F149" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G149" s="19">
+      <c r="F149" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G149" s="16">
         <f t="shared" si="5"/>
         <v>374499719.24998802</v>
       </c>
-      <c r="H149" s="20"/>
-      <c r="O149" s="19"/>
-    </row>
-    <row r="150" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="18"/>
-      <c r="C150" s="17">
+      <c r="H149" s="17"/>
+      <c r="O149" s="16"/>
+    </row>
+    <row r="150" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="21"/>
+      <c r="C150" s="15">
         <v>4</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="16">
         <v>24752584</v>
       </c>
-      <c r="E150" s="19">
+      <c r="E150" s="16">
         <f t="shared" si="6"/>
         <v>399252303.24998802</v>
       </c>
-      <c r="F150" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G150" s="19">
+      <c r="F150" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G150" s="16">
         <f t="shared" si="5"/>
         <v>406438844.70848781</v>
       </c>
-      <c r="H150" s="20"/>
-      <c r="O150" s="19"/>
-    </row>
-    <row r="151" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="18"/>
-      <c r="C151" s="17">
+      <c r="H150" s="17"/>
+      <c r="O150" s="16"/>
+    </row>
+    <row r="151" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="21"/>
+      <c r="C151" s="15">
         <v>5</v>
       </c>
-      <c r="D151" s="19">
+      <c r="D151" s="16">
         <v>24752584</v>
       </c>
-      <c r="E151" s="19">
+      <c r="E151" s="16">
         <f t="shared" si="6"/>
         <v>417656364.73015583</v>
       </c>
-      <c r="F151" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G151" s="19">
+      <c r="F151" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G151" s="16">
         <f t="shared" si="5"/>
         <v>425174179.29529864</v>
       </c>
-      <c r="H151" s="20">
+      <c r="H151" s="17">
         <f xml:space="preserve"> M146</f>
         <v>13535063.978331968</v>
       </c>
-      <c r="O151" s="19"/>
-    </row>
-    <row r="152" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="18"/>
-      <c r="C152" s="17">
+      <c r="O151" s="16"/>
+    </row>
+    <row r="152" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="21"/>
+      <c r="C152" s="15">
         <v>6</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="16">
         <v>24752584</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152" s="16">
         <f t="shared" si="6"/>
         <v>449926763.29529864</v>
       </c>
-      <c r="F152" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G152" s="19">
+      <c r="F152" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G152" s="16">
         <f t="shared" si="5"/>
         <v>458025445.03461403</v>
       </c>
-      <c r="H152" s="20"/>
-      <c r="O152" s="19"/>
-    </row>
-    <row r="153" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="18"/>
-      <c r="C153" s="17">
+      <c r="H152" s="17"/>
+      <c r="O152" s="16"/>
+    </row>
+    <row r="153" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="21"/>
+      <c r="C153" s="15">
         <v>7</v>
       </c>
-      <c r="D153" s="19">
+      <c r="D153" s="16">
         <v>24752584</v>
       </c>
-      <c r="E153" s="19">
+      <c r="E153" s="16">
         <f t="shared" si="6"/>
         <v>482778029.03461403</v>
       </c>
-      <c r="F153" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G153" s="19">
+      <c r="F153" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G153" s="16">
         <f t="shared" si="5"/>
         <v>491468033.55723709</v>
       </c>
-      <c r="H153" s="20"/>
-      <c r="O153" s="19"/>
-    </row>
-    <row r="154" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="18"/>
-      <c r="C154" s="17">
+      <c r="H153" s="17"/>
+      <c r="O153" s="16"/>
+    </row>
+    <row r="154" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="21"/>
+      <c r="C154" s="15">
         <v>8</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D154" s="16">
         <v>24752584</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="16">
         <f t="shared" si="6"/>
         <v>516220617.55723709</v>
       </c>
-      <c r="F154" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G154" s="19">
+      <c r="F154" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G154" s="16">
         <f t="shared" si="5"/>
         <v>525512588.67326736</v>
       </c>
-      <c r="H154" s="20"/>
-      <c r="O154" s="19"/>
-    </row>
-    <row r="155" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="18"/>
-      <c r="C155" s="17">
+      <c r="H154" s="17"/>
+      <c r="O154" s="16"/>
+    </row>
+    <row r="155" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="21"/>
+      <c r="C155" s="15">
         <v>9</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D155" s="16">
         <v>24752584</v>
       </c>
-      <c r="E155" s="19">
+      <c r="E155" s="16">
         <f t="shared" si="6"/>
         <v>550265172.67326736</v>
       </c>
-      <c r="F155" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G155" s="19">
+      <c r="F155" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G155" s="16">
         <f t="shared" si="5"/>
         <v>560169945.78138614</v>
       </c>
-      <c r="H155" s="20"/>
-      <c r="O155" s="19"/>
-    </row>
-    <row r="156" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="18"/>
-      <c r="C156" s="17">
+      <c r="H155" s="17"/>
+      <c r="O155" s="16"/>
+    </row>
+    <row r="156" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="21"/>
+      <c r="C156" s="15">
         <v>10</v>
       </c>
-      <c r="D156" s="19">
+      <c r="D156" s="16">
         <v>24752584</v>
       </c>
-      <c r="E156" s="19">
+      <c r="E156" s="16">
         <f t="shared" si="6"/>
         <v>584922529.78138614</v>
       </c>
-      <c r="F156" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G156" s="19">
+      <c r="F156" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G156" s="16">
         <f t="shared" si="5"/>
         <v>595451135.31745112</v>
       </c>
-      <c r="H156" s="20"/>
-      <c r="O156" s="19"/>
-    </row>
-    <row r="157" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="18"/>
-      <c r="C157" s="17">
+      <c r="H156" s="17"/>
+      <c r="O156" s="16"/>
+    </row>
+    <row r="157" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="21"/>
+      <c r="C157" s="15">
         <v>11</v>
       </c>
-      <c r="D157" s="19">
+      <c r="D157" s="16">
         <v>24752584</v>
       </c>
-      <c r="E157" s="19">
+      <c r="E157" s="16">
         <f t="shared" si="6"/>
         <v>620203719.31745112</v>
       </c>
-      <c r="F157" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G157" s="19">
+      <c r="F157" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G157" s="16">
         <f t="shared" si="5"/>
         <v>631367386.26516521</v>
       </c>
-      <c r="H157" s="20"/>
-      <c r="O157" s="19"/>
-    </row>
-    <row r="158" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="18"/>
-      <c r="C158" s="17">
+      <c r="H157" s="17"/>
+      <c r="O157" s="16"/>
+    </row>
+    <row r="158" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="21"/>
+      <c r="C158" s="15">
         <v>12</v>
       </c>
-      <c r="D158" s="19">
+      <c r="D158" s="16">
         <v>24752584</v>
       </c>
-      <c r="E158" s="19">
+      <c r="E158" s="16">
         <f t="shared" si="6"/>
         <v>656119970.26516521</v>
       </c>
-      <c r="F158" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G158" s="19">
+      <c r="F158" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G158" s="16">
         <f t="shared" ref="G158:G221" si="7" xml:space="preserve"> (E158 * F158) + E158</f>
         <v>667930129.72993815</v>
       </c>
-      <c r="H158" s="20"/>
-      <c r="I158" s="19">
+      <c r="H158" s="17"/>
+      <c r="I158" s="16">
         <f xml:space="preserve"> (E147 + SUM(D148:D158)) - SUM(H148:H158)</f>
         <v>565526954.95579565</v>
       </c>
-      <c r="J158" s="19">
+      <c r="J158" s="16">
         <f xml:space="preserve"> E158 - I158</f>
         <v>90593015.309369564</v>
       </c>
-      <c r="K158" s="17">
+      <c r="K158" s="15">
         <v>0.84</v>
       </c>
-      <c r="L158" s="19">
+      <c r="L158" s="16">
         <f xml:space="preserve"> J158 * K158</f>
         <v>76098132.859870434</v>
       </c>
-      <c r="M158" s="19">
+      <c r="M158" s="16">
         <f xml:space="preserve"> J158 - L158</f>
         <v>14494882.44949913</v>
       </c>
-      <c r="N158" s="17">
+      <c r="N158" s="15">
         <f xml:space="preserve"> J158 / I158 * 100</f>
         <v>16.019221456287749</v>
       </c>
-      <c r="O158" s="19"/>
-    </row>
-    <row r="159" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="17">
+      <c r="O158" s="16"/>
+    </row>
+    <row r="159" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="15">
         <v>14</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B159" s="21">
         <v>2035</v>
       </c>
-      <c r="C159" s="17">
+      <c r="C159" s="15">
         <v>1</v>
       </c>
-      <c r="D159" s="19">
+      <c r="D159" s="16">
         <v>27830422</v>
       </c>
-      <c r="E159" s="19">
+      <c r="E159" s="16">
         <f xml:space="preserve"> (G158 / 2) + D159 - H159</f>
         <v>331795486.86496907</v>
       </c>
-      <c r="F159" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G159" s="19">
+      <c r="F159" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G159" s="16">
         <f t="shared" si="7"/>
         <v>337767805.62853849</v>
       </c>
-      <c r="H159" s="20">
+      <c r="H159" s="17">
         <v>30000000</v>
       </c>
-      <c r="J159" s="21">
+      <c r="J159" s="18">
         <f xml:space="preserve"> ((G158 - H159) / 2 / 12)</f>
         <v>26580422.072080757</v>
       </c>
-      <c r="O159" s="19"/>
-    </row>
-    <row r="160" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="18"/>
-      <c r="C160" s="17">
+      <c r="L159" s="9">
+        <f xml:space="preserve"> (G158 - H159) / 2</f>
+        <v>318965064.86496907</v>
+      </c>
+      <c r="O159" s="16"/>
+    </row>
+    <row r="160" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="21"/>
+      <c r="C160" s="15">
         <v>2</v>
       </c>
-      <c r="D160" s="19">
+      <c r="D160" s="16">
         <v>27830422</v>
       </c>
-      <c r="E160" s="19">
+      <c r="E160" s="16">
         <f t="shared" si="6"/>
         <v>365598227.62853849</v>
       </c>
-      <c r="F160" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G160" s="19">
+      <c r="F160" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G160" s="16">
         <f t="shared" si="7"/>
         <v>372178995.72585219</v>
       </c>
-      <c r="H160" s="20"/>
-      <c r="O160" s="19"/>
-    </row>
-    <row r="161" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="18"/>
-      <c r="C161" s="17">
+      <c r="H160" s="17"/>
+      <c r="O160" s="16"/>
+    </row>
+    <row r="161" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="21"/>
+      <c r="C161" s="15">
         <v>3</v>
       </c>
-      <c r="D161" s="19">
+      <c r="D161" s="16">
         <v>27830422</v>
       </c>
-      <c r="E161" s="19">
+      <c r="E161" s="16">
         <f t="shared" si="6"/>
         <v>400009417.72585219</v>
       </c>
-      <c r="F161" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G161" s="19">
+      <c r="F161" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G161" s="16">
         <f t="shared" si="7"/>
         <v>407209587.24491751</v>
       </c>
-      <c r="H161" s="20"/>
-      <c r="O161" s="19"/>
-    </row>
-    <row r="162" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="18"/>
-      <c r="C162" s="17">
+      <c r="H161" s="17"/>
+      <c r="O161" s="16"/>
+    </row>
+    <row r="162" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="21"/>
+      <c r="C162" s="15">
         <v>4</v>
       </c>
-      <c r="D162" s="19">
+      <c r="D162" s="16">
         <v>27830422</v>
       </c>
-      <c r="E162" s="19">
+      <c r="E162" s="16">
         <f t="shared" si="6"/>
         <v>435040009.24491751</v>
       </c>
-      <c r="F162" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G162" s="19">
+      <c r="F162" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G162" s="16">
         <f t="shared" si="7"/>
         <v>442870729.41132605</v>
       </c>
-      <c r="H162" s="20"/>
-      <c r="O162" s="19"/>
-    </row>
-    <row r="163" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="18"/>
-      <c r="C163" s="17">
+      <c r="H162" s="17"/>
+      <c r="O162" s="16"/>
+    </row>
+    <row r="163" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="21"/>
+      <c r="C163" s="15">
         <v>5</v>
       </c>
-      <c r="D163" s="19">
+      <c r="D163" s="16">
         <v>27830422</v>
       </c>
-      <c r="E163" s="19">
+      <c r="E163" s="16">
         <f t="shared" si="6"/>
         <v>456206268.96182692</v>
       </c>
-      <c r="F163" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G163" s="19">
+      <c r="F163" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G163" s="16">
         <f t="shared" si="7"/>
         <v>464417981.80313981</v>
       </c>
-      <c r="H163" s="20">
+      <c r="H163" s="17">
         <f xml:space="preserve"> M158</f>
         <v>14494882.44949913</v>
       </c>
-      <c r="O163" s="19"/>
-    </row>
-    <row r="164" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="18"/>
-      <c r="C164" s="17">
+      <c r="O163" s="16"/>
+    </row>
+    <row r="164" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="21"/>
+      <c r="C164" s="15">
         <v>6</v>
       </c>
-      <c r="D164" s="19">
+      <c r="D164" s="16">
         <v>27830422</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="16">
         <f t="shared" si="6"/>
         <v>492248403.80313981</v>
       </c>
-      <c r="F164" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G164" s="19">
+      <c r="F164" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G164" s="16">
         <f t="shared" si="7"/>
         <v>501108875.07159632</v>
       </c>
-      <c r="H164" s="20"/>
-      <c r="O164" s="19"/>
-    </row>
-    <row r="165" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="18"/>
-      <c r="C165" s="17">
+      <c r="H164" s="17"/>
+      <c r="O164" s="16"/>
+    </row>
+    <row r="165" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="21"/>
+      <c r="C165" s="15">
         <v>7</v>
       </c>
-      <c r="D165" s="19">
+      <c r="D165" s="16">
         <v>27830422</v>
       </c>
-      <c r="E165" s="19">
+      <c r="E165" s="16">
         <f t="shared" si="6"/>
         <v>528939297.07159632</v>
       </c>
-      <c r="F165" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G165" s="19">
+      <c r="F165" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G165" s="16">
         <f t="shared" si="7"/>
         <v>538460204.41888511</v>
       </c>
-      <c r="H165" s="20"/>
-      <c r="O165" s="19"/>
-    </row>
-    <row r="166" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="18"/>
-      <c r="C166" s="17">
+      <c r="H165" s="17"/>
+      <c r="O165" s="16"/>
+    </row>
+    <row r="166" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="21"/>
+      <c r="C166" s="15">
         <v>8</v>
       </c>
-      <c r="D166" s="19">
+      <c r="D166" s="16">
         <v>27830422</v>
       </c>
-      <c r="E166" s="19">
+      <c r="E166" s="16">
         <f t="shared" si="6"/>
         <v>566290626.41888511</v>
       </c>
-      <c r="F166" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G166" s="19">
+      <c r="F166" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G166" s="16">
         <f t="shared" si="7"/>
         <v>576483857.69442499</v>
       </c>
-      <c r="H166" s="20"/>
-      <c r="O166" s="19"/>
-    </row>
-    <row r="167" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="18"/>
-      <c r="C167" s="17">
+      <c r="H166" s="17"/>
+      <c r="O166" s="16"/>
+    </row>
+    <row r="167" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="21"/>
+      <c r="C167" s="15">
         <v>9</v>
       </c>
-      <c r="D167" s="19">
+      <c r="D167" s="16">
         <v>27830422</v>
       </c>
-      <c r="E167" s="19">
+      <c r="E167" s="16">
         <f t="shared" si="6"/>
         <v>604314279.69442499</v>
       </c>
-      <c r="F167" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G167" s="19">
+      <c r="F167" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G167" s="16">
         <f t="shared" si="7"/>
         <v>615191936.72892463</v>
       </c>
-      <c r="H167" s="20"/>
-      <c r="O167" s="19"/>
-    </row>
-    <row r="168" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="18"/>
-      <c r="C168" s="17">
+      <c r="H167" s="17"/>
+      <c r="O167" s="16"/>
+    </row>
+    <row r="168" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="21"/>
+      <c r="C168" s="15">
         <v>10</v>
       </c>
-      <c r="D168" s="19">
+      <c r="D168" s="16">
         <v>27830422</v>
       </c>
-      <c r="E168" s="19">
+      <c r="E168" s="16">
         <f t="shared" si="6"/>
         <v>643022358.72892463</v>
       </c>
-      <c r="F168" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G168" s="19">
+      <c r="F168" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G168" s="16">
         <f t="shared" si="7"/>
         <v>654596761.18604529</v>
       </c>
-      <c r="H168" s="20"/>
-      <c r="O168" s="19"/>
-    </row>
-    <row r="169" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="18"/>
-      <c r="C169" s="17">
+      <c r="H168" s="17"/>
+      <c r="O168" s="16"/>
+    </row>
+    <row r="169" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="21"/>
+      <c r="C169" s="15">
         <v>11</v>
       </c>
-      <c r="D169" s="19">
+      <c r="D169" s="16">
         <v>27830422</v>
       </c>
-      <c r="E169" s="19">
+      <c r="E169" s="16">
         <f t="shared" si="6"/>
         <v>682427183.18604529</v>
       </c>
-      <c r="F169" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G169" s="19">
+      <c r="F169" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G169" s="16">
         <f t="shared" si="7"/>
         <v>694710872.48339415</v>
       </c>
-      <c r="H169" s="20"/>
-      <c r="O169" s="19"/>
-    </row>
-    <row r="170" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="18"/>
-      <c r="C170" s="17">
+      <c r="H169" s="17"/>
+      <c r="O169" s="16"/>
+    </row>
+    <row r="170" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="21"/>
+      <c r="C170" s="15">
         <v>12</v>
       </c>
-      <c r="D170" s="19">
+      <c r="D170" s="16">
         <v>27830422</v>
       </c>
-      <c r="E170" s="19">
+      <c r="E170" s="16">
         <f t="shared" si="6"/>
         <v>722541294.48339415</v>
       </c>
-      <c r="F170" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G170" s="19">
+      <c r="F170" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G170" s="16">
         <f t="shared" si="7"/>
         <v>735547037.78409529</v>
       </c>
-      <c r="H170" s="20"/>
-      <c r="I170" s="19">
+      <c r="H170" s="17"/>
+      <c r="I170" s="16">
         <f xml:space="preserve"> (E159 + SUM(D160:D170)) - SUM(H160:H170)</f>
         <v>623435246.41546988</v>
       </c>
-      <c r="J170" s="19">
+      <c r="J170" s="16">
         <f xml:space="preserve"> E170 - I170</f>
         <v>99106048.067924261</v>
       </c>
-      <c r="K170" s="17">
+      <c r="K170" s="15">
         <v>0.84</v>
       </c>
-      <c r="L170" s="19">
+      <c r="L170" s="16">
         <f xml:space="preserve"> J170 * K170</f>
         <v>83249080.377056375</v>
       </c>
-      <c r="M170" s="19">
+      <c r="M170" s="16">
         <f xml:space="preserve"> J170 - L170</f>
         <v>15856967.690867886</v>
       </c>
-      <c r="N170" s="17">
+      <c r="N170" s="15">
         <f xml:space="preserve"> J170 / I170 * 100</f>
         <v>15.896766927720025</v>
       </c>
-      <c r="O170" s="19"/>
-    </row>
-    <row r="171" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="17">
+      <c r="O170" s="16"/>
+    </row>
+    <row r="171" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="15">
         <v>15</v>
       </c>
-      <c r="B171" s="18">
+      <c r="B171" s="21">
         <v>2036</v>
       </c>
-      <c r="C171" s="17">
+      <c r="C171" s="15">
         <v>1</v>
       </c>
-      <c r="D171" s="19">
+      <c r="D171" s="16">
         <v>29397793</v>
       </c>
-      <c r="E171" s="19">
+      <c r="E171" s="16">
         <f xml:space="preserve"> (G170 / 2) + D171 - H171</f>
         <v>367171311.89204764</v>
       </c>
-      <c r="F171" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G171" s="19">
+      <c r="F171" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G171" s="16">
         <f t="shared" si="7"/>
         <v>373780395.50610453</v>
       </c>
-      <c r="H171" s="20">
+      <c r="H171" s="17">
         <v>30000000</v>
       </c>
-      <c r="J171" s="21">
+      <c r="J171" s="18">
         <f xml:space="preserve"> ((G170 - H171) / 2 / 12)</f>
         <v>29397793.241003972</v>
       </c>
-      <c r="O171" s="19"/>
-    </row>
-    <row r="172" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="18"/>
-      <c r="C172" s="17">
+      <c r="L171" s="9">
+        <f xml:space="preserve"> (G170 - H171) / 2</f>
+        <v>352773518.89204764</v>
+      </c>
+      <c r="O171" s="16"/>
+    </row>
+    <row r="172" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="21"/>
+      <c r="C172" s="15">
         <v>2</v>
       </c>
-      <c r="D172" s="19">
+      <c r="D172" s="16">
         <v>29397793</v>
       </c>
-      <c r="E172" s="19">
+      <c r="E172" s="16">
         <f t="shared" si="6"/>
         <v>403178188.50610453</v>
       </c>
-      <c r="F172" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G172" s="19">
+      <c r="F172" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G172" s="16">
         <f t="shared" si="7"/>
         <v>410435395.89921439</v>
       </c>
-      <c r="H172" s="20"/>
-      <c r="O172" s="19"/>
-    </row>
-    <row r="173" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="18"/>
-      <c r="C173" s="17">
+      <c r="H172" s="17"/>
+      <c r="O172" s="16"/>
+    </row>
+    <row r="173" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="21"/>
+      <c r="C173" s="15">
         <v>3</v>
       </c>
-      <c r="D173" s="19">
+      <c r="D173" s="16">
         <v>29397793</v>
       </c>
-      <c r="E173" s="19">
+      <c r="E173" s="16">
         <f t="shared" si="6"/>
         <v>439833188.89921439</v>
       </c>
-      <c r="F173" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G173" s="19">
+      <c r="F173" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G173" s="16">
         <f t="shared" si="7"/>
         <v>447750186.29940027</v>
       </c>
-      <c r="H173" s="20"/>
-      <c r="O173" s="19"/>
-    </row>
-    <row r="174" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="18"/>
-      <c r="C174" s="17">
+      <c r="H173" s="17"/>
+      <c r="O173" s="16"/>
+    </row>
+    <row r="174" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="21"/>
+      <c r="C174" s="15">
         <v>4</v>
       </c>
-      <c r="D174" s="19">
+      <c r="D174" s="16">
         <v>29397793</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E174" s="16">
         <f t="shared" si="6"/>
         <v>477147979.29940027</v>
       </c>
-      <c r="F174" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G174" s="19">
+      <c r="F174" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G174" s="16">
         <f t="shared" si="7"/>
         <v>485736642.92678946</v>
       </c>
-      <c r="H174" s="20"/>
-      <c r="O174" s="19"/>
-    </row>
-    <row r="175" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="18"/>
-      <c r="C175" s="17">
+      <c r="H174" s="17"/>
+      <c r="O174" s="16"/>
+    </row>
+    <row r="175" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="21"/>
+      <c r="C175" s="15">
         <v>5</v>
       </c>
-      <c r="D175" s="19">
+      <c r="D175" s="16">
         <v>29397793</v>
       </c>
-      <c r="E175" s="19">
+      <c r="E175" s="16">
         <f t="shared" si="6"/>
         <v>499277468.23592156</v>
       </c>
-      <c r="F175" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G175" s="19">
+      <c r="F175" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G175" s="16">
         <f t="shared" si="7"/>
         <v>508264462.66416812</v>
       </c>
-      <c r="H175" s="20">
+      <c r="H175" s="17">
         <f xml:space="preserve"> M170</f>
         <v>15856967.690867886</v>
       </c>
-      <c r="O175" s="19"/>
-    </row>
-    <row r="176" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="18"/>
-      <c r="C176" s="17">
+      <c r="O175" s="16"/>
+    </row>
+    <row r="176" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="21"/>
+      <c r="C176" s="15">
         <v>6</v>
       </c>
-      <c r="D176" s="19">
+      <c r="D176" s="16">
         <v>29397793</v>
       </c>
-      <c r="E176" s="19">
+      <c r="E176" s="16">
         <f t="shared" si="6"/>
         <v>537662255.66416812</v>
       </c>
-      <c r="F176" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G176" s="19">
+      <c r="F176" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G176" s="16">
         <f t="shared" si="7"/>
         <v>547340176.26612318</v>
       </c>
-      <c r="H176" s="20"/>
-      <c r="O176" s="19"/>
-    </row>
-    <row r="177" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="18"/>
-      <c r="C177" s="17">
+      <c r="H176" s="17"/>
+      <c r="O176" s="16"/>
+    </row>
+    <row r="177" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="21"/>
+      <c r="C177" s="15">
         <v>7</v>
       </c>
-      <c r="D177" s="19">
+      <c r="D177" s="16">
         <v>29397793</v>
       </c>
-      <c r="E177" s="19">
+      <c r="E177" s="16">
         <f t="shared" si="6"/>
         <v>576737969.26612318</v>
       </c>
-      <c r="F177" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G177" s="19">
+      <c r="F177" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G177" s="16">
         <f t="shared" si="7"/>
         <v>587119252.71291339</v>
       </c>
-      <c r="H177" s="20"/>
-      <c r="O177" s="19"/>
-    </row>
-    <row r="178" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="18"/>
-      <c r="C178" s="17">
+      <c r="H177" s="17"/>
+      <c r="O177" s="16"/>
+    </row>
+    <row r="178" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="21"/>
+      <c r="C178" s="15">
         <v>8</v>
       </c>
-      <c r="D178" s="19">
+      <c r="D178" s="16">
         <v>29397793</v>
       </c>
-      <c r="E178" s="19">
+      <c r="E178" s="16">
         <f t="shared" si="6"/>
         <v>616517045.71291339</v>
       </c>
-      <c r="F178" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G178" s="19">
+      <c r="F178" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G178" s="16">
         <f t="shared" si="7"/>
         <v>627614352.53574586</v>
       </c>
-      <c r="H178" s="20"/>
-      <c r="O178" s="19"/>
-    </row>
-    <row r="179" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="18"/>
-      <c r="C179" s="17">
+      <c r="H178" s="17"/>
+      <c r="O178" s="16"/>
+    </row>
+    <row r="179" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="21"/>
+      <c r="C179" s="15">
         <v>9</v>
       </c>
-      <c r="D179" s="19">
+      <c r="D179" s="16">
         <v>29397793</v>
       </c>
-      <c r="E179" s="19">
+      <c r="E179" s="16">
         <f t="shared" si="6"/>
         <v>657012145.53574586</v>
       </c>
-      <c r="F179" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G179" s="19">
+      <c r="F179" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G179" s="16">
         <f t="shared" si="7"/>
         <v>668838364.15538931</v>
       </c>
-      <c r="H179" s="20"/>
-      <c r="O179" s="19"/>
-    </row>
-    <row r="180" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="18"/>
-      <c r="C180" s="17">
+      <c r="H179" s="17"/>
+      <c r="O179" s="16"/>
+    </row>
+    <row r="180" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="21"/>
+      <c r="C180" s="15">
         <v>10</v>
       </c>
-      <c r="D180" s="19">
+      <c r="D180" s="16">
         <v>29397793</v>
       </c>
-      <c r="E180" s="19">
+      <c r="E180" s="16">
         <f t="shared" si="6"/>
         <v>698236157.15538931</v>
       </c>
-      <c r="F180" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G180" s="19">
+      <c r="F180" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G180" s="16">
         <f t="shared" si="7"/>
         <v>710804407.98418629</v>
       </c>
-      <c r="H180" s="20"/>
-      <c r="O180" s="19"/>
-    </row>
-    <row r="181" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="18"/>
-      <c r="C181" s="17">
+      <c r="H180" s="17"/>
+      <c r="O180" s="16"/>
+    </row>
+    <row r="181" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="21"/>
+      <c r="C181" s="15">
         <v>11</v>
       </c>
-      <c r="D181" s="19">
+      <c r="D181" s="16">
         <v>29397793</v>
       </c>
-      <c r="E181" s="19">
+      <c r="E181" s="16">
         <f t="shared" si="6"/>
         <v>740202200.98418629</v>
       </c>
-      <c r="F181" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G181" s="19">
+      <c r="F181" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G181" s="16">
         <f t="shared" si="7"/>
         <v>753525840.60190165</v>
       </c>
-      <c r="H181" s="20"/>
-      <c r="O181" s="19"/>
-    </row>
-    <row r="182" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="18"/>
-      <c r="C182" s="17">
+      <c r="H181" s="17"/>
+      <c r="O181" s="16"/>
+    </row>
+    <row r="182" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="21"/>
+      <c r="C182" s="15">
         <v>12</v>
       </c>
-      <c r="D182" s="19">
+      <c r="D182" s="16">
         <v>29397793</v>
       </c>
-      <c r="E182" s="19">
+      <c r="E182" s="16">
         <f t="shared" si="6"/>
         <v>782923633.60190165</v>
       </c>
-      <c r="F182" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G182" s="19">
+      <c r="F182" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G182" s="16">
         <f t="shared" si="7"/>
         <v>797016259.00673592</v>
       </c>
-      <c r="H182" s="20"/>
-      <c r="I182" s="19">
+      <c r="H182" s="17"/>
+      <c r="I182" s="16">
         <f xml:space="preserve"> (E171 + SUM(D172:D182)) - SUM(H172:H182)</f>
         <v>674690067.20117974</v>
       </c>
-      <c r="J182" s="19">
+      <c r="J182" s="16">
         <f xml:space="preserve"> E182 - I182</f>
         <v>108233566.40072191</v>
       </c>
-      <c r="K182" s="17">
+      <c r="K182" s="15">
         <v>0.84</v>
       </c>
-      <c r="L182" s="19">
+      <c r="L182" s="16">
         <f xml:space="preserve"> J182 * K182</f>
         <v>90916195.776606396</v>
       </c>
-      <c r="M182" s="19">
+      <c r="M182" s="16">
         <f xml:space="preserve"> J182 - L182</f>
         <v>17317370.624115512</v>
       </c>
-      <c r="N182" s="17">
+      <c r="N182" s="15">
         <f xml:space="preserve"> J182 / I182 * 100</f>
         <v>16.041968255099377</v>
       </c>
-      <c r="O182" s="19"/>
-    </row>
-    <row r="183" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="17">
+      <c r="O182" s="16"/>
+    </row>
+    <row r="183" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="15">
         <v>16</v>
       </c>
-      <c r="B183" s="18">
+      <c r="B183" s="21">
         <v>2037</v>
       </c>
-      <c r="C183" s="17">
+      <c r="C183" s="15">
         <v>1</v>
       </c>
-      <c r="D183" s="19">
+      <c r="D183" s="16">
         <v>31959010</v>
       </c>
-      <c r="E183" s="19">
+      <c r="E183" s="16">
         <f xml:space="preserve"> (G182 / 2) + D183 - H183</f>
         <v>400467139.50336796</v>
       </c>
-      <c r="F183" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G183" s="19">
+      <c r="F183" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G183" s="16">
         <f t="shared" si="7"/>
         <v>407675548.01442856</v>
       </c>
-      <c r="H183" s="20">
+      <c r="H183" s="17">
         <v>30000000</v>
       </c>
-      <c r="J183" s="21">
+      <c r="J183" s="18">
         <f xml:space="preserve"> ((G182 - H183) / 2 / 12)</f>
         <v>31959010.791947331</v>
       </c>
-      <c r="O183" s="19"/>
-    </row>
-    <row r="184" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="18"/>
-      <c r="C184" s="17">
+      <c r="L183" s="9">
+        <f xml:space="preserve"> (G182 - H183) / 2</f>
+        <v>383508129.50336796</v>
+      </c>
+      <c r="O183" s="16"/>
+    </row>
+    <row r="184" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="21"/>
+      <c r="C184" s="15">
         <v>2</v>
       </c>
-      <c r="D184" s="19">
+      <c r="D184" s="16">
         <v>31959010</v>
       </c>
-      <c r="E184" s="19">
+      <c r="E184" s="16">
         <f t="shared" si="6"/>
         <v>439634558.01442856</v>
       </c>
-      <c r="F184" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G184" s="19">
+      <c r="F184" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G184" s="16">
         <f t="shared" si="7"/>
         <v>447547980.05868828</v>
       </c>
-      <c r="H184" s="20"/>
-      <c r="O184" s="19"/>
-    </row>
-    <row r="185" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="18"/>
-      <c r="C185" s="17">
+      <c r="H184" s="17"/>
+      <c r="O184" s="16"/>
+    </row>
+    <row r="185" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="21"/>
+      <c r="C185" s="15">
         <v>3</v>
       </c>
-      <c r="D185" s="19">
+      <c r="D185" s="16">
         <v>31959010</v>
       </c>
-      <c r="E185" s="19">
+      <c r="E185" s="16">
         <f t="shared" si="6"/>
         <v>479506990.05868828</v>
       </c>
-      <c r="F185" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G185" s="19">
+      <c r="F185" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G185" s="16">
         <f t="shared" si="7"/>
         <v>488138115.87974465</v>
       </c>
-      <c r="H185" s="20"/>
-      <c r="O185" s="19"/>
-    </row>
-    <row r="186" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="18"/>
-      <c r="C186" s="17">
+      <c r="H185" s="17"/>
+      <c r="O185" s="16"/>
+    </row>
+    <row r="186" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="21"/>
+      <c r="C186" s="15">
         <v>4</v>
       </c>
-      <c r="D186" s="19">
+      <c r="D186" s="16">
         <v>31959010</v>
       </c>
-      <c r="E186" s="19">
+      <c r="E186" s="16">
         <f t="shared" si="6"/>
         <v>520097125.87974465</v>
       </c>
-      <c r="F186" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G186" s="19">
+      <c r="F186" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G186" s="16">
         <f t="shared" si="7"/>
         <v>529458874.14558005</v>
       </c>
-      <c r="H186" s="20"/>
-      <c r="O186" s="19"/>
-    </row>
-    <row r="187" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="18"/>
-      <c r="C187" s="17">
+      <c r="H186" s="17"/>
+      <c r="O186" s="16"/>
+    </row>
+    <row r="187" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="21"/>
+      <c r="C187" s="15">
         <v>5</v>
       </c>
-      <c r="D187" s="19">
+      <c r="D187" s="16">
         <v>31959010</v>
       </c>
-      <c r="E187" s="19">
+      <c r="E187" s="16">
         <f t="shared" si="6"/>
         <v>544100513.52146459</v>
       </c>
-      <c r="F187" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G187" s="19">
+      <c r="F187" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G187" s="16">
         <f t="shared" si="7"/>
         <v>553894322.76485097</v>
       </c>
-      <c r="H187" s="20">
+      <c r="H187" s="17">
         <f xml:space="preserve"> M182</f>
         <v>17317370.624115512</v>
       </c>
-      <c r="O187" s="19"/>
-    </row>
-    <row r="188" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="18"/>
-      <c r="C188" s="17">
+      <c r="O187" s="16"/>
+    </row>
+    <row r="188" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="21"/>
+      <c r="C188" s="15">
         <v>6</v>
       </c>
-      <c r="D188" s="19">
+      <c r="D188" s="16">
         <v>31959010</v>
       </c>
-      <c r="E188" s="19">
+      <c r="E188" s="16">
         <f t="shared" si="6"/>
         <v>585853332.76485097</v>
       </c>
-      <c r="F188" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G188" s="19">
+      <c r="F188" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G188" s="16">
         <f t="shared" si="7"/>
         <v>596398692.75461829</v>
       </c>
-      <c r="H188" s="20"/>
-      <c r="O188" s="19"/>
-    </row>
-    <row r="189" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="18"/>
-      <c r="C189" s="17">
+      <c r="H188" s="17"/>
+      <c r="O188" s="16"/>
+    </row>
+    <row r="189" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="21"/>
+      <c r="C189" s="15">
         <v>7</v>
       </c>
-      <c r="D189" s="19">
+      <c r="D189" s="16">
         <v>31959010</v>
       </c>
-      <c r="E189" s="19">
+      <c r="E189" s="16">
         <f t="shared" si="6"/>
         <v>628357702.75461829</v>
       </c>
-      <c r="F189" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G189" s="19">
+      <c r="F189" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G189" s="16">
         <f t="shared" si="7"/>
         <v>639668141.40420139</v>
       </c>
-      <c r="H189" s="20"/>
-      <c r="O189" s="19"/>
-    </row>
-    <row r="190" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="18"/>
-      <c r="C190" s="17">
+      <c r="H189" s="17"/>
+      <c r="O189" s="16"/>
+    </row>
+    <row r="190" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="21"/>
+      <c r="C190" s="15">
         <v>8</v>
       </c>
-      <c r="D190" s="19">
+      <c r="D190" s="16">
         <v>31959010</v>
       </c>
-      <c r="E190" s="19">
+      <c r="E190" s="16">
         <f t="shared" si="6"/>
         <v>671627151.40420139</v>
       </c>
-      <c r="F190" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G190" s="19">
+      <c r="F190" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G190" s="16">
         <f t="shared" si="7"/>
         <v>683716440.12947702</v>
       </c>
-      <c r="H190" s="20"/>
-      <c r="O190" s="19"/>
-    </row>
-    <row r="191" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="18"/>
-      <c r="C191" s="17">
+      <c r="H190" s="17"/>
+      <c r="O190" s="16"/>
+    </row>
+    <row r="191" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="21"/>
+      <c r="C191" s="15">
         <v>9</v>
       </c>
-      <c r="D191" s="19">
+      <c r="D191" s="16">
         <v>31959010</v>
       </c>
-      <c r="E191" s="19">
+      <c r="E191" s="16">
         <f t="shared" si="6"/>
         <v>715675450.12947702</v>
       </c>
-      <c r="F191" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G191" s="19">
+      <c r="F191" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G191" s="16">
         <f t="shared" si="7"/>
         <v>728557608.23180759</v>
       </c>
-      <c r="H191" s="20"/>
-      <c r="O191" s="19"/>
-    </row>
-    <row r="192" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="18"/>
-      <c r="C192" s="17">
+      <c r="H191" s="17"/>
+      <c r="O191" s="16"/>
+    </row>
+    <row r="192" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="21"/>
+      <c r="C192" s="15">
         <v>10</v>
       </c>
-      <c r="D192" s="19">
+      <c r="D192" s="16">
         <v>31959010</v>
       </c>
-      <c r="E192" s="19">
+      <c r="E192" s="16">
         <f t="shared" si="6"/>
         <v>760516618.23180759</v>
       </c>
-      <c r="F192" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G192" s="19">
+      <c r="F192" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G192" s="16">
         <f t="shared" si="7"/>
         <v>774205917.35998011</v>
       </c>
-      <c r="H192" s="20"/>
-      <c r="O192" s="19"/>
-    </row>
-    <row r="193" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="18"/>
-      <c r="C193" s="17">
+      <c r="H192" s="17"/>
+      <c r="O192" s="16"/>
+    </row>
+    <row r="193" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="21"/>
+      <c r="C193" s="15">
         <v>11</v>
       </c>
-      <c r="D193" s="19">
+      <c r="D193" s="16">
         <v>31959010</v>
       </c>
-      <c r="E193" s="19">
+      <c r="E193" s="16">
         <f t="shared" si="6"/>
         <v>806164927.35998011</v>
       </c>
-      <c r="F193" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G193" s="19">
+      <c r="F193" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G193" s="16">
         <f t="shared" si="7"/>
         <v>820675896.05245972</v>
       </c>
-      <c r="H193" s="20"/>
-      <c r="O193" s="19"/>
-    </row>
-    <row r="194" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="18"/>
-      <c r="C194" s="17">
+      <c r="H193" s="17"/>
+      <c r="O193" s="16"/>
+    </row>
+    <row r="194" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="21"/>
+      <c r="C194" s="15">
         <v>12</v>
       </c>
-      <c r="D194" s="19">
+      <c r="D194" s="16">
         <v>31959010</v>
       </c>
-      <c r="E194" s="19">
+      <c r="E194" s="16">
         <f t="shared" si="6"/>
         <v>852634906.05245972</v>
       </c>
-      <c r="F194" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G194" s="19">
+      <c r="F194" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G194" s="16">
         <f t="shared" si="7"/>
         <v>867982334.36140394</v>
       </c>
-      <c r="H194" s="20"/>
-      <c r="I194" s="19">
+      <c r="H194" s="17"/>
+      <c r="I194" s="16">
         <f xml:space="preserve"> (E183 + SUM(D184:D194)) - SUM(H184:H194)</f>
         <v>734698878.87925243</v>
       </c>
-      <c r="J194" s="19">
+      <c r="J194" s="16">
         <f xml:space="preserve"> E194 - I194</f>
         <v>117936027.17320728</v>
       </c>
-      <c r="K194" s="17">
+      <c r="K194" s="15">
         <v>0.84</v>
       </c>
-      <c r="L194" s="19">
+      <c r="L194" s="16">
         <f xml:space="preserve"> J194 * K194</f>
         <v>99066262.825494111</v>
       </c>
-      <c r="M194" s="19">
+      <c r="M194" s="16">
         <f xml:space="preserve"> J194 - L194</f>
         <v>18869764.347713172</v>
       </c>
-      <c r="N194" s="17">
+      <c r="N194" s="15">
         <f xml:space="preserve"> J194 / I194 * 100</f>
         <v>16.05229442477345</v>
       </c>
-      <c r="O194" s="19"/>
+      <c r="O194" s="16"/>
     </row>
     <row r="195" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="20">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
         <v>1</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="4">
         <v>30749263</v>
       </c>
-      <c r="E195" s="5">
+      <c r="E195" s="4">
         <f xml:space="preserve"> (G194 / 2) + D195 - H195</f>
         <v>334740430.18070197</v>
       </c>
       <c r="F195" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G195" s="5">
+      <c r="G195" s="4">
         <f t="shared" si="7"/>
         <v>340765757.92395461</v>
       </c>
-      <c r="H195" s="6">
+      <c r="H195" s="5">
         <v>130000000</v>
       </c>
-      <c r="J195" s="7">
+      <c r="J195" s="6">
         <f xml:space="preserve"> ((G194 - H195) / 2 / 12)</f>
         <v>30749263.931725163</v>
       </c>
-      <c r="M195" s="8" t="s">
+      <c r="L195" s="9">
+        <f xml:space="preserve"> (G194 - H195) / 2</f>
+        <v>368991167.18070197</v>
+      </c>
+      <c r="M195" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O195" s="5"/>
+      <c r="O195" s="4"/>
     </row>
     <row r="196" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="4"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="4">
         <v>30749263</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196" s="4">
         <f t="shared" si="6"/>
         <v>371515020.92395461</v>
       </c>
       <c r="F196" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G196" s="5">
+      <c r="G196" s="4">
         <f t="shared" si="7"/>
         <v>378202291.30058581</v>
       </c>
-      <c r="H196" s="6"/>
-      <c r="O196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="O196" s="4"/>
     </row>
     <row r="197" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="4"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="4">
         <v>30749263</v>
       </c>
-      <c r="E197" s="5">
-        <f t="shared" ref="E197:E260" si="8" xml:space="preserve"> G196 + D197 - H197</f>
+      <c r="E197" s="4">
+        <f t="shared" ref="E197:E242" si="8" xml:space="preserve"> G196 + D197 - H197</f>
         <v>408951554.30058581</v>
       </c>
       <c r="F197" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G197" s="5">
+      <c r="G197" s="4">
         <f t="shared" si="7"/>
         <v>416312682.27799636</v>
       </c>
-      <c r="H197" s="6"/>
-      <c r="O197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="O197" s="4"/>
     </row>
     <row r="198" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="4"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="4">
         <v>30749263</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198" s="4">
         <f t="shared" si="8"/>
         <v>447061945.27799636</v>
       </c>
       <c r="F198" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G198" s="5">
+      <c r="G198" s="4">
         <f t="shared" si="7"/>
         <v>455109060.29300028</v>
       </c>
-      <c r="H198" s="6"/>
-      <c r="O198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="O198" s="4"/>
     </row>
     <row r="199" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="4"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="4">
         <v>30749263</v>
       </c>
-      <c r="E199" s="5">
+      <c r="E199" s="4">
         <f t="shared" si="8"/>
         <v>466988558.94528711</v>
       </c>
       <c r="F199" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G199" s="5">
+      <c r="G199" s="4">
         <f t="shared" si="7"/>
         <v>475394353.0063023</v>
       </c>
-      <c r="H199" s="6">
+      <c r="H199" s="5">
         <f xml:space="preserve"> M194</f>
         <v>18869764.347713172</v>
       </c>
-      <c r="O199" s="5"/>
+      <c r="O199" s="4"/>
     </row>
     <row r="200" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="4"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="4">
         <v>30749263</v>
       </c>
-      <c r="E200" s="5">
+      <c r="E200" s="4">
         <f t="shared" si="8"/>
         <v>506143616.0063023</v>
       </c>
       <c r="F200" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G200" s="5">
+      <c r="G200" s="4">
         <f t="shared" si="7"/>
         <v>515254201.09441572</v>
       </c>
-      <c r="H200" s="6"/>
-      <c r="O200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="O200" s="4"/>
     </row>
     <row r="201" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="4"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="4">
         <v>30749263</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201" s="4">
         <f t="shared" si="8"/>
         <v>546003464.09441566</v>
       </c>
       <c r="F201" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G201" s="5">
+      <c r="G201" s="4">
         <f t="shared" si="7"/>
         <v>555831526.44811511</v>
       </c>
-      <c r="H201" s="6"/>
-      <c r="O201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="O201" s="4"/>
     </row>
     <row r="202" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="4"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="4">
         <v>30749263</v>
       </c>
-      <c r="E202" s="5">
+      <c r="E202" s="4">
         <f t="shared" si="8"/>
         <v>586580789.44811511</v>
       </c>
       <c r="F202" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G202" s="5">
+      <c r="G202" s="4">
         <f t="shared" si="7"/>
         <v>597139243.65818119</v>
       </c>
-      <c r="H202" s="6"/>
-      <c r="O202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="O202" s="4"/>
     </row>
     <row r="203" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="4"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="4">
         <v>30749263</v>
       </c>
-      <c r="E203" s="5">
+      <c r="E203" s="4">
         <f t="shared" si="8"/>
         <v>627888506.65818119</v>
       </c>
       <c r="F203" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G203" s="5">
+      <c r="G203" s="4">
         <f t="shared" si="7"/>
         <v>639190499.77802849</v>
       </c>
-      <c r="H203" s="6"/>
-      <c r="O203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="O203" s="4"/>
     </row>
     <row r="204" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="4"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="4">
         <v>30749263</v>
       </c>
-      <c r="E204" s="5">
+      <c r="E204" s="4">
         <f t="shared" si="8"/>
         <v>669939762.77802849</v>
       </c>
       <c r="F204" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G204" s="5">
+      <c r="G204" s="4">
         <f t="shared" si="7"/>
         <v>681998678.50803304</v>
       </c>
-      <c r="H204" s="6"/>
-      <c r="O204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="O204" s="4"/>
     </row>
     <row r="205" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="4"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="4">
         <v>30749263</v>
       </c>
-      <c r="E205" s="5">
+      <c r="E205" s="4">
         <f t="shared" si="8"/>
         <v>712747941.50803304</v>
       </c>
       <c r="F205" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G205" s="5">
+      <c r="G205" s="4">
         <f t="shared" si="7"/>
         <v>725577404.45517766</v>
       </c>
-      <c r="H205" s="6"/>
-      <c r="O205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="O205" s="4"/>
     </row>
     <row r="206" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="4"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="4">
         <v>30749263</v>
       </c>
-      <c r="E206" s="5">
+      <c r="E206" s="4">
         <f t="shared" si="8"/>
         <v>756326667.45517766</v>
       </c>
       <c r="F206" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G206" s="5">
+      <c r="G206" s="4">
         <f t="shared" si="7"/>
         <v>769940547.46937084</v>
       </c>
-      <c r="H206" s="6"/>
-      <c r="I206" s="5">
+      <c r="H206" s="5"/>
+      <c r="I206" s="4">
         <f xml:space="preserve"> (E195 + SUM(D196:D206)) - SUM(H196:H206)</f>
         <v>654112558.83298874</v>
       </c>
-      <c r="J206" s="5">
+      <c r="J206" s="4">
         <f xml:space="preserve"> E206 - I206</f>
         <v>102214108.62218893</v>
       </c>
       <c r="K206" s="3">
         <v>0.84</v>
       </c>
-      <c r="L206" s="5">
+      <c r="L206" s="4">
         <f xml:space="preserve"> J206 * K206</f>
         <v>85859851.242638692</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="4">
         <f xml:space="preserve"> J206 - L206</f>
         <v>16354257.379550233</v>
       </c>
@@ -5812,300 +5876,304 @@
         <f xml:space="preserve"> J206 / I206 * 100</f>
         <v>15.626379166996966</v>
       </c>
-      <c r="O206" s="5"/>
+      <c r="O206" s="4"/>
     </row>
     <row r="207" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="20">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
         <v>1</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="4">
         <v>30830856</v>
       </c>
-      <c r="E207" s="5">
+      <c r="E207" s="4">
         <f xml:space="preserve"> (G206 / 2) + D207 - H207</f>
         <v>385801129.73468542</v>
       </c>
       <c r="F207" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G207" s="5">
+      <c r="G207" s="4">
         <f t="shared" si="7"/>
         <v>392745550.06990975</v>
       </c>
-      <c r="H207" s="6">
+      <c r="H207" s="5">
         <v>30000000</v>
       </c>
-      <c r="J207" s="7">
+      <c r="J207" s="6">
         <f xml:space="preserve"> ((G206 - H207) / 2 / 12)</f>
         <v>30830856.144557118</v>
       </c>
-      <c r="O207" s="5"/>
+      <c r="L207" s="9">
+        <f xml:space="preserve"> (G206 - H207) / 2</f>
+        <v>369970273.73468542</v>
+      </c>
+      <c r="O207" s="4"/>
     </row>
     <row r="208" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="4"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="4">
         <v>30830856</v>
       </c>
-      <c r="E208" s="5">
+      <c r="E208" s="4">
         <f t="shared" si="8"/>
         <v>423576406.06990975</v>
       </c>
       <c r="F208" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G208" s="5">
+      <c r="G208" s="4">
         <f t="shared" si="7"/>
         <v>431200781.37916815</v>
       </c>
-      <c r="H208" s="6"/>
-      <c r="O208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="O208" s="4"/>
     </row>
     <row r="209" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="4"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D209" s="4">
         <v>30830856</v>
       </c>
-      <c r="E209" s="5">
+      <c r="E209" s="4">
         <f t="shared" si="8"/>
         <v>462031637.37916815</v>
       </c>
       <c r="F209" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G209" s="5">
+      <c r="G209" s="4">
         <f t="shared" si="7"/>
         <v>470348206.8519932</v>
       </c>
-      <c r="H209" s="6"/>
-      <c r="O209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="O209" s="4"/>
     </row>
     <row r="210" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="4"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="4">
         <v>30830856</v>
       </c>
-      <c r="E210" s="5">
+      <c r="E210" s="4">
         <f t="shared" si="8"/>
         <v>501179062.8519932</v>
       </c>
       <c r="F210" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G210" s="5">
+      <c r="G210" s="4">
         <f t="shared" si="7"/>
         <v>510200285.98332906</v>
       </c>
-      <c r="H210" s="6"/>
-      <c r="O210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="O210" s="4"/>
     </row>
     <row r="211" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="4"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="4">
         <v>30830856</v>
       </c>
-      <c r="E211" s="5">
+      <c r="E211" s="4">
         <f t="shared" si="8"/>
         <v>524676884.60377884</v>
       </c>
       <c r="F211" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G211" s="5">
+      <c r="G211" s="4">
         <f t="shared" si="7"/>
         <v>534121068.52664685</v>
       </c>
-      <c r="H211" s="6">
+      <c r="H211" s="5">
         <f xml:space="preserve"> M206</f>
         <v>16354257.379550233</v>
       </c>
-      <c r="O211" s="5"/>
+      <c r="O211" s="4"/>
     </row>
     <row r="212" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="4"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="4">
         <v>30830856</v>
       </c>
-      <c r="E212" s="5">
+      <c r="E212" s="4">
         <f t="shared" si="8"/>
         <v>564951924.52664685</v>
       </c>
       <c r="F212" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G212" s="5">
+      <c r="G212" s="4">
         <f t="shared" si="7"/>
         <v>575121059.16812646</v>
       </c>
-      <c r="H212" s="6"/>
-      <c r="O212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="O212" s="4"/>
     </row>
     <row r="213" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="4"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D213" s="4">
         <v>30830856</v>
       </c>
-      <c r="E213" s="5">
+      <c r="E213" s="4">
         <f t="shared" si="8"/>
         <v>605951915.16812646</v>
       </c>
       <c r="F213" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G213" s="5">
+      <c r="G213" s="4">
         <f t="shared" si="7"/>
         <v>616859049.64115274</v>
       </c>
-      <c r="H213" s="6"/>
-      <c r="O213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="O213" s="4"/>
     </row>
     <row r="214" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="4"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214" s="4">
         <v>30830856</v>
       </c>
-      <c r="E214" s="5">
+      <c r="E214" s="4">
         <f t="shared" si="8"/>
         <v>647689905.64115274</v>
       </c>
       <c r="F214" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G214" s="5">
+      <c r="G214" s="4">
         <f t="shared" si="7"/>
         <v>659348323.94269347</v>
       </c>
-      <c r="H214" s="6"/>
-      <c r="O214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="O214" s="4"/>
     </row>
     <row r="215" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="4"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D215" s="4">
         <v>30830856</v>
       </c>
-      <c r="E215" s="5">
+      <c r="E215" s="4">
         <f t="shared" si="8"/>
         <v>690179179.94269347</v>
       </c>
       <c r="F215" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G215" s="5">
+      <c r="G215" s="4">
         <f t="shared" si="7"/>
         <v>702602405.18166196</v>
       </c>
-      <c r="H215" s="6"/>
-      <c r="O215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="O215" s="4"/>
     </row>
     <row r="216" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="4"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
-      <c r="D216" s="5">
+      <c r="D216" s="4">
         <v>30830856</v>
       </c>
-      <c r="E216" s="5">
+      <c r="E216" s="4">
         <f t="shared" si="8"/>
         <v>733433261.18166196</v>
       </c>
       <c r="F216" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G216" s="5">
+      <c r="G216" s="4">
         <f t="shared" si="7"/>
         <v>746635059.88293183</v>
       </c>
-      <c r="H216" s="6"/>
-      <c r="O216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="O216" s="4"/>
     </row>
     <row r="217" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="4"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
-      <c r="D217" s="5">
+      <c r="D217" s="4">
         <v>30830856</v>
       </c>
-      <c r="E217" s="5">
+      <c r="E217" s="4">
         <f t="shared" si="8"/>
         <v>777465915.88293183</v>
       </c>
       <c r="F217" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G217" s="5">
+      <c r="G217" s="4">
         <f t="shared" si="7"/>
         <v>791460302.3688246</v>
       </c>
-      <c r="H217" s="6"/>
-      <c r="O217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="O217" s="4"/>
     </row>
     <row r="218" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="4"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
-      <c r="D218" s="5">
+      <c r="D218" s="4">
         <v>30830856</v>
       </c>
-      <c r="E218" s="5">
+      <c r="E218" s="4">
         <f t="shared" si="8"/>
         <v>822291158.3688246</v>
       </c>
       <c r="F218" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G218" s="5">
+      <c r="G218" s="4">
         <f t="shared" si="7"/>
         <v>837092399.21946347</v>
       </c>
-      <c r="H218" s="6"/>
-      <c r="I218" s="5">
+      <c r="H218" s="5"/>
+      <c r="I218" s="4">
         <f xml:space="preserve"> (E207 + SUM(D208:D218)) - SUM(H208:H218)</f>
         <v>708586288.3551352</v>
       </c>
-      <c r="J218" s="5">
+      <c r="J218" s="4">
         <f xml:space="preserve"> E218 - I218</f>
         <v>113704870.0136894</v>
       </c>
       <c r="K218" s="3">
         <v>0.84</v>
       </c>
-      <c r="L218" s="5">
+      <c r="L218" s="4">
         <f xml:space="preserve"> J218 * K218</f>
         <v>95512090.811499089</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="4">
         <f xml:space="preserve"> J218 - L218</f>
         <v>18192779.20219031</v>
       </c>
@@ -6113,300 +6181,304 @@
         <f xml:space="preserve"> J218 / I218 * 100</f>
         <v>16.046721744734331</v>
       </c>
-      <c r="O218" s="5"/>
+      <c r="O218" s="4"/>
     </row>
     <row r="219" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="20">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
         <v>1</v>
       </c>
-      <c r="D219" s="5">
+      <c r="D219" s="4">
         <v>33628849</v>
       </c>
-      <c r="E219" s="5">
+      <c r="E219" s="4">
         <f xml:space="preserve"> (G218 / 2) + D219 - H219</f>
         <v>422175048.60973173</v>
       </c>
       <c r="F219" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G219" s="5">
+      <c r="G219" s="4">
         <f t="shared" si="7"/>
         <v>429774199.48470688</v>
       </c>
-      <c r="H219" s="6">
+      <c r="H219" s="5">
         <v>30000000</v>
       </c>
-      <c r="J219" s="7">
+      <c r="J219" s="6">
         <f xml:space="preserve"> ((G218 - H219) / 2 / 12)</f>
         <v>33628849.967477642</v>
       </c>
-      <c r="O219" s="5"/>
+      <c r="L219" s="9">
+        <f xml:space="preserve"> (G218 - H219) / 2</f>
+        <v>403546199.60973173</v>
+      </c>
+      <c r="O219" s="4"/>
     </row>
     <row r="220" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="4"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D220" s="4">
         <v>33628849</v>
       </c>
-      <c r="E220" s="5">
+      <c r="E220" s="4">
         <f t="shared" si="8"/>
         <v>463403048.48470688</v>
       </c>
       <c r="F220" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G220" s="5">
+      <c r="G220" s="4">
         <f t="shared" si="7"/>
         <v>471744303.35743159</v>
       </c>
-      <c r="H220" s="6"/>
-      <c r="O220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="O220" s="4"/>
     </row>
     <row r="221" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="4"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
-      <c r="D221" s="5">
+      <c r="D221" s="4">
         <v>33628849</v>
       </c>
-      <c r="E221" s="5">
+      <c r="E221" s="4">
         <f t="shared" si="8"/>
         <v>505373152.35743159</v>
       </c>
       <c r="F221" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G221" s="5">
+      <c r="G221" s="4">
         <f t="shared" si="7"/>
         <v>514469869.09986538</v>
       </c>
-      <c r="H221" s="6"/>
-      <c r="O221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="O221" s="4"/>
     </row>
     <row r="222" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="4"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
-      <c r="D222" s="5">
+      <c r="D222" s="4">
         <v>33628849</v>
       </c>
-      <c r="E222" s="5">
+      <c r="E222" s="4">
         <f t="shared" si="8"/>
         <v>548098718.09986544</v>
       </c>
       <c r="F222" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G222" s="5">
-        <f t="shared" ref="G222:G265" si="9" xml:space="preserve"> (E222 * F222) + E222</f>
+      <c r="G222" s="4">
+        <f t="shared" ref="G222:G242" si="9" xml:space="preserve"> (E222 * F222) + E222</f>
         <v>557964495.02566302</v>
       </c>
-      <c r="H222" s="6"/>
-      <c r="O222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="O222" s="4"/>
     </row>
     <row r="223" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="4"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
-      <c r="D223" s="5">
+      <c r="D223" s="4">
         <v>33628849</v>
       </c>
-      <c r="E223" s="5">
+      <c r="E223" s="4">
         <f t="shared" si="8"/>
         <v>573400564.82347274</v>
       </c>
       <c r="F223" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G223" s="5">
+      <c r="G223" s="4">
         <f t="shared" si="9"/>
         <v>583721774.99029529</v>
       </c>
-      <c r="H223" s="6">
+      <c r="H223" s="5">
         <f xml:space="preserve"> M218</f>
         <v>18192779.20219031</v>
       </c>
-      <c r="O223" s="5"/>
+      <c r="O223" s="4"/>
     </row>
     <row r="224" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="4"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
-      <c r="D224" s="5">
+      <c r="D224" s="4">
         <v>33628849</v>
       </c>
-      <c r="E224" s="5">
+      <c r="E224" s="4">
         <f t="shared" si="8"/>
         <v>617350623.99029529</v>
       </c>
       <c r="F224" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G224" s="5">
+      <c r="G224" s="4">
         <f t="shared" si="9"/>
         <v>628462935.22212064</v>
       </c>
-      <c r="H224" s="6"/>
-      <c r="O224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="O224" s="4"/>
     </row>
     <row r="225" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="4"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
-      <c r="D225" s="5">
+      <c r="D225" s="4">
         <v>33628849</v>
       </c>
-      <c r="E225" s="5">
+      <c r="E225" s="4">
         <f t="shared" si="8"/>
         <v>662091784.22212064</v>
       </c>
       <c r="F225" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G225" s="5">
+      <c r="G225" s="4">
         <f t="shared" si="9"/>
         <v>674009436.33811879</v>
       </c>
-      <c r="H225" s="6"/>
-      <c r="O225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="O225" s="4"/>
     </row>
     <row r="226" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="4"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226" s="4">
         <v>33628849</v>
       </c>
-      <c r="E226" s="5">
+      <c r="E226" s="4">
         <f t="shared" si="8"/>
         <v>707638285.33811879</v>
       </c>
       <c r="F226" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G226" s="5">
+      <c r="G226" s="4">
         <f t="shared" si="9"/>
         <v>720375774.4742049</v>
       </c>
-      <c r="H226" s="6"/>
-      <c r="O226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="O226" s="4"/>
     </row>
     <row r="227" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="4"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
-      <c r="D227" s="5">
+      <c r="D227" s="4">
         <v>33628849</v>
       </c>
-      <c r="E227" s="5">
+      <c r="E227" s="4">
         <f t="shared" si="8"/>
         <v>754004623.4742049</v>
       </c>
       <c r="F227" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G227" s="5">
+      <c r="G227" s="4">
         <f t="shared" si="9"/>
         <v>767576706.69674063</v>
       </c>
-      <c r="H227" s="6"/>
-      <c r="O227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="O227" s="4"/>
     </row>
     <row r="228" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="4"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
-      <c r="D228" s="5">
+      <c r="D228" s="4">
         <v>33628849</v>
       </c>
-      <c r="E228" s="5">
+      <c r="E228" s="4">
         <f t="shared" si="8"/>
         <v>801205555.69674063</v>
       </c>
       <c r="F228" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G228" s="5">
+      <c r="G228" s="4">
         <f t="shared" si="9"/>
         <v>815627255.69928193</v>
       </c>
-      <c r="H228" s="6"/>
-      <c r="O228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="O228" s="4"/>
     </row>
     <row r="229" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="4"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
-      <c r="D229" s="5">
+      <c r="D229" s="4">
         <v>33628849</v>
       </c>
-      <c r="E229" s="5">
+      <c r="E229" s="4">
         <f t="shared" si="8"/>
         <v>849256104.69928193</v>
       </c>
       <c r="F229" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G229" s="5">
+      <c r="G229" s="4">
         <f t="shared" si="9"/>
         <v>864542714.58386898</v>
       </c>
-      <c r="H229" s="6"/>
-      <c r="O229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="O229" s="4"/>
     </row>
     <row r="230" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="4"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="4">
         <v>33628849</v>
       </c>
-      <c r="E230" s="5">
+      <c r="E230" s="4">
         <f t="shared" si="8"/>
         <v>898171563.58386898</v>
       </c>
       <c r="F230" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G230" s="5">
+      <c r="G230" s="4">
         <f t="shared" si="9"/>
         <v>914338651.72837865</v>
       </c>
-      <c r="H230" s="6"/>
-      <c r="I230" s="5">
+      <c r="H230" s="5"/>
+      <c r="I230" s="4">
         <f xml:space="preserve"> (E219 + SUM(D220:D230)) - SUM(H220:H230)</f>
         <v>773899608.40754139</v>
       </c>
-      <c r="J230" s="5">
+      <c r="J230" s="4">
         <f xml:space="preserve"> E230 - I230</f>
         <v>124271955.17632759</v>
       </c>
       <c r="K230" s="3">
         <v>0.84</v>
       </c>
-      <c r="L230" s="5">
+      <c r="L230" s="4">
         <f xml:space="preserve"> J230 * K230</f>
         <v>104388442.34811518</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="4">
         <f xml:space="preserve"> J230 - L230</f>
         <v>19883512.82821241</v>
       </c>
@@ -6414,300 +6486,304 @@
         <f xml:space="preserve"> J230 / I230 * 100</f>
         <v>16.057890949453103</v>
       </c>
-      <c r="O230" s="5"/>
+      <c r="O230" s="4"/>
     </row>
     <row r="231" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="20">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
         <v>1</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="4">
         <v>36847443</v>
       </c>
-      <c r="E231" s="5">
+      <c r="E231" s="4">
         <f xml:space="preserve"> (G230 / 2) + D231 - H231</f>
         <v>464016768.86418933</v>
       </c>
       <c r="F231" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G231" s="5">
+      <c r="G231" s="4">
         <f t="shared" si="9"/>
         <v>472369070.70374471</v>
       </c>
-      <c r="H231" s="6">
+      <c r="H231" s="5">
         <v>30000000</v>
       </c>
-      <c r="J231" s="7">
+      <c r="J231" s="6">
         <f xml:space="preserve"> ((G230 - H231) / 2 / 12)</f>
         <v>36847443.822015777</v>
       </c>
-      <c r="O231" s="5"/>
+      <c r="L231" s="9">
+        <f xml:space="preserve"> (G230 - H231) / 2</f>
+        <v>442169325.86418933</v>
+      </c>
+      <c r="O231" s="4"/>
     </row>
     <row r="232" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="4"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="4">
         <v>36847443</v>
       </c>
-      <c r="E232" s="5">
+      <c r="E232" s="4">
         <f t="shared" si="8"/>
         <v>509216513.70374471</v>
       </c>
       <c r="F232" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G232" s="5">
+      <c r="G232" s="4">
         <f t="shared" si="9"/>
         <v>518382410.95041209</v>
       </c>
-      <c r="H232" s="6"/>
-      <c r="O232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="O232" s="4"/>
     </row>
     <row r="233" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="4"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
-      <c r="D233" s="5">
+      <c r="D233" s="4">
         <v>36847443</v>
       </c>
-      <c r="E233" s="5">
+      <c r="E233" s="4">
         <f t="shared" si="8"/>
         <v>555229853.95041203</v>
       </c>
       <c r="F233" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G233" s="5">
+      <c r="G233" s="4">
         <f t="shared" si="9"/>
         <v>565223991.32151949</v>
       </c>
-      <c r="H233" s="6"/>
-      <c r="O233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="O233" s="4"/>
     </row>
     <row r="234" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="4"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234" s="4">
         <v>36847443</v>
       </c>
-      <c r="E234" s="5">
+      <c r="E234" s="4">
         <f t="shared" si="8"/>
         <v>602071434.32151949</v>
       </c>
       <c r="F234" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G234" s="5">
+      <c r="G234" s="4">
         <f t="shared" si="9"/>
         <v>612908720.13930678</v>
       </c>
-      <c r="H234" s="6"/>
-      <c r="O234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="O234" s="4"/>
     </row>
     <row r="235" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="4"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="4">
         <v>36847443</v>
       </c>
-      <c r="E235" s="5">
+      <c r="E235" s="4">
         <f t="shared" si="8"/>
         <v>629872650.3110944</v>
       </c>
       <c r="F235" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G235" s="5">
+      <c r="G235" s="4">
         <f t="shared" si="9"/>
         <v>641210358.01669407</v>
       </c>
-      <c r="H235" s="6">
+      <c r="H235" s="5">
         <f xml:space="preserve"> M230</f>
         <v>19883512.82821241</v>
       </c>
-      <c r="O235" s="5"/>
+      <c r="O235" s="4"/>
     </row>
     <row r="236" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="4"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
-      <c r="D236" s="5">
+      <c r="D236" s="4">
         <v>36847443</v>
       </c>
-      <c r="E236" s="5">
+      <c r="E236" s="4">
         <f t="shared" si="8"/>
         <v>678057801.01669407</v>
       </c>
       <c r="F236" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G236" s="5">
+      <c r="G236" s="4">
         <f t="shared" si="9"/>
         <v>690262841.43499458</v>
       </c>
-      <c r="H236" s="6"/>
-      <c r="O236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="O236" s="4"/>
     </row>
     <row r="237" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="4"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D237" s="4">
         <v>36847443</v>
       </c>
-      <c r="E237" s="5">
+      <c r="E237" s="4">
         <f t="shared" si="8"/>
         <v>727110284.43499458</v>
       </c>
       <c r="F237" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G237" s="5">
+      <c r="G237" s="4">
         <f t="shared" si="9"/>
         <v>740198269.55482447</v>
       </c>
-      <c r="H237" s="6"/>
-      <c r="O237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="O237" s="4"/>
     </row>
     <row r="238" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="4"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="4">
         <v>36847443</v>
       </c>
-      <c r="E238" s="5">
+      <c r="E238" s="4">
         <f t="shared" si="8"/>
         <v>777045712.55482447</v>
       </c>
       <c r="F238" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G238" s="5">
+      <c r="G238" s="4">
         <f t="shared" si="9"/>
         <v>791032535.38081133</v>
       </c>
-      <c r="H238" s="6"/>
-      <c r="O238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="O238" s="4"/>
     </row>
     <row r="239" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="4"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D239" s="4">
         <v>36847443</v>
       </c>
-      <c r="E239" s="5">
+      <c r="E239" s="4">
         <f t="shared" si="8"/>
         <v>827879978.38081133</v>
       </c>
       <c r="F239" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G239" s="5">
+      <c r="G239" s="4">
         <f t="shared" si="9"/>
         <v>842781817.99166596</v>
       </c>
-      <c r="H239" s="6"/>
-      <c r="O239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="O239" s="4"/>
     </row>
     <row r="240" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="4"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="4">
         <v>36847443</v>
       </c>
-      <c r="E240" s="5">
+      <c r="E240" s="4">
         <f t="shared" si="8"/>
         <v>879629260.99166596</v>
       </c>
       <c r="F240" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G240" s="5">
+      <c r="G240" s="4">
         <f t="shared" si="9"/>
         <v>895462587.68951595</v>
       </c>
-      <c r="H240" s="6"/>
-      <c r="O240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="O240" s="4"/>
     </row>
     <row r="241" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="4"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="4">
         <v>36847443</v>
       </c>
-      <c r="E241" s="5">
+      <c r="E241" s="4">
         <f t="shared" si="8"/>
         <v>932310030.68951595</v>
       </c>
       <c r="F241" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G241" s="5">
+      <c r="G241" s="4">
         <f t="shared" si="9"/>
         <v>949091611.24192727</v>
       </c>
-      <c r="H241" s="6"/>
-      <c r="O241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="O241" s="4"/>
     </row>
     <row r="242" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="4"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="4">
         <v>36847443</v>
       </c>
-      <c r="E242" s="5">
+      <c r="E242" s="4">
         <f t="shared" si="8"/>
         <v>985939054.24192727</v>
       </c>
       <c r="F242" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G242" s="5">
+      <c r="G242" s="4">
         <f t="shared" si="9"/>
         <v>1003685957.218282</v>
       </c>
-      <c r="H242" s="6"/>
-      <c r="I242" s="5">
+      <c r="H242" s="5"/>
+      <c r="I242" s="4">
         <f xml:space="preserve"> (E231 + SUM(D232:D242)) - SUM(H232:H242)</f>
         <v>849455129.03597701</v>
       </c>
-      <c r="J242" s="5">
+      <c r="J242" s="4">
         <f xml:space="preserve"> E242 - I242</f>
         <v>136483925.20595026</v>
       </c>
       <c r="K242" s="3">
         <v>0.84</v>
       </c>
-      <c r="L242" s="5">
+      <c r="L242" s="4">
         <f xml:space="preserve"> J242 * K242</f>
         <v>114646497.17299822</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="4">
         <f xml:space="preserve"> J242 - L242</f>
         <v>21837428.03295204</v>
       </c>
@@ -6715,22 +6791,38 @@
         <f xml:space="preserve"> J242 / I242 * 100</f>
         <v>16.067231869073776</v>
       </c>
-      <c r="O242" s="5"/>
+      <c r="O242" s="4"/>
     </row>
     <row r="243" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="5">
+      <c r="D243" s="4">
         <f>SUM(D3:D242)</f>
         <v>4517320544</v>
       </c>
-      <c r="H243" s="6"/>
-      <c r="J243" s="7">
+      <c r="H243" s="5"/>
+      <c r="J243" s="6">
         <f xml:space="preserve"> ((G242 - H243) / 2 / 12)</f>
         <v>41820248.217428416</v>
       </c>
-      <c r="O243" s="5"/>
+      <c r="L243" s="9">
+        <f xml:space="preserve"> (G242 - H243) / 2</f>
+        <v>501842978.60914099</v>
+      </c>
+      <c r="O243" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B135:B146"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B63:B74"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="B87:B98"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="B111:B122"/>
+    <mergeCell ref="B123:B134"/>
     <mergeCell ref="B219:B230"/>
     <mergeCell ref="B231:B242"/>
     <mergeCell ref="B147:B158"/>
@@ -6739,18 +6831,6 @@
     <mergeCell ref="B183:B194"/>
     <mergeCell ref="B195:B206"/>
     <mergeCell ref="B207:B218"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="B87:B98"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="B111:B122"/>
-    <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B135:B146"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="B15:B26"/>
-    <mergeCell ref="B27:B38"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B63:B74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997F795D-36A2-4740-A0FA-C186CB903C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665CB710-8D65-4DC2-8B09-58F64E85E733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="108">
   <si>
     <t>[전업투자]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기초생활의료수급연금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전기세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +421,42 @@
   </si>
   <si>
     <t>설/추석 에는 사람이 없어서 그때 집으로 모실 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID / PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 지출 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 지출 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초생활 의료수급권자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정방문간호사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 여사님 바우처 계약하고 있는 센터 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +571,32 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -600,6 +656,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,15 +760,6 @@
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -712,16 +796,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -739,25 +814,10 @@
     <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -769,13 +829,91 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,25 +1219,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1219,31 +1357,31 @@
       </c>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44"/>
-      <c r="C7" s="26">
+      <c r="C7" s="23">
         <v>5</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>2520000</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <f t="shared" si="0"/>
         <v>12007323.16488</v>
       </c>
-      <c r="F7" s="26">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G7" s="27">
+      <c r="F7" s="23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G7" s="24">
         <f t="shared" si="1"/>
         <v>12223454.981847839</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28">
+      <c r="H7" s="24"/>
+      <c r="I7" s="25">
         <v>1000000</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="P7" s="27"/>
+      <c r="K7" s="29"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="44"/>
@@ -1270,55 +1408,55 @@
       </c>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="44"/>
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <v>7</v>
       </c>
       <c r="D9" s="9">
         <v>2500000</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
         <v>16888477.171521101</v>
       </c>
-      <c r="F9" s="26">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="F9" s="23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
         <v>17192469.760608479</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28">
+      <c r="H9" s="24"/>
+      <c r="I9" s="25">
         <v>600000</v>
       </c>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="44"/>
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <v>8</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>2500000</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>14635925.760608479</v>
       </c>
-      <c r="F10" s="26">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="F10" s="23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G10" s="24">
         <f t="shared" si="1"/>
         <v>14899372.424299432</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28">
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
         <v>5056544</v>
       </c>
-      <c r="P10" s="27"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="44"/>
@@ -1395,53 +1533,53 @@
       </c>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="44"/>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>12</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>2500000</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>29082080.366347998</v>
       </c>
-      <c r="F14" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="F14" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="1"/>
         <v>29605557.812942263</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
+      <c r="H14" s="21"/>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
         <f xml:space="preserve"> (G2 + SUM(D3:D14)) - SUM(I3:I14)</f>
         <v>26363456</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="21">
         <f xml:space="preserve"> G14 - J14</f>
         <v>3242101.8129422627</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="20">
         <v>0.84</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="21">
         <f xml:space="preserve"> K14 * L14</f>
         <v>2723365.5228715008</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="21">
         <f xml:space="preserve"> K14 - M14</f>
         <v>518736.29007076193</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="20">
         <f xml:space="preserve"> K14 / J14 * 100</f>
         <v>12.297711699643108</v>
       </c>
-      <c r="P14" s="24"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -1743,54 +1881,54 @@
       </c>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="44"/>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>12</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="21">
         <f xml:space="preserve"> K15</f>
         <v>3733564.9088725941</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <f t="shared" si="2"/>
         <v>66940028.43204587</v>
       </c>
-      <c r="F26" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G26" s="24">
+      <c r="F26" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G26" s="21">
         <f t="shared" si="3"/>
         <v>68144948.943822697</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25">
-        <v>0</v>
-      </c>
-      <c r="J26" s="24">
+      <c r="H26" s="21"/>
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
         <f xml:space="preserve"> (E15 + SUM(D16:D26)) - SUM(I15:I26)</f>
         <v>59086821.522871502</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="21">
         <f xml:space="preserve"> G26 - J26</f>
         <v>9058127.4209511951</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="20">
         <v>0.84</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="21">
         <f xml:space="preserve"> K26 * L26</f>
         <v>7608827.0335990032</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="21">
         <f xml:space="preserve"> K26 - M26</f>
         <v>1449300.3873521918</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="20">
         <f xml:space="preserve"> K26 / J26 * 100</f>
         <v>15.330199167076449</v>
       </c>
-      <c r="P26" s="24"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
@@ -2092,54 +2230,54 @@
       </c>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="44"/>
-      <c r="C38" s="23">
+      <c r="C38" s="20">
         <v>12</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="21">
         <f>K27</f>
         <v>5339372.872659279</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="21">
         <f t="shared" si="4"/>
         <v>110630026.5582383</v>
       </c>
-      <c r="F38" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G38" s="24">
+      <c r="F38" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G38" s="21">
         <f t="shared" si="5"/>
         <v>112621367.03628659</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25">
-        <v>0</v>
-      </c>
-      <c r="J38" s="24">
+      <c r="H38" s="21"/>
+      <c r="I38" s="22">
+        <v>0</v>
+      </c>
+      <c r="J38" s="21">
         <f xml:space="preserve"> (E27 + SUM(D28:D38)) - SUM(I27:I38)</f>
         <v>96695648.556470513</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="21">
         <f xml:space="preserve"> G38 - J38</f>
         <v>15925718.479816079</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="20">
         <v>0.84</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="21">
         <f xml:space="preserve"> K38 * L38</f>
         <v>13377603.523045506</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38" s="21">
         <f xml:space="preserve"> K38 - M38</f>
         <v>2548114.9567705728</v>
       </c>
-      <c r="O38" s="23">
+      <c r="O38" s="20">
         <f xml:space="preserve"> K38 / J38 * 100</f>
         <v>16.469943288622151</v>
       </c>
-      <c r="P38" s="24"/>
+      <c r="P38" s="21"/>
     </row>
     <row r="39" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -2441,54 +2579,54 @@
       </c>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="44"/>
-      <c r="C50" s="23">
+      <c r="C50" s="20">
         <v>12</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="21">
         <f>K39</f>
         <v>7192556.9598452747</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="21">
         <f t="shared" si="6"/>
         <v>111022299.41046417</v>
       </c>
-      <c r="F50" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G50" s="24">
+      <c r="F50" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G50" s="21">
         <f t="shared" si="5"/>
         <v>113020700.79985252</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25">
+      <c r="H50" s="21"/>
+      <c r="I50" s="22">
         <v>50000000</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="21">
         <f xml:space="preserve"> (E39 + SUM(D40:D50)) - SUM(I40:I50)</f>
         <v>90073252.079516023</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="21">
         <f xml:space="preserve"> G50 - J50</f>
         <v>22947448.720336497</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="20">
         <v>0.84</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="21">
         <f xml:space="preserve"> K50 * L50</f>
         <v>19275856.925082657</v>
       </c>
-      <c r="N50" s="24">
+      <c r="N50" s="21">
         <f xml:space="preserve"> K50 - M50</f>
         <v>3671591.7952538393</v>
       </c>
-      <c r="O50" s="23">
+      <c r="O50" s="20">
         <f xml:space="preserve"> K50 / J50 * 100</f>
         <v>25.476429673127214</v>
       </c>
-      <c r="P50" s="24"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="51" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
@@ -2790,54 +2928,54 @@
       </c>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="44"/>
-      <c r="C62" s="23">
+      <c r="C62" s="20">
         <v>12</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="21">
         <f xml:space="preserve"> K51</f>
         <v>7209195.8666605214</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="21">
         <f t="shared" si="7"/>
         <v>160213014.44626263</v>
       </c>
-      <c r="F62" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G62" s="24">
+      <c r="F62" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G62" s="21">
         <f t="shared" si="5"/>
         <v>163096848.70629534</v>
       </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="25">
-        <v>0</v>
-      </c>
-      <c r="J62" s="24">
+      <c r="H62" s="21"/>
+      <c r="I62" s="22">
+        <v>0</v>
+      </c>
+      <c r="J62" s="21">
         <f xml:space="preserve"> (E51 + SUM(D52:D62)) - SUM(I52:I62)</f>
         <v>139349109.00459868</v>
       </c>
-      <c r="K62" s="24">
+      <c r="K62" s="21">
         <f xml:space="preserve"> G62 - J62</f>
         <v>23747739.701696664</v>
       </c>
-      <c r="L62" s="23">
+      <c r="L62" s="20">
         <v>0.84</v>
       </c>
-      <c r="M62" s="24">
+      <c r="M62" s="21">
         <f xml:space="preserve"> K62 * L62</f>
         <v>19948101.349425197</v>
       </c>
-      <c r="N62" s="24">
+      <c r="N62" s="21">
         <f xml:space="preserve"> K62 - M62</f>
         <v>3799638.3522714674</v>
       </c>
-      <c r="O62" s="23">
+      <c r="O62" s="20">
         <f xml:space="preserve"> K62 / J62 * 100</f>
         <v>17.041902794594087</v>
       </c>
-      <c r="P62" s="24"/>
+      <c r="P62" s="21"/>
     </row>
     <row r="63" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
@@ -3140,54 +3278,54 @@
       </c>
       <c r="P73" s="9"/>
     </row>
-    <row r="74" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="44"/>
-      <c r="C74" s="23">
+      <c r="C74" s="20">
         <v>12</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="21">
         <f>K63</f>
         <v>9295702.0294289738</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="21">
         <f t="shared" si="8"/>
         <v>218206480.53802741</v>
       </c>
-      <c r="F74" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G74" s="24">
+      <c r="F74" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G74" s="21">
         <f t="shared" si="5"/>
         <v>222134197.18771189</v>
       </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="25">
-        <v>0</v>
-      </c>
-      <c r="J74" s="24">
+      <c r="H74" s="21"/>
+      <c r="I74" s="22">
+        <v>0</v>
+      </c>
+      <c r="J74" s="21">
         <f xml:space="preserve"> (E63 + SUM(D64:D74)) - SUM(I64:I74)</f>
         <v>189297210.3540239</v>
       </c>
-      <c r="K74" s="24">
+      <c r="K74" s="21">
         <f xml:space="preserve"> G74 - J74</f>
         <v>32836986.833687991</v>
       </c>
-      <c r="L74" s="23">
+      <c r="L74" s="20">
         <v>0.84</v>
       </c>
-      <c r="M74" s="24">
+      <c r="M74" s="21">
         <f xml:space="preserve"> K74 * L74</f>
         <v>27583068.940297913</v>
       </c>
-      <c r="N74" s="24">
+      <c r="N74" s="21">
         <f xml:space="preserve"> K74 - M74</f>
         <v>5253917.8933900781</v>
       </c>
-      <c r="O74" s="23">
+      <c r="O74" s="20">
         <f xml:space="preserve"> K74 / J74 * 100</f>
         <v>17.346788561900205</v>
       </c>
-      <c r="P74" s="24"/>
+      <c r="P74" s="21"/>
     </row>
     <row r="75" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -3489,54 +3627,54 @@
       </c>
       <c r="P85" s="9"/>
     </row>
-    <row r="86" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="44"/>
-      <c r="C86" s="23">
+      <c r="C86" s="20">
         <v>12</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="21">
         <f xml:space="preserve"> K75</f>
         <v>11755591.549487995</v>
       </c>
-      <c r="E86" s="24">
+      <c r="E86" s="21">
         <f t="shared" si="9"/>
         <v>285101287.28296041</v>
       </c>
-      <c r="F86" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G86" s="24">
+      <c r="F86" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G86" s="21">
         <f t="shared" si="5"/>
         <v>290233110.4540537</v>
       </c>
-      <c r="H86" s="24"/>
-      <c r="I86" s="25">
-        <v>0</v>
-      </c>
-      <c r="J86" s="24">
+      <c r="H86" s="21"/>
+      <c r="I86" s="22">
+        <v>0</v>
+      </c>
+      <c r="J86" s="21">
         <f xml:space="preserve"> (E75 + SUM(D76:D86)) - SUM(I76:I86)</f>
         <v>246880279.29432181</v>
       </c>
-      <c r="K86" s="24">
+      <c r="K86" s="21">
         <f xml:space="preserve"> G86 - J86</f>
         <v>43352831.159731895</v>
       </c>
-      <c r="L86" s="23">
+      <c r="L86" s="20">
         <v>0.84</v>
       </c>
-      <c r="M86" s="24">
+      <c r="M86" s="21">
         <f xml:space="preserve"> K86 * L86</f>
         <v>36416378.174174793</v>
       </c>
-      <c r="N86" s="24">
+      <c r="N86" s="21">
         <f xml:space="preserve"> K86 - M86</f>
         <v>6936452.9855571017</v>
       </c>
-      <c r="O86" s="23">
+      <c r="O86" s="20">
         <f xml:space="preserve"> K86 / J86 * 100</f>
         <v>17.560264952571689</v>
       </c>
-      <c r="P86" s="24"/>
+      <c r="P86" s="21"/>
     </row>
     <row r="87" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
@@ -3838,54 +3976,54 @@
       </c>
       <c r="P97" s="9"/>
     </row>
-    <row r="98" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="44"/>
-      <c r="C98" s="23">
+      <c r="C98" s="20">
         <v>12</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="21">
         <f xml:space="preserve"> K87</f>
         <v>14593046.268918904</v>
       </c>
-      <c r="E98" s="24">
+      <c r="E98" s="21">
         <f t="shared" si="10"/>
         <v>362257979.22786808</v>
       </c>
-      <c r="F98" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G98" s="24">
+      <c r="F98" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G98" s="21">
         <f t="shared" si="11"/>
         <v>368778622.85396969</v>
       </c>
-      <c r="H98" s="24"/>
-      <c r="I98" s="25">
-        <v>0</v>
-      </c>
-      <c r="J98" s="24">
+      <c r="H98" s="21"/>
+      <c r="I98" s="22">
+        <v>0</v>
+      </c>
+      <c r="J98" s="21">
         <f xml:space="preserve"> (E87 + SUM(D88:D98)) - SUM(I88:I98)</f>
         <v>313296657.46849662</v>
       </c>
-      <c r="K98" s="24">
+      <c r="K98" s="21">
         <f xml:space="preserve"> G98 - J98</f>
         <v>55481965.385473073</v>
       </c>
-      <c r="L98" s="23">
+      <c r="L98" s="20">
         <v>0.84</v>
       </c>
-      <c r="M98" s="24">
+      <c r="M98" s="21">
         <f xml:space="preserve"> K98 * L98</f>
         <v>46604850.923797376</v>
       </c>
-      <c r="N98" s="24">
+      <c r="N98" s="21">
         <f xml:space="preserve"> K98 - M98</f>
         <v>8877114.4616756961</v>
       </c>
-      <c r="O98" s="23">
+      <c r="O98" s="20">
         <f xml:space="preserve"> K98 / J98 * 100</f>
         <v>17.709083088782084</v>
       </c>
-      <c r="P98" s="24"/>
+      <c r="P98" s="21"/>
     </row>
     <row r="99" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
@@ -4187,54 +4325,54 @@
       </c>
       <c r="P109" s="9"/>
     </row>
-    <row r="110" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="44"/>
-      <c r="C110" s="23">
+      <c r="C110" s="20">
         <v>12</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="21">
         <f>K99</f>
         <v>17865775.952248737</v>
       </c>
-      <c r="E110" s="24">
+      <c r="E110" s="21">
         <f t="shared" si="12"/>
         <v>451250741.02353632</v>
       </c>
-      <c r="F110" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G110" s="24">
+      <c r="F110" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G110" s="21">
         <f t="shared" si="11"/>
         <v>459373254.36195999</v>
       </c>
-      <c r="H110" s="24"/>
-      <c r="I110" s="25">
-        <v>0</v>
-      </c>
-      <c r="J110" s="24">
+      <c r="H110" s="21"/>
+      <c r="I110" s="22">
+        <v>0</v>
+      </c>
+      <c r="J110" s="21">
         <f xml:space="preserve"> (E99 + SUM(D100:D110)) - SUM(I100:I110)</f>
         <v>389901508.39229405</v>
       </c>
-      <c r="K110" s="24">
+      <c r="K110" s="21">
         <f xml:space="preserve"> G110 - J110</f>
         <v>69471745.969665945</v>
       </c>
-      <c r="L110" s="23">
+      <c r="L110" s="20">
         <v>0.84</v>
       </c>
-      <c r="M110" s="24">
+      <c r="M110" s="21">
         <f xml:space="preserve"> K110 * L110</f>
         <v>58356266.614519395</v>
       </c>
-      <c r="N110" s="24">
+      <c r="N110" s="21">
         <f xml:space="preserve"> K110 - M110</f>
         <v>11115479.35514655</v>
       </c>
-      <c r="O110" s="23">
+      <c r="O110" s="20">
         <f xml:space="preserve"> K110 / J110 * 100</f>
         <v>17.817767942505085</v>
       </c>
-      <c r="P110" s="24"/>
+      <c r="P110" s="21"/>
     </row>
     <row r="111" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
@@ -4536,54 +4674,54 @@
       </c>
       <c r="P121" s="9"/>
     </row>
-    <row r="122" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="44"/>
-      <c r="C122" s="23">
+      <c r="C122" s="20">
         <v>12</v>
       </c>
-      <c r="D122" s="24">
+      <c r="D122" s="21">
         <f>K111</f>
         <v>21640552.265081666</v>
       </c>
-      <c r="E122" s="24">
+      <c r="E122" s="21">
         <f t="shared" si="13"/>
         <v>553895261.48576343</v>
       </c>
-      <c r="F122" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G122" s="24">
+      <c r="F122" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G122" s="21">
         <f t="shared" si="11"/>
         <v>563865376.19250715</v>
       </c>
-      <c r="H122" s="24"/>
-      <c r="I122" s="25">
-        <v>0</v>
-      </c>
-      <c r="J122" s="24">
+      <c r="H122" s="21"/>
+      <c r="I122" s="22">
+        <v>0</v>
+      </c>
+      <c r="J122" s="21">
         <f xml:space="preserve"> (E111 + SUM(D112:D122)) - SUM(I112:I122)</f>
         <v>478257775.00681353</v>
       </c>
-      <c r="K122" s="24">
+      <c r="K122" s="21">
         <f xml:space="preserve"> G122 - J122</f>
         <v>85607601.185693622</v>
       </c>
-      <c r="L122" s="23">
+      <c r="L122" s="20">
         <v>0.84</v>
       </c>
-      <c r="M122" s="24">
+      <c r="M122" s="21">
         <f xml:space="preserve"> K122 * L122</f>
         <v>71910384.995982647</v>
       </c>
-      <c r="N122" s="24">
+      <c r="N122" s="21">
         <f xml:space="preserve"> K122 - M122</f>
         <v>13697216.189710975</v>
       </c>
-      <c r="O122" s="23">
+      <c r="O122" s="20">
         <f xml:space="preserve"> K122 / J122 * 100</f>
         <v>17.899886977158712</v>
       </c>
-      <c r="P122" s="24"/>
+      <c r="P122" s="21"/>
     </row>
     <row r="123" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
@@ -4865,60 +5003,60 @@
       <c r="I133" s="10"/>
       <c r="P133" s="9"/>
     </row>
-    <row r="134" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="44"/>
-      <c r="C134" s="23">
+      <c r="C134" s="20">
         <v>12</v>
       </c>
-      <c r="D134" s="24">
+      <c r="D134" s="21">
         <f>K123</f>
         <v>25994390.674687799</v>
       </c>
-      <c r="E134" s="24">
+      <c r="E134" s="21">
         <f t="shared" si="14"/>
         <v>642285761.66015005</v>
       </c>
-      <c r="F134" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G134" s="24">
+      <c r="F134" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G134" s="21">
         <f t="shared" si="11"/>
         <v>653846905.37003279</v>
       </c>
-      <c r="H134" s="24"/>
-      <c r="I134" s="29">
+      <c r="H134" s="21"/>
+      <c r="I134" s="26">
         <v>30000000</v>
       </c>
-      <c r="J134" s="24">
+      <c r="J134" s="21">
         <f xml:space="preserve"> (E123 + SUM(D124:D134)) - SUM(I124:I134)</f>
         <v>550168160.00279617</v>
       </c>
-      <c r="K134" s="24">
+      <c r="K134" s="21">
         <f xml:space="preserve"> G134 - J134</f>
         <v>103678745.36723661</v>
       </c>
-      <c r="L134" s="23">
+      <c r="L134" s="20">
         <v>0.84</v>
       </c>
-      <c r="M134" s="24">
+      <c r="M134" s="21">
         <f xml:space="preserve"> K134 * L134</f>
         <v>87090146.108478755</v>
       </c>
-      <c r="N134" s="24">
+      <c r="N134" s="21">
         <f xml:space="preserve"> K134 - M134</f>
         <v>16588599.258757859</v>
       </c>
-      <c r="O134" s="23">
+      <c r="O134" s="20">
         <f xml:space="preserve"> K134 / J134 * 100</f>
         <v>18.844919227370351</v>
       </c>
-      <c r="P134" s="24"/>
+      <c r="P134" s="21"/>
     </row>
     <row r="135" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="42">
+      <c r="B135" s="45">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -4957,7 +5095,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="42"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -4981,7 +5119,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="42"/>
+      <c r="B137" s="45"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -5005,7 +5143,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="42"/>
+      <c r="B138" s="45"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -5029,7 +5167,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="42"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -5056,7 +5194,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="42"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -5080,7 +5218,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="42"/>
+      <c r="B141" s="45"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -5104,7 +5242,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="42"/>
+      <c r="B142" s="45"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -5128,7 +5266,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="42"/>
+      <c r="B143" s="45"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -5152,7 +5290,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="42"/>
+      <c r="B144" s="45"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -5176,7 +5314,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="42"/>
+      <c r="B145" s="45"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -5199,60 +5337,60 @@
       <c r="I145" s="14"/>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="42"/>
-      <c r="C146" s="23">
+    <row r="146" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="45"/>
+      <c r="C146" s="20">
         <v>12</v>
       </c>
-      <c r="D146" s="24">
+      <c r="D146" s="21">
         <f>K135</f>
         <v>27243621.057084698</v>
       </c>
-      <c r="E146" s="24">
+      <c r="E146" s="21">
         <f t="shared" si="15"/>
         <v>710322961.93752205</v>
       </c>
-      <c r="F146" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G146" s="24">
+      <c r="F146" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G146" s="21">
         <f t="shared" si="11"/>
         <v>723108775.25239742</v>
       </c>
-      <c r="H146" s="24"/>
-      <c r="I146" s="29">
+      <c r="H146" s="21"/>
+      <c r="I146" s="26">
         <v>30000000</v>
       </c>
-      <c r="J146" s="24">
+      <c r="J146" s="21">
         <f xml:space="preserve"> (E135 + SUM(D136:D146)) - SUM(I136:I146)</f>
         <v>607258306.11127496</v>
       </c>
-      <c r="K146" s="24">
+      <c r="K146" s="21">
         <f xml:space="preserve"> G146 - J146</f>
         <v>115850469.14112246</v>
       </c>
-      <c r="L146" s="23">
+      <c r="L146" s="20">
         <v>0.84</v>
       </c>
-      <c r="M146" s="24">
+      <c r="M146" s="21">
         <f xml:space="preserve"> K146 * L146</f>
         <v>97314394.078542858</v>
       </c>
-      <c r="N146" s="24">
+      <c r="N146" s="21">
         <f xml:space="preserve"> K146 - M146</f>
         <v>18536075.062579602</v>
       </c>
-      <c r="O146" s="23">
+      <c r="O146" s="20">
         <f xml:space="preserve"> K146 / J146 * 100</f>
         <v>19.077626106590273</v>
       </c>
-      <c r="P146" s="24"/>
+      <c r="P146" s="21"/>
     </row>
     <row r="147" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="42">
+      <c r="B147" s="45">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -5286,7 +5424,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="42"/>
+      <c r="B148" s="45"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -5310,7 +5448,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="42"/>
+      <c r="B149" s="45"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -5334,7 +5472,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="42"/>
+      <c r="B150" s="45"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -5358,7 +5496,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="42"/>
+      <c r="B151" s="45"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -5385,7 +5523,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="42"/>
+      <c r="B152" s="45"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -5409,7 +5547,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="42"/>
+      <c r="B153" s="45"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -5433,7 +5571,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="42"/>
+      <c r="B154" s="45"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -5457,7 +5595,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="42"/>
+      <c r="B155" s="45"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -5481,7 +5619,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="42"/>
+      <c r="B156" s="45"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -5505,7 +5643,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="42"/>
+      <c r="B157" s="45"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -5528,60 +5666,60 @@
       <c r="I157" s="14"/>
       <c r="P157" s="13"/>
     </row>
-    <row r="158" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="42"/>
-      <c r="C158" s="23">
+    <row r="158" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="45"/>
+      <c r="C158" s="20">
         <v>12</v>
       </c>
-      <c r="D158" s="24">
+      <c r="D158" s="21">
         <f>K147</f>
         <v>30129532.302183226</v>
       </c>
-      <c r="E158" s="24">
+      <c r="E158" s="21">
         <f t="shared" si="16"/>
         <v>788529668.72521937</v>
       </c>
-      <c r="F158" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G158" s="24">
+      <c r="F158" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G158" s="21">
         <f t="shared" ref="G158:G221" si="17" xml:space="preserve"> (E158 * F158) + E158</f>
         <v>802723202.76227331</v>
       </c>
-      <c r="H158" s="24"/>
-      <c r="I158" s="29">
+      <c r="H158" s="21"/>
+      <c r="I158" s="26">
         <v>30000000</v>
       </c>
-      <c r="J158" s="24">
+      <c r="J158" s="21">
         <f xml:space="preserve"> (E147 + SUM(D148:D158)) - SUM(I148:I158)</f>
         <v>674572700.18981767</v>
       </c>
-      <c r="K158" s="24">
+      <c r="K158" s="21">
         <f xml:space="preserve"> G158 - J158</f>
         <v>128150502.57245564</v>
       </c>
-      <c r="L158" s="23">
+      <c r="L158" s="20">
         <v>0.84</v>
       </c>
-      <c r="M158" s="24">
+      <c r="M158" s="21">
         <f xml:space="preserve"> K158 * L158</f>
         <v>107646422.16086274</v>
       </c>
-      <c r="N158" s="24">
+      <c r="N158" s="21">
         <f xml:space="preserve"> K158 - M158</f>
         <v>20504080.411592901</v>
       </c>
-      <c r="O158" s="23">
+      <c r="O158" s="20">
         <f xml:space="preserve"> K158 / J158 * 100</f>
         <v>18.997285620422446</v>
       </c>
-      <c r="P158" s="24"/>
+      <c r="P158" s="21"/>
     </row>
     <row r="159" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="42">
+      <c r="B159" s="45">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -5615,7 +5753,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="42"/>
+      <c r="B160" s="45"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -5639,7 +5777,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="42"/>
+      <c r="B161" s="45"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -5663,7 +5801,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="42"/>
+      <c r="B162" s="45"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -5687,7 +5825,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="42"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -5714,7 +5852,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="42"/>
+      <c r="B164" s="45"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -5738,7 +5876,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="42"/>
+      <c r="B165" s="45"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -5762,7 +5900,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="42"/>
+      <c r="B166" s="45"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -5786,7 +5924,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="42"/>
+      <c r="B167" s="45"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -5810,7 +5948,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="42"/>
+      <c r="B168" s="45"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -5834,7 +5972,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="42"/>
+      <c r="B169" s="45"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -5857,60 +5995,60 @@
       <c r="I169" s="14"/>
       <c r="P169" s="13"/>
     </row>
-    <row r="170" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="42"/>
-      <c r="C170" s="23">
+    <row r="170" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="45"/>
+      <c r="C170" s="20">
         <v>12</v>
       </c>
-      <c r="D170" s="24">
+      <c r="D170" s="21">
         <f>K159</f>
         <v>33446800.115094721</v>
       </c>
-      <c r="E170" s="24">
+      <c r="E170" s="21">
         <f t="shared" si="18"/>
         <v>878732462.94859242</v>
       </c>
-      <c r="F170" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G170" s="24">
+      <c r="F170" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G170" s="21">
         <f t="shared" si="17"/>
         <v>894549647.28166711</v>
       </c>
-      <c r="H170" s="24"/>
-      <c r="I170" s="29">
+      <c r="H170" s="21"/>
+      <c r="I170" s="26">
         <v>30000000</v>
       </c>
-      <c r="J170" s="24">
+      <c r="J170" s="21">
         <f xml:space="preserve"> (E159 + SUM(D160:D170)) - SUM(I160:I170)</f>
         <v>752219122.35068035</v>
       </c>
-      <c r="K170" s="24">
+      <c r="K170" s="21">
         <f xml:space="preserve"> G170 - J170</f>
         <v>142330524.93098676</v>
       </c>
-      <c r="L170" s="23">
+      <c r="L170" s="20">
         <v>0.84</v>
       </c>
-      <c r="M170" s="24">
+      <c r="M170" s="21">
         <f xml:space="preserve"> K170 * L170</f>
         <v>119557640.94202888</v>
       </c>
-      <c r="N170" s="24">
+      <c r="N170" s="21">
         <f xml:space="preserve"> K170 - M170</f>
         <v>22772883.988957882</v>
       </c>
-      <c r="O170" s="23">
+      <c r="O170" s="20">
         <f xml:space="preserve"> K170 / J170 * 100</f>
         <v>18.921418068475141</v>
       </c>
-      <c r="P170" s="24"/>
+      <c r="P170" s="21"/>
     </row>
     <row r="171" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="42">
+      <c r="B171" s="45">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -5944,7 +6082,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="42"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -5968,7 +6106,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="42"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -5992,7 +6130,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="42"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -6016,7 +6154,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="42"/>
+      <c r="B175" s="45"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -6043,7 +6181,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="42"/>
+      <c r="B176" s="45"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -6067,7 +6205,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="42"/>
+      <c r="B177" s="45"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -6091,7 +6229,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="42"/>
+      <c r="B178" s="45"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -6115,7 +6253,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="42"/>
+      <c r="B179" s="45"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -6139,7 +6277,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="42"/>
+      <c r="B180" s="45"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -6163,7 +6301,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="42"/>
+      <c r="B181" s="45"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -6186,60 +6324,60 @@
       <c r="I181" s="14"/>
       <c r="P181" s="13"/>
     </row>
-    <row r="182" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="42"/>
-      <c r="C182" s="23">
+    <row r="182" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="45"/>
+      <c r="C182" s="20">
         <v>12</v>
       </c>
-      <c r="D182" s="24">
+      <c r="D182" s="21">
         <f>K171</f>
         <v>37272901.970069461</v>
       </c>
-      <c r="E182" s="24">
+      <c r="E182" s="21">
         <f t="shared" si="19"/>
         <v>982772634.28909349</v>
       </c>
-      <c r="F182" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G182" s="24">
+      <c r="F182" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G182" s="21">
         <f t="shared" si="17"/>
         <v>1000462541.7062972</v>
       </c>
-      <c r="H182" s="24"/>
-      <c r="I182" s="29">
+      <c r="H182" s="21"/>
+      <c r="I182" s="26">
         <v>30000000</v>
       </c>
-      <c r="J182" s="24">
+      <c r="J182" s="21">
         <f xml:space="preserve"> (E171 + SUM(D172:D182)) - SUM(I172:I182)</f>
         <v>841776763.29270923</v>
       </c>
-      <c r="K182" s="24">
+      <c r="K182" s="21">
         <f xml:space="preserve"> G182 - J182</f>
         <v>158685778.41358793</v>
       </c>
-      <c r="L182" s="23">
+      <c r="L182" s="20">
         <v>0.84</v>
       </c>
-      <c r="M182" s="24">
+      <c r="M182" s="21">
         <f xml:space="preserve"> K182 * L182</f>
         <v>133296053.86741385</v>
       </c>
-      <c r="N182" s="24">
+      <c r="N182" s="21">
         <f xml:space="preserve"> K182 - M182</f>
         <v>25389724.546174079</v>
       </c>
-      <c r="O182" s="23">
+      <c r="O182" s="20">
         <f xml:space="preserve"> K182 / J182 * 100</f>
         <v>18.851289953986107</v>
       </c>
-      <c r="P182" s="24"/>
+      <c r="P182" s="21"/>
     </row>
     <row r="183" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="42">
+      <c r="B183" s="45">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -6273,7 +6411,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="42"/>
+      <c r="B184" s="45"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -6297,7 +6435,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="42"/>
+      <c r="B185" s="45"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -6321,7 +6459,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="42"/>
+      <c r="B186" s="45"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -6345,7 +6483,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="42"/>
+      <c r="B187" s="45"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -6372,7 +6510,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="42"/>
+      <c r="B188" s="45"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -6396,7 +6534,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="42"/>
+      <c r="B189" s="45"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -6420,7 +6558,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="42"/>
+      <c r="B190" s="45"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -6444,7 +6582,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="42"/>
+      <c r="B191" s="45"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -6468,7 +6606,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="42"/>
+      <c r="B192" s="45"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -6492,7 +6630,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="42"/>
+      <c r="B193" s="45"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -6515,54 +6653,54 @@
       <c r="I193" s="14"/>
       <c r="P193" s="13"/>
     </row>
-    <row r="194" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="42"/>
-      <c r="C194" s="23">
+    <row r="194" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="45"/>
+      <c r="C194" s="20">
         <v>12</v>
       </c>
-      <c r="D194" s="24">
+      <c r="D194" s="21">
         <f>K183</f>
         <v>41685939.237762384</v>
       </c>
-      <c r="E194" s="24">
+      <c r="E194" s="21">
         <f t="shared" si="20"/>
         <v>1002772882.3887181</v>
       </c>
-      <c r="F194" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G194" s="24">
+      <c r="F194" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G194" s="21">
         <f t="shared" si="17"/>
         <v>1020822794.271715</v>
       </c>
-      <c r="H194" s="24"/>
-      <c r="I194" s="29">
+      <c r="H194" s="21"/>
+      <c r="I194" s="26">
         <v>130000000</v>
       </c>
-      <c r="J194" s="24">
+      <c r="J194" s="21">
         <f xml:space="preserve"> (E183 + SUM(D184:D194)) - SUM(I184:I194)</f>
         <v>845072817.16012311</v>
       </c>
-      <c r="K194" s="24">
+      <c r="K194" s="21">
         <f xml:space="preserve"> G194 - J194</f>
         <v>175749977.11159194</v>
       </c>
-      <c r="L194" s="23">
+      <c r="L194" s="20">
         <v>0.84</v>
       </c>
-      <c r="M194" s="24">
+      <c r="M194" s="21">
         <f xml:space="preserve"> K194 * L194</f>
         <v>147629980.77373722</v>
       </c>
-      <c r="N194" s="24">
+      <c r="N194" s="21">
         <f xml:space="preserve"> K194 - M194</f>
         <v>28119996.337854713</v>
       </c>
-      <c r="O194" s="23">
+      <c r="O194" s="20">
         <f xml:space="preserve"> K194 / J194 * 100</f>
         <v>20.797021693609995</v>
       </c>
-      <c r="P194" s="24"/>
+      <c r="P194" s="21"/>
     </row>
     <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
@@ -8272,6 +8410,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
     <mergeCell ref="B243:B254"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -8288,11 +8431,6 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8302,24 +8440,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:R4"/>
+  <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.25" customWidth="1"/>
+    <col min="5" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.25" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -8330,37 +8470,37 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
       <c r="P2" t="s">
         <v>12</v>
@@ -8386,48 +8526,48 @@
         <v>2500000</v>
       </c>
       <c r="E3" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>150000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>150000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>300000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
         <v>1300000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>670000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>300000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>200000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>500000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>150000</v>
-      </c>
-      <c r="M3" s="1">
-        <v>300000</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3" s="1">
         <f>SUM(C3:P3)</f>
-        <v>6750000</v>
+        <v>6830000</v>
       </c>
       <c r="R3" s="1">
         <f xml:space="preserve"> B3 - Q3</f>
-        <v>180000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -8444,49 +8584,142 @@
         <v>2500000</v>
       </c>
       <c r="E4" s="1">
-        <v>1300000</v>
+        <v>300000</v>
       </c>
       <c r="F4" s="1">
-        <v>670000</v>
+        <v>100000</v>
       </c>
       <c r="G4" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H4" s="1">
         <v>100000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>500000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>150000</v>
+      </c>
+      <c r="L4" s="1">
         <v>300000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>200000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>500000</v>
-      </c>
-      <c r="L4" s="1">
-        <v>150000</v>
       </c>
       <c r="M4" s="1">
         <v>300000</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="1">
         <f>SUM(C4:P4)</f>
-        <v>6750000</v>
+        <v>6880000</v>
       </c>
       <c r="R4" s="1">
         <f xml:space="preserve"> B4 - Q4</f>
-        <v>180000</v>
-      </c>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6930000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>630000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>150000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>300000</v>
+      </c>
+      <c r="M5" s="1">
+        <v>400000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>400000</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>SUM(C5:P5)</f>
+        <v>6680000</v>
+      </c>
+      <c r="R5" s="1">
+        <f xml:space="preserve"> B5 - Q5</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8497,16 +8730,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:K59"/>
+  <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="29.625" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
@@ -8516,902 +8749,1023 @@
     <col min="10" max="10" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="G2" s="45" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J4" s="57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="53">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
-        <v>180000</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" ref="E4:E10" si="0" xml:space="preserve"> C4 * D4</f>
-        <v>2160000</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="D5" s="12">
+        <v>177000</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E11" si="0" xml:space="preserve"> C5 * D5</f>
+        <v>2124000</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H5" s="53">
         <v>12</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I5" s="13">
         <v>320000</v>
       </c>
-      <c r="J4" s="9">
-        <f xml:space="preserve"> H4 * I4</f>
+      <c r="J5" s="13">
+        <f xml:space="preserve"> H5 * I5</f>
         <v>3840000</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C6" s="53">
         <v>36</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D6" s="13">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>5400000</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H6" s="54">
         <v>1</v>
       </c>
-      <c r="I5" s="9">
-        <v>2500000</v>
-      </c>
-      <c r="J5" s="9">
-        <f xml:space="preserve"> H5 * I5</f>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="I6" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="J6" s="19">
+        <f xml:space="preserve"> H6 * I6</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C7" s="54">
         <v>52</v>
       </c>
-      <c r="D6" s="22">
-        <v>130000</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D7" s="19">
+        <v>120000</v>
+      </c>
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>6760000</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+        <v>6240000</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C8" s="54">
         <v>18</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="19">
         <v>400000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>7200000</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C9" s="53">
         <v>12</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <v>364000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>4368000</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C10" s="53">
         <v>12</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>260000</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>3120000</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="G10" s="8"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="53">
         <v>52</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" si="0"/>
+        <v>1040000</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9">
+        <f>SUM(J5:J9)</f>
+        <v>5840000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <f>SUM(E5:E11)</f>
+        <v>29492000</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="55">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21">
+        <f xml:space="preserve"> E12</f>
+        <v>29492000</v>
+      </c>
+      <c r="E13" s="21">
+        <f xml:space="preserve"> D13 / C13</f>
+        <v>2457666.6666666665</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="55">
+        <v>12</v>
+      </c>
+      <c r="I13" s="21">
+        <f xml:space="preserve"> J11</f>
+        <v>5840000</v>
+      </c>
+      <c r="J13" s="20">
+        <f xml:space="preserve"> I13 / H13</f>
+        <v>486666.66666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="47"/>
+      <c r="E16" s="35">
+        <f xml:space="preserve"> E13</f>
+        <v>2457666.6666666665</v>
+      </c>
+      <c r="F16" s="35">
+        <f xml:space="preserve"> J13</f>
+        <v>486666.66666666669</v>
+      </c>
+      <c r="G16" s="35">
+        <f xml:space="preserve"> E16 - F16</f>
+        <v>1970999.9999999998</v>
+      </c>
+      <c r="H16" s="35">
         <v>200000</v>
       </c>
-      <c r="E10" s="35">
-        <f t="shared" si="0"/>
-        <v>10400000</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9">
-        <f>SUM(J4:J8)</f>
-        <v>6340000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <f>SUM(E4:E10)</f>
-        <v>39408000</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8">
+      <c r="I16" s="35">
+        <f>G16+H16</f>
+        <v>2171000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="G20" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="53">
         <v>12</v>
       </c>
-      <c r="D12" s="9">
-        <f xml:space="preserve"> E11</f>
-        <v>39408000</v>
-      </c>
-      <c r="E12" s="9">
-        <f xml:space="preserve"> D12 / C12</f>
-        <v>3284000</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
+      <c r="D22" s="12">
+        <v>177000</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" ref="E22:E29" si="1" xml:space="preserve"> C22 * D22</f>
+        <v>2124000</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="53">
         <v>12</v>
       </c>
-      <c r="I12" s="9">
-        <f xml:space="preserve"> J10</f>
-        <v>6340000</v>
-      </c>
-      <c r="J12" s="8">
-        <f xml:space="preserve"> I12 / H12</f>
-        <v>528333.33333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="20">
-        <f xml:space="preserve"> E12</f>
-        <v>3284000</v>
-      </c>
-      <c r="F14" s="19">
-        <f xml:space="preserve"> J12</f>
-        <v>528333.33333333337</v>
-      </c>
-      <c r="G14" s="20">
-        <f xml:space="preserve"> E14 - F14</f>
-        <v>2755666.6666666665</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="G17" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12">
-        <v>180000</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" ref="E19:E25" si="1" xml:space="preserve"> C19 * D19</f>
-        <v>2160000</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="12">
-        <v>12</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="I22" s="13">
         <v>320000</v>
       </c>
-      <c r="J19" s="13">
-        <f xml:space="preserve"> H19 * I19</f>
+      <c r="J22" s="13">
+        <f xml:space="preserve"> H22 * I22</f>
         <v>3840000</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C23" s="53">
         <v>36</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D23" s="13">
         <v>150000</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E23" s="13">
         <f t="shared" si="1"/>
         <v>5400000</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="G23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="54">
         <v>1</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I23" s="19">
         <v>2000000</v>
       </c>
-      <c r="J20" s="22">
-        <f xml:space="preserve"> H20 * I20</f>
+      <c r="J23" s="19">
+        <f xml:space="preserve"> H23 * I23</f>
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C24" s="54">
         <v>52</v>
       </c>
-      <c r="D21" s="22">
-        <v>130000</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="D24" s="19">
+        <v>120000</v>
+      </c>
+      <c r="E24" s="19">
         <f t="shared" si="1"/>
-        <v>6760000</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="21">
+        <v>6240000</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="67">
         <v>12</v>
       </c>
-      <c r="I21" s="22">
-        <v>700000</v>
-      </c>
-      <c r="J21" s="22">
-        <f xml:space="preserve"> H21 * I21</f>
-        <v>8400000</v>
-      </c>
-      <c r="K21" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="I24" s="68">
+        <v>770000</v>
+      </c>
+      <c r="J24" s="68">
+        <f xml:space="preserve"> H24 * I24</f>
+        <v>9240000</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C25" s="54">
         <v>18</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D25" s="19">
         <v>400000</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E25" s="19">
         <f t="shared" si="1"/>
         <v>7200000</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C26" s="53">
         <v>12</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D26" s="13">
         <v>364000</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E26" s="13">
         <f t="shared" si="1"/>
         <v>4368000</v>
       </c>
-      <c r="F23" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
+      <c r="F26" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C27" s="53">
         <v>12</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D27" s="13">
         <v>260000</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E27" s="13">
         <f t="shared" si="1"/>
         <v>3120000</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+      <c r="F27" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C28" s="67">
         <v>52</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D28" s="68">
         <v>200000</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E28" s="69">
         <f t="shared" si="1"/>
         <v>10400000</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9">
-        <f>SUM(J19:J23)</f>
-        <v>14240000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
-        <f>SUM(E19:E25)</f>
-        <v>39408000</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8">
+      <c r="G28" s="8"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9">
+        <f>SUM(J22:J26)</f>
+        <v>15080000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="53">
+        <v>52</v>
+      </c>
+      <c r="D29" s="13">
+        <v>20000</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>1040000</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
+        <f>SUM(E22:E29)</f>
+        <v>39892000</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="55">
         <v>12</v>
       </c>
-      <c r="D27" s="9">
-        <f xml:space="preserve"> E26</f>
-        <v>39408000</v>
-      </c>
-      <c r="E27" s="9">
-        <f xml:space="preserve"> D27 / C27</f>
-        <v>3284000</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8">
+      <c r="D31" s="21">
+        <f xml:space="preserve"> E30</f>
+        <v>39892000</v>
+      </c>
+      <c r="E31" s="21">
+        <f xml:space="preserve"> D31 / C31</f>
+        <v>3324333.3333333335</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="55">
         <v>12</v>
       </c>
-      <c r="I27" s="9">
-        <f xml:space="preserve"> J25</f>
-        <v>14240000</v>
-      </c>
-      <c r="J27" s="8">
-        <f xml:space="preserve"> I27 / H27</f>
-        <v>1186666.6666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="47" t="s">
+      <c r="I31" s="21">
+        <f xml:space="preserve"> J28</f>
+        <v>15080000</v>
+      </c>
+      <c r="J31" s="20">
+        <f xml:space="preserve"> I31 / H31</f>
+        <v>1256666.6666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="32"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D33" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="G33" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="H33" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="I33" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="40" t="s">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D34" s="47"/>
+      <c r="E34" s="35">
+        <f xml:space="preserve"> E31</f>
+        <v>3324333.3333333335</v>
+      </c>
+      <c r="F34" s="35">
+        <f xml:space="preserve"> J31</f>
+        <v>1256666.6666666667</v>
+      </c>
+      <c r="G34" s="35">
+        <f xml:space="preserve"> E34 - F34</f>
+        <v>2067666.6666666667</v>
+      </c>
+      <c r="H34" s="35">
+        <v>200000</v>
+      </c>
+      <c r="I34" s="35">
+        <f>G34+H34</f>
+        <v>2267666.666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="61"/>
+      <c r="C37" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="9">
+        <v>37000</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="61"/>
+      <c r="C38" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="9">
+        <v>11000</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="61"/>
+      <c r="C39" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="61"/>
+      <c r="C40" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="31">
+        <v>10000</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="64"/>
+      <c r="E43" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="64"/>
+      <c r="E44" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="48"/>
-      <c r="E30" s="41">
-        <f xml:space="preserve"> E27</f>
-        <v>3284000</v>
-      </c>
-      <c r="F30" s="41">
-        <f xml:space="preserve"> J27</f>
-        <v>1186666.6666666667</v>
-      </c>
-      <c r="G30" s="41">
-        <f xml:space="preserve"> E30 - F30</f>
-        <v>2097333.333333333</v>
-      </c>
-      <c r="H30" s="41">
-        <v>200000</v>
-      </c>
-      <c r="I30" s="41">
-        <f>G30+H30</f>
-        <v>2297333.333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="9">
-        <v>100000</v>
-      </c>
-      <c r="E32" s="49" t="s">
+      <c r="C45" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="64"/>
+      <c r="E45" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="63"/>
+      <c r="C46" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="64"/>
+      <c r="E46" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="63"/>
+      <c r="C47" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="64"/>
+      <c r="E47" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="64"/>
+      <c r="E48" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="63"/>
+      <c r="C49" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="66"/>
+      <c r="E49" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="64"/>
+      <c r="E50" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="63"/>
+      <c r="C51" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="64"/>
+      <c r="E51" s="36">
+        <v>101</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="64"/>
+      <c r="E52" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="63"/>
+      <c r="C53" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="64"/>
+      <c r="E53" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="63"/>
+      <c r="C54" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="64"/>
+      <c r="E54" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="63"/>
+      <c r="C55" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="64"/>
+      <c r="E55" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="63"/>
+      <c r="C56" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="64"/>
+      <c r="E56" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="63"/>
+      <c r="C57" s="64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="9">
-        <v>37000</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="9">
-        <v>11000</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
-      <c r="C35" s="8" t="s">
+      <c r="D57" s="64"/>
+      <c r="E57" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="63"/>
+      <c r="C58" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="64"/>
+      <c r="E58" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="63"/>
+      <c r="C59" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="64"/>
+      <c r="E59" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="63"/>
+      <c r="C60" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="64"/>
+      <c r="E60" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="62"/>
+      <c r="C61" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="9">
-        <v>100000</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="46"/>
-      <c r="C36" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="37">
-        <v>10000</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>1</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="53" t="s">
+      <c r="D61" s="64"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>2</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>3</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>4</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="34">
-        <v>101</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>5</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-    </row>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+    </row>
+    <row r="65" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
+  <mergeCells count="27">
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D48" r:id="rId1" xr:uid="{950024D8-46D9-465E-A69A-EF535EA0C0C8}"/>
+    <hyperlink ref="E52" r:id="rId1" xr:uid="{950024D8-46D9-465E-A69A-EF535EA0C0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BC4F8B-72D0-49DE-A13A-38F74F3E3FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F55254B-F31D-4B21-8C5F-1F5C7DB45083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
   <si>
     <t>[전업투자]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>넷플릭스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공과금 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요금전환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">서옥희 여사님 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID / PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,10 +410,6 @@
   </si>
   <si>
     <t>설/추석 에는 사람이 없어서 그때 집으로 모실 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID / PW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -470,6 +454,18 @@
   </si>
   <si>
     <t>예치금 계좌 우리은행 315-25-0007-690 (차의과학대학) 이체후 문자로 입금자명, 금액, 입금날짜, 환자명 보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARAQUE / *solocher83*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증서 : *solocher83*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbg613 / *solocher83*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,9 +808,6 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -896,17 +889,14 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,6 +918,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1269,7 +1262,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="59">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -1296,7 +1289,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -1321,7 +1314,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -1346,7 +1339,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -1371,7 +1364,7 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="23">
         <v>5</v>
       </c>
@@ -1397,7 +1390,7 @@
       <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -1422,7 +1415,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="23">
         <v>7</v>
       </c>
@@ -1447,7 +1440,7 @@
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="23">
         <v>8</v>
       </c>
@@ -1472,7 +1465,7 @@
       <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -1497,7 +1490,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -1522,7 +1515,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -1547,7 +1540,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="20">
         <v>12</v>
       </c>
@@ -1598,7 +1591,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="59">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -1634,7 +1627,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -1660,7 +1653,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -1686,7 +1679,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -1712,7 +1705,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1739,7 +1732,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -1765,7 +1758,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -1791,7 +1784,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -1817,7 +1810,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -1843,7 +1836,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -1869,7 +1862,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="61"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -1895,7 +1888,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="61"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="20">
         <v>12</v>
       </c>
@@ -1947,7 +1940,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="59">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -1983,7 +1976,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -2009,7 +2002,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -2035,7 +2028,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -2061,7 +2054,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="61"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -2088,7 +2081,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="61"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -2114,7 +2107,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -2140,7 +2133,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="61"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -2166,7 +2159,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="61"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -2192,7 +2185,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="61"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -2218,7 +2211,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -2244,7 +2237,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="61"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="20">
         <v>12</v>
       </c>
@@ -2296,7 +2289,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="61">
+      <c r="B39" s="59">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -2332,7 +2325,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="61"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -2358,7 +2351,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="61"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -2384,7 +2377,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="61"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -2410,7 +2403,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="61"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -2437,7 +2430,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="61"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -2463,7 +2456,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="61"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -2489,7 +2482,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="61"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -2515,7 +2508,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="61"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -2541,7 +2534,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="61"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -2567,7 +2560,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="61"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -2593,7 +2586,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="61"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="20">
         <v>12</v>
       </c>
@@ -2645,7 +2638,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="61">
+      <c r="B51" s="59">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -2681,7 +2674,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="61"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -2707,7 +2700,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="61"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -2733,7 +2726,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="61"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -2759,7 +2752,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="61"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -2786,7 +2779,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="61"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -2812,7 +2805,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="61"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -2838,7 +2831,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="61"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -2864,7 +2857,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="61"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -2890,7 +2883,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="61"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -2916,7 +2909,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="61"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -2942,7 +2935,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="61"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="20">
         <v>12</v>
       </c>
@@ -2994,7 +2987,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="61">
+      <c r="B63" s="59">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -3030,7 +3023,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="61"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -3056,7 +3049,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="61"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -3082,7 +3075,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="61"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -3108,7 +3101,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="61"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -3135,7 +3128,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="61"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -3162,7 +3155,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="61"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -3188,7 +3181,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="61"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -3214,7 +3207,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="61"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -3240,7 +3233,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="61"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -3266,7 +3259,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="61"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -3292,7 +3285,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="61"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="20">
         <v>12</v>
       </c>
@@ -3344,7 +3337,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="61">
+      <c r="B75" s="59">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -3380,7 +3373,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="61"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -3406,7 +3399,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="61"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -3432,7 +3425,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="61"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -3458,7 +3451,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="61"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -3485,7 +3478,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="61"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -3511,7 +3504,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="61"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -3537,7 +3530,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="61"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -3563,7 +3556,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="61"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -3589,7 +3582,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="61"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -3615,7 +3608,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="61"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -3641,7 +3634,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="61"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="20">
         <v>12</v>
       </c>
@@ -3693,7 +3686,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="61">
+      <c r="B87" s="59">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -3729,7 +3722,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="61"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -3755,7 +3748,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="61"/>
+      <c r="B89" s="59"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -3781,7 +3774,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="61"/>
+      <c r="B90" s="59"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -3807,7 +3800,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="61"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -3834,7 +3827,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="61"/>
+      <c r="B92" s="59"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -3860,7 +3853,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="61"/>
+      <c r="B93" s="59"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -3886,7 +3879,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="61"/>
+      <c r="B94" s="59"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -3912,7 +3905,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="61"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -3938,7 +3931,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="61"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -3964,7 +3957,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="61"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -3990,7 +3983,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="61"/>
+      <c r="B98" s="59"/>
       <c r="C98" s="20">
         <v>12</v>
       </c>
@@ -4042,7 +4035,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="61">
+      <c r="B99" s="59">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -4078,7 +4071,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="61"/>
+      <c r="B100" s="59"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -4104,7 +4097,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="61"/>
+      <c r="B101" s="59"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -4130,7 +4123,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="61"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -4156,7 +4149,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="61"/>
+      <c r="B103" s="59"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -4183,7 +4176,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="61"/>
+      <c r="B104" s="59"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -4209,7 +4202,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="61"/>
+      <c r="B105" s="59"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -4235,7 +4228,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="61"/>
+      <c r="B106" s="59"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -4261,7 +4254,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="61"/>
+      <c r="B107" s="59"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -4287,7 +4280,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="61"/>
+      <c r="B108" s="59"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -4313,7 +4306,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="61"/>
+      <c r="B109" s="59"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -4339,7 +4332,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="61"/>
+      <c r="B110" s="59"/>
       <c r="C110" s="20">
         <v>12</v>
       </c>
@@ -4391,7 +4384,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="61">
+      <c r="B111" s="59">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -4427,7 +4420,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="61"/>
+      <c r="B112" s="59"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -4453,7 +4446,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="61"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -4479,7 +4472,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="61"/>
+      <c r="B114" s="59"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -4505,7 +4498,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="61"/>
+      <c r="B115" s="59"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -4532,7 +4525,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="61"/>
+      <c r="B116" s="59"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -4558,7 +4551,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="61"/>
+      <c r="B117" s="59"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -4584,7 +4577,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="61"/>
+      <c r="B118" s="59"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -4610,7 +4603,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="61"/>
+      <c r="B119" s="59"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -4636,7 +4629,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="61"/>
+      <c r="B120" s="59"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -4662,7 +4655,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="61"/>
+      <c r="B121" s="59"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -4688,7 +4681,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="61"/>
+      <c r="B122" s="59"/>
       <c r="C122" s="20">
         <v>12</v>
       </c>
@@ -4740,7 +4733,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="61">
+      <c r="B123" s="59">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -4774,7 +4767,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="61"/>
+      <c r="B124" s="59"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -4798,7 +4791,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="61"/>
+      <c r="B125" s="59"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -4822,7 +4815,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="61"/>
+      <c r="B126" s="59"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -4846,7 +4839,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="61"/>
+      <c r="B127" s="59"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -4873,7 +4866,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="61"/>
+      <c r="B128" s="59"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -4897,7 +4890,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="61"/>
+      <c r="B129" s="59"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -4921,7 +4914,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="61"/>
+      <c r="B130" s="59"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -4945,7 +4938,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="61"/>
+      <c r="B131" s="59"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -4969,7 +4962,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="61"/>
+      <c r="B132" s="59"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -4993,7 +4986,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="61"/>
+      <c r="B133" s="59"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -5017,7 +5010,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="61"/>
+      <c r="B134" s="59"/>
       <c r="C134" s="20">
         <v>12</v>
       </c>
@@ -5069,7 +5062,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="59">
+      <c r="B135" s="60">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -5108,7 +5101,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="59"/>
+      <c r="B136" s="60"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -5132,7 +5125,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="59"/>
+      <c r="B137" s="60"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -5156,7 +5149,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="59"/>
+      <c r="B138" s="60"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -5180,7 +5173,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="59"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -5207,7 +5200,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="59"/>
+      <c r="B140" s="60"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -5231,7 +5224,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="59"/>
+      <c r="B141" s="60"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -5255,7 +5248,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="59"/>
+      <c r="B142" s="60"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -5279,7 +5272,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="59"/>
+      <c r="B143" s="60"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -5303,7 +5296,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="59"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -5327,7 +5320,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="59"/>
+      <c r="B145" s="60"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -5351,7 +5344,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="59"/>
+      <c r="B146" s="60"/>
       <c r="C146" s="20">
         <v>12</v>
       </c>
@@ -5403,7 +5396,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="59">
+      <c r="B147" s="60">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -5437,7 +5430,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="59"/>
+      <c r="B148" s="60"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -5461,7 +5454,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="59"/>
+      <c r="B149" s="60"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -5485,7 +5478,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="59"/>
+      <c r="B150" s="60"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -5509,7 +5502,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="59"/>
+      <c r="B151" s="60"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -5536,7 +5529,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="59"/>
+      <c r="B152" s="60"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -5560,7 +5553,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="59"/>
+      <c r="B153" s="60"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -5584,7 +5577,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="59"/>
+      <c r="B154" s="60"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -5608,7 +5601,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="59"/>
+      <c r="B155" s="60"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -5632,7 +5625,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="59"/>
+      <c r="B156" s="60"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -5656,7 +5649,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="59"/>
+      <c r="B157" s="60"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -5680,7 +5673,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="59"/>
+      <c r="B158" s="60"/>
       <c r="C158" s="20">
         <v>12</v>
       </c>
@@ -5732,7 +5725,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="59">
+      <c r="B159" s="60">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -5766,7 +5759,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="59"/>
+      <c r="B160" s="60"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -5790,7 +5783,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="59"/>
+      <c r="B161" s="60"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -5814,7 +5807,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="59"/>
+      <c r="B162" s="60"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -5838,7 +5831,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="59"/>
+      <c r="B163" s="60"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -5865,7 +5858,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="59"/>
+      <c r="B164" s="60"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -5889,7 +5882,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="59"/>
+      <c r="B165" s="60"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -5913,7 +5906,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="59"/>
+      <c r="B166" s="60"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -5937,7 +5930,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="59"/>
+      <c r="B167" s="60"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -5961,7 +5954,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="59"/>
+      <c r="B168" s="60"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -5985,7 +5978,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="59"/>
+      <c r="B169" s="60"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -6009,7 +6002,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="59"/>
+      <c r="B170" s="60"/>
       <c r="C170" s="20">
         <v>12</v>
       </c>
@@ -6061,7 +6054,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="59">
+      <c r="B171" s="60">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -6095,7 +6088,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="59"/>
+      <c r="B172" s="60"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -6119,7 +6112,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="59"/>
+      <c r="B173" s="60"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -6143,7 +6136,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="59"/>
+      <c r="B174" s="60"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -6167,7 +6160,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="59"/>
+      <c r="B175" s="60"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -6194,7 +6187,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="59"/>
+      <c r="B176" s="60"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -6218,7 +6211,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="59"/>
+      <c r="B177" s="60"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -6242,7 +6235,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="59"/>
+      <c r="B178" s="60"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -6266,7 +6259,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="59"/>
+      <c r="B179" s="60"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -6290,7 +6283,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="59"/>
+      <c r="B180" s="60"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -6314,7 +6307,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="59"/>
+      <c r="B181" s="60"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -6338,7 +6331,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="59"/>
+      <c r="B182" s="60"/>
       <c r="C182" s="20">
         <v>12</v>
       </c>
@@ -6390,7 +6383,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="59">
+      <c r="B183" s="60">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -6424,7 +6417,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="59"/>
+      <c r="B184" s="60"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -6448,7 +6441,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="59"/>
+      <c r="B185" s="60"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -6472,7 +6465,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="59"/>
+      <c r="B186" s="60"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -6496,7 +6489,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="59"/>
+      <c r="B187" s="60"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -6523,7 +6516,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="59"/>
+      <c r="B188" s="60"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -6547,7 +6540,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="59"/>
+      <c r="B189" s="60"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -6571,7 +6564,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="59"/>
+      <c r="B190" s="60"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -6595,7 +6588,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="59"/>
+      <c r="B191" s="60"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -6619,7 +6612,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="59"/>
+      <c r="B192" s="60"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -6643,7 +6636,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="59"/>
+      <c r="B193" s="60"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -6667,7 +6660,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="59"/>
+      <c r="B194" s="60"/>
       <c r="C194" s="20">
         <v>12</v>
       </c>
@@ -6719,7 +6712,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="60">
+      <c r="B195" s="58">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -6756,7 +6749,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="60"/>
+      <c r="B196" s="58"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -6780,7 +6773,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="60"/>
+      <c r="B197" s="58"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -6804,7 +6797,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="60"/>
+      <c r="B198" s="58"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -6828,7 +6821,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="60"/>
+      <c r="B199" s="58"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -6855,7 +6848,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="60"/>
+      <c r="B200" s="58"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -6879,7 +6872,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="60"/>
+      <c r="B201" s="58"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -6903,7 +6896,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="60"/>
+      <c r="B202" s="58"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -6927,7 +6920,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="60"/>
+      <c r="B203" s="58"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -6951,7 +6944,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="60"/>
+      <c r="B204" s="58"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -6975,7 +6968,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="60"/>
+      <c r="B205" s="58"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -6999,7 +6992,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="60"/>
+      <c r="B206" s="58"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -7051,7 +7044,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="60">
+      <c r="B207" s="58">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -7085,7 +7078,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="60"/>
+      <c r="B208" s="58"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -7109,7 +7102,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="60"/>
+      <c r="B209" s="58"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -7133,7 +7126,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="60"/>
+      <c r="B210" s="58"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -7157,7 +7150,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="60"/>
+      <c r="B211" s="58"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -7184,7 +7177,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="60"/>
+      <c r="B212" s="58"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -7208,7 +7201,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="60"/>
+      <c r="B213" s="58"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -7232,7 +7225,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="60"/>
+      <c r="B214" s="58"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -7256,7 +7249,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="60"/>
+      <c r="B215" s="58"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -7280,7 +7273,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="60"/>
+      <c r="B216" s="58"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -7304,7 +7297,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="60"/>
+      <c r="B217" s="58"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -7328,7 +7321,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="60"/>
+      <c r="B218" s="58"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -7380,7 +7373,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="60">
+      <c r="B219" s="58">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -7414,7 +7407,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="60"/>
+      <c r="B220" s="58"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -7438,7 +7431,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="60"/>
+      <c r="B221" s="58"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -7462,7 +7455,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="60"/>
+      <c r="B222" s="58"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -7486,7 +7479,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="60"/>
+      <c r="B223" s="58"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -7513,7 +7506,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="60"/>
+      <c r="B224" s="58"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -7537,7 +7530,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="60"/>
+      <c r="B225" s="58"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -7561,7 +7554,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="60"/>
+      <c r="B226" s="58"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -7585,7 +7578,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="60"/>
+      <c r="B227" s="58"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -7609,7 +7602,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="60"/>
+      <c r="B228" s="58"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -7633,7 +7626,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="60"/>
+      <c r="B229" s="58"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -7657,7 +7650,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="60"/>
+      <c r="B230" s="58"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -7709,7 +7702,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="60">
+      <c r="B231" s="58">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -7743,7 +7736,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="60"/>
+      <c r="B232" s="58"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -7767,7 +7760,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="60"/>
+      <c r="B233" s="58"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -7791,7 +7784,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="60"/>
+      <c r="B234" s="58"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -7815,7 +7808,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="60"/>
+      <c r="B235" s="58"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -7842,7 +7835,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="60"/>
+      <c r="B236" s="58"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -7866,7 +7859,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="60"/>
+      <c r="B237" s="58"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -7890,7 +7883,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="60"/>
+      <c r="B238" s="58"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -7914,7 +7907,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="60"/>
+      <c r="B239" s="58"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -7938,7 +7931,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="60"/>
+      <c r="B240" s="58"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -7962,7 +7955,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="60"/>
+      <c r="B241" s="58"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -7986,7 +7979,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="60"/>
+      <c r="B242" s="58"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -8038,7 +8031,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="60">
+      <c r="B243" s="58">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -8073,7 +8066,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="60"/>
+      <c r="B244" s="58"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -8103,7 +8096,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="60"/>
+      <c r="B245" s="58"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -8133,7 +8126,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="60"/>
+      <c r="B246" s="58"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -8163,7 +8156,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="60"/>
+      <c r="B247" s="58"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -8196,7 +8189,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="60"/>
+      <c r="B248" s="58"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -8226,7 +8219,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="60"/>
+      <c r="B249" s="58"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -8256,7 +8249,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="60"/>
+      <c r="B250" s="58"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -8286,7 +8279,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="60"/>
+      <c r="B251" s="58"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -8316,7 +8309,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="60"/>
+      <c r="B252" s="58"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -8346,7 +8339,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="60"/>
+      <c r="B253" s="58"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -8376,7 +8369,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="60"/>
+      <c r="B254" s="58"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -8423,6 +8416,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
     <mergeCell ref="B243:B254"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -8439,11 +8437,6 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8511,7 +8504,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="59">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -8538,7 +8531,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -8563,7 +8556,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -8588,7 +8581,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -8613,7 +8606,7 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="23">
         <v>5</v>
       </c>
@@ -8639,7 +8632,7 @@
       <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -8664,7 +8657,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="23">
         <v>7</v>
       </c>
@@ -8689,7 +8682,7 @@
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="23">
         <v>8</v>
       </c>
@@ -8714,7 +8707,7 @@
       <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -8739,7 +8732,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -8764,7 +8757,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -8789,7 +8782,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="20">
         <v>12</v>
       </c>
@@ -8840,7 +8833,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="59">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -8876,7 +8869,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -8902,7 +8895,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -8928,7 +8921,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -8954,7 +8947,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -8981,7 +8974,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -9007,7 +9000,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -9033,7 +9026,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -9059,7 +9052,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -9085,7 +9078,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -9111,7 +9104,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="61"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -9137,7 +9130,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="61"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="20">
         <v>12</v>
       </c>
@@ -9189,7 +9182,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="59">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -9225,7 +9218,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -9251,7 +9244,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -9277,7 +9270,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -9303,7 +9296,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="61"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -9330,7 +9323,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="61"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -9356,7 +9349,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -9382,7 +9375,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="61"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -9408,7 +9401,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="61"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -9434,7 +9427,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="61"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -9460,7 +9453,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -9486,7 +9479,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="61"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="20">
         <v>12</v>
       </c>
@@ -9538,7 +9531,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="61">
+      <c r="B39" s="59">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -9574,7 +9567,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="61"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -9600,7 +9593,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="61"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -9626,7 +9619,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="61"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -9652,7 +9645,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="61"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -9679,7 +9672,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="61"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -9705,7 +9698,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="61"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -9731,7 +9724,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="61"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -9757,7 +9750,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="61"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -9783,7 +9776,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="61"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -9809,7 +9802,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="61"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -9835,7 +9828,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="61"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="20">
         <v>12</v>
       </c>
@@ -9887,7 +9880,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="61">
+      <c r="B51" s="59">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -9923,7 +9916,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="61"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -9949,7 +9942,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="61"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -9975,7 +9968,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="61"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -10001,7 +9994,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="61"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -10028,7 +10021,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="61"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -10054,7 +10047,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="61"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -10080,7 +10073,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="61"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -10106,7 +10099,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="61"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -10132,7 +10125,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="61"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -10158,7 +10151,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="61"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -10184,7 +10177,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="61"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="20">
         <v>12</v>
       </c>
@@ -10236,7 +10229,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="61">
+      <c r="B63" s="59">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -10272,7 +10265,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="61"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -10298,7 +10291,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="61"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -10324,7 +10317,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="61"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -10350,7 +10343,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="61"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -10377,7 +10370,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="61"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -10404,7 +10397,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="61"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -10430,7 +10423,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="61"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -10456,7 +10449,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="61"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -10482,7 +10475,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="61"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -10508,7 +10501,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="61"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -10534,7 +10527,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="61"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="20">
         <v>12</v>
       </c>
@@ -10586,7 +10579,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="61">
+      <c r="B75" s="59">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -10622,7 +10615,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="61"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -10648,7 +10641,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="61"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -10674,7 +10667,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="61"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -10700,7 +10693,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="61"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -10727,7 +10720,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="61"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -10753,7 +10746,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="61"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -10779,7 +10772,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="61"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -10805,7 +10798,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="61"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -10831,7 +10824,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="61"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -10857,7 +10850,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="61"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -10883,7 +10876,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="61"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="20">
         <v>12</v>
       </c>
@@ -10935,7 +10928,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="61">
+      <c r="B87" s="59">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -10971,7 +10964,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="61"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -10997,7 +10990,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="61"/>
+      <c r="B89" s="59"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -11023,7 +11016,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="61"/>
+      <c r="B90" s="59"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -11049,7 +11042,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="61"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -11076,7 +11069,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="61"/>
+      <c r="B92" s="59"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -11102,7 +11095,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="61"/>
+      <c r="B93" s="59"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -11128,7 +11121,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="61"/>
+      <c r="B94" s="59"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -11154,7 +11147,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="61"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -11180,7 +11173,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="61"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -11206,7 +11199,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="61"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -11232,7 +11225,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="61"/>
+      <c r="B98" s="59"/>
       <c r="C98" s="20">
         <v>12</v>
       </c>
@@ -11284,7 +11277,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="61">
+      <c r="B99" s="59">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -11320,7 +11313,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="61"/>
+      <c r="B100" s="59"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -11346,7 +11339,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="61"/>
+      <c r="B101" s="59"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -11372,7 +11365,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="61"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -11398,7 +11391,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="61"/>
+      <c r="B103" s="59"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -11425,7 +11418,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="61"/>
+      <c r="B104" s="59"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -11451,7 +11444,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="61"/>
+      <c r="B105" s="59"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -11477,7 +11470,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="61"/>
+      <c r="B106" s="59"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -11503,7 +11496,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="61"/>
+      <c r="B107" s="59"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -11529,7 +11522,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="61"/>
+      <c r="B108" s="59"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -11555,7 +11548,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="61"/>
+      <c r="B109" s="59"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -11581,7 +11574,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="61"/>
+      <c r="B110" s="59"/>
       <c r="C110" s="20">
         <v>12</v>
       </c>
@@ -11633,7 +11626,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="61">
+      <c r="B111" s="59">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -11669,7 +11662,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="61"/>
+      <c r="B112" s="59"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -11695,7 +11688,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="61"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -11721,7 +11714,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="61"/>
+      <c r="B114" s="59"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -11747,7 +11740,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="61"/>
+      <c r="B115" s="59"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -11774,7 +11767,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="61"/>
+      <c r="B116" s="59"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -11800,7 +11793,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="61"/>
+      <c r="B117" s="59"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -11826,7 +11819,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="61"/>
+      <c r="B118" s="59"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -11852,7 +11845,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="61"/>
+      <c r="B119" s="59"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -11878,7 +11871,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="61"/>
+      <c r="B120" s="59"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -11904,7 +11897,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="61"/>
+      <c r="B121" s="59"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -11930,7 +11923,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="61"/>
+      <c r="B122" s="59"/>
       <c r="C122" s="20">
         <v>12</v>
       </c>
@@ -11982,7 +11975,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="61">
+      <c r="B123" s="59">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -12016,7 +12009,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="61"/>
+      <c r="B124" s="59"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -12040,7 +12033,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="61"/>
+      <c r="B125" s="59"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -12064,7 +12057,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="61"/>
+      <c r="B126" s="59"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -12088,7 +12081,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="61"/>
+      <c r="B127" s="59"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -12115,7 +12108,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="61"/>
+      <c r="B128" s="59"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -12139,7 +12132,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="61"/>
+      <c r="B129" s="59"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -12163,7 +12156,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="61"/>
+      <c r="B130" s="59"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -12187,7 +12180,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="61"/>
+      <c r="B131" s="59"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -12211,7 +12204,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="61"/>
+      <c r="B132" s="59"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -12235,7 +12228,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="61"/>
+      <c r="B133" s="59"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -12259,7 +12252,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="61"/>
+      <c r="B134" s="59"/>
       <c r="C134" s="20">
         <v>12</v>
       </c>
@@ -12311,7 +12304,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="59">
+      <c r="B135" s="60">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -12350,7 +12343,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="59"/>
+      <c r="B136" s="60"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -12374,7 +12367,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="59"/>
+      <c r="B137" s="60"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -12398,7 +12391,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="59"/>
+      <c r="B138" s="60"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -12422,7 +12415,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="59"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -12449,7 +12442,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="59"/>
+      <c r="B140" s="60"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -12473,7 +12466,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="59"/>
+      <c r="B141" s="60"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -12497,7 +12490,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="59"/>
+      <c r="B142" s="60"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -12521,7 +12514,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="59"/>
+      <c r="B143" s="60"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -12545,7 +12538,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="59"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -12569,7 +12562,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="59"/>
+      <c r="B145" s="60"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -12593,7 +12586,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="59"/>
+      <c r="B146" s="60"/>
       <c r="C146" s="20">
         <v>12</v>
       </c>
@@ -12645,7 +12638,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="59">
+      <c r="B147" s="60">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -12679,7 +12672,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="59"/>
+      <c r="B148" s="60"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -12703,7 +12696,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="59"/>
+      <c r="B149" s="60"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -12727,7 +12720,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="59"/>
+      <c r="B150" s="60"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -12751,7 +12744,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="59"/>
+      <c r="B151" s="60"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -12778,7 +12771,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="59"/>
+      <c r="B152" s="60"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -12802,7 +12795,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="59"/>
+      <c r="B153" s="60"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -12826,7 +12819,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="59"/>
+      <c r="B154" s="60"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -12850,7 +12843,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="59"/>
+      <c r="B155" s="60"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -12874,7 +12867,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="59"/>
+      <c r="B156" s="60"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -12898,7 +12891,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="59"/>
+      <c r="B157" s="60"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -12922,7 +12915,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="59"/>
+      <c r="B158" s="60"/>
       <c r="C158" s="20">
         <v>12</v>
       </c>
@@ -12974,7 +12967,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="59">
+      <c r="B159" s="60">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -13008,7 +13001,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="59"/>
+      <c r="B160" s="60"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -13032,7 +13025,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="59"/>
+      <c r="B161" s="60"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -13056,7 +13049,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="59"/>
+      <c r="B162" s="60"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -13080,7 +13073,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="59"/>
+      <c r="B163" s="60"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -13107,7 +13100,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="59"/>
+      <c r="B164" s="60"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -13131,7 +13124,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="59"/>
+      <c r="B165" s="60"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -13155,7 +13148,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="59"/>
+      <c r="B166" s="60"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -13179,7 +13172,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="59"/>
+      <c r="B167" s="60"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -13203,7 +13196,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="59"/>
+      <c r="B168" s="60"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -13227,7 +13220,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="59"/>
+      <c r="B169" s="60"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -13251,7 +13244,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="59"/>
+      <c r="B170" s="60"/>
       <c r="C170" s="20">
         <v>12</v>
       </c>
@@ -13303,7 +13296,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="59">
+      <c r="B171" s="60">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -13337,7 +13330,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="59"/>
+      <c r="B172" s="60"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -13361,7 +13354,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="59"/>
+      <c r="B173" s="60"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -13385,7 +13378,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="59"/>
+      <c r="B174" s="60"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -13409,7 +13402,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="59"/>
+      <c r="B175" s="60"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -13436,7 +13429,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="59"/>
+      <c r="B176" s="60"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -13460,7 +13453,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="59"/>
+      <c r="B177" s="60"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -13484,7 +13477,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="59"/>
+      <c r="B178" s="60"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -13508,7 +13501,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="59"/>
+      <c r="B179" s="60"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -13532,7 +13525,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="59"/>
+      <c r="B180" s="60"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -13556,7 +13549,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="59"/>
+      <c r="B181" s="60"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -13580,7 +13573,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="59"/>
+      <c r="B182" s="60"/>
       <c r="C182" s="20">
         <v>12</v>
       </c>
@@ -13632,7 +13625,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="59">
+      <c r="B183" s="60">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -13666,7 +13659,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="59"/>
+      <c r="B184" s="60"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -13690,7 +13683,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="59"/>
+      <c r="B185" s="60"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -13714,7 +13707,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="59"/>
+      <c r="B186" s="60"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -13738,7 +13731,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="59"/>
+      <c r="B187" s="60"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -13765,7 +13758,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="59"/>
+      <c r="B188" s="60"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -13789,7 +13782,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="59"/>
+      <c r="B189" s="60"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -13813,7 +13806,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="59"/>
+      <c r="B190" s="60"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -13837,7 +13830,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="59"/>
+      <c r="B191" s="60"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -13861,7 +13854,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="59"/>
+      <c r="B192" s="60"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -13885,7 +13878,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="59"/>
+      <c r="B193" s="60"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -13909,7 +13902,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="59"/>
+      <c r="B194" s="60"/>
       <c r="C194" s="20">
         <v>12</v>
       </c>
@@ -13961,7 +13954,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="60">
+      <c r="B195" s="58">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -13998,7 +13991,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="60"/>
+      <c r="B196" s="58"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -14022,7 +14015,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="60"/>
+      <c r="B197" s="58"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -14046,7 +14039,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="60"/>
+      <c r="B198" s="58"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -14070,7 +14063,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="60"/>
+      <c r="B199" s="58"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -14097,7 +14090,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="60"/>
+      <c r="B200" s="58"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -14121,7 +14114,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="60"/>
+      <c r="B201" s="58"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -14145,7 +14138,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="60"/>
+      <c r="B202" s="58"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -14169,7 +14162,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="60"/>
+      <c r="B203" s="58"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -14193,7 +14186,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="60"/>
+      <c r="B204" s="58"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -14217,7 +14210,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="60"/>
+      <c r="B205" s="58"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -14241,7 +14234,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="60"/>
+      <c r="B206" s="58"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -14293,7 +14286,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="60">
+      <c r="B207" s="58">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -14327,7 +14320,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="60"/>
+      <c r="B208" s="58"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -14351,7 +14344,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="60"/>
+      <c r="B209" s="58"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -14375,7 +14368,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="60"/>
+      <c r="B210" s="58"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -14399,7 +14392,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="60"/>
+      <c r="B211" s="58"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -14426,7 +14419,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="60"/>
+      <c r="B212" s="58"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -14450,7 +14443,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="60"/>
+      <c r="B213" s="58"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -14474,7 +14467,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="60"/>
+      <c r="B214" s="58"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -14498,7 +14491,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="60"/>
+      <c r="B215" s="58"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -14522,7 +14515,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="60"/>
+      <c r="B216" s="58"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -14546,7 +14539,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="60"/>
+      <c r="B217" s="58"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -14570,7 +14563,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="60"/>
+      <c r="B218" s="58"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -14622,7 +14615,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="60">
+      <c r="B219" s="58">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -14656,7 +14649,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="60"/>
+      <c r="B220" s="58"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -14680,7 +14673,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="60"/>
+      <c r="B221" s="58"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -14704,7 +14697,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="60"/>
+      <c r="B222" s="58"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -14728,7 +14721,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="60"/>
+      <c r="B223" s="58"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -14755,7 +14748,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="60"/>
+      <c r="B224" s="58"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -14779,7 +14772,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="60"/>
+      <c r="B225" s="58"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -14803,7 +14796,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="60"/>
+      <c r="B226" s="58"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -14827,7 +14820,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="60"/>
+      <c r="B227" s="58"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -14851,7 +14844,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="60"/>
+      <c r="B228" s="58"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -14875,7 +14868,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="60"/>
+      <c r="B229" s="58"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -14899,7 +14892,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="60"/>
+      <c r="B230" s="58"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -14951,7 +14944,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="60">
+      <c r="B231" s="58">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -14985,7 +14978,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="60"/>
+      <c r="B232" s="58"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -15009,7 +15002,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="60"/>
+      <c r="B233" s="58"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -15033,7 +15026,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="60"/>
+      <c r="B234" s="58"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -15057,7 +15050,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="60"/>
+      <c r="B235" s="58"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -15084,7 +15077,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="60"/>
+      <c r="B236" s="58"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -15108,7 +15101,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="60"/>
+      <c r="B237" s="58"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -15132,7 +15125,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="60"/>
+      <c r="B238" s="58"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -15156,7 +15149,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="60"/>
+      <c r="B239" s="58"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -15180,7 +15173,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="60"/>
+      <c r="B240" s="58"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -15204,7 +15197,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="60"/>
+      <c r="B241" s="58"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -15228,7 +15221,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="60"/>
+      <c r="B242" s="58"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -15280,7 +15273,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="60">
+      <c r="B243" s="58">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -15315,7 +15308,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="60"/>
+      <c r="B244" s="58"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -15345,7 +15338,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="60"/>
+      <c r="B245" s="58"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -15375,7 +15368,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="60"/>
+      <c r="B246" s="58"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -15405,7 +15398,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="60"/>
+      <c r="B247" s="58"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -15438,7 +15431,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="60"/>
+      <c r="B248" s="58"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -15468,7 +15461,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="60"/>
+      <c r="B249" s="58"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -15498,7 +15491,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="60"/>
+      <c r="B250" s="58"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -15528,7 +15521,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="60"/>
+      <c r="B251" s="58"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -15558,7 +15551,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="60"/>
+      <c r="B252" s="58"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -15588,7 +15581,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="60"/>
+      <c r="B253" s="58"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -15618,7 +15611,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="60"/>
+      <c r="B254" s="58"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -15665,6 +15658,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
+    <mergeCell ref="B243:B254"/>
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="B159:B170"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
     <mergeCell ref="B135:B146"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -15677,15 +15679,6 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
-    <mergeCell ref="B243:B254"/>
-    <mergeCell ref="B147:B158"/>
-    <mergeCell ref="B159:B170"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15885,7 +15878,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1">
         <v>6930000</v>
@@ -15943,7 +15936,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1">
         <v>3000000</v>
@@ -16043,10 +16036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:K65"/>
+  <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16063,66 +16056,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="27"/>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="50" t="s">
         <v>25</v>
       </c>
     </row>
@@ -16130,7 +16123,7 @@
       <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>12</v>
       </c>
       <c r="D5" s="12">
@@ -16143,7 +16136,7 @@
       <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="47">
         <v>12</v>
       </c>
       <c r="I5" s="13">
@@ -16158,7 +16151,7 @@
       <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>36</v>
       </c>
       <c r="D6" s="13">
@@ -16171,7 +16164,7 @@
       <c r="G6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>1</v>
       </c>
       <c r="I6" s="19">
@@ -16186,7 +16179,7 @@
       <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>52</v>
       </c>
       <c r="D7" s="19">
@@ -16197,7 +16190,7 @@
         <v>6240000</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
@@ -16205,7 +16198,7 @@
       <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>18</v>
       </c>
       <c r="D8" s="19">
@@ -16216,7 +16209,7 @@
         <v>7200000</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="37"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
@@ -16224,7 +16217,7 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <v>12</v>
       </c>
       <c r="D9" s="13">
@@ -16235,7 +16228,7 @@
         <v>4368000</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="37"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
@@ -16243,7 +16236,7 @@
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <v>12</v>
       </c>
       <c r="D10" s="13">
@@ -16254,15 +16247,15 @@
         <v>3120000</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="37"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="48">
+        <v>102</v>
+      </c>
+      <c r="C11" s="47">
         <v>52</v>
       </c>
       <c r="D11" s="13">
@@ -16273,7 +16266,7 @@
         <v>1040000</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="37"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9">
         <f>SUM(J5:J9)</f>
@@ -16282,22 +16275,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <f>SUM(E5:E11)</f>
         <v>29492000</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="37"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="50">
+      <c r="B13" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="49">
         <v>12</v>
       </c>
       <c r="D13" s="21">
@@ -16308,10 +16301,10 @@
         <f xml:space="preserve"> D13 / C13</f>
         <v>2457666.6666666665</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="50">
+      <c r="G13" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="49">
         <v>12</v>
       </c>
       <c r="I13" s="21">
@@ -16324,108 +16317,108 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="65"/>
-      <c r="E16" s="35">
+      <c r="D16" s="63"/>
+      <c r="E16" s="34">
         <f xml:space="preserve"> E13</f>
         <v>2457666.6666666665</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="34">
         <f xml:space="preserve"> J13</f>
         <v>486666.66666666669</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <f xml:space="preserve"> E16 - F16</f>
         <v>1970999.9999999998</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>200000</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <f>G16+H16</f>
         <v>2171000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
+      <c r="A19" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="66" t="s">
+      <c r="A20" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="G20" s="66" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="G20" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="H21" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="50" t="s">
         <v>25</v>
       </c>
     </row>
@@ -16433,7 +16426,7 @@
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="47">
         <v>12</v>
       </c>
       <c r="D22" s="12">
@@ -16446,7 +16439,7 @@
       <c r="G22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="47">
         <v>12</v>
       </c>
       <c r="I22" s="13">
@@ -16461,7 +16454,7 @@
       <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="47">
         <v>36</v>
       </c>
       <c r="D23" s="13">
@@ -16472,9 +16465,9 @@
         <v>5400000</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="49">
+        <v>45</v>
+      </c>
+      <c r="H23" s="48">
         <v>1</v>
       </c>
       <c r="I23" s="19">
@@ -16489,7 +16482,7 @@
       <c r="B24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="48">
         <v>52</v>
       </c>
       <c r="D24" s="19">
@@ -16500,27 +16493,27 @@
         <v>6240000</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="56">
+        <v>101</v>
+      </c>
+      <c r="H24" s="55">
         <v>12</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="56">
         <v>770000</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="56">
         <f xml:space="preserve"> H24 * I24</f>
         <v>9240000</v>
       </c>
-      <c r="K24" s="38" t="s">
-        <v>93</v>
+      <c r="K24" s="37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="48">
         <v>18</v>
       </c>
       <c r="D25" s="19">
@@ -16531,7 +16524,7 @@
         <v>7200000</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="37"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
@@ -16539,7 +16532,7 @@
       <c r="B26" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="47">
         <v>12</v>
       </c>
       <c r="D26" s="13">
@@ -16549,11 +16542,9 @@
         <f t="shared" si="1"/>
         <v>4368000</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>82</v>
-      </c>
+      <c r="F26" s="37"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="37"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
@@ -16561,7 +16552,7 @@
       <c r="B27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="47">
         <v>12</v>
       </c>
       <c r="D27" s="13">
@@ -16571,11 +16562,9 @@
         <f t="shared" si="1"/>
         <v>3120000</v>
       </c>
-      <c r="F27" s="38" t="s">
-        <v>82</v>
-      </c>
+      <c r="F27" s="37"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="37"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
     </row>
@@ -16583,18 +16572,18 @@
       <c r="B28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="55">
         <v>52</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="56">
         <v>200000</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="57">
         <f t="shared" si="1"/>
         <v>10400000</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="37"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9">
         <f>SUM(J22:J26)</f>
@@ -16603,9 +16592,9 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="48">
+        <v>102</v>
+      </c>
+      <c r="C29" s="47">
         <v>52</v>
       </c>
       <c r="D29" s="13">
@@ -16616,28 +16605,28 @@
         <v>1040000</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="37"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
         <f>SUM(E22:E29)</f>
         <v>39892000</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="37"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="50">
+      <c r="B31" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="49">
         <v>12</v>
       </c>
       <c r="D31" s="21">
@@ -16648,10 +16637,10 @@
         <f xml:space="preserve"> D31 / C31</f>
         <v>3324333.3333333335</v>
       </c>
-      <c r="G31" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="50">
+      <c r="G31" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="49">
         <v>12</v>
       </c>
       <c r="I31" s="21">
@@ -16664,393 +16653,374 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="32"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="G33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="H33" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="I33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="34" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D34" s="65"/>
-      <c r="E34" s="35">
+      <c r="D34" s="63"/>
+      <c r="E34" s="34">
         <f xml:space="preserve"> E31</f>
         <v>3324333.3333333335</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="34">
         <f xml:space="preserve"> J31</f>
         <v>1256666.6666666667</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="34">
         <f xml:space="preserve"> E34 - F34</f>
         <v>2067666.6666666667</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="34">
         <v>200000</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="34">
         <f>G34+H34</f>
         <v>2267666.666666667</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="52" t="s">
+      <c r="B36" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="9">
         <v>100000</v>
       </c>
-      <c r="E36" s="38" t="s">
-        <v>82</v>
-      </c>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="63"/>
-      <c r="C37" s="52" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="9">
         <v>37000</v>
       </c>
-      <c r="E37" s="38" t="s">
-        <v>82</v>
-      </c>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="63"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="61"/>
+      <c r="C38" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="9">
         <v>11000</v>
       </c>
-      <c r="E38" s="38" t="s">
-        <v>82</v>
-      </c>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="63"/>
-      <c r="C39" s="52" t="s">
+      <c r="B39" s="61"/>
+      <c r="C39" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="9">
         <v>100000</v>
       </c>
-      <c r="E39" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="63"/>
-      <c r="C40" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="31">
-        <v>10000</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="2:9" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="68"/>
+      <c r="E42" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="39" t="s">
+      <c r="B43" s="52"/>
+      <c r="C43" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="68"/>
+      <c r="E43" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="53"/>
-      <c r="C44" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="D44" s="68"/>
+      <c r="E44" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="36" t="s">
-        <v>72</v>
+      <c r="B45" s="52"/>
+      <c r="C45" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="68"/>
+      <c r="E45" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="53"/>
-      <c r="C46" s="62" t="s">
+      <c r="B46" s="52"/>
+      <c r="C46" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="36" t="s">
+      <c r="D46" s="68"/>
+      <c r="E46" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="53"/>
-      <c r="C47" s="62" t="s">
+      <c r="B47" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="68"/>
+      <c r="E47" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="52"/>
+      <c r="C48" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="68"/>
+      <c r="E49" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="52"/>
+      <c r="C50" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="62" t="s">
+      <c r="D50" s="68"/>
+      <c r="E50" s="35">
+        <v>101</v>
+      </c>
+      <c r="F50" s="37"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="68"/>
+      <c r="E51" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="53"/>
-      <c r="C51" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="36">
-        <v>101</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="B52" s="52"/>
+      <c r="C52" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="68"/>
+      <c r="E52" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="53"/>
-      <c r="C53" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="36" t="s">
-        <v>61</v>
+      <c r="B53" s="52"/>
+      <c r="C53" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="68"/>
+      <c r="E53" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="53"/>
-      <c r="C54" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="62"/>
-      <c r="E54" s="36" t="s">
-        <v>78</v>
+      <c r="B54" s="52"/>
+      <c r="C54" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="68"/>
+      <c r="E54" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="53"/>
-      <c r="C55" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="36" t="s">
+      <c r="B55" s="52"/>
+      <c r="C55" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="53"/>
-      <c r="C56" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B56" s="52"/>
+      <c r="C56" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="68"/>
+      <c r="E56" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="8"/>
       <c r="G56" s="8"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="53"/>
-      <c r="C57" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="36" t="s">
-        <v>84</v>
+      <c r="B57" s="52"/>
+      <c r="C57" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="68"/>
+      <c r="E57" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="53"/>
-      <c r="C58" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="62"/>
-      <c r="E58" s="36" t="s">
-        <v>69</v>
+      <c r="B58" s="52"/>
+      <c r="C58" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="68"/>
+      <c r="E58" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="53"/>
-      <c r="C59" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="36" t="s">
-        <v>81</v>
+      <c r="B59" s="52"/>
+      <c r="C59" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="68"/>
+      <c r="E59" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="53"/>
-      <c r="C60" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-    </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="52"/>
-      <c r="C61" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-    </row>
-    <row r="65" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B61" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+    </row>
+    <row r="63" spans="2:7" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B36:B40"/>
+  <mergeCells count="26">
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
@@ -17059,28 +17029,10 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="G20:J20"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E52" r:id="rId1" xr:uid="{950024D8-46D9-465E-A69A-EF535EA0C0C8}"/>
+    <hyperlink ref="E51" r:id="rId1" xr:uid="{950024D8-46D9-465E-A69A-EF535EA0C0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F55254B-F31D-4B21-8C5F-1F5C7DB45083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17F6E54-8A36-4332-9D4E-CDCAD5054344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
     <sheet name="생활패턴" sheetId="5" r:id="rId3"/>
     <sheet name="병원지출" sheetId="6" r:id="rId4"/>
+    <sheet name="지출2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
   <si>
     <t>[전업투자]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +467,18 @@
   </si>
   <si>
     <t>sbg613 / *solocher83*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활패턴E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활패턴F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초생활수급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,7 +1220,7 @@
   <dimension ref="A1:P254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5020,41 +5033,41 @@
       </c>
       <c r="E134" s="21">
         <f t="shared" si="14"/>
-        <v>642285761.66015005</v>
+        <v>636285761.66015005</v>
       </c>
       <c r="F134" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G134" s="21">
         <f t="shared" si="11"/>
-        <v>653846905.37003279</v>
+        <v>647738905.37003279</v>
       </c>
       <c r="H134" s="21"/>
       <c r="I134" s="26">
-        <v>30000000</v>
+        <v>36000000</v>
       </c>
       <c r="J134" s="21">
         <f xml:space="preserve"> (E123 + SUM(D124:D134)) - SUM(I124:I134)</f>
-        <v>550168160.00279617</v>
+        <v>544168160.00279617</v>
       </c>
       <c r="K134" s="21">
         <f xml:space="preserve"> G134 - J134</f>
-        <v>103678745.36723661</v>
+        <v>103570745.36723661</v>
       </c>
       <c r="L134" s="20">
         <v>0.84</v>
       </c>
       <c r="M134" s="21">
         <f xml:space="preserve"> K134 * L134</f>
-        <v>87090146.108478755</v>
+        <v>86999426.108478755</v>
       </c>
       <c r="N134" s="21">
         <f xml:space="preserve"> K134 - M134</f>
-        <v>16588599.258757859</v>
+        <v>16571319.258757859</v>
       </c>
       <c r="O134" s="20">
         <f xml:space="preserve"> K134 / J134 * 100</f>
-        <v>18.844919227370351</v>
+        <v>19.032856565276518</v>
       </c>
       <c r="P134" s="21"/>
     </row>
@@ -5070,18 +5083,18 @@
       </c>
       <c r="D135" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E135" s="13">
         <f xml:space="preserve"> (G134 / 2) + D135 - I135</f>
-        <v>354167073.74210107</v>
+        <v>350858573.74210107</v>
       </c>
       <c r="F135" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G135" s="13">
         <f t="shared" si="11"/>
-        <v>360542081.0694589</v>
+        <v>357174028.0694589</v>
       </c>
       <c r="H135" s="13"/>
       <c r="I135" s="14">
@@ -5089,11 +5102,11 @@
       </c>
       <c r="K135" s="15">
         <f xml:space="preserve"> ((G134 - I135) / 2 / 12)</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="M135" s="13">
         <f xml:space="preserve"> (G134 - I135) / 2</f>
-        <v>326923452.68501639</v>
+        <v>323869452.68501639</v>
       </c>
       <c r="N135" s="16" t="s">
         <v>0</v>
@@ -5107,18 +5120,18 @@
       </c>
       <c r="D136" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E136" s="13">
         <f t="shared" ref="E136:E146" si="15" xml:space="preserve"> G135 + D136 - I136</f>
-        <v>387785702.12654358</v>
+        <v>384163149.12654358</v>
       </c>
       <c r="F136" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G136" s="13">
         <f t="shared" si="11"/>
-        <v>394765844.76482135</v>
+        <v>391078085.81082135</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="14"/>
@@ -5131,18 +5144,18 @@
       </c>
       <c r="D137" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E137" s="13">
         <f t="shared" si="15"/>
-        <v>422009465.82190603</v>
+        <v>418067206.86790603</v>
       </c>
       <c r="F137" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G137" s="13">
         <f t="shared" si="11"/>
-        <v>429605636.20670033</v>
+        <v>425592416.59152836</v>
       </c>
       <c r="H137" s="13"/>
       <c r="I137" s="14"/>
@@ -5155,18 +5168,18 @@
       </c>
       <c r="D138" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E138" s="13">
         <f t="shared" si="15"/>
-        <v>456849257.263785</v>
+        <v>452581537.64861304</v>
       </c>
       <c r="F138" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G138" s="13">
         <f t="shared" si="11"/>
-        <v>465072543.89453316</v>
+        <v>460728005.32628804</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="14"/>
@@ -5179,23 +5192,23 @@
       </c>
       <c r="D139" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E139" s="13">
         <f t="shared" si="15"/>
-        <v>475727565.69286001</v>
+        <v>471145807.12461483</v>
       </c>
       <c r="F139" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G139" s="13">
         <f t="shared" si="11"/>
-        <v>484290661.87533146</v>
+        <v>479626431.6528579</v>
       </c>
       <c r="H139" s="13"/>
       <c r="I139" s="14">
         <f xml:space="preserve"> N134</f>
-        <v>16588599.258757859</v>
+        <v>16571319.258757859</v>
       </c>
       <c r="P139" s="13"/>
     </row>
@@ -5206,18 +5219,18 @@
       </c>
       <c r="D140" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E140" s="13">
         <f t="shared" si="15"/>
-        <v>511534282.93241614</v>
+        <v>506615552.70994258</v>
       </c>
       <c r="F140" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G140" s="13">
         <f t="shared" si="11"/>
-        <v>520741900.02519965</v>
+        <v>515734632.65872157</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="14"/>
@@ -5230,18 +5243,18 @@
       </c>
       <c r="D141" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E141" s="13">
         <f t="shared" si="15"/>
-        <v>547985521.08228433</v>
+        <v>542723753.71580625</v>
       </c>
       <c r="F141" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G141" s="13">
         <f t="shared" si="11"/>
-        <v>557849260.46176541</v>
+        <v>552492781.28269076</v>
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="14"/>
@@ -5254,18 +5267,18 @@
       </c>
       <c r="D142" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E142" s="13">
         <f t="shared" si="15"/>
-        <v>585092881.51885009</v>
+        <v>579481902.33977544</v>
       </c>
       <c r="F142" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G142" s="13">
         <f t="shared" si="11"/>
-        <v>595624553.38618934</v>
+        <v>589912576.58189142</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="14"/>
@@ -5278,18 +5291,18 @@
       </c>
       <c r="D143" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E143" s="13">
         <f t="shared" si="15"/>
-        <v>622868174.44327402</v>
+        <v>616901697.6389761</v>
       </c>
       <c r="F143" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G143" s="13">
         <f t="shared" si="11"/>
-        <v>634079801.58325291</v>
+        <v>628005928.19647765</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="14"/>
@@ -5302,18 +5315,18 @@
       </c>
       <c r="D144" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E144" s="13">
         <f t="shared" si="15"/>
-        <v>661323422.64033759</v>
+        <v>654995049.25356233</v>
       </c>
       <c r="F144" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G144" s="13">
         <f t="shared" si="11"/>
-        <v>673227244.24786365</v>
+        <v>666784960.14012647</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="14"/>
@@ -5326,18 +5339,18 @@
       </c>
       <c r="D145" s="13">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E145" s="13">
         <f t="shared" si="15"/>
-        <v>700470865.30494833</v>
+        <v>693774081.19721115</v>
       </c>
       <c r="F145" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G145" s="13">
         <f t="shared" si="11"/>
-        <v>713079340.88043737</v>
+        <v>706262014.65876091</v>
       </c>
       <c r="H145" s="13"/>
       <c r="I145" s="14"/>
@@ -5350,45 +5363,45 @@
       </c>
       <c r="D146" s="21">
         <f>K135</f>
-        <v>27243621.057084698</v>
+        <v>26989121.057084698</v>
       </c>
       <c r="E146" s="21">
         <f t="shared" si="15"/>
-        <v>710322961.93752205</v>
+        <v>697251135.71584558</v>
       </c>
       <c r="F146" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G146" s="21">
         <f t="shared" si="11"/>
-        <v>723108775.25239742</v>
+        <v>709801656.15873075</v>
       </c>
       <c r="H146" s="21"/>
       <c r="I146" s="26">
-        <v>30000000</v>
+        <v>36000000</v>
       </c>
       <c r="J146" s="21">
         <f xml:space="preserve"> (E135 + SUM(D136:D146)) - SUM(I136:I146)</f>
-        <v>607258306.11127496</v>
+        <v>595167586.11127496</v>
       </c>
       <c r="K146" s="21">
         <f xml:space="preserve"> G146 - J146</f>
-        <v>115850469.14112246</v>
+        <v>114634070.04745579</v>
       </c>
       <c r="L146" s="20">
         <v>0.84</v>
       </c>
       <c r="M146" s="21">
         <f xml:space="preserve"> K146 * L146</f>
-        <v>97314394.078542858</v>
+        <v>96292618.839862853</v>
       </c>
       <c r="N146" s="21">
         <f xml:space="preserve"> K146 - M146</f>
-        <v>18536075.062579602</v>
+        <v>18341451.207592934</v>
       </c>
       <c r="O146" s="20">
         <f xml:space="preserve"> K146 / J146 * 100</f>
-        <v>19.077626106590273</v>
+        <v>19.260805313080901</v>
       </c>
       <c r="P146" s="21"/>
     </row>
@@ -5404,28 +5417,28 @@
       </c>
       <c r="D147" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E147" s="13">
         <f xml:space="preserve"> (G146 / 2) + D147 - I147</f>
-        <v>391683919.92838192</v>
+        <v>384475897.08597916</v>
       </c>
       <c r="F147" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G147" s="13">
         <f t="shared" si="11"/>
-        <v>398734230.48709279</v>
+        <v>391396463.23352677</v>
       </c>
       <c r="H147" s="13"/>
       <c r="I147" s="14"/>
       <c r="K147" s="15">
         <f xml:space="preserve"> ((G146 - I147) / 2 / 12)</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="M147" s="9">
         <f xml:space="preserve"> (G146 - I147) / 2</f>
-        <v>361554387.62619871</v>
+        <v>354900828.07936537</v>
       </c>
       <c r="P147" s="13"/>
     </row>
@@ -5436,18 +5449,18 @@
       </c>
       <c r="D148" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E148" s="13">
         <f t="shared" ref="E148:E158" si="16" xml:space="preserve"> G147 + D148 - I148</f>
-        <v>428863762.789276</v>
+        <v>420971532.24014056</v>
       </c>
       <c r="F148" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G148" s="13">
         <f t="shared" si="11"/>
-        <v>436583310.51948297</v>
+        <v>428549019.82046306</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="14"/>
@@ -5460,18 +5473,18 @@
       </c>
       <c r="D149" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E149" s="13">
         <f t="shared" si="16"/>
-        <v>466712842.82166618</v>
+        <v>458124088.82707685</v>
       </c>
       <c r="F149" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G149" s="13">
         <f t="shared" si="11"/>
-        <v>475113673.9924562</v>
+        <v>466370322.42596424</v>
       </c>
       <c r="H149" s="13"/>
       <c r="I149" s="14"/>
@@ -5484,18 +5497,18 @@
       </c>
       <c r="D150" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E150" s="13">
         <f t="shared" si="16"/>
-        <v>505243206.29463941</v>
+        <v>495945391.43257803</v>
       </c>
       <c r="F150" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G150" s="13">
         <f t="shared" si="11"/>
-        <v>514337584.00794291</v>
+        <v>504872408.47836441</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="14"/>
@@ -5508,23 +5521,23 @@
       </c>
       <c r="D151" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E151" s="13">
         <f t="shared" si="16"/>
-        <v>525931041.24754655</v>
+        <v>516106026.27738523</v>
       </c>
       <c r="F151" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G151" s="13">
         <f t="shared" si="11"/>
-        <v>535397799.99000239</v>
+        <v>525395934.75037819</v>
       </c>
       <c r="H151" s="13"/>
       <c r="I151" s="14">
         <f xml:space="preserve"> N146</f>
-        <v>18536075.062579602</v>
+        <v>18341451.207592934</v>
       </c>
       <c r="P151" s="13"/>
     </row>
@@ -5535,18 +5548,18 @@
       </c>
       <c r="D152" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E152" s="13">
         <f t="shared" si="16"/>
-        <v>565527332.29218566</v>
+        <v>554971003.75699198</v>
       </c>
       <c r="F152" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G152" s="13">
         <f t="shared" si="11"/>
-        <v>575706824.27344501</v>
+        <v>564960481.82461786</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="14"/>
@@ -5559,18 +5572,18 @@
       </c>
       <c r="D153" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E153" s="13">
         <f t="shared" si="16"/>
-        <v>605836356.57562828</v>
+        <v>594535550.83123159</v>
       </c>
       <c r="F153" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G153" s="13">
         <f t="shared" si="11"/>
-        <v>616741410.99398959</v>
+        <v>605237190.74619377</v>
       </c>
       <c r="H153" s="13"/>
       <c r="I153" s="14"/>
@@ -5583,18 +5596,18 @@
       </c>
       <c r="D154" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E154" s="13">
         <f t="shared" si="16"/>
-        <v>646870943.29617286</v>
+        <v>634812259.7528075</v>
       </c>
       <c r="F154" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G154" s="13">
         <f t="shared" si="11"/>
-        <v>658514620.27550399</v>
+        <v>646238880.42835808</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="14"/>
@@ -5607,18 +5620,18 @@
       </c>
       <c r="D155" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E155" s="13">
         <f t="shared" si="16"/>
-        <v>688644152.57768726</v>
+        <v>675813949.43497181</v>
       </c>
       <c r="F155" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G155" s="13">
         <f t="shared" si="11"/>
-        <v>701039747.32408559</v>
+        <v>687978600.52480125</v>
       </c>
       <c r="H155" s="13"/>
       <c r="I155" s="14"/>
@@ -5631,18 +5644,18 @@
       </c>
       <c r="D156" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E156" s="13">
         <f t="shared" si="16"/>
-        <v>731169279.62626886</v>
+        <v>717553669.53141499</v>
       </c>
       <c r="F156" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G156" s="13">
         <f t="shared" si="11"/>
-        <v>744330326.65954173</v>
+        <v>730469635.58298039</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="14"/>
@@ -5655,18 +5668,18 @@
       </c>
       <c r="D157" s="13">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E157" s="13">
         <f t="shared" si="16"/>
-        <v>774459858.961725</v>
+        <v>760044704.58959413</v>
       </c>
       <c r="F157" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G157" s="13">
         <f t="shared" si="11"/>
-        <v>788400136.4230361</v>
+        <v>773725509.27220678</v>
       </c>
       <c r="H157" s="13"/>
       <c r="I157" s="14"/>
@@ -5679,45 +5692,45 @@
       </c>
       <c r="D158" s="21">
         <f>K147</f>
-        <v>30129532.302183226</v>
+        <v>29575069.00661378</v>
       </c>
       <c r="E158" s="21">
         <f t="shared" si="16"/>
-        <v>788529668.72521937</v>
+        <v>767300578.27882051</v>
       </c>
       <c r="F158" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G158" s="21">
         <f t="shared" ref="G158:G221" si="17" xml:space="preserve"> (E158 * F158) + E158</f>
-        <v>802723202.76227331</v>
+        <v>781111988.68783927</v>
       </c>
       <c r="H158" s="21"/>
       <c r="I158" s="26">
-        <v>30000000</v>
+        <v>36000000</v>
       </c>
       <c r="J158" s="21">
         <f xml:space="preserve"> (E147 + SUM(D148:D158)) - SUM(I148:I158)</f>
-        <v>674572700.18981767</v>
+        <v>655460204.95113778</v>
       </c>
       <c r="K158" s="21">
         <f xml:space="preserve"> G158 - J158</f>
-        <v>128150502.57245564</v>
+        <v>125651783.73670149</v>
       </c>
       <c r="L158" s="20">
         <v>0.84</v>
       </c>
       <c r="M158" s="21">
         <f xml:space="preserve"> K158 * L158</f>
-        <v>107646422.16086274</v>
+        <v>105547498.33882925</v>
       </c>
       <c r="N158" s="21">
         <f xml:space="preserve"> K158 - M158</f>
-        <v>20504080.411592901</v>
+        <v>20104285.397872239</v>
       </c>
       <c r="O158" s="20">
         <f xml:space="preserve"> K158 / J158 * 100</f>
-        <v>18.997285620422446</v>
+        <v>19.170009527286005</v>
       </c>
       <c r="P158" s="21"/>
     </row>
@@ -5733,28 +5746,28 @@
       </c>
       <c r="D159" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E159" s="13">
         <f xml:space="preserve"> (G158 / 2) + D159 - I159</f>
-        <v>434808401.49623138</v>
+        <v>423102327.20591295</v>
       </c>
       <c r="F159" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G159" s="13">
         <f t="shared" si="17"/>
-        <v>442634952.72316355</v>
+        <v>430718169.09561938</v>
       </c>
       <c r="H159" s="13"/>
       <c r="I159" s="14"/>
       <c r="K159" s="15">
         <f xml:space="preserve"> ((G158 - I159) / 2 / 12)</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="M159" s="9">
         <f xml:space="preserve"> (G158 - I159) / 2</f>
-        <v>401361601.38113666</v>
+        <v>390555994.34391963</v>
       </c>
       <c r="P159" s="13"/>
     </row>
@@ -5765,18 +5778,18 @@
       </c>
       <c r="D160" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E160" s="13">
         <f t="shared" ref="E160:E170" si="18" xml:space="preserve"> G159 + D160 - I160</f>
-        <v>476081752.83825827</v>
+        <v>463264501.95761269</v>
       </c>
       <c r="F160" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G160" s="13">
         <f t="shared" si="17"/>
-        <v>484651224.3893469</v>
+        <v>471603262.99284971</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="14"/>
@@ -5789,18 +5802,18 @@
       </c>
       <c r="D161" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E161" s="13">
         <f t="shared" si="18"/>
-        <v>518098024.50444162</v>
+        <v>504149595.85484302</v>
       </c>
       <c r="F161" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G161" s="13">
         <f t="shared" si="17"/>
-        <v>527423788.94552159</v>
+        <v>513224288.58023018</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="14"/>
@@ -5813,18 +5826,18 @@
       </c>
       <c r="D162" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E162" s="13">
         <f t="shared" si="18"/>
-        <v>560870589.06061625</v>
+        <v>545770621.44222343</v>
       </c>
       <c r="F162" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G162" s="13">
         <f t="shared" si="17"/>
-        <v>570966259.66370738</v>
+        <v>555594492.62818348</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="14"/>
@@ -5837,23 +5850,23 @@
       </c>
       <c r="D163" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E163" s="13">
         <f t="shared" si="18"/>
-        <v>583908979.3672092</v>
+        <v>568036540.09230459</v>
       </c>
       <c r="F163" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G163" s="13">
         <f t="shared" si="17"/>
-        <v>594419340.99581897</v>
+        <v>578261197.81396604</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="14">
         <f xml:space="preserve"> N158</f>
-        <v>20504080.411592901</v>
+        <v>20104285.397872239</v>
       </c>
       <c r="P163" s="13"/>
     </row>
@@ -5864,18 +5877,18 @@
       </c>
       <c r="D164" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E164" s="13">
         <f t="shared" si="18"/>
-        <v>627866141.11091375</v>
+        <v>610807530.67595935</v>
       </c>
       <c r="F164" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G164" s="13">
         <f t="shared" si="17"/>
-        <v>639167731.65091026</v>
+        <v>621802066.22812665</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="14"/>
@@ -5888,18 +5901,18 @@
       </c>
       <c r="D165" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E165" s="13">
         <f t="shared" si="18"/>
-        <v>672614531.76600504</v>
+        <v>654348399.09011996</v>
       </c>
       <c r="F165" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G165" s="13">
         <f t="shared" si="17"/>
-        <v>684721593.33779311</v>
+        <v>666126670.27374208</v>
       </c>
       <c r="H165" s="13"/>
       <c r="I165" s="14"/>
@@ -5912,18 +5925,18 @@
       </c>
       <c r="D166" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E166" s="13">
         <f t="shared" si="18"/>
-        <v>718168393.45288777</v>
+        <v>698673003.13573539</v>
       </c>
       <c r="F166" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G166" s="13">
         <f t="shared" si="17"/>
-        <v>731095424.53503978</v>
+        <v>711249117.19217861</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="14"/>
@@ -5936,18 +5949,18 @@
       </c>
       <c r="D167" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E167" s="13">
         <f t="shared" si="18"/>
-        <v>764542224.65013456</v>
+        <v>743795450.05417192</v>
       </c>
       <c r="F167" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G167" s="13">
         <f t="shared" si="17"/>
-        <v>778303984.69383693</v>
+        <v>757183768.15514696</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="14"/>
@@ -5960,18 +5973,18 @@
       </c>
       <c r="D168" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E168" s="13">
         <f t="shared" si="18"/>
-        <v>811750784.80893159</v>
+        <v>789730101.01714027</v>
       </c>
       <c r="F168" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G168" s="13">
         <f t="shared" si="17"/>
-        <v>826362298.9354924</v>
+        <v>803945242.83544874</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="14"/>
@@ -5984,18 +5997,18 @@
       </c>
       <c r="D169" s="13">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E169" s="13">
         <f t="shared" si="18"/>
-        <v>859809099.05058718</v>
+        <v>836491575.69744205</v>
       </c>
       <c r="F169" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G169" s="13">
         <f t="shared" si="17"/>
-        <v>875285662.83349776</v>
+        <v>851548424.05999601</v>
       </c>
       <c r="H169" s="13"/>
       <c r="I169" s="14"/>
@@ -6008,45 +6021,45 @@
       </c>
       <c r="D170" s="21">
         <f>K159</f>
-        <v>33446800.115094721</v>
+        <v>32546332.861993302</v>
       </c>
       <c r="E170" s="21">
         <f t="shared" si="18"/>
-        <v>878732462.94859242</v>
+        <v>848094756.92198932</v>
       </c>
       <c r="F170" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G170" s="21">
         <f t="shared" si="17"/>
-        <v>894549647.28166711</v>
+        <v>863360462.54658508</v>
       </c>
       <c r="H170" s="21"/>
       <c r="I170" s="26">
-        <v>30000000</v>
+        <v>36000000</v>
       </c>
       <c r="J170" s="21">
         <f xml:space="preserve"> (E159 + SUM(D160:D170)) - SUM(I160:I170)</f>
-        <v>752219122.35068035</v>
+        <v>725007703.28996706</v>
       </c>
       <c r="K170" s="21">
         <f xml:space="preserve"> G170 - J170</f>
-        <v>142330524.93098676</v>
+        <v>138352759.25661802</v>
       </c>
       <c r="L170" s="20">
         <v>0.84</v>
       </c>
       <c r="M170" s="21">
         <f xml:space="preserve"> K170 * L170</f>
-        <v>119557640.94202888</v>
+        <v>116216317.77555914</v>
       </c>
       <c r="N170" s="21">
         <f xml:space="preserve"> K170 - M170</f>
-        <v>22772883.988957882</v>
+        <v>22136441.481058881</v>
       </c>
       <c r="O170" s="20">
         <f xml:space="preserve"> K170 / J170 * 100</f>
-        <v>18.921418068475141</v>
+        <v>19.082936447267485</v>
       </c>
       <c r="P170" s="21"/>
     </row>
@@ -6062,28 +6075,28 @@
       </c>
       <c r="D171" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E171" s="13">
         <f xml:space="preserve"> (G170 / 2) + D171 - I171</f>
-        <v>484547725.61090302</v>
+        <v>467653583.87940025</v>
       </c>
       <c r="F171" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G171" s="13">
         <f t="shared" si="17"/>
-        <v>493269584.67189926</v>
+        <v>476071348.38922948</v>
       </c>
       <c r="H171" s="13"/>
       <c r="I171" s="14"/>
       <c r="K171" s="15">
         <f xml:space="preserve"> ((G170 - I171) / 2 / 12)</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="M171" s="9">
         <f xml:space="preserve"> (G170 - I171) / 2</f>
-        <v>447274823.64083356</v>
+        <v>431680231.27329254</v>
       </c>
       <c r="P171" s="13"/>
     </row>
@@ -6094,18 +6107,18 @@
       </c>
       <c r="D172" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E172" s="13">
         <f t="shared" ref="E172:E182" si="19" xml:space="preserve"> G171 + D172 - I172</f>
-        <v>530542486.64196873</v>
+        <v>512044700.99533719</v>
       </c>
       <c r="F172" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G172" s="13">
         <f t="shared" si="17"/>
-        <v>540092251.40152419</v>
+        <v>521261505.61325324</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="14"/>
@@ -6118,18 +6131,18 @@
       </c>
       <c r="D173" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E173" s="13">
         <f t="shared" si="19"/>
-        <v>577365153.37159359</v>
+        <v>557234858.21936095</v>
       </c>
       <c r="F173" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G173" s="13">
         <f t="shared" si="17"/>
-        <v>587757726.13228226</v>
+        <v>567265085.6673094</v>
       </c>
       <c r="H173" s="13"/>
       <c r="I173" s="14"/>
@@ -6142,18 +6155,18 @@
       </c>
       <c r="D174" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E174" s="13">
         <f t="shared" si="19"/>
-        <v>625030628.10235167</v>
+        <v>603238438.27341712</v>
       </c>
       <c r="F174" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G174" s="13">
         <f t="shared" si="17"/>
-        <v>636281179.40819395</v>
+        <v>614096730.16233861</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="14"/>
@@ -6166,23 +6179,23 @@
       </c>
       <c r="D175" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E175" s="13">
         <f t="shared" si="19"/>
-        <v>650781197.38930547</v>
+        <v>627933641.28738749</v>
       </c>
       <c r="F175" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G175" s="13">
         <f t="shared" si="17"/>
-        <v>662495258.94231296</v>
+        <v>639236446.83056045</v>
       </c>
       <c r="H175" s="13"/>
       <c r="I175" s="14">
         <f xml:space="preserve"> N170</f>
-        <v>22772883.988957882</v>
+        <v>22136441.481058881</v>
       </c>
       <c r="P175" s="13"/>
     </row>
@@ -6193,18 +6206,18 @@
       </c>
       <c r="D176" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E176" s="13">
         <f t="shared" si="19"/>
-        <v>699768160.91238236</v>
+        <v>675209799.43666816</v>
       </c>
       <c r="F176" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G176" s="13">
         <f t="shared" si="17"/>
-        <v>712363987.80880523</v>
+        <v>687363575.82652819</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="14"/>
@@ -6217,18 +6230,18 @@
       </c>
       <c r="D177" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E177" s="13">
         <f t="shared" si="19"/>
-        <v>749636889.77887464</v>
+        <v>723336928.4326359</v>
       </c>
       <c r="F177" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G177" s="13">
         <f t="shared" si="17"/>
-        <v>763130353.79489434</v>
+        <v>736356993.14442337</v>
       </c>
       <c r="H177" s="13"/>
       <c r="I177" s="14"/>
@@ -6241,18 +6254,18 @@
       </c>
       <c r="D178" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E178" s="13">
         <f t="shared" si="19"/>
-        <v>800403255.76496375</v>
+        <v>772330345.75053108</v>
       </c>
       <c r="F178" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G178" s="13">
         <f t="shared" si="17"/>
-        <v>814810514.36873305</v>
+        <v>786232291.97404063</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="14"/>
@@ -6265,18 +6278,18 @@
       </c>
       <c r="D179" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E179" s="13">
         <f t="shared" si="19"/>
-        <v>852083416.33880246</v>
+        <v>822205644.58014834</v>
       </c>
       <c r="F179" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G179" s="13">
         <f t="shared" si="17"/>
-        <v>867420917.83290088</v>
+        <v>837005346.18259096</v>
       </c>
       <c r="H179" s="13"/>
       <c r="I179" s="14"/>
@@ -6289,18 +6302,18 @@
       </c>
       <c r="D180" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E180" s="13">
         <f t="shared" si="19"/>
-        <v>904693819.80297029</v>
+        <v>872978698.78869867</v>
       </c>
       <c r="F180" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G180" s="13">
         <f t="shared" si="17"/>
-        <v>920978308.5594238</v>
+        <v>888692315.3668952</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="14"/>
@@ -6313,18 +6326,18 @@
       </c>
       <c r="D181" s="13">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E181" s="13">
         <f t="shared" si="19"/>
-        <v>958251210.52949321</v>
+        <v>924665667.97300291</v>
       </c>
       <c r="F181" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G181" s="13">
         <f t="shared" si="17"/>
-        <v>975499732.31902409</v>
+        <v>941309649.99651694</v>
       </c>
       <c r="H181" s="13"/>
       <c r="I181" s="14"/>
@@ -6337,45 +6350,45 @@
       </c>
       <c r="D182" s="21">
         <f>K171</f>
-        <v>37272901.970069461</v>
+        <v>35973352.606107712</v>
       </c>
       <c r="E182" s="21">
         <f t="shared" si="19"/>
-        <v>982772634.28909349</v>
+        <v>941283002.60262465</v>
       </c>
       <c r="F182" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G182" s="21">
         <f t="shared" si="17"/>
-        <v>1000462541.7062972</v>
+        <v>958226096.64947188</v>
       </c>
       <c r="H182" s="21"/>
       <c r="I182" s="26">
-        <v>30000000</v>
+        <v>36000000</v>
       </c>
       <c r="J182" s="21">
         <f xml:space="preserve"> (E171 + SUM(D172:D182)) - SUM(I172:I182)</f>
-        <v>841776763.29270923</v>
+        <v>805224021.06552625</v>
       </c>
       <c r="K182" s="21">
         <f xml:space="preserve"> G182 - J182</f>
-        <v>158685778.41358793</v>
+        <v>153002075.58394563</v>
       </c>
       <c r="L182" s="20">
         <v>0.84</v>
       </c>
       <c r="M182" s="21">
         <f xml:space="preserve"> K182 * L182</f>
-        <v>133296053.86741385</v>
+        <v>128521743.49051432</v>
       </c>
       <c r="N182" s="21">
         <f xml:space="preserve"> K182 - M182</f>
-        <v>25389724.546174079</v>
+        <v>24480332.093431309</v>
       </c>
       <c r="O182" s="20">
         <f xml:space="preserve"> K182 / J182 * 100</f>
-        <v>18.851289953986107</v>
+        <v>19.001181234196547</v>
       </c>
       <c r="P182" s="21"/>
     </row>
@@ -6391,28 +6404,28 @@
       </c>
       <c r="D183" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E183" s="13">
         <f xml:space="preserve"> (G182 / 2) + D183 - I183</f>
-        <v>541917210.09091091</v>
+        <v>519039135.6851306</v>
       </c>
       <c r="F183" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G183" s="13">
         <f t="shared" si="17"/>
-        <v>551671719.87254727</v>
+        <v>528381840.12746292</v>
       </c>
       <c r="H183" s="13"/>
       <c r="I183" s="14"/>
       <c r="K183" s="15">
         <f xml:space="preserve"> ((G182 - I183) / 2 / 12)</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="M183" s="9">
         <f xml:space="preserve"> (G182 - I183) / 2</f>
-        <v>500231270.85314858</v>
+        <v>479113048.32473594</v>
       </c>
       <c r="P183" s="13"/>
     </row>
@@ -6423,18 +6436,18 @@
       </c>
       <c r="D184" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E184" s="13">
         <f t="shared" ref="E184:E194" si="20" xml:space="preserve"> G183 + D184 - I184</f>
-        <v>593357659.1103096</v>
+        <v>568307927.48785758</v>
       </c>
       <c r="F184" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G184" s="13">
         <f t="shared" si="17"/>
-        <v>604038096.97429514</v>
+        <v>578537470.182639</v>
       </c>
       <c r="H184" s="13"/>
       <c r="I184" s="14"/>
@@ -6447,18 +6460,18 @@
       </c>
       <c r="D185" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E185" s="13">
         <f t="shared" si="20"/>
-        <v>645724036.21205747</v>
+        <v>618463557.54303372</v>
       </c>
       <c r="F185" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G185" s="13">
         <f t="shared" si="17"/>
-        <v>657347068.86387455</v>
+        <v>629595901.57880831</v>
       </c>
       <c r="H185" s="13"/>
       <c r="I185" s="14"/>
@@ -6471,18 +6484,18 @@
       </c>
       <c r="D186" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E186" s="13">
         <f t="shared" si="20"/>
-        <v>699033008.10163689</v>
+        <v>669521988.93920302</v>
       </c>
       <c r="F186" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G186" s="13">
         <f t="shared" si="17"/>
-        <v>711615602.24746633</v>
+        <v>681573384.74010873</v>
       </c>
       <c r="H186" s="13"/>
       <c r="I186" s="14"/>
@@ -6495,23 +6508,23 @@
       </c>
       <c r="D187" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E187" s="13">
         <f t="shared" si="20"/>
-        <v>727911816.93905461</v>
+        <v>697019140.00707209</v>
       </c>
       <c r="F187" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G187" s="13">
         <f t="shared" si="17"/>
-        <v>741014229.64395761</v>
+        <v>709565484.52719939</v>
       </c>
       <c r="H187" s="13"/>
       <c r="I187" s="14">
         <f xml:space="preserve"> N182</f>
-        <v>25389724.546174079</v>
+        <v>24480332.093431309</v>
       </c>
       <c r="P187" s="13"/>
     </row>
@@ -6522,18 +6535,18 @@
       </c>
       <c r="D188" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E188" s="13">
         <f t="shared" si="20"/>
-        <v>782700168.88171995</v>
+        <v>749491571.8875941</v>
       </c>
       <c r="F188" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G188" s="13">
         <f t="shared" si="17"/>
-        <v>796788771.92159092</v>
+        <v>762982420.18157077</v>
       </c>
       <c r="H188" s="13"/>
       <c r="I188" s="14"/>
@@ -6546,18 +6559,18 @@
       </c>
       <c r="D189" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E189" s="13">
         <f t="shared" si="20"/>
-        <v>838474711.15935326</v>
+        <v>802908507.54196548</v>
       </c>
       <c r="F189" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G189" s="13">
         <f t="shared" si="17"/>
-        <v>853567255.96022165</v>
+        <v>817360860.6777209</v>
       </c>
       <c r="H189" s="13"/>
       <c r="I189" s="14"/>
@@ -6570,18 +6583,18 @@
       </c>
       <c r="D190" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E190" s="13">
         <f t="shared" si="20"/>
-        <v>895253195.19798398</v>
+        <v>857286948.03811562</v>
       </c>
       <c r="F190" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G190" s="13">
         <f t="shared" si="17"/>
-        <v>911367752.71154773</v>
+        <v>872718113.10280168</v>
       </c>
       <c r="H190" s="13"/>
       <c r="I190" s="14"/>
@@ -6594,18 +6607,18 @@
       </c>
       <c r="D191" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E191" s="13">
         <f t="shared" si="20"/>
-        <v>953053691.94931006</v>
+        <v>912644200.4631964</v>
       </c>
       <c r="F191" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G191" s="13">
         <f t="shared" si="17"/>
-        <v>970208658.40439761</v>
+        <v>929071796.07153392</v>
       </c>
       <c r="H191" s="13"/>
       <c r="I191" s="14"/>
@@ -6618,18 +6631,18 @@
       </c>
       <c r="D192" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E192" s="13">
         <f t="shared" si="20"/>
-        <v>1011894597.6421599</v>
+        <v>968997883.43192863</v>
       </c>
       <c r="F192" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G192" s="13">
         <f t="shared" si="17"/>
-        <v>1030108700.3997188</v>
+        <v>986439845.3337034</v>
       </c>
       <c r="H192" s="13"/>
       <c r="I192" s="14"/>
@@ -6642,18 +6655,18 @@
       </c>
       <c r="D193" s="13">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E193" s="13">
         <f t="shared" si="20"/>
-        <v>1071794639.6374811</v>
+        <v>1026365932.6940981</v>
       </c>
       <c r="F193" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G193" s="13">
         <f t="shared" si="17"/>
-        <v>1091086943.1509557</v>
+        <v>1044840519.4825919</v>
       </c>
       <c r="H193" s="13"/>
       <c r="I193" s="14"/>
@@ -6666,45 +6679,45 @@
       </c>
       <c r="D194" s="21">
         <f>K183</f>
-        <v>41685939.237762384</v>
+        <v>39926087.360394664</v>
       </c>
       <c r="E194" s="21">
         <f t="shared" si="20"/>
-        <v>1002772882.3887181</v>
+        <v>948766606.84298658</v>
       </c>
       <c r="F194" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G194" s="21">
         <f t="shared" si="17"/>
-        <v>1020822794.271715</v>
+        <v>965844405.76616037</v>
       </c>
       <c r="H194" s="21"/>
       <c r="I194" s="26">
-        <v>130000000</v>
+        <v>136000000</v>
       </c>
       <c r="J194" s="21">
         <f xml:space="preserve"> (E183 + SUM(D184:D194)) - SUM(I184:I194)</f>
-        <v>845072817.16012311</v>
+        <v>797745764.55604053</v>
       </c>
       <c r="K194" s="21">
         <f xml:space="preserve"> G194 - J194</f>
-        <v>175749977.11159194</v>
+        <v>168098641.21011984</v>
       </c>
       <c r="L194" s="20">
         <v>0.84</v>
       </c>
       <c r="M194" s="21">
         <f xml:space="preserve"> K194 * L194</f>
-        <v>147629980.77373722</v>
+        <v>141202858.61650068</v>
       </c>
       <c r="N194" s="21">
         <f xml:space="preserve"> K194 - M194</f>
-        <v>28119996.337854713</v>
+        <v>26895782.593619168</v>
       </c>
       <c r="O194" s="20">
         <f xml:space="preserve"> K194 / J194 * 100</f>
-        <v>20.797021693609995</v>
+        <v>21.071705884100766</v>
       </c>
       <c r="P194" s="21"/>
     </row>
@@ -6720,28 +6733,28 @@
       </c>
       <c r="D195" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E195" s="4">
         <f xml:space="preserve"> (G194 / 2) + D195 - I195</f>
-        <v>552945680.23051226</v>
+        <v>523165719.79000354</v>
       </c>
       <c r="F195" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G195" s="4">
         <f t="shared" si="17"/>
-        <v>562898702.47466147</v>
+        <v>532582702.74622363</v>
       </c>
       <c r="H195" s="4"/>
       <c r="I195" s="5"/>
       <c r="K195" s="6">
         <f xml:space="preserve"> ((G194 - I195) / 2 / 12)</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="M195" s="9">
         <f xml:space="preserve"> (G194 - I195) / 2</f>
-        <v>510411397.13585752</v>
+        <v>482922202.88308018</v>
       </c>
       <c r="N195" s="7" t="s">
         <v>1</v>
@@ -6755,18 +6768,18 @@
       </c>
       <c r="D196" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E196" s="4">
         <f t="shared" ref="E196:E206" si="21" xml:space="preserve"> G195 + D196 - I196</f>
-        <v>605432985.56931627</v>
+        <v>572826219.65314698</v>
       </c>
       <c r="F196" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G196" s="4">
         <f t="shared" si="17"/>
-        <v>616330779.30956399</v>
+        <v>583137091.60690367</v>
       </c>
       <c r="H196" s="4"/>
       <c r="I196" s="5"/>
@@ -6779,18 +6792,18 @@
       </c>
       <c r="D197" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E197" s="4">
         <f t="shared" si="21"/>
-        <v>658865062.40421879</v>
+        <v>623380608.51382697</v>
       </c>
       <c r="F197" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G197" s="4">
         <f t="shared" si="17"/>
-        <v>670724633.52749479</v>
+        <v>634601459.46707582</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" s="5"/>
@@ -6803,18 +6816,18 @@
       </c>
       <c r="D198" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E198" s="4">
         <f t="shared" si="21"/>
-        <v>713258916.62214959</v>
+        <v>674844976.37399912</v>
       </c>
       <c r="F198" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G198" s="4">
         <f t="shared" si="17"/>
-        <v>726097577.12134826</v>
+        <v>686992185.94873106</v>
       </c>
       <c r="H198" s="4"/>
       <c r="I198" s="5"/>
@@ -6827,23 +6840,23 @@
       </c>
       <c r="D199" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E199" s="4">
         <f t="shared" si="21"/>
-        <v>740511863.87814832</v>
+        <v>700339920.26203513</v>
       </c>
       <c r="F199" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G199" s="4">
         <f t="shared" si="17"/>
-        <v>753841077.42795503</v>
+        <v>712946038.82675171</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" s="5">
         <f xml:space="preserve"> N194</f>
-        <v>28119996.337854713</v>
+        <v>26895782.593619168</v>
       </c>
       <c r="P199" s="4"/>
     </row>
@@ -6854,18 +6867,18 @@
       </c>
       <c r="D200" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E200" s="4">
         <f t="shared" si="21"/>
-        <v>796375360.52260983</v>
+        <v>753189555.733675</v>
       </c>
       <c r="F200" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G200" s="4">
         <f t="shared" si="17"/>
-        <v>810710117.01201677</v>
+        <v>766746967.73688114</v>
       </c>
       <c r="H200" s="4"/>
       <c r="I200" s="5"/>
@@ -6878,18 +6891,18 @@
       </c>
       <c r="D201" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E201" s="4">
         <f t="shared" si="21"/>
-        <v>853244400.10667157</v>
+        <v>806990484.64380443</v>
       </c>
       <c r="F201" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G201" s="4">
         <f t="shared" si="17"/>
-        <v>868602799.3085916</v>
+        <v>821516313.3673929</v>
       </c>
       <c r="H201" s="4"/>
       <c r="I201" s="5"/>
@@ -6902,18 +6915,18 @@
       </c>
       <c r="D202" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E202" s="4">
         <f t="shared" si="21"/>
-        <v>911137082.4032464</v>
+        <v>861759830.27431619</v>
       </c>
       <c r="F202" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G202" s="4">
         <f t="shared" si="17"/>
-        <v>927537549.88650489</v>
+        <v>877271507.2192539</v>
       </c>
       <c r="H202" s="4"/>
       <c r="I202" s="5"/>
@@ -6926,18 +6939,18 @@
       </c>
       <c r="D203" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E203" s="4">
         <f t="shared" si="21"/>
-        <v>970071832.98115969</v>
+        <v>917515024.12617719</v>
       </c>
       <c r="F203" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G203" s="4">
         <f t="shared" si="17"/>
-        <v>987533125.97482061</v>
+        <v>934030294.56044841</v>
       </c>
       <c r="H203" s="4"/>
       <c r="I203" s="5"/>
@@ -6950,18 +6963,18 @@
       </c>
       <c r="D204" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E204" s="4">
         <f t="shared" si="21"/>
-        <v>1030067409.0694754</v>
+        <v>974273811.4673717</v>
       </c>
       <c r="F204" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G204" s="4">
         <f t="shared" si="17"/>
-        <v>1048608622.432726</v>
+        <v>991810740.07378435</v>
       </c>
       <c r="H204" s="4"/>
       <c r="I204" s="5"/>
@@ -6974,18 +6987,18 @@
       </c>
       <c r="D205" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E205" s="4">
         <f t="shared" si="21"/>
-        <v>1091142905.5273807</v>
+        <v>1032054256.9807076</v>
       </c>
       <c r="F205" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G205" s="4">
         <f t="shared" si="17"/>
-        <v>1110783477.8268735</v>
+        <v>1050631233.6063604</v>
       </c>
       <c r="H205" s="4"/>
       <c r="I205" s="5"/>
@@ -6998,18 +7011,18 @@
       </c>
       <c r="D206" s="4">
         <f>K195</f>
-        <v>42534283.094654791</v>
+        <v>40243516.906923346</v>
       </c>
       <c r="E206" s="4">
         <f t="shared" si="21"/>
-        <v>1113317760.9215283</v>
+        <v>1050874750.5132837</v>
       </c>
       <c r="F206" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G206" s="4">
         <f t="shared" si="17"/>
-        <v>1133357480.6181159</v>
+        <v>1069790496.0225228</v>
       </c>
       <c r="H206" s="4"/>
       <c r="I206" s="17">
@@ -7017,26 +7030,26 @@
       </c>
       <c r="J206" s="4">
         <f xml:space="preserve"> (E195 + SUM(D196:D206)) - SUM(I196:I206)</f>
-        <v>952702797.93386018</v>
+        <v>898948623.17254114</v>
       </c>
       <c r="K206" s="9">
         <f xml:space="preserve"> G206 - J206</f>
-        <v>180654682.68425572</v>
+        <v>170841872.84998167</v>
       </c>
       <c r="L206" s="3">
         <v>0.84</v>
       </c>
       <c r="M206" s="4">
         <f xml:space="preserve"> K206 * L206</f>
-        <v>151749933.4547748</v>
+        <v>143507173.1939846</v>
       </c>
       <c r="N206" s="4">
         <f xml:space="preserve"> K206 - M206</f>
-        <v>28904749.229480922</v>
+        <v>27334699.655997068</v>
       </c>
       <c r="O206" s="3">
         <f xml:space="preserve"> K206 / J206 * 100</f>
-        <v>18.962333591970555</v>
+        <v>19.004631460144175</v>
       </c>
       <c r="P206" s="4"/>
     </row>
@@ -7052,28 +7065,28 @@
       </c>
       <c r="D207" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E207" s="4">
         <f xml:space="preserve"> (G206 / 2) + D207 - I207</f>
-        <v>613901968.66814613</v>
+        <v>579469852.01219988</v>
       </c>
       <c r="F207" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G207" s="4">
         <f t="shared" si="17"/>
-        <v>624952204.10417271</v>
+        <v>589900309.34841943</v>
       </c>
       <c r="H207" s="4"/>
       <c r="I207" s="5"/>
       <c r="K207" s="6">
         <f xml:space="preserve"> ((G206 - I207) / 2 / 12)</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="M207" s="9">
         <f xml:space="preserve"> (G206 - I207) / 2</f>
-        <v>566678740.30905795</v>
+        <v>534895248.0112614</v>
       </c>
       <c r="P207" s="4"/>
     </row>
@@ -7084,18 +7097,18 @@
       </c>
       <c r="D208" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E208" s="4">
         <f t="shared" ref="E208:E218" si="22" xml:space="preserve"> G207 + D208 - I208</f>
-        <v>672175432.46326089</v>
+        <v>634474913.34935784</v>
       </c>
       <c r="F208" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G208" s="4">
         <f t="shared" si="17"/>
-        <v>684274590.2475996</v>
+        <v>645895461.78964627</v>
       </c>
       <c r="H208" s="4"/>
       <c r="I208" s="5"/>
@@ -7108,18 +7121,18 @@
       </c>
       <c r="D209" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E209" s="4">
         <f t="shared" si="22"/>
-        <v>731497818.60668778</v>
+        <v>690470065.79058468</v>
       </c>
       <c r="F209" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G209" s="4">
         <f t="shared" si="17"/>
-        <v>744664779.34160817</v>
+        <v>702898526.97481525</v>
       </c>
       <c r="H209" s="4"/>
       <c r="I209" s="5"/>
@@ -7132,18 +7145,18 @@
       </c>
       <c r="D210" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E210" s="4">
         <f t="shared" si="22"/>
-        <v>791888007.70069635</v>
+        <v>747473130.97575366</v>
       </c>
       <c r="F210" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G210" s="4">
         <f t="shared" si="17"/>
-        <v>806141991.83930886</v>
+        <v>760927647.33331728</v>
       </c>
       <c r="H210" s="4"/>
       <c r="I210" s="5"/>
@@ -7156,23 +7169,23 @@
       </c>
       <c r="D211" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E211" s="4">
         <f t="shared" si="22"/>
-        <v>824460470.96891618</v>
+        <v>778167551.67825866</v>
       </c>
       <c r="F211" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G211" s="4">
         <f t="shared" si="17"/>
-        <v>839300759.44635665</v>
+        <v>792174567.60846734</v>
       </c>
       <c r="H211" s="4"/>
       <c r="I211" s="5">
         <f xml:space="preserve"> N206</f>
-        <v>28904749.229480922</v>
+        <v>27334699.655997068</v>
       </c>
       <c r="P211" s="4"/>
     </row>
@@ -7183,18 +7196,18 @@
       </c>
       <c r="D212" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E212" s="4">
         <f t="shared" si="22"/>
-        <v>886523987.80544484</v>
+        <v>836749171.60940576</v>
       </c>
       <c r="F212" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G212" s="4">
         <f t="shared" si="17"/>
-        <v>902481419.58594286</v>
+        <v>851810656.69837511</v>
       </c>
       <c r="H212" s="4"/>
       <c r="I212" s="5"/>
@@ -7207,18 +7220,18 @@
       </c>
       <c r="D213" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E213" s="4">
         <f t="shared" si="22"/>
-        <v>949704647.94503105</v>
+        <v>896385260.69931352</v>
       </c>
       <c r="F213" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G213" s="4">
         <f t="shared" si="17"/>
-        <v>966799331.60804164</v>
+        <v>912520195.39190114</v>
       </c>
       <c r="H213" s="4"/>
       <c r="I213" s="5"/>
@@ -7231,18 +7244,18 @@
       </c>
       <c r="D214" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E214" s="4">
         <f t="shared" si="22"/>
-        <v>1014022559.9671298</v>
+        <v>957094799.39283955</v>
       </c>
       <c r="F214" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G214" s="4">
         <f t="shared" si="17"/>
-        <v>1032274966.0465381</v>
+        <v>974322505.78191066</v>
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="5"/>
@@ -7255,18 +7268,18 @@
       </c>
       <c r="D215" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E215" s="4">
         <f t="shared" si="22"/>
-        <v>1079498194.4056263</v>
+        <v>1018897109.7828491</v>
       </c>
       <c r="F215" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G215" s="4">
         <f t="shared" si="17"/>
-        <v>1098929161.9049275</v>
+        <v>1037237257.7589403</v>
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="5"/>
@@ -7279,18 +7292,18 @@
       </c>
       <c r="D216" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E216" s="4">
         <f t="shared" si="22"/>
-        <v>1146152390.2640157</v>
+        <v>1081811861.7598789</v>
       </c>
       <c r="F216" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G216" s="4">
         <f t="shared" si="17"/>
-        <v>1166783133.2887681</v>
+        <v>1101284475.2715566</v>
       </c>
       <c r="H216" s="4"/>
       <c r="I216" s="5"/>
@@ -7303,18 +7316,18 @@
       </c>
       <c r="D217" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E217" s="4">
         <f t="shared" si="22"/>
-        <v>1214006361.6478562</v>
+        <v>1145859079.272495</v>
       </c>
       <c r="F217" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G217" s="4">
         <f t="shared" si="17"/>
-        <v>1235858476.1575177</v>
+        <v>1166484542.6993999</v>
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="5"/>
@@ -7327,18 +7340,18 @@
       </c>
       <c r="D218" s="4">
         <f>K207</f>
-        <v>47223228.35908816</v>
+        <v>44574604.000938453</v>
       </c>
       <c r="E218" s="4">
         <f t="shared" si="22"/>
-        <v>1243081704.5166059</v>
+        <v>1171059146.7003384</v>
       </c>
       <c r="F218" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G218" s="4">
         <f t="shared" si="17"/>
-        <v>1265457175.1979048</v>
+        <v>1192138211.3409445</v>
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="17">
@@ -7346,26 +7359,26 @@
       </c>
       <c r="J218" s="4">
         <f xml:space="preserve"> (E207 + SUM(D208:D218)) - SUM(I208:I218)</f>
-        <v>1064452731.3886349</v>
+        <v>1002455796.3665259</v>
       </c>
       <c r="K218" s="9">
         <f xml:space="preserve"> G218 - J218</f>
-        <v>201004443.80926991</v>
+        <v>189682414.97441864</v>
       </c>
       <c r="L218" s="3">
         <v>0.84</v>
       </c>
       <c r="M218" s="4">
         <f xml:space="preserve"> K218 * L218</f>
-        <v>168843732.79978672</v>
+        <v>159333228.57851166</v>
       </c>
       <c r="N218" s="4">
         <f xml:space="preserve"> K218 - M218</f>
-        <v>32160711.009483188</v>
+        <v>30349186.395906985</v>
       </c>
       <c r="O218" s="3">
         <f xml:space="preserve"> K218 / J218 * 100</f>
-        <v>18.883360235926023</v>
+        <v>18.921773474893993</v>
       </c>
       <c r="P218" s="4"/>
     </row>
@@ -7381,28 +7394,28 @@
       </c>
       <c r="D219" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E219" s="4">
         <f xml:space="preserve"> (G218 / 2) + D219 - I219</f>
-        <v>685455969.8988651</v>
+        <v>645741531.14301157</v>
       </c>
       <c r="F219" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G219" s="4">
         <f t="shared" si="17"/>
-        <v>697794177.3570447</v>
+        <v>657364878.70358574</v>
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="5"/>
       <c r="K219" s="6">
         <f xml:space="preserve"> ((G218 - I219) / 2 / 12)</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="M219" s="9">
         <f xml:space="preserve"> (G218 - I219) / 2</f>
-        <v>632728587.59895241</v>
+        <v>596069105.67047226</v>
       </c>
       <c r="P219" s="4"/>
     </row>
@@ -7413,18 +7426,18 @@
       </c>
       <c r="D220" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E220" s="4">
         <f t="shared" ref="E220:E230" si="23" xml:space="preserve"> G219 + D220 - I220</f>
-        <v>750521559.65695739</v>
+        <v>707037304.17612505</v>
       </c>
       <c r="F220" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G220" s="4">
         <f t="shared" si="17"/>
-        <v>764030947.73078263</v>
+        <v>719763975.6512953</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="5"/>
@@ -7437,18 +7450,18 @@
       </c>
       <c r="D221" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E221" s="4">
         <f t="shared" si="23"/>
-        <v>816758330.03069532</v>
+        <v>769436401.12383461</v>
       </c>
       <c r="F221" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G221" s="4">
         <f t="shared" si="17"/>
-        <v>831459979.97124779</v>
+        <v>783286256.34406364</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="5"/>
@@ -7461,18 +7474,18 @@
       </c>
       <c r="D222" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E222" s="4">
         <f t="shared" si="23"/>
-        <v>884187362.27116048</v>
+        <v>832958681.81660295</v>
       </c>
       <c r="F222" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G222" s="4">
         <f t="shared" ref="G222:G242" si="24" xml:space="preserve"> (E222 * F222) + E222</f>
-        <v>900102734.79204142</v>
+        <v>847951938.08930182</v>
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="5"/>
@@ -7485,23 +7498,23 @@
       </c>
       <c r="D223" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E223" s="4">
         <f t="shared" si="23"/>
-        <v>920669406.08247089</v>
+        <v>867275177.16593409</v>
       </c>
       <c r="F223" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G223" s="4">
         <f t="shared" si="24"/>
-        <v>937241455.39195538</v>
+        <v>882886130.35492086</v>
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="5">
         <f xml:space="preserve"> N218</f>
-        <v>32160711.009483188</v>
+        <v>30349186.395906985</v>
       </c>
       <c r="P223" s="4"/>
     </row>
@@ -7512,18 +7525,18 @@
       </c>
       <c r="D224" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E224" s="4">
         <f t="shared" si="23"/>
-        <v>989968837.69186807</v>
+        <v>932558555.82746017</v>
       </c>
       <c r="F224" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G224" s="4">
         <f t="shared" si="24"/>
-        <v>1007788276.7703217</v>
+        <v>949344609.83235443</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="5"/>
@@ -7536,18 +7549,18 @@
       </c>
       <c r="D225" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E225" s="4">
         <f t="shared" si="23"/>
-        <v>1060515659.0702344</v>
+        <v>999017035.30489373</v>
       </c>
       <c r="F225" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G225" s="4">
         <f t="shared" si="24"/>
-        <v>1079604940.9334986</v>
+        <v>1016999341.9403818</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="5"/>
@@ -7560,18 +7573,18 @@
       </c>
       <c r="D226" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E226" s="4">
         <f t="shared" si="23"/>
-        <v>1132332323.2334113</v>
+        <v>1066671767.4129211</v>
       </c>
       <c r="F226" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G226" s="4">
         <f t="shared" si="24"/>
-        <v>1152714305.0516126</v>
+        <v>1085871859.2263536</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="5"/>
@@ -7584,18 +7597,18 @@
       </c>
       <c r="D227" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E227" s="4">
         <f t="shared" si="23"/>
-        <v>1205441687.3515253</v>
+        <v>1135544284.6988931</v>
       </c>
       <c r="F227" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G227" s="4">
         <f t="shared" si="24"/>
-        <v>1227139637.7238529</v>
+        <v>1155984081.8234732</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="5"/>
@@ -7608,18 +7621,18 @@
       </c>
       <c r="D228" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E228" s="4">
         <f t="shared" si="23"/>
-        <v>1279867020.0237656</v>
+        <v>1205656507.2960126</v>
       </c>
       <c r="F228" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G228" s="4">
         <f t="shared" si="24"/>
-        <v>1302904626.3841934</v>
+        <v>1227358324.427341</v>
       </c>
       <c r="H228" s="4"/>
       <c r="I228" s="5"/>
@@ -7632,18 +7645,18 @@
       </c>
       <c r="D229" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E229" s="4">
         <f t="shared" si="23"/>
-        <v>1355632008.6841061</v>
+        <v>1277030749.8998804</v>
       </c>
       <c r="F229" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G229" s="4">
         <f t="shared" si="24"/>
-        <v>1380033384.84042</v>
+        <v>1300017303.3980782</v>
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="5"/>
@@ -7656,18 +7669,18 @@
       </c>
       <c r="D230" s="4">
         <f>K219</f>
-        <v>52727382.299912699</v>
+        <v>49672425.472539358</v>
       </c>
       <c r="E230" s="4">
         <f t="shared" si="23"/>
-        <v>1392760767.1403327</v>
+        <v>1309689728.8706176</v>
       </c>
       <c r="F230" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G230" s="4">
         <f t="shared" si="24"/>
-        <v>1417830460.9488587</v>
+        <v>1333264143.9902887</v>
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="17">
@@ -7675,26 +7688,26 @@
       </c>
       <c r="J230" s="4">
         <f xml:space="preserve"> (E219 + SUM(D220:D230)) - SUM(I220:I230)</f>
-        <v>1193296464.1884217</v>
+        <v>1121789024.9450376</v>
       </c>
       <c r="K230" s="9">
         <f xml:space="preserve"> G230 - J230</f>
-        <v>224533996.76043701</v>
+        <v>211475119.04525113</v>
       </c>
       <c r="L230" s="3">
         <v>0.84</v>
       </c>
       <c r="M230" s="4">
         <f xml:space="preserve"> K230 * L230</f>
-        <v>188608557.27876708</v>
+        <v>177639099.99801093</v>
       </c>
       <c r="N230" s="4">
         <f xml:space="preserve"> K230 - M230</f>
-        <v>35925439.481669933</v>
+        <v>33836019.047240198</v>
       </c>
       <c r="O230" s="3">
         <f xml:space="preserve"> K230 / J230 * 100</f>
-        <v>18.816279399029799</v>
+        <v>18.851594581754124</v>
       </c>
       <c r="P230" s="4"/>
     </row>
@@ -7710,28 +7723,28 @@
       </c>
       <c r="D231" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E231" s="4">
         <f xml:space="preserve"> (G230 / 2) + D231 - I231</f>
-        <v>767991499.68063188</v>
+        <v>722184744.6614064</v>
       </c>
       <c r="F231" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G231" s="4">
         <f t="shared" si="24"/>
-        <v>781815346.67488325</v>
+        <v>735184070.06531167</v>
       </c>
       <c r="H231" s="4"/>
       <c r="I231" s="5"/>
       <c r="K231" s="6">
         <f xml:space="preserve"> ((G230 - I231) / 2 / 12)</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="M231" s="9">
         <f xml:space="preserve"> (G230 - I231) / 2</f>
-        <v>708915230.47442937</v>
+        <v>666632071.99514437</v>
       </c>
       <c r="P231" s="4"/>
     </row>
@@ -7742,18 +7755,18 @@
       </c>
       <c r="D232" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E232" s="4">
         <f t="shared" ref="E232:E242" si="25" xml:space="preserve"> G231 + D232 - I232</f>
-        <v>840891615.88108563</v>
+        <v>790736742.7315737</v>
       </c>
       <c r="F232" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G232" s="4">
         <f t="shared" si="24"/>
-        <v>856027664.96694517</v>
+        <v>804970004.10074198</v>
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="5"/>
@@ -7766,18 +7779,18 @@
       </c>
       <c r="D233" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E233" s="4">
         <f t="shared" si="25"/>
-        <v>915103934.17314768</v>
+        <v>860522676.76700401</v>
       </c>
       <c r="F233" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G233" s="4">
         <f t="shared" si="24"/>
-        <v>931575804.98826432</v>
+        <v>876012084.9488101</v>
       </c>
       <c r="H233" s="4"/>
       <c r="I233" s="5"/>
@@ -7790,18 +7803,18 @@
       </c>
       <c r="D234" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E234" s="4">
         <f t="shared" si="25"/>
-        <v>990652074.19446683</v>
+        <v>931564757.61507213</v>
       </c>
       <c r="F234" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G234" s="4">
         <f t="shared" si="24"/>
-        <v>1008483811.5299672</v>
+        <v>948332923.25214338</v>
       </c>
       <c r="H234" s="4"/>
       <c r="I234" s="5"/>
@@ -7814,23 +7827,23 @@
       </c>
       <c r="D235" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E235" s="4">
         <f t="shared" si="25"/>
-        <v>1031634641.2544997</v>
+        <v>970049576.87116528</v>
       </c>
       <c r="F235" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G235" s="4">
         <f t="shared" si="24"/>
-        <v>1050204064.7970806</v>
+        <v>987510469.25484622</v>
       </c>
       <c r="H235" s="4"/>
       <c r="I235" s="5">
         <f xml:space="preserve"> N230</f>
-        <v>35925439.481669933</v>
+        <v>33836019.047240198</v>
       </c>
       <c r="P235" s="4"/>
     </row>
@@ -7841,18 +7854,18 @@
       </c>
       <c r="D236" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E236" s="4">
         <f t="shared" si="25"/>
-        <v>1109280334.003283</v>
+        <v>1043063141.9211082</v>
       </c>
       <c r="F236" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G236" s="4">
         <f t="shared" si="24"/>
-        <v>1129247380.0153422</v>
+        <v>1061838278.4756882</v>
       </c>
       <c r="H236" s="4"/>
       <c r="I236" s="5"/>
@@ -7865,18 +7878,18 @@
       </c>
       <c r="D237" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E237" s="4">
         <f t="shared" si="25"/>
-        <v>1188323649.2215447</v>
+        <v>1117390951.1419501</v>
       </c>
       <c r="F237" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G237" s="4">
         <f t="shared" si="24"/>
-        <v>1209713474.9075325</v>
+        <v>1137503988.2625053</v>
       </c>
       <c r="H237" s="4"/>
       <c r="I237" s="5"/>
@@ -7889,18 +7902,18 @@
       </c>
       <c r="D238" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E238" s="4">
         <f t="shared" si="25"/>
-        <v>1268789744.113735</v>
+        <v>1193056660.9287672</v>
       </c>
       <c r="F238" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G238" s="4">
         <f t="shared" si="24"/>
-        <v>1291627959.5077822</v>
+        <v>1214531680.825485</v>
       </c>
       <c r="H238" s="4"/>
       <c r="I238" s="5"/>
@@ -7913,18 +7926,18 @@
       </c>
       <c r="D239" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E239" s="4">
         <f t="shared" si="25"/>
-        <v>1350704228.7139847</v>
+        <v>1270084353.4917469</v>
       </c>
       <c r="F239" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G239" s="4">
         <f t="shared" si="24"/>
-        <v>1375016904.8308365</v>
+        <v>1292945871.8545983</v>
       </c>
       <c r="H239" s="4"/>
       <c r="I239" s="5"/>
@@ -7937,18 +7950,18 @@
       </c>
       <c r="D240" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E240" s="4">
         <f t="shared" si="25"/>
-        <v>1434093174.037039</v>
+        <v>1348498544.5208602</v>
       </c>
       <c r="F240" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G240" s="4">
         <f t="shared" si="24"/>
-        <v>1459906851.1697056</v>
+        <v>1372771518.3222356</v>
       </c>
       <c r="H240" s="4"/>
       <c r="I240" s="5"/>
@@ -7961,18 +7974,18 @@
       </c>
       <c r="D241" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E241" s="4">
         <f t="shared" si="25"/>
-        <v>1518983120.3759081</v>
+        <v>1428324190.9884977</v>
       </c>
       <c r="F241" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G241" s="4">
         <f t="shared" si="24"/>
-        <v>1546324816.5426745</v>
+        <v>1454034026.4262908</v>
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="5"/>
@@ -7985,18 +7998,18 @@
       </c>
       <c r="D242" s="4">
         <f>K231</f>
-        <v>59076269.206202447</v>
+        <v>55552672.666262031</v>
       </c>
       <c r="E242" s="4">
         <f t="shared" si="25"/>
-        <v>1565401085.748877</v>
+        <v>1469586699.0925527</v>
       </c>
       <c r="F242" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G242" s="4">
         <f t="shared" si="24"/>
-        <v>1593578305.2923567</v>
+        <v>1496039259.6762185</v>
       </c>
       <c r="H242" s="4"/>
       <c r="I242" s="17">
@@ -8004,26 +8017,26 @@
       </c>
       <c r="J242" s="4">
         <f xml:space="preserve"> (E231 + SUM(D232:D242)) - SUM(I232:I242)</f>
-        <v>1341905021.4671888</v>
+        <v>1259428124.9430485</v>
       </c>
       <c r="K242" s="9">
         <f xml:space="preserve"> G242 - J242</f>
-        <v>251673283.82516789</v>
+        <v>236611134.73317003</v>
       </c>
       <c r="L242" s="3">
         <v>0.84</v>
       </c>
       <c r="M242" s="4">
         <f xml:space="preserve"> K242 * L242</f>
-        <v>211405558.41314101</v>
+        <v>198753353.17586282</v>
       </c>
       <c r="N242" s="4">
         <f xml:space="preserve"> K242 - M242</f>
-        <v>40267725.412026882</v>
+        <v>37857781.557307214</v>
       </c>
       <c r="O242" s="3">
         <f xml:space="preserve"> K242 / J242 * 100</f>
-        <v>18.754925259166086</v>
+        <v>18.787188410920205</v>
       </c>
       <c r="P242" s="4"/>
     </row>
@@ -8039,28 +8052,28 @@
       </c>
       <c r="D243" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E243" s="4">
         <f xml:space="preserve"> (G242 / 2) + D243 - I243</f>
-        <v>863188248.70002651</v>
+        <v>810354598.99128509</v>
       </c>
       <c r="F243" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G243" s="4">
         <f t="shared" ref="G243:G254" si="26" xml:space="preserve"> (E243 * F243) + E243</f>
-        <v>878725637.17662704</v>
+        <v>824940981.77312827</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="5"/>
       <c r="K243" s="6">
         <f xml:space="preserve"> ((G242 - I243) / 2 / 12)</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="M243" s="9">
         <f xml:space="preserve"> (G242 - I243) / 2</f>
-        <v>796789152.64617836</v>
+        <v>748019629.83810925</v>
       </c>
       <c r="P243" s="4"/>
     </row>
@@ -8072,18 +8085,18 @@
       </c>
       <c r="D244" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E244" s="4">
         <f t="shared" ref="E244:E254" si="27" xml:space="preserve"> G243 + D244 - I244</f>
-        <v>945124733.23047519</v>
+        <v>887275950.9263041</v>
       </c>
       <c r="F244" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G244" s="4">
         <f t="shared" si="26"/>
-        <v>962136978.4286238</v>
+        <v>903246918.04297757</v>
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="5"/>
@@ -8102,18 +8115,18 @@
       </c>
       <c r="D245" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E245" s="4">
         <f t="shared" si="27"/>
-        <v>1028536074.4824719</v>
+        <v>965581887.1961534</v>
       </c>
       <c r="F245" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G245" s="4">
         <f t="shared" si="26"/>
-        <v>1047049723.8231565</v>
+        <v>982962361.16568422</v>
       </c>
       <c r="H245" s="4"/>
       <c r="I245" s="5"/>
@@ -8132,18 +8145,18 @@
       </c>
       <c r="D246" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E246" s="4">
         <f t="shared" si="27"/>
-        <v>1113448819.8770046</v>
+        <v>1045297330.3188601</v>
       </c>
       <c r="F246" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G246" s="4">
         <f t="shared" si="26"/>
-        <v>1133490898.6347907</v>
+        <v>1064112682.2645996</v>
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="5"/>
@@ -8162,23 +8175,23 @@
       </c>
       <c r="D247" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E247" s="4">
         <f t="shared" si="27"/>
-        <v>1159622269.276612</v>
+        <v>1088589869.8604681</v>
       </c>
       <c r="F247" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G247" s="4">
         <f t="shared" si="26"/>
-        <v>1180495470.1235909</v>
+        <v>1108184487.5179565</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="5">
         <f xml:space="preserve"> N242</f>
-        <v>40267725.412026882</v>
+        <v>37857781.557307214</v>
       </c>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
@@ -8195,18 +8208,18 @@
       </c>
       <c r="D248" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E248" s="4">
         <f t="shared" si="27"/>
-        <v>1246894566.1774392</v>
+        <v>1170519456.6711323</v>
       </c>
       <c r="F248" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G248" s="4">
         <f t="shared" si="26"/>
-        <v>1269338668.368633</v>
+        <v>1191588806.8912127</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="5"/>
@@ -8225,18 +8238,18 @@
       </c>
       <c r="D249" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E249" s="4">
         <f t="shared" si="27"/>
-        <v>1335737764.4224813</v>
+        <v>1253923776.0443885</v>
       </c>
       <c r="F249" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G249" s="4">
         <f t="shared" si="26"/>
-        <v>1359781044.182086</v>
+        <v>1276494404.0131874</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="5"/>
@@ -8255,18 +8268,18 @@
       </c>
       <c r="D250" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E250" s="4">
         <f t="shared" si="27"/>
-        <v>1426180140.2359343</v>
+        <v>1338829373.1663632</v>
       </c>
       <c r="F250" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G250" s="4">
         <f t="shared" si="26"/>
-        <v>1451851382.7601812</v>
+        <v>1362928301.8833578</v>
       </c>
       <c r="H250" s="4"/>
       <c r="I250" s="5"/>
@@ -8285,18 +8298,18 @@
       </c>
       <c r="D251" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E251" s="4">
         <f t="shared" si="27"/>
-        <v>1518250478.8140295</v>
+        <v>1425263271.0365336</v>
       </c>
       <c r="F251" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G251" s="4">
         <f t="shared" si="26"/>
-        <v>1545578987.432682</v>
+        <v>1450918009.9151912</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="5"/>
@@ -8315,18 +8328,18 @@
       </c>
       <c r="D252" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E252" s="4">
         <f t="shared" si="27"/>
-        <v>1611978083.4865303</v>
+        <v>1513252979.068367</v>
       </c>
       <c r="F252" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G252" s="4">
         <f t="shared" si="26"/>
-        <v>1640993688.9892879</v>
+        <v>1540491532.6915977</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="5"/>
@@ -8345,18 +8358,18 @@
       </c>
       <c r="D253" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E253" s="4">
         <f t="shared" si="27"/>
-        <v>1707392785.0431361</v>
+        <v>1602826501.8447735</v>
       </c>
       <c r="F253" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G253" s="4">
         <f t="shared" si="26"/>
-        <v>1738125855.1739125</v>
+        <v>1631677378.8779795</v>
       </c>
       <c r="H253" s="4"/>
       <c r="I253" s="5"/>
@@ -8375,43 +8388,43 @@
       </c>
       <c r="D254" s="4">
         <f>K243</f>
-        <v>66399096.0538482</v>
+        <v>62334969.153175771</v>
       </c>
       <c r="E254" s="4">
         <f t="shared" si="27"/>
-        <v>1804524951.2277608</v>
+        <v>1694012348.0311553</v>
       </c>
       <c r="F254" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G254" s="4">
         <f t="shared" si="26"/>
-        <v>1837006400.3498604</v>
+        <v>1724504570.295716</v>
       </c>
       <c r="H254" s="4"/>
       <c r="I254" s="5"/>
       <c r="J254" s="4">
         <f xml:space="preserve"> (E243 + SUM(D244:D254)) - SUM(I244:I254)</f>
-        <v>1553310579.8803296</v>
+        <v>1458181478.1189115</v>
       </c>
       <c r="K254" s="9">
         <f xml:space="preserve"> G254 - J254</f>
-        <v>283695820.46953082</v>
+        <v>266323092.17680454</v>
       </c>
       <c r="L254" s="3">
         <v>0.84</v>
       </c>
       <c r="M254" s="4">
         <f xml:space="preserve"> K254 * L254</f>
-        <v>238304489.19440588</v>
+        <v>223711397.42851582</v>
       </c>
       <c r="N254" s="4">
         <f xml:space="preserve"> K254 - M254</f>
-        <v>45391331.275124937</v>
+        <v>42611694.748288721</v>
       </c>
       <c r="O254" s="3">
         <f xml:space="preserve"> K254 / J254 * 100</f>
-        <v>18.263946962325292</v>
+        <v>18.264056715380008</v>
       </c>
     </row>
   </sheetData>
@@ -8448,8 +8461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2C4290-35C3-4A87-8E0C-A86402C7E94A}">
   <dimension ref="A1:P254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15691,7 +15704,7 @@
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15705,7 +15718,7 @@
     <col min="11" max="12" width="9.25" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.25" customWidth="1"/>
     <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -15810,11 +15823,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <f>SUM(C3:P3)</f>
+        <f t="shared" ref="Q3:Q8" si="0">SUM(C3:P3)</f>
         <v>6780000</v>
       </c>
       <c r="R3" s="1">
-        <f xml:space="preserve"> B3 - Q3</f>
+        <f t="shared" ref="R3:R8" si="1" xml:space="preserve"> B3 - Q3</f>
         <v>150000</v>
       </c>
     </row>
@@ -15868,11 +15881,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <f>SUM(C4:P4)</f>
+        <f t="shared" si="0"/>
         <v>6830000</v>
       </c>
       <c r="R4" s="1">
-        <f xml:space="preserve"> B4 - Q4</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
@@ -15926,11 +15939,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <f>SUM(C5:P5)</f>
+        <f t="shared" si="0"/>
         <v>6430000</v>
       </c>
       <c r="R5" s="1">
-        <f xml:space="preserve"> B5 - Q5</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
     </row>
@@ -15984,16 +15997,129 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <f>SUM(C6:P6)</f>
+        <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
       <c r="R6" s="1">
-        <f xml:space="preserve"> B6 - Q6</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6930000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>630000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>300000</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>6380000</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>550000</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>300000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>300000</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>2150000</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>850000</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
@@ -16038,8 +16164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16499,11 +16625,11 @@
         <v>12</v>
       </c>
       <c r="I24" s="56">
-        <v>770000</v>
+        <v>910000</v>
       </c>
       <c r="J24" s="56">
         <f xml:space="preserve"> H24 * I24</f>
-        <v>9240000</v>
+        <v>10920000</v>
       </c>
       <c r="K24" s="37" t="s">
         <v>90</v>
@@ -16587,7 +16713,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9">
         <f>SUM(J22:J26)</f>
-        <v>15080000</v>
+        <v>16760000</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -16645,11 +16771,11 @@
       </c>
       <c r="I31" s="21">
         <f xml:space="preserve"> J28</f>
-        <v>15080000</v>
+        <v>16760000</v>
       </c>
       <c r="J31" s="20">
         <f xml:space="preserve"> I31 / H31</f>
-        <v>1256666.6666666667</v>
+        <v>1396666.6666666667</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16690,18 +16816,18 @@
       </c>
       <c r="F34" s="34">
         <f xml:space="preserve"> J31</f>
-        <v>1256666.6666666667</v>
+        <v>1396666.6666666667</v>
       </c>
       <c r="G34" s="34">
         <f xml:space="preserve"> E34 - F34</f>
-        <v>2067666.6666666667</v>
+        <v>1927666.6666666667</v>
       </c>
       <c r="H34" s="34">
         <v>200000</v>
       </c>
       <c r="I34" s="34">
         <f>G34+H34</f>
-        <v>2267666.666666667</v>
+        <v>2127666.666666667</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -17037,4 +17163,289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB26ECB1-36A0-438C-A5BA-90FF68A817BA}">
+  <dimension ref="A2:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="47">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12">
+        <v>177000</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E8" si="0" xml:space="preserve"> C5 * D5</f>
+        <v>2124000</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="47">
+        <v>12</v>
+      </c>
+      <c r="I5" s="13">
+        <v>320000</v>
+      </c>
+      <c r="J5" s="13">
+        <f xml:space="preserve"> H5 * I5</f>
+        <v>3840000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="48">
+        <v>52</v>
+      </c>
+      <c r="D6" s="19">
+        <v>120000</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" si="0"/>
+        <v>6240000</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="47">
+        <v>12</v>
+      </c>
+      <c r="I6" s="13">
+        <v>910000</v>
+      </c>
+      <c r="J6" s="13">
+        <f xml:space="preserve"> H6 * I6</f>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13">
+        <v>364000</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>4368000</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="47">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <f>SUM(E5:E8)</f>
+        <v>14532000</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9">
+        <f>SUM(J5:J8)</f>
+        <v>14760000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="49">
+        <v>12</v>
+      </c>
+      <c r="D10" s="21">
+        <f xml:space="preserve"> E9</f>
+        <v>14532000</v>
+      </c>
+      <c r="E10" s="21">
+        <f xml:space="preserve"> D10 / C10</f>
+        <v>1211000</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="49">
+        <v>12</v>
+      </c>
+      <c r="I10" s="21">
+        <f xml:space="preserve"> J9</f>
+        <v>14760000</v>
+      </c>
+      <c r="J10" s="20">
+        <f xml:space="preserve"> I10 / H10</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="63"/>
+      <c r="E13" s="34">
+        <f xml:space="preserve"> E10</f>
+        <v>1211000</v>
+      </c>
+      <c r="F13" s="34">
+        <f xml:space="preserve"> J10</f>
+        <v>1230000</v>
+      </c>
+      <c r="G13" s="34">
+        <f xml:space="preserve"> E13 - F13</f>
+        <v>-19000</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34">
+        <f>G13+H13</f>
+        <v>-19000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="D12:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E26" r:id="rId1" display="https://www.socialservice.or.kr:444/" xr:uid="{AF8631C6-675F-442C-997F-F67E4532F5B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17F6E54-8A36-4332-9D4E-CDCAD5054344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CEC4FE-FFFF-47A6-AF48-97B083ED8FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오_A" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
     <sheet name="생활패턴" sheetId="5" r:id="rId3"/>
-    <sheet name="병원지출" sheetId="6" r:id="rId4"/>
-    <sheet name="지출2" sheetId="8" r:id="rId5"/>
+    <sheet name="단타일지" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>[전업투자]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,54 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공과금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바우처비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애인 연금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식비 및 기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원비환급금(3~5월에 나누어서 지급)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연기준 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 예상지출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용돈A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,286 +138,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대근비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">인터넷 TV </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강보험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공과금 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원비환급금(3~5월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총소비금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총수입금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월평균금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실월금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알뜰폰 'SK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.socialservice.or.kr:444/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전자바우처관리 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여사님 급여 시간 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애인등급갱신 2년단위 65세까지 65세이후는 노인장기요양으로 전환해야 됨 (동사무소문의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사설구급차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9605-0119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5900-4182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성남교통약자이동센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1577-1158</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록되어있는번호 전환해야 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집주인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5314-3400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010 7741 4182 107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차병원개인간병 (믿음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-924-2311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성남 시청 장애인활동지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-729-2884</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성심복지센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3360-3059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신흥동 주민센터 장애인담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-729-5186</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애인등급관리(24년 8월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집주인관련(삼성부동산)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9113-3668</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">서옥희 여사님 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5858-6734</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성남 대형 폐기물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-734-4008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가정간호(차병원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-780-5691</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가정간호(담당 간호사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2860-5691</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lG U+ 인터넷 TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증서,통장,신분증,도장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강보험공단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nhis.or.kr/nhis/index.do</t>
-  </si>
-  <si>
-    <t>환급금신청시활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설/추석 에는 사람이 없어서 그때 집으로 모실 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 지출 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상 지출 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초생활 의료수급권자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가정방문간호사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 여사님 바우처 계약하고 있는 센터 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생활패턴C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생활패턴D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예치금 계좌 우리은행 315-25-0007-690 (차의과학대학) 이체후 문자로 입금자명, 금액, 입금날짜, 환자명 보내기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BARAQUE / *solocher83*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증서 : *solocher83*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbg613 / *solocher83*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,7 +154,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기초생활수급</t>
+    <t>매매횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 현재 매매법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익율(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +187,7 @@
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,34 +220,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,12 +248,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,32 +257,8 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -648,17 +288,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -666,68 +295,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,12 +367,6 @@
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -797,13 +376,13 @@
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -815,92 +394,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -911,35 +409,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1238,31 +732,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="27" t="s">
+      <c r="D1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1275,7 +769,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="30">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -1302,7 +796,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -1327,7 +821,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -1352,7 +846,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -1376,34 +870,34 @@
       </c>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
-      <c r="C7" s="23">
+    <row r="7" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="21">
         <v>5</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>2520000</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <f t="shared" si="0"/>
         <v>12007323.16488</v>
       </c>
-      <c r="F7" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="F7" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G7" s="22">
         <f t="shared" si="1"/>
         <v>12223454.981847839</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25">
+      <c r="H7" s="22"/>
+      <c r="I7" s="23">
         <v>1000000</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="P7" s="24"/>
+      <c r="K7" s="27"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -1427,58 +921,58 @@
       </c>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
-      <c r="C9" s="23">
+    <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="30"/>
+      <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="9">
         <v>2500000</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <f t="shared" si="0"/>
         <v>16888477.171521101</v>
       </c>
-      <c r="F9" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="F9" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
         <v>17192469.760608479</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25">
+      <c r="H9" s="22"/>
+      <c r="I9" s="23">
         <v>600000</v>
       </c>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
-      <c r="C10" s="23">
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30"/>
+      <c r="C10" s="21">
         <v>8</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>2500000</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>14635925.760608479</v>
       </c>
-      <c r="F10" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G10" s="24">
+      <c r="F10" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G10" s="22">
         <f t="shared" si="1"/>
         <v>14899372.424299432</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
+      <c r="H10" s="22"/>
+      <c r="I10" s="23">
         <v>5056544</v>
       </c>
-      <c r="P10" s="24"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -1503,7 +997,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -1528,7 +1022,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -1552,59 +1046,59 @@
       </c>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
-      <c r="C14" s="20">
+    <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="18">
         <v>12</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>2500000</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
         <v>29082080.366347998</v>
       </c>
-      <c r="F14" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G14" s="21">
+      <c r="F14" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
         <v>29605557.812942263</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
+      <c r="H14" s="19"/>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
         <f xml:space="preserve"> (G2 + SUM(D3:D14)) - SUM(I3:I14)</f>
         <v>26363456</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <f xml:space="preserve"> G14 - J14</f>
         <v>3242101.8129422627</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="18">
         <v>0.84</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="19">
         <f xml:space="preserve"> K14 * L14</f>
         <v>2723365.5228715008</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="19">
         <f xml:space="preserve"> K14 - M14</f>
         <v>518736.29007076193</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="18">
         <f xml:space="preserve"> K14 / J14 * 100</f>
         <v>12.297711699643108</v>
       </c>
-      <c r="P14" s="21"/>
+      <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="30">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -1640,7 +1134,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -1666,7 +1160,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -1692,7 +1186,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="59"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -1718,7 +1212,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1745,7 +1239,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -1771,7 +1265,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -1797,7 +1291,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -1823,7 +1317,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -1849,7 +1343,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -1875,7 +1369,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -1900,60 +1394,60 @@
       </c>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="C26" s="20">
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30"/>
+      <c r="C26" s="18">
         <v>12</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <f xml:space="preserve"> K15</f>
         <v>3733564.9088725941</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <f t="shared" si="2"/>
         <v>66940028.43204587</v>
       </c>
-      <c r="F26" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="F26" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G26" s="19">
         <f t="shared" si="3"/>
         <v>68144948.943822697</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21">
+      <c r="H26" s="19"/>
+      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
         <f xml:space="preserve"> (E15 + SUM(D16:D26)) - SUM(I15:I26)</f>
         <v>59086821.522871502</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="19">
         <f xml:space="preserve"> G26 - J26</f>
         <v>9058127.4209511951</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="18">
         <v>0.84</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="19">
         <f xml:space="preserve"> K26 * L26</f>
         <v>7608827.0335990032</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="19">
         <f xml:space="preserve"> K26 - M26</f>
         <v>1449300.3873521918</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="18">
         <f xml:space="preserve"> K26 / J26 * 100</f>
         <v>15.330199167076449</v>
       </c>
-      <c r="P26" s="21"/>
+      <c r="P26" s="19"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="30">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -1989,7 +1483,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -2015,7 +1509,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -2041,7 +1535,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="59"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -2067,7 +1561,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="59"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -2094,7 +1588,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="59"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -2120,7 +1614,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -2146,7 +1640,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -2172,7 +1666,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="59"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -2198,7 +1692,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="59"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -2224,7 +1718,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="59"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -2249,60 +1743,60 @@
       </c>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="59"/>
-      <c r="C38" s="20">
+    <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="30"/>
+      <c r="C38" s="18">
         <v>12</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <f>K27</f>
         <v>5339372.872659279</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <f t="shared" si="4"/>
         <v>110630026.5582383</v>
       </c>
-      <c r="F38" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G38" s="21">
+      <c r="F38" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G38" s="19">
         <f t="shared" si="5"/>
         <v>112621367.03628659</v>
       </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22">
-        <v>0</v>
-      </c>
-      <c r="J38" s="21">
+      <c r="H38" s="19"/>
+      <c r="I38" s="20">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19">
         <f xml:space="preserve"> (E27 + SUM(D28:D38)) - SUM(I27:I38)</f>
         <v>96695648.556470513</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="19">
         <f xml:space="preserve"> G38 - J38</f>
         <v>15925718.479816079</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="18">
         <v>0.84</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="19">
         <f xml:space="preserve"> K38 * L38</f>
         <v>13377603.523045506</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="19">
         <f xml:space="preserve"> K38 - M38</f>
         <v>2548114.9567705728</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="18">
         <f xml:space="preserve"> K38 / J38 * 100</f>
         <v>16.469943288622151</v>
       </c>
-      <c r="P38" s="21"/>
+      <c r="P38" s="19"/>
     </row>
     <row r="39" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="59">
+      <c r="B39" s="30">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -2338,7 +1832,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="59"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -2364,7 +1858,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="59"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -2390,7 +1884,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="59"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -2416,7 +1910,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="59"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -2443,7 +1937,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="59"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -2469,7 +1963,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="59"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -2495,7 +1989,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="59"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -2521,7 +2015,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="59"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -2547,7 +2041,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="59"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -2573,7 +2067,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="59"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -2598,60 +2092,60 @@
       </c>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="59"/>
-      <c r="C50" s="20">
+    <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="30"/>
+      <c r="C50" s="18">
         <v>12</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="19">
         <f>K39</f>
         <v>7192556.9598452747</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="19">
         <f t="shared" si="6"/>
         <v>111022299.41046417</v>
       </c>
-      <c r="F50" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G50" s="21">
+      <c r="F50" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G50" s="19">
         <f t="shared" si="5"/>
         <v>113020700.79985252</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22">
+      <c r="H50" s="19"/>
+      <c r="I50" s="20">
         <v>50000000</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="19">
         <f xml:space="preserve"> (E39 + SUM(D40:D50)) - SUM(I40:I50)</f>
         <v>90073252.079516023</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="19">
         <f xml:space="preserve"> G50 - J50</f>
         <v>22947448.720336497</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="18">
         <v>0.84</v>
       </c>
-      <c r="M50" s="21">
+      <c r="M50" s="19">
         <f xml:space="preserve"> K50 * L50</f>
         <v>19275856.925082657</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N50" s="19">
         <f xml:space="preserve"> K50 - M50</f>
         <v>3671591.7952538393</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="18">
         <f xml:space="preserve"> K50 / J50 * 100</f>
         <v>25.476429673127214</v>
       </c>
-      <c r="P50" s="21"/>
+      <c r="P50" s="19"/>
     </row>
     <row r="51" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="59">
+      <c r="B51" s="30">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -2687,7 +2181,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="59"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -2713,7 +2207,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="59"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -2739,7 +2233,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="59"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -2765,7 +2259,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="59"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -2792,7 +2286,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="59"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -2818,7 +2312,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="59"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -2844,7 +2338,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="59"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -2870,7 +2364,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="59"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -2896,7 +2390,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="59"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -2922,7 +2416,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -2947,60 +2441,60 @@
       </c>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="59"/>
-      <c r="C62" s="20">
+    <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="30"/>
+      <c r="C62" s="18">
         <v>12</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="19">
         <f xml:space="preserve"> K51</f>
         <v>7209195.8666605214</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="19">
         <f t="shared" si="7"/>
         <v>160213014.44626263</v>
       </c>
-      <c r="F62" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G62" s="21">
+      <c r="F62" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G62" s="19">
         <f t="shared" si="5"/>
         <v>163096848.70629534</v>
       </c>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22">
-        <v>0</v>
-      </c>
-      <c r="J62" s="21">
+      <c r="H62" s="19"/>
+      <c r="I62" s="20">
+        <v>0</v>
+      </c>
+      <c r="J62" s="19">
         <f xml:space="preserve"> (E51 + SUM(D52:D62)) - SUM(I52:I62)</f>
         <v>139349109.00459868</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="19">
         <f xml:space="preserve"> G62 - J62</f>
         <v>23747739.701696664</v>
       </c>
-      <c r="L62" s="20">
+      <c r="L62" s="18">
         <v>0.84</v>
       </c>
-      <c r="M62" s="21">
+      <c r="M62" s="19">
         <f xml:space="preserve"> K62 * L62</f>
         <v>19948101.349425197</v>
       </c>
-      <c r="N62" s="21">
+      <c r="N62" s="19">
         <f xml:space="preserve"> K62 - M62</f>
         <v>3799638.3522714674</v>
       </c>
-      <c r="O62" s="20">
+      <c r="O62" s="18">
         <f xml:space="preserve"> K62 / J62 * 100</f>
         <v>17.041902794594087</v>
       </c>
-      <c r="P62" s="21"/>
+      <c r="P62" s="19"/>
     </row>
     <row r="63" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="59">
+      <c r="B63" s="30">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -3036,7 +2530,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="59"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -3062,7 +2556,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="59"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -3088,7 +2582,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="59"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -3114,7 +2608,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="59"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -3141,7 +2635,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="59"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -3168,7 +2662,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="59"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -3194,7 +2688,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="59"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -3220,7 +2714,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="59"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -3246,7 +2740,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="59"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -3272,7 +2766,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="59"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -3297,60 +2791,60 @@
       </c>
       <c r="P73" s="9"/>
     </row>
-    <row r="74" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="59"/>
-      <c r="C74" s="20">
+    <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="30"/>
+      <c r="C74" s="18">
         <v>12</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="19">
         <f>K63</f>
         <v>9295702.0294289738</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="19">
         <f t="shared" si="8"/>
         <v>218206480.53802741</v>
       </c>
-      <c r="F74" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G74" s="21">
+      <c r="F74" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G74" s="19">
         <f t="shared" si="5"/>
         <v>222134197.18771189</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="22">
-        <v>0</v>
-      </c>
-      <c r="J74" s="21">
+      <c r="H74" s="19"/>
+      <c r="I74" s="20">
+        <v>0</v>
+      </c>
+      <c r="J74" s="19">
         <f xml:space="preserve"> (E63 + SUM(D64:D74)) - SUM(I64:I74)</f>
         <v>189297210.3540239</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K74" s="19">
         <f xml:space="preserve"> G74 - J74</f>
         <v>32836986.833687991</v>
       </c>
-      <c r="L74" s="20">
+      <c r="L74" s="18">
         <v>0.84</v>
       </c>
-      <c r="M74" s="21">
+      <c r="M74" s="19">
         <f xml:space="preserve"> K74 * L74</f>
         <v>27583068.940297913</v>
       </c>
-      <c r="N74" s="21">
+      <c r="N74" s="19">
         <f xml:space="preserve"> K74 - M74</f>
         <v>5253917.8933900781</v>
       </c>
-      <c r="O74" s="20">
+      <c r="O74" s="18">
         <f xml:space="preserve"> K74 / J74 * 100</f>
         <v>17.346788561900205</v>
       </c>
-      <c r="P74" s="21"/>
+      <c r="P74" s="19"/>
     </row>
     <row r="75" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="59">
+      <c r="B75" s="30">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -3386,7 +2880,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="59"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -3412,7 +2906,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="59"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -3438,7 +2932,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="59"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -3464,7 +2958,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="59"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -3491,7 +2985,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="59"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -3517,7 +3011,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="59"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -3543,7 +3037,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="59"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -3569,7 +3063,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="59"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -3595,7 +3089,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="59"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -3621,7 +3115,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="59"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -3646,60 +3140,60 @@
       </c>
       <c r="P85" s="9"/>
     </row>
-    <row r="86" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="59"/>
-      <c r="C86" s="20">
+    <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30"/>
+      <c r="C86" s="18">
         <v>12</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="19">
         <f xml:space="preserve"> K75</f>
         <v>11755591.549487995</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="19">
         <f t="shared" si="9"/>
         <v>285101287.28296041</v>
       </c>
-      <c r="F86" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G86" s="21">
+      <c r="F86" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G86" s="19">
         <f t="shared" si="5"/>
         <v>290233110.4540537</v>
       </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="22">
-        <v>0</v>
-      </c>
-      <c r="J86" s="21">
+      <c r="H86" s="19"/>
+      <c r="I86" s="20">
+        <v>0</v>
+      </c>
+      <c r="J86" s="19">
         <f xml:space="preserve"> (E75 + SUM(D76:D86)) - SUM(I76:I86)</f>
         <v>246880279.29432181</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K86" s="19">
         <f xml:space="preserve"> G86 - J86</f>
         <v>43352831.159731895</v>
       </c>
-      <c r="L86" s="20">
+      <c r="L86" s="18">
         <v>0.84</v>
       </c>
-      <c r="M86" s="21">
+      <c r="M86" s="19">
         <f xml:space="preserve"> K86 * L86</f>
         <v>36416378.174174793</v>
       </c>
-      <c r="N86" s="21">
+      <c r="N86" s="19">
         <f xml:space="preserve"> K86 - M86</f>
         <v>6936452.9855571017</v>
       </c>
-      <c r="O86" s="20">
+      <c r="O86" s="18">
         <f xml:space="preserve"> K86 / J86 * 100</f>
         <v>17.560264952571689</v>
       </c>
-      <c r="P86" s="21"/>
+      <c r="P86" s="19"/>
     </row>
     <row r="87" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="59">
+      <c r="B87" s="30">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -3735,7 +3229,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="59"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -3761,7 +3255,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="59"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -3787,7 +3281,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="59"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -3813,7 +3307,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="59"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -3840,7 +3334,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="59"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -3866,7 +3360,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="59"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -3892,7 +3386,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="59"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -3918,7 +3412,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="59"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -3944,7 +3438,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="59"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -3970,7 +3464,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="59"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -3995,60 +3489,60 @@
       </c>
       <c r="P97" s="9"/>
     </row>
-    <row r="98" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="59"/>
-      <c r="C98" s="20">
+    <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="30"/>
+      <c r="C98" s="18">
         <v>12</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="19">
         <f xml:space="preserve"> K87</f>
         <v>14593046.268918904</v>
       </c>
-      <c r="E98" s="21">
+      <c r="E98" s="19">
         <f t="shared" si="10"/>
         <v>362257979.22786808</v>
       </c>
-      <c r="F98" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G98" s="21">
+      <c r="F98" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G98" s="19">
         <f t="shared" si="11"/>
         <v>368778622.85396969</v>
       </c>
-      <c r="H98" s="21"/>
-      <c r="I98" s="22">
-        <v>0</v>
-      </c>
-      <c r="J98" s="21">
+      <c r="H98" s="19"/>
+      <c r="I98" s="20">
+        <v>0</v>
+      </c>
+      <c r="J98" s="19">
         <f xml:space="preserve"> (E87 + SUM(D88:D98)) - SUM(I88:I98)</f>
         <v>313296657.46849662</v>
       </c>
-      <c r="K98" s="21">
+      <c r="K98" s="19">
         <f xml:space="preserve"> G98 - J98</f>
         <v>55481965.385473073</v>
       </c>
-      <c r="L98" s="20">
+      <c r="L98" s="18">
         <v>0.84</v>
       </c>
-      <c r="M98" s="21">
+      <c r="M98" s="19">
         <f xml:space="preserve"> K98 * L98</f>
         <v>46604850.923797376</v>
       </c>
-      <c r="N98" s="21">
+      <c r="N98" s="19">
         <f xml:space="preserve"> K98 - M98</f>
         <v>8877114.4616756961</v>
       </c>
-      <c r="O98" s="20">
+      <c r="O98" s="18">
         <f xml:space="preserve"> K98 / J98 * 100</f>
         <v>17.709083088782084</v>
       </c>
-      <c r="P98" s="21"/>
+      <c r="P98" s="19"/>
     </row>
     <row r="99" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="59">
+      <c r="B99" s="30">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -4084,7 +3578,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="59"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -4110,7 +3604,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="59"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -4136,7 +3630,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="59"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -4162,7 +3656,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="59"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -4189,7 +3683,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="59"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -4215,7 +3709,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="59"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -4241,7 +3735,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="59"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -4267,7 +3761,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="59"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -4293,7 +3787,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="59"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -4319,7 +3813,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="59"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -4344,60 +3838,60 @@
       </c>
       <c r="P109" s="9"/>
     </row>
-    <row r="110" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="59"/>
-      <c r="C110" s="20">
+    <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="30"/>
+      <c r="C110" s="18">
         <v>12</v>
       </c>
-      <c r="D110" s="21">
+      <c r="D110" s="19">
         <f>K99</f>
         <v>17865775.952248737</v>
       </c>
-      <c r="E110" s="21">
+      <c r="E110" s="19">
         <f t="shared" si="12"/>
         <v>451250741.02353632</v>
       </c>
-      <c r="F110" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G110" s="21">
+      <c r="F110" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G110" s="19">
         <f t="shared" si="11"/>
         <v>459373254.36195999</v>
       </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="22">
-        <v>0</v>
-      </c>
-      <c r="J110" s="21">
+      <c r="H110" s="19"/>
+      <c r="I110" s="20">
+        <v>0</v>
+      </c>
+      <c r="J110" s="19">
         <f xml:space="preserve"> (E99 + SUM(D100:D110)) - SUM(I100:I110)</f>
         <v>389901508.39229405</v>
       </c>
-      <c r="K110" s="21">
+      <c r="K110" s="19">
         <f xml:space="preserve"> G110 - J110</f>
         <v>69471745.969665945</v>
       </c>
-      <c r="L110" s="20">
+      <c r="L110" s="18">
         <v>0.84</v>
       </c>
-      <c r="M110" s="21">
+      <c r="M110" s="19">
         <f xml:space="preserve"> K110 * L110</f>
         <v>58356266.614519395</v>
       </c>
-      <c r="N110" s="21">
+      <c r="N110" s="19">
         <f xml:space="preserve"> K110 - M110</f>
         <v>11115479.35514655</v>
       </c>
-      <c r="O110" s="20">
+      <c r="O110" s="18">
         <f xml:space="preserve"> K110 / J110 * 100</f>
         <v>17.817767942505085</v>
       </c>
-      <c r="P110" s="21"/>
+      <c r="P110" s="19"/>
     </row>
     <row r="111" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="59">
+      <c r="B111" s="30">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -4433,7 +3927,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="59"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -4459,7 +3953,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="59"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -4485,7 +3979,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="59"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -4511,7 +4005,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="59"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -4538,7 +4032,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="59"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -4564,7 +4058,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="59"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -4590,7 +4084,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="59"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -4616,7 +4110,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="59"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -4642,7 +4136,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="59"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -4668,7 +4162,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="59"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -4693,60 +4187,60 @@
       </c>
       <c r="P121" s="9"/>
     </row>
-    <row r="122" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="59"/>
-      <c r="C122" s="20">
+    <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="30"/>
+      <c r="C122" s="18">
         <v>12</v>
       </c>
-      <c r="D122" s="21">
+      <c r="D122" s="19">
         <f>K111</f>
         <v>21640552.265081666</v>
       </c>
-      <c r="E122" s="21">
+      <c r="E122" s="19">
         <f t="shared" si="13"/>
         <v>553895261.48576343</v>
       </c>
-      <c r="F122" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G122" s="21">
+      <c r="F122" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G122" s="19">
         <f t="shared" si="11"/>
         <v>563865376.19250715</v>
       </c>
-      <c r="H122" s="21"/>
-      <c r="I122" s="22">
-        <v>0</v>
-      </c>
-      <c r="J122" s="21">
+      <c r="H122" s="19"/>
+      <c r="I122" s="20">
+        <v>0</v>
+      </c>
+      <c r="J122" s="19">
         <f xml:space="preserve"> (E111 + SUM(D112:D122)) - SUM(I112:I122)</f>
         <v>478257775.00681353</v>
       </c>
-      <c r="K122" s="21">
+      <c r="K122" s="19">
         <f xml:space="preserve"> G122 - J122</f>
         <v>85607601.185693622</v>
       </c>
-      <c r="L122" s="20">
+      <c r="L122" s="18">
         <v>0.84</v>
       </c>
-      <c r="M122" s="21">
+      <c r="M122" s="19">
         <f xml:space="preserve"> K122 * L122</f>
         <v>71910384.995982647</v>
       </c>
-      <c r="N122" s="21">
+      <c r="N122" s="19">
         <f xml:space="preserve"> K122 - M122</f>
         <v>13697216.189710975</v>
       </c>
-      <c r="O122" s="20">
+      <c r="O122" s="18">
         <f xml:space="preserve"> K122 / J122 * 100</f>
         <v>17.899886977158712</v>
       </c>
-      <c r="P122" s="21"/>
+      <c r="P122" s="19"/>
     </row>
     <row r="123" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="59">
+      <c r="B123" s="30">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -4780,7 +4274,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="59"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -4804,7 +4298,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="59"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -4828,7 +4322,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="59"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -4852,7 +4346,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="59"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -4879,7 +4373,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="59"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -4903,7 +4397,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="59"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -4927,7 +4421,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="59"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -4951,7 +4445,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="59"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -4975,7 +4469,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="59"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -4999,7 +4493,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="59"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -5022,60 +4516,60 @@
       <c r="I133" s="10"/>
       <c r="P133" s="9"/>
     </row>
-    <row r="134" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="59"/>
-      <c r="C134" s="20">
+    <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="30"/>
+      <c r="C134" s="18">
         <v>12</v>
       </c>
-      <c r="D134" s="21">
+      <c r="D134" s="19">
         <f>K123</f>
         <v>25994390.674687799</v>
       </c>
-      <c r="E134" s="21">
+      <c r="E134" s="19">
         <f t="shared" si="14"/>
         <v>636285761.66015005</v>
       </c>
-      <c r="F134" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G134" s="21">
+      <c r="F134" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G134" s="19">
         <f t="shared" si="11"/>
         <v>647738905.37003279</v>
       </c>
-      <c r="H134" s="21"/>
-      <c r="I134" s="26">
+      <c r="H134" s="19"/>
+      <c r="I134" s="24">
         <v>36000000</v>
       </c>
-      <c r="J134" s="21">
+      <c r="J134" s="19">
         <f xml:space="preserve"> (E123 + SUM(D124:D134)) - SUM(I124:I134)</f>
         <v>544168160.00279617</v>
       </c>
-      <c r="K134" s="21">
+      <c r="K134" s="19">
         <f xml:space="preserve"> G134 - J134</f>
         <v>103570745.36723661</v>
       </c>
-      <c r="L134" s="20">
+      <c r="L134" s="18">
         <v>0.84</v>
       </c>
-      <c r="M134" s="21">
+      <c r="M134" s="19">
         <f xml:space="preserve"> K134 * L134</f>
         <v>86999426.108478755</v>
       </c>
-      <c r="N134" s="21">
+      <c r="N134" s="19">
         <f xml:space="preserve"> K134 - M134</f>
         <v>16571319.258757859</v>
       </c>
-      <c r="O134" s="20">
+      <c r="O134" s="18">
         <f xml:space="preserve"> K134 / J134 * 100</f>
         <v>19.032856565276518</v>
       </c>
-      <c r="P134" s="21"/>
+      <c r="P134" s="19"/>
     </row>
     <row r="135" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="60">
+      <c r="B135" s="31">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -5114,7 +4608,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="60"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -5138,7 +4632,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="60"/>
+      <c r="B137" s="31"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -5162,7 +4656,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="60"/>
+      <c r="B138" s="31"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -5186,7 +4680,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="60"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -5213,7 +4707,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="60"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -5237,7 +4731,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="60"/>
+      <c r="B141" s="31"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -5261,7 +4755,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="60"/>
+      <c r="B142" s="31"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -5285,7 +4779,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="60"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -5309,7 +4803,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="60"/>
+      <c r="B144" s="31"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -5333,7 +4827,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="60"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -5356,60 +4850,60 @@
       <c r="I145" s="14"/>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="60"/>
-      <c r="C146" s="20">
+    <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="31"/>
+      <c r="C146" s="18">
         <v>12</v>
       </c>
-      <c r="D146" s="21">
+      <c r="D146" s="19">
         <f>K135</f>
         <v>26989121.057084698</v>
       </c>
-      <c r="E146" s="21">
+      <c r="E146" s="19">
         <f t="shared" si="15"/>
         <v>697251135.71584558</v>
       </c>
-      <c r="F146" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G146" s="21">
+      <c r="F146" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G146" s="19">
         <f t="shared" si="11"/>
         <v>709801656.15873075</v>
       </c>
-      <c r="H146" s="21"/>
-      <c r="I146" s="26">
+      <c r="H146" s="19"/>
+      <c r="I146" s="24">
         <v>36000000</v>
       </c>
-      <c r="J146" s="21">
+      <c r="J146" s="19">
         <f xml:space="preserve"> (E135 + SUM(D136:D146)) - SUM(I136:I146)</f>
         <v>595167586.11127496</v>
       </c>
-      <c r="K146" s="21">
+      <c r="K146" s="19">
         <f xml:space="preserve"> G146 - J146</f>
         <v>114634070.04745579</v>
       </c>
-      <c r="L146" s="20">
+      <c r="L146" s="18">
         <v>0.84</v>
       </c>
-      <c r="M146" s="21">
+      <c r="M146" s="19">
         <f xml:space="preserve"> K146 * L146</f>
         <v>96292618.839862853</v>
       </c>
-      <c r="N146" s="21">
+      <c r="N146" s="19">
         <f xml:space="preserve"> K146 - M146</f>
         <v>18341451.207592934</v>
       </c>
-      <c r="O146" s="20">
+      <c r="O146" s="18">
         <f xml:space="preserve"> K146 / J146 * 100</f>
         <v>19.260805313080901</v>
       </c>
-      <c r="P146" s="21"/>
+      <c r="P146" s="19"/>
     </row>
     <row r="147" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="60">
+      <c r="B147" s="31">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -5443,7 +4937,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="60"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -5467,7 +4961,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="60"/>
+      <c r="B149" s="31"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -5491,7 +4985,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="60"/>
+      <c r="B150" s="31"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -5515,7 +5009,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="60"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -5542,7 +5036,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="60"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -5566,7 +5060,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="60"/>
+      <c r="B153" s="31"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -5590,7 +5084,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="60"/>
+      <c r="B154" s="31"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -5614,7 +5108,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="60"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -5638,7 +5132,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="60"/>
+      <c r="B156" s="31"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -5662,7 +5156,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="60"/>
+      <c r="B157" s="31"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -5685,60 +5179,60 @@
       <c r="I157" s="14"/>
       <c r="P157" s="13"/>
     </row>
-    <row r="158" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="60"/>
-      <c r="C158" s="20">
+    <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="31"/>
+      <c r="C158" s="18">
         <v>12</v>
       </c>
-      <c r="D158" s="21">
+      <c r="D158" s="19">
         <f>K147</f>
         <v>29575069.00661378</v>
       </c>
-      <c r="E158" s="21">
+      <c r="E158" s="19">
         <f t="shared" si="16"/>
         <v>767300578.27882051</v>
       </c>
-      <c r="F158" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G158" s="21">
+      <c r="F158" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G158" s="19">
         <f t="shared" ref="G158:G221" si="17" xml:space="preserve"> (E158 * F158) + E158</f>
         <v>781111988.68783927</v>
       </c>
-      <c r="H158" s="21"/>
-      <c r="I158" s="26">
+      <c r="H158" s="19"/>
+      <c r="I158" s="24">
         <v>36000000</v>
       </c>
-      <c r="J158" s="21">
+      <c r="J158" s="19">
         <f xml:space="preserve"> (E147 + SUM(D148:D158)) - SUM(I148:I158)</f>
         <v>655460204.95113778</v>
       </c>
-      <c r="K158" s="21">
+      <c r="K158" s="19">
         <f xml:space="preserve"> G158 - J158</f>
         <v>125651783.73670149</v>
       </c>
-      <c r="L158" s="20">
+      <c r="L158" s="18">
         <v>0.84</v>
       </c>
-      <c r="M158" s="21">
+      <c r="M158" s="19">
         <f xml:space="preserve"> K158 * L158</f>
         <v>105547498.33882925</v>
       </c>
-      <c r="N158" s="21">
+      <c r="N158" s="19">
         <f xml:space="preserve"> K158 - M158</f>
         <v>20104285.397872239</v>
       </c>
-      <c r="O158" s="20">
+      <c r="O158" s="18">
         <f xml:space="preserve"> K158 / J158 * 100</f>
         <v>19.170009527286005</v>
       </c>
-      <c r="P158" s="21"/>
+      <c r="P158" s="19"/>
     </row>
     <row r="159" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="60">
+      <c r="B159" s="31">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -5772,7 +5266,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="60"/>
+      <c r="B160" s="31"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -5796,7 +5290,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="60"/>
+      <c r="B161" s="31"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -5820,7 +5314,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="60"/>
+      <c r="B162" s="31"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -5844,7 +5338,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="60"/>
+      <c r="B163" s="31"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -5871,7 +5365,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="60"/>
+      <c r="B164" s="31"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -5895,7 +5389,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="60"/>
+      <c r="B165" s="31"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -5919,7 +5413,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="60"/>
+      <c r="B166" s="31"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -5943,7 +5437,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="60"/>
+      <c r="B167" s="31"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -5967,7 +5461,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="60"/>
+      <c r="B168" s="31"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -5991,7 +5485,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="60"/>
+      <c r="B169" s="31"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -6014,60 +5508,60 @@
       <c r="I169" s="14"/>
       <c r="P169" s="13"/>
     </row>
-    <row r="170" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="60"/>
-      <c r="C170" s="20">
+    <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="31"/>
+      <c r="C170" s="18">
         <v>12</v>
       </c>
-      <c r="D170" s="21">
+      <c r="D170" s="19">
         <f>K159</f>
         <v>32546332.861993302</v>
       </c>
-      <c r="E170" s="21">
+      <c r="E170" s="19">
         <f t="shared" si="18"/>
         <v>848094756.92198932</v>
       </c>
-      <c r="F170" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G170" s="21">
+      <c r="F170" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G170" s="19">
         <f t="shared" si="17"/>
         <v>863360462.54658508</v>
       </c>
-      <c r="H170" s="21"/>
-      <c r="I170" s="26">
+      <c r="H170" s="19"/>
+      <c r="I170" s="24">
         <v>36000000</v>
       </c>
-      <c r="J170" s="21">
+      <c r="J170" s="19">
         <f xml:space="preserve"> (E159 + SUM(D160:D170)) - SUM(I160:I170)</f>
         <v>725007703.28996706</v>
       </c>
-      <c r="K170" s="21">
+      <c r="K170" s="19">
         <f xml:space="preserve"> G170 - J170</f>
         <v>138352759.25661802</v>
       </c>
-      <c r="L170" s="20">
+      <c r="L170" s="18">
         <v>0.84</v>
       </c>
-      <c r="M170" s="21">
+      <c r="M170" s="19">
         <f xml:space="preserve"> K170 * L170</f>
         <v>116216317.77555914</v>
       </c>
-      <c r="N170" s="21">
+      <c r="N170" s="19">
         <f xml:space="preserve"> K170 - M170</f>
         <v>22136441.481058881</v>
       </c>
-      <c r="O170" s="20">
+      <c r="O170" s="18">
         <f xml:space="preserve"> K170 / J170 * 100</f>
         <v>19.082936447267485</v>
       </c>
-      <c r="P170" s="21"/>
+      <c r="P170" s="19"/>
     </row>
     <row r="171" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="60">
+      <c r="B171" s="31">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -6101,7 +5595,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="60"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -6125,7 +5619,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="60"/>
+      <c r="B173" s="31"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -6149,7 +5643,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="60"/>
+      <c r="B174" s="31"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -6173,7 +5667,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="60"/>
+      <c r="B175" s="31"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -6200,7 +5694,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="60"/>
+      <c r="B176" s="31"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -6224,7 +5718,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="60"/>
+      <c r="B177" s="31"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -6248,7 +5742,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="60"/>
+      <c r="B178" s="31"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -6272,7 +5766,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="60"/>
+      <c r="B179" s="31"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -6296,7 +5790,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="60"/>
+      <c r="B180" s="31"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -6320,7 +5814,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="60"/>
+      <c r="B181" s="31"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -6343,60 +5837,60 @@
       <c r="I181" s="14"/>
       <c r="P181" s="13"/>
     </row>
-    <row r="182" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="60"/>
-      <c r="C182" s="20">
+    <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="31"/>
+      <c r="C182" s="18">
         <v>12</v>
       </c>
-      <c r="D182" s="21">
+      <c r="D182" s="19">
         <f>K171</f>
         <v>35973352.606107712</v>
       </c>
-      <c r="E182" s="21">
+      <c r="E182" s="19">
         <f t="shared" si="19"/>
         <v>941283002.60262465</v>
       </c>
-      <c r="F182" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G182" s="21">
+      <c r="F182" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G182" s="19">
         <f t="shared" si="17"/>
         <v>958226096.64947188</v>
       </c>
-      <c r="H182" s="21"/>
-      <c r="I182" s="26">
+      <c r="H182" s="19"/>
+      <c r="I182" s="24">
         <v>36000000</v>
       </c>
-      <c r="J182" s="21">
+      <c r="J182" s="19">
         <f xml:space="preserve"> (E171 + SUM(D172:D182)) - SUM(I172:I182)</f>
         <v>805224021.06552625</v>
       </c>
-      <c r="K182" s="21">
+      <c r="K182" s="19">
         <f xml:space="preserve"> G182 - J182</f>
         <v>153002075.58394563</v>
       </c>
-      <c r="L182" s="20">
+      <c r="L182" s="18">
         <v>0.84</v>
       </c>
-      <c r="M182" s="21">
+      <c r="M182" s="19">
         <f xml:space="preserve"> K182 * L182</f>
         <v>128521743.49051432</v>
       </c>
-      <c r="N182" s="21">
+      <c r="N182" s="19">
         <f xml:space="preserve"> K182 - M182</f>
         <v>24480332.093431309</v>
       </c>
-      <c r="O182" s="20">
+      <c r="O182" s="18">
         <f xml:space="preserve"> K182 / J182 * 100</f>
         <v>19.001181234196547</v>
       </c>
-      <c r="P182" s="21"/>
+      <c r="P182" s="19"/>
     </row>
     <row r="183" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="60">
+      <c r="B183" s="31">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -6430,7 +5924,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="60"/>
+      <c r="B184" s="31"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -6454,7 +5948,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="60"/>
+      <c r="B185" s="31"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -6478,7 +5972,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="60"/>
+      <c r="B186" s="31"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -6502,7 +5996,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="60"/>
+      <c r="B187" s="31"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -6529,7 +6023,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="60"/>
+      <c r="B188" s="31"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -6553,7 +6047,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="60"/>
+      <c r="B189" s="31"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -6577,7 +6071,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="60"/>
+      <c r="B190" s="31"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -6601,7 +6095,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="60"/>
+      <c r="B191" s="31"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -6625,7 +6119,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="60"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -6649,7 +6143,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="60"/>
+      <c r="B193" s="31"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -6672,60 +6166,60 @@
       <c r="I193" s="14"/>
       <c r="P193" s="13"/>
     </row>
-    <row r="194" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="60"/>
-      <c r="C194" s="20">
+    <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="31"/>
+      <c r="C194" s="18">
         <v>12</v>
       </c>
-      <c r="D194" s="21">
+      <c r="D194" s="19">
         <f>K183</f>
         <v>39926087.360394664</v>
       </c>
-      <c r="E194" s="21">
+      <c r="E194" s="19">
         <f t="shared" si="20"/>
         <v>948766606.84298658</v>
       </c>
-      <c r="F194" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G194" s="21">
+      <c r="F194" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G194" s="19">
         <f t="shared" si="17"/>
         <v>965844405.76616037</v>
       </c>
-      <c r="H194" s="21"/>
-      <c r="I194" s="26">
+      <c r="H194" s="19"/>
+      <c r="I194" s="24">
         <v>136000000</v>
       </c>
-      <c r="J194" s="21">
+      <c r="J194" s="19">
         <f xml:space="preserve"> (E183 + SUM(D184:D194)) - SUM(I184:I194)</f>
         <v>797745764.55604053</v>
       </c>
-      <c r="K194" s="21">
+      <c r="K194" s="19">
         <f xml:space="preserve"> G194 - J194</f>
         <v>168098641.21011984</v>
       </c>
-      <c r="L194" s="20">
+      <c r="L194" s="18">
         <v>0.84</v>
       </c>
-      <c r="M194" s="21">
+      <c r="M194" s="19">
         <f xml:space="preserve"> K194 * L194</f>
         <v>141202858.61650068</v>
       </c>
-      <c r="N194" s="21">
+      <c r="N194" s="19">
         <f xml:space="preserve"> K194 - M194</f>
         <v>26895782.593619168</v>
       </c>
-      <c r="O194" s="20">
+      <c r="O194" s="18">
         <f xml:space="preserve"> K194 / J194 * 100</f>
         <v>21.071705884100766</v>
       </c>
-      <c r="P194" s="21"/>
+      <c r="P194" s="19"/>
     </row>
     <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="58">
+      <c r="B195" s="29">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -6762,7 +6256,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="58"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -6786,7 +6280,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="58"/>
+      <c r="B197" s="29"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -6810,7 +6304,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="58"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -6834,7 +6328,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="58"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -6861,7 +6355,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="58"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -6885,7 +6379,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="58"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -6909,7 +6403,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="58"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -6933,7 +6427,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="58"/>
+      <c r="B203" s="29"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -6957,7 +6451,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="58"/>
+      <c r="B204" s="29"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -6981,7 +6475,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="58"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -7005,7 +6499,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="58"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -7057,7 +6551,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="58">
+      <c r="B207" s="29">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -7091,7 +6585,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="58"/>
+      <c r="B208" s="29"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -7115,7 +6609,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="58"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -7139,7 +6633,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="58"/>
+      <c r="B210" s="29"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -7163,7 +6657,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="58"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -7190,7 +6684,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="58"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -7214,7 +6708,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="58"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -7238,7 +6732,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="58"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -7262,7 +6756,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="58"/>
+      <c r="B215" s="29"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -7286,7 +6780,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="58"/>
+      <c r="B216" s="29"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -7310,7 +6804,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="58"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -7334,7 +6828,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="58"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -7386,7 +6880,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="58">
+      <c r="B219" s="29">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -7420,7 +6914,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="58"/>
+      <c r="B220" s="29"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -7444,7 +6938,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="58"/>
+      <c r="B221" s="29"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -7468,7 +6962,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="58"/>
+      <c r="B222" s="29"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -7492,7 +6986,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="58"/>
+      <c r="B223" s="29"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -7519,7 +7013,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="58"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -7543,7 +7037,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="58"/>
+      <c r="B225" s="29"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -7567,7 +7061,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="58"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -7591,7 +7085,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="58"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -7615,7 +7109,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="58"/>
+      <c r="B228" s="29"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -7639,7 +7133,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="58"/>
+      <c r="B229" s="29"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -7663,7 +7157,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="58"/>
+      <c r="B230" s="29"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -7715,7 +7209,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="58">
+      <c r="B231" s="29">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -7749,7 +7243,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="58"/>
+      <c r="B232" s="29"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -7773,7 +7267,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="58"/>
+      <c r="B233" s="29"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -7797,7 +7291,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="58"/>
+      <c r="B234" s="29"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -7821,7 +7315,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="58"/>
+      <c r="B235" s="29"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -7848,7 +7342,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="58"/>
+      <c r="B236" s="29"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -7872,7 +7366,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="58"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -7896,7 +7390,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="58"/>
+      <c r="B238" s="29"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -7920,7 +7414,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="58"/>
+      <c r="B239" s="29"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -7944,7 +7438,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="58"/>
+      <c r="B240" s="29"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -7968,7 +7462,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="58"/>
+      <c r="B241" s="29"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -7992,7 +7486,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="58"/>
+      <c r="B242" s="29"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -8044,7 +7538,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="58">
+      <c r="B243" s="29">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -8079,7 +7573,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="58"/>
+      <c r="B244" s="29"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -8109,7 +7603,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="58"/>
+      <c r="B245" s="29"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -8139,7 +7633,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="58"/>
+      <c r="B246" s="29"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -8169,7 +7663,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="58"/>
+      <c r="B247" s="29"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -8202,7 +7696,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="58"/>
+      <c r="B248" s="29"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -8232,7 +7726,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="58"/>
+      <c r="B249" s="29"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -8262,7 +7756,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="58"/>
+      <c r="B250" s="29"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -8292,7 +7786,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="58"/>
+      <c r="B251" s="29"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -8322,7 +7816,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="58"/>
+      <c r="B252" s="29"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -8352,7 +7846,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="58"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -8382,7 +7876,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="58"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -8480,31 +7974,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="27" t="s">
+      <c r="D1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8517,7 +8011,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="30">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -8544,7 +8038,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -8569,7 +8063,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -8594,7 +8088,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -8618,34 +8112,34 @@
       </c>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
-      <c r="C7" s="23">
+    <row r="7" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="21">
         <v>5</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>2520000</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <f t="shared" si="0"/>
         <v>12007323.16488</v>
       </c>
-      <c r="F7" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="F7" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G7" s="22">
         <f t="shared" si="1"/>
         <v>12223454.981847839</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25">
+      <c r="H7" s="22"/>
+      <c r="I7" s="23">
         <v>1000000</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="P7" s="24"/>
+      <c r="K7" s="27"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -8669,58 +8163,58 @@
       </c>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
-      <c r="C9" s="23">
+    <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="30"/>
+      <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="9">
         <v>2500000</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <f t="shared" si="0"/>
         <v>16888477.171521101</v>
       </c>
-      <c r="F9" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="F9" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
         <v>17192469.760608479</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25">
+      <c r="H9" s="22"/>
+      <c r="I9" s="23">
         <v>600000</v>
       </c>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
-      <c r="C10" s="23">
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30"/>
+      <c r="C10" s="21">
         <v>8</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>2500000</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>14635925.760608479</v>
       </c>
-      <c r="F10" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G10" s="24">
+      <c r="F10" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G10" s="22">
         <f t="shared" si="1"/>
         <v>14899372.424299432</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
+      <c r="H10" s="22"/>
+      <c r="I10" s="23">
         <v>5056544</v>
       </c>
-      <c r="P10" s="24"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -8745,7 +8239,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -8770,7 +8264,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -8794,59 +8288,59 @@
       </c>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
-      <c r="C14" s="20">
+    <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="18">
         <v>12</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>2500000</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
         <v>17082080.366347998</v>
       </c>
-      <c r="F14" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G14" s="21">
+      <c r="F14" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
         <v>17389557.812942263</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22">
+      <c r="H14" s="19"/>
+      <c r="I14" s="20">
         <v>12000000</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <f xml:space="preserve"> (G2 + SUM(D3:D14)) - SUM(I3:I14)</f>
         <v>14363456</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <f xml:space="preserve"> G14 - J14</f>
         <v>3026101.8129422627</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="18">
         <v>0.84</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="19">
         <f xml:space="preserve"> K14 * L14</f>
         <v>2541925.5228715008</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="19">
         <f xml:space="preserve"> K14 - M14</f>
         <v>484176.29007076193</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="18">
         <f xml:space="preserve"> K14 / J14 * 100</f>
         <v>21.068061982730775</v>
       </c>
-      <c r="P14" s="21"/>
+      <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="30">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -8882,7 +8376,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -8908,7 +8402,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -8934,7 +8428,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="59"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -8960,7 +8454,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -8987,7 +8481,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -9013,7 +8507,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -9039,7 +8533,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -9065,7 +8559,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -9091,7 +8585,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -9117,7 +8611,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -9142,60 +8636,60 @@
       </c>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="C26" s="20">
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30"/>
+      <c r="C26" s="18">
         <v>12</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <f xml:space="preserve"> K15</f>
         <v>3224564.9088725941</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <f t="shared" si="2"/>
         <v>44353955.361053154</v>
       </c>
-      <c r="F26" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="F26" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G26" s="19">
         <f t="shared" si="3"/>
         <v>45152326.557552114</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21">
+      <c r="H26" s="19"/>
+      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
         <f xml:space="preserve"> (E15 + SUM(D16:D26)) - SUM(I15:I26)</f>
         <v>36405381.522871487</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="19">
         <f xml:space="preserve"> G26 - J26</f>
         <v>8746945.0346806273</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="18">
         <v>0.84</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="19">
         <f xml:space="preserve"> K26 * L26</f>
         <v>7347433.8291317271</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="19">
         <f xml:space="preserve"> K26 - M26</f>
         <v>1399511.2055489002</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="18">
         <f xml:space="preserve"> K26 / J26 * 100</f>
         <v>24.026516599435734</v>
       </c>
-      <c r="P26" s="21"/>
+      <c r="P26" s="19"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="30">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -9231,7 +8725,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -9257,7 +8751,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -9283,7 +8777,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="59"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -9309,7 +8803,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="59"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -9336,7 +8830,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="59"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -9362,7 +8856,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -9388,7 +8882,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -9414,7 +8908,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="59"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -9440,7 +8934,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="59"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -9466,7 +8960,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="59"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -9491,60 +8985,60 @@
       </c>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="59"/>
-      <c r="C38" s="20">
+    <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="30"/>
+      <c r="C38" s="18">
         <v>12</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <f>K27</f>
         <v>4381346.9398980048</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <f t="shared" si="4"/>
         <v>83991940.962750137</v>
       </c>
-      <c r="F38" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G38" s="21">
+      <c r="F38" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G38" s="19">
         <f t="shared" si="5"/>
         <v>85503795.900079638</v>
       </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22">
-        <v>0</v>
-      </c>
-      <c r="J38" s="21">
+      <c r="H38" s="19"/>
+      <c r="I38" s="20">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19">
         <f xml:space="preserve"> (E27 + SUM(D28:D38)) - SUM(I27:I38)</f>
         <v>73752815.352003232</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="19">
         <f xml:space="preserve"> G38 - J38</f>
         <v>11750980.548076406</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="18">
         <v>0.84</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="19">
         <f xml:space="preserve"> K38 * L38</f>
         <v>9870823.66038418</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="19">
         <f xml:space="preserve"> K38 - M38</f>
         <v>1880156.8876922261</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="18">
         <f xml:space="preserve"> K38 / J38 * 100</f>
         <v>15.932924718862591</v>
       </c>
-      <c r="P38" s="21"/>
+      <c r="P38" s="19"/>
     </row>
     <row r="39" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="59">
+      <c r="B39" s="30">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -9580,7 +9074,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="59"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -9606,7 +9100,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="59"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -9632,7 +9126,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="59"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -9658,7 +9152,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="59"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -9685,7 +9179,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="59"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -9711,7 +9205,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="59"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -9737,7 +9231,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="59"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -9763,7 +9257,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="59"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -9789,7 +9283,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="59"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -9815,7 +9309,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="59"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -9840,60 +9334,60 @@
       </c>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="59"/>
-      <c r="C50" s="20">
+    <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="30"/>
+      <c r="C50" s="18">
         <v>12</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="19">
         <f>K39</f>
         <v>6062658.1625033189</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="19">
         <f t="shared" si="6"/>
         <v>80295529.725787818</v>
       </c>
-      <c r="F50" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G50" s="21">
+      <c r="F50" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G50" s="19">
         <f t="shared" si="5"/>
         <v>81740849.260851994</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22">
+      <c r="H50" s="19"/>
+      <c r="I50" s="20">
         <v>50000000</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="19">
         <f xml:space="preserve"> (E39 + SUM(D40:D50)) - SUM(I40:I50)</f>
         <v>63623639.01238741</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="19">
         <f xml:space="preserve"> G50 - J50</f>
         <v>18117210.248464584</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="18">
         <v>0.84</v>
       </c>
-      <c r="M50" s="21">
+      <c r="M50" s="19">
         <f xml:space="preserve"> K50 * L50</f>
         <v>15218456.60871025</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N50" s="19">
         <f xml:space="preserve"> K50 - M50</f>
         <v>2898753.6397543345</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="18">
         <f xml:space="preserve"> K50 / J50 * 100</f>
         <v>28.475595752920068</v>
       </c>
-      <c r="P50" s="21"/>
+      <c r="P50" s="19"/>
     </row>
     <row r="51" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="59">
+      <c r="B51" s="30">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -9929,7 +9423,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="59"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -9955,7 +9449,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="59"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -9981,7 +9475,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="59"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -10007,7 +9501,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="59"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -10034,7 +9528,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="59"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -10060,7 +9554,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="59"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -10086,7 +9580,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="59"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -10112,7 +9606,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="59"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -10138,7 +9632,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="59"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -10164,7 +9658,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -10189,60 +9683,60 @@
       </c>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="59"/>
-      <c r="C62" s="20">
+    <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="30"/>
+      <c r="C62" s="18">
         <v>12</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="19">
         <f xml:space="preserve"> K51</f>
         <v>5905868.7192021664</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="19">
         <f t="shared" si="7"/>
         <v>124772656.23590036</v>
       </c>
-      <c r="F62" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G62" s="21">
+      <c r="F62" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G62" s="19">
         <f t="shared" si="5"/>
         <v>127018564.04814656</v>
       </c>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22">
-        <v>0</v>
-      </c>
-      <c r="J62" s="21">
+      <c r="H62" s="19"/>
+      <c r="I62" s="20">
+        <v>0</v>
+      </c>
+      <c r="J62" s="19">
         <f xml:space="preserve"> (E51 + SUM(D52:D62)) - SUM(I52:I62)</f>
         <v>108842095.62109767</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="19">
         <f xml:space="preserve"> G62 - J62</f>
         <v>18176468.427048892</v>
       </c>
-      <c r="L62" s="20">
+      <c r="L62" s="18">
         <v>0.84</v>
       </c>
-      <c r="M62" s="21">
+      <c r="M62" s="19">
         <f xml:space="preserve"> K62 * L62</f>
         <v>15268233.478721069</v>
       </c>
-      <c r="N62" s="21">
+      <c r="N62" s="19">
         <f xml:space="preserve"> K62 - M62</f>
         <v>2908234.9483278226</v>
       </c>
-      <c r="O62" s="20">
+      <c r="O62" s="18">
         <f xml:space="preserve"> K62 / J62 * 100</f>
         <v>16.699851581620607</v>
       </c>
-      <c r="P62" s="21"/>
+      <c r="P62" s="19"/>
     </row>
     <row r="63" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="59">
+      <c r="B63" s="30">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -10278,7 +9772,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="59"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -10304,7 +9798,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="59"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -10330,7 +9824,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="59"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -10356,7 +9850,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="59"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -10383,7 +9877,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="59"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -10410,7 +9904,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="59"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -10436,7 +9930,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="59"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -10462,7 +9956,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="59"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -10488,7 +9982,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="59"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -10514,7 +10008,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="59"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -10539,60 +10033,60 @@
       </c>
       <c r="P73" s="9"/>
     </row>
-    <row r="74" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="59"/>
-      <c r="C74" s="20">
+    <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="30"/>
+      <c r="C74" s="18">
         <v>12</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="19">
         <f>K63</f>
         <v>7792440.1686727731</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="19">
         <f t="shared" si="8"/>
         <v>177329464.21302101</v>
       </c>
-      <c r="F74" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G74" s="21">
+      <c r="F74" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G74" s="19">
         <f t="shared" si="5"/>
         <v>180521394.56885538</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="22">
-        <v>0</v>
-      </c>
-      <c r="J74" s="21">
+      <c r="H74" s="19"/>
+      <c r="I74" s="20">
+        <v>0</v>
+      </c>
+      <c r="J74" s="19">
         <f xml:space="preserve"> (E63 + SUM(D64:D74)) - SUM(I64:I74)</f>
         <v>154110329.09981874</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K74" s="19">
         <f xml:space="preserve"> G74 - J74</f>
         <v>26411065.469036639</v>
       </c>
-      <c r="L74" s="20">
+      <c r="L74" s="18">
         <v>0.84</v>
       </c>
-      <c r="M74" s="21">
+      <c r="M74" s="19">
         <f xml:space="preserve"> K74 * L74</f>
         <v>22185294.993990775</v>
       </c>
-      <c r="N74" s="21">
+      <c r="N74" s="19">
         <f xml:space="preserve"> K74 - M74</f>
         <v>4225770.4750458635</v>
       </c>
-      <c r="O74" s="20">
+      <c r="O74" s="18">
         <f xml:space="preserve"> K74 / J74 * 100</f>
         <v>17.137764628307256</v>
       </c>
-      <c r="P74" s="21"/>
+      <c r="P74" s="19"/>
     </row>
     <row r="75" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="59">
+      <c r="B75" s="30">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -10628,7 +10122,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="59"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -10654,7 +10148,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="59"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -10680,7 +10174,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="59"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -10706,7 +10200,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="59"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -10733,7 +10227,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="59"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -10759,7 +10253,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="59"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -10785,7 +10279,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="59"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -10811,7 +10305,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="59"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -10837,7 +10331,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="59"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -10863,7 +10357,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="59"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -10888,60 +10382,60 @@
       </c>
       <c r="P85" s="9"/>
     </row>
-    <row r="86" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="59"/>
-      <c r="C86" s="20">
+    <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30"/>
+      <c r="C86" s="18">
         <v>12</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="19">
         <f xml:space="preserve"> K75</f>
         <v>10021724.773702309</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="19">
         <f t="shared" si="9"/>
         <v>237953613.09075022</v>
       </c>
-      <c r="F86" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G86" s="21">
+      <c r="F86" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G86" s="19">
         <f t="shared" si="5"/>
         <v>242236778.12638372</v>
       </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="22">
-        <v>0</v>
-      </c>
-      <c r="J86" s="21">
+      <c r="H86" s="19"/>
+      <c r="I86" s="20">
+        <v>0</v>
+      </c>
+      <c r="J86" s="19">
         <f xml:space="preserve"> (E75 + SUM(D76:D86)) - SUM(I76:I86)</f>
         <v>206295624.09380955</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K86" s="19">
         <f xml:space="preserve"> G86 - J86</f>
         <v>35941154.032574177</v>
       </c>
-      <c r="L86" s="20">
+      <c r="L86" s="18">
         <v>0.84</v>
       </c>
-      <c r="M86" s="21">
+      <c r="M86" s="19">
         <f xml:space="preserve"> K86 * L86</f>
         <v>30190569.387362309</v>
       </c>
-      <c r="N86" s="21">
+      <c r="N86" s="19">
         <f xml:space="preserve"> K86 - M86</f>
         <v>5750584.645211868</v>
       </c>
-      <c r="O86" s="20">
+      <c r="O86" s="18">
         <f xml:space="preserve"> K86 / J86 * 100</f>
         <v>17.422160159941409</v>
       </c>
-      <c r="P86" s="21"/>
+      <c r="P86" s="19"/>
     </row>
     <row r="87" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="59">
+      <c r="B87" s="30">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -10977,7 +10471,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="59"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -11003,7 +10497,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="59"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -11029,7 +10523,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="59"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -11055,7 +10549,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="59"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -11082,7 +10576,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="59"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -11108,7 +10602,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="59"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -11134,7 +10628,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="59"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -11160,7 +10654,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="59"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -11186,7 +10680,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="59"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -11212,7 +10706,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="59"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -11237,60 +10731,60 @@
       </c>
       <c r="P97" s="9"/>
     </row>
-    <row r="98" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="59"/>
-      <c r="C98" s="20">
+    <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="30"/>
+      <c r="C98" s="18">
         <v>12</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="19">
         <f xml:space="preserve"> K87</f>
         <v>12593199.088599322</v>
       </c>
-      <c r="E98" s="21">
+      <c r="E98" s="19">
         <f t="shared" si="10"/>
         <v>307877709.29685998</v>
       </c>
-      <c r="F98" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G98" s="21">
+      <c r="F98" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G98" s="19">
         <f t="shared" si="11"/>
         <v>313419508.06420344</v>
       </c>
-      <c r="H98" s="21"/>
-      <c r="I98" s="22">
-        <v>0</v>
-      </c>
-      <c r="J98" s="21">
+      <c r="H98" s="19"/>
+      <c r="I98" s="20">
+        <v>0</v>
+      </c>
+      <c r="J98" s="19">
         <f xml:space="preserve"> (E87 + SUM(D88:D98)) - SUM(I88:I98)</f>
         <v>266486193.48117185</v>
       </c>
-      <c r="K98" s="21">
+      <c r="K98" s="19">
         <f xml:space="preserve"> G98 - J98</f>
         <v>46933314.583031595</v>
       </c>
-      <c r="L98" s="20">
+      <c r="L98" s="18">
         <v>0.84</v>
       </c>
-      <c r="M98" s="21">
+      <c r="M98" s="19">
         <f xml:space="preserve"> K98 * L98</f>
         <v>39423984.249746539</v>
       </c>
-      <c r="N98" s="21">
+      <c r="N98" s="19">
         <f xml:space="preserve"> K98 - M98</f>
         <v>7509330.3332850561</v>
       </c>
-      <c r="O98" s="20">
+      <c r="O98" s="18">
         <f xml:space="preserve"> K98 / J98 * 100</f>
         <v>17.611912260793201</v>
       </c>
-      <c r="P98" s="21"/>
+      <c r="P98" s="19"/>
     </row>
     <row r="99" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="59">
+      <c r="B99" s="30">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -11326,7 +10820,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="59"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -11352,7 +10846,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="59"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -11378,7 +10872,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="59"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -11404,7 +10898,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="59"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -11431,7 +10925,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="59"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -11457,7 +10951,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="59"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -11483,7 +10977,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="59"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -11509,7 +11003,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="59"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -11535,7 +11029,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="59"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -11561,7 +11055,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="59"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -11586,60 +11080,60 @@
       </c>
       <c r="P109" s="9"/>
     </row>
-    <row r="110" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="59"/>
-      <c r="C110" s="20">
+    <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="30"/>
+      <c r="C110" s="18">
         <v>12</v>
       </c>
-      <c r="D110" s="21">
+      <c r="D110" s="19">
         <f>K99</f>
         <v>15559146.16934181</v>
       </c>
-      <c r="E110" s="21">
+      <c r="E110" s="19">
         <f t="shared" si="12"/>
         <v>388528373.3047514</v>
       </c>
-      <c r="F110" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G110" s="21">
+      <c r="F110" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G110" s="19">
         <f t="shared" si="11"/>
         <v>395521884.02423692</v>
       </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="22">
-        <v>0</v>
-      </c>
-      <c r="J110" s="21">
+      <c r="H110" s="19"/>
+      <c r="I110" s="20">
+        <v>0</v>
+      </c>
+      <c r="J110" s="19">
         <f xml:space="preserve"> (E99 + SUM(D100:D110)) - SUM(I100:I110)</f>
         <v>335910177.73091835</v>
       </c>
-      <c r="K110" s="21">
+      <c r="K110" s="19">
         <f xml:space="preserve"> G110 - J110</f>
         <v>59611706.29331857</v>
       </c>
-      <c r="L110" s="20">
+      <c r="L110" s="18">
         <v>0.84</v>
       </c>
-      <c r="M110" s="21">
+      <c r="M110" s="19">
         <f xml:space="preserve"> K110 * L110</f>
         <v>50073833.2863876</v>
       </c>
-      <c r="N110" s="21">
+      <c r="N110" s="19">
         <f xml:space="preserve"> K110 - M110</f>
         <v>9537873.0069309697</v>
       </c>
-      <c r="O110" s="20">
+      <c r="O110" s="18">
         <f xml:space="preserve"> K110 / J110 * 100</f>
         <v>17.746323346317499</v>
       </c>
-      <c r="P110" s="21"/>
+      <c r="P110" s="19"/>
     </row>
     <row r="111" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="59">
+      <c r="B111" s="30">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -11675,7 +11169,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="59"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -11701,7 +11195,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="59"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -11727,7 +11221,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="59"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -11753,7 +11247,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="59"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -11780,7 +11274,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="59"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -11806,7 +11300,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="59"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -11832,7 +11326,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="59"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -11858,7 +11352,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="59"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -11884,7 +11378,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="59"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -11910,7 +11404,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="59"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -11935,60 +11429,60 @@
       </c>
       <c r="P121" s="9"/>
     </row>
-    <row r="122" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="59"/>
-      <c r="C122" s="20">
+    <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="30"/>
+      <c r="C122" s="18">
         <v>12</v>
       </c>
-      <c r="D122" s="21">
+      <c r="D122" s="19">
         <f>K111</f>
         <v>18980078.501009874</v>
       </c>
-      <c r="E122" s="21">
+      <c r="E122" s="19">
         <f t="shared" si="13"/>
         <v>481551092.96211314</v>
       </c>
-      <c r="F122" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G122" s="21">
+      <c r="F122" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G122" s="19">
         <f t="shared" si="11"/>
         <v>490219012.63543117</v>
       </c>
-      <c r="H122" s="21"/>
-      <c r="I122" s="22">
-        <v>0</v>
-      </c>
-      <c r="J122" s="21">
+      <c r="H122" s="19"/>
+      <c r="I122" s="20">
+        <v>0</v>
+      </c>
+      <c r="J122" s="19">
         <f xml:space="preserve"> (E111 + SUM(D112:D122)) - SUM(I112:I122)</f>
         <v>415984011.01730609</v>
       </c>
-      <c r="K122" s="21">
+      <c r="K122" s="19">
         <f xml:space="preserve"> G122 - J122</f>
         <v>74235001.618125081</v>
       </c>
-      <c r="L122" s="20">
+      <c r="L122" s="18">
         <v>0.84</v>
       </c>
-      <c r="M122" s="21">
+      <c r="M122" s="19">
         <f xml:space="preserve"> K122 * L122</f>
         <v>62357401.359225065</v>
       </c>
-      <c r="N122" s="21">
+      <c r="N122" s="19">
         <f xml:space="preserve"> K122 - M122</f>
         <v>11877600.258900017</v>
       </c>
-      <c r="O122" s="20">
+      <c r="O122" s="18">
         <f xml:space="preserve"> K122 / J122 * 100</f>
         <v>17.845638210127433</v>
       </c>
-      <c r="P122" s="21"/>
+      <c r="P122" s="19"/>
     </row>
     <row r="123" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="59">
+      <c r="B123" s="30">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -12022,7 +11516,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="59"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -12046,7 +11540,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="59"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -12070,7 +11564,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="59"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -12094,7 +11588,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="59"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -12121,7 +11615,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="59"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -12145,7 +11639,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="59"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -12169,7 +11663,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="59"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -12193,7 +11687,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="59"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -12217,7 +11711,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="59"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -12241,7 +11735,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="59"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -12264,60 +11758,60 @@
       <c r="I133" s="10"/>
       <c r="P133" s="9"/>
     </row>
-    <row r="134" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="59"/>
-      <c r="C134" s="20">
+    <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="30"/>
+      <c r="C134" s="18">
         <v>12</v>
       </c>
-      <c r="D134" s="21">
+      <c r="D134" s="19">
         <f>K123</f>
         <v>22925792.193142965</v>
       </c>
-      <c r="E134" s="21">
+      <c r="E134" s="19">
         <f t="shared" si="14"/>
         <v>552843779.00344467</v>
       </c>
-      <c r="F134" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G134" s="21">
+      <c r="F134" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G134" s="19">
         <f t="shared" si="11"/>
         <v>562794967.02550673</v>
       </c>
-      <c r="H134" s="21"/>
-      <c r="I134" s="26">
+      <c r="H134" s="19"/>
+      <c r="I134" s="24">
         <v>36000000</v>
       </c>
-      <c r="J134" s="21">
+      <c r="J134" s="19">
         <f xml:space="preserve"> (E123 + SUM(D124:D134)) - SUM(I124:I134)</f>
         <v>472341412.37653112</v>
       </c>
-      <c r="K134" s="21">
+      <c r="K134" s="19">
         <f xml:space="preserve"> G134 - J134</f>
         <v>90453554.648975611</v>
       </c>
-      <c r="L134" s="20">
+      <c r="L134" s="18">
         <v>0.84</v>
       </c>
-      <c r="M134" s="21">
+      <c r="M134" s="19">
         <f xml:space="preserve"> K134 * L134</f>
         <v>75980985.905139506</v>
       </c>
-      <c r="N134" s="21">
+      <c r="N134" s="19">
         <f xml:space="preserve"> K134 - M134</f>
         <v>14472568.743836105</v>
       </c>
-      <c r="O134" s="20">
+      <c r="O134" s="18">
         <f xml:space="preserve"> K134 / J134 * 100</f>
         <v>19.150036875629649</v>
       </c>
-      <c r="P134" s="21"/>
+      <c r="P134" s="19"/>
     </row>
     <row r="135" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="60">
+      <c r="B135" s="31">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -12356,7 +11850,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="60"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -12380,7 +11874,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="60"/>
+      <c r="B137" s="31"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -12404,7 +11898,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="60"/>
+      <c r="B138" s="31"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -12428,7 +11922,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="60"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -12455,7 +11949,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="60"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -12479,7 +11973,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="60"/>
+      <c r="B141" s="31"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -12503,7 +11997,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="60"/>
+      <c r="B142" s="31"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -12527,7 +12021,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="60"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -12551,7 +12045,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="60"/>
+      <c r="B144" s="31"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -12575,7 +12069,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="60"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -12598,60 +12092,60 @@
       <c r="I145" s="14"/>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="60"/>
-      <c r="C146" s="20">
+    <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="31"/>
+      <c r="C146" s="18">
         <v>12</v>
       </c>
-      <c r="D146" s="21">
+      <c r="D146" s="19">
         <f>K135</f>
         <v>23449790.292729449</v>
       </c>
-      <c r="E146" s="21">
+      <c r="E146" s="19">
         <f t="shared" si="15"/>
         <v>601008900.69166768</v>
       </c>
-      <c r="F146" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G146" s="21">
+      <c r="F146" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G146" s="19">
         <f t="shared" si="11"/>
         <v>611827060.9041177</v>
       </c>
-      <c r="H146" s="21"/>
-      <c r="I146" s="26">
+      <c r="H146" s="19"/>
+      <c r="I146" s="24">
         <v>36000000</v>
       </c>
-      <c r="J146" s="21">
+      <c r="J146" s="19">
         <f xml:space="preserve"> (E135 + SUM(D136:D146)) - SUM(I136:I146)</f>
         <v>512322398.28167063</v>
       </c>
-      <c r="K146" s="21">
+      <c r="K146" s="19">
         <f xml:space="preserve"> G146 - J146</f>
         <v>99504662.622447073</v>
       </c>
-      <c r="L146" s="20">
+      <c r="L146" s="18">
         <v>0.84</v>
       </c>
-      <c r="M146" s="21">
+      <c r="M146" s="19">
         <f xml:space="preserve"> K146 * L146</f>
         <v>83583916.602855533</v>
       </c>
-      <c r="N146" s="21">
+      <c r="N146" s="19">
         <f xml:space="preserve"> K146 - M146</f>
         <v>15920746.01959154</v>
       </c>
-      <c r="O146" s="20">
+      <c r="O146" s="18">
         <f xml:space="preserve"> K146 / J146 * 100</f>
         <v>19.42227452014312</v>
       </c>
-      <c r="P146" s="21"/>
+      <c r="P146" s="19"/>
     </row>
     <row r="147" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="60">
+      <c r="B147" s="31">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -12685,7 +12179,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="60"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -12709,7 +12203,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="60"/>
+      <c r="B149" s="31"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -12733,7 +12227,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="60"/>
+      <c r="B150" s="31"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -12757,7 +12251,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="60"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -12784,7 +12278,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="60"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -12808,7 +12302,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="60"/>
+      <c r="B153" s="31"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -12832,7 +12326,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="60"/>
+      <c r="B154" s="31"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -12856,7 +12350,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="60"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -12880,7 +12374,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="60"/>
+      <c r="B156" s="31"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -12904,7 +12398,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="60"/>
+      <c r="B157" s="31"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -12927,60 +12421,60 @@
       <c r="I157" s="14"/>
       <c r="P157" s="13"/>
     </row>
-    <row r="158" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="60"/>
-      <c r="C158" s="20">
+    <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="31"/>
+      <c r="C158" s="18">
         <v>12</v>
       </c>
-      <c r="D158" s="21">
+      <c r="D158" s="19">
         <f>K147</f>
         <v>25492794.204338238</v>
       </c>
-      <c r="E158" s="21">
+      <c r="E158" s="19">
         <f t="shared" si="16"/>
         <v>656294493.48147213</v>
       </c>
-      <c r="F158" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G158" s="21">
+      <c r="F158" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G158" s="19">
         <f t="shared" ref="G158:G221" si="17" xml:space="preserve"> (E158 * F158) + E158</f>
         <v>668107794.3641386</v>
       </c>
-      <c r="H158" s="21"/>
-      <c r="I158" s="26">
+      <c r="H158" s="19"/>
+      <c r="I158" s="24">
         <v>36000000</v>
       </c>
-      <c r="J158" s="21">
+      <c r="J158" s="19">
         <f xml:space="preserve"> (E147 + SUM(D148:D158)) - SUM(I148:I158)</f>
         <v>559906314.88452625</v>
       </c>
-      <c r="K158" s="21">
+      <c r="K158" s="19">
         <f xml:space="preserve"> G158 - J158</f>
         <v>108201479.47961235</v>
       </c>
-      <c r="L158" s="20">
+      <c r="L158" s="18">
         <v>0.84</v>
       </c>
-      <c r="M158" s="21">
+      <c r="M158" s="19">
         <f xml:space="preserve"> K158 * L158</f>
         <v>90889242.762874365</v>
       </c>
-      <c r="N158" s="21">
+      <c r="N158" s="19">
         <f xml:space="preserve"> K158 - M158</f>
         <v>17312236.716737986</v>
       </c>
-      <c r="O158" s="20">
+      <c r="O158" s="18">
         <f xml:space="preserve"> K158 / J158 * 100</f>
         <v>19.324925724748717</v>
       </c>
-      <c r="P158" s="21"/>
+      <c r="P158" s="19"/>
     </row>
     <row r="159" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="60">
+      <c r="B159" s="31">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -13014,7 +12508,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="60"/>
+      <c r="B160" s="31"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -13038,7 +12532,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="60"/>
+      <c r="B161" s="31"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -13062,7 +12556,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="60"/>
+      <c r="B162" s="31"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -13086,7 +12580,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="60"/>
+      <c r="B163" s="31"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -13113,7 +12607,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="60"/>
+      <c r="B164" s="31"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -13137,7 +12631,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="60"/>
+      <c r="B165" s="31"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -13161,7 +12655,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="60"/>
+      <c r="B166" s="31"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -13185,7 +12679,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="60"/>
+      <c r="B167" s="31"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -13209,7 +12703,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="60"/>
+      <c r="B168" s="31"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -13233,7 +12727,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="60"/>
+      <c r="B169" s="31"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -13256,60 +12750,60 @@
       <c r="I169" s="14"/>
       <c r="P169" s="13"/>
     </row>
-    <row r="170" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="60"/>
-      <c r="C170" s="20">
+    <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="31"/>
+      <c r="C170" s="18">
         <v>12</v>
       </c>
-      <c r="D170" s="21">
+      <c r="D170" s="19">
         <f>K159</f>
         <v>27837824.765172441</v>
       </c>
-      <c r="E170" s="21">
+      <c r="E170" s="19">
         <f t="shared" si="18"/>
         <v>720060003.16818762</v>
       </c>
-      <c r="F170" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G170" s="21">
+      <c r="F170" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G170" s="19">
         <f t="shared" si="17"/>
         <v>733021083.22521496</v>
       </c>
-      <c r="H170" s="21"/>
-      <c r="I170" s="26">
+      <c r="H170" s="19"/>
+      <c r="I170" s="24">
         <v>36000000</v>
       </c>
-      <c r="J170" s="21">
+      <c r="J170" s="19">
         <f xml:space="preserve"> (E159 + SUM(D160:D170)) - SUM(I160:I170)</f>
         <v>614795557.64740062</v>
       </c>
-      <c r="K170" s="21">
+      <c r="K170" s="19">
         <f xml:space="preserve"> G170 - J170</f>
         <v>118225525.57781434</v>
       </c>
-      <c r="L170" s="20">
+      <c r="L170" s="18">
         <v>0.84</v>
       </c>
-      <c r="M170" s="21">
+      <c r="M170" s="19">
         <f xml:space="preserve"> K170 * L170</f>
         <v>99309441.48536405</v>
       </c>
-      <c r="N170" s="21">
+      <c r="N170" s="19">
         <f xml:space="preserve"> K170 - M170</f>
         <v>18916084.092450291</v>
       </c>
-      <c r="O170" s="20">
+      <c r="O170" s="18">
         <f xml:space="preserve"> K170 / J170 * 100</f>
         <v>19.230055277273067</v>
       </c>
-      <c r="P170" s="21"/>
+      <c r="P170" s="19"/>
     </row>
     <row r="171" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="60">
+      <c r="B171" s="31">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -13343,7 +12837,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="60"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -13367,7 +12861,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="60"/>
+      <c r="B173" s="31"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -13391,7 +12885,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="60"/>
+      <c r="B174" s="31"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -13415,7 +12909,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="60"/>
+      <c r="B175" s="31"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -13442,7 +12936,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="60"/>
+      <c r="B176" s="31"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -13466,7 +12960,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="60"/>
+      <c r="B177" s="31"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -13490,7 +12984,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="60"/>
+      <c r="B178" s="31"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -13514,7 +13008,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="60"/>
+      <c r="B179" s="31"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -13538,7 +13032,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="60"/>
+      <c r="B180" s="31"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -13562,7 +13056,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="60"/>
+      <c r="B181" s="31"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -13585,60 +13079,60 @@
       <c r="I181" s="14"/>
       <c r="P181" s="13"/>
     </row>
-    <row r="182" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="60"/>
-      <c r="C182" s="20">
+    <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="31"/>
+      <c r="C182" s="18">
         <v>12</v>
       </c>
-      <c r="D182" s="21">
+      <c r="D182" s="19">
         <f>K171</f>
         <v>30542545.134383958</v>
       </c>
-      <c r="E182" s="21">
+      <c r="E182" s="19">
         <f t="shared" si="19"/>
         <v>793607330.60028911</v>
       </c>
-      <c r="F182" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G182" s="21">
+      <c r="F182" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G182" s="19">
         <f t="shared" si="17"/>
         <v>807892262.55109429</v>
       </c>
-      <c r="H182" s="21"/>
-      <c r="I182" s="26">
+      <c r="H182" s="19"/>
+      <c r="I182" s="24">
         <v>36000000</v>
       </c>
-      <c r="J182" s="21">
+      <c r="J182" s="19">
         <f xml:space="preserve"> (E171 + SUM(D172:D182)) - SUM(I172:I182)</f>
         <v>678104999.1327647</v>
       </c>
-      <c r="K182" s="21">
+      <c r="K182" s="19">
         <f xml:space="preserve"> G182 - J182</f>
         <v>129787263.4183296</v>
       </c>
-      <c r="L182" s="20">
+      <c r="L182" s="18">
         <v>0.84</v>
       </c>
-      <c r="M182" s="21">
+      <c r="M182" s="19">
         <f xml:space="preserve"> K182 * L182</f>
         <v>109021301.27139686</v>
       </c>
-      <c r="N182" s="21">
+      <c r="N182" s="19">
         <f xml:space="preserve"> K182 - M182</f>
         <v>20765962.146932736</v>
       </c>
-      <c r="O182" s="20">
+      <c r="O182" s="18">
         <f xml:space="preserve"> K182 / J182 * 100</f>
         <v>19.139700132621915</v>
       </c>
-      <c r="P182" s="21"/>
+      <c r="P182" s="19"/>
     </row>
     <row r="183" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="60">
+      <c r="B183" s="31">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -13672,7 +13166,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="60"/>
+      <c r="B184" s="31"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -13696,7 +13190,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="60"/>
+      <c r="B185" s="31"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -13720,7 +13214,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="60"/>
+      <c r="B186" s="31"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -13744,7 +13238,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="60"/>
+      <c r="B187" s="31"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -13771,7 +13265,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="60"/>
+      <c r="B188" s="31"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -13795,7 +13289,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="60"/>
+      <c r="B189" s="31"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -13819,7 +13313,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="60"/>
+      <c r="B190" s="31"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -13843,7 +13337,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="60"/>
+      <c r="B191" s="31"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -13867,7 +13361,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="60"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -13891,7 +13385,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="60"/>
+      <c r="B193" s="31"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -13914,60 +13408,60 @@
       <c r="I193" s="14"/>
       <c r="P193" s="13"/>
     </row>
-    <row r="194" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="60"/>
-      <c r="C194" s="20">
+    <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="31"/>
+      <c r="C194" s="18">
         <v>12</v>
       </c>
-      <c r="D194" s="21">
+      <c r="D194" s="19">
         <f>K183</f>
         <v>33662177.606295593</v>
       </c>
-      <c r="E194" s="21">
+      <c r="E194" s="19">
         <f t="shared" si="20"/>
         <v>778437040.36233938</v>
       </c>
-      <c r="F194" s="20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G194" s="21">
+      <c r="F194" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G194" s="19">
         <f t="shared" si="17"/>
         <v>792448907.08886147</v>
       </c>
-      <c r="H194" s="21"/>
-      <c r="I194" s="26">
+      <c r="H194" s="19"/>
+      <c r="I194" s="24">
         <v>136000000</v>
       </c>
-      <c r="J194" s="21">
+      <c r="J194" s="19">
         <f xml:space="preserve"> (E183 + SUM(D184:D194)) - SUM(I184:I194)</f>
         <v>651126300.40416157</v>
       </c>
-      <c r="K194" s="21">
+      <c r="K194" s="19">
         <f xml:space="preserve"> G194 - J194</f>
         <v>141322606.68469989</v>
       </c>
-      <c r="L194" s="20">
+      <c r="L194" s="18">
         <v>0.84</v>
       </c>
-      <c r="M194" s="21">
+      <c r="M194" s="19">
         <f xml:space="preserve"> K194 * L194</f>
         <v>118710989.6151479</v>
       </c>
-      <c r="N194" s="21">
+      <c r="N194" s="19">
         <f xml:space="preserve"> K194 - M194</f>
         <v>22611617.069551989</v>
       </c>
-      <c r="O194" s="20">
+      <c r="O194" s="18">
         <f xml:space="preserve"> K194 / J194 * 100</f>
         <v>21.704330879735519</v>
       </c>
-      <c r="P194" s="21"/>
+      <c r="P194" s="19"/>
     </row>
     <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="58">
+      <c r="B195" s="29">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -14004,7 +13498,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="58"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -14028,7 +13522,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="58"/>
+      <c r="B197" s="29"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -14052,7 +13546,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="58"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -14076,7 +13570,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="58"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -14103,7 +13597,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="58"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -14127,7 +13621,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="58"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -14151,7 +13645,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="58"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -14175,7 +13669,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="58"/>
+      <c r="B203" s="29"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -14199,7 +13693,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="58"/>
+      <c r="B204" s="29"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -14223,7 +13717,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="58"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -14247,7 +13741,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="58"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -14299,7 +13793,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="58">
+      <c r="B207" s="29">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -14333,7 +13827,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="58"/>
+      <c r="B208" s="29"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -14357,7 +13851,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="58"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -14381,7 +13875,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="58"/>
+      <c r="B210" s="29"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -14405,7 +13899,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="58"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -14432,7 +13926,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="58"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -14456,7 +13950,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="58"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -14480,7 +13974,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="58"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -14504,7 +13998,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="58"/>
+      <c r="B215" s="29"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -14528,7 +14022,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="58"/>
+      <c r="B216" s="29"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -14552,7 +14046,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="58"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -14576,7 +14070,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="58"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -14628,7 +14122,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="58">
+      <c r="B219" s="29">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -14662,7 +14156,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="58"/>
+      <c r="B220" s="29"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -14686,7 +14180,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="58"/>
+      <c r="B221" s="29"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -14710,7 +14204,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="58"/>
+      <c r="B222" s="29"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -14734,7 +14228,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="58"/>
+      <c r="B223" s="29"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -14761,7 +14255,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="58"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -14785,7 +14279,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="58"/>
+      <c r="B225" s="29"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -14809,7 +14303,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="58"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -14833,7 +14327,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="58"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -14857,7 +14351,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="58"/>
+      <c r="B228" s="29"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -14881,7 +14375,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="58"/>
+      <c r="B229" s="29"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -14905,7 +14399,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="58"/>
+      <c r="B230" s="29"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -14957,7 +14451,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="58">
+      <c r="B231" s="29">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -14991,7 +14485,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="58"/>
+      <c r="B232" s="29"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -15015,7 +14509,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="58"/>
+      <c r="B233" s="29"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -15039,7 +14533,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="58"/>
+      <c r="B234" s="29"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -15063,7 +14557,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="58"/>
+      <c r="B235" s="29"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -15090,7 +14584,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="58"/>
+      <c r="B236" s="29"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -15114,7 +14608,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="58"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -15138,7 +14632,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="58"/>
+      <c r="B238" s="29"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -15162,7 +14656,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="58"/>
+      <c r="B239" s="29"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -15186,7 +14680,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="58"/>
+      <c r="B240" s="29"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -15210,7 +14704,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="58"/>
+      <c r="B241" s="29"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -15234,7 +14728,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="58"/>
+      <c r="B242" s="29"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -15286,7 +14780,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="58">
+      <c r="B243" s="29">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -15321,7 +14815,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="58"/>
+      <c r="B244" s="29"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -15351,7 +14845,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="58"/>
+      <c r="B245" s="29"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -15381,7 +14875,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="58"/>
+      <c r="B246" s="29"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -15411,7 +14905,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="58"/>
+      <c r="B247" s="29"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -15444,7 +14938,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="58"/>
+      <c r="B248" s="29"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -15474,7 +14968,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="58"/>
+      <c r="B249" s="29"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -15504,7 +14998,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="58"/>
+      <c r="B250" s="29"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -15534,7 +15028,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="58"/>
+      <c r="B251" s="29"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -15564,7 +15058,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="58"/>
+      <c r="B252" s="29"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -15594,7 +15088,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="58"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -15624,7 +15118,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="58"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -15755,10 +15249,10 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
@@ -15767,7 +15261,7 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="R2" t="s">
         <v>13</v>
@@ -15775,7 +15269,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>6930000</v>
@@ -15833,7 +15327,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>6930000</v>
@@ -15891,7 +15385,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>6930000</v>
@@ -15949,7 +15443,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
         <v>3000000</v>
@@ -16007,7 +15501,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>6930000</v>
@@ -16065,7 +15559,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>3000000</v>
@@ -16161,1291 +15655,159 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:K63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F61AFE-825F-4669-B78F-E10BDCEEF433}">
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="47">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12">
-        <v>177000</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" ref="E5:E11" si="0" xml:space="preserve"> C5 * D5</f>
-        <v>2124000</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="47">
-        <v>12</v>
-      </c>
-      <c r="I5" s="13">
-        <v>320000</v>
-      </c>
-      <c r="J5" s="13">
-        <f xml:space="preserve"> H5 * I5</f>
-        <v>3840000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="47">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37">
+        <v>17215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
+      <c r="C5" s="37">
+        <v>-77107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="37">
+        <v>77453</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="28">
+        <v>4</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="28">
+        <v>5</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="28">
+        <v>6</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="28">
+        <v>7</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="28">
+        <v>8</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="36">
+        <v>9</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="28">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="35">
+        <f>SUM(C4:C13)</f>
+        <v>17561</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13">
-        <v>150000</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>5400000</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="48">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>2000000</v>
-      </c>
-      <c r="J6" s="19">
-        <f xml:space="preserve"> H6 * I6</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="48">
-        <v>52</v>
-      </c>
-      <c r="D7" s="19">
-        <v>120000</v>
-      </c>
-      <c r="E7" s="19">
-        <f t="shared" si="0"/>
-        <v>6240000</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="48">
-        <v>18</v>
-      </c>
-      <c r="D8" s="19">
-        <v>400000</v>
-      </c>
-      <c r="E8" s="19">
-        <f t="shared" si="0"/>
-        <v>7200000</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="47">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13">
-        <v>364000</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>4368000</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="47">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13">
-        <v>260000</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>3120000</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="47">
-        <v>52</v>
-      </c>
-      <c r="D11" s="13">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="30">
-        <f t="shared" si="0"/>
-        <v>1040000</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9">
-        <f>SUM(J5:J9)</f>
-        <v>5840000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <f>SUM(E5:E11)</f>
-        <v>29492000</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="49">
-        <v>12</v>
-      </c>
-      <c r="D13" s="21">
-        <f xml:space="preserve"> E12</f>
-        <v>29492000</v>
-      </c>
-      <c r="E13" s="21">
-        <f xml:space="preserve"> D13 / C13</f>
-        <v>2457666.6666666665</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="49">
-        <v>12</v>
-      </c>
-      <c r="I13" s="21">
-        <f xml:space="preserve"> J11</f>
-        <v>5840000</v>
-      </c>
-      <c r="J13" s="20">
-        <f xml:space="preserve"> I13 / H13</f>
-        <v>486666.66666666669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="63"/>
-      <c r="E16" s="34">
-        <f xml:space="preserve"> E13</f>
-        <v>2457666.6666666665</v>
-      </c>
-      <c r="F16" s="34">
-        <f xml:space="preserve"> J13</f>
-        <v>486666.66666666669</v>
-      </c>
-      <c r="G16" s="34">
-        <f xml:space="preserve"> E16 - F16</f>
-        <v>1970999.9999999998</v>
-      </c>
-      <c r="H16" s="34">
-        <v>200000</v>
-      </c>
-      <c r="I16" s="34">
-        <f>G16+H16</f>
-        <v>2171000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="G20" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="47">
-        <v>12</v>
-      </c>
-      <c r="D22" s="12">
-        <v>177000</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" ref="E22:E29" si="1" xml:space="preserve"> C22 * D22</f>
-        <v>2124000</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="47">
-        <v>12</v>
-      </c>
-      <c r="I22" s="13">
-        <v>320000</v>
-      </c>
-      <c r="J22" s="13">
-        <f xml:space="preserve"> H22 * I22</f>
-        <v>3840000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="47">
-        <v>36</v>
-      </c>
-      <c r="D23" s="13">
-        <v>150000</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="1"/>
-        <v>5400000</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="48">
-        <v>1</v>
-      </c>
-      <c r="I23" s="19">
-        <v>2000000</v>
-      </c>
-      <c r="J23" s="19">
-        <f xml:space="preserve"> H23 * I23</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="48">
-        <v>52</v>
-      </c>
-      <c r="D24" s="19">
-        <v>120000</v>
-      </c>
-      <c r="E24" s="19">
-        <f t="shared" si="1"/>
-        <v>6240000</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="55">
-        <v>12</v>
-      </c>
-      <c r="I24" s="56">
-        <v>910000</v>
-      </c>
-      <c r="J24" s="56">
-        <f xml:space="preserve"> H24 * I24</f>
-        <v>10920000</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="48">
-        <v>18</v>
-      </c>
-      <c r="D25" s="19">
-        <v>400000</v>
-      </c>
-      <c r="E25" s="19">
-        <f t="shared" si="1"/>
-        <v>7200000</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="47">
-        <v>12</v>
-      </c>
-      <c r="D26" s="13">
-        <v>364000</v>
-      </c>
-      <c r="E26" s="13">
-        <f t="shared" si="1"/>
-        <v>4368000</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="47">
-        <v>12</v>
-      </c>
-      <c r="D27" s="13">
-        <v>260000</v>
-      </c>
-      <c r="E27" s="13">
-        <f t="shared" si="1"/>
-        <v>3120000</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="55">
-        <v>52</v>
-      </c>
-      <c r="D28" s="56">
-        <v>200000</v>
-      </c>
-      <c r="E28" s="57">
-        <f t="shared" si="1"/>
-        <v>10400000</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9">
-        <f>SUM(J22:J26)</f>
-        <v>16760000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="47">
-        <v>52</v>
-      </c>
-      <c r="D29" s="13">
-        <v>20000</v>
-      </c>
-      <c r="E29" s="13">
-        <f t="shared" si="1"/>
-        <v>1040000</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
-        <f>SUM(E22:E29)</f>
-        <v>39892000</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="49">
-        <v>12</v>
-      </c>
-      <c r="D31" s="21">
-        <f xml:space="preserve"> E30</f>
-        <v>39892000</v>
-      </c>
-      <c r="E31" s="21">
-        <f xml:space="preserve"> D31 / C31</f>
-        <v>3324333.3333333335</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="49">
-        <v>12</v>
-      </c>
-      <c r="I31" s="21">
-        <f xml:space="preserve"> J28</f>
-        <v>16760000</v>
-      </c>
-      <c r="J31" s="20">
-        <f xml:space="preserve"> I31 / H31</f>
-        <v>1396666.6666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D33" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D34" s="63"/>
-      <c r="E34" s="34">
-        <f xml:space="preserve"> E31</f>
-        <v>3324333.3333333335</v>
-      </c>
-      <c r="F34" s="34">
-        <f xml:space="preserve"> J31</f>
-        <v>1396666.6666666667</v>
-      </c>
-      <c r="G34" s="34">
-        <f xml:space="preserve"> E34 - F34</f>
-        <v>1927666.6666666667</v>
-      </c>
-      <c r="H34" s="34">
-        <v>200000</v>
-      </c>
-      <c r="I34" s="34">
-        <f>G34+H34</f>
-        <v>2127666.666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="9">
-        <v>100000</v>
-      </c>
-      <c r="E36" s="37"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
-      <c r="C37" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="9">
-        <v>37000</v>
-      </c>
-      <c r="E37" s="37"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="61"/>
-      <c r="C38" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="9">
-        <v>11000</v>
-      </c>
-      <c r="E38" s="37"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="61"/>
-      <c r="C39" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="9">
-        <v>100000</v>
-      </c>
-      <c r="E39" s="37"/>
-    </row>
-    <row r="40" spans="2:9" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="52"/>
-      <c r="C43" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="52"/>
-      <c r="C45" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="52"/>
-      <c r="C46" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="52"/>
-      <c r="C48" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="52"/>
-      <c r="C50" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="35">
-        <v>101</v>
-      </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="52"/>
-      <c r="C52" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="52"/>
-      <c r="C53" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="52"/>
-      <c r="C54" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="68"/>
-      <c r="E54" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="52"/>
-      <c r="C55" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="52"/>
-      <c r="C56" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="52"/>
-      <c r="C57" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="52"/>
-      <c r="C58" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="68"/>
-      <c r="E58" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="52"/>
-      <c r="C59" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-    </row>
-    <row r="63" spans="2:7" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C16" s="28">
+        <f xml:space="preserve">  ROUND( (C14 / C15) * 100, 2 )</f>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E51" r:id="rId1" xr:uid="{950024D8-46D9-465E-A69A-EF535EA0C0C8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB26ECB1-36A0-438C-A5BA-90FF68A817BA}">
-  <dimension ref="A2:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="47">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12">
-        <v>177000</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" ref="E5:E8" si="0" xml:space="preserve"> C5 * D5</f>
-        <v>2124000</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="47">
-        <v>12</v>
-      </c>
-      <c r="I5" s="13">
-        <v>320000</v>
-      </c>
-      <c r="J5" s="13">
-        <f xml:space="preserve"> H5 * I5</f>
-        <v>3840000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="48">
-        <v>52</v>
-      </c>
-      <c r="D6" s="19">
-        <v>120000</v>
-      </c>
-      <c r="E6" s="19">
-        <f t="shared" si="0"/>
-        <v>6240000</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="47">
-        <v>12</v>
-      </c>
-      <c r="I6" s="13">
-        <v>910000</v>
-      </c>
-      <c r="J6" s="13">
-        <f xml:space="preserve"> H6 * I6</f>
-        <v>10920000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="47">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13">
-        <v>364000</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>4368000</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="47">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13">
-        <v>150000</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>1800000</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <f>SUM(E5:E8)</f>
-        <v>14532000</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9">
-        <f>SUM(J5:J8)</f>
-        <v>14760000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="49">
-        <v>12</v>
-      </c>
-      <c r="D10" s="21">
-        <f xml:space="preserve"> E9</f>
-        <v>14532000</v>
-      </c>
-      <c r="E10" s="21">
-        <f xml:space="preserve"> D10 / C10</f>
-        <v>1211000</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="49">
-        <v>12</v>
-      </c>
-      <c r="I10" s="21">
-        <f xml:space="preserve"> J9</f>
-        <v>14760000</v>
-      </c>
-      <c r="J10" s="20">
-        <f xml:space="preserve"> I10 / H10</f>
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="63"/>
-      <c r="E13" s="34">
-        <f xml:space="preserve"> E10</f>
-        <v>1211000</v>
-      </c>
-      <c r="F13" s="34">
-        <f xml:space="preserve"> J10</f>
-        <v>1230000</v>
-      </c>
-      <c r="G13" s="34">
-        <f xml:space="preserve"> E13 - F13</f>
-        <v>-19000</v>
-      </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34">
-        <f>G13+H13</f>
-        <v>-19000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="D12:D13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" display="https://www.socialservice.or.kr:444/" xr:uid="{AF8631C6-675F-442C-997F-F67E4532F5B7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CEC4FE-FFFF-47A6-AF48-97B083ED8FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E53524-4622-45B8-AE5D-1D7F4D2F417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오_A" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -400,22 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -429,6 +424,21 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,7 +779,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="36">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -796,7 +806,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -821,7 +831,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -846,7 +856,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -871,7 +881,7 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="21">
         <v>5</v>
       </c>
@@ -897,7 +907,7 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -922,7 +932,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="21">
         <v>7</v>
       </c>
@@ -947,7 +957,7 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="21">
         <v>8</v>
       </c>
@@ -972,7 +982,7 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -997,7 +1007,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -1022,7 +1032,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -1047,7 +1057,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -1098,7 +1108,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="36">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -1134,7 +1144,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -1160,7 +1170,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -1186,7 +1196,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -1212,7 +1222,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1239,7 +1249,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -1265,7 +1275,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -1291,7 +1301,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -1317,7 +1327,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -1343,7 +1353,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -1369,7 +1379,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -1395,7 +1405,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="18">
         <v>12</v>
       </c>
@@ -1447,7 +1457,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="36">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -1483,7 +1493,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -1509,7 +1519,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -1535,7 +1545,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -1561,7 +1571,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="30"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -1588,7 +1598,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -1614,7 +1624,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="30"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -1640,7 +1650,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -1666,7 +1676,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -1692,7 +1702,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -1718,7 +1728,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -1744,7 +1754,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="18">
         <v>12</v>
       </c>
@@ -1796,7 +1806,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="36">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -1832,7 +1842,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -1858,7 +1868,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -1884,7 +1894,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -1910,7 +1920,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -1937,7 +1947,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -1963,7 +1973,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -1989,7 +1999,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -2015,7 +2025,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -2041,7 +2051,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -2067,7 +2077,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -2093,7 +2103,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
@@ -2145,7 +2155,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="36">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -2181,7 +2191,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -2207,7 +2217,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -2233,7 +2243,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -2259,7 +2269,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -2286,7 +2296,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -2312,7 +2322,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -2338,7 +2348,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -2364,7 +2374,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -2390,7 +2400,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -2416,7 +2426,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -2442,7 +2452,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="18">
         <v>12</v>
       </c>
@@ -2494,7 +2504,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="36">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -2530,7 +2540,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -2556,7 +2566,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -2582,7 +2592,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -2608,7 +2618,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -2635,7 +2645,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -2662,7 +2672,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -2688,7 +2698,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -2714,7 +2724,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -2740,7 +2750,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -2766,7 +2776,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -2792,7 +2802,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="18">
         <v>12</v>
       </c>
@@ -2844,7 +2854,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="30">
+      <c r="B75" s="36">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -2880,7 +2890,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -2906,7 +2916,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -2932,7 +2942,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -2958,7 +2968,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -2985,7 +2995,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -3011,7 +3021,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -3037,7 +3047,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -3063,7 +3073,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -3089,7 +3099,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -3115,7 +3125,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -3141,7 +3151,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="18">
         <v>12</v>
       </c>
@@ -3193,7 +3203,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" s="36">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -3229,7 +3239,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -3255,7 +3265,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -3281,7 +3291,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -3307,7 +3317,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -3334,7 +3344,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -3360,7 +3370,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -3386,7 +3396,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -3412,7 +3422,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="30"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -3438,7 +3448,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="30"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -3464,7 +3474,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="30"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -3490,7 +3500,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="30"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="18">
         <v>12</v>
       </c>
@@ -3542,7 +3552,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" s="36">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -3578,7 +3588,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="30"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -3604,7 +3614,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="30"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -3630,7 +3640,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="30"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -3656,7 +3666,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="30"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -3683,7 +3693,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="30"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -3709,7 +3719,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="30"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -3735,7 +3745,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="30"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -3761,7 +3771,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="30"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -3787,7 +3797,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="30"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -3813,7 +3823,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="30"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -3839,7 +3849,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="30"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="18">
         <v>12</v>
       </c>
@@ -3891,7 +3901,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="36">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -3927,7 +3937,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="30"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -3953,7 +3963,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -3979,7 +3989,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -4005,7 +4015,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -4032,7 +4042,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -4058,7 +4068,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -4084,7 +4094,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -4110,7 +4120,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -4136,7 +4146,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -4162,7 +4172,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -4188,7 +4198,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="30"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="18">
         <v>12</v>
       </c>
@@ -4240,7 +4250,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="30">
+      <c r="B123" s="36">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -4274,7 +4284,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="30"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -4298,7 +4308,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="30"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -4322,7 +4332,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="30"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -4346,7 +4356,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="30"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -4373,7 +4383,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="30"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -4397,7 +4407,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="30"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -4421,7 +4431,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="30"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -4445,7 +4455,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="30"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -4469,7 +4479,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="30"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -4493,7 +4503,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="30"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -4517,7 +4527,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="30"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="18">
         <v>12</v>
       </c>
@@ -4569,7 +4579,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="31">
+      <c r="B135" s="34">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -4608,7 +4618,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="31"/>
+      <c r="B136" s="34"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -4632,7 +4642,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="31"/>
+      <c r="B137" s="34"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -4656,7 +4666,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="31"/>
+      <c r="B138" s="34"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -4680,7 +4690,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="31"/>
+      <c r="B139" s="34"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -4707,7 +4717,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="31"/>
+      <c r="B140" s="34"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -4731,7 +4741,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="31"/>
+      <c r="B141" s="34"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -4755,7 +4765,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="31"/>
+      <c r="B142" s="34"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -4779,7 +4789,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="31"/>
+      <c r="B143" s="34"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -4803,7 +4813,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="31"/>
+      <c r="B144" s="34"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -4827,7 +4837,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="31"/>
+      <c r="B145" s="34"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -4851,7 +4861,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="31"/>
+      <c r="B146" s="34"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -4903,7 +4913,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="34">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -4937,7 +4947,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="31"/>
+      <c r="B148" s="34"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -4961,7 +4971,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="31"/>
+      <c r="B149" s="34"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -4985,7 +4995,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="31"/>
+      <c r="B150" s="34"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -5009,7 +5019,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="31"/>
+      <c r="B151" s="34"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -5036,7 +5046,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="31"/>
+      <c r="B152" s="34"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -5060,7 +5070,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="31"/>
+      <c r="B153" s="34"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -5084,7 +5094,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="31"/>
+      <c r="B154" s="34"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -5108,7 +5118,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="31"/>
+      <c r="B155" s="34"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -5132,7 +5142,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="31"/>
+      <c r="B156" s="34"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -5156,7 +5166,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="31"/>
+      <c r="B157" s="34"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -5180,7 +5190,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="31"/>
+      <c r="B158" s="34"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -5232,7 +5242,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="31">
+      <c r="B159" s="34">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -5266,7 +5276,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="31"/>
+      <c r="B160" s="34"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -5290,7 +5300,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="31"/>
+      <c r="B161" s="34"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -5314,7 +5324,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="31"/>
+      <c r="B162" s="34"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -5338,7 +5348,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="31"/>
+      <c r="B163" s="34"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -5365,7 +5375,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="31"/>
+      <c r="B164" s="34"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -5389,7 +5399,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="31"/>
+      <c r="B165" s="34"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -5413,7 +5423,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="31"/>
+      <c r="B166" s="34"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -5437,7 +5447,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="31"/>
+      <c r="B167" s="34"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -5461,7 +5471,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="31"/>
+      <c r="B168" s="34"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -5485,7 +5495,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="31"/>
+      <c r="B169" s="34"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -5509,7 +5519,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="31"/>
+      <c r="B170" s="34"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -5561,7 +5571,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="31">
+      <c r="B171" s="34">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -5595,7 +5605,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="31"/>
+      <c r="B172" s="34"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -5619,7 +5629,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="31"/>
+      <c r="B173" s="34"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -5643,7 +5653,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="31"/>
+      <c r="B174" s="34"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -5667,7 +5677,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="31"/>
+      <c r="B175" s="34"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -5694,7 +5704,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="31"/>
+      <c r="B176" s="34"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -5718,7 +5728,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="31"/>
+      <c r="B177" s="34"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -5742,7 +5752,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="31"/>
+      <c r="B178" s="34"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -5766,7 +5776,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="31"/>
+      <c r="B179" s="34"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -5790,7 +5800,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="31"/>
+      <c r="B180" s="34"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -5814,7 +5824,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="31"/>
+      <c r="B181" s="34"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -5838,7 +5848,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="31"/>
+      <c r="B182" s="34"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -5890,7 +5900,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="31">
+      <c r="B183" s="34">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -5924,7 +5934,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="31"/>
+      <c r="B184" s="34"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -5948,7 +5958,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="31"/>
+      <c r="B185" s="34"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -5972,7 +5982,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="31"/>
+      <c r="B186" s="34"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -5996,7 +6006,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="31"/>
+      <c r="B187" s="34"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -6023,7 +6033,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="31"/>
+      <c r="B188" s="34"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -6047,7 +6057,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="31"/>
+      <c r="B189" s="34"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -6071,7 +6081,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="31"/>
+      <c r="B190" s="34"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -6095,7 +6105,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="31"/>
+      <c r="B191" s="34"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -6119,7 +6129,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="31"/>
+      <c r="B192" s="34"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -6143,7 +6153,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="31"/>
+      <c r="B193" s="34"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -6167,7 +6177,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="31"/>
+      <c r="B194" s="34"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -6219,7 +6229,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="29">
+      <c r="B195" s="35">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -6256,7 +6266,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="29"/>
+      <c r="B196" s="35"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -6280,7 +6290,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="29"/>
+      <c r="B197" s="35"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -6304,7 +6314,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="29"/>
+      <c r="B198" s="35"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -6328,7 +6338,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="29"/>
+      <c r="B199" s="35"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -6355,7 +6365,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="29"/>
+      <c r="B200" s="35"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -6379,7 +6389,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="29"/>
+      <c r="B201" s="35"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -6403,7 +6413,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="29"/>
+      <c r="B202" s="35"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -6427,7 +6437,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="29"/>
+      <c r="B203" s="35"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -6451,7 +6461,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="29"/>
+      <c r="B204" s="35"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -6475,7 +6485,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="29"/>
+      <c r="B205" s="35"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -6499,7 +6509,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="29"/>
+      <c r="B206" s="35"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -6551,7 +6561,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="29">
+      <c r="B207" s="35">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -6585,7 +6595,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="29"/>
+      <c r="B208" s="35"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -6609,7 +6619,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="29"/>
+      <c r="B209" s="35"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -6633,7 +6643,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="29"/>
+      <c r="B210" s="35"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -6657,7 +6667,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="29"/>
+      <c r="B211" s="35"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -6684,7 +6694,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="29"/>
+      <c r="B212" s="35"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -6708,7 +6718,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="29"/>
+      <c r="B213" s="35"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -6732,7 +6742,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="29"/>
+      <c r="B214" s="35"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -6756,7 +6766,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="29"/>
+      <c r="B215" s="35"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -6780,7 +6790,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="29"/>
+      <c r="B216" s="35"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -6804,7 +6814,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="29"/>
+      <c r="B217" s="35"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -6828,7 +6838,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="29"/>
+      <c r="B218" s="35"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -6880,7 +6890,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="29">
+      <c r="B219" s="35">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -6914,7 +6924,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="29"/>
+      <c r="B220" s="35"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -6938,7 +6948,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="29"/>
+      <c r="B221" s="35"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -6962,7 +6972,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="29"/>
+      <c r="B222" s="35"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -6986,7 +6996,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="29"/>
+      <c r="B223" s="35"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -7013,7 +7023,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="29"/>
+      <c r="B224" s="35"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -7037,7 +7047,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="29"/>
+      <c r="B225" s="35"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -7061,7 +7071,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="29"/>
+      <c r="B226" s="35"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -7085,7 +7095,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="29"/>
+      <c r="B227" s="35"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -7109,7 +7119,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="29"/>
+      <c r="B228" s="35"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -7133,7 +7143,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="29"/>
+      <c r="B229" s="35"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -7157,7 +7167,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="29"/>
+      <c r="B230" s="35"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -7209,7 +7219,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="29">
+      <c r="B231" s="35">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -7243,7 +7253,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="29"/>
+      <c r="B232" s="35"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -7267,7 +7277,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="29"/>
+      <c r="B233" s="35"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -7291,7 +7301,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="29"/>
+      <c r="B234" s="35"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -7315,7 +7325,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="29"/>
+      <c r="B235" s="35"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -7342,7 +7352,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="29"/>
+      <c r="B236" s="35"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -7366,7 +7376,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="29"/>
+      <c r="B237" s="35"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -7390,7 +7400,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="29"/>
+      <c r="B238" s="35"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -7414,7 +7424,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="29"/>
+      <c r="B239" s="35"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -7438,7 +7448,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="29"/>
+      <c r="B240" s="35"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -7462,7 +7472,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="29"/>
+      <c r="B241" s="35"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -7486,7 +7496,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="29"/>
+      <c r="B242" s="35"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -7538,7 +7548,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="29">
+      <c r="B243" s="35">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -7573,7 +7583,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="29"/>
+      <c r="B244" s="35"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -7603,7 +7613,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="29"/>
+      <c r="B245" s="35"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -7633,7 +7643,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="29"/>
+      <c r="B246" s="35"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -7663,7 +7673,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="29"/>
+      <c r="B247" s="35"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -7696,7 +7706,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="29"/>
+      <c r="B248" s="35"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -7726,7 +7736,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="29"/>
+      <c r="B249" s="35"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -7756,7 +7766,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="29"/>
+      <c r="B250" s="35"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -7786,7 +7796,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="29"/>
+      <c r="B251" s="35"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -7816,7 +7826,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="29"/>
+      <c r="B252" s="35"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -7846,7 +7856,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="29"/>
+      <c r="B253" s="35"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -7876,7 +7886,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="29"/>
+      <c r="B254" s="35"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -7923,11 +7933,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
     <mergeCell ref="B243:B254"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -7944,6 +7949,11 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8011,7 +8021,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="36">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -8038,7 +8048,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -8063,7 +8073,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -8088,7 +8098,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -8113,7 +8123,7 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="21">
         <v>5</v>
       </c>
@@ -8139,7 +8149,7 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -8164,7 +8174,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="21">
         <v>7</v>
       </c>
@@ -8189,7 +8199,7 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="21">
         <v>8</v>
       </c>
@@ -8214,7 +8224,7 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -8239,7 +8249,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -8264,7 +8274,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -8289,7 +8299,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -8340,7 +8350,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="36">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -8376,7 +8386,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -8402,7 +8412,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -8428,7 +8438,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -8454,7 +8464,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -8481,7 +8491,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -8507,7 +8517,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -8533,7 +8543,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -8559,7 +8569,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -8585,7 +8595,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -8611,7 +8621,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -8637,7 +8647,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="18">
         <v>12</v>
       </c>
@@ -8689,7 +8699,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="36">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -8725,7 +8735,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -8751,7 +8761,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -8777,7 +8787,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -8803,7 +8813,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="30"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -8830,7 +8840,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -8856,7 +8866,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="30"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -8882,7 +8892,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -8908,7 +8918,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -8934,7 +8944,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -8960,7 +8970,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -8986,7 +8996,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="18">
         <v>12</v>
       </c>
@@ -9038,7 +9048,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="36">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -9074,7 +9084,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -9100,7 +9110,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -9126,7 +9136,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -9152,7 +9162,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -9179,7 +9189,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -9205,7 +9215,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -9231,7 +9241,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -9257,7 +9267,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -9283,7 +9293,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -9309,7 +9319,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -9335,7 +9345,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
@@ -9387,7 +9397,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="36">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -9423,7 +9433,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -9449,7 +9459,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -9475,7 +9485,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -9501,7 +9511,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -9528,7 +9538,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -9554,7 +9564,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -9580,7 +9590,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -9606,7 +9616,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -9632,7 +9642,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -9658,7 +9668,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -9684,7 +9694,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="18">
         <v>12</v>
       </c>
@@ -9736,7 +9746,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="36">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -9772,7 +9782,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -9798,7 +9808,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -9824,7 +9834,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -9850,7 +9860,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -9877,7 +9887,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -9904,7 +9914,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -9930,7 +9940,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -9956,7 +9966,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -9982,7 +9992,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -10008,7 +10018,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -10034,7 +10044,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="18">
         <v>12</v>
       </c>
@@ -10086,7 +10096,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="30">
+      <c r="B75" s="36">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -10122,7 +10132,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -10148,7 +10158,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -10174,7 +10184,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -10200,7 +10210,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -10227,7 +10237,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -10253,7 +10263,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -10279,7 +10289,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -10305,7 +10315,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -10331,7 +10341,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -10357,7 +10367,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -10383,7 +10393,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="18">
         <v>12</v>
       </c>
@@ -10435,7 +10445,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" s="36">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -10471,7 +10481,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -10497,7 +10507,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -10523,7 +10533,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -10549,7 +10559,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -10576,7 +10586,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -10602,7 +10612,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -10628,7 +10638,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -10654,7 +10664,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="30"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -10680,7 +10690,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="30"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -10706,7 +10716,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="30"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -10732,7 +10742,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="30"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="18">
         <v>12</v>
       </c>
@@ -10784,7 +10794,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" s="36">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -10820,7 +10830,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="30"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -10846,7 +10856,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="30"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -10872,7 +10882,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="30"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -10898,7 +10908,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="30"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -10925,7 +10935,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="30"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -10951,7 +10961,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="30"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -10977,7 +10987,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="30"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -11003,7 +11013,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="30"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -11029,7 +11039,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="30"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -11055,7 +11065,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="30"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -11081,7 +11091,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="30"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="18">
         <v>12</v>
       </c>
@@ -11133,7 +11143,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="36">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -11169,7 +11179,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="30"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -11195,7 +11205,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -11221,7 +11231,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -11247,7 +11257,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -11274,7 +11284,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -11300,7 +11310,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -11326,7 +11336,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -11352,7 +11362,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -11378,7 +11388,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -11404,7 +11414,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -11430,7 +11440,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="30"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="18">
         <v>12</v>
       </c>
@@ -11482,7 +11492,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="30">
+      <c r="B123" s="36">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -11516,7 +11526,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="30"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -11540,7 +11550,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="30"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -11564,7 +11574,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="30"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -11588,7 +11598,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="30"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -11615,7 +11625,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="30"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -11639,7 +11649,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="30"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -11663,7 +11673,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="30"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -11687,7 +11697,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="30"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -11711,7 +11721,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="30"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -11735,7 +11745,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="30"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -11759,7 +11769,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="30"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="18">
         <v>12</v>
       </c>
@@ -11811,7 +11821,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="31">
+      <c r="B135" s="34">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -11850,7 +11860,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="31"/>
+      <c r="B136" s="34"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -11874,7 +11884,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="31"/>
+      <c r="B137" s="34"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -11898,7 +11908,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="31"/>
+      <c r="B138" s="34"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -11922,7 +11932,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="31"/>
+      <c r="B139" s="34"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -11949,7 +11959,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="31"/>
+      <c r="B140" s="34"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -11973,7 +11983,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="31"/>
+      <c r="B141" s="34"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -11997,7 +12007,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="31"/>
+      <c r="B142" s="34"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -12021,7 +12031,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="31"/>
+      <c r="B143" s="34"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -12045,7 +12055,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="31"/>
+      <c r="B144" s="34"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -12069,7 +12079,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="31"/>
+      <c r="B145" s="34"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -12093,7 +12103,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="31"/>
+      <c r="B146" s="34"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -12145,7 +12155,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="34">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -12179,7 +12189,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="31"/>
+      <c r="B148" s="34"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -12203,7 +12213,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="31"/>
+      <c r="B149" s="34"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -12227,7 +12237,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="31"/>
+      <c r="B150" s="34"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -12251,7 +12261,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="31"/>
+      <c r="B151" s="34"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -12278,7 +12288,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="31"/>
+      <c r="B152" s="34"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -12302,7 +12312,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="31"/>
+      <c r="B153" s="34"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -12326,7 +12336,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="31"/>
+      <c r="B154" s="34"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -12350,7 +12360,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="31"/>
+      <c r="B155" s="34"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -12374,7 +12384,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="31"/>
+      <c r="B156" s="34"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -12398,7 +12408,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="31"/>
+      <c r="B157" s="34"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -12422,7 +12432,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="31"/>
+      <c r="B158" s="34"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -12474,7 +12484,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="31">
+      <c r="B159" s="34">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -12508,7 +12518,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="31"/>
+      <c r="B160" s="34"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -12532,7 +12542,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="31"/>
+      <c r="B161" s="34"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -12556,7 +12566,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="31"/>
+      <c r="B162" s="34"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -12580,7 +12590,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="31"/>
+      <c r="B163" s="34"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -12607,7 +12617,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="31"/>
+      <c r="B164" s="34"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -12631,7 +12641,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="31"/>
+      <c r="B165" s="34"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -12655,7 +12665,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="31"/>
+      <c r="B166" s="34"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -12679,7 +12689,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="31"/>
+      <c r="B167" s="34"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -12703,7 +12713,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="31"/>
+      <c r="B168" s="34"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -12727,7 +12737,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="31"/>
+      <c r="B169" s="34"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -12751,7 +12761,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="31"/>
+      <c r="B170" s="34"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -12803,7 +12813,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="31">
+      <c r="B171" s="34">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -12837,7 +12847,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="31"/>
+      <c r="B172" s="34"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -12861,7 +12871,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="31"/>
+      <c r="B173" s="34"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -12885,7 +12895,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="31"/>
+      <c r="B174" s="34"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -12909,7 +12919,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="31"/>
+      <c r="B175" s="34"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -12936,7 +12946,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="31"/>
+      <c r="B176" s="34"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -12960,7 +12970,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="31"/>
+      <c r="B177" s="34"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -12984,7 +12994,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="31"/>
+      <c r="B178" s="34"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -13008,7 +13018,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="31"/>
+      <c r="B179" s="34"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -13032,7 +13042,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="31"/>
+      <c r="B180" s="34"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -13056,7 +13066,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="31"/>
+      <c r="B181" s="34"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -13080,7 +13090,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="31"/>
+      <c r="B182" s="34"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -13132,7 +13142,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="31">
+      <c r="B183" s="34">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -13166,7 +13176,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="31"/>
+      <c r="B184" s="34"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -13190,7 +13200,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="31"/>
+      <c r="B185" s="34"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -13214,7 +13224,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="31"/>
+      <c r="B186" s="34"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -13238,7 +13248,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="31"/>
+      <c r="B187" s="34"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -13265,7 +13275,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="31"/>
+      <c r="B188" s="34"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -13289,7 +13299,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="31"/>
+      <c r="B189" s="34"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -13313,7 +13323,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="31"/>
+      <c r="B190" s="34"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -13337,7 +13347,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="31"/>
+      <c r="B191" s="34"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -13361,7 +13371,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="31"/>
+      <c r="B192" s="34"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -13385,7 +13395,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="31"/>
+      <c r="B193" s="34"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -13409,7 +13419,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="31"/>
+      <c r="B194" s="34"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -13461,7 +13471,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="29">
+      <c r="B195" s="35">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -13498,7 +13508,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="29"/>
+      <c r="B196" s="35"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -13522,7 +13532,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="29"/>
+      <c r="B197" s="35"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -13546,7 +13556,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="29"/>
+      <c r="B198" s="35"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -13570,7 +13580,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="29"/>
+      <c r="B199" s="35"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -13597,7 +13607,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="29"/>
+      <c r="B200" s="35"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -13621,7 +13631,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="29"/>
+      <c r="B201" s="35"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -13645,7 +13655,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="29"/>
+      <c r="B202" s="35"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -13669,7 +13679,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="29"/>
+      <c r="B203" s="35"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -13693,7 +13703,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="29"/>
+      <c r="B204" s="35"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -13717,7 +13727,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="29"/>
+      <c r="B205" s="35"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -13741,7 +13751,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="29"/>
+      <c r="B206" s="35"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -13793,7 +13803,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="29">
+      <c r="B207" s="35">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -13827,7 +13837,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="29"/>
+      <c r="B208" s="35"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -13851,7 +13861,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="29"/>
+      <c r="B209" s="35"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -13875,7 +13885,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="29"/>
+      <c r="B210" s="35"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -13899,7 +13909,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="29"/>
+      <c r="B211" s="35"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -13926,7 +13936,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="29"/>
+      <c r="B212" s="35"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -13950,7 +13960,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="29"/>
+      <c r="B213" s="35"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -13974,7 +13984,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="29"/>
+      <c r="B214" s="35"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -13998,7 +14008,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="29"/>
+      <c r="B215" s="35"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -14022,7 +14032,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="29"/>
+      <c r="B216" s="35"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -14046,7 +14056,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="29"/>
+      <c r="B217" s="35"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -14070,7 +14080,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="29"/>
+      <c r="B218" s="35"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -14122,7 +14132,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="29">
+      <c r="B219" s="35">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -14156,7 +14166,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="29"/>
+      <c r="B220" s="35"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -14180,7 +14190,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="29"/>
+      <c r="B221" s="35"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -14204,7 +14214,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="29"/>
+      <c r="B222" s="35"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -14228,7 +14238,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="29"/>
+      <c r="B223" s="35"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -14255,7 +14265,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="29"/>
+      <c r="B224" s="35"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -14279,7 +14289,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="29"/>
+      <c r="B225" s="35"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -14303,7 +14313,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="29"/>
+      <c r="B226" s="35"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -14327,7 +14337,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="29"/>
+      <c r="B227" s="35"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -14351,7 +14361,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="29"/>
+      <c r="B228" s="35"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -14375,7 +14385,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="29"/>
+      <c r="B229" s="35"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -14399,7 +14409,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="29"/>
+      <c r="B230" s="35"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -14451,7 +14461,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="29">
+      <c r="B231" s="35">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -14485,7 +14495,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="29"/>
+      <c r="B232" s="35"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -14509,7 +14519,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="29"/>
+      <c r="B233" s="35"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -14533,7 +14543,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="29"/>
+      <c r="B234" s="35"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -14557,7 +14567,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="29"/>
+      <c r="B235" s="35"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -14584,7 +14594,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="29"/>
+      <c r="B236" s="35"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -14608,7 +14618,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="29"/>
+      <c r="B237" s="35"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -14632,7 +14642,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="29"/>
+      <c r="B238" s="35"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -14656,7 +14666,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="29"/>
+      <c r="B239" s="35"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -14680,7 +14690,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="29"/>
+      <c r="B240" s="35"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -14704,7 +14714,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="29"/>
+      <c r="B241" s="35"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -14728,7 +14738,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="29"/>
+      <c r="B242" s="35"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -14780,7 +14790,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="29">
+      <c r="B243" s="35">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -14815,7 +14825,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="29"/>
+      <c r="B244" s="35"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -14845,7 +14855,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="29"/>
+      <c r="B245" s="35"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -14875,7 +14885,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="29"/>
+      <c r="B246" s="35"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -14905,7 +14915,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="29"/>
+      <c r="B247" s="35"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -14938,7 +14948,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="29"/>
+      <c r="B248" s="35"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -14968,7 +14978,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="29"/>
+      <c r="B249" s="35"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -14998,7 +15008,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="29"/>
+      <c r="B250" s="35"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -15028,7 +15038,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="29"/>
+      <c r="B251" s="35"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -15058,7 +15068,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="29"/>
+      <c r="B252" s="35"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -15088,7 +15098,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="29"/>
+      <c r="B253" s="35"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -15118,7 +15128,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="29"/>
+      <c r="B254" s="35"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -15165,15 +15175,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
-    <mergeCell ref="B243:B254"/>
-    <mergeCell ref="B147:B158"/>
-    <mergeCell ref="B159:B170"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
     <mergeCell ref="B135:B146"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -15186,6 +15187,15 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
+    <mergeCell ref="B243:B254"/>
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="B159:B170"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15659,7 +15669,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15671,20 +15681,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15692,7 +15702,7 @@
       <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="32">
         <v>17215</v>
       </c>
     </row>
@@ -15700,7 +15710,7 @@
       <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="32">
         <v>-77107</v>
       </c>
     </row>
@@ -15708,7 +15718,7 @@
       <c r="B6" s="28">
         <v>3</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="32">
         <v>77453</v>
       </c>
     </row>
@@ -15716,15 +15726,15 @@
       <c r="B7" s="28">
         <v>4</v>
       </c>
-      <c r="C7" s="37">
-        <v>0</v>
+      <c r="C7" s="32">
+        <v>16450</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="28">
         <v>5</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="32">
         <v>0</v>
       </c>
     </row>
@@ -15732,7 +15742,7 @@
       <c r="B9" s="28">
         <v>6</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="32">
         <v>0</v>
       </c>
       <c r="F9" s="25"/>
@@ -15741,7 +15751,7 @@
       <c r="B10" s="28">
         <v>7</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="32">
         <v>0</v>
       </c>
     </row>
@@ -15749,15 +15759,15 @@
       <c r="B11" s="28">
         <v>8</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="36">
+      <c r="B12" s="31">
         <v>9</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15765,34 +15775,34 @@
       <c r="B13" s="28">
         <v>10</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="30">
         <f>SUM(C4:C13)</f>
-        <v>17561</v>
+        <v>34011</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="30">
         <v>1050000</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="28">
         <f xml:space="preserve">  ROUND( (C14 / C15) * 100, 2 )</f>
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E53524-4622-45B8-AE5D-1D7F4D2F417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D48AA-3BE1-439D-BD1D-68C24C5B26F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>[전업투자]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,10 @@
     <t>수익율(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>총합산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,13 +429,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4579,7 +4586,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="34">
+      <c r="B135" s="37">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -4618,7 +4625,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="34"/>
+      <c r="B136" s="37"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -4642,7 +4649,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="34"/>
+      <c r="B137" s="37"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -4666,7 +4673,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="34"/>
+      <c r="B138" s="37"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -4690,7 +4697,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="34"/>
+      <c r="B139" s="37"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -4717,7 +4724,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="34"/>
+      <c r="B140" s="37"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -4741,7 +4748,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="34"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -4765,7 +4772,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="34"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -4789,7 +4796,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="34"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -4813,7 +4820,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="34"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -4837,7 +4844,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="34"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -4861,7 +4868,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="34"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -4913,7 +4920,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="34">
+      <c r="B147" s="37">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -4947,7 +4954,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="34"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -4971,7 +4978,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="34"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -4995,7 +5002,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="34"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -5019,7 +5026,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="34"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -5046,7 +5053,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="34"/>
+      <c r="B152" s="37"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -5070,7 +5077,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="34"/>
+      <c r="B153" s="37"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -5094,7 +5101,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="34"/>
+      <c r="B154" s="37"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -5118,7 +5125,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="34"/>
+      <c r="B155" s="37"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -5142,7 +5149,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="34"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -5166,7 +5173,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="34"/>
+      <c r="B157" s="37"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -5190,7 +5197,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="34"/>
+      <c r="B158" s="37"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -5242,7 +5249,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="34">
+      <c r="B159" s="37">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -5276,7 +5283,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="34"/>
+      <c r="B160" s="37"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -5300,7 +5307,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="34"/>
+      <c r="B161" s="37"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -5324,7 +5331,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="34"/>
+      <c r="B162" s="37"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -5348,7 +5355,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="34"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -5375,7 +5382,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="34"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -5399,7 +5406,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="34"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -5423,7 +5430,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="34"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -5447,7 +5454,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="34"/>
+      <c r="B167" s="37"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -5471,7 +5478,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="34"/>
+      <c r="B168" s="37"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -5495,7 +5502,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="34"/>
+      <c r="B169" s="37"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -5519,7 +5526,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="34"/>
+      <c r="B170" s="37"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -5571,7 +5578,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="34">
+      <c r="B171" s="37">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -5605,7 +5612,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="34"/>
+      <c r="B172" s="37"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -5629,7 +5636,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="34"/>
+      <c r="B173" s="37"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -5653,7 +5660,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="34"/>
+      <c r="B174" s="37"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -5677,7 +5684,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="34"/>
+      <c r="B175" s="37"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -5704,7 +5711,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="34"/>
+      <c r="B176" s="37"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -5728,7 +5735,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="34"/>
+      <c r="B177" s="37"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -5752,7 +5759,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="34"/>
+      <c r="B178" s="37"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -5776,7 +5783,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="34"/>
+      <c r="B179" s="37"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -5800,7 +5807,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="34"/>
+      <c r="B180" s="37"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -5824,7 +5831,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="34"/>
+      <c r="B181" s="37"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -5848,7 +5855,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="34"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -5900,7 +5907,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="34">
+      <c r="B183" s="37">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -5934,7 +5941,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="34"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -5958,7 +5965,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="34"/>
+      <c r="B185" s="37"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -5982,7 +5989,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="34"/>
+      <c r="B186" s="37"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -6006,7 +6013,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="34"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -6033,7 +6040,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="34"/>
+      <c r="B188" s="37"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -6057,7 +6064,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="34"/>
+      <c r="B189" s="37"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -6081,7 +6088,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="34"/>
+      <c r="B190" s="37"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -6105,7 +6112,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="34"/>
+      <c r="B191" s="37"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -6129,7 +6136,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="34"/>
+      <c r="B192" s="37"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -6153,7 +6160,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="34"/>
+      <c r="B193" s="37"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -6177,7 +6184,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="34"/>
+      <c r="B194" s="37"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -7933,6 +7940,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
     <mergeCell ref="B243:B254"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -7949,11 +7961,6 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11821,7 +11828,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="34">
+      <c r="B135" s="37">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -11860,7 +11867,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="34"/>
+      <c r="B136" s="37"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -11884,7 +11891,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="34"/>
+      <c r="B137" s="37"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -11908,7 +11915,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="34"/>
+      <c r="B138" s="37"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -11932,7 +11939,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="34"/>
+      <c r="B139" s="37"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -11959,7 +11966,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="34"/>
+      <c r="B140" s="37"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -11983,7 +11990,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="34"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -12007,7 +12014,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="34"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -12031,7 +12038,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="34"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -12055,7 +12062,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="34"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -12079,7 +12086,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="34"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -12103,7 +12110,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="34"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -12155,7 +12162,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="34">
+      <c r="B147" s="37">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -12189,7 +12196,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="34"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -12213,7 +12220,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="34"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -12237,7 +12244,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="34"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -12261,7 +12268,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="34"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -12288,7 +12295,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="34"/>
+      <c r="B152" s="37"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -12312,7 +12319,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="34"/>
+      <c r="B153" s="37"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -12336,7 +12343,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="34"/>
+      <c r="B154" s="37"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -12360,7 +12367,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="34"/>
+      <c r="B155" s="37"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -12384,7 +12391,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="34"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -12408,7 +12415,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="34"/>
+      <c r="B157" s="37"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -12432,7 +12439,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="34"/>
+      <c r="B158" s="37"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -12484,7 +12491,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="34">
+      <c r="B159" s="37">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -12518,7 +12525,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="34"/>
+      <c r="B160" s="37"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -12542,7 +12549,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="34"/>
+      <c r="B161" s="37"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -12566,7 +12573,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="34"/>
+      <c r="B162" s="37"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -12590,7 +12597,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="34"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -12617,7 +12624,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="34"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -12641,7 +12648,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="34"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -12665,7 +12672,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="34"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -12689,7 +12696,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="34"/>
+      <c r="B167" s="37"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -12713,7 +12720,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="34"/>
+      <c r="B168" s="37"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -12737,7 +12744,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="34"/>
+      <c r="B169" s="37"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -12761,7 +12768,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="34"/>
+      <c r="B170" s="37"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -12813,7 +12820,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="34">
+      <c r="B171" s="37">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -12847,7 +12854,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="34"/>
+      <c r="B172" s="37"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -12871,7 +12878,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="34"/>
+      <c r="B173" s="37"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -12895,7 +12902,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="34"/>
+      <c r="B174" s="37"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -12919,7 +12926,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="34"/>
+      <c r="B175" s="37"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -12946,7 +12953,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="34"/>
+      <c r="B176" s="37"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -12970,7 +12977,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="34"/>
+      <c r="B177" s="37"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -12994,7 +13001,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="34"/>
+      <c r="B178" s="37"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -13018,7 +13025,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="34"/>
+      <c r="B179" s="37"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -13042,7 +13049,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="34"/>
+      <c r="B180" s="37"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -13066,7 +13073,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="34"/>
+      <c r="B181" s="37"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -13090,7 +13097,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="34"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -13142,7 +13149,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="34">
+      <c r="B183" s="37">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -13176,7 +13183,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="34"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -13200,7 +13207,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="34"/>
+      <c r="B185" s="37"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -13224,7 +13231,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="34"/>
+      <c r="B186" s="37"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -13248,7 +13255,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="34"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -13275,7 +13282,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="34"/>
+      <c r="B188" s="37"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -13299,7 +13306,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="34"/>
+      <c r="B189" s="37"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -13323,7 +13330,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="34"/>
+      <c r="B190" s="37"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -13347,7 +13354,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="34"/>
+      <c r="B191" s="37"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -13371,7 +13378,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="34"/>
+      <c r="B192" s="37"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -13395,7 +13402,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="34"/>
+      <c r="B193" s="37"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -13419,7 +13426,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="34"/>
+      <c r="B194" s="37"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -15175,6 +15182,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
+    <mergeCell ref="B243:B254"/>
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="B159:B170"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
     <mergeCell ref="B135:B146"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -15187,15 +15203,6 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
-    <mergeCell ref="B243:B254"/>
-    <mergeCell ref="B147:B158"/>
-    <mergeCell ref="B159:B170"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15669,7 +15676,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15681,14 +15688,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
@@ -15735,7 +15742,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="32">
-        <v>0</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -15785,7 +15792,7 @@
       </c>
       <c r="C14" s="30">
         <f>SUM(C4:C13)</f>
-        <v>34011</v>
+        <v>40829</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -15793,22 +15800,28 @@
         <v>35</v>
       </c>
       <c r="C15" s="30">
-        <v>1050000</v>
+        <v>1061029</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="28">
         <f xml:space="preserve">  ROUND( (C14 / C15) * 100, 2 )</f>
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9">
+        <f xml:space="preserve"> C15 + C14</f>
+        <v>1101858</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
     </row>
   </sheetData>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59F9560-A719-466A-B20E-4F63B2F31693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954F5AC7-BCA2-4863-80C5-BE7518FC02F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>[전업투자]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +191,10 @@
     <t>총합산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>9월 현재 매매법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,13 +436,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,7 +793,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="38">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -803,7 +820,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -828,7 +845,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -853,7 +870,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -878,7 +895,7 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="21">
         <v>5</v>
       </c>
@@ -904,7 +921,7 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -929,7 +946,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="21">
         <v>7</v>
       </c>
@@ -954,7 +971,7 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="21">
         <v>8</v>
       </c>
@@ -979,7 +996,7 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -1004,7 +1021,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -1029,7 +1046,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -1054,7 +1071,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -1105,7 +1122,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="38">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -1141,7 +1158,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -1167,7 +1184,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -1193,7 +1210,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -1219,7 +1236,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1246,7 +1263,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -1272,7 +1289,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -1298,7 +1315,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -1324,7 +1341,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -1350,7 +1367,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -1376,7 +1393,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -1402,7 +1419,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="18">
         <v>12</v>
       </c>
@@ -1454,7 +1471,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="38">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -1490,7 +1507,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -1516,7 +1533,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -1542,7 +1559,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -1568,7 +1585,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -1595,7 +1612,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -1621,7 +1638,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -1647,7 +1664,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -1673,7 +1690,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -1699,7 +1716,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -1725,7 +1742,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -1751,7 +1768,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="18">
         <v>12</v>
       </c>
@@ -1803,7 +1820,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="38">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -1839,7 +1856,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="36"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -1865,7 +1882,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -1891,7 +1908,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -1917,7 +1934,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -1944,7 +1961,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -1970,7 +1987,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -1996,7 +2013,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="36"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -2022,7 +2039,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="36"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -2048,7 +2065,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -2074,7 +2091,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="36"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -2100,7 +2117,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="36"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
@@ -2152,7 +2169,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="38">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -2188,7 +2205,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="36"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -2214,7 +2231,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="36"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -2240,7 +2257,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -2266,7 +2283,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="36"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -2293,7 +2310,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -2319,7 +2336,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="36"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -2345,7 +2362,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="36"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -2371,7 +2388,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="36"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -2397,7 +2414,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -2423,7 +2440,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -2449,7 +2466,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="36"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="18">
         <v>12</v>
       </c>
@@ -2501,7 +2518,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="38">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -2537,7 +2554,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="36"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -2563,7 +2580,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="36"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -2589,7 +2606,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="36"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -2615,7 +2632,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="36"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -2642,7 +2659,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="36"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -2669,7 +2686,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="36"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -2695,7 +2712,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="36"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -2721,7 +2738,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="36"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -2747,7 +2764,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="36"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -2773,7 +2790,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="36"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -2799,7 +2816,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="36"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="18">
         <v>12</v>
       </c>
@@ -2851,7 +2868,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="38">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -2887,7 +2904,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -2913,7 +2930,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="36"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -2939,7 +2956,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="36"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -2965,7 +2982,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="36"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -2992,7 +3009,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="36"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -3018,7 +3035,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="36"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -3044,7 +3061,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="36"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -3070,7 +3087,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="36"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -3096,7 +3113,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="36"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -3122,7 +3139,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="36"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -3148,7 +3165,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="36"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="18">
         <v>12</v>
       </c>
@@ -3200,7 +3217,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="38">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -3236,7 +3253,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="36"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -3262,7 +3279,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="36"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -3288,7 +3305,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="36"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -3314,7 +3331,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="36"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -3341,7 +3358,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="36"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -3367,7 +3384,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="36"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -3393,7 +3410,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="36"/>
+      <c r="B94" s="38"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -3419,7 +3436,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="36"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -3445,7 +3462,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="36"/>
+      <c r="B96" s="38"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -3471,7 +3488,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="36"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -3497,7 +3514,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="36"/>
+      <c r="B98" s="38"/>
       <c r="C98" s="18">
         <v>12</v>
       </c>
@@ -3549,7 +3566,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="36">
+      <c r="B99" s="38">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -3585,7 +3602,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="36"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -3611,7 +3628,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="36"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -3637,7 +3654,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="36"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -3663,7 +3680,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="36"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -3690,7 +3707,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="36"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -3716,7 +3733,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="36"/>
+      <c r="B105" s="38"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -3742,7 +3759,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="36"/>
+      <c r="B106" s="38"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -3768,7 +3785,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="36"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -3794,7 +3811,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="36"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -3820,7 +3837,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="36"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -3846,7 +3863,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="36"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="18">
         <v>12</v>
       </c>
@@ -3898,7 +3915,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="36">
+      <c r="B111" s="38">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -3934,7 +3951,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="36"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -3960,7 +3977,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="36"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -3986,7 +4003,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="36"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -4012,7 +4029,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="36"/>
+      <c r="B115" s="38"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -4039,7 +4056,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="36"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -4065,7 +4082,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="36"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -4091,7 +4108,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="36"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -4117,7 +4134,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="36"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -4143,7 +4160,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="36"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -4169,7 +4186,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="36"/>
+      <c r="B121" s="38"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -4195,7 +4212,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="36"/>
+      <c r="B122" s="38"/>
       <c r="C122" s="18">
         <v>12</v>
       </c>
@@ -4247,7 +4264,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="36">
+      <c r="B123" s="38">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -4281,7 +4298,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="36"/>
+      <c r="B124" s="38"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -4305,7 +4322,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="36"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -4329,7 +4346,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="36"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -4353,7 +4370,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="36"/>
+      <c r="B127" s="38"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -4380,7 +4397,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="36"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -4404,7 +4421,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="36"/>
+      <c r="B129" s="38"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -4428,7 +4445,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="36"/>
+      <c r="B130" s="38"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -4452,7 +4469,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="36"/>
+      <c r="B131" s="38"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -4476,7 +4493,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="36"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -4500,7 +4517,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="36"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -4524,7 +4541,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="36"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="18">
         <v>12</v>
       </c>
@@ -4576,7 +4593,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="37">
+      <c r="B135" s="36">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -4615,7 +4632,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="37"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -4639,7 +4656,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="37"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -4663,7 +4680,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="37"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -4687,7 +4704,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="37"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -4714,7 +4731,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="37"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -4738,7 +4755,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="37"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -4762,7 +4779,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="37"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -4786,7 +4803,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="37"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -4810,7 +4827,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="37"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -4834,7 +4851,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="37"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -4858,7 +4875,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="37"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -4910,7 +4927,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="37">
+      <c r="B147" s="36">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -4944,7 +4961,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="37"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -4968,7 +4985,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="37"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -4992,7 +5009,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="37"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -5016,7 +5033,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="37"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -5043,7 +5060,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="37"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -5067,7 +5084,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="37"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -5091,7 +5108,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="37"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -5115,7 +5132,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="37"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -5139,7 +5156,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="37"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -5163,7 +5180,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="37"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -5187,7 +5204,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="37"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -5239,7 +5256,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="37">
+      <c r="B159" s="36">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -5273,7 +5290,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="37"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -5297,7 +5314,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="37"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -5321,7 +5338,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="37"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -5345,7 +5362,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="37"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -5372,7 +5389,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="37"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -5396,7 +5413,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="37"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -5420,7 +5437,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="37"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -5444,7 +5461,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="37"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -5468,7 +5485,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="37"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -5492,7 +5509,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="37"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -5516,7 +5533,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="37"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -5568,7 +5585,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="37">
+      <c r="B171" s="36">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -5602,7 +5619,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="37"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -5626,7 +5643,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="37"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -5650,7 +5667,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="37"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -5674,7 +5691,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="37"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -5701,7 +5718,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="37"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -5725,7 +5742,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="37"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -5749,7 +5766,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="37"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -5773,7 +5790,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="37"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -5797,7 +5814,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="37"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -5821,7 +5838,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="37"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -5845,7 +5862,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="37"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -5897,7 +5914,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="37">
+      <c r="B183" s="36">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -5931,7 +5948,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="37"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -5955,7 +5972,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="37"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -5979,7 +5996,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="37"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -6003,7 +6020,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="37"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -6030,7 +6047,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="37"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -6054,7 +6071,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="37"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -6078,7 +6095,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="37"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -6102,7 +6119,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="37"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -6126,7 +6143,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="37"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -6150,7 +6167,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="37"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -6174,7 +6191,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="37"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -6226,7 +6243,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="35">
+      <c r="B195" s="37">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -6263,7 +6280,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="35"/>
+      <c r="B196" s="37"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -6287,7 +6304,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="35"/>
+      <c r="B197" s="37"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -6311,7 +6328,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="35"/>
+      <c r="B198" s="37"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -6335,7 +6352,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="35"/>
+      <c r="B199" s="37"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -6362,7 +6379,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="35"/>
+      <c r="B200" s="37"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -6386,7 +6403,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="35"/>
+      <c r="B201" s="37"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -6410,7 +6427,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="35"/>
+      <c r="B202" s="37"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -6434,7 +6451,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="35"/>
+      <c r="B203" s="37"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -6458,7 +6475,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="35"/>
+      <c r="B204" s="37"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -6482,7 +6499,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="35"/>
+      <c r="B205" s="37"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -6506,7 +6523,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="35"/>
+      <c r="B206" s="37"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -6558,7 +6575,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="35">
+      <c r="B207" s="37">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -6592,7 +6609,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="35"/>
+      <c r="B208" s="37"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -6616,7 +6633,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="35"/>
+      <c r="B209" s="37"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -6640,7 +6657,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="35"/>
+      <c r="B210" s="37"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -6664,7 +6681,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="35"/>
+      <c r="B211" s="37"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -6691,7 +6708,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="35"/>
+      <c r="B212" s="37"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -6715,7 +6732,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="35"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -6739,7 +6756,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="35"/>
+      <c r="B214" s="37"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -6763,7 +6780,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="35"/>
+      <c r="B215" s="37"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -6787,7 +6804,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="35"/>
+      <c r="B216" s="37"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -6811,7 +6828,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="35"/>
+      <c r="B217" s="37"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -6835,7 +6852,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="35"/>
+      <c r="B218" s="37"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -6887,7 +6904,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="35">
+      <c r="B219" s="37">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -6921,7 +6938,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="35"/>
+      <c r="B220" s="37"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -6945,7 +6962,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="35"/>
+      <c r="B221" s="37"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -6969,7 +6986,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="35"/>
+      <c r="B222" s="37"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -6993,7 +7010,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="35"/>
+      <c r="B223" s="37"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -7020,7 +7037,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="35"/>
+      <c r="B224" s="37"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -7044,7 +7061,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="35"/>
+      <c r="B225" s="37"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -7068,7 +7085,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="35"/>
+      <c r="B226" s="37"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -7092,7 +7109,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="35"/>
+      <c r="B227" s="37"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -7116,7 +7133,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="35"/>
+      <c r="B228" s="37"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -7140,7 +7157,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="35"/>
+      <c r="B229" s="37"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -7164,7 +7181,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="35"/>
+      <c r="B230" s="37"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -7216,7 +7233,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="35">
+      <c r="B231" s="37">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -7250,7 +7267,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="35"/>
+      <c r="B232" s="37"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -7274,7 +7291,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="35"/>
+      <c r="B233" s="37"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -7298,7 +7315,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="35"/>
+      <c r="B234" s="37"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -7322,7 +7339,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="35"/>
+      <c r="B235" s="37"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -7349,7 +7366,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="35"/>
+      <c r="B236" s="37"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -7373,7 +7390,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="35"/>
+      <c r="B237" s="37"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -7397,7 +7414,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="35"/>
+      <c r="B238" s="37"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -7421,7 +7438,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="35"/>
+      <c r="B239" s="37"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -7445,7 +7462,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="35"/>
+      <c r="B240" s="37"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -7469,7 +7486,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="35"/>
+      <c r="B241" s="37"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -7493,7 +7510,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="35"/>
+      <c r="B242" s="37"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -7545,7 +7562,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="35">
+      <c r="B243" s="37">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -7580,7 +7597,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="35"/>
+      <c r="B244" s="37"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -7610,7 +7627,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="35"/>
+      <c r="B245" s="37"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -7640,7 +7657,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="35"/>
+      <c r="B246" s="37"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -7670,7 +7687,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="35"/>
+      <c r="B247" s="37"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -7703,7 +7720,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="35"/>
+      <c r="B248" s="37"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -7733,7 +7750,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="35"/>
+      <c r="B249" s="37"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -7763,7 +7780,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="35"/>
+      <c r="B250" s="37"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -7793,7 +7810,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="35"/>
+      <c r="B251" s="37"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -7823,7 +7840,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="35"/>
+      <c r="B252" s="37"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -7853,7 +7870,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="35"/>
+      <c r="B253" s="37"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -7883,7 +7900,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="35"/>
+      <c r="B254" s="37"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -7930,11 +7947,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
     <mergeCell ref="B243:B254"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -7951,6 +7963,11 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8018,7 +8035,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="38">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -8045,7 +8062,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -8070,7 +8087,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -8095,7 +8112,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -8120,7 +8137,7 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="21">
         <v>5</v>
       </c>
@@ -8146,7 +8163,7 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -8171,7 +8188,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="21">
         <v>7</v>
       </c>
@@ -8196,7 +8213,7 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="21">
         <v>8</v>
       </c>
@@ -8221,7 +8238,7 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -8246,7 +8263,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -8271,7 +8288,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -8296,7 +8313,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -8347,7 +8364,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="38">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -8383,7 +8400,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -8409,7 +8426,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -8435,7 +8452,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -8461,7 +8478,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -8488,7 +8505,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -8514,7 +8531,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -8540,7 +8557,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -8566,7 +8583,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -8592,7 +8609,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -8618,7 +8635,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -8644,7 +8661,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="18">
         <v>12</v>
       </c>
@@ -8696,7 +8713,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="38">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -8732,7 +8749,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -8758,7 +8775,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -8784,7 +8801,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -8810,7 +8827,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -8837,7 +8854,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -8863,7 +8880,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -8889,7 +8906,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -8915,7 +8932,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -8941,7 +8958,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -8967,7 +8984,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -8993,7 +9010,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="18">
         <v>12</v>
       </c>
@@ -9045,7 +9062,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="38">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -9081,7 +9098,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="36"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -9107,7 +9124,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -9133,7 +9150,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -9159,7 +9176,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -9186,7 +9203,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -9212,7 +9229,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -9238,7 +9255,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="36"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -9264,7 +9281,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="36"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -9290,7 +9307,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -9316,7 +9333,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="36"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -9342,7 +9359,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="36"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
@@ -9394,7 +9411,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="38">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -9430,7 +9447,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="36"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -9456,7 +9473,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="36"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -9482,7 +9499,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -9508,7 +9525,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="36"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -9535,7 +9552,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -9561,7 +9578,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="36"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -9587,7 +9604,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="36"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -9613,7 +9630,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="36"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -9639,7 +9656,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -9665,7 +9682,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -9691,7 +9708,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="36"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="18">
         <v>12</v>
       </c>
@@ -9743,7 +9760,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="38">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -9779,7 +9796,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="36"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -9805,7 +9822,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="36"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -9831,7 +9848,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="36"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -9857,7 +9874,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="36"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -9884,7 +9901,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="36"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -9911,7 +9928,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="36"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -9937,7 +9954,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="36"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -9963,7 +9980,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="36"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -9989,7 +10006,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="36"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -10015,7 +10032,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="36"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -10041,7 +10058,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="36"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="18">
         <v>12</v>
       </c>
@@ -10093,7 +10110,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="38">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -10129,7 +10146,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -10155,7 +10172,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="36"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -10181,7 +10198,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="36"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -10207,7 +10224,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="36"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -10234,7 +10251,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="36"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -10260,7 +10277,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="36"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -10286,7 +10303,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="36"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -10312,7 +10329,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="36"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -10338,7 +10355,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="36"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -10364,7 +10381,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="36"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -10390,7 +10407,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="36"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="18">
         <v>12</v>
       </c>
@@ -10442,7 +10459,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="38">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -10478,7 +10495,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="36"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -10504,7 +10521,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="36"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -10530,7 +10547,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="36"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -10556,7 +10573,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="36"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -10583,7 +10600,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="36"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -10609,7 +10626,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="36"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -10635,7 +10652,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="36"/>
+      <c r="B94" s="38"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -10661,7 +10678,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="36"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -10687,7 +10704,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="36"/>
+      <c r="B96" s="38"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -10713,7 +10730,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="36"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -10739,7 +10756,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="36"/>
+      <c r="B98" s="38"/>
       <c r="C98" s="18">
         <v>12</v>
       </c>
@@ -10791,7 +10808,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="36">
+      <c r="B99" s="38">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -10827,7 +10844,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="36"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -10853,7 +10870,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="36"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -10879,7 +10896,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="36"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -10905,7 +10922,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="36"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -10932,7 +10949,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="36"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -10958,7 +10975,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="36"/>
+      <c r="B105" s="38"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -10984,7 +11001,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="36"/>
+      <c r="B106" s="38"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -11010,7 +11027,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="36"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -11036,7 +11053,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="36"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -11062,7 +11079,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="36"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -11088,7 +11105,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="36"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="18">
         <v>12</v>
       </c>
@@ -11140,7 +11157,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="36">
+      <c r="B111" s="38">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -11176,7 +11193,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="36"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -11202,7 +11219,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="36"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -11228,7 +11245,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="36"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -11254,7 +11271,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="36"/>
+      <c r="B115" s="38"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -11281,7 +11298,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="36"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -11307,7 +11324,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="36"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -11333,7 +11350,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="36"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -11359,7 +11376,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="36"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -11385,7 +11402,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="36"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -11411,7 +11428,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="36"/>
+      <c r="B121" s="38"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -11437,7 +11454,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="36"/>
+      <c r="B122" s="38"/>
       <c r="C122" s="18">
         <v>12</v>
       </c>
@@ -11489,7 +11506,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="36">
+      <c r="B123" s="38">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -11523,7 +11540,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="36"/>
+      <c r="B124" s="38"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -11547,7 +11564,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="36"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -11571,7 +11588,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="36"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -11595,7 +11612,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="36"/>
+      <c r="B127" s="38"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -11622,7 +11639,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="36"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -11646,7 +11663,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="36"/>
+      <c r="B129" s="38"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -11670,7 +11687,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="36"/>
+      <c r="B130" s="38"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -11694,7 +11711,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="36"/>
+      <c r="B131" s="38"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -11718,7 +11735,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="36"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -11742,7 +11759,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="36"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -11766,7 +11783,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="36"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="18">
         <v>12</v>
       </c>
@@ -11818,7 +11835,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="37">
+      <c r="B135" s="36">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -11857,7 +11874,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="37"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -11881,7 +11898,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="37"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -11905,7 +11922,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="37"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -11929,7 +11946,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="37"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -11956,7 +11973,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="37"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -11980,7 +11997,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="37"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -12004,7 +12021,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="37"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -12028,7 +12045,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="37"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -12052,7 +12069,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="37"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -12076,7 +12093,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="37"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -12100,7 +12117,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="37"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -12152,7 +12169,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="37">
+      <c r="B147" s="36">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -12186,7 +12203,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="37"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -12210,7 +12227,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="37"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -12234,7 +12251,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="37"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -12258,7 +12275,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="37"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -12285,7 +12302,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="37"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -12309,7 +12326,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="37"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -12333,7 +12350,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="37"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -12357,7 +12374,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="37"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -12381,7 +12398,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="37"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -12405,7 +12422,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="37"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -12429,7 +12446,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="37"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -12481,7 +12498,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="37">
+      <c r="B159" s="36">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -12515,7 +12532,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="37"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -12539,7 +12556,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="37"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -12563,7 +12580,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="37"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -12587,7 +12604,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="37"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -12614,7 +12631,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="37"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -12638,7 +12655,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="37"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -12662,7 +12679,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="37"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -12686,7 +12703,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="37"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -12710,7 +12727,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="37"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -12734,7 +12751,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="37"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -12758,7 +12775,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="37"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -12810,7 +12827,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="37">
+      <c r="B171" s="36">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -12844,7 +12861,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="37"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -12868,7 +12885,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="37"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -12892,7 +12909,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="37"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -12916,7 +12933,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="37"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -12943,7 +12960,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="37"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -12967,7 +12984,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="37"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -12991,7 +13008,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="37"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -13015,7 +13032,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="37"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -13039,7 +13056,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="37"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -13063,7 +13080,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="37"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -13087,7 +13104,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="37"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -13139,7 +13156,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="37">
+      <c r="B183" s="36">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -13173,7 +13190,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="37"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -13197,7 +13214,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="37"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -13221,7 +13238,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="37"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -13245,7 +13262,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="37"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -13272,7 +13289,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="37"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -13296,7 +13313,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="37"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -13320,7 +13337,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="37"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -13344,7 +13361,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="37"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -13368,7 +13385,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="37"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -13392,7 +13409,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="37"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -13416,7 +13433,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="37"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -13468,7 +13485,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="35">
+      <c r="B195" s="37">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -13505,7 +13522,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="35"/>
+      <c r="B196" s="37"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -13529,7 +13546,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="35"/>
+      <c r="B197" s="37"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -13553,7 +13570,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="35"/>
+      <c r="B198" s="37"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -13577,7 +13594,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="35"/>
+      <c r="B199" s="37"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -13604,7 +13621,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="35"/>
+      <c r="B200" s="37"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -13628,7 +13645,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="35"/>
+      <c r="B201" s="37"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -13652,7 +13669,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="35"/>
+      <c r="B202" s="37"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -13676,7 +13693,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="35"/>
+      <c r="B203" s="37"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -13700,7 +13717,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="35"/>
+      <c r="B204" s="37"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -13724,7 +13741,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="35"/>
+      <c r="B205" s="37"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -13748,7 +13765,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="35"/>
+      <c r="B206" s="37"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -13800,7 +13817,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="35">
+      <c r="B207" s="37">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -13834,7 +13851,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="35"/>
+      <c r="B208" s="37"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -13858,7 +13875,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="35"/>
+      <c r="B209" s="37"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -13882,7 +13899,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="35"/>
+      <c r="B210" s="37"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -13906,7 +13923,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="35"/>
+      <c r="B211" s="37"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -13933,7 +13950,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="35"/>
+      <c r="B212" s="37"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -13957,7 +13974,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="35"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -13981,7 +13998,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="35"/>
+      <c r="B214" s="37"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -14005,7 +14022,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="35"/>
+      <c r="B215" s="37"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -14029,7 +14046,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="35"/>
+      <c r="B216" s="37"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -14053,7 +14070,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="35"/>
+      <c r="B217" s="37"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -14077,7 +14094,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="35"/>
+      <c r="B218" s="37"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -14129,7 +14146,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="35">
+      <c r="B219" s="37">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -14163,7 +14180,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="35"/>
+      <c r="B220" s="37"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -14187,7 +14204,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="35"/>
+      <c r="B221" s="37"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -14211,7 +14228,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="35"/>
+      <c r="B222" s="37"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -14235,7 +14252,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="35"/>
+      <c r="B223" s="37"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -14262,7 +14279,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="35"/>
+      <c r="B224" s="37"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -14286,7 +14303,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="35"/>
+      <c r="B225" s="37"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -14310,7 +14327,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="35"/>
+      <c r="B226" s="37"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -14334,7 +14351,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="35"/>
+      <c r="B227" s="37"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -14358,7 +14375,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="35"/>
+      <c r="B228" s="37"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -14382,7 +14399,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="35"/>
+      <c r="B229" s="37"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -14406,7 +14423,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="35"/>
+      <c r="B230" s="37"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -14458,7 +14475,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="35">
+      <c r="B231" s="37">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -14492,7 +14509,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="35"/>
+      <c r="B232" s="37"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -14516,7 +14533,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="35"/>
+      <c r="B233" s="37"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -14540,7 +14557,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="35"/>
+      <c r="B234" s="37"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -14564,7 +14581,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="35"/>
+      <c r="B235" s="37"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -14591,7 +14608,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="35"/>
+      <c r="B236" s="37"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -14615,7 +14632,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="35"/>
+      <c r="B237" s="37"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -14639,7 +14656,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="35"/>
+      <c r="B238" s="37"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -14663,7 +14680,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="35"/>
+      <c r="B239" s="37"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -14687,7 +14704,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="35"/>
+      <c r="B240" s="37"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -14711,7 +14728,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="35"/>
+      <c r="B241" s="37"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -14735,7 +14752,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="35"/>
+      <c r="B242" s="37"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -14787,7 +14804,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="35">
+      <c r="B243" s="37">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -14822,7 +14839,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="35"/>
+      <c r="B244" s="37"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -14852,7 +14869,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="35"/>
+      <c r="B245" s="37"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -14882,7 +14899,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="35"/>
+      <c r="B246" s="37"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -14912,7 +14929,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="35"/>
+      <c r="B247" s="37"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -14945,7 +14962,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="35"/>
+      <c r="B248" s="37"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -14975,7 +14992,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="35"/>
+      <c r="B249" s="37"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -15005,7 +15022,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="35"/>
+      <c r="B250" s="37"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -15035,7 +15052,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="35"/>
+      <c r="B251" s="37"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -15065,7 +15082,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="35"/>
+      <c r="B252" s="37"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -15095,7 +15112,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="35"/>
+      <c r="B253" s="37"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -15125,7 +15142,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="35"/>
+      <c r="B254" s="37"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -15172,15 +15189,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
-    <mergeCell ref="B243:B254"/>
-    <mergeCell ref="B147:B158"/>
-    <mergeCell ref="B159:B170"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
     <mergeCell ref="B135:B146"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -15193,6 +15201,15 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
+    <mergeCell ref="B243:B254"/>
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="B159:B170"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15721,7 +15738,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15730,17 +15747,22 @@
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="E2" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
@@ -15749,6 +15771,12 @@
       <c r="C3" s="29" t="s">
         <v>32</v>
       </c>
+      <c r="E3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="28">
@@ -15757,6 +15785,12 @@
       <c r="C4" s="32">
         <v>17215</v>
       </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="28">
@@ -15765,6 +15799,12 @@
       <c r="C5" s="32">
         <v>-77107</v>
       </c>
+      <c r="E5" s="28">
+        <v>2</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="28">
@@ -15773,6 +15813,12 @@
       <c r="C6" s="32">
         <v>77453</v>
       </c>
+      <c r="E6" s="28">
+        <v>3</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="28">
@@ -15781,6 +15827,12 @@
       <c r="C7" s="32">
         <v>16450</v>
       </c>
+      <c r="E7" s="28">
+        <v>4</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="28">
@@ -15789,6 +15841,12 @@
       <c r="C8" s="32">
         <v>6818</v>
       </c>
+      <c r="E8" s="28">
+        <v>5</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="28">
@@ -15797,7 +15855,12 @@
       <c r="C9" s="32">
         <v>24585</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="E9" s="28">
+        <v>6</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="28">
@@ -15806,6 +15869,12 @@
       <c r="C10" s="32">
         <v>0</v>
       </c>
+      <c r="E10" s="28">
+        <v>7</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="28">
@@ -15814,6 +15883,12 @@
       <c r="C11" s="32">
         <v>0</v>
       </c>
+      <c r="E11" s="28">
+        <v>8</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="31">
@@ -15822,6 +15897,12 @@
       <c r="C12" s="33">
         <v>0</v>
       </c>
+      <c r="E12" s="31">
+        <v>9</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="28">
@@ -15830,6 +15911,12 @@
       <c r="C13" s="32">
         <v>0</v>
       </c>
+      <c r="E13" s="28">
+        <v>10</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
@@ -15839,6 +15926,13 @@
         <f>SUM(C4:C13)</f>
         <v>65414</v>
       </c>
+      <c r="E14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="30">
+        <f>SUM(F4:F13)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
@@ -15847,6 +15941,12 @@
       <c r="C15" s="30">
         <v>1061029</v>
       </c>
+      <c r="E15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1126443</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
@@ -15856,8 +15956,15 @@
         <f xml:space="preserve">  ROUND( (C14 / C15) * 100, 2 )</f>
         <v>6.17</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="28">
+        <f xml:space="preserve">  ROUND( (F14 / F15) * 100, 2 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
         <v>37</v>
       </c>
@@ -15865,14 +15972,22 @@
         <f xml:space="preserve"> C15 + C14</f>
         <v>1126443</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="9">
+        <f xml:space="preserve"> F15 + F14</f>
+        <v>1126443</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCBE463-52C6-4DF6-B061-95F3DD7162CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCD1177-585A-44B0-B194-5DE7ACE12762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="7" r:id="rId1"/>
@@ -330,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,19 +439,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -467,6 +455,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2C4290-35C3-4A87-8E0C-A86402C7E94A}">
   <dimension ref="A1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,22 +783,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D1" s="25" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="48" t="s">
         <v>26</v>
       </c>
       <c r="N1" s="25" t="s">
@@ -794,21 +809,27 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47">
+        <v>0</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47">
+        <v>0</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="44">
         <v>2022</v>
       </c>
       <c r="C3" s="18">
@@ -835,7 +856,7 @@
       <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="18">
         <v>2</v>
       </c>
@@ -860,7 +881,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="18">
         <v>3</v>
       </c>
@@ -885,7 +906,7 @@
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="18">
         <v>4</v>
       </c>
@@ -910,7 +931,7 @@
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="18">
         <v>5</v>
       </c>
@@ -932,11 +953,11 @@
       <c r="I7" s="20">
         <v>1000000</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="41"/>
       <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="18">
         <v>6</v>
       </c>
@@ -961,7 +982,7 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="18">
         <v>7</v>
       </c>
@@ -986,7 +1007,7 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="18">
         <v>8</v>
       </c>
@@ -1011,7 +1032,7 @@
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -1036,7 +1057,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -1061,7 +1082,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -1086,7 +1107,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -1137,7 +1158,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="44">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -1173,7 +1194,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -1199,7 +1220,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -1225,7 +1246,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -1251,7 +1272,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1278,7 +1299,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -1304,7 +1325,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -1330,7 +1351,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -1356,7 +1377,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -1382,7 +1403,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -1408,7 +1429,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -1434,7 +1455,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="18">
         <v>12</v>
       </c>
@@ -1486,7 +1507,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="44">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -1521,37 +1542,37 @@
       </c>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="41">
+      <c r="B28" s="44"/>
+      <c r="C28" s="37">
         <v>2</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="38">
         <f>K27</f>
         <v>3338144.0620829351</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="38">
         <f t="shared" ref="E28:E38" si="4" xml:space="preserve"> G27 + D28 - I28</f>
         <v>16975142.579688497</v>
       </c>
-      <c r="F28" s="41">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G28" s="42">
+      <c r="F28" s="37">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G28" s="38">
         <f xml:space="preserve"> (E28 * F28) + E28</f>
         <v>17280695.146122891</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43">
-        <v>0</v>
-      </c>
-      <c r="P28" s="42"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39">
+        <v>0</v>
+      </c>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -1577,7 +1598,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -1603,7 +1624,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="37"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -1630,7 +1651,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -1656,7 +1677,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -1682,7 +1703,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -1708,7 +1729,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="37"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -1734,7 +1755,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -1760,7 +1781,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -1786,7 +1807,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="18">
         <v>12</v>
       </c>
@@ -1838,7 +1859,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="44">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -1874,7 +1895,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -1900,7 +1921,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -1926,7 +1947,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -1952,7 +1973,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -1979,7 +2000,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -2005,7 +2026,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -2031,7 +2052,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -2057,7 +2078,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -2083,7 +2104,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="37"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -2109,7 +2130,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -2135,7 +2156,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
@@ -2187,7 +2208,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="44">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -2223,7 +2244,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -2249,7 +2270,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="37"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -2275,7 +2296,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -2301,7 +2322,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -2328,7 +2349,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="37"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -2354,7 +2375,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="37"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -2380,7 +2401,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -2406,7 +2427,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -2432,7 +2453,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="37"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -2458,7 +2479,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -2484,7 +2505,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="37"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="18">
         <v>12</v>
       </c>
@@ -2536,7 +2557,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="44">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -2572,7 +2593,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -2598,7 +2619,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="37"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -2624,7 +2645,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="37"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -2650,7 +2671,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="37"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -2677,7 +2698,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -2704,7 +2725,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="37"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -2730,7 +2751,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="37"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -2756,7 +2777,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="37"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -2782,7 +2803,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="37"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -2808,7 +2829,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="37"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -2834,7 +2855,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="37"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="18">
         <v>12</v>
       </c>
@@ -2886,7 +2907,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="44">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -2922,7 +2943,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="37"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -2948,7 +2969,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="37"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -2974,7 +2995,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="37"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -3000,7 +3021,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="37"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -3027,7 +3048,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="37"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -3053,7 +3074,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="37"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -3079,7 +3100,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="37"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -3105,7 +3126,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="37"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -3131,7 +3152,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="37"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -3157,7 +3178,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="37"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -3183,7 +3204,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="37"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="18">
         <v>12</v>
       </c>
@@ -3235,7 +3256,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B87" s="44">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -3271,7 +3292,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="37"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -3297,7 +3318,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="37"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -3323,7 +3344,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="37"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -3349,7 +3370,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="37"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -3376,7 +3397,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="37"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -3402,7 +3423,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="37"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -3428,7 +3449,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="37"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -3454,7 +3475,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="37"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -3480,7 +3501,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="37"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -3506,7 +3527,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="37"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -3532,7 +3553,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="37"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="18">
         <v>12</v>
       </c>
@@ -3584,7 +3605,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="37">
+      <c r="B99" s="44">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -3620,7 +3641,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="37"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -3646,7 +3667,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="37"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -3672,7 +3693,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="37"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -3698,7 +3719,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="37"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -3725,7 +3746,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="37"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -3751,7 +3772,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="37"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -3777,7 +3798,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="37"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -3803,7 +3824,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="37"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -3829,7 +3850,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="37"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -3855,7 +3876,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="37"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -3881,7 +3902,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="37"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="18">
         <v>12</v>
       </c>
@@ -3933,7 +3954,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B111" s="44">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -3969,7 +3990,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="37"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -3995,7 +4016,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="37"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -4021,7 +4042,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="37"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -4047,7 +4068,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="37"/>
+      <c r="B115" s="44"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -4074,7 +4095,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="37"/>
+      <c r="B116" s="44"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -4100,7 +4121,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="37"/>
+      <c r="B117" s="44"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -4126,7 +4147,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="37"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -4152,7 +4173,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="37"/>
+      <c r="B119" s="44"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -4178,7 +4199,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="37"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -4204,7 +4225,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="37"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -4230,7 +4251,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="37"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="18">
         <v>12</v>
       </c>
@@ -4282,7 +4303,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="37">
+      <c r="B123" s="44">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -4316,7 +4337,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="37"/>
+      <c r="B124" s="44"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -4340,7 +4361,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="37"/>
+      <c r="B125" s="44"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -4364,7 +4385,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="37"/>
+      <c r="B126" s="44"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -4388,7 +4409,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="37"/>
+      <c r="B127" s="44"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -4415,7 +4436,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="37"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -4439,7 +4460,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="37"/>
+      <c r="B129" s="44"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -4463,7 +4484,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="37"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -4487,7 +4508,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="37"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -4511,7 +4532,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="37"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -4535,7 +4556,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="37"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -4559,7 +4580,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="37"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="18">
         <v>12</v>
       </c>
@@ -4611,7 +4632,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="38">
+      <c r="B135" s="43">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -4650,7 +4671,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="38"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -4674,7 +4695,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="38"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -4698,7 +4719,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="38"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -4722,7 +4743,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="38"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -4749,7 +4770,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="38"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -4773,7 +4794,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="38"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -4797,7 +4818,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="38"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -4821,7 +4842,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="38"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -4845,7 +4866,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="38"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -4869,7 +4890,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="38"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -4893,7 +4914,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="38"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -4945,7 +4966,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="38">
+      <c r="B147" s="43">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -4979,7 +5000,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="38"/>
+      <c r="B148" s="43"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -5003,7 +5024,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="38"/>
+      <c r="B149" s="43"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -5027,7 +5048,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="38"/>
+      <c r="B150" s="43"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -5051,7 +5072,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="38"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -5078,7 +5099,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="38"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -5102,7 +5123,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="38"/>
+      <c r="B153" s="43"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -5126,7 +5147,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="38"/>
+      <c r="B154" s="43"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -5150,7 +5171,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="38"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -5174,7 +5195,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="38"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -5198,7 +5219,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="38"/>
+      <c r="B157" s="43"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -5222,7 +5243,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="38"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -5274,7 +5295,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="38">
+      <c r="B159" s="43">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -5308,7 +5329,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="38"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -5332,7 +5353,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="38"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -5356,7 +5377,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="38"/>
+      <c r="B162" s="43"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -5380,7 +5401,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="38"/>
+      <c r="B163" s="43"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -5407,7 +5428,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="38"/>
+      <c r="B164" s="43"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -5431,7 +5452,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="38"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -5455,7 +5476,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="38"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -5479,7 +5500,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="38"/>
+      <c r="B167" s="43"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -5503,7 +5524,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="38"/>
+      <c r="B168" s="43"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -5527,7 +5548,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="38"/>
+      <c r="B169" s="43"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -5551,7 +5572,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="38"/>
+      <c r="B170" s="43"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -5603,7 +5624,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="38">
+      <c r="B171" s="43">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -5637,7 +5658,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="38"/>
+      <c r="B172" s="43"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -5661,7 +5682,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="38"/>
+      <c r="B173" s="43"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -5685,7 +5706,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="38"/>
+      <c r="B174" s="43"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -5709,7 +5730,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="38"/>
+      <c r="B175" s="43"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -5736,7 +5757,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="38"/>
+      <c r="B176" s="43"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -5760,7 +5781,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="38"/>
+      <c r="B177" s="43"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -5784,7 +5805,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="38"/>
+      <c r="B178" s="43"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -5808,7 +5829,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="38"/>
+      <c r="B179" s="43"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -5832,7 +5853,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="38"/>
+      <c r="B180" s="43"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -5856,7 +5877,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="38"/>
+      <c r="B181" s="43"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -5880,7 +5901,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="38"/>
+      <c r="B182" s="43"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -5932,7 +5953,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="38">
+      <c r="B183" s="43">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -5966,7 +5987,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="38"/>
+      <c r="B184" s="43"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -5990,7 +6011,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="38"/>
+      <c r="B185" s="43"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -6014,7 +6035,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="38"/>
+      <c r="B186" s="43"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -6038,7 +6059,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="38"/>
+      <c r="B187" s="43"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -6065,7 +6086,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="38"/>
+      <c r="B188" s="43"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -6089,7 +6110,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="38"/>
+      <c r="B189" s="43"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -6113,7 +6134,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="38"/>
+      <c r="B190" s="43"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -6137,7 +6158,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="38"/>
+      <c r="B191" s="43"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -6161,7 +6182,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="38"/>
+      <c r="B192" s="43"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -6185,7 +6206,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="38"/>
+      <c r="B193" s="43"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -6209,7 +6230,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="38"/>
+      <c r="B194" s="43"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -6261,7 +6282,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="36">
+      <c r="B195" s="42">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -6298,7 +6319,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="36"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -6322,7 +6343,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="36"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -6346,7 +6367,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="36"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -6370,7 +6391,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="36"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -6397,7 +6418,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="36"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -6421,7 +6442,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="36"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -6445,7 +6466,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="36"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -6469,7 +6490,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="36"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -6493,7 +6514,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="36"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -6517,7 +6538,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="36"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -6541,7 +6562,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="36"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -6593,7 +6614,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="36">
+      <c r="B207" s="42">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -6627,7 +6648,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="36"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -6651,7 +6672,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="36"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -6675,7 +6696,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="36"/>
+      <c r="B210" s="42"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -6699,7 +6720,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="36"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -6726,7 +6747,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="36"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -6750,7 +6771,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="36"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -6774,7 +6795,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="36"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -6798,7 +6819,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="36"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -6822,7 +6843,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="36"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -6846,7 +6867,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="36"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -6870,7 +6891,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="36"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -6922,7 +6943,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="36">
+      <c r="B219" s="42">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -6956,7 +6977,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="36"/>
+      <c r="B220" s="42"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -6980,7 +7001,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="36"/>
+      <c r="B221" s="42"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -7004,7 +7025,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="36"/>
+      <c r="B222" s="42"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -7028,7 +7049,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="36"/>
+      <c r="B223" s="42"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -7055,7 +7076,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="36"/>
+      <c r="B224" s="42"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -7079,7 +7100,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="36"/>
+      <c r="B225" s="42"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -7103,7 +7124,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="36"/>
+      <c r="B226" s="42"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -7127,7 +7148,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="36"/>
+      <c r="B227" s="42"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -7151,7 +7172,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="36"/>
+      <c r="B228" s="42"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -7175,7 +7196,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="36"/>
+      <c r="B229" s="42"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -7199,7 +7220,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="36"/>
+      <c r="B230" s="42"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -7251,7 +7272,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="36">
+      <c r="B231" s="42">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -7285,7 +7306,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="36"/>
+      <c r="B232" s="42"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -7309,7 +7330,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="36"/>
+      <c r="B233" s="42"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -7333,7 +7354,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="36"/>
+      <c r="B234" s="42"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -7357,7 +7378,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="36"/>
+      <c r="B235" s="42"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -7384,7 +7405,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="36"/>
+      <c r="B236" s="42"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -7408,7 +7429,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="36"/>
+      <c r="B237" s="42"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -7432,7 +7453,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="36"/>
+      <c r="B238" s="42"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -7456,7 +7477,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="36"/>
+      <c r="B239" s="42"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -7480,7 +7501,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="36"/>
+      <c r="B240" s="42"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -7504,7 +7525,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="36"/>
+      <c r="B241" s="42"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -7528,7 +7549,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="36"/>
+      <c r="B242" s="42"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -7580,7 +7601,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="36">
+      <c r="B243" s="42">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -7615,7 +7636,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="36"/>
+      <c r="B244" s="42"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -7645,7 +7666,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="36"/>
+      <c r="B245" s="42"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -7675,7 +7696,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="36"/>
+      <c r="B246" s="42"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -7705,7 +7726,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="36"/>
+      <c r="B247" s="42"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -7738,7 +7759,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="36"/>
+      <c r="B248" s="42"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -7768,7 +7789,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="36"/>
+      <c r="B249" s="42"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -7798,7 +7819,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="36"/>
+      <c r="B250" s="42"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -7828,7 +7849,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="36"/>
+      <c r="B251" s="42"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -7858,7 +7879,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="36"/>
+      <c r="B252" s="42"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -7888,7 +7909,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="36"/>
+      <c r="B253" s="42"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -7918,7 +7939,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="36"/>
+      <c r="B254" s="42"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -7965,15 +7986,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
-    <mergeCell ref="B243:B254"/>
-    <mergeCell ref="B147:B158"/>
-    <mergeCell ref="B159:B170"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
     <mergeCell ref="B135:B146"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -7986,6 +7998,15 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
+    <mergeCell ref="B243:B254"/>
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="B159:B170"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7995,10 +8016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:R18"/>
+  <dimension ref="A2:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8474,7 +8495,62 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6930000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>630000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1700000</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" ref="Q10" si="4">SUM(C10:P10)</f>
+        <v>6680000</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" ref="R10" si="5" xml:space="preserve"> B10 - Q10</f>
+        <v>250000</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
@@ -8483,89 +8559,25 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6930000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>630000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>300000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>50000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1700000</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" ref="Q13" si="4">SUM(C13:P13)</f>
-        <v>6680000</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" ref="R13" si="5" xml:space="preserve"> B13 - Q13</f>
-        <v>250000</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <f xml:space="preserve"> E14 * F14</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-      <c r="E17">
-        <v>0.01</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <f xml:space="preserve"> E17 * F17</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8579,7 +8591,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8592,18 +8604,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="45"/>
+      <c r="E2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
@@ -8896,7 +8908,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="44">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -8923,7 +8935,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -8948,7 +8960,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -8973,7 +8985,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -8998,7 +9010,7 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="21">
         <v>5</v>
       </c>
@@ -9024,7 +9036,7 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -9049,7 +9061,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="21">
         <v>7</v>
       </c>
@@ -9074,7 +9086,7 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="21">
         <v>8</v>
       </c>
@@ -9099,7 +9111,7 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -9124,7 +9136,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -9149,7 +9161,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -9174,7 +9186,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -9225,7 +9237,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="44">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -9261,7 +9273,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -9287,7 +9299,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -9313,7 +9325,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -9339,7 +9351,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -9366,7 +9378,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -9392,7 +9404,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -9418,7 +9430,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -9444,7 +9456,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -9470,7 +9482,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -9496,7 +9508,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -9522,7 +9534,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="18">
         <v>12</v>
       </c>
@@ -9574,7 +9586,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="44">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -9610,7 +9622,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="37"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -9636,7 +9648,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -9662,7 +9674,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -9688,7 +9700,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="37"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -9715,7 +9727,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -9741,7 +9753,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -9767,7 +9779,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -9793,7 +9805,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="37"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -9819,7 +9831,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -9845,7 +9857,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -9871,7 +9883,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="18">
         <v>12</v>
       </c>
@@ -9923,7 +9935,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="44">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -9959,7 +9971,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -9985,7 +9997,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -10011,7 +10023,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -10037,7 +10049,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -10064,7 +10076,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -10090,7 +10102,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -10116,7 +10128,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -10142,7 +10154,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -10168,7 +10180,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="37"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -10194,7 +10206,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -10220,7 +10232,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
@@ -10272,7 +10284,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="44">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -10308,7 +10320,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -10334,7 +10346,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="37"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -10360,7 +10372,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -10386,7 +10398,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -10413,7 +10425,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="37"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -10439,7 +10451,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="37"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -10465,7 +10477,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -10491,7 +10503,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -10517,7 +10529,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="37"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -10543,7 +10555,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -10569,7 +10581,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="37"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="18">
         <v>12</v>
       </c>
@@ -10621,7 +10633,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="44">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -10657,7 +10669,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -10683,7 +10695,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="37"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -10709,7 +10721,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="37"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -10735,7 +10747,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="37"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -10762,7 +10774,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -10789,7 +10801,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="37"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -10815,7 +10827,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="37"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -10841,7 +10853,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="37"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -10867,7 +10879,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="37"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -10893,7 +10905,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="37"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -10919,7 +10931,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="37"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="18">
         <v>12</v>
       </c>
@@ -10971,7 +10983,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="44">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -11007,7 +11019,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="37"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -11033,7 +11045,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="37"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -11059,7 +11071,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="37"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -11085,7 +11097,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="37"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -11112,7 +11124,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="37"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -11138,7 +11150,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="37"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -11164,7 +11176,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="37"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -11190,7 +11202,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="37"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -11216,7 +11228,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="37"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -11242,7 +11254,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="37"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -11268,7 +11280,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="37"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="18">
         <v>12</v>
       </c>
@@ -11320,7 +11332,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B87" s="44">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -11356,7 +11368,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="37"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -11382,7 +11394,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="37"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -11408,7 +11420,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="37"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -11434,7 +11446,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="37"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -11461,7 +11473,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="37"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -11487,7 +11499,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="37"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -11513,7 +11525,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="37"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -11539,7 +11551,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="37"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -11565,7 +11577,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="37"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -11591,7 +11603,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="37"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -11617,7 +11629,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="37"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="18">
         <v>12</v>
       </c>
@@ -11669,7 +11681,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="37">
+      <c r="B99" s="44">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -11705,7 +11717,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="37"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -11731,7 +11743,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="37"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -11757,7 +11769,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="37"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -11783,7 +11795,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="37"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -11810,7 +11822,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="37"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -11836,7 +11848,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="37"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -11862,7 +11874,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="37"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -11888,7 +11900,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="37"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -11914,7 +11926,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="37"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -11940,7 +11952,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="37"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -11966,7 +11978,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="37"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="18">
         <v>12</v>
       </c>
@@ -12018,7 +12030,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B111" s="44">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -12054,7 +12066,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="37"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -12080,7 +12092,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="37"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -12106,7 +12118,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="37"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -12132,7 +12144,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="37"/>
+      <c r="B115" s="44"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -12159,7 +12171,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="37"/>
+      <c r="B116" s="44"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -12185,7 +12197,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="37"/>
+      <c r="B117" s="44"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -12211,7 +12223,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="37"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -12237,7 +12249,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="37"/>
+      <c r="B119" s="44"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -12263,7 +12275,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="37"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -12289,7 +12301,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="37"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -12315,7 +12327,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="37"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="18">
         <v>12</v>
       </c>
@@ -12367,7 +12379,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="37">
+      <c r="B123" s="44">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -12401,7 +12413,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="37"/>
+      <c r="B124" s="44"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -12425,7 +12437,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="37"/>
+      <c r="B125" s="44"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -12449,7 +12461,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="37"/>
+      <c r="B126" s="44"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -12473,7 +12485,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="37"/>
+      <c r="B127" s="44"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -12500,7 +12512,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="37"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -12524,7 +12536,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="37"/>
+      <c r="B129" s="44"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -12548,7 +12560,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="37"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -12572,7 +12584,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="37"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -12596,7 +12608,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="37"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -12620,7 +12632,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="37"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -12644,7 +12656,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="37"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="18">
         <v>12</v>
       </c>
@@ -12696,7 +12708,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="38">
+      <c r="B135" s="43">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -12735,7 +12747,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="38"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -12759,7 +12771,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="38"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -12783,7 +12795,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="38"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -12807,7 +12819,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="38"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -12834,7 +12846,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="38"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -12858,7 +12870,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="38"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -12882,7 +12894,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="38"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -12906,7 +12918,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="38"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -12930,7 +12942,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="38"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -12954,7 +12966,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="38"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -12978,7 +12990,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="38"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -13030,7 +13042,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="38">
+      <c r="B147" s="43">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -13064,7 +13076,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="38"/>
+      <c r="B148" s="43"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -13088,7 +13100,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="38"/>
+      <c r="B149" s="43"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -13112,7 +13124,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="38"/>
+      <c r="B150" s="43"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -13136,7 +13148,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="38"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -13163,7 +13175,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="38"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -13187,7 +13199,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="38"/>
+      <c r="B153" s="43"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -13211,7 +13223,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="38"/>
+      <c r="B154" s="43"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -13235,7 +13247,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="38"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -13259,7 +13271,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="38"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -13283,7 +13295,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="38"/>
+      <c r="B157" s="43"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -13307,7 +13319,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="38"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -13359,7 +13371,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="38">
+      <c r="B159" s="43">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -13393,7 +13405,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="38"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -13417,7 +13429,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="38"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -13441,7 +13453,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="38"/>
+      <c r="B162" s="43"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -13465,7 +13477,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="38"/>
+      <c r="B163" s="43"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -13492,7 +13504,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="38"/>
+      <c r="B164" s="43"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -13516,7 +13528,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="38"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -13540,7 +13552,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="38"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -13564,7 +13576,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="38"/>
+      <c r="B167" s="43"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -13588,7 +13600,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="38"/>
+      <c r="B168" s="43"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -13612,7 +13624,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="38"/>
+      <c r="B169" s="43"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -13636,7 +13648,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="38"/>
+      <c r="B170" s="43"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -13688,7 +13700,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="38">
+      <c r="B171" s="43">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -13722,7 +13734,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="38"/>
+      <c r="B172" s="43"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -13746,7 +13758,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="38"/>
+      <c r="B173" s="43"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -13770,7 +13782,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="38"/>
+      <c r="B174" s="43"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -13794,7 +13806,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="38"/>
+      <c r="B175" s="43"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -13821,7 +13833,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="38"/>
+      <c r="B176" s="43"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -13845,7 +13857,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="38"/>
+      <c r="B177" s="43"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -13869,7 +13881,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="38"/>
+      <c r="B178" s="43"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -13893,7 +13905,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="38"/>
+      <c r="B179" s="43"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -13917,7 +13929,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="38"/>
+      <c r="B180" s="43"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -13941,7 +13953,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="38"/>
+      <c r="B181" s="43"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -13965,7 +13977,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="38"/>
+      <c r="B182" s="43"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -14017,7 +14029,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="38">
+      <c r="B183" s="43">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -14051,7 +14063,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="38"/>
+      <c r="B184" s="43"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -14075,7 +14087,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="38"/>
+      <c r="B185" s="43"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -14099,7 +14111,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="38"/>
+      <c r="B186" s="43"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -14123,7 +14135,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="38"/>
+      <c r="B187" s="43"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -14150,7 +14162,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="38"/>
+      <c r="B188" s="43"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -14174,7 +14186,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="38"/>
+      <c r="B189" s="43"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -14198,7 +14210,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="38"/>
+      <c r="B190" s="43"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -14222,7 +14234,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="38"/>
+      <c r="B191" s="43"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -14246,7 +14258,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="38"/>
+      <c r="B192" s="43"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -14270,7 +14282,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="38"/>
+      <c r="B193" s="43"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -14294,7 +14306,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="38"/>
+      <c r="B194" s="43"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -14346,7 +14358,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="36">
+      <c r="B195" s="42">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -14383,7 +14395,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="36"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -14407,7 +14419,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="36"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -14431,7 +14443,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="36"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -14455,7 +14467,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="36"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -14482,7 +14494,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="36"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -14506,7 +14518,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="36"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -14530,7 +14542,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="36"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -14554,7 +14566,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="36"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -14578,7 +14590,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="36"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -14602,7 +14614,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="36"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -14626,7 +14638,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="36"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -14678,7 +14690,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="36">
+      <c r="B207" s="42">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -14712,7 +14724,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="36"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -14736,7 +14748,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="36"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -14760,7 +14772,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="36"/>
+      <c r="B210" s="42"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -14784,7 +14796,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="36"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -14811,7 +14823,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="36"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -14835,7 +14847,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="36"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -14859,7 +14871,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="36"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -14883,7 +14895,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="36"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -14907,7 +14919,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="36"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -14931,7 +14943,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="36"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -14955,7 +14967,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="36"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -15007,7 +15019,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="36">
+      <c r="B219" s="42">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -15041,7 +15053,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="36"/>
+      <c r="B220" s="42"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -15065,7 +15077,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="36"/>
+      <c r="B221" s="42"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -15089,7 +15101,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="36"/>
+      <c r="B222" s="42"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -15113,7 +15125,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="36"/>
+      <c r="B223" s="42"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -15140,7 +15152,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="36"/>
+      <c r="B224" s="42"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -15164,7 +15176,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="36"/>
+      <c r="B225" s="42"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -15188,7 +15200,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="36"/>
+      <c r="B226" s="42"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -15212,7 +15224,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="36"/>
+      <c r="B227" s="42"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -15236,7 +15248,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="36"/>
+      <c r="B228" s="42"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -15260,7 +15272,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="36"/>
+      <c r="B229" s="42"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -15284,7 +15296,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="36"/>
+      <c r="B230" s="42"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -15336,7 +15348,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="36">
+      <c r="B231" s="42">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -15370,7 +15382,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="36"/>
+      <c r="B232" s="42"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -15394,7 +15406,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="36"/>
+      <c r="B233" s="42"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -15418,7 +15430,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="36"/>
+      <c r="B234" s="42"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -15442,7 +15454,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="36"/>
+      <c r="B235" s="42"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -15469,7 +15481,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="36"/>
+      <c r="B236" s="42"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -15493,7 +15505,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="36"/>
+      <c r="B237" s="42"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -15517,7 +15529,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="36"/>
+      <c r="B238" s="42"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -15541,7 +15553,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="36"/>
+      <c r="B239" s="42"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -15565,7 +15577,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="36"/>
+      <c r="B240" s="42"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -15589,7 +15601,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="36"/>
+      <c r="B241" s="42"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -15613,7 +15625,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="36"/>
+      <c r="B242" s="42"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -15665,7 +15677,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="36">
+      <c r="B243" s="42">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -15700,7 +15712,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="36"/>
+      <c r="B244" s="42"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -15730,7 +15742,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="36"/>
+      <c r="B245" s="42"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -15760,7 +15772,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="36"/>
+      <c r="B246" s="42"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -15790,7 +15802,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="36"/>
+      <c r="B247" s="42"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -15823,7 +15835,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="36"/>
+      <c r="B248" s="42"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -15853,7 +15865,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="36"/>
+      <c r="B249" s="42"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -15883,7 +15895,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="36"/>
+      <c r="B250" s="42"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -15913,7 +15925,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="36"/>
+      <c r="B251" s="42"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -15943,7 +15955,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="36"/>
+      <c r="B252" s="42"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -15973,7 +15985,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="36"/>
+      <c r="B253" s="42"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -16003,7 +16015,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="36"/>
+      <c r="B254" s="42"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -16050,11 +16062,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
     <mergeCell ref="B243:B254"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -16071,6 +16078,11 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCD1177-585A-44B0-B194-5DE7ACE12762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C606307D-EBF0-43D0-B497-CBB3499791FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -330,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,22 +443,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,21 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -480,6 +466,21 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,25 +784,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="36" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="40" t="s">
         <v>26</v>
       </c>
       <c r="N1" s="25" t="s">
@@ -809,27 +810,27 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47">
-        <v>0</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47">
-        <v>0</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="49"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="43">
         <v>2022</v>
       </c>
       <c r="C3" s="18">
@@ -856,7 +857,7 @@
       <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="18">
         <v>2</v>
       </c>
@@ -881,7 +882,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="18">
         <v>3</v>
       </c>
@@ -906,7 +907,7 @@
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="18">
         <v>4</v>
       </c>
@@ -931,7 +932,7 @@
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="18">
         <v>5</v>
       </c>
@@ -953,11 +954,11 @@
       <c r="I7" s="20">
         <v>1000000</v>
       </c>
-      <c r="K7" s="41"/>
+      <c r="K7" s="38"/>
       <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="18">
         <v>6</v>
       </c>
@@ -982,7 +983,7 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="18">
         <v>7</v>
       </c>
@@ -1007,7 +1008,7 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="18">
         <v>8</v>
       </c>
@@ -1032,7 +1033,7 @@
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -1057,7 +1058,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -1082,7 +1083,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -1107,7 +1108,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -1158,7 +1159,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -1194,7 +1195,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -1220,7 +1221,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -1246,7 +1247,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -1272,7 +1273,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1299,7 +1300,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -1325,7 +1326,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -1351,7 +1352,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -1377,7 +1378,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -1403,7 +1404,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -1429,7 +1430,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -1455,7 +1456,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="18">
         <v>12</v>
       </c>
@@ -1507,7 +1508,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="43">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -1542,37 +1543,37 @@
       </c>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="37">
+      <c r="B28" s="43"/>
+      <c r="C28" s="34">
         <v>2</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="35">
         <f>K27</f>
         <v>3338144.0620829351</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="35">
         <f t="shared" ref="E28:E38" si="4" xml:space="preserve"> G27 + D28 - I28</f>
         <v>16975142.579688497</v>
       </c>
-      <c r="F28" s="37">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G28" s="38">
+      <c r="F28" s="34">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G28" s="35">
         <f xml:space="preserve"> (E28 * F28) + E28</f>
         <v>17280695.146122891</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39">
-        <v>0</v>
-      </c>
-      <c r="P28" s="38"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36">
+        <v>0</v>
+      </c>
+      <c r="P28" s="35"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="44"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -1624,7 +1625,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -1651,7 +1652,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -1677,7 +1678,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="44"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -1703,7 +1704,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="44"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -1729,7 +1730,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="44"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -1755,7 +1756,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="44"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -1781,7 +1782,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -1807,7 +1808,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="18">
         <v>12</v>
       </c>
@@ -1859,7 +1860,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="43">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -1895,7 +1896,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -1921,7 +1922,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="44"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -1947,7 +1948,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -1973,7 +1974,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="44"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -2000,7 +2001,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -2026,7 +2027,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="44"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -2052,7 +2053,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="44"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -2078,7 +2079,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="44"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -2104,7 +2105,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="44"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -2130,7 +2131,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="44"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -2156,7 +2157,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="44"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
@@ -2208,7 +2209,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="43">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -2244,7 +2245,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="44"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -2270,7 +2271,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="44"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -2296,7 +2297,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="44"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -2322,7 +2323,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="44"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -2349,7 +2350,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="44"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -2375,7 +2376,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="44"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -2401,7 +2402,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="44"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -2427,7 +2428,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="44"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -2453,7 +2454,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="44"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -2479,7 +2480,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="44"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -2505,7 +2506,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="44"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="18">
         <v>12</v>
       </c>
@@ -2557,7 +2558,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="44">
+      <c r="B63" s="43">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -2593,7 +2594,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="44"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -2619,7 +2620,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="44"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -2645,7 +2646,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="44"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -2671,7 +2672,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="44"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -2698,7 +2699,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="44"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -2725,7 +2726,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="44"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -2751,7 +2752,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="44"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -2777,7 +2778,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="44"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -2803,7 +2804,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="44"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -2829,7 +2830,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="44"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -2855,7 +2856,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="44"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="18">
         <v>12</v>
       </c>
@@ -2907,7 +2908,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="44">
+      <c r="B75" s="43">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -2943,7 +2944,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="44"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -2969,7 +2970,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="44"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -2995,7 +2996,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="44"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="44"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -3048,7 +3049,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="44"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -3074,7 +3075,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="44"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -3100,7 +3101,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="44"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -3126,7 +3127,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="44"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -3152,7 +3153,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="44"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -3178,7 +3179,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="44"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -3204,7 +3205,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="44"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="18">
         <v>12</v>
       </c>
@@ -3256,7 +3257,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="44">
+      <c r="B87" s="43">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -3292,7 +3293,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="44"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -3318,7 +3319,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="44"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -3344,7 +3345,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="44"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -3370,7 +3371,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="44"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -3397,7 +3398,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="44"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -3423,7 +3424,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="44"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -3449,7 +3450,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="44"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -3475,7 +3476,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="44"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -3501,7 +3502,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="44"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -3527,7 +3528,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="44"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -3553,7 +3554,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="44"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="18">
         <v>12</v>
       </c>
@@ -3605,7 +3606,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="44">
+      <c r="B99" s="43">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -3641,7 +3642,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="44"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -3667,7 +3668,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="44"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -3693,7 +3694,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="44"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -3719,7 +3720,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="44"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -3746,7 +3747,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="44"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -3772,7 +3773,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="44"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -3798,7 +3799,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="44"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -3824,7 +3825,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="44"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -3850,7 +3851,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="44"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -3876,7 +3877,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="44"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -3902,7 +3903,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="44"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="18">
         <v>12</v>
       </c>
@@ -3954,7 +3955,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="44">
+      <c r="B111" s="43">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -3990,7 +3991,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="44"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -4016,7 +4017,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="44"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -4042,7 +4043,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="44"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -4068,7 +4069,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="44"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -4095,7 +4096,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="44"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -4121,7 +4122,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="44"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -4147,7 +4148,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="44"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -4173,7 +4174,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="44"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -4199,7 +4200,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="44"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -4225,7 +4226,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="44"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -4251,7 +4252,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="44"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="18">
         <v>12</v>
       </c>
@@ -4303,7 +4304,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="44">
+      <c r="B123" s="43">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -4337,7 +4338,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="44"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -4361,7 +4362,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="44"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -4385,7 +4386,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="44"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -4409,7 +4410,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="44"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -4436,7 +4437,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="44"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -4460,7 +4461,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="44"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -4484,7 +4485,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="44"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -4508,7 +4509,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="44"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -4532,7 +4533,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="44"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -4556,7 +4557,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="44"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -4580,7 +4581,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="44"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="18">
         <v>12</v>
       </c>
@@ -4632,7 +4633,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="43">
+      <c r="B135" s="42">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -4671,7 +4672,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="43"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -4695,7 +4696,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="43"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -4719,7 +4720,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="43"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -4743,7 +4744,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="43"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -4770,7 +4771,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="43"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -4794,7 +4795,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="43"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -4818,7 +4819,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="43"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -4842,7 +4843,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="43"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -4866,7 +4867,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="43"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -4890,7 +4891,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="43"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -4914,7 +4915,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="43"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -4966,7 +4967,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="43">
+      <c r="B147" s="42">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -5000,7 +5001,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="43"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -5024,7 +5025,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="43"/>
+      <c r="B149" s="42"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -5048,7 +5049,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="43"/>
+      <c r="B150" s="42"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -5072,7 +5073,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="43"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -5099,7 +5100,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="43"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -5123,7 +5124,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="43"/>
+      <c r="B153" s="42"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -5147,7 +5148,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="43"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -5171,7 +5172,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="43"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -5195,7 +5196,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="43"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -5219,7 +5220,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="43"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -5243,7 +5244,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="43"/>
+      <c r="B158" s="42"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -5295,7 +5296,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="43">
+      <c r="B159" s="42">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -5329,7 +5330,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="43"/>
+      <c r="B160" s="42"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -5353,7 +5354,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="43"/>
+      <c r="B161" s="42"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -5377,7 +5378,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="43"/>
+      <c r="B162" s="42"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -5401,7 +5402,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="43"/>
+      <c r="B163" s="42"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -5428,7 +5429,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="43"/>
+      <c r="B164" s="42"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -5452,7 +5453,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="43"/>
+      <c r="B165" s="42"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -5476,7 +5477,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="43"/>
+      <c r="B166" s="42"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -5500,7 +5501,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="43"/>
+      <c r="B167" s="42"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -5524,7 +5525,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="43"/>
+      <c r="B168" s="42"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -5548,7 +5549,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="43"/>
+      <c r="B169" s="42"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -5572,7 +5573,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="43"/>
+      <c r="B170" s="42"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -5624,7 +5625,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="43">
+      <c r="B171" s="42">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -5658,7 +5659,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="43"/>
+      <c r="B172" s="42"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -5682,7 +5683,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="43"/>
+      <c r="B173" s="42"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -5706,7 +5707,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="43"/>
+      <c r="B174" s="42"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -5730,7 +5731,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="43"/>
+      <c r="B175" s="42"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -5757,7 +5758,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="43"/>
+      <c r="B176" s="42"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -5781,7 +5782,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="43"/>
+      <c r="B177" s="42"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -5805,7 +5806,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="43"/>
+      <c r="B178" s="42"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -5829,7 +5830,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="43"/>
+      <c r="B179" s="42"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -5853,7 +5854,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="43"/>
+      <c r="B180" s="42"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -5877,7 +5878,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="43"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -5901,7 +5902,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="43"/>
+      <c r="B182" s="42"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -5953,7 +5954,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="43">
+      <c r="B183" s="42">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -5987,7 +5988,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="43"/>
+      <c r="B184" s="42"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -6011,7 +6012,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="43"/>
+      <c r="B185" s="42"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -6035,7 +6036,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="43"/>
+      <c r="B186" s="42"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -6059,7 +6060,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="43"/>
+      <c r="B187" s="42"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -6086,7 +6087,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="43"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -6110,7 +6111,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="43"/>
+      <c r="B189" s="42"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -6134,7 +6135,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="43"/>
+      <c r="B190" s="42"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -6158,7 +6159,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="43"/>
+      <c r="B191" s="42"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -6182,7 +6183,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="43"/>
+      <c r="B192" s="42"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -6206,7 +6207,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="43"/>
+      <c r="B193" s="42"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -6230,7 +6231,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="43"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -6282,7 +6283,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="42">
+      <c r="B195" s="44">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -6319,7 +6320,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="42"/>
+      <c r="B196" s="44"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -6343,7 +6344,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="42"/>
+      <c r="B197" s="44"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -6367,7 +6368,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="42"/>
+      <c r="B198" s="44"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -6391,7 +6392,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="42"/>
+      <c r="B199" s="44"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -6418,7 +6419,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="42"/>
+      <c r="B200" s="44"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -6442,7 +6443,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="42"/>
+      <c r="B201" s="44"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -6466,7 +6467,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="42"/>
+      <c r="B202" s="44"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -6490,7 +6491,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="42"/>
+      <c r="B203" s="44"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -6514,7 +6515,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="42"/>
+      <c r="B204" s="44"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -6538,7 +6539,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="42"/>
+      <c r="B205" s="44"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -6562,7 +6563,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="42"/>
+      <c r="B206" s="44"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -6614,7 +6615,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="42">
+      <c r="B207" s="44">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -6648,7 +6649,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="42"/>
+      <c r="B208" s="44"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -6672,7 +6673,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="42"/>
+      <c r="B209" s="44"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -6696,7 +6697,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="42"/>
+      <c r="B210" s="44"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -6720,7 +6721,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="42"/>
+      <c r="B211" s="44"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -6747,7 +6748,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="42"/>
+      <c r="B212" s="44"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -6771,7 +6772,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="42"/>
+      <c r="B213" s="44"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -6795,7 +6796,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="42"/>
+      <c r="B214" s="44"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -6819,7 +6820,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="42"/>
+      <c r="B215" s="44"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -6843,7 +6844,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="42"/>
+      <c r="B216" s="44"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -6867,7 +6868,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="42"/>
+      <c r="B217" s="44"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -6891,7 +6892,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="42"/>
+      <c r="B218" s="44"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -6943,7 +6944,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="42">
+      <c r="B219" s="44">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -6977,7 +6978,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="42"/>
+      <c r="B220" s="44"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -7001,7 +7002,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="42"/>
+      <c r="B221" s="44"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -7025,7 +7026,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="42"/>
+      <c r="B222" s="44"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -7049,7 +7050,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="42"/>
+      <c r="B223" s="44"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -7076,7 +7077,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="42"/>
+      <c r="B224" s="44"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -7100,7 +7101,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="42"/>
+      <c r="B225" s="44"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -7124,7 +7125,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="42"/>
+      <c r="B226" s="44"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -7148,7 +7149,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="42"/>
+      <c r="B227" s="44"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -7172,7 +7173,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="42"/>
+      <c r="B228" s="44"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -7196,7 +7197,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="42"/>
+      <c r="B229" s="44"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -7220,7 +7221,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="42"/>
+      <c r="B230" s="44"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -7272,7 +7273,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="42">
+      <c r="B231" s="44">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -7306,7 +7307,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="42"/>
+      <c r="B232" s="44"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -7330,7 +7331,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="42"/>
+      <c r="B233" s="44"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -7354,7 +7355,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="42"/>
+      <c r="B234" s="44"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -7378,7 +7379,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="42"/>
+      <c r="B235" s="44"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -7405,7 +7406,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="42"/>
+      <c r="B236" s="44"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -7429,7 +7430,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="42"/>
+      <c r="B237" s="44"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -7453,7 +7454,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="42"/>
+      <c r="B238" s="44"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -7477,7 +7478,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="42"/>
+      <c r="B239" s="44"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -7501,7 +7502,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="42"/>
+      <c r="B240" s="44"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -7525,7 +7526,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="42"/>
+      <c r="B241" s="44"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -7549,7 +7550,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="42"/>
+      <c r="B242" s="44"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -7601,7 +7602,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="42">
+      <c r="B243" s="44">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -7636,7 +7637,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="42"/>
+      <c r="B244" s="44"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -7666,7 +7667,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="42"/>
+      <c r="B245" s="44"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -7696,7 +7697,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="42"/>
+      <c r="B246" s="44"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -7726,7 +7727,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="42"/>
+      <c r="B247" s="44"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -7759,7 +7760,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="42"/>
+      <c r="B248" s="44"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -7789,7 +7790,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="42"/>
+      <c r="B249" s="44"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -7819,7 +7820,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="42"/>
+      <c r="B250" s="44"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -7849,7 +7850,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="42"/>
+      <c r="B251" s="44"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -7879,7 +7880,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="42"/>
+      <c r="B252" s="44"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -7909,7 +7910,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="42"/>
+      <c r="B253" s="44"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -7939,7 +7940,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="42"/>
+      <c r="B254" s="44"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -7986,6 +7987,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
+    <mergeCell ref="B243:B254"/>
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="B159:B170"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
     <mergeCell ref="B135:B146"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -7998,15 +8008,6 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
-    <mergeCell ref="B243:B254"/>
-    <mergeCell ref="B147:B158"/>
-    <mergeCell ref="B159:B170"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8018,7 +8019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -8590,8 +8591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F61AFE-825F-4669-B78F-E10BDCEEF433}">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8624,10 +8625,10 @@
       <c r="C3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8642,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="32">
-        <v>0</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -8779,12 +8780,12 @@
         <f>SUM(C4:C13)</f>
         <v>65414</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="30">
         <f>SUM(F4:F13)</f>
-        <v>0</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -8794,7 +8795,7 @@
       <c r="C15" s="30">
         <v>1061029</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="29" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="30">
@@ -8802,35 +8803,35 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="28">
         <f xml:space="preserve">  ROUND( (C14 / C15) * 100, 2 )</f>
         <v>6.17</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="29" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="28">
         <f xml:space="preserve">  ROUND( (F14 / F15) * 100, 2 )</f>
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="9">
         <f xml:space="preserve"> C15 + C14</f>
         <v>1126443</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="29" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="9">
         <f xml:space="preserve"> F15 + F14</f>
-        <v>1126443</v>
+        <v>1129463</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -8908,7 +8909,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="43">
         <v>2022</v>
       </c>
       <c r="C3" s="8">
@@ -8935,7 +8936,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -8960,7 +8961,7 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -8985,7 +8986,7 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -9010,7 +9011,7 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="21">
         <v>5</v>
       </c>
@@ -9036,7 +9037,7 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -9061,7 +9062,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="21">
         <v>7</v>
       </c>
@@ -9086,7 +9087,7 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="21">
         <v>8</v>
       </c>
@@ -9111,7 +9112,7 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -9136,7 +9137,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -9161,7 +9162,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -9186,7 +9187,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -9237,7 +9238,7 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>2023</v>
       </c>
       <c r="C15" s="8">
@@ -9273,7 +9274,7 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
@@ -9299,7 +9300,7 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="8">
         <v>3</v>
       </c>
@@ -9325,7 +9326,7 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="8">
         <v>4</v>
       </c>
@@ -9351,7 +9352,7 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -9378,7 +9379,7 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="8">
         <v>6</v>
       </c>
@@ -9404,7 +9405,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="8">
         <v>7</v>
       </c>
@@ -9430,7 +9431,7 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="8">
         <v>8</v>
       </c>
@@ -9456,7 +9457,7 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="8">
         <v>9</v>
       </c>
@@ -9482,7 +9483,7 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="8">
         <v>10</v>
       </c>
@@ -9508,7 +9509,7 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="8">
         <v>11</v>
       </c>
@@ -9534,7 +9535,7 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="18">
         <v>12</v>
       </c>
@@ -9586,7 +9587,7 @@
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="43">
         <v>2024</v>
       </c>
       <c r="C27" s="8">
@@ -9622,7 +9623,7 @@
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -9648,7 +9649,7 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -9674,7 +9675,7 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="44"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="8">
         <v>4</v>
       </c>
@@ -9700,7 +9701,7 @@
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="8">
         <v>5</v>
       </c>
@@ -9727,7 +9728,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="8">
         <v>6</v>
       </c>
@@ -9753,7 +9754,7 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="44"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="8">
         <v>7</v>
       </c>
@@ -9779,7 +9780,7 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="44"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="8">
         <v>8</v>
       </c>
@@ -9805,7 +9806,7 @@
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="44"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="8">
         <v>9</v>
       </c>
@@ -9831,7 +9832,7 @@
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="44"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="8">
         <v>10</v>
       </c>
@@ -9857,7 +9858,7 @@
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="8">
         <v>11</v>
       </c>
@@ -9883,7 +9884,7 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="18">
         <v>12</v>
       </c>
@@ -9935,7 +9936,7 @@
       <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="43">
         <v>2025</v>
       </c>
       <c r="C39" s="8">
@@ -9971,7 +9972,7 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="8">
         <v>2</v>
       </c>
@@ -9997,7 +9998,7 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="44"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="8">
         <v>3</v>
       </c>
@@ -10023,7 +10024,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="8">
         <v>4</v>
       </c>
@@ -10049,7 +10050,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="44"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="8">
         <v>5</v>
       </c>
@@ -10076,7 +10077,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="8">
         <v>6</v>
       </c>
@@ -10102,7 +10103,7 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="44"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="8">
         <v>7</v>
       </c>
@@ -10128,7 +10129,7 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="44"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="8">
         <v>8</v>
       </c>
@@ -10154,7 +10155,7 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="44"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="8">
         <v>9</v>
       </c>
@@ -10180,7 +10181,7 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="44"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="8">
         <v>10</v>
       </c>
@@ -10206,7 +10207,7 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="44"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="8">
         <v>11</v>
       </c>
@@ -10232,7 +10233,7 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="44"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
@@ -10284,7 +10285,7 @@
       <c r="A51" s="8">
         <v>5</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="43">
         <v>2026</v>
       </c>
       <c r="C51" s="8">
@@ -10320,7 +10321,7 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="44"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="8">
         <v>2</v>
       </c>
@@ -10346,7 +10347,7 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="44"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="8">
         <v>3</v>
       </c>
@@ -10372,7 +10373,7 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="44"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="8">
         <v>4</v>
       </c>
@@ -10398,7 +10399,7 @@
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="44"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="8">
         <v>5</v>
       </c>
@@ -10425,7 +10426,7 @@
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="44"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="8">
         <v>6</v>
       </c>
@@ -10451,7 +10452,7 @@
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="44"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="8">
         <v>7</v>
       </c>
@@ -10477,7 +10478,7 @@
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="44"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="8">
         <v>8</v>
       </c>
@@ -10503,7 +10504,7 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="44"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="8">
         <v>9</v>
       </c>
@@ -10529,7 +10530,7 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="44"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="8">
         <v>10</v>
       </c>
@@ -10555,7 +10556,7 @@
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="44"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="8">
         <v>11</v>
       </c>
@@ -10581,7 +10582,7 @@
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="44"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="18">
         <v>12</v>
       </c>
@@ -10633,7 +10634,7 @@
       <c r="A63" s="8">
         <v>6</v>
       </c>
-      <c r="B63" s="44">
+      <c r="B63" s="43">
         <v>2027</v>
       </c>
       <c r="C63" s="8">
@@ -10669,7 +10670,7 @@
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="44"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="8">
         <v>2</v>
       </c>
@@ -10695,7 +10696,7 @@
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="44"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="8">
         <v>3</v>
       </c>
@@ -10721,7 +10722,7 @@
       <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="44"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="8">
         <v>4</v>
       </c>
@@ -10747,7 +10748,7 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="44"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="8">
         <v>5</v>
       </c>
@@ -10774,7 +10775,7 @@
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="44"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="8">
         <v>6</v>
       </c>
@@ -10801,7 +10802,7 @@
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="44"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="8">
         <v>7</v>
       </c>
@@ -10827,7 +10828,7 @@
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="44"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="8">
         <v>8</v>
       </c>
@@ -10853,7 +10854,7 @@
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="44"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="8">
         <v>9</v>
       </c>
@@ -10879,7 +10880,7 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="44"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="8">
         <v>10</v>
       </c>
@@ -10905,7 +10906,7 @@
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="44"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="8">
         <v>11</v>
       </c>
@@ -10931,7 +10932,7 @@
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="44"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="18">
         <v>12</v>
       </c>
@@ -10983,7 +10984,7 @@
       <c r="A75" s="8">
         <v>7</v>
       </c>
-      <c r="B75" s="44">
+      <c r="B75" s="43">
         <v>2028</v>
       </c>
       <c r="C75" s="8">
@@ -11019,7 +11020,7 @@
       <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="44"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="8">
         <v>2</v>
       </c>
@@ -11045,7 +11046,7 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="44"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="8">
         <v>3</v>
       </c>
@@ -11071,7 +11072,7 @@
       <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="44"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="8">
         <v>4</v>
       </c>
@@ -11097,7 +11098,7 @@
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="44"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="8">
         <v>5</v>
       </c>
@@ -11124,7 +11125,7 @@
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="44"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="8">
         <v>6</v>
       </c>
@@ -11150,7 +11151,7 @@
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="44"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="8">
         <v>7</v>
       </c>
@@ -11176,7 +11177,7 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="44"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="8">
         <v>8</v>
       </c>
@@ -11202,7 +11203,7 @@
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="44"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="8">
         <v>9</v>
       </c>
@@ -11228,7 +11229,7 @@
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="44"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="8">
         <v>10</v>
       </c>
@@ -11254,7 +11255,7 @@
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="44"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="8">
         <v>11</v>
       </c>
@@ -11280,7 +11281,7 @@
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="44"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="18">
         <v>12</v>
       </c>
@@ -11332,7 +11333,7 @@
       <c r="A87" s="8">
         <v>8</v>
       </c>
-      <c r="B87" s="44">
+      <c r="B87" s="43">
         <v>2029</v>
       </c>
       <c r="C87" s="8">
@@ -11368,7 +11369,7 @@
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="44"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="8">
         <v>2</v>
       </c>
@@ -11394,7 +11395,7 @@
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="44"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="8">
         <v>3</v>
       </c>
@@ -11420,7 +11421,7 @@
       <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="44"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="8">
         <v>4</v>
       </c>
@@ -11446,7 +11447,7 @@
       <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="44"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="8">
         <v>5</v>
       </c>
@@ -11473,7 +11474,7 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="44"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="8">
         <v>6</v>
       </c>
@@ -11499,7 +11500,7 @@
       <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="44"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="8">
         <v>7</v>
       </c>
@@ -11525,7 +11526,7 @@
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="44"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="8">
         <v>8</v>
       </c>
@@ -11551,7 +11552,7 @@
       <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="44"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="8">
         <v>9</v>
       </c>
@@ -11577,7 +11578,7 @@
       <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="44"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="8">
         <v>10</v>
       </c>
@@ -11603,7 +11604,7 @@
       <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="44"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="8">
         <v>11</v>
       </c>
@@ -11629,7 +11630,7 @@
       <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="44"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="18">
         <v>12</v>
       </c>
@@ -11681,7 +11682,7 @@
       <c r="A99" s="8">
         <v>9</v>
       </c>
-      <c r="B99" s="44">
+      <c r="B99" s="43">
         <v>2030</v>
       </c>
       <c r="C99" s="8">
@@ -11717,7 +11718,7 @@
       <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="44"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="8">
         <v>2</v>
       </c>
@@ -11743,7 +11744,7 @@
       <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="44"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="8">
         <v>3</v>
       </c>
@@ -11769,7 +11770,7 @@
       <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="44"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="8">
         <v>4</v>
       </c>
@@ -11795,7 +11796,7 @@
       <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="44"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="8">
         <v>5</v>
       </c>
@@ -11822,7 +11823,7 @@
       <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="44"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="8">
         <v>6</v>
       </c>
@@ -11848,7 +11849,7 @@
       <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="44"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="8">
         <v>7</v>
       </c>
@@ -11874,7 +11875,7 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="44"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="8">
         <v>8</v>
       </c>
@@ -11900,7 +11901,7 @@
       <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="44"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="8">
         <v>9</v>
       </c>
@@ -11926,7 +11927,7 @@
       <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="44"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="8">
         <v>10</v>
       </c>
@@ -11952,7 +11953,7 @@
       <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="44"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="8">
         <v>11</v>
       </c>
@@ -11978,7 +11979,7 @@
       <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="44"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="18">
         <v>12</v>
       </c>
@@ -12030,7 +12031,7 @@
       <c r="A111" s="8">
         <v>10</v>
       </c>
-      <c r="B111" s="44">
+      <c r="B111" s="43">
         <v>2031</v>
       </c>
       <c r="C111" s="8">
@@ -12066,7 +12067,7 @@
       <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="44"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="8">
         <v>2</v>
       </c>
@@ -12092,7 +12093,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="44"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="8">
         <v>3</v>
       </c>
@@ -12118,7 +12119,7 @@
       <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="44"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="8">
         <v>4</v>
       </c>
@@ -12144,7 +12145,7 @@
       <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="44"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="8">
         <v>5</v>
       </c>
@@ -12171,7 +12172,7 @@
       <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="44"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="8">
         <v>6</v>
       </c>
@@ -12197,7 +12198,7 @@
       <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="44"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="8">
         <v>7</v>
       </c>
@@ -12223,7 +12224,7 @@
       <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="44"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="8">
         <v>8</v>
       </c>
@@ -12249,7 +12250,7 @@
       <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="44"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="8">
         <v>9</v>
       </c>
@@ -12275,7 +12276,7 @@
       <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="44"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="8">
         <v>10</v>
       </c>
@@ -12301,7 +12302,7 @@
       <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="44"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="8">
         <v>11</v>
       </c>
@@ -12327,7 +12328,7 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="44"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="18">
         <v>12</v>
       </c>
@@ -12379,7 +12380,7 @@
       <c r="A123" s="8">
         <v>11</v>
       </c>
-      <c r="B123" s="44">
+      <c r="B123" s="43">
         <v>2032</v>
       </c>
       <c r="C123" s="8">
@@ -12413,7 +12414,7 @@
       <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="44"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="8">
         <v>2</v>
       </c>
@@ -12437,7 +12438,7 @@
       <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="44"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="8">
         <v>3</v>
       </c>
@@ -12461,7 +12462,7 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="44"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="8">
         <v>4</v>
       </c>
@@ -12485,7 +12486,7 @@
       <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="44"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="8">
         <v>5</v>
       </c>
@@ -12512,7 +12513,7 @@
       <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="44"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="8">
         <v>6</v>
       </c>
@@ -12536,7 +12537,7 @@
       <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="44"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="8">
         <v>7</v>
       </c>
@@ -12560,7 +12561,7 @@
       <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="44"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="8">
         <v>8</v>
       </c>
@@ -12584,7 +12585,7 @@
       <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="44"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="8">
         <v>9</v>
       </c>
@@ -12608,7 +12609,7 @@
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="44"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="8">
         <v>10</v>
       </c>
@@ -12632,7 +12633,7 @@
       <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="44"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="8">
         <v>11</v>
       </c>
@@ -12656,7 +12657,7 @@
       <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="44"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="18">
         <v>12</v>
       </c>
@@ -12708,7 +12709,7 @@
       <c r="A135" s="12">
         <v>12</v>
       </c>
-      <c r="B135" s="43">
+      <c r="B135" s="42">
         <v>2033</v>
       </c>
       <c r="C135" s="12">
@@ -12747,7 +12748,7 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="43"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="12">
         <v>2</v>
       </c>
@@ -12771,7 +12772,7 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="43"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="12">
         <v>3</v>
       </c>
@@ -12795,7 +12796,7 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="43"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="12">
         <v>4</v>
       </c>
@@ -12819,7 +12820,7 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="43"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="12">
         <v>5</v>
       </c>
@@ -12846,7 +12847,7 @@
       <c r="P139" s="13"/>
     </row>
     <row r="140" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="43"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="12">
         <v>6</v>
       </c>
@@ -12870,7 +12871,7 @@
       <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="43"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="12">
         <v>7</v>
       </c>
@@ -12894,7 +12895,7 @@
       <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="43"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="12">
         <v>8</v>
       </c>
@@ -12918,7 +12919,7 @@
       <c r="P142" s="13"/>
     </row>
     <row r="143" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="43"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="12">
         <v>9</v>
       </c>
@@ -12942,7 +12943,7 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="43"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="12">
         <v>10</v>
       </c>
@@ -12966,7 +12967,7 @@
       <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="43"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="12">
         <v>11</v>
       </c>
@@ -12990,7 +12991,7 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="43"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="18">
         <v>12</v>
       </c>
@@ -13042,7 +13043,7 @@
       <c r="A147" s="12">
         <v>13</v>
       </c>
-      <c r="B147" s="43">
+      <c r="B147" s="42">
         <v>2034</v>
       </c>
       <c r="C147" s="12">
@@ -13076,7 +13077,7 @@
       <c r="P147" s="13"/>
     </row>
     <row r="148" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="43"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="12">
         <v>2</v>
       </c>
@@ -13100,7 +13101,7 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="43"/>
+      <c r="B149" s="42"/>
       <c r="C149" s="12">
         <v>3</v>
       </c>
@@ -13124,7 +13125,7 @@
       <c r="P149" s="13"/>
     </row>
     <row r="150" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="43"/>
+      <c r="B150" s="42"/>
       <c r="C150" s="12">
         <v>4</v>
       </c>
@@ -13148,7 +13149,7 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="43"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="12">
         <v>5</v>
       </c>
@@ -13175,7 +13176,7 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="43"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="12">
         <v>6</v>
       </c>
@@ -13199,7 +13200,7 @@
       <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="43"/>
+      <c r="B153" s="42"/>
       <c r="C153" s="12">
         <v>7</v>
       </c>
@@ -13223,7 +13224,7 @@
       <c r="P153" s="13"/>
     </row>
     <row r="154" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="43"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="12">
         <v>8</v>
       </c>
@@ -13247,7 +13248,7 @@
       <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="43"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="12">
         <v>9</v>
       </c>
@@ -13271,7 +13272,7 @@
       <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="43"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="12">
         <v>10</v>
       </c>
@@ -13295,7 +13296,7 @@
       <c r="P156" s="13"/>
     </row>
     <row r="157" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="43"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="12">
         <v>11</v>
       </c>
@@ -13319,7 +13320,7 @@
       <c r="P157" s="13"/>
     </row>
     <row r="158" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="43"/>
+      <c r="B158" s="42"/>
       <c r="C158" s="18">
         <v>12</v>
       </c>
@@ -13371,7 +13372,7 @@
       <c r="A159" s="12">
         <v>14</v>
       </c>
-      <c r="B159" s="43">
+      <c r="B159" s="42">
         <v>2035</v>
       </c>
       <c r="C159" s="12">
@@ -13405,7 +13406,7 @@
       <c r="P159" s="13"/>
     </row>
     <row r="160" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="43"/>
+      <c r="B160" s="42"/>
       <c r="C160" s="12">
         <v>2</v>
       </c>
@@ -13429,7 +13430,7 @@
       <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="43"/>
+      <c r="B161" s="42"/>
       <c r="C161" s="12">
         <v>3</v>
       </c>
@@ -13453,7 +13454,7 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="43"/>
+      <c r="B162" s="42"/>
       <c r="C162" s="12">
         <v>4</v>
       </c>
@@ -13477,7 +13478,7 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="43"/>
+      <c r="B163" s="42"/>
       <c r="C163" s="12">
         <v>5</v>
       </c>
@@ -13504,7 +13505,7 @@
       <c r="P163" s="13"/>
     </row>
     <row r="164" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="43"/>
+      <c r="B164" s="42"/>
       <c r="C164" s="12">
         <v>6</v>
       </c>
@@ -13528,7 +13529,7 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="43"/>
+      <c r="B165" s="42"/>
       <c r="C165" s="12">
         <v>7</v>
       </c>
@@ -13552,7 +13553,7 @@
       <c r="P165" s="13"/>
     </row>
     <row r="166" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="43"/>
+      <c r="B166" s="42"/>
       <c r="C166" s="12">
         <v>8</v>
       </c>
@@ -13576,7 +13577,7 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="43"/>
+      <c r="B167" s="42"/>
       <c r="C167" s="12">
         <v>9</v>
       </c>
@@ -13600,7 +13601,7 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="43"/>
+      <c r="B168" s="42"/>
       <c r="C168" s="12">
         <v>10</v>
       </c>
@@ -13624,7 +13625,7 @@
       <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="43"/>
+      <c r="B169" s="42"/>
       <c r="C169" s="12">
         <v>11</v>
       </c>
@@ -13648,7 +13649,7 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="43"/>
+      <c r="B170" s="42"/>
       <c r="C170" s="18">
         <v>12</v>
       </c>
@@ -13700,7 +13701,7 @@
       <c r="A171" s="12">
         <v>15</v>
       </c>
-      <c r="B171" s="43">
+      <c r="B171" s="42">
         <v>2036</v>
       </c>
       <c r="C171" s="12">
@@ -13734,7 +13735,7 @@
       <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="43"/>
+      <c r="B172" s="42"/>
       <c r="C172" s="12">
         <v>2</v>
       </c>
@@ -13758,7 +13759,7 @@
       <c r="P172" s="13"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="43"/>
+      <c r="B173" s="42"/>
       <c r="C173" s="12">
         <v>3</v>
       </c>
@@ -13782,7 +13783,7 @@
       <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="43"/>
+      <c r="B174" s="42"/>
       <c r="C174" s="12">
         <v>4</v>
       </c>
@@ -13806,7 +13807,7 @@
       <c r="P174" s="13"/>
     </row>
     <row r="175" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="43"/>
+      <c r="B175" s="42"/>
       <c r="C175" s="12">
         <v>5</v>
       </c>
@@ -13833,7 +13834,7 @@
       <c r="P175" s="13"/>
     </row>
     <row r="176" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="43"/>
+      <c r="B176" s="42"/>
       <c r="C176" s="12">
         <v>6</v>
       </c>
@@ -13857,7 +13858,7 @@
       <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="43"/>
+      <c r="B177" s="42"/>
       <c r="C177" s="12">
         <v>7</v>
       </c>
@@ -13881,7 +13882,7 @@
       <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="43"/>
+      <c r="B178" s="42"/>
       <c r="C178" s="12">
         <v>8</v>
       </c>
@@ -13905,7 +13906,7 @@
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="43"/>
+      <c r="B179" s="42"/>
       <c r="C179" s="12">
         <v>9</v>
       </c>
@@ -13929,7 +13930,7 @@
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="43"/>
+      <c r="B180" s="42"/>
       <c r="C180" s="12">
         <v>10</v>
       </c>
@@ -13953,7 +13954,7 @@
       <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="43"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="12">
         <v>11</v>
       </c>
@@ -13977,7 +13978,7 @@
       <c r="P181" s="13"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="43"/>
+      <c r="B182" s="42"/>
       <c r="C182" s="18">
         <v>12</v>
       </c>
@@ -14029,7 +14030,7 @@
       <c r="A183" s="12">
         <v>16</v>
       </c>
-      <c r="B183" s="43">
+      <c r="B183" s="42">
         <v>2037</v>
       </c>
       <c r="C183" s="12">
@@ -14063,7 +14064,7 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="43"/>
+      <c r="B184" s="42"/>
       <c r="C184" s="12">
         <v>2</v>
       </c>
@@ -14087,7 +14088,7 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="43"/>
+      <c r="B185" s="42"/>
       <c r="C185" s="12">
         <v>3</v>
       </c>
@@ -14111,7 +14112,7 @@
       <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="43"/>
+      <c r="B186" s="42"/>
       <c r="C186" s="12">
         <v>4</v>
       </c>
@@ -14135,7 +14136,7 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="43"/>
+      <c r="B187" s="42"/>
       <c r="C187" s="12">
         <v>5</v>
       </c>
@@ -14162,7 +14163,7 @@
       <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="43"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="12">
         <v>6</v>
       </c>
@@ -14186,7 +14187,7 @@
       <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="43"/>
+      <c r="B189" s="42"/>
       <c r="C189" s="12">
         <v>7</v>
       </c>
@@ -14210,7 +14211,7 @@
       <c r="P189" s="13"/>
     </row>
     <row r="190" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="43"/>
+      <c r="B190" s="42"/>
       <c r="C190" s="12">
         <v>8</v>
       </c>
@@ -14234,7 +14235,7 @@
       <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="43"/>
+      <c r="B191" s="42"/>
       <c r="C191" s="12">
         <v>9</v>
       </c>
@@ -14258,7 +14259,7 @@
       <c r="P191" s="13"/>
     </row>
     <row r="192" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="43"/>
+      <c r="B192" s="42"/>
       <c r="C192" s="12">
         <v>10</v>
       </c>
@@ -14282,7 +14283,7 @@
       <c r="P192" s="13"/>
     </row>
     <row r="193" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="43"/>
+      <c r="B193" s="42"/>
       <c r="C193" s="12">
         <v>11</v>
       </c>
@@ -14306,7 +14307,7 @@
       <c r="P193" s="13"/>
     </row>
     <row r="194" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="43"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="18">
         <v>12</v>
       </c>
@@ -14358,7 +14359,7 @@
       <c r="A195" s="3">
         <v>17</v>
       </c>
-      <c r="B195" s="42">
+      <c r="B195" s="44">
         <v>2038</v>
       </c>
       <c r="C195" s="3">
@@ -14395,7 +14396,7 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="42"/>
+      <c r="B196" s="44"/>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -14419,7 +14420,7 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="42"/>
+      <c r="B197" s="44"/>
       <c r="C197" s="3">
         <v>3</v>
       </c>
@@ -14443,7 +14444,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="42"/>
+      <c r="B198" s="44"/>
       <c r="C198" s="3">
         <v>4</v>
       </c>
@@ -14467,7 +14468,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="42"/>
+      <c r="B199" s="44"/>
       <c r="C199" s="3">
         <v>5</v>
       </c>
@@ -14494,7 +14495,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="42"/>
+      <c r="B200" s="44"/>
       <c r="C200" s="3">
         <v>6</v>
       </c>
@@ -14518,7 +14519,7 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="42"/>
+      <c r="B201" s="44"/>
       <c r="C201" s="3">
         <v>7</v>
       </c>
@@ -14542,7 +14543,7 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="42"/>
+      <c r="B202" s="44"/>
       <c r="C202" s="3">
         <v>8</v>
       </c>
@@ -14566,7 +14567,7 @@
       <c r="P202" s="4"/>
     </row>
     <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="42"/>
+      <c r="B203" s="44"/>
       <c r="C203" s="3">
         <v>9</v>
       </c>
@@ -14590,7 +14591,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="42"/>
+      <c r="B204" s="44"/>
       <c r="C204" s="3">
         <v>10</v>
       </c>
@@ -14614,7 +14615,7 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="42"/>
+      <c r="B205" s="44"/>
       <c r="C205" s="3">
         <v>11</v>
       </c>
@@ -14638,7 +14639,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="42"/>
+      <c r="B206" s="44"/>
       <c r="C206" s="3">
         <v>12</v>
       </c>
@@ -14690,7 +14691,7 @@
       <c r="A207" s="3">
         <v>18</v>
       </c>
-      <c r="B207" s="42">
+      <c r="B207" s="44">
         <v>2039</v>
       </c>
       <c r="C207" s="3">
@@ -14724,7 +14725,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="42"/>
+      <c r="B208" s="44"/>
       <c r="C208" s="3">
         <v>2</v>
       </c>
@@ -14748,7 +14749,7 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="42"/>
+      <c r="B209" s="44"/>
       <c r="C209" s="3">
         <v>3</v>
       </c>
@@ -14772,7 +14773,7 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="42"/>
+      <c r="B210" s="44"/>
       <c r="C210" s="3">
         <v>4</v>
       </c>
@@ -14796,7 +14797,7 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="42"/>
+      <c r="B211" s="44"/>
       <c r="C211" s="3">
         <v>5</v>
       </c>
@@ -14823,7 +14824,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="42"/>
+      <c r="B212" s="44"/>
       <c r="C212" s="3">
         <v>6</v>
       </c>
@@ -14847,7 +14848,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="42"/>
+      <c r="B213" s="44"/>
       <c r="C213" s="3">
         <v>7</v>
       </c>
@@ -14871,7 +14872,7 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="42"/>
+      <c r="B214" s="44"/>
       <c r="C214" s="3">
         <v>8</v>
       </c>
@@ -14895,7 +14896,7 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="42"/>
+      <c r="B215" s="44"/>
       <c r="C215" s="3">
         <v>9</v>
       </c>
@@ -14919,7 +14920,7 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="42"/>
+      <c r="B216" s="44"/>
       <c r="C216" s="3">
         <v>10</v>
       </c>
@@ -14943,7 +14944,7 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="42"/>
+      <c r="B217" s="44"/>
       <c r="C217" s="3">
         <v>11</v>
       </c>
@@ -14967,7 +14968,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="42"/>
+      <c r="B218" s="44"/>
       <c r="C218" s="3">
         <v>12</v>
       </c>
@@ -15019,7 +15020,7 @@
       <c r="A219" s="3">
         <v>19</v>
       </c>
-      <c r="B219" s="42">
+      <c r="B219" s="44">
         <v>2040</v>
       </c>
       <c r="C219" s="3">
@@ -15053,7 +15054,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="42"/>
+      <c r="B220" s="44"/>
       <c r="C220" s="3">
         <v>2</v>
       </c>
@@ -15077,7 +15078,7 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="42"/>
+      <c r="B221" s="44"/>
       <c r="C221" s="3">
         <v>3</v>
       </c>
@@ -15101,7 +15102,7 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="42"/>
+      <c r="B222" s="44"/>
       <c r="C222" s="3">
         <v>4</v>
       </c>
@@ -15125,7 +15126,7 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="42"/>
+      <c r="B223" s="44"/>
       <c r="C223" s="3">
         <v>5</v>
       </c>
@@ -15152,7 +15153,7 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="42"/>
+      <c r="B224" s="44"/>
       <c r="C224" s="3">
         <v>6</v>
       </c>
@@ -15176,7 +15177,7 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="42"/>
+      <c r="B225" s="44"/>
       <c r="C225" s="3">
         <v>7</v>
       </c>
@@ -15200,7 +15201,7 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="42"/>
+      <c r="B226" s="44"/>
       <c r="C226" s="3">
         <v>8</v>
       </c>
@@ -15224,7 +15225,7 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="42"/>
+      <c r="B227" s="44"/>
       <c r="C227" s="3">
         <v>9</v>
       </c>
@@ -15248,7 +15249,7 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="42"/>
+      <c r="B228" s="44"/>
       <c r="C228" s="3">
         <v>10</v>
       </c>
@@ -15272,7 +15273,7 @@
       <c r="P228" s="4"/>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="42"/>
+      <c r="B229" s="44"/>
       <c r="C229" s="3">
         <v>11</v>
       </c>
@@ -15296,7 +15297,7 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="42"/>
+      <c r="B230" s="44"/>
       <c r="C230" s="3">
         <v>12</v>
       </c>
@@ -15348,7 +15349,7 @@
       <c r="A231" s="3">
         <v>20</v>
       </c>
-      <c r="B231" s="42">
+      <c r="B231" s="44">
         <v>2041</v>
       </c>
       <c r="C231" s="3">
@@ -15382,7 +15383,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="42"/>
+      <c r="B232" s="44"/>
       <c r="C232" s="3">
         <v>2</v>
       </c>
@@ -15406,7 +15407,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="42"/>
+      <c r="B233" s="44"/>
       <c r="C233" s="3">
         <v>3</v>
       </c>
@@ -15430,7 +15431,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="42"/>
+      <c r="B234" s="44"/>
       <c r="C234" s="3">
         <v>4</v>
       </c>
@@ -15454,7 +15455,7 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="42"/>
+      <c r="B235" s="44"/>
       <c r="C235" s="3">
         <v>5</v>
       </c>
@@ -15481,7 +15482,7 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="42"/>
+      <c r="B236" s="44"/>
       <c r="C236" s="3">
         <v>6</v>
       </c>
@@ -15505,7 +15506,7 @@
       <c r="P236" s="4"/>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="42"/>
+      <c r="B237" s="44"/>
       <c r="C237" s="3">
         <v>7</v>
       </c>
@@ -15529,7 +15530,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="42"/>
+      <c r="B238" s="44"/>
       <c r="C238" s="3">
         <v>8</v>
       </c>
@@ -15553,7 +15554,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="42"/>
+      <c r="B239" s="44"/>
       <c r="C239" s="3">
         <v>9</v>
       </c>
@@ -15577,7 +15578,7 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="42"/>
+      <c r="B240" s="44"/>
       <c r="C240" s="3">
         <v>10</v>
       </c>
@@ -15601,7 +15602,7 @@
       <c r="P240" s="4"/>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="42"/>
+      <c r="B241" s="44"/>
       <c r="C241" s="3">
         <v>11</v>
       </c>
@@ -15625,7 +15626,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="42"/>
+      <c r="B242" s="44"/>
       <c r="C242" s="3">
         <v>12</v>
       </c>
@@ -15677,7 +15678,7 @@
       <c r="A243" s="3">
         <v>21</v>
       </c>
-      <c r="B243" s="42">
+      <c r="B243" s="44">
         <v>2042</v>
       </c>
       <c r="C243" s="3">
@@ -15712,7 +15713,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
-      <c r="B244" s="42"/>
+      <c r="B244" s="44"/>
       <c r="C244" s="3">
         <v>2</v>
       </c>
@@ -15742,7 +15743,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
-      <c r="B245" s="42"/>
+      <c r="B245" s="44"/>
       <c r="C245" s="3">
         <v>3</v>
       </c>
@@ -15772,7 +15773,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
-      <c r="B246" s="42"/>
+      <c r="B246" s="44"/>
       <c r="C246" s="3">
         <v>4</v>
       </c>
@@ -15802,7 +15803,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
-      <c r="B247" s="42"/>
+      <c r="B247" s="44"/>
       <c r="C247" s="3">
         <v>5</v>
       </c>
@@ -15835,7 +15836,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
-      <c r="B248" s="42"/>
+      <c r="B248" s="44"/>
       <c r="C248" s="3">
         <v>6</v>
       </c>
@@ -15865,7 +15866,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="42"/>
+      <c r="B249" s="44"/>
       <c r="C249" s="3">
         <v>7</v>
       </c>
@@ -15895,7 +15896,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="42"/>
+      <c r="B250" s="44"/>
       <c r="C250" s="3">
         <v>8</v>
       </c>
@@ -15925,7 +15926,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="42"/>
+      <c r="B251" s="44"/>
       <c r="C251" s="3">
         <v>9</v>
       </c>
@@ -15955,7 +15956,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="42"/>
+      <c r="B252" s="44"/>
       <c r="C252" s="3">
         <v>10</v>
       </c>
@@ -15985,7 +15986,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="42"/>
+      <c r="B253" s="44"/>
       <c r="C253" s="3">
         <v>11</v>
       </c>
@@ -16015,7 +16016,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="42"/>
+      <c r="B254" s="44"/>
       <c r="C254" s="3">
         <v>12</v>
       </c>
@@ -16062,6 +16063,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="B219:B230"/>
+    <mergeCell ref="B231:B242"/>
     <mergeCell ref="B243:B254"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B15:B26"/>
@@ -16078,11 +16084,6 @@
     <mergeCell ref="B99:B110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="B123:B134"/>
-    <mergeCell ref="B183:B194"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="B219:B230"/>
-    <mergeCell ref="B231:B242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C606307D-EBF0-43D0-B497-CBB3499791FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482741B-21F5-4266-BFAC-3DFD5AE9B1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="7" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:P254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1038,18 +1038,18 @@
         <v>9</v>
       </c>
       <c r="D11" s="9">
-        <v>2300000</v>
+        <v>1000000</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>16498650.084591899</v>
+        <v>15198650.084591899</v>
       </c>
       <c r="F11" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>16795625.786114555</v>
+        <v>15472225.786114553</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="10">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
-        <v>21295625.786114555</v>
+        <v>19972225.786114551</v>
       </c>
       <c r="F12" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="1"/>
-        <v>21678947.050264616</v>
+        <v>20331725.850264613</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14">
@@ -1092,14 +1092,14 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>24178947.050264616</v>
+        <v>22831725.850264613</v>
       </c>
       <c r="F13" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>24614168.097169377</v>
+        <v>23242696.915569376</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>27114168.097169377</v>
+        <v>25742696.915569376</v>
       </c>
       <c r="F14" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="1"/>
-        <v>27602223.122918427</v>
+        <v>26206065.460049625</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="10">
@@ -1132,26 +1132,26 @@
       </c>
       <c r="J14" s="19">
         <f xml:space="preserve"> (G2 + SUM(D3:D14)) - SUM(I3:I14)</f>
-        <v>25163456</v>
+        <v>23863456</v>
       </c>
       <c r="K14" s="19">
         <f xml:space="preserve"> G14 - J14</f>
-        <v>2438767.122918427</v>
+        <v>2342609.4600496255</v>
       </c>
       <c r="L14" s="18">
         <v>0.84</v>
       </c>
       <c r="M14" s="19">
         <f xml:space="preserve"> K14 * L14</f>
-        <v>2048564.3832514787</v>
+        <v>1967791.9464416853</v>
       </c>
       <c r="N14" s="19">
         <f xml:space="preserve"> K14 - M14</f>
-        <v>390202.73966694833</v>
+        <v>374817.51360794017</v>
       </c>
       <c r="O14" s="18">
         <f xml:space="preserve"> K14 / J14 * 100</f>
-        <v>9.6917018191715272</v>
+        <v>9.8167233616523344</v>
       </c>
       <c r="P14" s="19"/>
     </row>
@@ -1167,18 +1167,18 @@
       </c>
       <c r="D15" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E15" s="9">
         <f xml:space="preserve"> (G14 / 2) + D15 - I15</f>
-        <v>17451204.191580813</v>
+        <v>16694952.124193547</v>
       </c>
       <c r="F15" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G15" s="9">
         <f xml:space="preserve"> (E15 * F15) + E15</f>
-        <v>17765325.867029268</v>
+        <v>16995461.262429032</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="10">
@@ -1186,11 +1186,11 @@
       </c>
       <c r="K15" s="11">
         <f xml:space="preserve"> (G14 / 2 / 12) +2500000</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="M15" s="9">
         <f xml:space="preserve"> (G14 / 2 )</f>
-        <v>13801111.561459213</v>
+        <v>13103032.730024813</v>
       </c>
       <c r="P15" s="9"/>
     </row>
@@ -1201,18 +1201,18 @@
       </c>
       <c r="D16" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" ref="E16:E26" si="2" xml:space="preserve"> G15 + D16 - I16</f>
-        <v>21415418.497150868</v>
+        <v>20587380.656597767</v>
       </c>
       <c r="F16" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G16" s="9">
         <f xml:space="preserve"> (E16 * F16) + E16</f>
-        <v>21800896.030099586</v>
+        <v>20957953.508416526</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10">
@@ -1227,18 +1227,18 @@
       </c>
       <c r="D17" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>25450988.660221186</v>
+        <v>24549872.902585261</v>
       </c>
       <c r="F17" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G17" s="9">
         <f xml:space="preserve"> (E17 * F17) + E17</f>
-        <v>25909106.456105165</v>
+        <v>24991770.614831794</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="10">
@@ -1253,18 +1253,18 @@
       </c>
       <c r="D18" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>29559199.086226765</v>
+        <v>28583690.009000529</v>
       </c>
       <c r="F18" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" ref="G18:G26" si="3" xml:space="preserve"> (E18 * F18) + E18</f>
-        <v>30091264.669778846</v>
+        <v>29098196.42916254</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="10">
@@ -1279,23 +1279,23 @@
       </c>
       <c r="D19" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>33351154.5602335</v>
+        <v>32315298.309723333</v>
       </c>
       <c r="F19" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="3"/>
-        <v>33951475.3423177</v>
+        <v>32896973.679298352</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10">
         <f xml:space="preserve"> N14</f>
-        <v>390202.73966694833</v>
+        <v>374817.51360794017</v>
       </c>
       <c r="P19" s="9"/>
     </row>
@@ -1306,18 +1306,18 @@
       </c>
       <c r="D20" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="2"/>
-        <v>37601567.972439304</v>
+        <v>36488893.073467091</v>
       </c>
       <c r="F20" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="3"/>
-        <v>38278396.195943214</v>
+        <v>37145693.148789495</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="10">
@@ -1332,18 +1332,18 @@
       </c>
       <c r="D21" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>41928488.826064818</v>
+        <v>40737612.54295823</v>
       </c>
       <c r="F21" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="3"/>
-        <v>42683201.624933988</v>
+        <v>41470889.568731479</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="10">
@@ -1358,18 +1358,18 @@
       </c>
       <c r="D22" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="2"/>
-        <v>46333294.255055591</v>
+        <v>45062808.962900214</v>
       </c>
       <c r="F22" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="3"/>
-        <v>47167293.55164659</v>
+        <v>45873939.524232417</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="10">
@@ -1384,18 +1384,18 @@
       </c>
       <c r="D23" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="2"/>
-        <v>50817386.181768194</v>
+        <v>49465858.918401152</v>
       </c>
       <c r="F23" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="3"/>
-        <v>51732099.133040018</v>
+        <v>50356244.378932372</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="10">
@@ -1410,18 +1410,18 @@
       </c>
       <c r="D24" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>55382191.763161622</v>
+        <v>53948163.773101106</v>
       </c>
       <c r="F24" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="3"/>
-        <v>56379071.214898534</v>
+        <v>54919230.721016929</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="10">
@@ -1436,18 +1436,18 @@
       </c>
       <c r="D25" s="9">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="2"/>
-        <v>60029163.845020138</v>
+        <v>58511150.115185663</v>
       </c>
       <c r="F25" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="3"/>
-        <v>61109688.794230498</v>
+        <v>59564350.817259006</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="10">
@@ -1462,18 +1462,18 @@
       </c>
       <c r="D26" s="19">
         <f xml:space="preserve"> K15</f>
-        <v>3650092.6301216008</v>
+        <v>3591919.3941687346</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="2"/>
-        <v>19759781.424352102</v>
+        <v>18156270.211427741</v>
       </c>
       <c r="F26" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G26" s="19">
         <f t="shared" si="3"/>
-        <v>20115457.489990439</v>
+        <v>18483083.075233441</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="20">
@@ -1481,26 +1481,26 @@
       </c>
       <c r="J26" s="19">
         <f xml:space="preserve"> (E15 + SUM(D16:D26)) - SUM(I15:I26)</f>
-        <v>12212020.383251481</v>
+        <v>10831247.946441688</v>
       </c>
       <c r="K26" s="19">
         <f xml:space="preserve"> G26 - J26</f>
-        <v>7903437.1067389585</v>
+        <v>7651835.1287917532</v>
       </c>
       <c r="L26" s="18">
         <v>0.84</v>
       </c>
       <c r="M26" s="19">
         <f xml:space="preserve"> K26 * L26</f>
-        <v>6638887.1696607247</v>
+        <v>6427541.5081850728</v>
       </c>
       <c r="N26" s="19">
         <f xml:space="preserve"> K26 - M26</f>
-        <v>1264549.9370782338</v>
+        <v>1224293.6206066804</v>
       </c>
       <c r="O26" s="18">
         <f xml:space="preserve"> K26 / J26 * 100</f>
-        <v>64.718505691149602</v>
+        <v>70.645923411859073</v>
       </c>
       <c r="P26" s="19"/>
     </row>
@@ -1516,18 +1516,18 @@
       </c>
       <c r="D27" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E27" s="9">
         <f xml:space="preserve"> (G26 / 2) + D27 - I27</f>
-        <v>13395872.807078155</v>
+        <v>12511669.99908478</v>
       </c>
       <c r="F27" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G27" s="9">
         <f xml:space="preserve"> (E27 * F27) + E27</f>
-        <v>13636998.517605562</v>
+        <v>12736880.059068305</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="10">
@@ -1535,11 +1535,11 @@
       </c>
       <c r="K27" s="11">
         <f xml:space="preserve"> (G26 / 2 / 12) +2500000</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="M27" s="9">
         <f xml:space="preserve"> (G26 / 2 )</f>
-        <v>10057728.74499522</v>
+        <v>9241541.5376167204</v>
       </c>
       <c r="P27" s="9"/>
     </row>
@@ -1553,18 +1553,18 @@
       </c>
       <c r="D28" s="35">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E28" s="35">
         <f t="shared" ref="E28:E38" si="4" xml:space="preserve"> G27 + D28 - I28</f>
-        <v>16975142.579688497</v>
+        <v>16007008.520536365</v>
       </c>
       <c r="F28" s="34">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G28" s="35">
         <f xml:space="preserve"> (E28 * F28) + E28</f>
-        <v>17280695.146122891</v>
+        <v>16295134.673906019</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="36">
@@ -1579,18 +1579,18 @@
       </c>
       <c r="D29" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="4"/>
-        <v>20618839.208205827</v>
+        <v>19565263.13537408</v>
       </c>
       <c r="F29" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G29" s="9">
         <f xml:space="preserve"> (E29 * F29) + E29</f>
-        <v>20989978.31395353</v>
+        <v>19917437.871810813</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="10">
@@ -1605,18 +1605,18 @@
       </c>
       <c r="D30" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="4"/>
-        <v>24328122.376036465</v>
+        <v>23187566.333278872</v>
       </c>
       <c r="F30" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" ref="G30:G93" si="5" xml:space="preserve"> (E30 * F30) + E30</f>
-        <v>24766028.578805123</v>
+        <v>23604942.527277891</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="10">
@@ -1631,23 +1631,23 @@
       </c>
       <c r="D31" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="4"/>
-        <v>26839622.703809824</v>
+        <v>25650777.368139271</v>
       </c>
       <c r="F31" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G31" s="9">
         <f t="shared" si="5"/>
-        <v>27322735.912478402</v>
+        <v>26112491.360765778</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="10">
         <f xml:space="preserve"> N26</f>
-        <v>1264549.9370782338</v>
+        <v>1224293.6206066804</v>
       </c>
       <c r="P31" s="9"/>
     </row>
@@ -1658,18 +1658,18 @@
       </c>
       <c r="D32" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="4"/>
-        <v>30660879.974561337</v>
+        <v>29382619.822233837</v>
       </c>
       <c r="F32" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="5"/>
-        <v>31212775.814103443</v>
+        <v>29911506.979034048</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="10">
@@ -1684,18 +1684,18 @@
       </c>
       <c r="D33" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="4"/>
-        <v>34550919.876186378</v>
+        <v>33181635.440502107</v>
       </c>
       <c r="F33" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="5"/>
-        <v>35172836.433957733</v>
+        <v>33778904.878431141</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="10">
@@ -1710,18 +1710,18 @@
       </c>
       <c r="D34" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="4"/>
-        <v>38510980.496040672</v>
+        <v>37049033.339899205</v>
       </c>
       <c r="F34" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G34" s="9">
         <f t="shared" si="5"/>
-        <v>39204178.144969404</v>
+        <v>37715915.940017387</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="10">
@@ -1736,18 +1736,18 @@
       </c>
       <c r="D35" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="4"/>
-        <v>42542322.207052335</v>
+        <v>40986044.401485451</v>
       </c>
       <c r="F35" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G35" s="9">
         <f t="shared" si="5"/>
-        <v>43308084.006779276</v>
+        <v>41723793.200712189</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="10">
@@ -1762,18 +1762,18 @@
       </c>
       <c r="D36" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="4"/>
-        <v>46646228.068862215</v>
+        <v>44993921.662180252</v>
       </c>
       <c r="F36" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="5"/>
-        <v>47485860.174101733</v>
+        <v>45803812.252099499</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="10">
@@ -1788,18 +1788,18 @@
       </c>
       <c r="D37" s="9">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="4"/>
-        <v>50824004.236184672</v>
+        <v>49073940.713567562</v>
       </c>
       <c r="F37" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="5"/>
-        <v>51738836.312435992</v>
+        <v>49957271.646411777</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="10">
@@ -1814,18 +1814,18 @@
       </c>
       <c r="D38" s="19">
         <f>K27</f>
-        <v>3338144.0620829351</v>
+        <v>3270128.46146806</v>
       </c>
       <c r="E38" s="19">
         <f t="shared" si="4"/>
-        <v>55076980.374518931</v>
+        <v>53227400.10787984</v>
       </c>
       <c r="F38" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G38" s="19">
         <f t="shared" si="5"/>
-        <v>56068366.021260269</v>
+        <v>54185493.30982168</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="20">
@@ -1833,26 +1833,26 @@
       </c>
       <c r="J38" s="19">
         <f xml:space="preserve"> (E27 + SUM(D28:D38)) - SUM(I27:I38)</f>
-        <v>48850907.552912205</v>
+        <v>47258789.454626754</v>
       </c>
       <c r="K38" s="19">
         <f xml:space="preserve"> G38 - J38</f>
-        <v>7217458.4683480635</v>
+        <v>6926703.8551949263</v>
       </c>
       <c r="L38" s="18">
         <v>0.84</v>
       </c>
       <c r="M38" s="19">
         <f xml:space="preserve"> K38 * L38</f>
-        <v>6062665.1134123728</v>
+        <v>5818431.2383637382</v>
       </c>
       <c r="N38" s="19">
         <f xml:space="preserve"> K38 - M38</f>
-        <v>1154793.3549356908</v>
+        <v>1108272.6168311881</v>
       </c>
       <c r="O38" s="18">
         <f xml:space="preserve"> K38 / J38 * 100</f>
-        <v>14.774461376240696</v>
+        <v>14.656964207357165</v>
       </c>
       <c r="P38" s="19"/>
     </row>
@@ -1868,18 +1868,18 @@
       </c>
       <c r="D39" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E39" s="9">
         <f xml:space="preserve"> (G38 / 2) + D39 - I39</f>
-        <v>32870364.928182647</v>
+        <v>31850475.542820077</v>
       </c>
       <c r="F39" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G39" s="9">
         <f t="shared" si="5"/>
-        <v>33462031.496889934</v>
+        <v>32423784.10259084</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="10">
@@ -1887,11 +1887,11 @@
       </c>
       <c r="K39" s="11">
         <f xml:space="preserve"> ((G38 - I39) / 2 / 12) +2500000</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="M39" s="9">
         <f xml:space="preserve"> (G38 / 2 )</f>
-        <v>28034183.010630134</v>
+        <v>27092746.65491084</v>
       </c>
       <c r="P39" s="9"/>
     </row>
@@ -1902,18 +1902,18 @@
       </c>
       <c r="D40" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" ref="E40:E50" si="6" xml:space="preserve"> G39 + D40 - I40</f>
-        <v>38298213.414442442</v>
+        <v>37181512.990500078</v>
       </c>
       <c r="F40" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="5"/>
-        <v>38987581.25590241</v>
+        <v>37850780.224329077</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="10">
@@ -1928,18 +1928,18 @@
       </c>
       <c r="D41" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" si="6"/>
-        <v>43823763.173454918</v>
+        <v>42608509.112238318</v>
       </c>
       <c r="F41" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="5"/>
-        <v>44612590.910577103</v>
+        <v>43375462.27625861</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="10">
@@ -1954,18 +1954,18 @@
       </c>
       <c r="D42" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" si="6"/>
-        <v>49448772.828129612</v>
+        <v>48133191.164167851</v>
       </c>
       <c r="F42" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G42" s="9">
         <f t="shared" si="5"/>
-        <v>50338850.739035942</v>
+        <v>48999588.605122872</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="10">
@@ -1980,23 +1980,23 @@
       </c>
       <c r="D43" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" si="6"/>
-        <v>54020239.301652759</v>
+        <v>52649044.876200922</v>
       </c>
       <c r="F43" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G43" s="9">
         <f t="shared" si="5"/>
-        <v>54992603.609082513</v>
+        <v>53596727.683972538</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="10">
         <f xml:space="preserve"> N38</f>
-        <v>1154793.3549356908</v>
+        <v>1108272.6168311881</v>
       </c>
       <c r="P43" s="9"/>
     </row>
@@ -2007,18 +2007,18 @@
       </c>
       <c r="D44" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" si="6"/>
-        <v>59828785.526635021</v>
+        <v>58354456.571881771</v>
       </c>
       <c r="F44" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="5"/>
-        <v>60905703.66611445</v>
+        <v>59404836.790175647</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="10">
@@ -2033,18 +2033,18 @@
       </c>
       <c r="D45" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="6"/>
-        <v>65741885.583666958</v>
+        <v>64162565.67808488</v>
       </c>
       <c r="F45" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G45" s="9">
         <f t="shared" si="5"/>
-        <v>66925239.524172962</v>
+        <v>65317491.860290408</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="10">
@@ -2059,18 +2059,18 @@
       </c>
       <c r="D46" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="6"/>
-        <v>71761421.441725478</v>
+        <v>70075220.748199642</v>
       </c>
       <c r="F46" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G46" s="9">
         <f t="shared" si="5"/>
-        <v>73053127.027676538</v>
+        <v>71336574.72166723</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="10">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="D47" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="6"/>
-        <v>77889308.945229053</v>
+        <v>76094303.609576464</v>
       </c>
       <c r="F47" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="5"/>
-        <v>79291316.506243169</v>
+        <v>77464001.074548841</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="10">
@@ -2111,18 +2111,18 @@
       </c>
       <c r="D48" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" si="6"/>
-        <v>84127498.423795685</v>
+        <v>82221729.962458074</v>
       </c>
       <c r="F48" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G48" s="9">
         <f t="shared" si="5"/>
-        <v>85641793.395424008</v>
+        <v>83701721.101782322</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="10">
@@ -2137,18 +2137,18 @@
       </c>
       <c r="D49" s="9">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="6"/>
-        <v>90477975.312976524</v>
+        <v>88459449.989691556</v>
       </c>
       <c r="F49" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G49" s="9">
         <f t="shared" si="5"/>
-        <v>92106578.868610099</v>
+        <v>90051720.089506</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="10">
@@ -2163,18 +2163,18 @@
       </c>
       <c r="D50" s="19">
         <f>K39</f>
-        <v>4836181.9175525112</v>
+        <v>4757728.8879092373</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" si="6"/>
-        <v>96942760.786162615</v>
+        <v>94809448.977415234</v>
       </c>
       <c r="F50" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G50" s="19">
         <f t="shared" si="5"/>
-        <v>98687730.48031354</v>
+        <v>96516019.059008703</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="10">
@@ -2182,26 +2182,26 @@
       </c>
       <c r="J50" s="19">
         <f xml:space="preserve"> (E39 + SUM(D40:D50)) - SUM(I40:I50)</f>
-        <v>84913572.666324571</v>
+        <v>83077220.692990497</v>
       </c>
       <c r="K50" s="19">
         <f xml:space="preserve"> G50 - J50</f>
-        <v>13774157.813988969</v>
+        <v>13438798.366018206</v>
       </c>
       <c r="L50" s="18">
         <v>0.84</v>
       </c>
       <c r="M50" s="19">
         <f xml:space="preserve"> K50 * L50</f>
-        <v>11570292.563750733</v>
+        <v>11288590.627455292</v>
       </c>
       <c r="N50" s="19">
         <f xml:space="preserve"> K50 - M50</f>
-        <v>2203865.250238236</v>
+        <v>2150207.7385629136</v>
       </c>
       <c r="O50" s="18">
         <f xml:space="preserve"> K50 / J50 * 100</f>
-        <v>16.221385323304848</v>
+        <v>16.176273416368733</v>
       </c>
       <c r="P50" s="19"/>
     </row>
@@ -2217,18 +2217,18 @@
       </c>
       <c r="D51" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E51" s="9">
         <f xml:space="preserve"> (G50 / 2) + D51 - I51</f>
-        <v>55955854.010169834</v>
+        <v>54779510.323629715</v>
       </c>
       <c r="F51" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G51" s="9">
         <f t="shared" si="5"/>
-        <v>56963059.382352889</v>
+        <v>55765541.509455048</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="10">
@@ -2236,11 +2236,11 @@
       </c>
       <c r="K51" s="11">
         <f xml:space="preserve"> ((G50 - I51) / 2 / 12) +2500000</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="M51" s="9">
         <f xml:space="preserve"> (G50 / 2 )</f>
-        <v>49343865.24015677</v>
+        <v>48258009.529504351</v>
       </c>
       <c r="P51" s="9"/>
     </row>
@@ -2251,18 +2251,18 @@
       </c>
       <c r="D52" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" ref="E52:E62" si="7" xml:space="preserve"> G51 + D52 - I52</f>
-        <v>63575048.152365953</v>
+        <v>62287042.303580411</v>
       </c>
       <c r="F52" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G52" s="9">
         <f t="shared" si="5"/>
-        <v>64719399.019108541</v>
+        <v>63408209.065044858</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="10">
@@ -2277,18 +2277,18 @@
       </c>
       <c r="D53" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="7"/>
-        <v>71331387.789121598</v>
+        <v>69929709.859170228</v>
       </c>
       <c r="F53" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="5"/>
-        <v>72615352.769325793</v>
+        <v>71188444.636635289</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="10">
@@ -2303,18 +2303,18 @@
       </c>
       <c r="D54" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="7"/>
-        <v>79227341.539338857</v>
+        <v>77709945.430760652</v>
       </c>
       <c r="F54" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" si="5"/>
-        <v>80653433.68704696</v>
+        <v>79108724.448514342</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="10">
@@ -2329,23 +2329,23 @@
       </c>
       <c r="D55" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="7"/>
-        <v>85061557.206821784</v>
+        <v>83480017.504076794</v>
       </c>
       <c r="F55" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="5"/>
-        <v>86592665.236544579</v>
+        <v>84982657.81915018</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="10">
         <f xml:space="preserve"> N50</f>
-        <v>2203865.250238236</v>
+        <v>2150207.7385629136</v>
       </c>
       <c r="P55" s="9"/>
     </row>
@@ -2356,18 +2356,18 @@
       </c>
       <c r="D56" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="7"/>
-        <v>93204654.006557643</v>
+        <v>91504158.613275543</v>
       </c>
       <c r="F56" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G56" s="9">
         <f t="shared" si="5"/>
-        <v>94882337.778675675</v>
+        <v>93151233.468314499</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10">
@@ -2382,18 +2382,18 @@
       </c>
       <c r="D57" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="7"/>
-        <v>101494326.54868874</v>
+        <v>99672734.262439862</v>
       </c>
       <c r="F57" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="5"/>
-        <v>103321224.42656514</v>
+        <v>101466843.47916378</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="10">
@@ -2408,18 +2408,18 @@
       </c>
       <c r="D58" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" si="7"/>
-        <v>109933213.1965782</v>
+        <v>107988344.27328914</v>
       </c>
       <c r="F58" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="5"/>
-        <v>111912011.03411661</v>
+        <v>109932134.47020835</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="10">
@@ -2434,18 +2434,18 @@
       </c>
       <c r="D59" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="7"/>
-        <v>118523999.80412968</v>
+        <v>116453635.26433371</v>
       </c>
       <c r="F59" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="5"/>
-        <v>120657431.80060402</v>
+        <v>118549800.69909172</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="10">
@@ -2460,18 +2460,18 @@
       </c>
       <c r="D60" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="7"/>
-        <v>127269420.57061708</v>
+        <v>125071301.49321708</v>
       </c>
       <c r="F60" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G60" s="9">
         <f t="shared" si="5"/>
-        <v>129560270.14088818</v>
+        <v>127322584.92009498</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="10">
@@ -2486,18 +2486,18 @@
       </c>
       <c r="D61" s="9">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="7"/>
-        <v>136172258.91090125</v>
+        <v>133844085.71422035</v>
       </c>
       <c r="F61" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G61" s="9">
         <f t="shared" si="5"/>
-        <v>138623359.57129747</v>
+        <v>136253279.25707632</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="10">
@@ -2512,18 +2512,18 @@
       </c>
       <c r="D62" s="19">
         <f xml:space="preserve"> K51</f>
-        <v>6611988.7700130641</v>
+        <v>6521500.7941253632</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" si="7"/>
-        <v>145235348.34131053</v>
+        <v>142774780.0512017</v>
       </c>
       <c r="F62" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G62" s="19">
         <f t="shared" si="5"/>
-        <v>147849584.61145413</v>
+        <v>145344726.09212333</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="20">
@@ -2531,26 +2531,26 @@
       </c>
       <c r="J62" s="19">
         <f xml:space="preserve"> (E51 + SUM(D52:D62)) - SUM(I52:I62)</f>
-        <v>126483865.2300753</v>
+        <v>124365811.32044581</v>
       </c>
       <c r="K62" s="19">
         <f xml:space="preserve"> G62 - J62</f>
-        <v>21365719.381378829</v>
+        <v>20978914.771677524</v>
       </c>
       <c r="L62" s="18">
         <v>0.84</v>
       </c>
       <c r="M62" s="19">
         <f xml:space="preserve"> K62 * L62</f>
-        <v>17947204.280358218</v>
+        <v>17622288.408209119</v>
       </c>
       <c r="N62" s="19">
         <f xml:space="preserve"> K62 - M62</f>
-        <v>3418515.1010206118</v>
+        <v>3356626.3634684049</v>
       </c>
       <c r="O62" s="18">
         <f xml:space="preserve"> K62 / J62 * 100</f>
-        <v>16.892051284576411</v>
+        <v>16.868715404125361</v>
       </c>
       <c r="P62" s="19"/>
     </row>
@@ -2566,18 +2566,18 @@
       </c>
       <c r="D63" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E63" s="9">
         <f xml:space="preserve"> (G62 / 2) + D63 - I63</f>
-        <v>82585191.664537653</v>
+        <v>81228393.299900144</v>
       </c>
       <c r="F63" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G63" s="9">
         <f t="shared" si="5"/>
-        <v>84071725.114499331</v>
+        <v>82690504.379298344</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10">
@@ -2585,11 +2585,11 @@
       </c>
       <c r="K63" s="11">
         <f xml:space="preserve"> ((G62 - I63) / 2 / 12) +2500000</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="M63" s="9">
         <f xml:space="preserve"> (G62 / 2 )</f>
-        <v>73924792.305727065</v>
+        <v>72672363.046061665</v>
       </c>
       <c r="P63" s="9"/>
     </row>
@@ -2600,18 +2600,18 @@
       </c>
       <c r="D64" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" ref="E64:E74" si="8" xml:space="preserve"> G63 + D64 - I64</f>
-        <v>92732124.473309919</v>
+        <v>91246534.633136809</v>
       </c>
       <c r="F64" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G64" s="9">
         <f t="shared" si="5"/>
-        <v>94401302.713829502</v>
+        <v>92888972.256533265</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="10">
@@ -2626,18 +2626,18 @@
       </c>
       <c r="D65" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" si="8"/>
-        <v>103061702.07264009</v>
+        <v>101445002.51037174</v>
       </c>
       <c r="F65" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="5"/>
-        <v>104916812.70994762</v>
+        <v>103271012.55555844</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="10">
@@ -2652,18 +2652,18 @@
       </c>
       <c r="D66" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" si="8"/>
-        <v>113577212.0687582</v>
+        <v>111827042.80939692</v>
       </c>
       <c r="F66" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G66" s="9">
         <f t="shared" si="5"/>
-        <v>115621601.88599585</v>
+        <v>113839929.57996607</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="10">
@@ -2678,23 +2678,23 @@
       </c>
       <c r="D67" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" si="8"/>
-        <v>120863486.14378583</v>
+        <v>119039333.47033614</v>
       </c>
       <c r="F67" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G67" s="9">
         <f t="shared" si="5"/>
-        <v>123039028.89437398</v>
+        <v>121182041.47280219</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="10">
         <f xml:space="preserve"> N62</f>
-        <v>3418515.1010206118</v>
+        <v>3356626.3634684049</v>
       </c>
       <c r="P67" s="9"/>
     </row>
@@ -2705,18 +2705,18 @@
       </c>
       <c r="D68" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" si="8"/>
-        <v>131699428.25318457</v>
+        <v>129738071.72664067</v>
       </c>
       <c r="F68" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="5"/>
-        <v>134070017.96174189</v>
+        <v>132073357.01772021</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="10">
@@ -2732,18 +2732,18 @@
       </c>
       <c r="D69" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" si="8"/>
-        <v>142730417.32055247</v>
+        <v>140629387.27155867</v>
       </c>
       <c r="F69" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="5"/>
-        <v>145299564.83232242</v>
+        <v>143160716.24244672</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="10">
@@ -2758,18 +2758,18 @@
       </c>
       <c r="D70" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" si="8"/>
-        <v>153959964.19113302</v>
+        <v>151716746.4962852</v>
       </c>
       <c r="F70" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G70" s="9">
         <f t="shared" si="5"/>
-        <v>156731243.54657343</v>
+        <v>154447647.93321833</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="10">
@@ -2784,18 +2784,18 @@
       </c>
       <c r="D71" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E71" s="9">
         <f t="shared" si="8"/>
-        <v>165391642.905384</v>
+        <v>163003678.18705681</v>
       </c>
       <c r="F71" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G71" s="9">
         <f t="shared" si="5"/>
-        <v>168368692.47768092</v>
+        <v>165937744.39442384</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="10">
@@ -2810,18 +2810,18 @@
       </c>
       <c r="D72" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" si="8"/>
-        <v>177029091.83649153</v>
+        <v>174493774.64826232</v>
       </c>
       <c r="F72" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G72" s="9">
         <f t="shared" si="5"/>
-        <v>180215615.48954839</v>
+        <v>177634662.59193105</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="10">
@@ -2836,18 +2836,18 @@
       </c>
       <c r="D73" s="9">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" si="8"/>
-        <v>188876014.84835899</v>
+        <v>186190692.84576952</v>
       </c>
       <c r="F73" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G73" s="9">
         <f t="shared" si="5"/>
-        <v>192275783.11562946</v>
+        <v>189542125.31699339</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10">
@@ -2862,18 +2862,18 @@
       </c>
       <c r="D74" s="19">
         <f>K63</f>
-        <v>8660399.3588105887</v>
+        <v>8556030.2538384721</v>
       </c>
       <c r="E74" s="19">
         <f t="shared" si="8"/>
-        <v>200936182.47444004</v>
+        <v>198098155.57083187</v>
       </c>
       <c r="F74" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G74" s="19">
         <f t="shared" si="5"/>
-        <v>204553033.75897995</v>
+        <v>201663922.37110683</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="20">
@@ -2881,26 +2881,26 @@
       </c>
       <c r="J74" s="19">
         <f xml:space="preserve"> (E63 + SUM(D64:D74)) - SUM(I64:I74)</f>
-        <v>174431069.51043352</v>
+        <v>171988099.72865495</v>
       </c>
       <c r="K74" s="19">
         <f xml:space="preserve"> G74 - J74</f>
-        <v>30121964.248546422</v>
+        <v>29675822.642451882</v>
       </c>
       <c r="L74" s="18">
         <v>0.84</v>
       </c>
       <c r="M74" s="19">
         <f xml:space="preserve"> K74 * L74</f>
-        <v>25302449.968778994</v>
+        <v>24927691.019659579</v>
       </c>
       <c r="N74" s="19">
         <f xml:space="preserve"> K74 - M74</f>
-        <v>4819514.2797674276</v>
+        <v>4748131.6227923036</v>
       </c>
       <c r="O74" s="18">
         <f xml:space="preserve"> K74 / J74 * 100</f>
-        <v>17.26869205875315</v>
+        <v>17.254579060569498</v>
       </c>
       <c r="P74" s="19"/>
     </row>
@@ -2916,18 +2916,18 @@
       </c>
       <c r="D75" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E75" s="9">
         <f xml:space="preserve"> (G74 / 2) + D75 - I75</f>
-        <v>113299559.9527808</v>
+        <v>111734624.61768287</v>
       </c>
       <c r="F75" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G75" s="9">
         <f t="shared" si="5"/>
-        <v>115338952.03193085</v>
+        <v>113745847.86080116</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="10">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="K75" s="11">
         <f xml:space="preserve"> ((G74 - I75) / 2 / 12) +2500000</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="M75" s="9">
         <f xml:space="preserve"> (G74 / 2 )</f>
-        <v>102276516.87948997</v>
+        <v>100831961.18555342</v>
       </c>
       <c r="P75" s="9"/>
     </row>
@@ -2950,18 +2950,18 @@
       </c>
       <c r="D76" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E76" s="9">
         <f t="shared" ref="E76:E86" si="9" xml:space="preserve"> G75 + D76 - I76</f>
-        <v>126361995.10522167</v>
+        <v>124648511.29293062</v>
       </c>
       <c r="F76" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G76" s="9">
         <f t="shared" si="5"/>
-        <v>128636511.01711567</v>
+        <v>126892184.49620336</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="10">
@@ -2976,18 +2976,18 @@
       </c>
       <c r="D77" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" si="9"/>
-        <v>139659554.09040651</v>
+        <v>137794847.92833281</v>
       </c>
       <c r="F77" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G77" s="9">
         <f t="shared" si="5"/>
-        <v>142173426.06403384</v>
+        <v>140275155.19104278</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="10">
@@ -3002,18 +3002,18 @@
       </c>
       <c r="D78" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E78" s="9">
         <f t="shared" si="9"/>
-        <v>153196469.13732466</v>
+        <v>151177818.62317222</v>
       </c>
       <c r="F78" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G78" s="9">
         <f t="shared" si="5"/>
-        <v>155954005.5817965</v>
+        <v>153899019.35838932</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10">
@@ -3028,23 +3028,23 @@
       </c>
       <c r="D79" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E79" s="9">
         <f t="shared" si="9"/>
-        <v>162157534.3753199</v>
+        <v>160053551.16772646</v>
       </c>
       <c r="F79" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G79" s="9">
         <f t="shared" si="5"/>
-        <v>165076369.99407566</v>
+        <v>162934515.08874553</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="10">
         <f xml:space="preserve"> N74</f>
-        <v>4819514.2797674276</v>
+        <v>4748131.6227923036</v>
       </c>
       <c r="P79" s="9"/>
     </row>
@@ -3055,18 +3055,18 @@
       </c>
       <c r="D80" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E80" s="9">
         <f t="shared" si="9"/>
-        <v>176099413.06736648</v>
+        <v>173837178.52087498</v>
       </c>
       <c r="F80" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="5"/>
-        <v>179269202.50257906</v>
+        <v>176966247.73425072</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="10">
@@ -3081,18 +3081,18 @@
       </c>
       <c r="D81" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" si="9"/>
-        <v>190292245.57586989</v>
+        <v>187868911.16638017</v>
       </c>
       <c r="F81" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G81" s="9">
         <f t="shared" si="5"/>
-        <v>193717505.99623555</v>
+        <v>191250551.567375</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10">
@@ -3107,18 +3107,18 @@
       </c>
       <c r="D82" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E82" s="9">
         <f t="shared" si="9"/>
-        <v>204740549.06952637</v>
+        <v>202153214.99950445</v>
       </c>
       <c r="F82" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G82" s="9">
         <f t="shared" si="5"/>
-        <v>208425878.95277786</v>
+        <v>205791972.86949554</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10">
@@ -3133,18 +3133,18 @@
       </c>
       <c r="D83" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E83" s="9">
         <f t="shared" si="9"/>
-        <v>219448922.02606869</v>
+        <v>216694636.30162498</v>
       </c>
       <c r="F83" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G83" s="9">
         <f t="shared" si="5"/>
-        <v>223399002.62253791</v>
+        <v>220595139.75505424</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10">
@@ -3159,18 +3159,18 @@
       </c>
       <c r="D84" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E84" s="9">
         <f t="shared" si="9"/>
-        <v>234422045.69582874</v>
+        <v>231497803.18718368</v>
       </c>
       <c r="F84" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G84" s="9">
         <f t="shared" si="5"/>
-        <v>238641642.51835364</v>
+        <v>235664763.64455298</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10">
@@ -3185,18 +3185,18 @@
       </c>
       <c r="D85" s="9">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E85" s="9">
         <f t="shared" si="9"/>
-        <v>249664685.59164447</v>
+        <v>246567427.07668242</v>
       </c>
       <c r="F85" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G85" s="9">
         <f t="shared" si="5"/>
-        <v>254158649.93229407</v>
+        <v>251005640.7640627</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="10">
@@ -3211,18 +3211,18 @@
       </c>
       <c r="D86" s="19">
         <f xml:space="preserve"> K75</f>
-        <v>11023043.07329083</v>
+        <v>10902663.432129452</v>
       </c>
       <c r="E86" s="19">
         <f t="shared" si="9"/>
-        <v>265181693.0055849</v>
+        <v>261908304.19619215</v>
       </c>
       <c r="F86" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G86" s="19">
         <f t="shared" si="5"/>
-        <v>269954963.47968543</v>
+        <v>266622653.6717236</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="20">
@@ -3230,26 +3230,26 @@
       </c>
       <c r="J86" s="19">
         <f xml:space="preserve"> (E75 + SUM(D76:D86)) - SUM(I76:I86)</f>
-        <v>229733519.47921249</v>
+        <v>226915790.74831456</v>
       </c>
       <c r="K86" s="19">
         <f xml:space="preserve"> G86 - J86</f>
-        <v>40221444.000472933</v>
+        <v>39706862.923409045</v>
       </c>
       <c r="L86" s="18">
         <v>0.84</v>
       </c>
       <c r="M86" s="19">
         <f xml:space="preserve"> K86 * L86</f>
-        <v>33786012.960397266</v>
+        <v>33353764.855663598</v>
       </c>
       <c r="N86" s="19">
         <f xml:space="preserve"> K86 - M86</f>
-        <v>6435431.0400756672</v>
+        <v>6353098.0677454472</v>
       </c>
       <c r="O86" s="18">
         <f xml:space="preserve"> K86 / J86 * 100</f>
-        <v>17.507869157122446</v>
+        <v>17.498501445168365</v>
       </c>
       <c r="P86" s="19"/>
     </row>
@@ -3265,18 +3265,18 @@
       </c>
       <c r="D87" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E87" s="9">
         <f xml:space="preserve"> (G86 / 2) + D87 - I87</f>
-        <v>148725605.21816295</v>
+        <v>146920604.07218361</v>
       </c>
       <c r="F87" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G87" s="9">
         <f t="shared" si="5"/>
-        <v>151402666.11208987</v>
+        <v>149565174.94548291</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10">
@@ -3284,11 +3284,11 @@
       </c>
       <c r="K87" s="11">
         <f xml:space="preserve"> ((G86 - I87) / 2 / 12) +2500000</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="M87" s="9">
         <f xml:space="preserve"> (G86 / 2 )</f>
-        <v>134977481.73984271</v>
+        <v>133311326.8358618</v>
       </c>
       <c r="P87" s="9"/>
     </row>
@@ -3299,18 +3299,18 @@
       </c>
       <c r="D88" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E88" s="9">
         <f t="shared" ref="E88:E98" si="10" xml:space="preserve"> G87 + D88 - I88</f>
-        <v>165150789.59041011</v>
+        <v>163174452.18180472</v>
       </c>
       <c r="F88" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G88" s="9">
         <f t="shared" si="5"/>
-        <v>168123503.80303749</v>
+        <v>166111592.3210772</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10">
@@ -3325,18 +3325,18 @@
       </c>
       <c r="D89" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E89" s="9">
         <f t="shared" si="10"/>
-        <v>181871627.28135771</v>
+        <v>179720869.557399</v>
       </c>
       <c r="F89" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G89" s="9">
         <f t="shared" si="5"/>
-        <v>185145316.57242215</v>
+        <v>182955845.20943218</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="10">
@@ -3351,18 +3351,18 @@
       </c>
       <c r="D90" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E90" s="9">
         <f t="shared" si="10"/>
-        <v>198893440.05074239</v>
+        <v>196565122.44575399</v>
       </c>
       <c r="F90" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G90" s="9">
         <f t="shared" si="5"/>
-        <v>202473521.97165576</v>
+        <v>200103294.64977756</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="10">
@@ -3377,23 +3377,23 @@
       </c>
       <c r="D91" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E91" s="9">
         <f t="shared" si="10"/>
-        <v>209786214.40990031</v>
+        <v>207359473.81835392</v>
       </c>
       <c r="F91" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="5"/>
-        <v>213562366.26927853</v>
+        <v>211091944.34708428</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="10">
         <f xml:space="preserve"> N86</f>
-        <v>6435431.0400756672</v>
+        <v>6353098.0677454472</v>
       </c>
       <c r="P91" s="9"/>
     </row>
@@ -3404,18 +3404,18 @@
       </c>
       <c r="D92" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E92" s="9">
         <f t="shared" si="10"/>
-        <v>227310489.74759877</v>
+        <v>224701221.58340609</v>
       </c>
       <c r="F92" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G92" s="9">
         <f t="shared" si="5"/>
-        <v>231402078.56305555</v>
+        <v>228745843.5719074</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="10">
@@ -3430,18 +3430,18 @@
       </c>
       <c r="D93" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E93" s="9">
         <f t="shared" si="10"/>
-        <v>245150202.04137576</v>
+        <v>242355120.80822921</v>
       </c>
       <c r="F93" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G93" s="9">
         <f t="shared" si="5"/>
-        <v>249562905.67812052</v>
+        <v>246717512.98277733</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="10">
@@ -3456,18 +3456,18 @@
       </c>
       <c r="D94" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E94" s="9">
         <f t="shared" si="10"/>
-        <v>263311029.15644073</v>
+        <v>260326790.21909913</v>
       </c>
       <c r="F94" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" ref="G94:G157" si="11" xml:space="preserve"> (E94 * F94) + E94</f>
-        <v>268050627.68125668</v>
+        <v>265012672.4430429</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="10">
@@ -3482,18 +3482,18 @@
       </c>
       <c r="D95" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E95" s="9">
         <f t="shared" si="10"/>
-        <v>281798751.15957689</v>
+        <v>278621949.67936474</v>
       </c>
       <c r="F95" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G95" s="9">
         <f t="shared" si="11"/>
-        <v>286871128.68044925</v>
+        <v>283637144.77359331</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="10">
@@ -3508,18 +3508,18 @@
       </c>
       <c r="D96" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E96" s="9">
         <f t="shared" si="10"/>
-        <v>300619252.15876949</v>
+        <v>297246422.00991511</v>
       </c>
       <c r="F96" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="11"/>
-        <v>306030398.69762737</v>
+        <v>302596857.60609359</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="10">
@@ -3534,18 +3534,18 @@
       </c>
       <c r="D97" s="9">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E97" s="9">
         <f t="shared" si="10"/>
-        <v>319778522.17594761</v>
+        <v>316206134.84241539</v>
       </c>
       <c r="F97" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G97" s="9">
         <f t="shared" si="11"/>
-        <v>325534535.57511467</v>
+        <v>321897845.26957887</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="10">
@@ -3560,18 +3560,18 @@
       </c>
       <c r="D98" s="19">
         <f xml:space="preserve"> K87</f>
-        <v>13748123.478320226</v>
+        <v>13609277.236321816</v>
       </c>
       <c r="E98" s="19">
         <f t="shared" si="10"/>
-        <v>339282659.05343491</v>
+        <v>335507122.50590068</v>
       </c>
       <c r="F98" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G98" s="19">
         <f t="shared" si="11"/>
-        <v>345389746.91639674</v>
+        <v>341546250.71100688</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="20">
@@ -3579,26 +3579,26 @@
       </c>
       <c r="J98" s="19">
         <f xml:space="preserve"> (E87 + SUM(D88:D98)) - SUM(I88:I98)</f>
-        <v>293519532.43960977</v>
+        <v>290269555.60397816</v>
       </c>
       <c r="K98" s="19">
         <f xml:space="preserve"> G98 - J98</f>
-        <v>51870214.476786971</v>
+        <v>51276695.107028723</v>
       </c>
       <c r="L98" s="18">
         <v>0.84</v>
       </c>
       <c r="M98" s="19">
         <f xml:space="preserve"> K98 * L98</f>
-        <v>43570980.160501055</v>
+        <v>43072423.889904127</v>
       </c>
       <c r="N98" s="19">
         <f xml:space="preserve"> K98 - M98</f>
-        <v>8299234.3162859157</v>
+        <v>8204271.2171245962</v>
       </c>
       <c r="O98" s="18">
         <f xml:space="preserve"> K98 / J98 * 100</f>
-        <v>17.671810133269076</v>
+        <v>17.665199163010666</v>
       </c>
       <c r="P98" s="19"/>
     </row>
@@ -3614,18 +3614,18 @@
       </c>
       <c r="D99" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E99" s="9">
         <f xml:space="preserve"> (G98 / 2) + D99 - I99</f>
-        <v>189586112.91304824</v>
+        <v>187504219.13512874</v>
       </c>
       <c r="F99" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G99" s="9">
         <f t="shared" si="11"/>
-        <v>192998662.94548312</v>
+        <v>190879295.07956105</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="10">
@@ -3633,11 +3633,11 @@
       </c>
       <c r="K99" s="11">
         <f xml:space="preserve"> ((G98 - I99) / 2 / 12) +2500000</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="M99" s="9">
         <f xml:space="preserve"> (G98 / 2 )</f>
-        <v>172694873.45819837</v>
+        <v>170773125.35550344</v>
       </c>
       <c r="P99" s="9"/>
     </row>
@@ -3648,18 +3648,18 @@
       </c>
       <c r="D100" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E100" s="9">
         <f t="shared" ref="E100:E110" si="12" xml:space="preserve"> G99 + D100 - I100</f>
-        <v>209889902.40033299</v>
+        <v>207610388.85918635</v>
       </c>
       <c r="F100" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G100" s="9">
         <f t="shared" si="11"/>
-        <v>213667920.64353898</v>
+        <v>211347375.8586517</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="10">
@@ -3674,18 +3674,18 @@
       </c>
       <c r="D101" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E101" s="9">
         <f t="shared" si="12"/>
-        <v>230559160.09838885</v>
+        <v>228078469.63827699</v>
       </c>
       <c r="F101" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G101" s="9">
         <f t="shared" si="11"/>
-        <v>234709224.98015985</v>
+        <v>232183882.09176597</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="10">
@@ -3700,18 +3700,18 @@
       </c>
       <c r="D102" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E102" s="9">
         <f t="shared" si="12"/>
-        <v>251600464.43500972</v>
+        <v>248914975.87139127</v>
       </c>
       <c r="F102" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G102" s="9">
         <f t="shared" si="11"/>
-        <v>256129272.79483989</v>
+        <v>253395445.4370763</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="10">
@@ -3726,23 +3726,23 @@
       </c>
       <c r="D103" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E103" s="9">
         <f t="shared" si="12"/>
-        <v>264721277.93340385</v>
+        <v>261922267.99957699</v>
       </c>
       <c r="F103" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="11"/>
-        <v>269486260.93620515</v>
+        <v>266636868.82356936</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="10">
         <f xml:space="preserve"> N98</f>
-        <v>8299234.3162859157</v>
+        <v>8204271.2171245962</v>
       </c>
       <c r="P103" s="9"/>
     </row>
@@ -3753,18 +3753,18 @@
       </c>
       <c r="D104" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E104" s="9">
         <f t="shared" si="12"/>
-        <v>286377500.39105499</v>
+        <v>283367962.60319465</v>
       </c>
       <c r="F104" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="11"/>
-        <v>291532295.398094</v>
+        <v>288468585.93005216</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="10">
@@ -3779,18 +3779,18 @@
       </c>
       <c r="D105" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E105" s="9">
         <f t="shared" si="12"/>
-        <v>308423534.85294384</v>
+        <v>305199679.70967746</v>
       </c>
       <c r="F105" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G105" s="9">
         <f t="shared" si="11"/>
-        <v>313975158.48029685</v>
+        <v>310693273.94445163</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="10">
@@ -3805,18 +3805,18 @@
       </c>
       <c r="D106" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E106" s="9">
         <f t="shared" si="12"/>
-        <v>330866397.93514669</v>
+        <v>327424367.72407693</v>
       </c>
       <c r="F106" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G106" s="9">
         <f t="shared" si="11"/>
-        <v>336821993.09797931</v>
+        <v>333318006.34311032</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="10">
@@ -3831,18 +3831,18 @@
       </c>
       <c r="D107" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E107" s="9">
         <f t="shared" si="12"/>
-        <v>353713232.55282915</v>
+        <v>350049100.12273562</v>
       </c>
       <c r="F107" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G107" s="9">
         <f t="shared" si="11"/>
-        <v>360080070.73878008</v>
+        <v>356349983.92494488</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="10">
@@ -3857,18 +3857,18 @@
       </c>
       <c r="D108" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E108" s="9">
         <f t="shared" si="12"/>
-        <v>376971310.19362992</v>
+        <v>373081077.70457017</v>
       </c>
       <c r="F108" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G108" s="9">
         <f t="shared" si="11"/>
-        <v>383756793.77711529</v>
+        <v>379796537.10325241</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="10">
@@ -3883,18 +3883,18 @@
       </c>
       <c r="D109" s="9">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E109" s="9">
         <f t="shared" si="12"/>
-        <v>400648033.23196512</v>
+        <v>396527630.88287771</v>
       </c>
       <c r="F109" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G109" s="9">
         <f t="shared" si="11"/>
-        <v>407859697.83014047</v>
+        <v>403665128.23876953</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="10">
@@ -3909,18 +3909,18 @@
       </c>
       <c r="D110" s="19">
         <f>K99</f>
-        <v>16891239.454849862</v>
+        <v>16731093.779625287</v>
       </c>
       <c r="E110" s="19">
         <f t="shared" si="12"/>
-        <v>424750937.28499031</v>
+        <v>420396222.01839483</v>
       </c>
       <c r="F110" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G110" s="19">
         <f t="shared" si="11"/>
-        <v>432396454.15612012</v>
+        <v>427963354.01472592</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="20">
@@ -3928,26 +3928,26 @@
       </c>
       <c r="J110" s="19">
         <f xml:space="preserve"> (E99 + SUM(D100:D110)) - SUM(I100:I110)</f>
-        <v>367090512.60011083</v>
+        <v>363341979.4938823</v>
       </c>
       <c r="K110" s="19">
         <f xml:space="preserve"> G110 - J110</f>
-        <v>65305941.556009293</v>
+        <v>64621374.520843625</v>
       </c>
       <c r="L110" s="18">
         <v>0.84</v>
       </c>
       <c r="M110" s="19">
         <f xml:space="preserve"> K110 * L110</f>
-        <v>54856990.907047801</v>
+        <v>54281954.597508647</v>
       </c>
       <c r="N110" s="19">
         <f xml:space="preserve"> K110 - M110</f>
-        <v>10448950.648961492</v>
+        <v>10339419.923334979</v>
       </c>
       <c r="O110" s="18">
         <f xml:space="preserve"> K110 / J110 * 100</f>
-        <v>17.790146929553082</v>
+        <v>17.785276177241631</v>
       </c>
       <c r="P110" s="19"/>
     </row>
@@ -3963,18 +3963,18 @@
       </c>
       <c r="D111" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E111" s="9">
         <f xml:space="preserve"> (G110 / 2) + D111 - I111</f>
-        <v>236714746.00123173</v>
+        <v>234313483.42464322</v>
       </c>
       <c r="F111" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G111" s="9">
         <f t="shared" si="11"/>
-        <v>240975611.42925391</v>
+        <v>238531126.1262868</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="10">
@@ -3982,11 +3982,11 @@
       </c>
       <c r="K111" s="11">
         <f xml:space="preserve"> ((G110 - I111) / 2 / 12) +2500000</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="M111" s="9">
         <f xml:space="preserve"> (G110 / 2 )</f>
-        <v>216198227.07806006</v>
+        <v>213981677.00736296</v>
       </c>
       <c r="P111" s="9"/>
     </row>
@@ -3997,18 +3997,18 @@
       </c>
       <c r="D112" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E112" s="9">
         <f t="shared" ref="E112:E122" si="13" xml:space="preserve"> G111 + D112 - I112</f>
-        <v>261492130.35242558</v>
+        <v>258862932.54356706</v>
       </c>
       <c r="F112" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G112" s="9">
         <f t="shared" si="11"/>
-        <v>266198988.69876924</v>
+        <v>263522465.32935128</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="10">
@@ -4023,18 +4023,18 @@
       </c>
       <c r="D113" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E113" s="9">
         <f t="shared" si="13"/>
-        <v>286715507.62194091</v>
+        <v>283854271.7466315</v>
       </c>
       <c r="F113" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G113" s="9">
         <f t="shared" si="11"/>
-        <v>291876386.75913584</v>
+        <v>288963648.63807088</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="10">
@@ -4049,18 +4049,18 @@
       </c>
       <c r="D114" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E114" s="9">
         <f t="shared" si="13"/>
-        <v>312392905.68230754</v>
+        <v>309295455.05535114</v>
       </c>
       <c r="F114" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G114" s="9">
         <f t="shared" si="11"/>
-        <v>318015977.9845891</v>
+        <v>314862773.24634749</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="10">
@@ -4075,23 +4075,23 @@
       </c>
       <c r="D115" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E115" s="9">
         <f t="shared" si="13"/>
-        <v>328083546.25879931</v>
+        <v>324855159.74029279</v>
       </c>
       <c r="F115" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G115" s="9">
         <f t="shared" si="11"/>
-        <v>333989050.09145772</v>
+        <v>330702552.61561805</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="10">
         <f xml:space="preserve"> N110</f>
-        <v>10448950.648961492</v>
+        <v>10339419.923334979</v>
       </c>
       <c r="P115" s="9"/>
     </row>
@@ -4102,18 +4102,18 @@
       </c>
       <c r="D116" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E116" s="9">
         <f t="shared" si="13"/>
-        <v>354505569.01462942</v>
+        <v>351034359.03289831</v>
       </c>
       <c r="F116" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="11"/>
-        <v>360886669.25689274</v>
+        <v>357352977.49549049</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="10">
@@ -4128,18 +4128,18 @@
       </c>
       <c r="D117" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E117" s="9">
         <f t="shared" si="13"/>
-        <v>381403188.18006444</v>
+        <v>377684783.91277075</v>
       </c>
       <c r="F117" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G117" s="9">
         <f t="shared" si="11"/>
-        <v>388268445.56730562</v>
+        <v>384483110.02320063</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="10">
@@ -4154,18 +4154,18 @@
       </c>
       <c r="D118" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E118" s="9">
         <f t="shared" si="13"/>
-        <v>408784964.49047732</v>
+        <v>404814916.44048089</v>
       </c>
       <c r="F118" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G118" s="9">
         <f t="shared" si="11"/>
-        <v>416143093.8513059</v>
+        <v>412101584.93640953</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="10">
@@ -4180,18 +4180,18 @@
       </c>
       <c r="D119" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E119" s="9">
         <f t="shared" si="13"/>
-        <v>436659612.7744776</v>
+        <v>432433391.35368979</v>
       </c>
       <c r="F119" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G119" s="9">
         <f t="shared" si="11"/>
-        <v>444519485.80441821</v>
+        <v>440217192.39805621</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="10">
@@ -4206,18 +4206,18 @@
       </c>
       <c r="D120" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E120" s="9">
         <f t="shared" si="13"/>
-        <v>465036004.72758991</v>
+        <v>460548998.81533647</v>
       </c>
       <c r="F120" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G120" s="9">
         <f t="shared" si="11"/>
-        <v>473406652.8126865</v>
+        <v>468838880.79401255</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="10">
@@ -4232,18 +4232,18 @@
       </c>
       <c r="D121" s="9">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E121" s="9">
         <f t="shared" si="13"/>
-        <v>493923171.7358582</v>
+        <v>489170687.2112928</v>
       </c>
       <c r="F121" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G121" s="9">
         <f t="shared" si="11"/>
-        <v>502813788.82710367</v>
+        <v>497975759.58109605</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="10">
@@ -4258,18 +4258,18 @@
       </c>
       <c r="D122" s="19">
         <f>K111</f>
-        <v>20516518.923171673</v>
+        <v>20331806.417280246</v>
       </c>
       <c r="E122" s="19">
         <f t="shared" si="13"/>
-        <v>523330307.75027537</v>
+        <v>518307565.99837631</v>
       </c>
       <c r="F122" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G122" s="19">
         <f t="shared" si="11"/>
-        <v>532750253.28978032</v>
+        <v>527637102.18634707</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="20">
@@ -4277,26 +4277,26 @@
       </c>
       <c r="J122" s="19">
         <f xml:space="preserve"> (E111 + SUM(D112:D122)) - SUM(I112:I122)</f>
-        <v>451947503.50715864</v>
+        <v>447623934.09139097</v>
       </c>
       <c r="K122" s="19">
         <f xml:space="preserve"> G122 - J122</f>
-        <v>80802749.782621682</v>
+        <v>80013168.0949561</v>
       </c>
       <c r="L122" s="18">
         <v>0.84</v>
       </c>
       <c r="M122" s="19">
         <f xml:space="preserve"> K122 * L122</f>
-        <v>67874309.817402214</v>
+        <v>67211061.199763119</v>
       </c>
       <c r="N122" s="19">
         <f xml:space="preserve"> K122 - M122</f>
-        <v>12928439.965219468</v>
+        <v>12802106.895192981</v>
       </c>
       <c r="O122" s="18">
         <f xml:space="preserve"> K122 / J122 * 100</f>
-        <v>17.87879104444302</v>
+        <v>17.875087099033422</v>
       </c>
       <c r="P122" s="19"/>
     </row>
@@ -4312,28 +4312,28 @@
       </c>
       <c r="D123" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E123" s="9">
         <f xml:space="preserve"> (G122 / 2) + D123 - I123</f>
-        <v>291073053.86529768</v>
+        <v>288303430.35093802</v>
       </c>
       <c r="F123" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="11"/>
-        <v>296312368.83487302</v>
+        <v>293492892.09725493</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="10"/>
       <c r="K123" s="11">
         <f xml:space="preserve"> ((G122 - I123) / 2 / 12) +2500000</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="M123" s="9">
         <f xml:space="preserve"> (G122 / 2 )</f>
-        <v>266375126.64489016</v>
+        <v>263818551.09317353</v>
       </c>
       <c r="P123" s="9"/>
     </row>
@@ -4344,18 +4344,18 @@
       </c>
       <c r="D124" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E124" s="9">
         <f t="shared" ref="E124:E134" si="14" xml:space="preserve"> G123 + D124 - I124</f>
-        <v>321010296.05528051</v>
+        <v>317977771.35501939</v>
       </c>
       <c r="F124" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G124" s="9">
         <f t="shared" si="11"/>
-        <v>326788481.38427556</v>
+        <v>323701371.23940974</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="10"/>
@@ -4368,18 +4368,18 @@
       </c>
       <c r="D125" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E125" s="9">
         <f t="shared" si="14"/>
-        <v>351486408.60468304</v>
+        <v>348186250.4971742</v>
       </c>
       <c r="F125" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G125" s="9">
         <f t="shared" si="11"/>
-        <v>357813163.95956731</v>
+        <v>354453603.00612336</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="10"/>
@@ -4392,18 +4392,18 @@
       </c>
       <c r="D126" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E126" s="9">
         <f t="shared" si="14"/>
-        <v>382511091.17997479</v>
+        <v>378938482.26388782</v>
       </c>
       <c r="F126" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G126" s="9">
         <f t="shared" si="11"/>
-        <v>389396290.82121432</v>
+        <v>385759374.94463778</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="10"/>
@@ -4416,23 +4416,23 @@
       </c>
       <c r="D127" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E127" s="9">
         <f t="shared" si="14"/>
-        <v>401165778.07640231</v>
+        <v>397442147.30720925</v>
       </c>
       <c r="F127" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G127" s="9">
         <f t="shared" si="11"/>
-        <v>408386762.08177757</v>
+        <v>404596105.95873904</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="10">
         <f xml:space="preserve"> N122</f>
-        <v>12928439.965219468</v>
+        <v>12802106.895192981</v>
       </c>
       <c r="P127" s="9"/>
     </row>
@@ -4443,18 +4443,18 @@
       </c>
       <c r="D128" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E128" s="9">
         <f t="shared" si="14"/>
-        <v>433084689.30218506</v>
+        <v>429080985.2165035</v>
       </c>
       <c r="F128" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G128" s="9">
         <f t="shared" si="11"/>
-        <v>440880213.70962441</v>
+        <v>436804442.95040059</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="10"/>
@@ -4467,18 +4467,18 @@
       </c>
       <c r="D129" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E129" s="9">
         <f t="shared" si="14"/>
-        <v>465578140.9300319</v>
+        <v>461289322.20816505</v>
       </c>
       <c r="F129" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G129" s="9">
         <f t="shared" si="11"/>
-        <v>473958547.4667725</v>
+        <v>469592530.00791204</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="10"/>
@@ -4491,18 +4491,18 @@
       </c>
       <c r="D130" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E130" s="9">
         <f t="shared" si="14"/>
-        <v>498656474.68717998</v>
+        <v>494077409.2656765</v>
       </c>
       <c r="F130" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G130" s="9">
         <f t="shared" si="11"/>
-        <v>507632291.2315492</v>
+        <v>502970802.63245869</v>
       </c>
       <c r="H130" s="9"/>
       <c r="I130" s="10"/>
@@ -4515,18 +4515,18 @@
       </c>
       <c r="D131" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E131" s="9">
         <f t="shared" si="14"/>
-        <v>532330218.45195669</v>
+        <v>527455681.89022315</v>
       </c>
       <c r="F131" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G131" s="9">
         <f t="shared" si="11"/>
-        <v>541912162.38409185</v>
+        <v>536949884.16424716</v>
       </c>
       <c r="H131" s="9"/>
       <c r="I131" s="10"/>
@@ -4539,18 +4539,18 @@
       </c>
       <c r="D132" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E132" s="9">
         <f t="shared" si="14"/>
-        <v>566610089.60449934</v>
+        <v>561434763.42201161</v>
       </c>
       <c r="F132" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G132" s="9">
         <f t="shared" si="11"/>
-        <v>576809071.21738029</v>
+        <v>571540589.16360784</v>
       </c>
       <c r="H132" s="9"/>
       <c r="I132" s="10"/>
@@ -4563,18 +4563,18 @@
       </c>
       <c r="D133" s="9">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E133" s="9">
         <f t="shared" si="14"/>
-        <v>601506998.43778777</v>
+        <v>596025468.42137229</v>
       </c>
       <c r="F133" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G133" s="9">
         <f t="shared" si="11"/>
-        <v>612334124.40966797</v>
+        <v>606753926.85295701</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="10"/>
@@ -4587,18 +4587,18 @@
       </c>
       <c r="D134" s="19">
         <f>K123</f>
-        <v>24697927.220407512</v>
+        <v>24484879.257764462</v>
       </c>
       <c r="E134" s="19">
         <f t="shared" si="14"/>
-        <v>601032051.63007545</v>
+        <v>595238806.11072147</v>
       </c>
       <c r="F134" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G134" s="19">
         <f t="shared" si="11"/>
-        <v>611850628.55941677</v>
+        <v>605953104.62071443</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="24">
@@ -4606,26 +4606,26 @@
       </c>
       <c r="J134" s="19">
         <f xml:space="preserve"> (E123 + SUM(D124:D134)) - SUM(I124:I134)</f>
-        <v>513821813.32456088</v>
+        <v>508834995.29115415</v>
       </c>
       <c r="K134" s="19">
         <f xml:space="preserve"> G134 - J134</f>
-        <v>98028815.23485589</v>
+        <v>97118109.32956028</v>
       </c>
       <c r="L134" s="18">
         <v>0.84</v>
       </c>
       <c r="M134" s="19">
         <f xml:space="preserve"> K134 * L134</f>
-        <v>82344204.797278941</v>
+        <v>81579211.836830631</v>
       </c>
       <c r="N134" s="19">
         <f xml:space="preserve"> K134 - M134</f>
-        <v>15684610.43757695</v>
+        <v>15538897.492729649</v>
       </c>
       <c r="O134" s="18">
         <f xml:space="preserve"> K134 / J134 * 100</f>
-        <v>19.078367771228695</v>
+        <v>19.086365959163153</v>
       </c>
       <c r="P134" s="19"/>
     </row>
@@ -4641,18 +4641,18 @@
       </c>
       <c r="D135" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E135" s="13">
         <f xml:space="preserve"> (G134 / 2) + D135 - I135</f>
-        <v>331419090.46968406</v>
+        <v>328224598.33622032</v>
       </c>
       <c r="F135" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G135" s="13">
         <f t="shared" si="11"/>
-        <v>337384634.09813839</v>
+        <v>334132641.10627228</v>
       </c>
       <c r="H135" s="13"/>
       <c r="I135" s="14">
@@ -4660,11 +4660,11 @@
       </c>
       <c r="K135" s="15">
         <f xml:space="preserve"> ((G134 - I135) / 2 / 12)</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="M135" s="13">
         <f xml:space="preserve"> (G134 - I135) / 2</f>
-        <v>305925314.27970839</v>
+        <v>302976552.31035721</v>
       </c>
       <c r="N135" s="16" t="s">
         <v>0</v>
@@ -4678,18 +4678,18 @@
       </c>
       <c r="D136" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E136" s="13">
         <f t="shared" ref="E136:E146" si="15" xml:space="preserve"> G135 + D136 - I136</f>
-        <v>362878410.28811407</v>
+        <v>359380687.13213539</v>
       </c>
       <c r="F136" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G136" s="13">
         <f t="shared" si="11"/>
-        <v>369410221.67330015</v>
+        <v>365849539.50051385</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="14"/>
@@ -4702,18 +4702,18 @@
       </c>
       <c r="D137" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E137" s="13">
         <f t="shared" si="15"/>
-        <v>394903997.86327583</v>
+        <v>391097585.52637696</v>
       </c>
       <c r="F137" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G137" s="13">
         <f t="shared" si="11"/>
-        <v>402012269.8248148</v>
+        <v>398137342.06585175</v>
       </c>
       <c r="H137" s="13"/>
       <c r="I137" s="14"/>
@@ -4726,18 +4726,18 @@
       </c>
       <c r="D138" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E138" s="13">
         <f t="shared" si="15"/>
-        <v>427506046.01479048</v>
+        <v>423385388.09171486</v>
       </c>
       <c r="F138" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G138" s="13">
         <f t="shared" si="11"/>
-        <v>435201154.84305668</v>
+        <v>431006325.07736576</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="14"/>
@@ -4750,23 +4750,23 @@
       </c>
       <c r="D139" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E139" s="13">
         <f t="shared" si="15"/>
-        <v>445010320.59545541</v>
+        <v>440715473.6104992</v>
       </c>
       <c r="F139" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G139" s="13">
         <f t="shared" si="11"/>
-        <v>453020506.36617362</v>
+        <v>448648352.13548821</v>
       </c>
       <c r="H139" s="13"/>
       <c r="I139" s="14">
         <f xml:space="preserve"> N134</f>
-        <v>15684610.43757695</v>
+        <v>15538897.492729649</v>
       </c>
       <c r="P139" s="13"/>
     </row>
@@ -4777,18 +4777,18 @@
       </c>
       <c r="D140" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E140" s="13">
         <f t="shared" si="15"/>
-        <v>478514282.5561493</v>
+        <v>473896398.16135132</v>
       </c>
       <c r="F140" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G140" s="13">
         <f t="shared" si="11"/>
-        <v>487127539.64216</v>
+        <v>482426533.32825565</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="14"/>
@@ -4801,18 +4801,18 @@
       </c>
       <c r="D141" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E141" s="13">
         <f t="shared" si="15"/>
-        <v>512621315.83213568</v>
+        <v>507674579.35411876</v>
       </c>
       <c r="F141" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G141" s="13">
         <f t="shared" si="11"/>
-        <v>521848499.5171141</v>
+        <v>516812721.78249288</v>
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="14"/>
@@ -4825,18 +4825,18 @@
       </c>
       <c r="D142" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E142" s="13">
         <f t="shared" si="15"/>
-        <v>547342275.70708978</v>
+        <v>542060767.80835593</v>
       </c>
       <c r="F142" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G142" s="13">
         <f t="shared" si="11"/>
-        <v>557194436.66981745</v>
+        <v>551817861.62890637</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="14"/>
@@ -4849,18 +4849,18 @@
       </c>
       <c r="D143" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E143" s="13">
         <f t="shared" si="15"/>
-        <v>582688212.85979319</v>
+        <v>577065907.65476942</v>
       </c>
       <c r="F143" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G143" s="13">
         <f t="shared" si="11"/>
-        <v>593176600.69126952</v>
+        <v>587453093.99255526</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="14"/>
@@ -4873,18 +4873,18 @@
       </c>
       <c r="D144" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E144" s="13">
         <f t="shared" si="15"/>
-        <v>618670376.88124526</v>
+        <v>612701140.01841831</v>
       </c>
       <c r="F144" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G144" s="13">
         <f t="shared" si="11"/>
-        <v>629806443.66510773</v>
+        <v>623729760.53874981</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="14"/>
@@ -4897,18 +4897,18 @@
       </c>
       <c r="D145" s="13">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E145" s="13">
         <f t="shared" si="15"/>
-        <v>655300219.85508347</v>
+        <v>648977806.56461287</v>
       </c>
       <c r="F145" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G145" s="13">
         <f t="shared" si="11"/>
-        <v>667095623.81247497</v>
+        <v>660659407.08277595</v>
       </c>
       <c r="H145" s="13"/>
       <c r="I145" s="14"/>
@@ -4921,18 +4921,18 @@
       </c>
       <c r="D146" s="19">
         <f>K135</f>
-        <v>25493776.189975698</v>
+        <v>25248046.0258631</v>
       </c>
       <c r="E146" s="19">
         <f t="shared" si="15"/>
-        <v>656589400.0024507</v>
+        <v>649907453.108639</v>
       </c>
       <c r="F146" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G146" s="19">
         <f t="shared" si="11"/>
-        <v>668408009.20249486</v>
+        <v>661605787.26459455</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="24">
@@ -4940,26 +4940,26 @@
       </c>
       <c r="J146" s="19">
         <f xml:space="preserve"> (E135 + SUM(D136:D146)) - SUM(I136:I146)</f>
-        <v>560166018.12183976</v>
+        <v>554414207.12798476</v>
       </c>
       <c r="K146" s="19">
         <f xml:space="preserve"> G146 - J146</f>
-        <v>108241991.0806551</v>
+        <v>107191580.13660979</v>
       </c>
       <c r="L146" s="18">
         <v>0.84</v>
       </c>
       <c r="M146" s="19">
         <f xml:space="preserve"> K146 * L146</f>
-        <v>90923272.507750273</v>
+        <v>90040927.314752221</v>
       </c>
       <c r="N146" s="19">
         <f xml:space="preserve"> K146 - M146</f>
-        <v>17318718.572904825</v>
+        <v>17150652.821857572</v>
       </c>
       <c r="O146" s="18">
         <f xml:space="preserve"> K146 / J146 * 100</f>
-        <v>19.323198405282728</v>
+        <v>19.334205140934451</v>
       </c>
       <c r="P146" s="19"/>
     </row>
@@ -4975,28 +4975,28 @@
       </c>
       <c r="D147" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E147" s="13">
         <f xml:space="preserve"> (G146 / 2) + D147 - I147</f>
-        <v>362054338.31801808</v>
+        <v>358369801.43498874</v>
       </c>
       <c r="F147" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G147" s="13">
         <f t="shared" si="11"/>
-        <v>368571316.40774238</v>
+        <v>364820457.86081851</v>
       </c>
       <c r="H147" s="13"/>
       <c r="I147" s="14"/>
       <c r="K147" s="15">
         <f xml:space="preserve"> ((G146 - I147) / 2 / 12)</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="M147" s="9">
         <f xml:space="preserve"> (G146 - I147) / 2</f>
-        <v>334204004.60124743</v>
+        <v>330802893.63229728</v>
       </c>
       <c r="P147" s="13"/>
     </row>
@@ -5007,18 +5007,18 @@
       </c>
       <c r="D148" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E148" s="13">
         <f t="shared" ref="E148:E158" si="16" xml:space="preserve"> G147 + D148 - I148</f>
-        <v>396421650.12451303</v>
+        <v>392387365.66350996</v>
       </c>
       <c r="F148" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G148" s="13">
         <f t="shared" si="11"/>
-        <v>403557239.82675427</v>
+        <v>399450338.24545312</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="14"/>
@@ -5031,18 +5031,18 @@
       </c>
       <c r="D149" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E149" s="13">
         <f t="shared" si="16"/>
-        <v>431407573.54352486</v>
+        <v>427017246.04814458</v>
       </c>
       <c r="F149" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G149" s="13">
         <f t="shared" si="11"/>
-        <v>439172909.86730832</v>
+        <v>434703556.4770112</v>
       </c>
       <c r="H149" s="13"/>
       <c r="I149" s="14"/>
@@ -5055,18 +5055,18 @@
       </c>
       <c r="D150" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E150" s="13">
         <f t="shared" si="16"/>
-        <v>467023243.58407891</v>
+        <v>462270464.27970266</v>
       </c>
       <c r="F150" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G150" s="13">
         <f t="shared" si="11"/>
-        <v>475429661.96859235</v>
+        <v>470591332.63673729</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="14"/>
@@ -5079,23 +5079,23 @@
       </c>
       <c r="D151" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E151" s="13">
         <f t="shared" si="16"/>
-        <v>485961277.11245811</v>
+        <v>481007587.61757118</v>
       </c>
       <c r="F151" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G151" s="13">
         <f t="shared" si="11"/>
-        <v>494708580.10048234</v>
+        <v>489665724.19468749</v>
       </c>
       <c r="H151" s="13"/>
       <c r="I151" s="14">
         <f xml:space="preserve"> N146</f>
-        <v>17318718.572904825</v>
+        <v>17150652.821857572</v>
       </c>
       <c r="P151" s="13"/>
     </row>
@@ -5106,18 +5106,18 @@
       </c>
       <c r="D152" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E152" s="13">
         <f t="shared" si="16"/>
-        <v>522558913.81725299</v>
+        <v>517232631.99737895</v>
       </c>
       <c r="F152" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G152" s="13">
         <f t="shared" si="11"/>
-        <v>531964974.26596355</v>
+        <v>526542819.37333179</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="14"/>
@@ -5130,18 +5130,18 @@
       </c>
       <c r="D153" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E153" s="13">
         <f t="shared" si="16"/>
-        <v>559815307.9827342</v>
+        <v>554109727.17602324</v>
       </c>
       <c r="F153" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G153" s="13">
         <f t="shared" si="11"/>
-        <v>569891983.52642345</v>
+        <v>564083702.26519167</v>
       </c>
       <c r="H153" s="13"/>
       <c r="I153" s="14"/>
@@ -5154,18 +5154,18 @@
       </c>
       <c r="D154" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E154" s="13">
         <f t="shared" si="16"/>
-        <v>597742317.2431941</v>
+        <v>591650610.06788313</v>
       </c>
       <c r="F154" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G154" s="13">
         <f t="shared" si="11"/>
-        <v>608501678.95357156</v>
+        <v>602300321.04910505</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="14"/>
@@ -5178,18 +5178,18 @@
       </c>
       <c r="D155" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E155" s="13">
         <f t="shared" si="16"/>
-        <v>636352012.67034221</v>
+        <v>629867228.85179651</v>
       </c>
       <c r="F155" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G155" s="13">
         <f t="shared" si="11"/>
-        <v>647806348.89840841</v>
+        <v>641204838.97112882</v>
       </c>
       <c r="H155" s="13"/>
       <c r="I155" s="14"/>
@@ -5202,18 +5202,18 @@
       </c>
       <c r="D156" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E156" s="13">
         <f t="shared" si="16"/>
-        <v>675656682.61517906</v>
+        <v>668771746.77382028</v>
       </c>
       <c r="F156" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G156" s="13">
         <f t="shared" si="11"/>
-        <v>687818502.90225232</v>
+        <v>680809638.21574903</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="14"/>
@@ -5226,18 +5226,18 @@
       </c>
       <c r="D157" s="13">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E157" s="13">
         <f t="shared" si="16"/>
-        <v>715668836.61902297</v>
+        <v>708376546.01844049</v>
       </c>
       <c r="F157" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G157" s="13">
         <f t="shared" si="11"/>
-        <v>728550875.67816544</v>
+        <v>721127323.84677243</v>
       </c>
       <c r="H157" s="13"/>
       <c r="I157" s="14"/>
@@ -5250,18 +5250,18 @@
       </c>
       <c r="D158" s="19">
         <f>K147</f>
-        <v>27850333.716770619</v>
+        <v>27566907.802691441</v>
       </c>
       <c r="E158" s="19">
         <f t="shared" si="16"/>
-        <v>720401209.39493608</v>
+        <v>712694231.64946389</v>
       </c>
       <c r="F158" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G158" s="19">
         <f t="shared" ref="G158:G221" si="17" xml:space="preserve"> (E158 * F158) + E158</f>
-        <v>733368431.16404498</v>
+        <v>725522727.81915426</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="24">
@@ -5269,26 +5269,26 @@
       </c>
       <c r="J158" s="19">
         <f xml:space="preserve"> (E147 + SUM(D148:D158)) - SUM(I148:I158)</f>
-        <v>615089290.62959003</v>
+        <v>608455134.44273698</v>
       </c>
       <c r="K158" s="19">
         <f xml:space="preserve"> G158 - J158</f>
-        <v>118279140.53445494</v>
+        <v>117067593.37641728</v>
       </c>
       <c r="L158" s="18">
         <v>0.84</v>
       </c>
       <c r="M158" s="19">
         <f xml:space="preserve"> K158 * L158</f>
-        <v>99354478.048942149</v>
+        <v>98336778.436190516</v>
       </c>
       <c r="N158" s="19">
         <f xml:space="preserve"> K158 - M158</f>
-        <v>18924662.485512793</v>
+        <v>18730814.940226763</v>
       </c>
       <c r="O158" s="18">
         <f xml:space="preserve"> K158 / J158 * 100</f>
-        <v>19.229588668888603</v>
+        <v>19.240135673049327</v>
       </c>
       <c r="P158" s="19"/>
     </row>
@@ -5304,28 +5304,28 @@
       </c>
       <c r="D159" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E159" s="13">
         <f xml:space="preserve"> (G158 / 2) + D159 - I159</f>
-        <v>397241233.54719102</v>
+        <v>392991477.56870854</v>
       </c>
       <c r="F159" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G159" s="13">
         <f t="shared" si="17"/>
-        <v>404391575.75104046</v>
+        <v>400065324.1649453</v>
       </c>
       <c r="H159" s="13"/>
       <c r="I159" s="14"/>
       <c r="K159" s="15">
         <f xml:space="preserve"> ((G158 - I159) / 2 / 12)</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="M159" s="9">
         <f xml:space="preserve"> (G158 - I159) / 2</f>
-        <v>366684215.58202249</v>
+        <v>362761363.90957713</v>
       </c>
       <c r="P159" s="13"/>
     </row>
@@ -5336,18 +5336,18 @@
       </c>
       <c r="D160" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E160" s="13">
         <f t="shared" ref="E160:E170" si="18" xml:space="preserve"> G159 + D160 - I160</f>
-        <v>434948593.71620899</v>
+        <v>430295437.82407671</v>
       </c>
       <c r="F160" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G160" s="13">
         <f t="shared" si="17"/>
-        <v>442777668.40310073</v>
+        <v>438040755.7049101</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="14"/>
@@ -5360,18 +5360,18 @@
       </c>
       <c r="D161" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E161" s="13">
         <f t="shared" si="18"/>
-        <v>473334686.36826926</v>
+        <v>468270869.36404151</v>
       </c>
       <c r="F161" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G161" s="13">
         <f t="shared" si="17"/>
-        <v>481854710.72289813</v>
+        <v>476699745.01259422</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="14"/>
@@ -5384,18 +5384,18 @@
       </c>
       <c r="D162" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E162" s="13">
         <f t="shared" si="18"/>
-        <v>512411728.68806666</v>
+        <v>506929858.67172563</v>
       </c>
       <c r="F162" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G162" s="13">
         <f t="shared" si="17"/>
-        <v>521635139.80445188</v>
+        <v>516054596.12781668</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="14"/>
@@ -5408,23 +5408,23 @@
       </c>
       <c r="D163" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E163" s="13">
         <f t="shared" si="18"/>
-        <v>533267495.28410763</v>
+        <v>527553894.84672129</v>
       </c>
       <c r="F163" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G163" s="13">
         <f t="shared" si="17"/>
-        <v>542866310.19922161</v>
+        <v>537049864.95396233</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="14">
         <f xml:space="preserve"> N158</f>
-        <v>18924662.485512793</v>
+        <v>18730814.940226763</v>
       </c>
       <c r="P163" s="13"/>
     </row>
@@ -5435,18 +5435,18 @@
       </c>
       <c r="D164" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E164" s="13">
         <f t="shared" si="18"/>
-        <v>573423328.16439021</v>
+        <v>567279978.61309373</v>
       </c>
       <c r="F164" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G164" s="13">
         <f t="shared" si="17"/>
-        <v>583744948.07134926</v>
+        <v>577491018.22812939</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="14"/>
@@ -5459,18 +5459,18 @@
       </c>
       <c r="D165" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E165" s="13">
         <f t="shared" si="18"/>
-        <v>614301966.03651786</v>
+        <v>607721131.88726079</v>
       </c>
       <c r="F165" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G165" s="13">
         <f t="shared" si="17"/>
-        <v>625359401.42517519</v>
+        <v>618660112.26123154</v>
       </c>
       <c r="H165" s="13"/>
       <c r="I165" s="14"/>
@@ -5483,18 +5483,18 @@
       </c>
       <c r="D166" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E166" s="13">
         <f t="shared" si="18"/>
-        <v>655916419.39034379</v>
+        <v>648890225.92036295</v>
       </c>
       <c r="F166" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G166" s="13">
         <f t="shared" si="17"/>
-        <v>667722914.93936992</v>
+        <v>660570249.98692954</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="14"/>
@@ -5507,18 +5507,18 @@
       </c>
       <c r="D167" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E167" s="13">
         <f t="shared" si="18"/>
-        <v>698279932.90453851</v>
+        <v>690800363.64606094</v>
       </c>
       <c r="F167" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G167" s="13">
         <f t="shared" si="17"/>
-        <v>710848971.69682026</v>
+        <v>703234770.19169009</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="14"/>
@@ -5531,18 +5531,18 @@
       </c>
       <c r="D168" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E168" s="13">
         <f t="shared" si="18"/>
-        <v>741405989.66198885</v>
+        <v>733464883.8508215</v>
       </c>
       <c r="F168" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G168" s="13">
         <f t="shared" si="17"/>
-        <v>754751297.4759047</v>
+        <v>746667251.76013625</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="14"/>
@@ -5555,18 +5555,18 @@
       </c>
       <c r="D169" s="13">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E169" s="13">
         <f t="shared" si="18"/>
-        <v>785308315.4410733</v>
+        <v>776897365.41926765</v>
       </c>
       <c r="F169" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G169" s="13">
         <f t="shared" si="17"/>
-        <v>799443865.11901259</v>
+        <v>790881517.99681449</v>
       </c>
       <c r="H169" s="13"/>
       <c r="I169" s="14"/>
@@ -5579,18 +5579,18 @@
       </c>
       <c r="D170" s="19">
         <f>K159</f>
-        <v>30557017.965168539</v>
+        <v>30230113.659131426</v>
       </c>
       <c r="E170" s="19">
         <f t="shared" si="18"/>
-        <v>794000883.08418119</v>
+        <v>785111631.6559459</v>
       </c>
       <c r="F170" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G170" s="19">
         <f t="shared" si="17"/>
-        <v>808292898.97969639</v>
+        <v>799243641.0257529</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="24">
@@ -5598,26 +5598,26 @@
       </c>
       <c r="J170" s="19">
         <f xml:space="preserve"> (E159 + SUM(D160:D170)) - SUM(I160:I170)</f>
-        <v>678443768.67853212</v>
+        <v>670791912.87892747</v>
       </c>
       <c r="K170" s="19">
         <f xml:space="preserve"> G170 - J170</f>
-        <v>129849130.30116427</v>
+        <v>128451728.14682543</v>
       </c>
       <c r="L170" s="18">
         <v>0.84</v>
       </c>
       <c r="M170" s="19">
         <f xml:space="preserve"> K170 * L170</f>
-        <v>109073269.45297799</v>
+        <v>107899451.64333336</v>
       </c>
       <c r="N170" s="19">
         <f xml:space="preserve"> K170 - M170</f>
-        <v>20775860.848186284</v>
+        <v>20552276.503492072</v>
       </c>
       <c r="O170" s="18">
         <f xml:space="preserve"> K170 / J170 * 100</f>
-        <v>19.139261983949453</v>
+        <v>19.149266066063909</v>
       </c>
       <c r="P170" s="19"/>
     </row>
@@ -5633,28 +5633,28 @@
       </c>
       <c r="D171" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E171" s="13">
         <f xml:space="preserve"> (G170 / 2) + D171 - I171</f>
-        <v>437825320.28066885</v>
+        <v>432923638.88894951</v>
       </c>
       <c r="F171" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G171" s="13">
         <f t="shared" si="17"/>
-        <v>445706176.04572088</v>
+        <v>440716264.38895059</v>
       </c>
       <c r="H171" s="13"/>
       <c r="I171" s="14"/>
       <c r="K171" s="15">
         <f xml:space="preserve"> ((G170 - I171) / 2 / 12)</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="M171" s="9">
         <f xml:space="preserve"> (G170 - I171) / 2</f>
-        <v>404146449.4898482</v>
+        <v>399621820.51287645</v>
       </c>
       <c r="P171" s="13"/>
     </row>
@@ -5665,18 +5665,18 @@
       </c>
       <c r="D172" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E172" s="13">
         <f t="shared" ref="E172:E182" si="19" xml:space="preserve"> G171 + D172 - I172</f>
-        <v>479385046.83654153</v>
+        <v>474018082.76502365</v>
       </c>
       <c r="F172" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G172" s="13">
         <f t="shared" si="17"/>
-        <v>488013977.67959929</v>
+        <v>482550408.25479406</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="14"/>
@@ -5689,18 +5689,18 @@
       </c>
       <c r="D173" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E173" s="13">
         <f t="shared" si="19"/>
-        <v>521692848.47041994</v>
+        <v>515852226.63086712</v>
       </c>
       <c r="F173" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G173" s="13">
         <f t="shared" si="17"/>
-        <v>531083319.7428875</v>
+        <v>525137566.71022272</v>
       </c>
       <c r="H173" s="13"/>
       <c r="I173" s="14"/>
@@ -5713,18 +5713,18 @@
       </c>
       <c r="D174" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E174" s="13">
         <f t="shared" si="19"/>
-        <v>564762190.53370821</v>
+        <v>558439385.08629572</v>
       </c>
       <c r="F174" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G174" s="13">
         <f t="shared" si="17"/>
-        <v>574927909.96331501</v>
+        <v>568491294.01784909</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="14"/>
@@ -5737,23 +5737,23 @@
       </c>
       <c r="D175" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E175" s="13">
         <f t="shared" si="19"/>
-        <v>587830919.90594947</v>
+        <v>581240835.89042997</v>
       </c>
       <c r="F175" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G175" s="13">
         <f t="shared" si="17"/>
-        <v>598411876.46425653</v>
+        <v>591703170.93645775</v>
       </c>
       <c r="H175" s="13"/>
       <c r="I175" s="14">
         <f xml:space="preserve"> N170</f>
-        <v>20775860.848186284</v>
+        <v>20552276.503492072</v>
       </c>
       <c r="P175" s="13"/>
     </row>
@@ -5764,18 +5764,18 @@
       </c>
       <c r="D176" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E176" s="13">
         <f t="shared" si="19"/>
-        <v>632090747.25507724</v>
+        <v>625004989.31253076</v>
       </c>
       <c r="F176" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G176" s="13">
         <f t="shared" si="17"/>
-        <v>643468380.70566869</v>
+        <v>636255079.12015629</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="14"/>
@@ -5788,18 +5788,18 @@
       </c>
       <c r="D177" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E177" s="13">
         <f t="shared" si="19"/>
-        <v>677147251.49648941</v>
+        <v>669556897.49622929</v>
       </c>
       <c r="F177" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G177" s="13">
         <f t="shared" si="17"/>
-        <v>689335902.02342618</v>
+        <v>681608921.65116143</v>
       </c>
       <c r="H177" s="13"/>
       <c r="I177" s="14"/>
@@ -5812,18 +5812,18 @@
       </c>
       <c r="D178" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E178" s="13">
         <f t="shared" si="19"/>
-        <v>723014772.81424689</v>
+        <v>714910740.02723444</v>
       </c>
       <c r="F178" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G178" s="13">
         <f t="shared" si="17"/>
-        <v>736029038.72490335</v>
+        <v>727779133.34772468</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="14"/>
@@ -5836,18 +5836,18 @@
       </c>
       <c r="D179" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E179" s="13">
         <f t="shared" si="19"/>
-        <v>769707909.51572406</v>
+        <v>761080951.72379768</v>
       </c>
       <c r="F179" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G179" s="13">
         <f t="shared" si="17"/>
-        <v>783562651.88700712</v>
+        <v>774780408.85482609</v>
       </c>
       <c r="H179" s="13"/>
       <c r="I179" s="14"/>
@@ -5860,18 +5860,18 @@
       </c>
       <c r="D180" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E180" s="13">
         <f t="shared" si="19"/>
-        <v>817241522.67782784</v>
+        <v>808082227.2308991</v>
       </c>
       <c r="F180" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G180" s="13">
         <f t="shared" si="17"/>
-        <v>831951870.0860287</v>
+        <v>822627707.32105529</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="14"/>
@@ -5884,18 +5884,18 @@
       </c>
       <c r="D181" s="13">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E181" s="13">
         <f t="shared" si="19"/>
-        <v>865630740.87684941</v>
+        <v>855929525.6971283</v>
       </c>
       <c r="F181" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G181" s="13">
         <f t="shared" si="17"/>
-        <v>881212094.21263266</v>
+        <v>871336257.15967655</v>
       </c>
       <c r="H181" s="13"/>
       <c r="I181" s="14"/>
@@ -5908,18 +5908,18 @@
       </c>
       <c r="D182" s="19">
         <f>K171</f>
-        <v>33678870.790820681</v>
+        <v>33301818.376073036</v>
       </c>
       <c r="E182" s="19">
         <f t="shared" si="19"/>
-        <v>878890965.00345337</v>
+        <v>868638075.53574955</v>
       </c>
       <c r="F182" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G182" s="19">
         <f t="shared" si="17"/>
-        <v>894711002.37351549</v>
+        <v>884273560.89539301</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="24">
@@ -5927,26 +5927,26 @@
       </c>
       <c r="J182" s="19">
         <f xml:space="preserve"> (E171 + SUM(D172:D182)) - SUM(I172:I182)</f>
-        <v>751517038.13151002</v>
+        <v>742691364.5222609</v>
       </c>
       <c r="K182" s="19">
         <f xml:space="preserve"> G182 - J182</f>
-        <v>143193964.24200547</v>
+        <v>141582196.37313211</v>
       </c>
       <c r="L182" s="18">
         <v>0.84</v>
       </c>
       <c r="M182" s="19">
         <f xml:space="preserve"> K182 * L182</f>
-        <v>120282929.96328458</v>
+        <v>118929044.95343097</v>
       </c>
       <c r="N182" s="19">
         <f xml:space="preserve"> K182 - M182</f>
-        <v>22911034.278720886</v>
+        <v>22653151.419701144</v>
       </c>
       <c r="O182" s="18">
         <f xml:space="preserve"> K182 / J182 * 100</f>
-        <v>19.053987731007048</v>
+        <v>19.063396066844724</v>
       </c>
       <c r="P182" s="19"/>
     </row>
@@ -5962,28 +5962,28 @@
       </c>
       <c r="D183" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E183" s="13">
         <f xml:space="preserve"> (G182 / 2) + D183 - I183</f>
-        <v>484635126.28565425</v>
+        <v>478981512.15167123</v>
       </c>
       <c r="F183" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G183" s="13">
         <f t="shared" si="17"/>
-        <v>493358558.55879605</v>
+        <v>487603179.37040132</v>
       </c>
       <c r="H183" s="13"/>
       <c r="I183" s="14"/>
       <c r="K183" s="15">
         <f xml:space="preserve"> ((G182 - I183) / 2 / 12)</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="M183" s="9">
         <f xml:space="preserve"> (G182 - I183) / 2</f>
-        <v>447355501.18675774</v>
+        <v>442136780.44769651</v>
       </c>
       <c r="P183" s="13"/>
     </row>
@@ -5994,18 +5994,18 @@
       </c>
       <c r="D184" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E184" s="13">
         <f t="shared" ref="E184:E194" si="20" xml:space="preserve"> G183 + D184 - I184</f>
-        <v>530638183.65769255</v>
+        <v>524447911.07437605</v>
       </c>
       <c r="F184" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G184" s="13">
         <f t="shared" si="17"/>
-        <v>540189670.96353102</v>
+        <v>533887973.47371483</v>
       </c>
       <c r="H184" s="13"/>
       <c r="I184" s="14"/>
@@ -6018,18 +6018,18 @@
       </c>
       <c r="D185" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E185" s="13">
         <f t="shared" si="20"/>
-        <v>577469296.06242752</v>
+        <v>570732705.17768955</v>
       </c>
       <c r="F185" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G185" s="13">
         <f t="shared" si="17"/>
-        <v>587863743.39155126</v>
+        <v>581005893.87088799</v>
       </c>
       <c r="H185" s="13"/>
       <c r="I185" s="14"/>
@@ -6042,18 +6042,18 @@
       </c>
       <c r="D186" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E186" s="13">
         <f t="shared" si="20"/>
-        <v>625143368.49044776</v>
+        <v>617850625.57486272</v>
       </c>
       <c r="F186" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G186" s="13">
         <f t="shared" si="17"/>
-        <v>636395949.12327588</v>
+        <v>628971936.8352102</v>
       </c>
       <c r="H186" s="13"/>
       <c r="I186" s="14"/>
@@ -6066,23 +6066,23 @@
       </c>
       <c r="D187" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E187" s="13">
         <f t="shared" si="20"/>
-        <v>650764539.94345152</v>
+        <v>643163517.11948383</v>
       </c>
       <c r="F187" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G187" s="13">
         <f t="shared" si="17"/>
-        <v>662478301.66243362</v>
+        <v>654740460.42763448</v>
       </c>
       <c r="H187" s="13"/>
       <c r="I187" s="14">
         <f xml:space="preserve"> N182</f>
-        <v>22911034.278720886</v>
+        <v>22653151.419701144</v>
       </c>
       <c r="P187" s="13"/>
     </row>
@@ -6093,18 +6093,18 @@
       </c>
       <c r="D188" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E188" s="13">
         <f t="shared" si="20"/>
-        <v>699757926.76133013</v>
+        <v>691585192.1316092</v>
       </c>
       <c r="F188" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G188" s="13">
         <f t="shared" si="17"/>
-        <v>712353569.44303405</v>
+        <v>704033725.58997822</v>
       </c>
       <c r="H188" s="13"/>
       <c r="I188" s="14"/>
@@ -6117,18 +6117,18 @@
       </c>
       <c r="D189" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E189" s="13">
         <f t="shared" si="20"/>
-        <v>749633194.54193056</v>
+        <v>740878457.29395294</v>
       </c>
       <c r="F189" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G189" s="13">
         <f t="shared" si="17"/>
-        <v>763126592.04368532</v>
+        <v>754214269.52524412</v>
       </c>
       <c r="H189" s="13"/>
       <c r="I189" s="14"/>
@@ -6141,18 +6141,18 @@
       </c>
       <c r="D190" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E190" s="13">
         <f t="shared" si="20"/>
-        <v>800406217.14258182</v>
+        <v>791059001.22921884</v>
       </c>
       <c r="F190" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G190" s="13">
         <f t="shared" si="17"/>
-        <v>814813529.0511483</v>
+        <v>805298063.2513448</v>
       </c>
       <c r="H190" s="13"/>
       <c r="I190" s="14"/>
@@ -6165,18 +6165,18 @@
       </c>
       <c r="D191" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E191" s="13">
         <f t="shared" si="20"/>
-        <v>852093154.1500448</v>
+        <v>842142794.95531952</v>
       </c>
       <c r="F191" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G191" s="13">
         <f t="shared" si="17"/>
-        <v>867430830.92474556</v>
+        <v>857301365.26451528</v>
       </c>
       <c r="H191" s="13"/>
       <c r="I191" s="14"/>
@@ -6189,18 +6189,18 @@
       </c>
       <c r="D192" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E192" s="13">
         <f t="shared" si="20"/>
-        <v>904710456.02364206</v>
+        <v>894146096.96849</v>
       </c>
       <c r="F192" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G192" s="13">
         <f t="shared" si="17"/>
-        <v>920995244.23206758</v>
+        <v>910240726.71392286</v>
       </c>
       <c r="H192" s="13"/>
       <c r="I192" s="14"/>
@@ -6213,18 +6213,18 @@
       </c>
       <c r="D193" s="13">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E193" s="13">
         <f t="shared" si="20"/>
-        <v>958274869.33096409</v>
+        <v>947085458.41789758</v>
       </c>
       <c r="F193" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G193" s="13">
         <f t="shared" si="17"/>
-        <v>975523816.97892141</v>
+        <v>964132996.66941977</v>
       </c>
       <c r="H193" s="13"/>
       <c r="I193" s="14"/>
@@ -6237,18 +6237,18 @@
       </c>
       <c r="D194" s="19">
         <f>K183</f>
-        <v>37279625.098896481</v>
+        <v>36844731.703974709</v>
       </c>
       <c r="E194" s="19">
         <f t="shared" si="20"/>
-        <v>876803442.07781792</v>
+        <v>864977728.37339449</v>
       </c>
       <c r="F194" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G194" s="19">
         <f t="shared" si="17"/>
-        <v>892585904.0352186</v>
+        <v>880547327.4841156</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="24">
@@ -6256,26 +6256,26 @@
       </c>
       <c r="J194" s="19">
         <f xml:space="preserve"> (E183 + SUM(D184:D194)) - SUM(I184:I194)</f>
-        <v>735799968.09479475</v>
+        <v>725620409.47569203</v>
       </c>
       <c r="K194" s="19">
         <f xml:space="preserve"> G194 - J194</f>
-        <v>156785935.94042385</v>
+        <v>154926918.00842357</v>
       </c>
       <c r="L194" s="18">
         <v>0.84</v>
       </c>
       <c r="M194" s="19">
         <f xml:space="preserve"> K194 * L194</f>
-        <v>131700186.18995602</v>
+        <v>130138611.12707579</v>
       </c>
       <c r="N194" s="19">
         <f xml:space="preserve"> K194 - M194</f>
-        <v>25085749.750467822</v>
+        <v>24788306.881347775</v>
       </c>
       <c r="O194" s="18">
         <f xml:space="preserve"> K194 / J194 * 100</f>
-        <v>21.308228151516413</v>
+        <v>21.350959259865409</v>
       </c>
       <c r="P194" s="19"/>
     </row>
@@ -6291,28 +6291,28 @@
       </c>
       <c r="D195" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E195" s="4">
         <f xml:space="preserve"> (G194 / 2) + D195 - I195</f>
-        <v>483484031.35241008</v>
+        <v>476963135.72056264</v>
       </c>
       <c r="F195" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G195" s="4">
         <f t="shared" si="17"/>
-        <v>492186743.91675347</v>
+        <v>485548472.16353273</v>
       </c>
       <c r="H195" s="4"/>
       <c r="I195" s="5"/>
       <c r="K195" s="6">
         <f xml:space="preserve"> ((G194 - I195) / 2 / 12)</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="M195" s="9">
         <f xml:space="preserve"> (G194 - I195) / 2</f>
-        <v>446292952.0176093</v>
+        <v>440273663.7420578</v>
       </c>
       <c r="N195" s="7" t="s">
         <v>1</v>
@@ -6326,18 +6326,18 @@
       </c>
       <c r="D196" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E196" s="4">
         <f t="shared" ref="E196:E206" si="21" xml:space="preserve"> G195 + D196 - I196</f>
-        <v>529377823.25155425</v>
+        <v>522237944.14203757</v>
       </c>
       <c r="F196" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G196" s="4">
         <f t="shared" si="17"/>
-        <v>538906624.07008219</v>
+        <v>531638227.13659424</v>
       </c>
       <c r="H196" s="4"/>
       <c r="I196" s="5"/>
@@ -6350,18 +6350,18 @@
       </c>
       <c r="D197" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E197" s="4">
         <f t="shared" si="21"/>
-        <v>576097703.40488291</v>
+        <v>568327699.11509907</v>
       </c>
       <c r="F197" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G197" s="4">
         <f t="shared" si="17"/>
-        <v>586467462.06617081</v>
+        <v>578557597.69917083</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" s="5"/>
@@ -6374,18 +6374,18 @@
       </c>
       <c r="D198" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E198" s="4">
         <f t="shared" si="21"/>
-        <v>623658541.40097153</v>
+        <v>615247069.6776756</v>
       </c>
       <c r="F198" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G198" s="4">
         <f t="shared" si="17"/>
-        <v>634884395.14618897</v>
+        <v>626321516.9318738</v>
       </c>
       <c r="H198" s="4"/>
       <c r="I198" s="5"/>
@@ -6398,23 +6398,23 @@
       </c>
       <c r="D199" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E199" s="4">
         <f t="shared" si="21"/>
-        <v>646989724.73052192</v>
+        <v>638222682.0290308</v>
       </c>
       <c r="F199" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G199" s="4">
         <f t="shared" si="17"/>
-        <v>658635539.77567136</v>
+        <v>649710690.30555332</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" s="5">
         <f xml:space="preserve"> N194</f>
-        <v>25085749.750467822</v>
+        <v>24788306.881347775</v>
       </c>
       <c r="P199" s="4"/>
     </row>
@@ -6425,18 +6425,18 @@
       </c>
       <c r="D200" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E200" s="4">
         <f t="shared" si="21"/>
-        <v>695826619.11047208</v>
+        <v>686400162.28405809</v>
       </c>
       <c r="F200" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G200" s="4">
         <f t="shared" si="17"/>
-        <v>708351498.25446057</v>
+        <v>698755365.20517111</v>
       </c>
       <c r="H200" s="4"/>
       <c r="I200" s="5"/>
@@ -6449,18 +6449,18 @@
       </c>
       <c r="D201" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E201" s="4">
         <f t="shared" si="21"/>
-        <v>745542577.58926129</v>
+        <v>735444837.18367589</v>
       </c>
       <c r="F201" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G201" s="4">
         <f t="shared" si="17"/>
-        <v>758962343.98586798</v>
+        <v>748682844.25298202</v>
       </c>
       <c r="H201" s="4"/>
       <c r="I201" s="5"/>
@@ -6473,18 +6473,18 @@
       </c>
       <c r="D202" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E202" s="4">
         <f t="shared" si="21"/>
-        <v>796153423.3206687</v>
+        <v>785372316.2314868</v>
       </c>
       <c r="F202" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G202" s="4">
         <f t="shared" si="17"/>
-        <v>810484184.94044077</v>
+        <v>799509017.9236536</v>
       </c>
       <c r="H202" s="4"/>
       <c r="I202" s="5"/>
@@ -6497,18 +6497,18 @@
       </c>
       <c r="D203" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E203" s="4">
         <f t="shared" si="21"/>
-        <v>847675264.27524149</v>
+        <v>836198489.90215838</v>
       </c>
       <c r="F203" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G203" s="4">
         <f t="shared" si="17"/>
-        <v>862933419.03219581</v>
+        <v>851250062.72039723</v>
       </c>
       <c r="H203" s="4"/>
       <c r="I203" s="5"/>
@@ -6521,18 +6521,18 @@
       </c>
       <c r="D204" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E204" s="4">
         <f t="shared" si="21"/>
-        <v>900124498.36699653</v>
+        <v>887939534.69890201</v>
       </c>
       <c r="F204" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G204" s="4">
         <f t="shared" si="17"/>
-        <v>916326739.3376025</v>
+        <v>903922446.32348228</v>
       </c>
       <c r="H204" s="4"/>
       <c r="I204" s="5"/>
@@ -6545,18 +6545,18 @@
       </c>
       <c r="D205" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E205" s="4">
         <f t="shared" si="21"/>
-        <v>953517818.67240322</v>
+        <v>940611918.30198705</v>
       </c>
       <c r="F205" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G205" s="4">
         <f t="shared" si="17"/>
-        <v>970681139.40850651</v>
+        <v>957542932.83142281</v>
       </c>
       <c r="H205" s="4"/>
       <c r="I205" s="5"/>
@@ -6569,18 +6569,18 @@
       </c>
       <c r="D206" s="4">
         <f>K195</f>
-        <v>37191079.334800772</v>
+        <v>36689471.978504814</v>
       </c>
       <c r="E206" s="4">
         <f t="shared" si="21"/>
-        <v>967872218.74330723</v>
+        <v>954232404.80992758</v>
       </c>
       <c r="F206" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G206" s="4">
         <f t="shared" si="17"/>
-        <v>985293918.68068671</v>
+        <v>971408588.09650624</v>
       </c>
       <c r="H206" s="4"/>
       <c r="I206" s="17">
@@ -6588,26 +6588,26 @@
       </c>
       <c r="J206" s="4">
         <f xml:space="preserve"> (E195 + SUM(D196:D206)) - SUM(I196:I206)</f>
-        <v>827500154.28475082</v>
+        <v>815759020.60276783</v>
       </c>
       <c r="K206" s="9">
         <f xml:space="preserve"> G206 - J206</f>
-        <v>157793764.39593589</v>
+        <v>155649567.49373841</v>
       </c>
       <c r="L206" s="3">
         <v>0.84</v>
       </c>
       <c r="M206" s="4">
         <f xml:space="preserve"> K206 * L206</f>
-        <v>132546762.09258614</v>
+        <v>130745636.69474027</v>
       </c>
       <c r="N206" s="4">
         <f xml:space="preserve"> K206 - M206</f>
-        <v>25247002.303349748</v>
+        <v>24903930.798998147</v>
       </c>
       <c r="O206" s="3">
         <f xml:space="preserve"> K206 / J206 * 100</f>
-        <v>19.068729302210805</v>
+        <v>19.080336663482836</v>
       </c>
       <c r="P206" s="4"/>
     </row>
@@ -6623,28 +6623,28 @@
       </c>
       <c r="D207" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E207" s="4">
         <f xml:space="preserve"> (G206 / 2) + D207 - I207</f>
-        <v>533700872.61870527</v>
+        <v>526179651.88560754</v>
       </c>
       <c r="F207" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G207" s="4">
         <f t="shared" si="17"/>
-        <v>543307488.32584202</v>
+        <v>535650885.6195485</v>
       </c>
       <c r="H207" s="4"/>
       <c r="I207" s="5"/>
       <c r="K207" s="6">
         <f xml:space="preserve"> ((G206 - I207) / 2 / 12)</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="M207" s="9">
         <f xml:space="preserve"> (G206 - I207) / 2</f>
-        <v>492646959.34034336</v>
+        <v>485704294.04825312</v>
       </c>
       <c r="P207" s="4"/>
     </row>
@@ -6655,18 +6655,18 @@
       </c>
       <c r="D208" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E208" s="4">
         <f t="shared" ref="E208:E218" si="22" xml:space="preserve"> G207 + D208 - I208</f>
-        <v>584361401.60420394</v>
+        <v>576126243.45690298</v>
       </c>
       <c r="F208" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G208" s="4">
         <f t="shared" si="17"/>
-        <v>594879906.83307958</v>
+        <v>586496515.83912718</v>
       </c>
       <c r="H208" s="4"/>
       <c r="I208" s="5"/>
@@ -6679,18 +6679,18 @@
       </c>
       <c r="D209" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E209" s="4">
         <f t="shared" si="22"/>
-        <v>635933820.11144149</v>
+        <v>626971873.6764816</v>
       </c>
       <c r="F209" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G209" s="4">
         <f t="shared" si="17"/>
-        <v>647380628.87344742</v>
+        <v>638257367.40265822</v>
       </c>
       <c r="H209" s="4"/>
       <c r="I209" s="5"/>
@@ -6703,18 +6703,18 @@
       </c>
       <c r="D210" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E210" s="4">
         <f t="shared" si="22"/>
-        <v>688434542.15180933</v>
+        <v>678732725.24001265</v>
       </c>
       <c r="F210" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G210" s="4">
         <f t="shared" si="17"/>
-        <v>700826363.91054189</v>
+        <v>690949914.29433286</v>
       </c>
       <c r="H210" s="4"/>
       <c r="I210" s="5"/>
@@ -6727,23 +6727,23 @@
       </c>
       <c r="D211" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E211" s="4">
         <f t="shared" si="22"/>
-        <v>716633274.88555408</v>
+        <v>706521341.33268917</v>
       </c>
       <c r="F211" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G211" s="4">
         <f t="shared" si="17"/>
-        <v>729532673.83349407</v>
+        <v>719238725.47667754</v>
       </c>
       <c r="H211" s="4"/>
       <c r="I211" s="5">
         <f xml:space="preserve"> N206</f>
-        <v>25247002.303349748</v>
+        <v>24903930.798998147</v>
       </c>
       <c r="P211" s="4"/>
     </row>
@@ -6754,18 +6754,18 @@
       </c>
       <c r="D212" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E212" s="4">
         <f t="shared" si="22"/>
-        <v>770586587.11185598</v>
+        <v>759714083.31403196</v>
       </c>
       <c r="F212" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G212" s="4">
         <f t="shared" si="17"/>
-        <v>784457145.67986941</v>
+        <v>773388936.81368458</v>
       </c>
       <c r="H212" s="4"/>
       <c r="I212" s="5"/>
@@ -6778,18 +6778,18 @@
       </c>
       <c r="D213" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E213" s="4">
         <f t="shared" si="22"/>
-        <v>825511058.95823133</v>
+        <v>813864294.651039</v>
       </c>
       <c r="F213" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G213" s="4">
         <f t="shared" si="17"/>
-        <v>840370258.01947951</v>
+        <v>828513851.95475769</v>
       </c>
       <c r="H213" s="4"/>
       <c r="I213" s="5"/>
@@ -6802,18 +6802,18 @@
       </c>
       <c r="D214" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E214" s="4">
         <f t="shared" si="22"/>
-        <v>881424171.29784143</v>
+        <v>868989209.79211211</v>
       </c>
       <c r="F214" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G214" s="4">
         <f t="shared" si="17"/>
-        <v>897289806.38120258</v>
+        <v>884631015.5683701</v>
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="5"/>
@@ -6826,18 +6826,18 @@
       </c>
       <c r="D215" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E215" s="4">
         <f t="shared" si="22"/>
-        <v>938343719.6595645</v>
+        <v>925106373.40572453</v>
       </c>
       <c r="F215" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G215" s="4">
         <f t="shared" si="17"/>
-        <v>955233906.6134367</v>
+        <v>941758288.12702751</v>
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="5"/>
@@ -6850,18 +6850,18 @@
       </c>
       <c r="D216" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E216" s="4">
         <f t="shared" si="22"/>
-        <v>996287819.89179862</v>
+        <v>982233645.96438193</v>
       </c>
       <c r="F216" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G216" s="4">
         <f t="shared" si="17"/>
-        <v>1014221000.649851</v>
+        <v>999913851.59174085</v>
       </c>
       <c r="H216" s="4"/>
       <c r="I216" s="5"/>
@@ -6874,18 +6874,18 @@
       </c>
       <c r="D217" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E217" s="4">
         <f t="shared" si="22"/>
-        <v>1055274913.9282129</v>
+        <v>1040389209.4290953</v>
       </c>
       <c r="F217" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G217" s="4">
         <f t="shared" si="17"/>
-        <v>1074269862.3789208</v>
+        <v>1059116215.1988189</v>
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="5"/>
@@ -6898,18 +6898,18 @@
       </c>
       <c r="D218" s="4">
         <f>K207</f>
-        <v>41053913.278361946</v>
+        <v>40475357.837354429</v>
       </c>
       <c r="E218" s="4">
         <f t="shared" si="22"/>
-        <v>1075323775.6572828</v>
+        <v>1059591573.0361733</v>
       </c>
       <c r="F218" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G218" s="4">
         <f t="shared" si="17"/>
-        <v>1094679603.6191139</v>
+        <v>1078664221.3508244</v>
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="17">
@@ -6917,26 +6917,26 @@
       </c>
       <c r="J218" s="4">
         <f xml:space="preserve"> (E207 + SUM(D208:D218)) - SUM(I208:I218)</f>
-        <v>920046916.37733686</v>
+        <v>906504657.29750812</v>
       </c>
       <c r="K218" s="9">
         <f xml:space="preserve"> G218 - J218</f>
-        <v>174632687.24177706</v>
+        <v>172159564.05331624</v>
       </c>
       <c r="L218" s="3">
         <v>0.84</v>
       </c>
       <c r="M218" s="4">
         <f xml:space="preserve"> K218 * L218</f>
-        <v>146691457.28309274</v>
+        <v>144614033.80478564</v>
       </c>
       <c r="N218" s="4">
         <f xml:space="preserve"> K218 - M218</f>
-        <v>27941229.958684325</v>
+        <v>27545530.248530596</v>
       </c>
       <c r="O218" s="3">
         <f xml:space="preserve"> K218 / J218 * 100</f>
-        <v>18.980845882228394</v>
+        <v>18.99158075663529</v>
       </c>
       <c r="P218" s="4"/>
     </row>
@@ -6952,28 +6952,28 @@
       </c>
       <c r="D219" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E219" s="4">
         <f xml:space="preserve"> (G218 / 2) + D219 - I219</f>
-        <v>592951451.96035337</v>
+        <v>584276453.23169649</v>
       </c>
       <c r="F219" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G219" s="4">
         <f t="shared" si="17"/>
-        <v>603624578.09563971</v>
+        <v>594793429.38986707</v>
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="5"/>
       <c r="K219" s="6">
         <f xml:space="preserve"> ((G218 - I219) / 2 / 12)</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="M219" s="9">
         <f xml:space="preserve"> (G218 - I219) / 2</f>
-        <v>547339801.80955696</v>
+        <v>539332110.67541218</v>
       </c>
       <c r="P219" s="4"/>
     </row>
@@ -6984,18 +6984,18 @@
       </c>
       <c r="D220" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E220" s="4">
         <f t="shared" ref="E220:E230" si="23" xml:space="preserve"> G219 + D220 - I220</f>
-        <v>649236228.24643612</v>
+        <v>639737771.94615138</v>
       </c>
       <c r="F220" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G220" s="4">
         <f t="shared" si="17"/>
-        <v>660922480.35487199</v>
+        <v>651253051.84118211</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="5"/>
@@ -7008,18 +7008,18 @@
       </c>
       <c r="D221" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E221" s="4">
         <f t="shared" si="23"/>
-        <v>706534130.5056684</v>
+        <v>696197394.39746642</v>
       </c>
       <c r="F221" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G221" s="4">
         <f t="shared" si="17"/>
-        <v>719251744.85477042</v>
+        <v>708728947.49662077</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="5"/>
@@ -7032,18 +7032,18 @@
       </c>
       <c r="D222" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E222" s="4">
         <f t="shared" si="23"/>
-        <v>764863395.00556684</v>
+        <v>753673290.05290508</v>
       </c>
       <c r="F222" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G222" s="4">
         <f t="shared" ref="G222:G254" si="24" xml:space="preserve"> (E222 * F222) + E222</f>
-        <v>778630936.11566699</v>
+        <v>767239409.27385736</v>
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="5"/>
@@ -7056,23 +7056,23 @@
       </c>
       <c r="D223" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E223" s="4">
         <f t="shared" si="23"/>
-        <v>796301356.30777907</v>
+        <v>784638221.58161104</v>
       </c>
       <c r="F223" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G223" s="4">
         <f t="shared" si="24"/>
-        <v>810634780.72131908</v>
+        <v>798761709.57008004</v>
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="5">
         <f xml:space="preserve"> N218</f>
-        <v>27941229.958684325</v>
+        <v>27545530.248530596</v>
       </c>
       <c r="P223" s="4"/>
     </row>
@@ -7083,18 +7083,18 @@
       </c>
       <c r="D224" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E224" s="4">
         <f t="shared" si="23"/>
-        <v>856246430.87211549</v>
+        <v>843706052.12636435</v>
       </c>
       <c r="F224" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G224" s="4">
         <f t="shared" si="24"/>
-        <v>871658866.62781358</v>
+        <v>858892761.06463885</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="5"/>
@@ -7107,18 +7107,18 @@
       </c>
       <c r="D225" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E225" s="4">
         <f t="shared" si="23"/>
-        <v>917270516.77860999</v>
+        <v>903837103.62092316</v>
       </c>
       <c r="F225" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G225" s="4">
         <f t="shared" si="24"/>
-        <v>933781386.08062494</v>
+        <v>920106171.48609972</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="5"/>
@@ -7131,18 +7131,18 @@
       </c>
       <c r="D226" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E226" s="4">
         <f t="shared" si="23"/>
-        <v>979393036.23142135</v>
+        <v>965050514.04238403</v>
       </c>
       <c r="F226" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G226" s="4">
         <f t="shared" si="24"/>
-        <v>997022110.88358688</v>
+        <v>982421423.29514694</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="5"/>
@@ -7155,18 +7155,18 @@
       </c>
       <c r="D227" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E227" s="4">
         <f t="shared" si="23"/>
-        <v>1042633761.0343833</v>
+        <v>1027365765.8514313</v>
       </c>
       <c r="F227" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G227" s="4">
         <f t="shared" si="24"/>
-        <v>1061401168.7330022</v>
+        <v>1045858349.636757</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="5"/>
@@ -7179,18 +7179,18 @@
       </c>
       <c r="D228" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E228" s="4">
         <f t="shared" si="23"/>
-        <v>1107012818.8837986</v>
+        <v>1090802692.1930413</v>
       </c>
       <c r="F228" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G228" s="4">
         <f t="shared" si="24"/>
-        <v>1126939049.6237071</v>
+        <v>1110437140.6525161</v>
       </c>
       <c r="H228" s="4"/>
       <c r="I228" s="5"/>
@@ -7203,18 +7203,18 @@
       </c>
       <c r="D229" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E229" s="4">
         <f t="shared" si="23"/>
-        <v>1172550699.7745035</v>
+        <v>1155381483.2088006</v>
       </c>
       <c r="F229" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G229" s="4">
         <f t="shared" si="24"/>
-        <v>1193656612.3704445</v>
+        <v>1176178349.906559</v>
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="5"/>
@@ -7227,18 +7227,18 @@
       </c>
       <c r="D230" s="4">
         <f>K219</f>
-        <v>45611650.150796413</v>
+        <v>44944342.556284346</v>
       </c>
       <c r="E230" s="4">
         <f t="shared" si="23"/>
-        <v>1199268262.5212409</v>
+        <v>1181122692.4628434</v>
       </c>
       <c r="F230" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G230" s="4">
         <f t="shared" si="24"/>
-        <v>1220855091.2466233</v>
+        <v>1202382900.9271746</v>
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="17">
@@ -7246,26 +7246,26 @@
       </c>
       <c r="J230" s="4">
         <f xml:space="preserve"> (E219 + SUM(D220:D230)) - SUM(I220:I230)</f>
-        <v>1026738373.6604296</v>
+        <v>1011118691.1022937</v>
       </c>
       <c r="K230" s="9">
         <f xml:space="preserve"> G230 - J230</f>
-        <v>194116717.58619368</v>
+        <v>191264209.82488084</v>
       </c>
       <c r="L230" s="3">
         <v>0.84</v>
       </c>
       <c r="M230" s="4">
         <f xml:space="preserve"> K230 * L230</f>
-        <v>163058042.77240267</v>
+        <v>160661936.25289989</v>
       </c>
       <c r="N230" s="4">
         <f xml:space="preserve"> K230 - M230</f>
-        <v>31058674.813791007</v>
+        <v>30602273.571980953</v>
       </c>
       <c r="O230" s="3">
         <f xml:space="preserve"> K230 / J230 * 100</f>
-        <v>18.906152001911384</v>
+        <v>18.916098723916367</v>
       </c>
       <c r="P230" s="4"/>
     </row>
@@ -7281,28 +7281,28 @@
       </c>
       <c r="D231" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E231" s="4">
         <f xml:space="preserve"> (G230 / 2) + D231 - I231</f>
-        <v>661296507.7585876</v>
+        <v>651290738.00221956</v>
       </c>
       <c r="F231" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G231" s="4">
         <f t="shared" si="24"/>
-        <v>673199844.89824224</v>
+        <v>663013971.28625953</v>
       </c>
       <c r="H231" s="4"/>
       <c r="I231" s="5"/>
       <c r="K231" s="6">
         <f xml:space="preserve"> ((G230 - I231) / 2 / 12)</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="M231" s="9">
         <f xml:space="preserve"> (G230 - I231) / 2</f>
-        <v>610427545.62331164</v>
+        <v>601191450.46358728</v>
       </c>
       <c r="P231" s="4"/>
     </row>
@@ -7313,18 +7313,18 @@
       </c>
       <c r="D232" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E232" s="4">
         <f t="shared" ref="E232:E242" si="25" xml:space="preserve"> G231 + D232 - I232</f>
-        <v>724068807.0335182</v>
+        <v>713113258.82489181</v>
       </c>
       <c r="F232" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G232" s="4">
         <f t="shared" si="24"/>
-        <v>737102045.56012154</v>
+        <v>725949297.48373985</v>
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="5"/>
@@ -7337,18 +7337,18 @@
       </c>
       <c r="D233" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E233" s="4">
         <f t="shared" si="25"/>
-        <v>787971007.6953975</v>
+        <v>776048585.02237213</v>
       </c>
       <c r="F233" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G233" s="4">
         <f t="shared" si="24"/>
-        <v>802154485.83391464</v>
+        <v>790017459.55277479</v>
       </c>
       <c r="H233" s="4"/>
       <c r="I233" s="5"/>
@@ -7361,18 +7361,18 @@
       </c>
       <c r="D234" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E234" s="4">
         <f t="shared" si="25"/>
-        <v>853023447.9691906</v>
+        <v>840116747.09140706</v>
       </c>
       <c r="F234" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G234" s="4">
         <f t="shared" si="24"/>
-        <v>868377870.03263605</v>
+        <v>855238848.53905237</v>
       </c>
       <c r="H234" s="4"/>
       <c r="I234" s="5"/>
@@ -7385,23 +7385,23 @@
       </c>
       <c r="D235" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E235" s="4">
         <f t="shared" si="25"/>
-        <v>888188157.35412097</v>
+        <v>874735862.50570369</v>
       </c>
       <c r="F235" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G235" s="4">
         <f t="shared" si="24"/>
-        <v>904175544.18649518</v>
+        <v>890481108.0308063</v>
       </c>
       <c r="H235" s="4"/>
       <c r="I235" s="5">
         <f xml:space="preserve"> N230</f>
-        <v>31058674.813791007</v>
+        <v>30602273.571980953</v>
       </c>
       <c r="P235" s="4"/>
     </row>
@@ -7412,18 +7412,18 @@
       </c>
       <c r="D236" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E236" s="4">
         <f t="shared" si="25"/>
-        <v>955044506.32177114</v>
+        <v>940580395.56943858</v>
       </c>
       <c r="F236" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G236" s="4">
         <f t="shared" si="24"/>
-        <v>972235307.43556297</v>
+        <v>957510842.68968844</v>
       </c>
       <c r="H236" s="4"/>
       <c r="I236" s="5"/>
@@ -7436,18 +7436,18 @@
       </c>
       <c r="D237" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E237" s="4">
         <f t="shared" si="25"/>
-        <v>1023104269.5708389</v>
+        <v>1007610130.2283207</v>
       </c>
       <c r="F237" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G237" s="4">
         <f t="shared" si="24"/>
-        <v>1041520146.4231141</v>
+        <v>1025747112.5724305</v>
       </c>
       <c r="H237" s="4"/>
       <c r="I237" s="5"/>
@@ -7460,18 +7460,18 @@
       </c>
       <c r="D238" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E238" s="4">
         <f t="shared" si="25"/>
-        <v>1092389108.5583901</v>
+        <v>1075846400.1110628</v>
       </c>
       <c r="F238" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G238" s="4">
         <f t="shared" si="24"/>
-        <v>1112052112.5124412</v>
+        <v>1095211635.313062</v>
       </c>
       <c r="H238" s="4"/>
       <c r="I238" s="5"/>
@@ -7484,18 +7484,18 @@
       </c>
       <c r="D239" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E239" s="4">
         <f t="shared" si="25"/>
-        <v>1162921074.6477172</v>
+        <v>1145310922.8516941</v>
       </c>
       <c r="F239" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G239" s="4">
         <f t="shared" si="24"/>
-        <v>1183853653.9913762</v>
+        <v>1165926519.4630246</v>
       </c>
       <c r="H239" s="4"/>
       <c r="I239" s="5"/>
@@ -7508,18 +7508,18 @@
       </c>
       <c r="D240" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E240" s="4">
         <f t="shared" si="25"/>
-        <v>1234722616.1266522</v>
+        <v>1216025807.001657</v>
       </c>
       <c r="F240" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G240" s="4">
         <f t="shared" si="24"/>
-        <v>1256947623.2169321</v>
+        <v>1237914271.5276868</v>
       </c>
       <c r="H240" s="4"/>
       <c r="I240" s="5"/>
@@ -7532,18 +7532,18 @@
       </c>
       <c r="D241" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E241" s="4">
         <f t="shared" si="25"/>
-        <v>1307816585.3522081</v>
+        <v>1288013559.066319</v>
       </c>
       <c r="F241" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G241" s="4">
         <f t="shared" si="24"/>
-        <v>1331357283.8885479</v>
+        <v>1311197803.1295128</v>
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="5"/>
@@ -7556,18 +7556,18 @@
       </c>
       <c r="D242" s="4">
         <f>K231</f>
-        <v>50868962.135275967</v>
+        <v>50099287.538632274</v>
       </c>
       <c r="E242" s="4">
         <f t="shared" si="25"/>
-        <v>1342226246.023824</v>
+        <v>1321297090.6681452</v>
       </c>
       <c r="F242" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G242" s="4">
         <f t="shared" si="24"/>
-        <v>1366386318.4522529</v>
+        <v>1345080438.3001719</v>
       </c>
       <c r="H242" s="4"/>
       <c r="I242" s="17">
@@ -7575,26 +7575,26 @@
       </c>
       <c r="J242" s="4">
         <f xml:space="preserve"> (E231 + SUM(D232:D242)) - SUM(I232:I242)</f>
-        <v>1149796416.4328322</v>
+        <v>1131780627.3551936</v>
       </c>
       <c r="K242" s="9">
         <f xml:space="preserve"> G242 - J242</f>
-        <v>216589902.01942062</v>
+        <v>213299810.94497824</v>
       </c>
       <c r="L242" s="3">
         <v>0.84</v>
       </c>
       <c r="M242" s="4">
         <f xml:space="preserve"> K242 * L242</f>
-        <v>181935517.69631332</v>
+        <v>179171841.1937817</v>
       </c>
       <c r="N242" s="4">
         <f xml:space="preserve"> K242 - M242</f>
-        <v>34654384.323107302</v>
+        <v>34127969.751196533</v>
       </c>
       <c r="O242" s="3">
         <f xml:space="preserve"> K242 / J242 * 100</f>
-        <v>18.837239264614908</v>
+        <v>18.846391764403037</v>
       </c>
       <c r="P242" s="4"/>
     </row>
@@ -7610,28 +7610,28 @@
       </c>
       <c r="D243" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E243" s="4">
         <f xml:space="preserve"> (G242 / 2) + D243 - I243</f>
-        <v>740125922.49497032</v>
+        <v>728585237.41259313</v>
       </c>
       <c r="F243" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G243" s="4">
         <f t="shared" si="24"/>
-        <v>753448189.09987974</v>
+        <v>741699771.68601978</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="5"/>
       <c r="K243" s="6">
         <f xml:space="preserve"> ((G242 - I243) / 2 / 12)</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="M243" s="9">
         <f xml:space="preserve"> (G242 - I243) / 2</f>
-        <v>683193159.22612643</v>
+        <v>672540219.15008593</v>
       </c>
       <c r="P243" s="4"/>
     </row>
@@ -7643,18 +7643,18 @@
       </c>
       <c r="D244" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E244" s="4">
         <f t="shared" ref="E244:E254" si="26" xml:space="preserve"> G243 + D244 - I244</f>
-        <v>810380952.36872363</v>
+        <v>797744789.94852698</v>
       </c>
       <c r="F244" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G244" s="4">
         <f t="shared" si="24"/>
-        <v>824967809.51136065</v>
+        <v>812104196.16760051</v>
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="5"/>
@@ -7673,18 +7673,18 @@
       </c>
       <c r="D245" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E245" s="4">
         <f t="shared" si="26"/>
-        <v>881900572.78020453</v>
+        <v>868149214.43010771</v>
       </c>
       <c r="F245" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G245" s="4">
         <f t="shared" si="24"/>
-        <v>897774783.09024823</v>
+        <v>883775900.28984964</v>
       </c>
       <c r="H245" s="4"/>
       <c r="I245" s="5"/>
@@ -7703,18 +7703,18 @@
       </c>
       <c r="D246" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E246" s="4">
         <f t="shared" si="26"/>
-        <v>954707546.35909212</v>
+        <v>939820918.55235684</v>
       </c>
       <c r="F246" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G246" s="4">
         <f t="shared" si="24"/>
-        <v>971892282.19355583</v>
+        <v>956737695.0862993</v>
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="5"/>
@@ -7733,23 +7733,23 @@
       </c>
       <c r="D247" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E247" s="4">
         <f t="shared" si="26"/>
-        <v>994170661.13929248</v>
+        <v>978654743.59761</v>
       </c>
       <c r="F247" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G247" s="4">
         <f t="shared" si="24"/>
-        <v>1012065733.0397997</v>
+        <v>996270528.98236692</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="5">
         <f xml:space="preserve"> N242</f>
-        <v>34654384.323107302</v>
+        <v>34127969.751196533</v>
       </c>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
@@ -7766,18 +7766,18 @@
       </c>
       <c r="D248" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E248" s="4">
         <f t="shared" si="26"/>
-        <v>1068998496.3086436</v>
+        <v>1052315547.2448741</v>
       </c>
       <c r="F248" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G248" s="4">
         <f t="shared" si="24"/>
-        <v>1088240469.2421992</v>
+        <v>1071257227.0952818</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="5"/>
@@ -7796,18 +7796,18 @@
       </c>
       <c r="D249" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E249" s="4">
         <f t="shared" si="26"/>
-        <v>1145173232.5110431</v>
+        <v>1127302245.357789</v>
       </c>
       <c r="F249" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G249" s="4">
         <f t="shared" si="24"/>
-        <v>1165786350.6962419</v>
+        <v>1147593685.7742293</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="5"/>
@@ -7826,18 +7826,18 @@
       </c>
       <c r="D250" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E250" s="4">
         <f t="shared" si="26"/>
-        <v>1222719113.9650857</v>
+        <v>1203638704.0367365</v>
       </c>
       <c r="F250" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G250" s="4">
         <f t="shared" si="24"/>
-        <v>1244728058.0164573</v>
+        <v>1225304200.7093978</v>
       </c>
       <c r="H250" s="4"/>
       <c r="I250" s="5"/>
@@ -7856,18 +7856,18 @@
       </c>
       <c r="D251" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E251" s="4">
         <f t="shared" si="26"/>
-        <v>1301660821.2853012</v>
+        <v>1281349218.971905</v>
       </c>
       <c r="F251" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G251" s="4">
         <f t="shared" si="24"/>
-        <v>1325090716.0684366</v>
+        <v>1304413504.9133992</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="5"/>
@@ -7886,18 +7886,18 @@
       </c>
       <c r="D252" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E252" s="4">
         <f t="shared" si="26"/>
-        <v>1382023479.3372805</v>
+        <v>1360458523.1759064</v>
       </c>
       <c r="F252" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G252" s="4">
         <f t="shared" si="24"/>
-        <v>1406899901.9653516</v>
+        <v>1384946776.5930727</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="5"/>
@@ -7916,18 +7916,18 @@
       </c>
       <c r="D253" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E253" s="4">
         <f t="shared" si="26"/>
-        <v>1463832665.2341955</v>
+        <v>1440991794.8555799</v>
       </c>
       <c r="F253" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G253" s="4">
         <f t="shared" si="24"/>
-        <v>1490181653.208411</v>
+        <v>1466929647.1629803</v>
       </c>
       <c r="H253" s="4"/>
       <c r="I253" s="5"/>
@@ -7946,43 +7946,43 @@
       </c>
       <c r="D254" s="4">
         <f>K243</f>
-        <v>56932763.268843867</v>
+        <v>56045018.262507163</v>
       </c>
       <c r="E254" s="4">
         <f t="shared" si="26"/>
-        <v>1547114416.4772549</v>
+        <v>1522974665.4254875</v>
       </c>
       <c r="F254" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G254" s="4">
         <f t="shared" si="24"/>
-        <v>1574962475.9738455</v>
+        <v>1550388209.4031463</v>
       </c>
       <c r="H254" s="4"/>
       <c r="I254" s="5"/>
       <c r="J254" s="4">
         <f xml:space="preserve"> (E243 + SUM(D244:D254)) - SUM(I244:I254)</f>
-        <v>1331731934.1291456</v>
+        <v>1310952468.5489752</v>
       </c>
       <c r="K254" s="9">
         <f xml:space="preserve"> G254 - J254</f>
-        <v>243230541.84469986</v>
+        <v>239435740.85417104</v>
       </c>
       <c r="L254" s="3">
         <v>0.84</v>
       </c>
       <c r="M254" s="4">
         <f xml:space="preserve"> K254 * L254</f>
-        <v>204313655.14954787</v>
+        <v>201126022.31750366</v>
       </c>
       <c r="N254" s="4">
         <f xml:space="preserve"> K254 - M254</f>
-        <v>38916886.695151985</v>
+        <v>38309718.536667377</v>
       </c>
       <c r="O254" s="3">
         <f xml:space="preserve"> K254 / J254 * 100</f>
-        <v>18.264226877142107</v>
+        <v>18.264257980244693</v>
       </c>
     </row>
   </sheetData>
@@ -8019,8 +8019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8542,15 +8542,15 @@
         <v>2500000</v>
       </c>
       <c r="P10" s="1">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ref="Q10" si="4">SUM(C10:P10)</f>
-        <v>6680000</v>
+        <v>6480000</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ref="R10" si="5" xml:space="preserve"> B10 - Q10</f>
-        <v>250000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -8591,7 +8591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F61AFE-825F-4669-B78F-E10BDCEEF433}">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/개인목표.xlsx
+++ b/개인목표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482741B-21F5-4266-BFAC-3DFD5AE9B1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1810AE06-C9A5-488A-8F54-3FBCDC115B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -467,13 +457,13 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,7 +820,7 @@
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="44">
         <v>2022</v>
       </c>
       <c r="C3" s="18">
@@ -857,7 +847,7 @@
       <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="18">
         <v>2</v>
       </c>
@@ -882,7 +872,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="18">
         <v>3</v>
       </c>
@@ -907,7 +897,7 @@
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="18">
         <v>4</v>
       </c>
@@ -932,7 +922,7 @@
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="18">
         <v>5</v>
       </c>
@@ -958,7 +948,7 @@
       <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="18">
         <v>6</v>
       </c>
@@ -983,7 +973,7 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="18">
         <v>7</v>
       </c>
@@ -1008,7 +998,7 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="18">
         <v>8</v>
       </c>
@@ -1033,7 +1023,7 @@
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -1058,7 +1048,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -1083,7 +1073,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="8">
         <v>11</v>
       </c>
@@ -1108,7 +1098,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="18">
         <v>12</v>
       </c>
@@ -1159,7 +1149,7 @@
       <c r="A15" s="8">
         <v>2</